--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U312"/>
+  <dimension ref="A1:U327"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="A328" sqref="A328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4436,7 +4436,7 @@
         <v>0.93700000000000006</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P312" si="13">(C67+D67+E67)/3</f>
+        <f t="shared" ref="P67:P321" si="13">(C67+D67+E67)/3</f>
         <v>0.95766666666666656</v>
       </c>
       <c r="Q67">
@@ -4546,7 +4546,7 @@
         <v>2497691.5</v>
       </c>
       <c r="H69">
-        <f t="shared" ref="H69:H312" si="14">H68+1</f>
+        <f t="shared" ref="H69:H323" si="14">H68+1</f>
         <v>67</v>
       </c>
       <c r="I69">
@@ -17355,23 +17355,23 @@
         <v>0.78866666555404663</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272:Q312" si="37">SUM(P259:P272)/14</f>
+        <f t="shared" ref="Q272:Q327" si="37">SUM(P259:P272)/14</f>
         <v>0.8100476208187285</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272:R312" si="38">P272-Q272</f>
+        <f t="shared" ref="R272:R327" si="38">P272-Q272</f>
         <v>-2.1380955264681867E-2</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272:S312" si="39">AVEDEV(P259:P272)</f>
+        <f t="shared" ref="S272:S327" si="39">AVEDEV(P259:P272)</f>
         <v>7.8163195629509085E-3</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272:T312" si="40">0.015*S272</f>
+        <f t="shared" ref="T272:T327" si="40">0.015*S272</f>
         <v>1.1724479344426362E-4</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272:U312" si="41">R272/T272</f>
+        <f t="shared" ref="U272:U327" si="41">R272/T272</f>
         <v>-182.36166090263143</v>
       </c>
     </row>
@@ -18603,11 +18603,11 @@
         <v>5804115.3476293106</v>
       </c>
       <c r="N292">
-        <f t="shared" ref="N292:N312" si="42">IF(A292&lt;&gt;$K$16,MAX(N291,VLOOKUP(A292,A:C,3)),)</f>
+        <f t="shared" ref="N292:N311" si="42">IF(A292&lt;&gt;$K$16,MAX(N291,VLOOKUP(A292,A:C,3)),)</f>
         <v>0.77399998903274536</v>
       </c>
       <c r="O292">
-        <f t="shared" ref="O292:O312" si="43">IF(A292&lt;&gt;$K$16,MIN(O291,VLOOKUP(A292,A:D,4)),)</f>
+        <f t="shared" ref="O292:O311" si="43">IF(A292&lt;&gt;$K$16,MIN(O291,VLOOKUP(A292,A:D,4)),)</f>
         <v>0.76099997758865356</v>
       </c>
       <c r="P292">
@@ -19863,12 +19863,12 @@
         <v>5555987.6610887097</v>
       </c>
       <c r="N312">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f>VLOOKUP(L17,A:C,3)</f>
+        <v>0.69499999284744263</v>
       </c>
       <c r="O312">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f>VLOOKUP(L17,A:D,4)</f>
+        <v>0.67799997329711914</v>
       </c>
       <c r="P312">
         <f t="shared" si="13"/>
@@ -19893,6 +19893,951 @@
       <c r="U312">
         <f t="shared" si="41"/>
         <v>-112.42427728939072</v>
+      </c>
+    </row>
+    <row r="313" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A313" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B313">
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="C313">
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="D313">
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="E313">
+        <v>0.67900002002716064</v>
+      </c>
+      <c r="F313">
+        <v>2245002</v>
+      </c>
+      <c r="G313">
+        <v>1540.2440185546875</v>
+      </c>
+      <c r="H313">
+        <f t="shared" si="14"/>
+        <v>311</v>
+      </c>
+      <c r="I313">
+        <f>SUM($F$3:F313)/H313</f>
+        <v>5545341.4049437298</v>
+      </c>
+      <c r="N313">
+        <f t="shared" ref="N313:N327" si="44">IF(A313&lt;&gt;$K$17,MAX(N312,VLOOKUP(A313,A:C,3)),)</f>
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="O313">
+        <f t="shared" ref="O313:O327" si="45">IF(A313&lt;&gt;$K$17,MIN(O312,VLOOKUP(A313,A:D,4)),)</f>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="P313">
+        <f t="shared" si="13"/>
+        <v>0.6839999953905741</v>
+      </c>
+      <c r="Q313">
+        <f t="shared" si="37"/>
+        <v>0.71971427826654344</v>
+      </c>
+      <c r="R313">
+        <f t="shared" si="38"/>
+        <v>-3.5714282875969339E-2</v>
+      </c>
+      <c r="S313">
+        <f t="shared" si="39"/>
+        <v>1.4149665021571991E-2</v>
+      </c>
+      <c r="T313">
+        <f t="shared" si="40"/>
+        <v>2.1224497532357987E-4</v>
+      </c>
+      <c r="U313">
+        <f t="shared" si="41"/>
+        <v>-168.26915606139005</v>
+      </c>
+    </row>
+    <row r="314" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A314" s="1">
+        <v>44845</v>
+      </c>
+      <c r="B314">
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="C314">
+        <v>0.68599998950958252</v>
+      </c>
+      <c r="D314">
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="E314">
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="F314">
+        <v>1981100</v>
+      </c>
+      <c r="G314">
+        <v>1354.720947265625</v>
+      </c>
+      <c r="H314">
+        <f t="shared" si="14"/>
+        <v>312</v>
+      </c>
+      <c r="I314">
+        <f>SUM($F$3:F314)/H314</f>
+        <v>5533917.554286859</v>
+      </c>
+      <c r="N314">
+        <f t="shared" si="44"/>
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="O314">
+        <f t="shared" si="45"/>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="P314">
+        <f t="shared" si="13"/>
+        <v>0.68333333730697632</v>
+      </c>
+      <c r="Q314">
+        <f t="shared" si="37"/>
+        <v>0.71419046890167959</v>
+      </c>
+      <c r="R314">
+        <f t="shared" si="38"/>
+        <v>-3.0857131594703269E-2</v>
+      </c>
+      <c r="S314">
+        <f t="shared" si="39"/>
+        <v>1.3095242636544371E-2</v>
+      </c>
+      <c r="T314">
+        <f t="shared" si="40"/>
+        <v>1.9642863954816555E-4</v>
+      </c>
+      <c r="U314">
+        <f t="shared" si="41"/>
+        <v>-157.09079727723159</v>
+      </c>
+    </row>
+    <row r="315" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A315" s="1">
+        <v>44846</v>
+      </c>
+      <c r="B315">
+        <v>0.68199998140335083</v>
+      </c>
+      <c r="C315">
+        <v>0.70200002193450928</v>
+      </c>
+      <c r="D315">
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="E315">
+        <v>0.70200002193450928</v>
+      </c>
+      <c r="F315">
+        <v>3683321</v>
+      </c>
+      <c r="G315">
+        <v>2556.885009765625</v>
+      </c>
+      <c r="H315">
+        <f t="shared" si="14"/>
+        <v>313</v>
+      </c>
+      <c r="I315">
+        <f>SUM($F$3:F315)/H315</f>
+        <v>5528005.1052316297</v>
+      </c>
+      <c r="N315">
+        <f t="shared" si="44"/>
+        <v>0.70200002193450928</v>
+      </c>
+      <c r="O315">
+        <f t="shared" si="45"/>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="P315">
+        <f t="shared" si="13"/>
+        <v>0.6940000057220459</v>
+      </c>
+      <c r="Q315">
+        <f t="shared" si="37"/>
+        <v>0.71069046996888663</v>
+      </c>
+      <c r="R315">
+        <f t="shared" si="38"/>
+        <v>-1.669046424684073E-2</v>
+      </c>
+      <c r="S315">
+        <f t="shared" si="39"/>
+        <v>1.2119049117678693E-2</v>
+      </c>
+      <c r="T315">
+        <f t="shared" si="40"/>
+        <v>1.8178573676518039E-4</v>
+      </c>
+      <c r="U315">
+        <f t="shared" si="41"/>
+        <v>-91.813937351974118</v>
+      </c>
+    </row>
+    <row r="316" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A316" s="1">
+        <v>44847</v>
+      </c>
+      <c r="B316">
+        <v>0.72200000286102295</v>
+      </c>
+      <c r="C316">
+        <v>0.72200000286102295</v>
+      </c>
+      <c r="D316">
+        <v>0.70200002193450928</v>
+      </c>
+      <c r="E316">
+        <v>0.70200002193450928</v>
+      </c>
+      <c r="F316">
+        <v>2085700</v>
+      </c>
+      <c r="G316">
+        <v>1470.1500244140625</v>
+      </c>
+      <c r="H316">
+        <f t="shared" si="14"/>
+        <v>314</v>
+      </c>
+      <c r="I316">
+        <f>SUM($F$3:F316)/H316</f>
+        <v>5517042.3501194268</v>
+      </c>
+      <c r="N316">
+        <f t="shared" si="44"/>
+        <v>0.72200000286102295</v>
+      </c>
+      <c r="O316">
+        <f t="shared" si="45"/>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="P316">
+        <f t="shared" si="13"/>
+        <v>0.70866668224334717</v>
+      </c>
+      <c r="Q316">
+        <f t="shared" si="37"/>
+        <v>0.70897618645713456</v>
+      </c>
+      <c r="R316">
+        <f t="shared" si="38"/>
+        <v>-3.0950421378739268E-4</v>
+      </c>
+      <c r="S316">
+        <f t="shared" si="39"/>
+        <v>1.0792514499352868E-2</v>
+      </c>
+      <c r="T316">
+        <f t="shared" si="40"/>
+        <v>1.61887717490293E-4</v>
+      </c>
+      <c r="U316">
+        <f t="shared" si="41"/>
+        <v>-1.9118449415778005</v>
+      </c>
+    </row>
+    <row r="317" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A317" s="1">
+        <v>44848</v>
+      </c>
+      <c r="B317">
+        <v>0.70099997520446777</v>
+      </c>
+      <c r="C317">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="D317">
+        <v>0.70099997520446777</v>
+      </c>
+      <c r="E317">
+        <v>0.72500002384185791</v>
+      </c>
+      <c r="F317">
+        <v>2803100</v>
+      </c>
+      <c r="G317">
+        <v>2006.97998046875</v>
+      </c>
+      <c r="H317">
+        <f t="shared" si="14"/>
+        <v>315</v>
+      </c>
+      <c r="I317">
+        <f>SUM($F$3:F317)/H317</f>
+        <v>5508426.6601190474</v>
+      </c>
+      <c r="N317">
+        <f t="shared" si="44"/>
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="O317">
+        <f t="shared" si="45"/>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="P317">
+        <f t="shared" si="13"/>
+        <v>0.71799999475479126</v>
+      </c>
+      <c r="Q317">
+        <f t="shared" si="37"/>
+        <v>0.70821428157034383</v>
+      </c>
+      <c r="R317">
+        <f t="shared" si="38"/>
+        <v>9.785713184447431E-3</v>
+      </c>
+      <c r="S317">
+        <f t="shared" si="39"/>
+        <v>1.0312925390645726E-2</v>
+      </c>
+      <c r="T317">
+        <f t="shared" si="40"/>
+        <v>1.5469388085968588E-4</v>
+      </c>
+      <c r="U317">
+        <f t="shared" si="41"/>
+        <v>63.258566725877806</v>
+      </c>
+    </row>
+    <row r="318" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A318" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B318">
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="C318">
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="D318">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="E318">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="F318">
+        <v>3419204</v>
+      </c>
+      <c r="G318">
+        <v>2482.27392578125</v>
+      </c>
+      <c r="H318">
+        <f t="shared" si="14"/>
+        <v>316</v>
+      </c>
+      <c r="I318">
+        <f>SUM($F$3:F318)/H318</f>
+        <v>5501815.1960047465</v>
+      </c>
+      <c r="N318">
+        <f t="shared" si="44"/>
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="O318">
+        <f t="shared" si="45"/>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="P318">
+        <f t="shared" si="13"/>
+        <v>0.72566666205724084</v>
+      </c>
+      <c r="Q318">
+        <f t="shared" si="37"/>
+        <v>0.70788094685191205</v>
+      </c>
+      <c r="R318">
+        <f t="shared" si="38"/>
+        <v>1.7785715205328789E-2</v>
+      </c>
+      <c r="S318">
+        <f t="shared" si="39"/>
+        <v>1.0122448408684743E-2</v>
+      </c>
+      <c r="T318">
+        <f t="shared" si="40"/>
+        <v>1.5183672613027115E-4</v>
+      </c>
+      <c r="U318">
+        <f t="shared" si="41"/>
+        <v>117.13710943733865</v>
+      </c>
+    </row>
+    <row r="319" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A319" s="1">
+        <v>44852</v>
+      </c>
+      <c r="B319">
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="C319">
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="D319">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="E319">
+        <v>0.73100000619888306</v>
+      </c>
+      <c r="F319">
+        <v>2292600</v>
+      </c>
+      <c r="G319">
+        <v>1672.51904296875</v>
+      </c>
+      <c r="H319">
+        <f t="shared" si="14"/>
+        <v>317</v>
+      </c>
+      <c r="I319">
+        <f>SUM($F$3:F319)/H319</f>
+        <v>5491691.4887618292</v>
+      </c>
+      <c r="N319">
+        <f t="shared" si="44"/>
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="O319">
+        <f t="shared" si="45"/>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="P319">
+        <f t="shared" si="13"/>
+        <v>0.73366665840148926</v>
+      </c>
+      <c r="Q319">
+        <f t="shared" si="37"/>
+        <v>0.70871427939051679</v>
+      </c>
+      <c r="R319">
+        <f t="shared" si="38"/>
+        <v>2.495237901097247E-2</v>
+      </c>
+      <c r="S319">
+        <f t="shared" si="39"/>
+        <v>1.0605438023197395E-2</v>
+      </c>
+      <c r="T319">
+        <f t="shared" si="40"/>
+        <v>1.5908157034796093E-4</v>
+      </c>
+      <c r="U319">
+        <f t="shared" si="41"/>
+        <v>156.85273257231398</v>
+      </c>
+    </row>
+    <row r="320" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A320" s="1">
+        <v>44853</v>
+      </c>
+      <c r="B320">
+        <v>0.73000001907348633</v>
+      </c>
+      <c r="C320">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="D320">
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="E320">
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="F320">
+        <v>4453704</v>
+      </c>
+      <c r="G320">
+        <v>3243.928955078125</v>
+      </c>
+      <c r="H320">
+        <f t="shared" si="14"/>
+        <v>318</v>
+      </c>
+      <c r="I320">
+        <f>SUM($F$3:F320)/H320</f>
+        <v>5488427.3771619499</v>
+      </c>
+      <c r="N320">
+        <f t="shared" si="44"/>
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="O320">
+        <f t="shared" si="45"/>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="P320">
+        <f t="shared" si="13"/>
+        <v>0.72733332713445031</v>
+      </c>
+      <c r="Q320">
+        <f t="shared" si="37"/>
+        <v>0.70947618427730752</v>
+      </c>
+      <c r="R320">
+        <f t="shared" si="38"/>
+        <v>1.7857142857142794E-2</v>
+      </c>
+      <c r="S320">
+        <f t="shared" si="39"/>
+        <v>1.121768335095878E-2</v>
+      </c>
+      <c r="T320">
+        <f t="shared" si="40"/>
+        <v>1.6826525026438169E-4</v>
+      </c>
+      <c r="U320">
+        <f t="shared" si="41"/>
+        <v>106.12495942617562</v>
+      </c>
+    </row>
+    <row r="321" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A321" s="1">
+        <v>44854</v>
+      </c>
+      <c r="B321">
+        <v>0.71700000762939453</v>
+      </c>
+      <c r="C321">
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="D321">
+        <v>0.70899999141693115</v>
+      </c>
+      <c r="E321">
+        <v>0.71700000762939453</v>
+      </c>
+      <c r="F321">
+        <v>5247100</v>
+      </c>
+      <c r="G321">
+        <v>3749.001953125</v>
+      </c>
+      <c r="H321">
+        <f t="shared" si="14"/>
+        <v>319</v>
+      </c>
+      <c r="I321">
+        <f>SUM($F$3:F321)/H321</f>
+        <v>5487670.8650078373</v>
+      </c>
+      <c r="N321">
+        <f t="shared" si="44"/>
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="O321">
+        <f t="shared" si="45"/>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="P321">
+        <f t="shared" si="13"/>
+        <v>0.71666665871938073</v>
+      </c>
+      <c r="Q321">
+        <f t="shared" si="37"/>
+        <v>0.71002380337033955</v>
+      </c>
+      <c r="R321">
+        <f t="shared" si="38"/>
+        <v>6.6428553490411879E-3</v>
+      </c>
+      <c r="S321">
+        <f t="shared" si="39"/>
+        <v>1.1591834275900921E-2</v>
+      </c>
+      <c r="T321">
+        <f t="shared" si="40"/>
+        <v>1.7387751413851382E-4</v>
+      </c>
+      <c r="U321">
+        <f t="shared" si="41"/>
+        <v>38.204223139223025</v>
+      </c>
+    </row>
+    <row r="322" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A322" s="1">
+        <v>44855</v>
+      </c>
+      <c r="B322">
+        <v>0.71700000762939453</v>
+      </c>
+      <c r="C322">
+        <v>0.71700000762939453</v>
+      </c>
+      <c r="D322">
+        <v>0.71200001239776611</v>
+      </c>
+      <c r="E322">
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="F322">
+        <v>3382502</v>
+      </c>
+      <c r="G322">
+        <v>2419.902099609375</v>
+      </c>
+      <c r="H322">
+        <f t="shared" si="14"/>
+        <v>320</v>
+      </c>
+      <c r="I322">
+        <f>SUM($F$3:F322)/H322</f>
+        <v>5481092.2123046871</v>
+      </c>
+      <c r="N322">
+        <f t="shared" si="44"/>
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="O322">
+        <f t="shared" si="45"/>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="P322">
+        <f t="shared" ref="P322:P327" si="46">(C322+D322+E322)/3</f>
+        <v>0.71466666460037231</v>
+      </c>
+      <c r="Q322">
+        <f t="shared" si="37"/>
+        <v>0.71023809058325627</v>
+      </c>
+      <c r="R322">
+        <f t="shared" si="38"/>
+        <v>4.4285740171160493E-3</v>
+      </c>
+      <c r="S322">
+        <f t="shared" si="39"/>
+        <v>1.1775509029829601E-2</v>
+      </c>
+      <c r="T322">
+        <f t="shared" si="40"/>
+        <v>1.7663263544744401E-4</v>
+      </c>
+      <c r="U322">
+        <f t="shared" si="41"/>
+        <v>25.072229749036072</v>
+      </c>
+    </row>
+    <row r="323" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A323" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B323">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C323">
+        <v>0.72100001573562622</v>
+      </c>
+      <c r="D323">
+        <v>0.69599997997283936</v>
+      </c>
+      <c r="E323">
+        <v>0.70300000905990601</v>
+      </c>
+      <c r="F323">
+        <v>2591900</v>
+      </c>
+      <c r="G323">
+        <v>1839.9659423828125</v>
+      </c>
+      <c r="H323">
+        <f t="shared" si="14"/>
+        <v>321</v>
+      </c>
+      <c r="I323">
+        <f>SUM($F$3:F323)/H323</f>
+        <v>5472091.6135124611</v>
+      </c>
+      <c r="N323">
+        <f t="shared" si="44"/>
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="O323">
+        <f t="shared" si="45"/>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="P323">
+        <f t="shared" si="46"/>
+        <v>0.7066666682561239</v>
+      </c>
+      <c r="Q323">
+        <f t="shared" si="37"/>
+        <v>0.70945237647919424</v>
+      </c>
+      <c r="R323">
+        <f t="shared" si="38"/>
+        <v>-2.7857082230703378E-3</v>
+      </c>
+      <c r="S323">
+        <f t="shared" si="39"/>
+        <v>1.1530608546977152E-2</v>
+      </c>
+      <c r="T323">
+        <f t="shared" si="40"/>
+        <v>1.7295912820465727E-4</v>
+      </c>
+      <c r="U323">
+        <f t="shared" si="41"/>
+        <v>-16.106164803132529</v>
+      </c>
+    </row>
+    <row r="324" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A324" s="1">
+        <v>44859</v>
+      </c>
+      <c r="B324">
+        <v>0.69800001382827759</v>
+      </c>
+      <c r="C324">
+        <v>0.7070000171661377</v>
+      </c>
+      <c r="D324">
+        <v>0.69099998474121094</v>
+      </c>
+      <c r="E324">
+        <v>0.69800001382827759</v>
+      </c>
+      <c r="F324">
+        <v>5515601</v>
+      </c>
+      <c r="G324">
+        <v>3848.76708984375</v>
+      </c>
+      <c r="H324">
+        <f t="shared" ref="H324:H327" si="47">H323+1</f>
+        <v>322</v>
+      </c>
+      <c r="I324">
+        <f>SUM($F$3:F324)/H324</f>
+        <v>5472226.7358307457</v>
+      </c>
+      <c r="N324">
+        <f t="shared" si="44"/>
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="O324">
+        <f t="shared" si="45"/>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="P324">
+        <f t="shared" si="46"/>
+        <v>0.69866667191187537</v>
+      </c>
+      <c r="Q324">
+        <f t="shared" si="37"/>
+        <v>0.70859523472331809</v>
+      </c>
+      <c r="R324">
+        <f t="shared" si="38"/>
+        <v>-9.9285628114427205E-3</v>
+      </c>
+      <c r="S324">
+        <f t="shared" si="39"/>
+        <v>1.2224488517865053E-2</v>
+      </c>
+      <c r="T324">
+        <f t="shared" si="40"/>
+        <v>1.833673277679758E-4</v>
+      </c>
+      <c r="U324">
+        <f t="shared" si="41"/>
+        <v>-54.145757220205809</v>
+      </c>
+    </row>
+    <row r="325" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A325" s="1">
+        <v>44860</v>
+      </c>
+      <c r="B325">
+        <v>0.70300000905990601</v>
+      </c>
+      <c r="C325">
+        <v>0.71799999475479126</v>
+      </c>
+      <c r="D325">
+        <v>0.70200002193450928</v>
+      </c>
+      <c r="E325">
+        <v>0.71299999952316284</v>
+      </c>
+      <c r="F325">
+        <v>2935600</v>
+      </c>
+      <c r="G325">
+        <v>2079.35595703125</v>
+      </c>
+      <c r="H325">
+        <f t="shared" si="47"/>
+        <v>323</v>
+      </c>
+      <c r="I325">
+        <f>SUM($F$3:F325)/H325</f>
+        <v>5464373.402283282</v>
+      </c>
+      <c r="N325">
+        <f t="shared" si="44"/>
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="O325">
+        <f t="shared" si="45"/>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="P325">
+        <f t="shared" si="46"/>
+        <v>0.71100000540415442</v>
+      </c>
+      <c r="Q325">
+        <f t="shared" si="37"/>
+        <v>0.70869047443071975</v>
+      </c>
+      <c r="R325">
+        <f t="shared" si="38"/>
+        <v>2.3095309734346703E-3</v>
+      </c>
+      <c r="S325">
+        <f t="shared" si="39"/>
+        <v>1.2309521436691293E-2</v>
+      </c>
+      <c r="T325">
+        <f t="shared" si="40"/>
+        <v>1.846428215503694E-4</v>
+      </c>
+      <c r="U325">
+        <f t="shared" si="41"/>
+        <v>12.508100526424444</v>
+      </c>
+    </row>
+    <row r="326" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A326" s="1">
+        <v>44861</v>
+      </c>
+      <c r="B326">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C326">
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="D326">
+        <v>0.7070000171661377</v>
+      </c>
+      <c r="E326">
+        <v>0.7070000171661377</v>
+      </c>
+      <c r="F326">
+        <v>3527200</v>
+      </c>
+      <c r="G326">
+        <v>2511.2080078125</v>
+      </c>
+      <c r="H326">
+        <f t="shared" si="47"/>
+        <v>324</v>
+      </c>
+      <c r="I326">
+        <f>SUM($F$3:F326)/H326</f>
+        <v>5458394.4720293209</v>
+      </c>
+      <c r="N326">
+        <f t="shared" si="44"/>
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="O326">
+        <f t="shared" si="45"/>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="P326">
+        <f t="shared" si="46"/>
+        <v>0.7096666693687439</v>
+      </c>
+      <c r="Q326">
+        <f t="shared" si="37"/>
+        <v>0.70942857151939742</v>
+      </c>
+      <c r="R326">
+        <f t="shared" si="38"/>
+        <v>2.3809784934647471E-4</v>
+      </c>
+      <c r="S326">
+        <f t="shared" si="39"/>
+        <v>1.1605438326491817E-2</v>
+      </c>
+      <c r="T326">
+        <f t="shared" si="40"/>
+        <v>1.7408157489737724E-4</v>
+      </c>
+      <c r="U326">
+        <f t="shared" si="41"/>
+        <v>1.3677372202476665</v>
+      </c>
+    </row>
+    <row r="327" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A327" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B327">
+        <v>0.70200002193450928</v>
+      </c>
+      <c r="C327">
+        <v>0.70200002193450928</v>
+      </c>
+      <c r="D327">
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="E327">
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="F327">
+        <v>3020700</v>
+      </c>
+      <c r="G327">
+        <v>2104.006103515625</v>
+      </c>
+      <c r="H327">
+        <f t="shared" si="47"/>
+        <v>325</v>
+      </c>
+      <c r="I327">
+        <f>SUM($F$3:F327)/H327</f>
+        <v>5450893.8736538459</v>
+      </c>
+      <c r="N327">
+        <f t="shared" si="44"/>
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="O327">
+        <f t="shared" si="45"/>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="P327">
+        <f t="shared" si="46"/>
+        <v>0.68866668144861853</v>
+      </c>
+      <c r="Q327">
+        <f t="shared" si="37"/>
+        <v>0.7097619062378292</v>
+      </c>
+      <c r="R327">
+        <f t="shared" si="38"/>
+        <v>-2.1095224789210665E-2</v>
+      </c>
+      <c r="S327">
+        <f t="shared" si="39"/>
+        <v>1.1238089629582004E-2</v>
+      </c>
+      <c r="T327">
+        <f t="shared" si="40"/>
+        <v>1.6857134444373006E-4</v>
+      </c>
+      <c r="U327">
+        <f t="shared" si="41"/>
+        <v>-125.14122645710022</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U327"/>
+  <dimension ref="A1:U328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="A328" sqref="A328"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="A329" sqref="A329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1310,7 +1310,7 @@
         <v>17.187193085837734</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44396</v>
       </c>
@@ -1340,6 +1340,12 @@
         <f>SUM($F$3:F18)/H18</f>
         <v>45807001.1875</v>
       </c>
+      <c r="K18" s="2">
+        <v>44895</v>
+      </c>
+      <c r="L18" s="2">
+        <v>44866</v>
+      </c>
       <c r="N18">
         <f t="shared" si="2"/>
         <v>1.0529999999999999</v>
@@ -17355,23 +17361,23 @@
         <v>0.78866666555404663</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272:Q327" si="37">SUM(P259:P272)/14</f>
+        <f t="shared" ref="Q272:Q328" si="37">SUM(P259:P272)/14</f>
         <v>0.8100476208187285</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272:R327" si="38">P272-Q272</f>
+        <f t="shared" ref="R272:R328" si="38">P272-Q272</f>
         <v>-2.1380955264681867E-2</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272:S327" si="39">AVEDEV(P259:P272)</f>
+        <f t="shared" ref="S272:S328" si="39">AVEDEV(P259:P272)</f>
         <v>7.8163195629509085E-3</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272:T327" si="40">0.015*S272</f>
+        <f t="shared" ref="T272:T328" si="40">0.015*S272</f>
         <v>1.1724479344426362E-4</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272:U327" si="41">R272/T272</f>
+        <f t="shared" ref="U272:U328" si="41">R272/T272</f>
         <v>-182.36166090263143</v>
       </c>
     </row>
@@ -19926,11 +19932,11 @@
         <v>5545341.4049437298</v>
       </c>
       <c r="N313">
-        <f t="shared" ref="N313:N327" si="44">IF(A313&lt;&gt;$K$17,MAX(N312,VLOOKUP(A313,A:C,3)),)</f>
+        <f t="shared" ref="N313:N328" si="44">IF(A313&lt;&gt;$K$17,MAX(N312,VLOOKUP(A313,A:C,3)),)</f>
         <v>0.69499999284744263</v>
       </c>
       <c r="O313">
-        <f t="shared" ref="O313:O327" si="45">IF(A313&lt;&gt;$K$17,MIN(O312,VLOOKUP(A313,A:D,4)),)</f>
+        <f t="shared" ref="O313:O328" si="45">IF(A313&lt;&gt;$K$17,MIN(O312,VLOOKUP(A313,A:D,4)),)</f>
         <v>0.67799997329711914</v>
       </c>
       <c r="P313">
@@ -20501,7 +20507,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P327" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P328" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20611,7 +20617,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H327" si="47">H323+1</f>
+        <f t="shared" ref="H324:H328" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -20838,6 +20844,69 @@
       <c r="U327">
         <f t="shared" si="41"/>
         <v>-125.14122645710022</v>
+      </c>
+    </row>
+    <row r="328" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A328" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B328">
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="C328">
+        <v>0.69199997186660767</v>
+      </c>
+      <c r="D328">
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="E328">
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="F328">
+        <v>3400007.75</v>
+      </c>
+      <c r="G328">
+        <v>2326.47412109375</v>
+      </c>
+      <c r="H328">
+        <f t="shared" si="47"/>
+        <v>326</v>
+      </c>
+      <c r="I328">
+        <f>SUM($F$3:F328)/H328</f>
+        <v>5444602.8119248468</v>
+      </c>
+      <c r="N328">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O328">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="P328">
+        <f t="shared" si="46"/>
+        <v>0.68566664059956872</v>
+      </c>
+      <c r="Q328">
+        <f t="shared" si="37"/>
+        <v>0.70992857075872884</v>
+      </c>
+      <c r="R328">
+        <f t="shared" si="38"/>
+        <v>-2.4261930159160117E-2</v>
+      </c>
+      <c r="S328">
+        <f t="shared" si="39"/>
+        <v>1.1071425108682547E-2</v>
+      </c>
+      <c r="T328">
+        <f t="shared" si="40"/>
+        <v>1.660713766302382E-4</v>
+      </c>
+      <c r="U328">
+        <f t="shared" si="41"/>
+        <v>-146.0933885866429</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U328"/>
+  <dimension ref="A1:U349"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="A329" sqref="A329"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="A350" sqref="A350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17361,23 +17361,23 @@
         <v>0.78866666555404663</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272:Q328" si="37">SUM(P259:P272)/14</f>
+        <f t="shared" ref="Q272:Q349" si="37">SUM(P259:P272)/14</f>
         <v>0.8100476208187285</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272:R328" si="38">P272-Q272</f>
+        <f t="shared" ref="R272:R349" si="38">P272-Q272</f>
         <v>-2.1380955264681867E-2</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272:S328" si="39">AVEDEV(P259:P272)</f>
+        <f t="shared" ref="S272:S349" si="39">AVEDEV(P259:P272)</f>
         <v>7.8163195629509085E-3</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272:T328" si="40">0.015*S272</f>
+        <f t="shared" ref="T272:T349" si="40">0.015*S272</f>
         <v>1.1724479344426362E-4</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272:U328" si="41">R272/T272</f>
+        <f t="shared" ref="U272:U349" si="41">R272/T272</f>
         <v>-182.36166090263143</v>
       </c>
     </row>
@@ -19932,11 +19932,11 @@
         <v>5545341.4049437298</v>
       </c>
       <c r="N313">
-        <f t="shared" ref="N313:N328" si="44">IF(A313&lt;&gt;$K$17,MAX(N312,VLOOKUP(A313,A:C,3)),)</f>
+        <f t="shared" ref="N313:N327" si="44">IF(A313&lt;&gt;$K$17,MAX(N312,VLOOKUP(A313,A:C,3)),)</f>
         <v>0.69499999284744263</v>
       </c>
       <c r="O313">
-        <f t="shared" ref="O313:O328" si="45">IF(A313&lt;&gt;$K$17,MIN(O312,VLOOKUP(A313,A:D,4)),)</f>
+        <f t="shared" ref="O313:O327" si="45">IF(A313&lt;&gt;$K$17,MIN(O312,VLOOKUP(A313,A:D,4)),)</f>
         <v>0.67799997329711914</v>
       </c>
       <c r="P313">
@@ -20507,7 +20507,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P328" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P349" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20617,7 +20617,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H328" si="47">H323+1</f>
+        <f t="shared" ref="H324:H349" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -20877,12 +20877,12 @@
         <v>5444602.8119248468</v>
       </c>
       <c r="N328">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <f>VLOOKUP(L18,A:C,3)</f>
+        <v>0.70499998331069946</v>
       </c>
       <c r="O328">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f>VLOOKUP(L18,A:D,4)</f>
+        <v>0.68400001525878906</v>
       </c>
       <c r="P328">
         <f t="shared" si="46"/>
@@ -20907,6 +20907,1329 @@
       <c r="U328">
         <f t="shared" si="41"/>
         <v>-146.0933885866429</v>
+      </c>
+    </row>
+    <row r="329" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A329" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B329">
+        <v>0.68900001049041748</v>
+      </c>
+      <c r="C329">
+        <v>0.70499998331069946</v>
+      </c>
+      <c r="D329">
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="E329">
+        <v>0.70499998331069946</v>
+      </c>
+      <c r="F329">
+        <v>4066501.25</v>
+      </c>
+      <c r="G329">
+        <v>2806.73095703125</v>
+      </c>
+      <c r="H329">
+        <f t="shared" si="47"/>
+        <v>327</v>
+      </c>
+      <c r="I329">
+        <f>SUM($F$3:F329)/H329</f>
+        <v>5440388.4340596329</v>
+      </c>
+      <c r="N329">
+        <f t="shared" ref="N329:N349" si="48">IF(A329&lt;&gt;$K$18,MAX(N328,VLOOKUP(A329,A:C,3)),)</f>
+        <v>0.70499998331069946</v>
+      </c>
+      <c r="O329">
+        <f t="shared" ref="O329:O349" si="49">IF(A329&lt;&gt;$K$18,MIN(O328,VLOOKUP(A329,A:D,4)),)</f>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="P329">
+        <f t="shared" si="46"/>
+        <v>0.69799999396006263</v>
+      </c>
+      <c r="Q329">
+        <f t="shared" si="37"/>
+        <v>0.71021428420430144</v>
+      </c>
+      <c r="R329">
+        <f t="shared" si="38"/>
+        <v>-1.2214290244238812E-2</v>
+      </c>
+      <c r="S329">
+        <f t="shared" si="39"/>
+        <v>1.0785711663109923E-2</v>
+      </c>
+      <c r="T329">
+        <f t="shared" si="40"/>
+        <v>1.6178567494664885E-4</v>
+      </c>
+      <c r="U329">
+        <f t="shared" si="41"/>
+        <v>-75.496735098868612</v>
+      </c>
+    </row>
+    <row r="330" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A330" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B330">
+        <v>0.70499998331069946</v>
+      </c>
+      <c r="C330">
+        <v>0.72200000286102295</v>
+      </c>
+      <c r="D330">
+        <v>0.70499998331069946</v>
+      </c>
+      <c r="E330">
+        <v>0.71700000762939453</v>
+      </c>
+      <c r="F330">
+        <v>3588100</v>
+      </c>
+      <c r="G330">
+        <v>2554.7890625</v>
+      </c>
+      <c r="H330">
+        <f t="shared" si="47"/>
+        <v>328</v>
+      </c>
+      <c r="I330">
+        <f>SUM($F$3:F330)/H330</f>
+        <v>5434741.213224085</v>
+      </c>
+      <c r="N330">
+        <f t="shared" si="48"/>
+        <v>0.72200000286102295</v>
+      </c>
+      <c r="O330">
+        <f t="shared" si="49"/>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="P330">
+        <f t="shared" si="46"/>
+        <v>0.71466666460037231</v>
+      </c>
+      <c r="Q330">
+        <f t="shared" si="37"/>
+        <v>0.71064285437266039</v>
+      </c>
+      <c r="R330">
+        <f t="shared" si="38"/>
+        <v>4.0238102277119214E-3</v>
+      </c>
+      <c r="S330">
+        <f t="shared" si="39"/>
+        <v>1.0931971527281259E-2</v>
+      </c>
+      <c r="T330">
+        <f t="shared" si="40"/>
+        <v>1.6397957290921887E-4</v>
+      </c>
+      <c r="U330">
+        <f t="shared" si="41"/>
+        <v>24.538484619297996</v>
+      </c>
+    </row>
+    <row r="331" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A331" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B331">
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="C331">
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="D331">
+        <v>0.70999997854232788</v>
+      </c>
+      <c r="E331">
+        <v>0.71299999952316284</v>
+      </c>
+      <c r="F331">
+        <v>2969101</v>
+      </c>
+      <c r="G331">
+        <v>2118.14306640625</v>
+      </c>
+      <c r="H331">
+        <f t="shared" si="47"/>
+        <v>329</v>
+      </c>
+      <c r="I331">
+        <f>SUM($F$3:F331)/H331</f>
+        <v>5427246.8660714282</v>
+      </c>
+      <c r="N331">
+        <f t="shared" si="48"/>
+        <v>0.72200000286102295</v>
+      </c>
+      <c r="O331">
+        <f t="shared" si="49"/>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="P331">
+        <f t="shared" si="46"/>
+        <v>0.71266665061314904</v>
+      </c>
+      <c r="Q331">
+        <f t="shared" si="37"/>
+        <v>0.71026190121968591</v>
+      </c>
+      <c r="R331">
+        <f t="shared" si="38"/>
+        <v>2.4047493934631348E-3</v>
+      </c>
+      <c r="S331">
+        <f t="shared" si="39"/>
+        <v>1.0605440253303169E-2</v>
+      </c>
+      <c r="T331">
+        <f t="shared" si="40"/>
+        <v>1.5908160379954754E-4</v>
+      </c>
+      <c r="U331">
+        <f t="shared" si="41"/>
+        <v>15.116451783408374</v>
+      </c>
+    </row>
+    <row r="332" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A332" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B332">
+        <v>0.7160000205039978</v>
+      </c>
+      <c r="C332">
+        <v>0.73799997568130493</v>
+      </c>
+      <c r="D332">
+        <v>0.7160000205039978</v>
+      </c>
+      <c r="E332">
+        <v>0.73600000143051147</v>
+      </c>
+      <c r="F332">
+        <v>3661902</v>
+      </c>
+      <c r="G332">
+        <v>2657.242919921875</v>
+      </c>
+      <c r="H332">
+        <f t="shared" si="47"/>
+        <v>330</v>
+      </c>
+      <c r="I332">
+        <f>SUM($F$3:F332)/H332</f>
+        <v>5421897.3361742422</v>
+      </c>
+      <c r="N332">
+        <f t="shared" si="48"/>
+        <v>0.73799997568130493</v>
+      </c>
+      <c r="O332">
+        <f t="shared" si="49"/>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="P332">
+        <f t="shared" si="46"/>
+        <v>0.72999999920527137</v>
+      </c>
+      <c r="Q332">
+        <f t="shared" si="37"/>
+        <v>0.71057142530168804</v>
+      </c>
+      <c r="R332">
+        <f t="shared" si="38"/>
+        <v>1.9428573903583324E-2</v>
+      </c>
+      <c r="S332">
+        <f t="shared" si="39"/>
+        <v>1.0870746609305046E-2</v>
+      </c>
+      <c r="T332">
+        <f t="shared" si="40"/>
+        <v>1.630611991395757E-4</v>
+      </c>
+      <c r="U332">
+        <f t="shared" si="41"/>
+        <v>119.14896987206026</v>
+      </c>
+    </row>
+    <row r="333" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A333" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B333">
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="C333">
+        <v>0.73900002241134644</v>
+      </c>
+      <c r="D333">
+        <v>0.73100000619888306</v>
+      </c>
+      <c r="E333">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="F333">
+        <v>2424500</v>
+      </c>
+      <c r="G333">
+        <v>1782.22900390625</v>
+      </c>
+      <c r="H333">
+        <f t="shared" si="47"/>
+        <v>331</v>
+      </c>
+      <c r="I333">
+        <f>SUM($F$3:F333)/H333</f>
+        <v>5412841.7550981874</v>
+      </c>
+      <c r="N333">
+        <f t="shared" si="48"/>
+        <v>0.73900002241134644</v>
+      </c>
+      <c r="O333">
+        <f t="shared" si="49"/>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="P333">
+        <f t="shared" si="46"/>
+        <v>0.7346666852633158</v>
+      </c>
+      <c r="Q333">
+        <f t="shared" si="37"/>
+        <v>0.71064285579181852</v>
+      </c>
+      <c r="R333">
+        <f t="shared" si="38"/>
+        <v>2.4023829471497282E-2</v>
+      </c>
+      <c r="S333">
+        <f t="shared" si="39"/>
+        <v>1.0931972743702587E-2</v>
+      </c>
+      <c r="T333">
+        <f t="shared" si="40"/>
+        <v>1.639795911555388E-4</v>
+      </c>
+      <c r="U333">
+        <f t="shared" si="41"/>
+        <v>146.50499676334766</v>
+      </c>
+    </row>
+    <row r="334" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A334" s="1">
+        <v>44873</v>
+      </c>
+      <c r="B334">
+        <v>0.73600000143051147</v>
+      </c>
+      <c r="C334">
+        <v>0.73600000143051147</v>
+      </c>
+      <c r="D334">
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="E334">
+        <v>0.72699999809265137</v>
+      </c>
+      <c r="F334">
+        <v>2755801</v>
+      </c>
+      <c r="G334">
+        <v>2007.2960205078125</v>
+      </c>
+      <c r="H334">
+        <f t="shared" si="47"/>
+        <v>332</v>
+      </c>
+      <c r="I334">
+        <f>SUM($F$3:F334)/H334</f>
+        <v>5404838.620293675</v>
+      </c>
+      <c r="N334">
+        <f t="shared" si="48"/>
+        <v>0.73900002241134644</v>
+      </c>
+      <c r="O334">
+        <f t="shared" si="49"/>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="P334">
+        <f t="shared" si="46"/>
+        <v>0.72899999221165979</v>
+      </c>
+      <c r="Q334">
+        <f t="shared" si="37"/>
+        <v>0.71076190329733346</v>
+      </c>
+      <c r="R334">
+        <f t="shared" si="38"/>
+        <v>1.8238088914326323E-2</v>
+      </c>
+      <c r="S334">
+        <f t="shared" si="39"/>
+        <v>1.1034013462715415E-2</v>
+      </c>
+      <c r="T334">
+        <f t="shared" si="40"/>
+        <v>1.6551020194073123E-4</v>
+      </c>
+      <c r="U334">
+        <f t="shared" si="41"/>
+        <v>110.19314036519232</v>
+      </c>
+    </row>
+    <row r="335" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A335" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B335">
+        <v>0.73000001907348633</v>
+      </c>
+      <c r="C335">
+        <v>0.73000001907348633</v>
+      </c>
+      <c r="D335">
+        <v>0.72100001573562622</v>
+      </c>
+      <c r="E335">
+        <v>0.72200000286102295</v>
+      </c>
+      <c r="F335">
+        <v>2908406</v>
+      </c>
+      <c r="G335">
+        <v>2104.299072265625</v>
+      </c>
+      <c r="H335">
+        <f t="shared" si="47"/>
+        <v>333</v>
+      </c>
+      <c r="I335">
+        <f>SUM($F$3:F335)/H335</f>
+        <v>5397341.8256381378</v>
+      </c>
+      <c r="N335">
+        <f t="shared" si="48"/>
+        <v>0.73900002241134644</v>
+      </c>
+      <c r="O335">
+        <f t="shared" si="49"/>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="P335">
+        <f t="shared" si="46"/>
+        <v>0.72433334589004517</v>
+      </c>
+      <c r="Q335">
+        <f t="shared" si="37"/>
+        <v>0.71130952380952384</v>
+      </c>
+      <c r="R335">
+        <f t="shared" si="38"/>
+        <v>1.302382208052133E-2</v>
+      </c>
+      <c r="S335">
+        <f t="shared" si="39"/>
+        <v>1.1547619388217023E-2</v>
+      </c>
+      <c r="T335">
+        <f t="shared" si="40"/>
+        <v>1.7321429082325533E-4</v>
+      </c>
+      <c r="U335">
+        <f t="shared" si="41"/>
+        <v>75.189073711075025</v>
+      </c>
+    </row>
+    <row r="336" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A336" s="1">
+        <v>44875</v>
+      </c>
+      <c r="B336">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C336">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="D336">
+        <v>0.70499998331069946</v>
+      </c>
+      <c r="E336">
+        <v>0.70899999141693115</v>
+      </c>
+      <c r="F336">
+        <v>3683300</v>
+      </c>
+      <c r="G336">
+        <v>2612.735107421875</v>
+      </c>
+      <c r="H336">
+        <f t="shared" si="47"/>
+        <v>334</v>
+      </c>
+      <c r="I336">
+        <f>SUM($F$3:F336)/H336</f>
+        <v>5392209.9638847308</v>
+      </c>
+      <c r="N336">
+        <f t="shared" si="48"/>
+        <v>0.73900002241134644</v>
+      </c>
+      <c r="O336">
+        <f t="shared" si="49"/>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="P336">
+        <f t="shared" si="46"/>
+        <v>0.71133333444595337</v>
+      </c>
+      <c r="Q336">
+        <f t="shared" si="37"/>
+        <v>0.71107142879849394</v>
+      </c>
+      <c r="R336">
+        <f t="shared" si="38"/>
+        <v>2.6190564745942613E-4</v>
+      </c>
+      <c r="S336">
+        <f t="shared" si="39"/>
+        <v>1.1309524377187099E-2</v>
+      </c>
+      <c r="T336">
+        <f t="shared" si="40"/>
+        <v>1.6964286565780646E-4</v>
+      </c>
+      <c r="U336">
+        <f t="shared" si="41"/>
+        <v>1.5438647917427113</v>
+      </c>
+    </row>
+    <row r="337" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A337" s="1">
+        <v>44876</v>
+      </c>
+      <c r="B337">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C337">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="D337">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="E337">
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="F337">
+        <v>3560304</v>
+      </c>
+      <c r="G337">
+        <v>2588.037109375</v>
+      </c>
+      <c r="H337">
+        <f t="shared" si="47"/>
+        <v>335</v>
+      </c>
+      <c r="I337">
+        <f>SUM($F$3:F337)/H337</f>
+        <v>5386741.5878731348</v>
+      </c>
+      <c r="N337">
+        <f t="shared" si="48"/>
+        <v>0.73900002241134644</v>
+      </c>
+      <c r="O337">
+        <f t="shared" si="49"/>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="P337">
+        <f t="shared" si="46"/>
+        <v>0.72666668891906738</v>
+      </c>
+      <c r="Q337">
+        <f t="shared" si="37"/>
+        <v>0.71250000170298988</v>
+      </c>
+      <c r="R337">
+        <f t="shared" si="38"/>
+        <v>1.41666872160775E-2</v>
+      </c>
+      <c r="S337">
+        <f t="shared" si="39"/>
+        <v>1.2071430683135995E-2</v>
+      </c>
+      <c r="T337">
+        <f t="shared" si="40"/>
+        <v>1.8107146024703993E-4</v>
+      </c>
+      <c r="U337">
+        <f t="shared" si="41"/>
+        <v>78.238101116264076</v>
+      </c>
+    </row>
+    <row r="338" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A338" s="1">
+        <v>44879</v>
+      </c>
+      <c r="B338">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="C338">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="D338">
+        <v>0.72100001573562622</v>
+      </c>
+      <c r="E338">
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="F338">
+        <v>3003903</v>
+      </c>
+      <c r="G338">
+        <v>2189.81298828125</v>
+      </c>
+      <c r="H338">
+        <f t="shared" si="47"/>
+        <v>336</v>
+      </c>
+      <c r="I338">
+        <f>SUM($F$3:F338)/H338</f>
+        <v>5379649.8063616073</v>
+      </c>
+      <c r="N338">
+        <f t="shared" si="48"/>
+        <v>0.73900002241134644</v>
+      </c>
+      <c r="O338">
+        <f t="shared" si="49"/>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="P338">
+        <f t="shared" si="46"/>
+        <v>0.72633334000905359</v>
+      </c>
+      <c r="Q338">
+        <f t="shared" si="37"/>
+        <v>0.71447619228135972</v>
+      </c>
+      <c r="R338">
+        <f t="shared" si="38"/>
+        <v>1.1857147727693862E-2</v>
+      </c>
+      <c r="S338">
+        <f t="shared" si="39"/>
+        <v>1.2047624304181057E-2</v>
+      </c>
+      <c r="T338">
+        <f t="shared" si="40"/>
+        <v>1.8071436456271585E-4</v>
+      </c>
+      <c r="U338">
+        <f t="shared" si="41"/>
+        <v>65.612646545199837</v>
+      </c>
+    </row>
+    <row r="339" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A339" s="1">
+        <v>44880</v>
+      </c>
+      <c r="B339">
+        <v>0.72500002384185791</v>
+      </c>
+      <c r="C339">
+        <v>0.74299997091293335</v>
+      </c>
+      <c r="D339">
+        <v>0.72200000286102295</v>
+      </c>
+      <c r="E339">
+        <v>0.74299997091293335</v>
+      </c>
+      <c r="F339">
+        <v>5722604</v>
+      </c>
+      <c r="G339">
+        <v>4205.744140625</v>
+      </c>
+      <c r="H339">
+        <f t="shared" si="47"/>
+        <v>337</v>
+      </c>
+      <c r="I339">
+        <f>SUM($F$3:F339)/H339</f>
+        <v>5380667.4745919881</v>
+      </c>
+      <c r="N339">
+        <f t="shared" si="48"/>
+        <v>0.74299997091293335</v>
+      </c>
+      <c r="O339">
+        <f t="shared" si="49"/>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="P339">
+        <f t="shared" si="46"/>
+        <v>0.73599998156229651</v>
+      </c>
+      <c r="Q339">
+        <f t="shared" si="37"/>
+        <v>0.71626190486408425</v>
+      </c>
+      <c r="R339">
+        <f t="shared" si="38"/>
+        <v>1.9738076698212259E-2</v>
+      </c>
+      <c r="S339">
+        <f t="shared" si="39"/>
+        <v>1.3309528430302935E-2</v>
+      </c>
+      <c r="T339">
+        <f t="shared" si="40"/>
+        <v>1.9964292645454401E-4</v>
+      </c>
+      <c r="U339">
+        <f t="shared" si="41"/>
+        <v>98.866897258723327</v>
+      </c>
+    </row>
+    <row r="340" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A340" s="1">
+        <v>44881</v>
+      </c>
+      <c r="B340">
+        <v>0.74299997091293335</v>
+      </c>
+      <c r="C340">
+        <v>0.74500000476837158</v>
+      </c>
+      <c r="D340">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="E340">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="F340">
+        <v>1012900</v>
+      </c>
+      <c r="G340">
+        <v>748.44000244140625</v>
+      </c>
+      <c r="H340">
+        <f t="shared" si="47"/>
+        <v>338</v>
+      </c>
+      <c r="I340">
+        <f>SUM($F$3:F340)/H340</f>
+        <v>5367745.0856139055</v>
+      </c>
+      <c r="N340">
+        <f t="shared" si="48"/>
+        <v>0.74500000476837158</v>
+      </c>
+      <c r="O340">
+        <f t="shared" si="49"/>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="P340">
+        <f t="shared" si="46"/>
+        <v>0.73766668637593591</v>
+      </c>
+      <c r="Q340">
+        <f t="shared" si="37"/>
+        <v>0.71826190607888363</v>
+      </c>
+      <c r="R340">
+        <f t="shared" si="38"/>
+        <v>1.9404780297052282E-2</v>
+      </c>
+      <c r="S340">
+        <f t="shared" si="39"/>
+        <v>1.4081638686510975E-2</v>
+      </c>
+      <c r="T340">
+        <f t="shared" si="40"/>
+        <v>2.1122458029766461E-4</v>
+      </c>
+      <c r="U340">
+        <f t="shared" si="41"/>
+        <v>91.868002624062171</v>
+      </c>
+    </row>
+    <row r="341" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A341" s="1">
+        <v>44882</v>
+      </c>
+      <c r="B341">
+        <v>0.73100000619888306</v>
+      </c>
+      <c r="C341">
+        <v>0.73100000619888306</v>
+      </c>
+      <c r="D341">
+        <v>0.72100001573562622</v>
+      </c>
+      <c r="E341">
+        <v>0.73000001907348633</v>
+      </c>
+      <c r="F341">
+        <v>3281900</v>
+      </c>
+      <c r="G341">
+        <v>2381.821044921875</v>
+      </c>
+      <c r="H341">
+        <f t="shared" si="47"/>
+        <v>339</v>
+      </c>
+      <c r="I341">
+        <f>SUM($F$3:F341)/H341</f>
+        <v>5361592.1502581118</v>
+      </c>
+      <c r="N341">
+        <f t="shared" si="48"/>
+        <v>0.74500000476837158</v>
+      </c>
+      <c r="O341">
+        <f t="shared" si="49"/>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="P341">
+        <f t="shared" si="46"/>
+        <v>0.72733334700266516</v>
+      </c>
+      <c r="Q341">
+        <f t="shared" si="37"/>
+        <v>0.7210238107613155</v>
+      </c>
+      <c r="R341">
+        <f t="shared" si="38"/>
+        <v>6.309536241349667E-3</v>
+      </c>
+      <c r="S341">
+        <f t="shared" si="39"/>
+        <v>1.1826538512495901E-2</v>
+      </c>
+      <c r="T341">
+        <f t="shared" si="40"/>
+        <v>1.7739807768743851E-4</v>
+      </c>
+      <c r="U341">
+        <f t="shared" si="41"/>
+        <v>35.567106045346073</v>
+      </c>
+    </row>
+    <row r="342" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A342" s="1">
+        <v>44883</v>
+      </c>
+      <c r="B342">
+        <v>0.73100000619888306</v>
+      </c>
+      <c r="C342">
+        <v>0.73900002241134644</v>
+      </c>
+      <c r="D342">
+        <v>0.73100000619888306</v>
+      </c>
+      <c r="E342">
+        <v>0.73100000619888306</v>
+      </c>
+      <c r="F342">
+        <v>2393401</v>
+      </c>
+      <c r="G342">
+        <v>1758.56494140625</v>
+      </c>
+      <c r="H342">
+        <f t="shared" si="47"/>
+        <v>340</v>
+      </c>
+      <c r="I342">
+        <f>SUM($F$3:F342)/H342</f>
+        <v>5352862.1762867644</v>
+      </c>
+      <c r="N342">
+        <f t="shared" si="48"/>
+        <v>0.74500000476837158</v>
+      </c>
+      <c r="O342">
+        <f t="shared" si="49"/>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="P342">
+        <f t="shared" si="46"/>
+        <v>0.73366667826970422</v>
+      </c>
+      <c r="Q342">
+        <f t="shared" si="37"/>
+        <v>0.72445238488061092</v>
+      </c>
+      <c r="R342">
+        <f t="shared" si="38"/>
+        <v>9.2142933890932976E-3</v>
+      </c>
+      <c r="S342">
+        <f t="shared" si="39"/>
+        <v>8.7517049847816806E-3</v>
+      </c>
+      <c r="T342">
+        <f t="shared" si="40"/>
+        <v>1.312755747717252E-4</v>
+      </c>
+      <c r="U342">
+        <f t="shared" si="41"/>
+        <v>70.190463116356653</v>
+      </c>
+    </row>
+    <row r="343" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A343" s="1">
+        <v>44886</v>
+      </c>
+      <c r="B343">
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="C343">
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="D343">
+        <v>0.72100001573562622</v>
+      </c>
+      <c r="E343">
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="F343">
+        <v>3153102</v>
+      </c>
+      <c r="G343">
+        <v>2289.886962890625</v>
+      </c>
+      <c r="H343">
+        <f t="shared" si="47"/>
+        <v>341</v>
+      </c>
+      <c r="I343">
+        <f>SUM($F$3:F343)/H343</f>
+        <v>5346411.2666788856</v>
+      </c>
+      <c r="N343">
+        <f t="shared" si="48"/>
+        <v>0.74500000476837158</v>
+      </c>
+      <c r="O343">
+        <f t="shared" si="49"/>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="P343">
+        <f t="shared" si="46"/>
+        <v>0.72633332014083862</v>
+      </c>
+      <c r="Q343">
+        <f t="shared" si="37"/>
+        <v>0.72647619389352347</v>
+      </c>
+      <c r="R343">
+        <f t="shared" si="38"/>
+        <v>-1.428737526848467E-4</v>
+      </c>
+      <c r="S343">
+        <f t="shared" si="39"/>
+        <v>6.1700725231040787E-3</v>
+      </c>
+      <c r="T343">
+        <f t="shared" si="40"/>
+        <v>9.2551087846561177E-5</v>
+      </c>
+      <c r="U343">
+        <f t="shared" si="41"/>
+        <v>-1.5437285072403966</v>
+      </c>
+    </row>
+    <row r="344" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A344" s="1">
+        <v>44887</v>
+      </c>
+      <c r="B344">
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C344">
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="D344">
+        <v>0.7160000205039978</v>
+      </c>
+      <c r="E344">
+        <v>0.7160000205039978</v>
+      </c>
+      <c r="F344">
+        <v>3219613</v>
+      </c>
+      <c r="G344">
+        <v>2322.748046875</v>
+      </c>
+      <c r="H344">
+        <f t="shared" si="47"/>
+        <v>342</v>
+      </c>
+      <c r="I344">
+        <f>SUM($F$3:F344)/H344</f>
+        <v>5340192.5582967838</v>
+      </c>
+      <c r="N344">
+        <f t="shared" si="48"/>
+        <v>0.74500000476837158</v>
+      </c>
+      <c r="O344">
+        <f t="shared" si="49"/>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="P344">
+        <f t="shared" si="46"/>
+        <v>0.718666672706604</v>
+      </c>
+      <c r="Q344">
+        <f t="shared" si="37"/>
+        <v>0.7267619087582543</v>
+      </c>
+      <c r="R344">
+        <f t="shared" si="38"/>
+        <v>-8.0952360516503008E-3</v>
+      </c>
+      <c r="S344">
+        <f t="shared" si="39"/>
+        <v>5.8571440832955414E-3</v>
+      </c>
+      <c r="T344">
+        <f t="shared" si="40"/>
+        <v>8.7857161249433113E-5</v>
+      </c>
+      <c r="U344">
+        <f t="shared" si="41"/>
+        <v>-92.140878859804204</v>
+      </c>
+    </row>
+    <row r="345" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A345" s="1">
+        <v>44888</v>
+      </c>
+      <c r="B345">
+        <v>0.7160000205039978</v>
+      </c>
+      <c r="C345">
+        <v>0.71899998188018799</v>
+      </c>
+      <c r="D345">
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="E345">
+        <v>0.71700000762939453</v>
+      </c>
+      <c r="F345">
+        <v>2462800</v>
+      </c>
+      <c r="G345">
+        <v>1759.5560302734375</v>
+      </c>
+      <c r="H345">
+        <f t="shared" si="47"/>
+        <v>343</v>
+      </c>
+      <c r="I345">
+        <f>SUM($F$3:F345)/H345</f>
+        <v>5331803.6587099126</v>
+      </c>
+      <c r="N345">
+        <f t="shared" si="48"/>
+        <v>0.74500000476837158</v>
+      </c>
+      <c r="O345">
+        <f t="shared" si="49"/>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="P345">
+        <f t="shared" si="46"/>
+        <v>0.71566667159398401</v>
+      </c>
+      <c r="Q345">
+        <f t="shared" si="37"/>
+        <v>0.72697619597117114</v>
+      </c>
+      <c r="R345">
+        <f t="shared" si="38"/>
+        <v>-1.130952437718713E-2</v>
+      </c>
+      <c r="S345">
+        <f t="shared" si="39"/>
+        <v>5.6428568703787586E-3</v>
+      </c>
+      <c r="T345">
+        <f t="shared" si="40"/>
+        <v>8.4642853055681371E-5</v>
+      </c>
+      <c r="U345">
+        <f t="shared" si="41"/>
+        <v>-133.61464044397562</v>
+      </c>
+    </row>
+    <row r="346" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A346" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B346">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C346">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="D346">
+        <v>0.71299999952316284</v>
+      </c>
+      <c r="E346">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="F346">
+        <v>2647100</v>
+      </c>
+      <c r="G346">
+        <v>1893.616943359375</v>
+      </c>
+      <c r="H346">
+        <f t="shared" si="47"/>
+        <v>344</v>
+      </c>
+      <c r="I346">
+        <f>SUM($F$3:F346)/H346</f>
+        <v>5323999.2876090119</v>
+      </c>
+      <c r="N346">
+        <f t="shared" si="48"/>
+        <v>0.74500000476837158</v>
+      </c>
+      <c r="O346">
+        <f t="shared" si="49"/>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="P346">
+        <f t="shared" si="46"/>
+        <v>0.71566667159398401</v>
+      </c>
+      <c r="Q346">
+        <f t="shared" si="37"/>
+        <v>0.7259523868560791</v>
+      </c>
+      <c r="R346">
+        <f t="shared" si="38"/>
+        <v>-1.0285715262095096E-2</v>
+      </c>
+      <c r="S346">
+        <f t="shared" si="39"/>
+        <v>6.2993197214035734E-3</v>
+      </c>
+      <c r="T346">
+        <f t="shared" si="40"/>
+        <v>9.4489795821053597E-5</v>
+      </c>
+      <c r="U346">
+        <f t="shared" si="41"/>
+        <v>-108.8553020219703</v>
+      </c>
+    </row>
+    <row r="347" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A347" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B347">
+        <v>0.7070000171661377</v>
+      </c>
+      <c r="C347">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="D347">
+        <v>0.7070000171661377</v>
+      </c>
+      <c r="E347">
+        <v>0.70899999141693115</v>
+      </c>
+      <c r="F347">
+        <v>1362800</v>
+      </c>
+      <c r="G347">
+        <v>968.49102783203125</v>
+      </c>
+      <c r="H347">
+        <f t="shared" si="47"/>
+        <v>345</v>
+      </c>
+      <c r="I347">
+        <f>SUM($F$3:F347)/H347</f>
+        <v>5312517.5505434787</v>
+      </c>
+      <c r="N347">
+        <f t="shared" si="48"/>
+        <v>0.74500000476837158</v>
+      </c>
+      <c r="O347">
+        <f t="shared" si="49"/>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="P347">
+        <f t="shared" si="46"/>
+        <v>0.71200001239776611</v>
+      </c>
+      <c r="Q347">
+        <f t="shared" si="37"/>
+        <v>0.72433333879425421</v>
+      </c>
+      <c r="R347">
+        <f t="shared" si="38"/>
+        <v>-1.2333326396488098E-2</v>
+      </c>
+      <c r="S347">
+        <f t="shared" si="39"/>
+        <v>6.904761604711286E-3</v>
+      </c>
+      <c r="T347">
+        <f t="shared" si="40"/>
+        <v>1.0357142407066929E-4</v>
+      </c>
+      <c r="U347">
+        <f t="shared" si="41"/>
+        <v>-119.08039796838915</v>
+      </c>
+    </row>
+    <row r="348" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A348" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B348">
+        <v>0.70999997854232788</v>
+      </c>
+      <c r="C348">
+        <v>0.70999997854232788</v>
+      </c>
+      <c r="D348">
+        <v>0.6940000057220459</v>
+      </c>
+      <c r="E348">
+        <v>0.70499998331069946</v>
+      </c>
+      <c r="F348">
+        <v>2657600</v>
+      </c>
+      <c r="G348">
+        <v>1855.81494140625</v>
+      </c>
+      <c r="H348">
+        <f t="shared" si="47"/>
+        <v>346</v>
+      </c>
+      <c r="I348">
+        <f>SUM($F$3:F348)/H348</f>
+        <v>5304844.3784320811</v>
+      </c>
+      <c r="N348">
+        <f t="shared" si="48"/>
+        <v>0.74500000476837158</v>
+      </c>
+      <c r="O348">
+        <f t="shared" si="49"/>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="P348">
+        <f t="shared" si="46"/>
+        <v>0.70299998919169104</v>
+      </c>
+      <c r="Q348">
+        <f t="shared" si="37"/>
+        <v>0.72247619572139921</v>
+      </c>
+      <c r="R348">
+        <f t="shared" si="38"/>
+        <v>-1.9476206529708162E-2</v>
+      </c>
+      <c r="S348">
+        <f t="shared" si="39"/>
+        <v>8.3605460569161159E-3</v>
+      </c>
+      <c r="T348">
+        <f t="shared" si="40"/>
+        <v>1.2540819085374172E-4</v>
+      </c>
+      <c r="U348">
+        <f t="shared" si="41"/>
+        <v>-155.30250773191074</v>
+      </c>
+    </row>
+    <row r="349" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A349" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B349">
+        <v>0.70899999141693115</v>
+      </c>
+      <c r="C349">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="D349">
+        <v>0.70800000429153442</v>
+      </c>
+      <c r="E349">
+        <v>0.71899998188018799</v>
+      </c>
+      <c r="F349">
+        <v>2146700</v>
+      </c>
+      <c r="G349">
+        <v>1530.8990478515625</v>
+      </c>
+      <c r="H349">
+        <f t="shared" si="47"/>
+        <v>347</v>
+      </c>
+      <c r="I349">
+        <f>SUM($F$3:F349)/H349</f>
+        <v>5295743.0978025934</v>
+      </c>
+      <c r="N349">
+        <f t="shared" si="48"/>
+        <v>0.74500000476837158</v>
+      </c>
+      <c r="O349">
+        <f t="shared" si="49"/>
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="P349">
+        <f t="shared" si="46"/>
+        <v>0.71566667159398401</v>
+      </c>
+      <c r="Q349">
+        <f t="shared" si="37"/>
+        <v>0.72185714755739483</v>
+      </c>
+      <c r="R349">
+        <f t="shared" si="38"/>
+        <v>-6.1904759634108242E-3</v>
+      </c>
+      <c r="S349">
+        <f t="shared" si="39"/>
+        <v>8.7142870539710614E-3</v>
+      </c>
+      <c r="T349">
+        <f t="shared" si="40"/>
+        <v>1.3071430580956591E-4</v>
+      </c>
+      <c r="U349">
+        <f t="shared" si="41"/>
+        <v>-47.358825226288232</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U349"/>
+  <dimension ref="A1:U350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="A350" sqref="A350"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="A351" sqref="A351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1379,7 +1379,7 @@
         <v>6.7353951890014558</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44397</v>
       </c>
@@ -1409,6 +1409,12 @@
         <f>SUM($F$3:F19)/H19</f>
         <v>43642273.117647059</v>
       </c>
+      <c r="K19" s="2">
+        <v>44925</v>
+      </c>
+      <c r="L19" s="2">
+        <v>44896</v>
+      </c>
       <c r="N19">
         <f t="shared" si="2"/>
         <v>1.0529999999999999</v>
@@ -17361,23 +17367,23 @@
         <v>0.78866666555404663</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272:Q349" si="37">SUM(P259:P272)/14</f>
+        <f t="shared" ref="Q272:Q350" si="37">SUM(P259:P272)/14</f>
         <v>0.8100476208187285</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272:R349" si="38">P272-Q272</f>
+        <f t="shared" ref="R272:R350" si="38">P272-Q272</f>
         <v>-2.1380955264681867E-2</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272:S349" si="39">AVEDEV(P259:P272)</f>
+        <f t="shared" ref="S272:S350" si="39">AVEDEV(P259:P272)</f>
         <v>7.8163195629509085E-3</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272:T349" si="40">0.015*S272</f>
+        <f t="shared" ref="T272:T350" si="40">0.015*S272</f>
         <v>1.1724479344426362E-4</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272:U349" si="41">R272/T272</f>
+        <f t="shared" ref="U272:U350" si="41">R272/T272</f>
         <v>-182.36166090263143</v>
       </c>
     </row>
@@ -20507,7 +20513,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P349" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P350" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20617,7 +20623,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H349" si="47">H323+1</f>
+        <f t="shared" ref="H324:H350" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -20940,11 +20946,11 @@
         <v>5440388.4340596329</v>
       </c>
       <c r="N329">
-        <f t="shared" ref="N329:N349" si="48">IF(A329&lt;&gt;$K$18,MAX(N328,VLOOKUP(A329,A:C,3)),)</f>
+        <f t="shared" ref="N329:N350" si="48">IF(A329&lt;&gt;$K$18,MAX(N328,VLOOKUP(A329,A:C,3)),)</f>
         <v>0.70499998331069946</v>
       </c>
       <c r="O329">
-        <f t="shared" ref="O329:O349" si="49">IF(A329&lt;&gt;$K$18,MIN(O328,VLOOKUP(A329,A:D,4)),)</f>
+        <f t="shared" ref="O329:O350" si="49">IF(A329&lt;&gt;$K$18,MIN(O328,VLOOKUP(A329,A:D,4)),)</f>
         <v>0.68400001525878906</v>
       </c>
       <c r="P329">
@@ -22230,6 +22236,69 @@
       <c r="U349">
         <f t="shared" si="41"/>
         <v>-47.358825226288232</v>
+      </c>
+    </row>
+    <row r="350" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A350" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B350">
+        <v>0.71899998188018799</v>
+      </c>
+      <c r="C350">
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="D350">
+        <v>0.71899998188018799</v>
+      </c>
+      <c r="E350">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="F350">
+        <v>2516800</v>
+      </c>
+      <c r="G350">
+        <v>1814.135986328125</v>
+      </c>
+      <c r="H350">
+        <f t="shared" si="47"/>
+        <v>348</v>
+      </c>
+      <c r="I350">
+        <f>SUM($F$3:F350)/H350</f>
+        <v>5287757.6291307472</v>
+      </c>
+      <c r="N350">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="O350">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="P350">
+        <f t="shared" si="46"/>
+        <v>0.72099999586741126</v>
+      </c>
+      <c r="Q350">
+        <f t="shared" si="37"/>
+        <v>0.72254762337321321</v>
+      </c>
+      <c r="R350">
+        <f t="shared" si="38"/>
+        <v>-1.5476275058019517E-3</v>
+      </c>
+      <c r="S350">
+        <f t="shared" si="39"/>
+        <v>8.0238112381526405E-3</v>
+      </c>
+      <c r="T350">
+        <f t="shared" si="40"/>
+        <v>1.203571685722896E-4</v>
+      </c>
+      <c r="U350">
+        <f t="shared" si="41"/>
+        <v>-12.858623413630797</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U350"/>
+  <dimension ref="A1:U372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="A351" sqref="A351"/>
+    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
+      <selection activeCell="A373" sqref="A373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1448,7 +1448,7 @@
         <v>11.045364891519736</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44398</v>
       </c>
@@ -1478,6 +1478,12 @@
         <f>SUM($F$3:F20)/H20</f>
         <v>42507572.722222224</v>
       </c>
+      <c r="K20" s="2">
+        <v>44957</v>
+      </c>
+      <c r="L20" s="2">
+        <v>44929</v>
+      </c>
       <c r="N20">
         <f t="shared" si="2"/>
         <v>1.0529999999999999</v>
@@ -17367,23 +17373,23 @@
         <v>0.78866666555404663</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272:Q350" si="37">SUM(P259:P272)/14</f>
+        <f t="shared" ref="Q272:Q372" si="37">SUM(P259:P272)/14</f>
         <v>0.8100476208187285</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272:R350" si="38">P272-Q272</f>
+        <f t="shared" ref="R272:R372" si="38">P272-Q272</f>
         <v>-2.1380955264681867E-2</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272:S350" si="39">AVEDEV(P259:P272)</f>
+        <f t="shared" ref="S272:S372" si="39">AVEDEV(P259:P272)</f>
         <v>7.8163195629509085E-3</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272:T350" si="40">0.015*S272</f>
+        <f t="shared" ref="T272:T372" si="40">0.015*S272</f>
         <v>1.1724479344426362E-4</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272:U350" si="41">R272/T272</f>
+        <f t="shared" ref="U272:U372" si="41">R272/T272</f>
         <v>-182.36166090263143</v>
       </c>
     </row>
@@ -20513,7 +20519,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P350" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P372" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20623,7 +20629,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H350" si="47">H323+1</f>
+        <f t="shared" ref="H324:H372" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -20946,11 +20952,11 @@
         <v>5440388.4340596329</v>
       </c>
       <c r="N329">
-        <f t="shared" ref="N329:N350" si="48">IF(A329&lt;&gt;$K$18,MAX(N328,VLOOKUP(A329,A:C,3)),)</f>
+        <f t="shared" ref="N329:N349" si="48">IF(A329&lt;&gt;$K$18,MAX(N328,VLOOKUP(A329,A:C,3)),)</f>
         <v>0.70499998331069946</v>
       </c>
       <c r="O329">
-        <f t="shared" ref="O329:O350" si="49">IF(A329&lt;&gt;$K$18,MIN(O328,VLOOKUP(A329,A:D,4)),)</f>
+        <f t="shared" ref="O329:O349" si="49">IF(A329&lt;&gt;$K$18,MIN(O328,VLOOKUP(A329,A:D,4)),)</f>
         <v>0.68400001525878906</v>
       </c>
       <c r="P329">
@@ -22269,12 +22275,12 @@
         <v>5287757.6291307472</v>
       </c>
       <c r="N350">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f>VLOOKUP(L19,A:C,3)</f>
+        <v>0.74000000953674316</v>
       </c>
       <c r="O350">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <f>VLOOKUP(L19,A:D,4)</f>
+        <v>0.72899997234344482</v>
       </c>
       <c r="P350">
         <f t="shared" si="46"/>
@@ -22299,6 +22305,1392 @@
       <c r="U350">
         <f t="shared" si="41"/>
         <v>-12.858623413630797</v>
+      </c>
+    </row>
+    <row r="351" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A351" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B351">
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="C351">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="D351">
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="E351">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="F351">
+        <v>1514200</v>
+      </c>
+      <c r="G351">
+        <v>1115.52001953125</v>
+      </c>
+      <c r="H351">
+        <f t="shared" si="47"/>
+        <v>349</v>
+      </c>
+      <c r="I351">
+        <f>SUM($F$3:F351)/H351</f>
+        <v>5276945.1430873927</v>
+      </c>
+      <c r="N351">
+        <f t="shared" ref="N351:N372" si="50">IF(A351&lt;&gt;$K$19,MAX(N350,VLOOKUP(A351,A:C,3)),)</f>
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="O351">
+        <f t="shared" ref="O351:O372" si="51">IF(A351&lt;&gt;$K$19,MIN(O350,VLOOKUP(A351,A:D,4)),)</f>
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="P351">
+        <f t="shared" si="46"/>
+        <v>0.734333336353302</v>
+      </c>
+      <c r="Q351">
+        <f t="shared" si="37"/>
+        <v>0.72309524104708711</v>
+      </c>
+      <c r="R351">
+        <f t="shared" si="38"/>
+        <v>1.123809530621489E-2</v>
+      </c>
+      <c r="S351">
+        <f t="shared" si="39"/>
+        <v>8.5714289120265418E-3</v>
+      </c>
+      <c r="T351">
+        <f t="shared" si="40"/>
+        <v>1.2857143368039811E-4</v>
+      </c>
+      <c r="U351">
+        <f t="shared" si="41"/>
+        <v>87.407404463968732</v>
+      </c>
+    </row>
+    <row r="352" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A352" s="1">
+        <v>44897</v>
+      </c>
+      <c r="B352">
+        <v>0.73299998044967651</v>
+      </c>
+      <c r="C352">
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="D352">
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="E352">
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="F352">
+        <v>2813797</v>
+      </c>
+      <c r="G352">
+        <v>2058.468017578125</v>
+      </c>
+      <c r="H352">
+        <f t="shared" si="47"/>
+        <v>350</v>
+      </c>
+      <c r="I352">
+        <f>SUM($F$3:F352)/H352</f>
+        <v>5269907.5769642862</v>
+      </c>
+      <c r="N352">
+        <f t="shared" si="50"/>
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="O352">
+        <f t="shared" si="51"/>
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="P352">
+        <f t="shared" si="46"/>
+        <v>0.73099998633066809</v>
+      </c>
+      <c r="Q352">
+        <f t="shared" si="37"/>
+        <v>0.72342857292720242</v>
+      </c>
+      <c r="R352">
+        <f t="shared" si="38"/>
+        <v>7.5714134034656766E-3</v>
+      </c>
+      <c r="S352">
+        <f t="shared" si="39"/>
+        <v>8.9047607921418637E-3</v>
+      </c>
+      <c r="T352">
+        <f t="shared" si="40"/>
+        <v>1.3357141188212796E-4</v>
+      </c>
+      <c r="U352">
+        <f t="shared" si="41"/>
+        <v>56.684385504191425</v>
+      </c>
+    </row>
+    <row r="353" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A353" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B353">
+        <v>0.73199999332427979</v>
+      </c>
+      <c r="C353">
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="D353">
+        <v>0.73000001907348633</v>
+      </c>
+      <c r="E353">
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="F353">
+        <v>3264301</v>
+      </c>
+      <c r="G353">
+        <v>2391.455078125</v>
+      </c>
+      <c r="H353">
+        <f t="shared" si="47"/>
+        <v>351</v>
+      </c>
+      <c r="I353">
+        <f>SUM($F$3:F353)/H353</f>
+        <v>5264193.5981125357</v>
+      </c>
+      <c r="N353">
+        <f t="shared" si="50"/>
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="O353">
+        <f t="shared" si="51"/>
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="P353">
+        <f t="shared" si="46"/>
+        <v>0.73333334922790527</v>
+      </c>
+      <c r="Q353">
+        <f t="shared" si="37"/>
+        <v>0.7232380991890317</v>
+      </c>
+      <c r="R353">
+        <f t="shared" si="38"/>
+        <v>1.0095250038873571E-2</v>
+      </c>
+      <c r="S353">
+        <f t="shared" si="39"/>
+        <v>8.7142870539710614E-3</v>
+      </c>
+      <c r="T353">
+        <f t="shared" si="40"/>
+        <v>1.3071430580956591E-4</v>
+      </c>
+      <c r="U353">
+        <f t="shared" si="41"/>
+        <v>77.231409189297636</v>
+      </c>
+    </row>
+    <row r="354" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A354" s="1">
+        <v>44901</v>
+      </c>
+      <c r="B354">
+        <v>0.73299998044967651</v>
+      </c>
+      <c r="C354">
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="D354">
+        <v>0.73299998044967651</v>
+      </c>
+      <c r="E354">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="F354">
+        <v>1767300</v>
+      </c>
+      <c r="G354">
+        <v>1305.98095703125</v>
+      </c>
+      <c r="H354">
+        <f t="shared" si="47"/>
+        <v>352</v>
+      </c>
+      <c r="I354">
+        <f>SUM($F$3:F354)/H354</f>
+        <v>5254259.2412997158</v>
+      </c>
+      <c r="N354">
+        <f t="shared" si="50"/>
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="O354">
+        <f t="shared" si="51"/>
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="P354">
+        <f t="shared" si="46"/>
+        <v>0.73966666062672937</v>
+      </c>
+      <c r="Q354">
+        <f t="shared" si="37"/>
+        <v>0.72338095449265982</v>
+      </c>
+      <c r="R354">
+        <f t="shared" si="38"/>
+        <v>1.6285706134069544E-2</v>
+      </c>
+      <c r="S354">
+        <f t="shared" si="39"/>
+        <v>8.8571423575991657E-3</v>
+      </c>
+      <c r="T354">
+        <f t="shared" si="40"/>
+        <v>1.3285713536398747E-4</v>
+      </c>
+      <c r="U354">
+        <f t="shared" si="41"/>
+        <v>122.5805907183814</v>
+      </c>
+    </row>
+    <row r="355" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A355" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B355">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="C355">
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="D355">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="E355">
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="F355">
+        <v>2062507</v>
+      </c>
+      <c r="G355">
+        <v>1538.0469970703125</v>
+      </c>
+      <c r="H355">
+        <f t="shared" si="47"/>
+        <v>353</v>
+      </c>
+      <c r="I355">
+        <f>SUM($F$3:F355)/H355</f>
+        <v>5245217.4502478754</v>
+      </c>
+      <c r="N355">
+        <f t="shared" si="50"/>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="O355">
+        <f t="shared" si="51"/>
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="P355">
+        <f t="shared" si="46"/>
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="Q355">
+        <f t="shared" si="37"/>
+        <v>0.72471428627059586</v>
+      </c>
+      <c r="R355">
+        <f t="shared" si="38"/>
+        <v>2.1285705623172446E-2</v>
+      </c>
+      <c r="S355">
+        <f t="shared" si="39"/>
+        <v>1.0190474135535104E-2</v>
+      </c>
+      <c r="T355">
+        <f t="shared" si="40"/>
+        <v>1.5285711203302655E-4</v>
+      </c>
+      <c r="U355">
+        <f t="shared" si="41"/>
+        <v>139.25230785842285</v>
+      </c>
+    </row>
+    <row r="356" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A356" s="1">
+        <v>44903</v>
+      </c>
+      <c r="B356">
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="C356">
+        <v>0.74800002574920654</v>
+      </c>
+      <c r="D356">
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="E356">
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="F356">
+        <v>3449804</v>
+      </c>
+      <c r="G356">
+        <v>2575.367919921875</v>
+      </c>
+      <c r="H356">
+        <f t="shared" si="47"/>
+        <v>354</v>
+      </c>
+      <c r="I356">
+        <f>SUM($F$3:F356)/H356</f>
+        <v>5240145.6608403958</v>
+      </c>
+      <c r="N356">
+        <f t="shared" si="50"/>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="O356">
+        <f t="shared" si="51"/>
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="P356">
+        <f t="shared" si="46"/>
+        <v>0.74466667572657264</v>
+      </c>
+      <c r="Q356">
+        <f t="shared" si="37"/>
+        <v>0.72550000037465778</v>
+      </c>
+      <c r="R356">
+        <f t="shared" si="38"/>
+        <v>1.9166675351914852E-2</v>
+      </c>
+      <c r="S356">
+        <f t="shared" si="39"/>
+        <v>1.0976188239597133E-2</v>
+      </c>
+      <c r="T356">
+        <f t="shared" si="40"/>
+        <v>1.64642823593957E-4</v>
+      </c>
+      <c r="U356">
+        <f t="shared" si="41"/>
+        <v>116.41367011041919</v>
+      </c>
+    </row>
+    <row r="357" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A357" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B357">
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="C357">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="D357">
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="E357">
+        <v>0.75</v>
+      </c>
+      <c r="F357">
+        <v>4098100</v>
+      </c>
+      <c r="G357">
+        <v>3059.9140625</v>
+      </c>
+      <c r="H357">
+        <f t="shared" si="47"/>
+        <v>355</v>
+      </c>
+      <c r="I357">
+        <f>SUM($F$3:F357)/H357</f>
+        <v>5236928.6308098594</v>
+      </c>
+      <c r="N357">
+        <f t="shared" si="50"/>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="O357">
+        <f t="shared" si="51"/>
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="P357">
+        <f t="shared" si="46"/>
+        <v>0.74833333492279053</v>
+      </c>
+      <c r="Q357">
+        <f t="shared" si="37"/>
+        <v>0.72707143000194008</v>
+      </c>
+      <c r="R357">
+        <f t="shared" si="38"/>
+        <v>2.126190492085045E-2</v>
+      </c>
+      <c r="S357">
+        <f t="shared" si="39"/>
+        <v>1.2547617866879412E-2</v>
+      </c>
+      <c r="T357">
+        <f t="shared" si="40"/>
+        <v>1.8821426800319117E-4</v>
+      </c>
+      <c r="U357">
+        <f t="shared" si="41"/>
+        <v>112.96648838806394</v>
+      </c>
+    </row>
+    <row r="358" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A358" s="1">
+        <v>44907</v>
+      </c>
+      <c r="B358">
+        <v>0.74500000476837158</v>
+      </c>
+      <c r="C358">
+        <v>0.74900001287460327</v>
+      </c>
+      <c r="D358">
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="E358">
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="F358">
+        <v>1660900</v>
+      </c>
+      <c r="G358">
+        <v>1239.9219970703125</v>
+      </c>
+      <c r="H358">
+        <f t="shared" si="47"/>
+        <v>356</v>
+      </c>
+      <c r="I358">
+        <f>SUM($F$3:F358)/H358</f>
+        <v>5226883.606566011</v>
+      </c>
+      <c r="N358">
+        <f t="shared" si="50"/>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="O358">
+        <f t="shared" si="51"/>
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="P358">
+        <f t="shared" si="46"/>
+        <v>0.74666666984558105</v>
+      </c>
+      <c r="Q358">
+        <f t="shared" si="37"/>
+        <v>0.72907142979758122</v>
+      </c>
+      <c r="R358">
+        <f t="shared" si="38"/>
+        <v>1.7595240047999838E-2</v>
+      </c>
+      <c r="S358">
+        <f t="shared" si="39"/>
+        <v>1.3061223792381029E-2</v>
+      </c>
+      <c r="T358">
+        <f t="shared" si="40"/>
+        <v>1.9591835688571543E-4</v>
+      </c>
+      <c r="U358">
+        <f t="shared" si="41"/>
+        <v>89.809042540427313</v>
+      </c>
+    </row>
+    <row r="359" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A359" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B359">
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="C359">
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="D359">
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="E359">
+        <v>0.73799997568130493</v>
+      </c>
+      <c r="F359">
+        <v>3002001</v>
+      </c>
+      <c r="G359">
+        <v>2222.159912109375</v>
+      </c>
+      <c r="H359">
+        <f t="shared" si="47"/>
+        <v>357</v>
+      </c>
+      <c r="I359">
+        <f>SUM($F$3:F359)/H359</f>
+        <v>5220651.4424019605</v>
+      </c>
+      <c r="N359">
+        <f t="shared" si="50"/>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="O359">
+        <f t="shared" si="51"/>
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="P359">
+        <f t="shared" si="46"/>
+        <v>0.74033331871032715</v>
+      </c>
+      <c r="Q359">
+        <f t="shared" si="37"/>
+        <v>0.73083333316303445</v>
+      </c>
+      <c r="R359">
+        <f t="shared" si="38"/>
+        <v>9.4999855472926997E-3</v>
+      </c>
+      <c r="S359">
+        <f t="shared" si="39"/>
+        <v>1.24047607386193E-2</v>
+      </c>
+      <c r="T359">
+        <f t="shared" si="40"/>
+        <v>1.8607141107928951E-4</v>
+      </c>
+      <c r="U359">
+        <f t="shared" si="41"/>
+        <v>51.055589314817027</v>
+      </c>
+    </row>
+    <row r="360" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A360" s="1">
+        <v>44909</v>
+      </c>
+      <c r="B360">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="C360">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="D360">
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="E360">
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="F360">
+        <v>4652100</v>
+      </c>
+      <c r="G360">
+        <v>3427.55908203125</v>
+      </c>
+      <c r="H360">
+        <f t="shared" si="47"/>
+        <v>358</v>
+      </c>
+      <c r="I360">
+        <f>SUM($F$3:F360)/H360</f>
+        <v>5219063.3098812848</v>
+      </c>
+      <c r="N360">
+        <f t="shared" si="50"/>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="O360">
+        <f t="shared" si="51"/>
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="P360">
+        <f t="shared" si="46"/>
+        <v>0.73666667938232422</v>
+      </c>
+      <c r="Q360">
+        <f t="shared" si="37"/>
+        <v>0.73233333371934428</v>
+      </c>
+      <c r="R360">
+        <f t="shared" si="38"/>
+        <v>4.3333456629799372E-3</v>
+      </c>
+      <c r="S360">
+        <f t="shared" si="39"/>
+        <v>1.1285716173600207E-2</v>
+      </c>
+      <c r="T360">
+        <f t="shared" si="40"/>
+        <v>1.6928574260400309E-4</v>
+      </c>
+      <c r="U360">
+        <f t="shared" si="41"/>
+        <v>25.597818199708609</v>
+      </c>
+    </row>
+    <row r="361" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A361" s="1">
+        <v>44910</v>
+      </c>
+      <c r="B361">
+        <v>0.73900002241134644</v>
+      </c>
+      <c r="C361">
+        <v>0.74299997091293335</v>
+      </c>
+      <c r="D361">
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="E361">
+        <v>0.74299997091293335</v>
+      </c>
+      <c r="F361">
+        <v>3350200</v>
+      </c>
+      <c r="G361">
+        <v>2474.9130859375</v>
+      </c>
+      <c r="H361">
+        <f t="shared" si="47"/>
+        <v>359</v>
+      </c>
+      <c r="I361">
+        <f>SUM($F$3:F361)/H361</f>
+        <v>5213857.5625</v>
+      </c>
+      <c r="N361">
+        <f t="shared" si="50"/>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="O361">
+        <f t="shared" si="51"/>
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="P361">
+        <f t="shared" si="46"/>
+        <v>0.74033331871032715</v>
+      </c>
+      <c r="Q361">
+        <f t="shared" si="37"/>
+        <v>0.73435714131309859</v>
+      </c>
+      <c r="R361">
+        <f t="shared" si="38"/>
+        <v>5.9761773972285548E-3</v>
+      </c>
+      <c r="S361">
+        <f t="shared" si="39"/>
+        <v>9.6870741876615395E-3</v>
+      </c>
+      <c r="T361">
+        <f t="shared" si="40"/>
+        <v>1.4530611281492309E-4</v>
+      </c>
+      <c r="U361">
+        <f t="shared" si="41"/>
+        <v>41.128189870720945</v>
+      </c>
+    </row>
+    <row r="362" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A362" s="1">
+        <v>44911</v>
+      </c>
+      <c r="B362">
+        <v>0.73799997568130493</v>
+      </c>
+      <c r="C362">
+        <v>0.73799997568130493</v>
+      </c>
+      <c r="D362">
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="E362">
+        <v>0.73600000143051147</v>
+      </c>
+      <c r="F362">
+        <v>2607600</v>
+      </c>
+      <c r="G362">
+        <v>1922.4029541015625</v>
+      </c>
+      <c r="H362">
+        <f t="shared" si="47"/>
+        <v>360</v>
+      </c>
+      <c r="I362">
+        <f>SUM($F$3:F362)/H362</f>
+        <v>5206617.9581597224</v>
+      </c>
+      <c r="N362">
+        <f t="shared" si="50"/>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="O362">
+        <f t="shared" si="51"/>
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="P362">
+        <f t="shared" si="46"/>
+        <v>0.73633333047231042</v>
+      </c>
+      <c r="Q362">
+        <f t="shared" si="37"/>
+        <v>0.73673809426171455</v>
+      </c>
+      <c r="R362">
+        <f t="shared" si="38"/>
+        <v>-4.0476378940412783E-4</v>
+      </c>
+      <c r="S362">
+        <f t="shared" si="39"/>
+        <v>6.9761872291564941E-3</v>
+      </c>
+      <c r="T362">
+        <f t="shared" si="40"/>
+        <v>1.0464280843734741E-4</v>
+      </c>
+      <c r="U362">
+        <f t="shared" si="41"/>
+        <v>-3.8680516649786907</v>
+      </c>
+    </row>
+    <row r="363" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A363" s="1">
+        <v>44914</v>
+      </c>
+      <c r="B363">
+        <v>0.74099999666213989</v>
+      </c>
+      <c r="C363">
+        <v>0.74099999666213989</v>
+      </c>
+      <c r="D363">
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="E363">
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="F363">
+        <v>3066702</v>
+      </c>
+      <c r="G363">
+        <v>2247.702880859375</v>
+      </c>
+      <c r="H363">
+        <f t="shared" si="47"/>
+        <v>361</v>
+      </c>
+      <c r="I363">
+        <f>SUM($F$3:F363)/H363</f>
+        <v>5200690.2131232684</v>
+      </c>
+      <c r="N363">
+        <f t="shared" si="50"/>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="O363">
+        <f t="shared" si="51"/>
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="P363">
+        <f t="shared" si="46"/>
+        <v>0.73100000619888306</v>
+      </c>
+      <c r="Q363">
+        <f t="shared" si="37"/>
+        <v>0.7378333324477786</v>
+      </c>
+      <c r="R363">
+        <f t="shared" si="38"/>
+        <v>-6.8333262488955437E-3</v>
+      </c>
+      <c r="S363">
+        <f t="shared" si="39"/>
+        <v>5.8809490430922762E-3</v>
+      </c>
+      <c r="T363">
+        <f t="shared" si="40"/>
+        <v>8.8214235646384139E-5</v>
+      </c>
+      <c r="U363">
+        <f t="shared" si="41"/>
+        <v>-77.462851645483127</v>
+      </c>
+    </row>
+    <row r="364" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A364" s="1">
+        <v>44915</v>
+      </c>
+      <c r="B364">
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="C364">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="D364">
+        <v>0.7160000205039978</v>
+      </c>
+      <c r="E364">
+        <v>0.71899998188018799</v>
+      </c>
+      <c r="F364">
+        <v>3940700</v>
+      </c>
+      <c r="G364">
+        <v>2847.77294921875</v>
+      </c>
+      <c r="H364">
+        <f t="shared" si="47"/>
+        <v>362</v>
+      </c>
+      <c r="I364">
+        <f>SUM($F$3:F364)/H364</f>
+        <v>5197209.5771754142</v>
+      </c>
+      <c r="N364">
+        <f t="shared" si="50"/>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="O364">
+        <f t="shared" si="51"/>
+        <v>0.7160000205039978</v>
+      </c>
+      <c r="P364">
+        <f t="shared" si="46"/>
+        <v>0.72099999586741126</v>
+      </c>
+      <c r="Q364">
+        <f t="shared" si="37"/>
+        <v>0.73783333244777871</v>
+      </c>
+      <c r="R364">
+        <f t="shared" si="38"/>
+        <v>-1.6833336580367453E-2</v>
+      </c>
+      <c r="S364">
+        <f t="shared" si="39"/>
+        <v>5.8809490430922762E-3</v>
+      </c>
+      <c r="T364">
+        <f t="shared" si="40"/>
+        <v>8.8214235646384139E-5</v>
+      </c>
+      <c r="U364">
+        <f t="shared" si="41"/>
+        <v>-190.82335699019848</v>
+      </c>
+    </row>
+    <row r="365" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A365" s="1">
+        <v>44916</v>
+      </c>
+      <c r="B365">
+        <v>0.72100001573562622</v>
+      </c>
+      <c r="C365">
+        <v>0.72100001573562622</v>
+      </c>
+      <c r="D365">
+        <v>0.71299999952316284</v>
+      </c>
+      <c r="E365">
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="F365">
+        <v>2461800</v>
+      </c>
+      <c r="G365">
+        <v>1768.2430419921875</v>
+      </c>
+      <c r="H365">
+        <f t="shared" si="47"/>
+        <v>363</v>
+      </c>
+      <c r="I365">
+        <f>SUM($F$3:F365)/H365</f>
+        <v>5189674.013601928</v>
+      </c>
+      <c r="N365">
+        <f t="shared" si="50"/>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="O365">
+        <f t="shared" si="51"/>
+        <v>0.71299999952316284</v>
+      </c>
+      <c r="P365">
+        <f t="shared" si="46"/>
+        <v>0.71633332967758179</v>
+      </c>
+      <c r="Q365">
+        <f t="shared" si="37"/>
+        <v>0.73654761768522714</v>
+      </c>
+      <c r="R365">
+        <f t="shared" si="38"/>
+        <v>-2.0214288007645353E-2</v>
+      </c>
+      <c r="S365">
+        <f t="shared" si="39"/>
+        <v>7.1836726195147315E-3</v>
+      </c>
+      <c r="T365">
+        <f t="shared" si="40"/>
+        <v>1.0775508929272096E-4</v>
+      </c>
+      <c r="U365">
+        <f t="shared" si="41"/>
+        <v>-187.59474044638802</v>
+      </c>
+    </row>
+    <row r="366" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A366" s="1">
+        <v>44917</v>
+      </c>
+      <c r="B366">
+        <v>0.71700000762939453</v>
+      </c>
+      <c r="C366">
+        <v>0.72100001573562622</v>
+      </c>
+      <c r="D366">
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="E366">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="F366">
+        <v>3196400</v>
+      </c>
+      <c r="G366">
+        <v>2294.62109375</v>
+      </c>
+      <c r="H366">
+        <f t="shared" si="47"/>
+        <v>364</v>
+      </c>
+      <c r="I366">
+        <f>SUM($F$3:F366)/H366</f>
+        <v>5184197.9860920329</v>
+      </c>
+      <c r="N366">
+        <f t="shared" si="50"/>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="O366">
+        <f t="shared" si="51"/>
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="P366">
+        <f t="shared" si="46"/>
+        <v>0.71533334255218506</v>
+      </c>
+      <c r="Q366">
+        <f t="shared" si="37"/>
+        <v>0.73542857170104969</v>
+      </c>
+      <c r="R366">
+        <f t="shared" si="38"/>
+        <v>-2.0095229148864635E-2</v>
+      </c>
+      <c r="S366">
+        <f t="shared" si="39"/>
+        <v>8.5918335687546876E-3</v>
+      </c>
+      <c r="T366">
+        <f t="shared" si="40"/>
+        <v>1.288775035313203E-4</v>
+      </c>
+      <c r="U366">
+        <f t="shared" si="41"/>
+        <v>-155.92503422430912</v>
+      </c>
+    </row>
+    <row r="367" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A367" s="1">
+        <v>44918</v>
+      </c>
+      <c r="B367">
+        <v>0.70899999141693115</v>
+      </c>
+      <c r="C367">
+        <v>0.71299999952316284</v>
+      </c>
+      <c r="D367">
+        <v>0.7070000171661377</v>
+      </c>
+      <c r="E367">
+        <v>0.70999997854232788</v>
+      </c>
+      <c r="F367">
+        <v>3038001</v>
+      </c>
+      <c r="G367">
+        <v>2157.553955078125</v>
+      </c>
+      <c r="H367">
+        <f t="shared" si="47"/>
+        <v>365</v>
+      </c>
+      <c r="I367">
+        <f>SUM($F$3:F367)/H367</f>
+        <v>5178317.9943493148</v>
+      </c>
+      <c r="N367">
+        <f t="shared" si="50"/>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="O367">
+        <f t="shared" si="51"/>
+        <v>0.7070000171661377</v>
+      </c>
+      <c r="P367">
+        <f t="shared" si="46"/>
+        <v>0.70999999841054284</v>
+      </c>
+      <c r="Q367">
+        <f t="shared" si="37"/>
+        <v>0.73376190378552397</v>
+      </c>
+      <c r="R367">
+        <f t="shared" si="38"/>
+        <v>-2.3761905374981129E-2</v>
+      </c>
+      <c r="S367">
+        <f t="shared" si="39"/>
+        <v>1.0734692317287924E-2</v>
+      </c>
+      <c r="T367">
+        <f t="shared" si="40"/>
+        <v>1.6102038475931886E-4</v>
+      </c>
+      <c r="U367">
+        <f t="shared" si="41"/>
+        <v>-147.5707899375513</v>
+      </c>
+    </row>
+    <row r="368" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A368" s="1">
+        <v>44921</v>
+      </c>
+      <c r="B368">
+        <v>0.7070000171661377</v>
+      </c>
+      <c r="C368">
+        <v>0.72100001573562622</v>
+      </c>
+      <c r="D368">
+        <v>0.7070000171661377</v>
+      </c>
+      <c r="E368">
+        <v>0.71899998188018799</v>
+      </c>
+      <c r="F368">
+        <v>5080404</v>
+      </c>
+      <c r="G368">
+        <v>3635.52587890625</v>
+      </c>
+      <c r="H368">
+        <f t="shared" si="47"/>
+        <v>366</v>
+      </c>
+      <c r="I368">
+        <f>SUM($F$3:F368)/H368</f>
+        <v>5178050.4697745899</v>
+      </c>
+      <c r="N368">
+        <f t="shared" si="50"/>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="O368">
+        <f t="shared" si="51"/>
+        <v>0.7070000171661377</v>
+      </c>
+      <c r="P368">
+        <f t="shared" si="46"/>
+        <v>0.71566667159398401</v>
+      </c>
+      <c r="Q368">
+        <f t="shared" si="37"/>
+        <v>0.73204761885461356</v>
+      </c>
+      <c r="R368">
+        <f t="shared" si="38"/>
+        <v>-1.6380947260629553E-2</v>
+      </c>
+      <c r="S368">
+        <f t="shared" si="39"/>
+        <v>1.1850338403870453E-2</v>
+      </c>
+      <c r="T368">
+        <f t="shared" si="40"/>
+        <v>1.7775507605805678E-4</v>
+      </c>
+      <c r="U368">
+        <f t="shared" si="41"/>
+        <v>-92.154596222497489</v>
+      </c>
+    </row>
+    <row r="369" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A369" s="1">
+        <v>44922</v>
+      </c>
+      <c r="B369">
+        <v>0.72200000286102295</v>
+      </c>
+      <c r="C369">
+        <v>0.73000001907348633</v>
+      </c>
+      <c r="D369">
+        <v>0.71899998188018799</v>
+      </c>
+      <c r="E369">
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="F369">
+        <v>6773900</v>
+      </c>
+      <c r="G369">
+        <v>4913.7880859375</v>
+      </c>
+      <c r="H369">
+        <f t="shared" si="47"/>
+        <v>367</v>
+      </c>
+      <c r="I369">
+        <f>SUM($F$3:F369)/H369</f>
+        <v>5182398.8336171666</v>
+      </c>
+      <c r="N369">
+        <f t="shared" si="50"/>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="O369">
+        <f t="shared" si="51"/>
+        <v>0.7070000171661377</v>
+      </c>
+      <c r="P369">
+        <f t="shared" si="46"/>
+        <v>0.72599999109903968</v>
+      </c>
+      <c r="Q369">
+        <f t="shared" si="37"/>
+        <v>0.73061904736927574</v>
+      </c>
+      <c r="R369">
+        <f t="shared" si="38"/>
+        <v>-4.619056270236066E-3</v>
+      </c>
+      <c r="S369">
+        <f t="shared" si="39"/>
+        <v>1.1340136430701435E-2</v>
+      </c>
+      <c r="T369">
+        <f t="shared" si="40"/>
+        <v>1.7010204646052151E-4</v>
+      </c>
+      <c r="U369">
+        <f t="shared" si="41"/>
+        <v>-27.154619043975401</v>
+      </c>
+    </row>
+    <row r="370" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A370" s="1">
+        <v>44923</v>
+      </c>
+      <c r="B370">
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="C370">
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="D370">
+        <v>0.71700000762939453</v>
+      </c>
+      <c r="E370">
+        <v>0.72100001573562622</v>
+      </c>
+      <c r="F370">
+        <v>2380500</v>
+      </c>
+      <c r="G370">
+        <v>1714.72998046875</v>
+      </c>
+      <c r="H370">
+        <f t="shared" si="47"/>
+        <v>368</v>
+      </c>
+      <c r="I370">
+        <f>SUM($F$3:F370)/H370</f>
+        <v>5174784.9780910322</v>
+      </c>
+      <c r="N370">
+        <f t="shared" si="50"/>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="O370">
+        <f t="shared" si="51"/>
+        <v>0.7070000171661377</v>
+      </c>
+      <c r="P370">
+        <f t="shared" si="46"/>
+        <v>0.72066666682561242</v>
+      </c>
+      <c r="Q370">
+        <f t="shared" si="37"/>
+        <v>0.72890476101920731</v>
+      </c>
+      <c r="R370">
+        <f t="shared" si="38"/>
+        <v>-8.2380941935948915E-3</v>
+      </c>
+      <c r="S370">
+        <f t="shared" si="39"/>
+        <v>1.1047618729727609E-2</v>
+      </c>
+      <c r="T370">
+        <f t="shared" si="40"/>
+        <v>1.6571428094591412E-4</v>
+      </c>
+      <c r="U370">
+        <f t="shared" si="41"/>
+        <v>-49.712638805605678</v>
+      </c>
+    </row>
+    <row r="371" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A371" s="1">
+        <v>44924</v>
+      </c>
+      <c r="B371">
+        <v>0.71700000762939453</v>
+      </c>
+      <c r="C371">
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="D371">
+        <v>0.71700000762939453</v>
+      </c>
+      <c r="E371">
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="F371">
+        <v>3941701.25</v>
+      </c>
+      <c r="G371">
+        <v>2847.658935546875</v>
+      </c>
+      <c r="H371">
+        <f t="shared" si="47"/>
+        <v>369</v>
+      </c>
+      <c r="I371">
+        <f>SUM($F$3:F371)/H371</f>
+        <v>5171443.2877710024</v>
+      </c>
+      <c r="N371">
+        <f t="shared" si="50"/>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="O371">
+        <f t="shared" si="51"/>
+        <v>0.7070000171661377</v>
+      </c>
+      <c r="P371">
+        <f t="shared" si="46"/>
+        <v>0.72200000286102295</v>
+      </c>
+      <c r="Q371">
+        <f t="shared" si="37"/>
+        <v>0.72702380872908101</v>
+      </c>
+      <c r="R371">
+        <f t="shared" si="38"/>
+        <v>-5.0238058680580622E-3</v>
+      </c>
+      <c r="S371">
+        <f t="shared" si="39"/>
+        <v>9.8843529921810759E-3</v>
+      </c>
+      <c r="T371">
+        <f t="shared" si="40"/>
+        <v>1.4826529488271614E-4</v>
+      </c>
+      <c r="U371">
+        <f t="shared" si="41"/>
+        <v>-33.883896241747578</v>
+      </c>
+    </row>
+    <row r="372" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A372" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B372">
+        <v>0.72500002384185791</v>
+      </c>
+      <c r="C372">
+        <v>0.72699999809265137</v>
+      </c>
+      <c r="D372">
+        <v>0.72100001573562622</v>
+      </c>
+      <c r="E372">
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="F372">
+        <v>2041800</v>
+      </c>
+      <c r="G372">
+        <v>1479.02197265625</v>
+      </c>
+      <c r="H372">
+        <f t="shared" si="47"/>
+        <v>370</v>
+      </c>
+      <c r="I372">
+        <f>SUM($F$3:F372)/H372</f>
+        <v>5162984.7923986483</v>
+      </c>
+      <c r="N372">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="O372">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="P372">
+        <f t="shared" si="46"/>
+        <v>0.72366666793823242</v>
+      </c>
+      <c r="Q372">
+        <f t="shared" si="37"/>
+        <v>0.7253809514499846</v>
+      </c>
+      <c r="R372">
+        <f t="shared" si="38"/>
+        <v>-1.7142835117521793E-3</v>
+      </c>
+      <c r="S372">
+        <f t="shared" si="39"/>
+        <v>8.340133696186294E-3</v>
+      </c>
+      <c r="T372">
+        <f t="shared" si="40"/>
+        <v>1.2510200544279442E-4</v>
+      </c>
+      <c r="U372">
+        <f t="shared" si="41"/>
+        <v>-13.703085779356849</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U372"/>
+  <dimension ref="A1:U388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A358" workbookViewId="0">
-      <selection activeCell="A373" sqref="A373"/>
+    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
+      <selection activeCell="A389" sqref="A389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1517,7 +1517,7 @@
         <v>89.929873772791396</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44399</v>
       </c>
@@ -1547,6 +1547,12 @@
         <f>SUM($F$3:F21)/H21</f>
         <v>40637239.315789476</v>
       </c>
+      <c r="K21" s="2">
+        <v>44985</v>
+      </c>
+      <c r="L21" s="2">
+        <v>44958</v>
+      </c>
       <c r="N21">
         <f t="shared" si="2"/>
         <v>1.054</v>
@@ -17373,23 +17379,23 @@
         <v>0.78866666555404663</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272:Q372" si="37">SUM(P259:P272)/14</f>
+        <f t="shared" ref="Q272:Q388" si="37">SUM(P259:P272)/14</f>
         <v>0.8100476208187285</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272:R372" si="38">P272-Q272</f>
+        <f t="shared" ref="R272:R388" si="38">P272-Q272</f>
         <v>-2.1380955264681867E-2</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272:S372" si="39">AVEDEV(P259:P272)</f>
+        <f t="shared" ref="S272:S388" si="39">AVEDEV(P259:P272)</f>
         <v>7.8163195629509085E-3</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272:T372" si="40">0.015*S272</f>
+        <f t="shared" ref="T272:T388" si="40">0.015*S272</f>
         <v>1.1724479344426362E-4</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272:U372" si="41">R272/T272</f>
+        <f t="shared" ref="U272:U388" si="41">R272/T272</f>
         <v>-182.36166090263143</v>
       </c>
     </row>
@@ -20519,7 +20525,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P372" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P388" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20629,7 +20635,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H372" si="47">H323+1</f>
+        <f t="shared" ref="H324:H388" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -22338,11 +22344,11 @@
         <v>5276945.1430873927</v>
       </c>
       <c r="N351">
-        <f t="shared" ref="N351:N372" si="50">IF(A351&lt;&gt;$K$19,MAX(N350,VLOOKUP(A351,A:C,3)),)</f>
+        <f t="shared" ref="N351:N371" si="50">IF(A351&lt;&gt;$K$19,MAX(N350,VLOOKUP(A351,A:C,3)),)</f>
         <v>0.74000000953674316</v>
       </c>
       <c r="O351">
-        <f t="shared" ref="O351:O372" si="51">IF(A351&lt;&gt;$K$19,MIN(O350,VLOOKUP(A351,A:D,4)),)</f>
+        <f t="shared" ref="O351:O371" si="51">IF(A351&lt;&gt;$K$19,MIN(O350,VLOOKUP(A351,A:D,4)),)</f>
         <v>0.72899997234344482</v>
       </c>
       <c r="P351">
@@ -23661,12 +23667,12 @@
         <v>5162984.7923986483</v>
       </c>
       <c r="N372">
-        <f t="shared" si="50"/>
-        <v>0</v>
+        <f>VLOOKUP(L20,A:C,3)</f>
+        <v>0.72899997234344482</v>
       </c>
       <c r="O372">
-        <f t="shared" si="51"/>
-        <v>0</v>
+        <f>VLOOKUP(L20,A:D,4)</f>
+        <v>0.7149999737739563</v>
       </c>
       <c r="P372">
         <f t="shared" si="46"/>
@@ -23691,6 +23697,1014 @@
       <c r="U372">
         <f t="shared" si="41"/>
         <v>-13.703085779356849</v>
+      </c>
+    </row>
+    <row r="373" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A373" s="1">
+        <v>44929</v>
+      </c>
+      <c r="B373">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="C373">
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="D373">
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="E373">
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="F373">
+        <v>1565200</v>
+      </c>
+      <c r="G373">
+        <v>1129.6409912109375</v>
+      </c>
+      <c r="H373">
+        <f t="shared" si="47"/>
+        <v>371</v>
+      </c>
+      <c r="I373">
+        <f>SUM($F$3:F373)/H373</f>
+        <v>5153287.2592654983</v>
+      </c>
+      <c r="N373">
+        <f t="shared" ref="N373:N388" si="52">IF(A373&lt;&gt;$K$20,MAX(N372,VLOOKUP(A373,A:C,3)),)</f>
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="O373">
+        <f t="shared" ref="O373:O388" si="53">IF(A373&lt;&gt;$K$20,MIN(O372,VLOOKUP(A373,A:D,4)),)</f>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="P373">
+        <f t="shared" si="46"/>
+        <v>0.72433330615361535</v>
+      </c>
+      <c r="Q373">
+        <f t="shared" si="37"/>
+        <v>0.7242380934102195</v>
+      </c>
+      <c r="R373">
+        <f t="shared" si="38"/>
+        <v>9.5212743395856059E-5</v>
+      </c>
+      <c r="S373">
+        <f t="shared" si="39"/>
+        <v>7.0340102221690083E-3</v>
+      </c>
+      <c r="T373">
+        <f t="shared" si="40"/>
+        <v>1.0551015333253512E-4</v>
+      </c>
+      <c r="U373">
+        <f t="shared" si="41"/>
+        <v>0.90240361129772195</v>
+      </c>
+    </row>
+    <row r="374" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A374" s="1">
+        <v>44930</v>
+      </c>
+      <c r="B374">
+        <v>0.72500002384185791</v>
+      </c>
+      <c r="C374">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="D374">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="E374">
+        <v>0.72500002384185791</v>
+      </c>
+      <c r="F374">
+        <v>1636900</v>
+      </c>
+      <c r="G374">
+        <v>1184.56201171875</v>
+      </c>
+      <c r="H374">
+        <f t="shared" si="47"/>
+        <v>372</v>
+      </c>
+      <c r="I374">
+        <f>SUM($F$3:F374)/H374</f>
+        <v>5143834.6053427421</v>
+      </c>
+      <c r="N374">
+        <f t="shared" si="52"/>
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="O374">
+        <f t="shared" si="53"/>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="P374">
+        <f t="shared" si="46"/>
+        <v>0.72433334589004517</v>
+      </c>
+      <c r="Q374">
+        <f t="shared" si="37"/>
+        <v>0.72335714101791382</v>
+      </c>
+      <c r="R374">
+        <f t="shared" si="38"/>
+        <v>9.7620487213134766E-4</v>
+      </c>
+      <c r="S374">
+        <f t="shared" si="39"/>
+        <v>6.0714256195794946E-3</v>
+      </c>
+      <c r="T374">
+        <f t="shared" si="40"/>
+        <v>9.1071384293692418E-5</v>
+      </c>
+      <c r="U374">
+        <f t="shared" si="41"/>
+        <v>10.719117532936846</v>
+      </c>
+    </row>
+    <row r="375" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A375" s="1">
+        <v>44931</v>
+      </c>
+      <c r="B375">
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="C375">
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="D375">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="E375">
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="F375">
+        <v>1151000</v>
+      </c>
+      <c r="G375">
+        <v>847.927001953125</v>
+      </c>
+      <c r="H375">
+        <f t="shared" si="47"/>
+        <v>373</v>
+      </c>
+      <c r="I375">
+        <f>SUM($F$3:F375)/H375</f>
+        <v>5133129.9549262738</v>
+      </c>
+      <c r="N375">
+        <f t="shared" si="52"/>
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="O375">
+        <f t="shared" si="53"/>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="P375">
+        <f t="shared" si="46"/>
+        <v>0.73799999554951989</v>
+      </c>
+      <c r="Q375">
+        <f t="shared" si="37"/>
+        <v>0.72319047507785617</v>
+      </c>
+      <c r="R375">
+        <f t="shared" si="38"/>
+        <v>1.4809520471663729E-2</v>
+      </c>
+      <c r="S375">
+        <f t="shared" si="39"/>
+        <v>5.9047596795218328E-3</v>
+      </c>
+      <c r="T375">
+        <f t="shared" si="40"/>
+        <v>8.8571395192827494E-5</v>
+      </c>
+      <c r="U375">
+        <f t="shared" si="41"/>
+        <v>167.20432640156722</v>
+      </c>
+    </row>
+    <row r="376" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A376" s="1">
+        <v>44932</v>
+      </c>
+      <c r="B376">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="C376">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="D376">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="E376">
+        <v>0.74500000476837158</v>
+      </c>
+      <c r="F376">
+        <v>2536002</v>
+      </c>
+      <c r="G376">
+        <v>1894.322998046875</v>
+      </c>
+      <c r="H376">
+        <f t="shared" si="47"/>
+        <v>374</v>
+      </c>
+      <c r="I376">
+        <f>SUM($F$3:F376)/H376</f>
+        <v>5126185.7625334226</v>
+      </c>
+      <c r="N376">
+        <f t="shared" si="52"/>
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="O376">
+        <f t="shared" si="53"/>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="P376">
+        <f t="shared" si="46"/>
+        <v>0.74533333381017053</v>
+      </c>
+      <c r="Q376">
+        <f t="shared" si="37"/>
+        <v>0.72383333245913195</v>
+      </c>
+      <c r="R376">
+        <f t="shared" si="38"/>
+        <v>2.1500001351038578E-2</v>
+      </c>
+      <c r="S376">
+        <f t="shared" si="39"/>
+        <v>6.571426278068916E-3</v>
+      </c>
+      <c r="T376">
+        <f t="shared" si="40"/>
+        <v>9.8571394171033733E-5</v>
+      </c>
+      <c r="U376">
+        <f t="shared" si="41"/>
+        <v>218.11603185538169</v>
+      </c>
+    </row>
+    <row r="377" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A377" s="1">
+        <v>44935</v>
+      </c>
+      <c r="B377">
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="C377">
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="D377">
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="E377">
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="F377">
+        <v>2679501</v>
+      </c>
+      <c r="G377">
+        <v>2000.68994140625</v>
+      </c>
+      <c r="H377">
+        <f t="shared" si="47"/>
+        <v>375</v>
+      </c>
+      <c r="I377">
+        <f>SUM($F$3:F377)/H377</f>
+        <v>5119661.2698333338</v>
+      </c>
+      <c r="N377">
+        <f t="shared" si="52"/>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="O377">
+        <f t="shared" si="53"/>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="P377">
+        <f t="shared" si="46"/>
+        <v>0.74833331505457557</v>
+      </c>
+      <c r="Q377">
+        <f t="shared" si="37"/>
+        <v>0.72507142594882423</v>
+      </c>
+      <c r="R377">
+        <f t="shared" si="38"/>
+        <v>2.3261889105751332E-2</v>
+      </c>
+      <c r="S377">
+        <f t="shared" si="39"/>
+        <v>8.1972759597155574E-3</v>
+      </c>
+      <c r="T377">
+        <f t="shared" si="40"/>
+        <v>1.2295913939573336E-4</v>
+      </c>
+      <c r="U377">
+        <f t="shared" si="41"/>
+        <v>189.18389653724685</v>
+      </c>
+    </row>
+    <row r="378" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A378" s="1">
+        <v>44936</v>
+      </c>
+      <c r="B378">
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="C378">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="D378">
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="E378">
+        <v>0.75300002098083496</v>
+      </c>
+      <c r="F378">
+        <v>1321912</v>
+      </c>
+      <c r="G378">
+        <v>988.56402587890625</v>
+      </c>
+      <c r="H378">
+        <f t="shared" si="47"/>
+        <v>376</v>
+      </c>
+      <c r="I378">
+        <f>SUM($F$3:F378)/H378</f>
+        <v>5109560.872839096</v>
+      </c>
+      <c r="N378">
+        <f t="shared" si="52"/>
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="O378">
+        <f t="shared" si="53"/>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="P378">
+        <f t="shared" si="46"/>
+        <v>0.75066667795181274</v>
+      </c>
+      <c r="Q378">
+        <f t="shared" si="37"/>
+        <v>0.72719047466913855</v>
+      </c>
+      <c r="R378">
+        <f t="shared" si="38"/>
+        <v>2.3476203282674191E-2</v>
+      </c>
+      <c r="S378">
+        <f t="shared" si="39"/>
+        <v>1.051020338421774E-2</v>
+      </c>
+      <c r="T378">
+        <f t="shared" si="40"/>
+        <v>1.576530507632661E-4</v>
+      </c>
+      <c r="U378">
+        <f t="shared" si="41"/>
+        <v>148.91055497509126</v>
+      </c>
+    </row>
+    <row r="379" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A379" s="1">
+        <v>44937</v>
+      </c>
+      <c r="B379">
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="C379">
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="D379">
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="E379">
+        <v>0.74800002574920654</v>
+      </c>
+      <c r="F379">
+        <v>2797004</v>
+      </c>
+      <c r="G379">
+        <v>2105.48388671875</v>
+      </c>
+      <c r="H379">
+        <f t="shared" si="47"/>
+        <v>377</v>
+      </c>
+      <c r="I379">
+        <f>SUM($F$3:F379)/H379</f>
+        <v>5103426.7697281167</v>
+      </c>
+      <c r="N379">
+        <f t="shared" si="52"/>
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="O379">
+        <f t="shared" si="53"/>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="P379">
+        <f t="shared" si="46"/>
+        <v>0.75033332904179895</v>
+      </c>
+      <c r="Q379">
+        <f t="shared" si="37"/>
+        <v>0.72961904605229688</v>
+      </c>
+      <c r="R379">
+        <f t="shared" si="38"/>
+        <v>2.0714282989502064E-2</v>
+      </c>
+      <c r="S379">
+        <f t="shared" si="39"/>
+        <v>1.2081631592341808E-2</v>
+      </c>
+      <c r="T379">
+        <f t="shared" si="40"/>
+        <v>1.8122447388512711E-4</v>
+      </c>
+      <c r="U379">
+        <f t="shared" si="41"/>
+        <v>114.30179680164083</v>
+      </c>
+    </row>
+    <row r="380" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A380" s="1">
+        <v>44938</v>
+      </c>
+      <c r="B380">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="C380">
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="D380">
+        <v>0.74900001287460327</v>
+      </c>
+      <c r="E380">
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="F380">
+        <v>2889600</v>
+      </c>
+      <c r="G380">
+        <v>2174.404052734375</v>
+      </c>
+      <c r="H380">
+        <f t="shared" si="47"/>
+        <v>378</v>
+      </c>
+      <c r="I380">
+        <f>SUM($F$3:F380)/H380</f>
+        <v>5097570.0851521166</v>
+      </c>
+      <c r="N380">
+        <f t="shared" si="52"/>
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="O380">
+        <f t="shared" si="53"/>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="P380">
+        <f t="shared" si="46"/>
+        <v>0.75233332316080725</v>
+      </c>
+      <c r="Q380">
+        <f t="shared" si="37"/>
+        <v>0.73226190181005557</v>
+      </c>
+      <c r="R380">
+        <f t="shared" si="38"/>
+        <v>2.0071421350751684E-2</v>
+      </c>
+      <c r="S380">
+        <f t="shared" si="39"/>
+        <v>1.306122338690723E-2</v>
+      </c>
+      <c r="T380">
+        <f t="shared" si="40"/>
+        <v>1.9591835080360844E-4</v>
+      </c>
+      <c r="U380">
+        <f t="shared" si="41"/>
+        <v>102.4478884618194</v>
+      </c>
+    </row>
+    <row r="381" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A381" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B381">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="C381">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="D381">
+        <v>0.74299997091293335</v>
+      </c>
+      <c r="E381">
+        <v>0.75900000333786011</v>
+      </c>
+      <c r="F381">
+        <v>2609100</v>
+      </c>
+      <c r="G381">
+        <v>1971.1600341796875</v>
+      </c>
+      <c r="H381">
+        <f t="shared" si="47"/>
+        <v>379</v>
+      </c>
+      <c r="I381">
+        <f>SUM($F$3:F381)/H381</f>
+        <v>5091004.2010224275</v>
+      </c>
+      <c r="N381">
+        <f t="shared" si="52"/>
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="O381">
+        <f t="shared" si="53"/>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="P381">
+        <f t="shared" si="46"/>
+        <v>0.75866665442784631</v>
+      </c>
+      <c r="Q381">
+        <f t="shared" si="37"/>
+        <v>0.73573809152557745</v>
+      </c>
+      <c r="R381">
+        <f t="shared" si="38"/>
+        <v>2.2928562902268856E-2</v>
+      </c>
+      <c r="S381">
+        <f t="shared" si="39"/>
+        <v>1.3357141188212804E-2</v>
+      </c>
+      <c r="T381">
+        <f t="shared" si="40"/>
+        <v>2.0035711782319206E-4</v>
+      </c>
+      <c r="U381">
+        <f t="shared" si="41"/>
+        <v>114.43847441697822</v>
+      </c>
+    </row>
+    <row r="382" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A382" s="1">
+        <v>44942</v>
+      </c>
+      <c r="B382">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C382">
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="D382">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="E382">
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="F382">
+        <v>3660307</v>
+      </c>
+      <c r="G382">
+        <v>2824.14404296875</v>
+      </c>
+      <c r="H382">
+        <f t="shared" si="47"/>
+        <v>380</v>
+      </c>
+      <c r="I382">
+        <f>SUM($F$3:F382)/H382</f>
+        <v>5087239.2083881581</v>
+      </c>
+      <c r="N382">
+        <f t="shared" si="52"/>
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="O382">
+        <f t="shared" si="53"/>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="P382">
+        <f t="shared" si="46"/>
+        <v>0.77066665887832642</v>
+      </c>
+      <c r="Q382">
+        <f t="shared" si="37"/>
+        <v>0.73966666204588749</v>
+      </c>
+      <c r="R382">
+        <f t="shared" si="38"/>
+        <v>3.0999996832438925E-2</v>
+      </c>
+      <c r="S382">
+        <f t="shared" si="39"/>
+        <v>1.4095236857732134E-2</v>
+      </c>
+      <c r="T382">
+        <f t="shared" si="40"/>
+        <v>2.1142855286598199E-4</v>
+      </c>
+      <c r="U382">
+        <f t="shared" si="41"/>
+        <v>146.62161951271011</v>
+      </c>
+    </row>
+    <row r="383" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A383" s="1">
+        <v>44943</v>
+      </c>
+      <c r="B383">
+        <v>0.79500001668930054</v>
+      </c>
+      <c r="C383">
+        <v>0.79500001668930054</v>
+      </c>
+      <c r="D383">
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="E383">
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="F383">
+        <v>1479900</v>
+      </c>
+      <c r="G383">
+        <v>1148.1639404296875</v>
+      </c>
+      <c r="H383">
+        <f t="shared" si="47"/>
+        <v>381</v>
+      </c>
+      <c r="I383">
+        <f>SUM($F$3:F383)/H383</f>
+        <v>5077771.1264763782</v>
+      </c>
+      <c r="N383">
+        <f t="shared" si="52"/>
+        <v>0.79500001668930054</v>
+      </c>
+      <c r="O383">
+        <f t="shared" si="53"/>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="P383">
+        <f t="shared" si="46"/>
+        <v>0.78099999825159705</v>
+      </c>
+      <c r="Q383">
+        <f t="shared" si="37"/>
+        <v>0.74359523398535587</v>
+      </c>
+      <c r="R383">
+        <f t="shared" si="38"/>
+        <v>3.7404764266241175E-2</v>
+      </c>
+      <c r="S383">
+        <f t="shared" si="39"/>
+        <v>1.5510202670583919E-2</v>
+      </c>
+      <c r="T383">
+        <f t="shared" si="40"/>
+        <v>2.3265304005875878E-4</v>
+      </c>
+      <c r="U383">
+        <f t="shared" si="41"/>
+        <v>160.77487857796416</v>
+      </c>
+    </row>
+    <row r="384" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A384" s="1">
+        <v>44944</v>
+      </c>
+      <c r="B384">
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="C384">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="D384">
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="E384">
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="F384">
+        <v>5034005</v>
+      </c>
+      <c r="G384">
+        <v>3914.56298828125</v>
+      </c>
+      <c r="H384">
+        <f t="shared" si="47"/>
+        <v>382</v>
+      </c>
+      <c r="I384">
+        <f>SUM($F$3:F384)/H384</f>
+        <v>5077656.5554646598</v>
+      </c>
+      <c r="N384">
+        <f t="shared" si="52"/>
+        <v>0.79500001668930054</v>
+      </c>
+      <c r="O384">
+        <f t="shared" si="53"/>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="P384">
+        <f t="shared" si="46"/>
+        <v>0.77733333905537927</v>
+      </c>
+      <c r="Q384">
+        <f t="shared" si="37"/>
+        <v>0.74764285343033932</v>
+      </c>
+      <c r="R384">
+        <f t="shared" si="38"/>
+        <v>2.9690485625039953E-2</v>
+      </c>
+      <c r="S384">
+        <f t="shared" si="39"/>
+        <v>1.5455781197061329E-2</v>
+      </c>
+      <c r="T384">
+        <f t="shared" si="40"/>
+        <v>2.3183671795591992E-4</v>
+      </c>
+      <c r="U384">
+        <f t="shared" si="41"/>
+        <v>128.06636449488181</v>
+      </c>
+    </row>
+    <row r="385" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A385" s="1">
+        <v>44945</v>
+      </c>
+      <c r="B385">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="C385">
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="D385">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="E385">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="F385">
+        <v>1876500</v>
+      </c>
+      <c r="G385">
+        <v>1461.1739501953125</v>
+      </c>
+      <c r="H385">
+        <f t="shared" si="47"/>
+        <v>383</v>
+      </c>
+      <c r="I385">
+        <f>SUM($F$3:F385)/H385</f>
+        <v>5069298.4443537863</v>
+      </c>
+      <c r="N385">
+        <f t="shared" si="52"/>
+        <v>0.79500001668930054</v>
+      </c>
+      <c r="O385">
+        <f t="shared" si="53"/>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="P385">
+        <f t="shared" si="46"/>
+        <v>0.77966666221618652</v>
+      </c>
+      <c r="Q385">
+        <f t="shared" si="37"/>
+        <v>0.75176190052713665</v>
+      </c>
+      <c r="R385">
+        <f t="shared" si="38"/>
+        <v>2.7904761689049873E-2</v>
+      </c>
+      <c r="S385">
+        <f t="shared" si="39"/>
+        <v>1.5585033261046108E-2</v>
+      </c>
+      <c r="T385">
+        <f t="shared" si="40"/>
+        <v>2.3377549891569161E-4</v>
+      </c>
+      <c r="U385">
+        <f t="shared" si="41"/>
+        <v>119.36563847999057</v>
+      </c>
+    </row>
+    <row r="386" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A386" s="1">
+        <v>44946</v>
+      </c>
+      <c r="B386">
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="C386">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="D386">
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="E386">
+        <v>0.78700000047683716</v>
+      </c>
+      <c r="F386">
+        <v>6181202</v>
+      </c>
+      <c r="G386">
+        <v>4860.455078125</v>
+      </c>
+      <c r="H386">
+        <f t="shared" si="47"/>
+        <v>384</v>
+      </c>
+      <c r="I386">
+        <f>SUM($F$3:F386)/H386</f>
+        <v>5072194.0265299482</v>
+      </c>
+      <c r="N386">
+        <f t="shared" si="52"/>
+        <v>0.79500001668930054</v>
+      </c>
+      <c r="O386">
+        <f t="shared" si="53"/>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="P386">
+        <f t="shared" si="46"/>
+        <v>0.78599999348322547</v>
+      </c>
+      <c r="Q386">
+        <f t="shared" si="37"/>
+        <v>0.75621428092320753</v>
+      </c>
+      <c r="R386">
+        <f t="shared" si="38"/>
+        <v>2.9785712560017941E-2</v>
+      </c>
+      <c r="S386">
+        <f t="shared" si="39"/>
+        <v>1.6578231539045047E-2</v>
+      </c>
+      <c r="T386">
+        <f t="shared" si="40"/>
+        <v>2.4867347308567571E-4</v>
+      </c>
+      <c r="U386">
+        <f t="shared" si="41"/>
+        <v>119.77840736456776</v>
+      </c>
+    </row>
+    <row r="387" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A387" s="1">
+        <v>44956</v>
+      </c>
+      <c r="B387">
+        <v>0.78700000047683716</v>
+      </c>
+      <c r="C387">
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="D387">
+        <v>0.78700000047683716</v>
+      </c>
+      <c r="E387">
+        <v>0.79799997806549072</v>
+      </c>
+      <c r="F387">
+        <v>2619200</v>
+      </c>
+      <c r="G387">
+        <v>2099.212890625</v>
+      </c>
+      <c r="H387">
+        <f t="shared" si="47"/>
+        <v>385</v>
+      </c>
+      <c r="I387">
+        <f>SUM($F$3:F387)/H387</f>
+        <v>5065822.6134740263</v>
+      </c>
+      <c r="N387">
+        <f t="shared" si="52"/>
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="O387">
+        <f t="shared" si="53"/>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="P387">
+        <f t="shared" si="46"/>
+        <v>0.79833332697550452</v>
+      </c>
+      <c r="Q387">
+        <f t="shared" si="37"/>
+        <v>0.76149999669619972</v>
+      </c>
+      <c r="R387">
+        <f t="shared" si="38"/>
+        <v>3.6833330279304799E-2</v>
+      </c>
+      <c r="S387">
+        <f t="shared" si="39"/>
+        <v>1.7714285526145877E-2</v>
+      </c>
+      <c r="T387">
+        <f t="shared" si="40"/>
+        <v>2.6571428289218815E-4</v>
+      </c>
+      <c r="U387">
+        <f t="shared" si="41"/>
+        <v>138.62006166318761</v>
+      </c>
+    </row>
+    <row r="388" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A388" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B388">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="C388">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="D388">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="E388">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="F388">
+        <v>2396100</v>
+      </c>
+      <c r="G388">
+        <v>1900.77001953125</v>
+      </c>
+      <c r="H388">
+        <f t="shared" si="47"/>
+        <v>386</v>
+      </c>
+      <c r="I388">
+        <f>SUM($F$3:F388)/H388</f>
+        <v>5058906.2336463733</v>
+      </c>
+      <c r="N388">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="O388">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="P388">
+        <f t="shared" si="46"/>
+        <v>0.79233332475026452</v>
+      </c>
+      <c r="Q388">
+        <f t="shared" si="37"/>
+        <v>0.76635713804335825</v>
+      </c>
+      <c r="R388">
+        <f t="shared" si="38"/>
+        <v>2.5976186706906268E-2</v>
+      </c>
+      <c r="S388">
+        <f t="shared" si="39"/>
+        <v>1.7261905329568037E-2</v>
+      </c>
+      <c r="T388">
+        <f t="shared" si="40"/>
+        <v>2.5892857994352057E-4</v>
+      </c>
+      <c r="U388">
+        <f t="shared" si="41"/>
+        <v>100.32182122410893</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U388"/>
+  <dimension ref="A1:U407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A389" sqref="A389"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="A408" sqref="A408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17379,23 +17379,23 @@
         <v>0.78866666555404663</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272:Q388" si="37">SUM(P259:P272)/14</f>
+        <f t="shared" ref="Q272:Q407" si="37">SUM(P259:P272)/14</f>
         <v>0.8100476208187285</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272:R388" si="38">P272-Q272</f>
+        <f t="shared" ref="R272:R407" si="38">P272-Q272</f>
         <v>-2.1380955264681867E-2</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272:S388" si="39">AVEDEV(P259:P272)</f>
+        <f t="shared" ref="S272:S407" si="39">AVEDEV(P259:P272)</f>
         <v>7.8163195629509085E-3</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272:T388" si="40">0.015*S272</f>
+        <f t="shared" ref="T272:T407" si="40">0.015*S272</f>
         <v>1.1724479344426362E-4</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272:U388" si="41">R272/T272</f>
+        <f t="shared" ref="U272:U407" si="41">R272/T272</f>
         <v>-182.36166090263143</v>
       </c>
     </row>
@@ -20525,7 +20525,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P388" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P407" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20635,7 +20635,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H388" si="47">H323+1</f>
+        <f t="shared" ref="H324:H407" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -23730,11 +23730,11 @@
         <v>5153287.2592654983</v>
       </c>
       <c r="N373">
-        <f t="shared" ref="N373:N388" si="52">IF(A373&lt;&gt;$K$20,MAX(N372,VLOOKUP(A373,A:C,3)),)</f>
+        <f t="shared" ref="N373:N387" si="52">IF(A373&lt;&gt;$K$20,MAX(N372,VLOOKUP(A373,A:C,3)),)</f>
         <v>0.72899997234344482</v>
       </c>
       <c r="O373">
-        <f t="shared" ref="O373:O388" si="53">IF(A373&lt;&gt;$K$20,MIN(O372,VLOOKUP(A373,A:D,4)),)</f>
+        <f t="shared" ref="O373:O387" si="53">IF(A373&lt;&gt;$K$20,MIN(O372,VLOOKUP(A373,A:D,4)),)</f>
         <v>0.7149999737739563</v>
       </c>
       <c r="P373">
@@ -24675,12 +24675,12 @@
         <v>5058906.2336463733</v>
       </c>
       <c r="N388">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f>VLOOKUP(L21,A:C,3)</f>
+        <v>0.80000001192092896</v>
       </c>
       <c r="O388">
-        <f t="shared" si="53"/>
-        <v>0</v>
+        <f>VLOOKUP(L21,A:D,4)</f>
+        <v>0.78799998760223389</v>
       </c>
       <c r="P388">
         <f t="shared" si="46"/>
@@ -24705,6 +24705,1203 @@
       <c r="U388">
         <f t="shared" si="41"/>
         <v>100.32182122410893</v>
+      </c>
+    </row>
+    <row r="389" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A389" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B389">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="C389">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="D389">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="E389">
+        <v>0.79900002479553223</v>
+      </c>
+      <c r="F389">
+        <v>2298500</v>
+      </c>
+      <c r="G389">
+        <v>1828.115966796875</v>
+      </c>
+      <c r="H389">
+        <f t="shared" si="47"/>
+        <v>387</v>
+      </c>
+      <c r="I389">
+        <f>SUM($F$3:F389)/H389</f>
+        <v>5051773.4010012923</v>
+      </c>
+      <c r="N389">
+        <f t="shared" ref="N389:N407" si="54">IF(A389&lt;&gt;$K$21,MAX(N388,VLOOKUP(A389,A:C,3)),)</f>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="O389">
+        <f t="shared" ref="O389:O407" si="55">IF(A389&lt;&gt;$K$21,MIN(O388,VLOOKUP(A389,A:D,4)),)</f>
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="P389">
+        <f t="shared" si="46"/>
+        <v>0.79566667477289832</v>
+      </c>
+      <c r="Q389">
+        <f t="shared" si="37"/>
+        <v>0.77047618655931382</v>
+      </c>
+      <c r="R389">
+        <f t="shared" si="38"/>
+        <v>2.5190488213584494E-2</v>
+      </c>
+      <c r="S389">
+        <f t="shared" si="39"/>
+        <v>1.674149798698165E-2</v>
+      </c>
+      <c r="T389">
+        <f t="shared" si="40"/>
+        <v>2.5112246980472474E-4</v>
+      </c>
+      <c r="U389">
+        <f t="shared" si="41"/>
+        <v>100.31156603856621</v>
+      </c>
+    </row>
+    <row r="390" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A390" s="1">
+        <v>44959</v>
+      </c>
+      <c r="B390">
+        <v>0.80099999904632568</v>
+      </c>
+      <c r="C390">
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="D390">
+        <v>0.79400002956390381</v>
+      </c>
+      <c r="E390">
+        <v>0.79500001668930054</v>
+      </c>
+      <c r="F390">
+        <v>1222000</v>
+      </c>
+      <c r="G390">
+        <v>974.9000244140625</v>
+      </c>
+      <c r="H390">
+        <f t="shared" si="47"/>
+        <v>388</v>
+      </c>
+      <c r="I390">
+        <f>SUM($F$3:F390)/H390</f>
+        <v>5041902.8509987118</v>
+      </c>
+      <c r="N390">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O390">
+        <f t="shared" si="55"/>
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="P390">
+        <f t="shared" si="46"/>
+        <v>0.79700001080830896</v>
+      </c>
+      <c r="Q390">
+        <f t="shared" si="37"/>
+        <v>0.77416666348775232</v>
+      </c>
+      <c r="R390">
+        <f t="shared" si="38"/>
+        <v>2.2833347320556641E-2</v>
+      </c>
+      <c r="S390">
+        <f t="shared" si="39"/>
+        <v>1.6285717487335198E-2</v>
+      </c>
+      <c r="T390">
+        <f t="shared" si="40"/>
+        <v>2.4428576231002794E-4</v>
+      </c>
+      <c r="U390">
+        <f t="shared" si="41"/>
+        <v>93.469824457384391</v>
+      </c>
+    </row>
+    <row r="391" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A391" s="1">
+        <v>44960</v>
+      </c>
+      <c r="B391">
+        <v>0.79199999570846558</v>
+      </c>
+      <c r="C391">
+        <v>0.79199999570846558</v>
+      </c>
+      <c r="D391">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="E391">
+        <v>0.79100000858306885</v>
+      </c>
+      <c r="F391">
+        <v>2231500</v>
+      </c>
+      <c r="G391">
+        <v>1757.35205078125</v>
+      </c>
+      <c r="H391">
+        <f t="shared" si="47"/>
+        <v>389</v>
+      </c>
+      <c r="I391">
+        <f>SUM($F$3:F391)/H391</f>
+        <v>5034678.1650064271</v>
+      </c>
+      <c r="N391">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O391">
+        <f t="shared" si="55"/>
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="P391">
+        <f t="shared" si="46"/>
+        <v>0.78800000747044885</v>
+      </c>
+      <c r="Q391">
+        <f t="shared" si="37"/>
+        <v>0.77699999866031466</v>
+      </c>
+      <c r="R391">
+        <f t="shared" si="38"/>
+        <v>1.1000008810134188E-2</v>
+      </c>
+      <c r="S391">
+        <f t="shared" si="39"/>
+        <v>1.4619049977283083E-2</v>
+      </c>
+      <c r="T391">
+        <f t="shared" si="40"/>
+        <v>2.1928574965924625E-4</v>
+      </c>
+      <c r="U391">
+        <f t="shared" si="41"/>
+        <v>50.162898534115342</v>
+      </c>
+    </row>
+    <row r="392" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A392" s="1">
+        <v>44963</v>
+      </c>
+      <c r="B392">
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="C392">
+        <v>0.7850000262260437</v>
+      </c>
+      <c r="D392">
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="E392">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="F392">
+        <v>653500</v>
+      </c>
+      <c r="G392">
+        <v>509.80899047851562</v>
+      </c>
+      <c r="H392">
+        <f t="shared" si="47"/>
+        <v>390</v>
+      </c>
+      <c r="I392">
+        <f>SUM($F$3:F392)/H392</f>
+        <v>5023444.3748397436</v>
+      </c>
+      <c r="N392">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O392">
+        <f t="shared" si="55"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P392">
+        <f t="shared" si="46"/>
+        <v>0.77933335304260254</v>
+      </c>
+      <c r="Q392">
+        <f t="shared" si="37"/>
+        <v>0.77904761830965685</v>
+      </c>
+      <c r="R392">
+        <f t="shared" si="38"/>
+        <v>2.8573473294568608E-4</v>
+      </c>
+      <c r="S392">
+        <f t="shared" si="39"/>
+        <v>1.2272112426303652E-2</v>
+      </c>
+      <c r="T392">
+        <f t="shared" si="40"/>
+        <v>1.8408168639455478E-4</v>
+      </c>
+      <c r="U392">
+        <f t="shared" si="41"/>
+        <v>1.5522170539727207</v>
+      </c>
+    </row>
+    <row r="393" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A393" s="1">
+        <v>44964</v>
+      </c>
+      <c r="B393">
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="C393">
+        <v>0.7839999794960022</v>
+      </c>
+      <c r="D393">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="E393">
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="F393">
+        <v>1518500</v>
+      </c>
+      <c r="G393">
+        <v>1184.8780517578125</v>
+      </c>
+      <c r="H393">
+        <f t="shared" si="47"/>
+        <v>391</v>
+      </c>
+      <c r="I393">
+        <f>SUM($F$3:F393)/H393</f>
+        <v>5014480.3227301789</v>
+      </c>
+      <c r="N393">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O393">
+        <f t="shared" si="55"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P393">
+        <f t="shared" si="46"/>
+        <v>0.78033332029978431</v>
+      </c>
+      <c r="Q393">
+        <f t="shared" si="37"/>
+        <v>0.78119047482808435</v>
+      </c>
+      <c r="R393">
+        <f t="shared" si="38"/>
+        <v>-8.5715452830004146E-4</v>
+      </c>
+      <c r="S393">
+        <f t="shared" si="39"/>
+        <v>1.0027212756020689E-2</v>
+      </c>
+      <c r="T393">
+        <f t="shared" si="40"/>
+        <v>1.5040819134031034E-4</v>
+      </c>
+      <c r="U393">
+        <f t="shared" si="41"/>
+        <v>-5.6988553659332428</v>
+      </c>
+    </row>
+    <row r="394" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A394" s="1">
+        <v>44965</v>
+      </c>
+      <c r="B394">
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="C394">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="D394">
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="E394">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="F394">
+        <v>1171112</v>
+      </c>
+      <c r="G394">
+        <v>912.447021484375</v>
+      </c>
+      <c r="H394">
+        <f t="shared" si="47"/>
+        <v>392</v>
+      </c>
+      <c r="I394">
+        <f>SUM($F$3:F394)/H394</f>
+        <v>5004675.8117028065</v>
+      </c>
+      <c r="N394">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O394">
+        <f t="shared" si="55"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P394">
+        <f t="shared" si="46"/>
+        <v>0.77800001700719201</v>
+      </c>
+      <c r="Q394">
+        <f t="shared" si="37"/>
+        <v>0.78302381010282607</v>
+      </c>
+      <c r="R394">
+        <f t="shared" si="38"/>
+        <v>-5.0237930956340549E-3</v>
+      </c>
+      <c r="S394">
+        <f t="shared" si="39"/>
+        <v>8.4557825205277392E-3</v>
+      </c>
+      <c r="T394">
+        <f t="shared" si="40"/>
+        <v>1.2683673780791607E-4</v>
+      </c>
+      <c r="U394">
+        <f t="shared" si="41"/>
+        <v>-39.608343627082093</v>
+      </c>
+    </row>
+    <row r="395" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A395" s="1">
+        <v>44966</v>
+      </c>
+      <c r="B395">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="C395">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="D395">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="E395">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="F395">
+        <v>1557100</v>
+      </c>
+      <c r="G395">
+        <v>1221.449951171875</v>
+      </c>
+      <c r="H395">
+        <f t="shared" si="47"/>
+        <v>393</v>
+      </c>
+      <c r="I395">
+        <f>SUM($F$3:F395)/H395</f>
+        <v>4995903.354166667</v>
+      </c>
+      <c r="N395">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O395">
+        <f t="shared" si="55"/>
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="P395">
+        <f t="shared" si="46"/>
+        <v>0.78333332141240442</v>
+      </c>
+      <c r="Q395">
+        <f t="shared" si="37"/>
+        <v>0.78478571488743742</v>
+      </c>
+      <c r="R395">
+        <f t="shared" si="38"/>
+        <v>-1.4523934750330092E-3</v>
+      </c>
+      <c r="S395">
+        <f t="shared" si="39"/>
+        <v>6.9455784194323534E-3</v>
+      </c>
+      <c r="T395">
+        <f t="shared" si="40"/>
+        <v>1.041836762914853E-4</v>
+      </c>
+      <c r="U395">
+        <f t="shared" si="41"/>
+        <v>-13.940700949825382</v>
+      </c>
+    </row>
+    <row r="396" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A396" s="1">
+        <v>44967</v>
+      </c>
+      <c r="B396">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="C396">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="D396">
+        <v>0.77899998426437378</v>
+      </c>
+      <c r="E396">
+        <v>0.7839999794960022</v>
+      </c>
+      <c r="F396">
+        <v>2219900</v>
+      </c>
+      <c r="G396">
+        <v>1734.8929443359375</v>
+      </c>
+      <c r="H396">
+        <f t="shared" si="47"/>
+        <v>394</v>
+      </c>
+      <c r="I396">
+        <f>SUM($F$3:F396)/H396</f>
+        <v>4988857.6603743657</v>
+      </c>
+      <c r="N396">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O396">
+        <f t="shared" si="55"/>
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="P396">
+        <f t="shared" si="46"/>
+        <v>0.78366665045420325</v>
+      </c>
+      <c r="Q396">
+        <f t="shared" si="37"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="R396">
+        <f t="shared" si="38"/>
+        <v>-2.0476352600824477E-3</v>
+      </c>
+      <c r="S396">
+        <f t="shared" si="39"/>
+        <v>6.1496605678480476E-3</v>
+      </c>
+      <c r="T396">
+        <f t="shared" si="40"/>
+        <v>9.224490851772071E-5</v>
+      </c>
+      <c r="U396">
+        <f t="shared" si="41"/>
+        <v>-22.197813331768732</v>
+      </c>
+    </row>
+    <row r="397" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A397" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B397">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C397">
+        <v>0.79000002145767212</v>
+      </c>
+      <c r="D397">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="E397">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="F397">
+        <v>2053500</v>
+      </c>
+      <c r="G397">
+        <v>1613.4949951171875</v>
+      </c>
+      <c r="H397">
+        <f t="shared" si="47"/>
+        <v>395</v>
+      </c>
+      <c r="I397">
+        <f>SUM($F$3:F397)/H397</f>
+        <v>4981426.375158228</v>
+      </c>
+      <c r="N397">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O397">
+        <f t="shared" si="55"/>
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="P397">
+        <f t="shared" si="46"/>
+        <v>0.78666667143503821</v>
+      </c>
+      <c r="Q397">
+        <f t="shared" si="37"/>
+        <v>0.78611904808453148</v>
+      </c>
+      <c r="R397">
+        <f t="shared" si="38"/>
+        <v>5.4762335050673183E-4</v>
+      </c>
+      <c r="S397">
+        <f t="shared" si="39"/>
+        <v>5.8979611007534682E-3</v>
+      </c>
+      <c r="T397">
+        <f t="shared" si="40"/>
+        <v>8.846941651130202E-5</v>
+      </c>
+      <c r="U397">
+        <f t="shared" si="41"/>
+        <v>6.1899735761993258</v>
+      </c>
+    </row>
+    <row r="398" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A398" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B398">
+        <v>0.79199999570846558</v>
+      </c>
+      <c r="C398">
+        <v>0.79199999570846558</v>
+      </c>
+      <c r="D398">
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="E398">
+        <v>0.78700000047683716</v>
+      </c>
+      <c r="F398">
+        <v>1283308</v>
+      </c>
+      <c r="G398">
+        <v>1008.1619873046875</v>
+      </c>
+      <c r="H398">
+        <f t="shared" si="47"/>
+        <v>396</v>
+      </c>
+      <c r="I398">
+        <f>SUM($F$3:F398)/H398</f>
+        <v>4972087.6923926771</v>
+      </c>
+      <c r="N398">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O398">
+        <f t="shared" si="55"/>
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="P398">
+        <f t="shared" si="46"/>
+        <v>0.7873333295186361</v>
+      </c>
+      <c r="Q398">
+        <f t="shared" si="37"/>
+        <v>0.78683333311762116</v>
+      </c>
+      <c r="R398">
+        <f t="shared" si="38"/>
+        <v>4.9999640101494602E-4</v>
+      </c>
+      <c r="S398">
+        <f t="shared" si="39"/>
+        <v>5.3809536557619187E-3</v>
+      </c>
+      <c r="T398">
+        <f t="shared" si="40"/>
+        <v>8.0714304836428777E-5</v>
+      </c>
+      <c r="U398">
+        <f t="shared" si="41"/>
+        <v>6.1946442087088718</v>
+      </c>
+    </row>
+    <row r="399" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A399" s="1">
+        <v>44972</v>
+      </c>
+      <c r="B399">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="C399">
+        <v>0.79100000858306885</v>
+      </c>
+      <c r="D399">
+        <v>0.7839999794960022</v>
+      </c>
+      <c r="E399">
+        <v>0.78600001335144043</v>
+      </c>
+      <c r="F399">
+        <v>854601</v>
+      </c>
+      <c r="G399">
+        <v>671.81597900390625</v>
+      </c>
+      <c r="H399">
+        <f t="shared" si="47"/>
+        <v>397</v>
+      </c>
+      <c r="I399">
+        <f>SUM($F$3:F399)/H399</f>
+        <v>4961716.1893891692</v>
+      </c>
+      <c r="N399">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O399">
+        <f t="shared" si="55"/>
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="P399">
+        <f t="shared" si="46"/>
+        <v>0.78700000047683716</v>
+      </c>
+      <c r="Q399">
+        <f t="shared" si="37"/>
+        <v>0.787357142993382</v>
+      </c>
+      <c r="R399">
+        <f t="shared" si="38"/>
+        <v>-3.5714251654483942E-4</v>
+      </c>
+      <c r="S399">
+        <f t="shared" si="39"/>
+        <v>4.9353756872164067E-3</v>
+      </c>
+      <c r="T399">
+        <f t="shared" si="40"/>
+        <v>7.4030635308246096E-5</v>
+      </c>
+      <c r="U399">
+        <f t="shared" si="41"/>
+        <v>-4.8242530279225928</v>
+      </c>
+    </row>
+    <row r="400" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A400" s="1">
+        <v>44973</v>
+      </c>
+      <c r="B400">
+        <v>0.79100000858306885</v>
+      </c>
+      <c r="C400">
+        <v>0.79199999570846558</v>
+      </c>
+      <c r="D400">
+        <v>0.7720000147819519</v>
+      </c>
+      <c r="E400">
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="F400">
+        <v>1755000</v>
+      </c>
+      <c r="G400">
+        <v>1372.9659423828125</v>
+      </c>
+      <c r="H400">
+        <f t="shared" si="47"/>
+        <v>398</v>
+      </c>
+      <c r="I400">
+        <f>SUM($F$3:F400)/H400</f>
+        <v>4953659.1135364324</v>
+      </c>
+      <c r="N400">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O400">
+        <f t="shared" si="55"/>
+        <v>0.7720000147819519</v>
+      </c>
+      <c r="P400">
+        <f t="shared" si="46"/>
+        <v>0.78066666920979821</v>
+      </c>
+      <c r="Q400">
+        <f t="shared" si="37"/>
+        <v>0.78697619125956586</v>
+      </c>
+      <c r="R400">
+        <f t="shared" si="38"/>
+        <v>-6.3095220497676463E-3</v>
+      </c>
+      <c r="S400">
+        <f t="shared" si="39"/>
+        <v>5.2619051365625346E-3</v>
+      </c>
+      <c r="T400">
+        <f t="shared" si="40"/>
+        <v>7.8928577048438018E-5</v>
+      </c>
+      <c r="U400">
+        <f t="shared" si="41"/>
+        <v>-79.939640187552456</v>
+      </c>
+    </row>
+    <row r="401" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A401" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B401">
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="C401">
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="D401">
+        <v>0.75999999046325684</v>
+      </c>
+      <c r="E401">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="F401">
+        <v>3067106</v>
+      </c>
+      <c r="G401">
+        <v>2349.093017578125</v>
+      </c>
+      <c r="H401">
+        <f t="shared" si="47"/>
+        <v>399</v>
+      </c>
+      <c r="I401">
+        <f>SUM($F$3:F401)/H401</f>
+        <v>4948930.9102443606</v>
+      </c>
+      <c r="N401">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O401">
+        <f t="shared" si="55"/>
+        <v>0.75999999046325684</v>
+      </c>
+      <c r="P401">
+        <f t="shared" si="46"/>
+        <v>0.7653333147366842</v>
+      </c>
+      <c r="Q401">
+        <f t="shared" si="37"/>
+        <v>0.78461904752822165</v>
+      </c>
+      <c r="R401">
+        <f t="shared" si="38"/>
+        <v>-1.9285732791537447E-2</v>
+      </c>
+      <c r="S401">
+        <f t="shared" si="39"/>
+        <v>5.9523837906973699E-3</v>
+      </c>
+      <c r="T401">
+        <f t="shared" si="40"/>
+        <v>8.9285756860460545E-5</v>
+      </c>
+      <c r="U401">
+        <f t="shared" si="41"/>
+        <v>-216.00010426834353</v>
+      </c>
+    </row>
+    <row r="402" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A402" s="1">
+        <v>44977</v>
+      </c>
+      <c r="B402">
+        <v>0.75800001621246338</v>
+      </c>
+      <c r="C402">
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="D402">
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="E402">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="F402">
+        <v>956200</v>
+      </c>
+      <c r="G402">
+        <v>735.38299560546875</v>
+      </c>
+      <c r="H402">
+        <f t="shared" si="47"/>
+        <v>400</v>
+      </c>
+      <c r="I402">
+        <f>SUM($F$3:F402)/H402</f>
+        <v>4938949.08296875</v>
+      </c>
+      <c r="N402">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O402">
+        <f t="shared" si="55"/>
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="P402">
+        <f t="shared" si="46"/>
+        <v>0.7683333158493042</v>
+      </c>
+      <c r="Q402">
+        <f t="shared" si="37"/>
+        <v>0.78290476117815289</v>
+      </c>
+      <c r="R402">
+        <f t="shared" si="38"/>
+        <v>-1.4571445328848687E-2</v>
+      </c>
+      <c r="S402">
+        <f t="shared" si="39"/>
+        <v>6.4897967033645731E-3</v>
+      </c>
+      <c r="T402">
+        <f t="shared" si="40"/>
+        <v>9.7346950550468591E-5</v>
+      </c>
+      <c r="U402">
+        <f t="shared" si="41"/>
+        <v>-149.68568862662278</v>
+      </c>
+    </row>
+    <row r="403" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A403" s="1">
+        <v>44978</v>
+      </c>
+      <c r="B403">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="C403">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="D403">
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="E403">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="F403">
+        <v>1222500</v>
+      </c>
+      <c r="G403">
+        <v>944.00799560546875</v>
+      </c>
+      <c r="H403">
+        <f t="shared" si="47"/>
+        <v>401</v>
+      </c>
+      <c r="I403">
+        <f>SUM($F$3:F403)/H403</f>
+        <v>4929681.1301433919</v>
+      </c>
+      <c r="N403">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O403">
+        <f t="shared" si="55"/>
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="P403">
+        <f t="shared" si="46"/>
+        <v>0.77366665999094641</v>
+      </c>
+      <c r="Q403">
+        <f t="shared" si="37"/>
+        <v>0.78133333155087059</v>
+      </c>
+      <c r="R403">
+        <f t="shared" si="38"/>
+        <v>-7.6666715599241764E-3</v>
+      </c>
+      <c r="S403">
+        <f t="shared" si="39"/>
+        <v>6.2380958171117896E-3</v>
+      </c>
+      <c r="T403">
+        <f t="shared" si="40"/>
+        <v>9.3571437256676846E-5</v>
+      </c>
+      <c r="U403">
+        <f t="shared" si="41"/>
+        <v>-81.933886928482721</v>
+      </c>
+    </row>
+    <row r="404" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A404" s="1">
+        <v>44979</v>
+      </c>
+      <c r="B404">
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="C404">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="D404">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="E404">
+        <v>0.76800000667572021</v>
+      </c>
+      <c r="F404">
+        <v>1488800</v>
+      </c>
+      <c r="G404">
+        <v>1145.47900390625</v>
+      </c>
+      <c r="H404">
+        <f t="shared" si="47"/>
+        <v>402</v>
+      </c>
+      <c r="I404">
+        <f>SUM($F$3:F404)/H404</f>
+        <v>4921121.7243470149</v>
+      </c>
+      <c r="N404">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O404">
+        <f t="shared" si="55"/>
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="P404">
+        <f t="shared" si="46"/>
+        <v>0.76866668462753296</v>
+      </c>
+      <c r="Q404">
+        <f t="shared" si="37"/>
+        <v>0.77930952253795804</v>
+      </c>
+      <c r="R404">
+        <f t="shared" si="38"/>
+        <v>-1.0642837910425085E-2</v>
+      </c>
+      <c r="S404">
+        <f t="shared" si="39"/>
+        <v>6.0782314968757922E-3</v>
+      </c>
+      <c r="T404">
+        <f t="shared" si="40"/>
+        <v>9.1173472453136878E-5</v>
+      </c>
+      <c r="U404">
+        <f t="shared" si="41"/>
+        <v>-116.73173812586219</v>
+      </c>
+    </row>
+    <row r="405" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A405" s="1">
+        <v>44980</v>
+      </c>
+      <c r="B405">
+        <v>0.7720000147819519</v>
+      </c>
+      <c r="C405">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="D405">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="E405">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="F405">
+        <v>1037301.9375</v>
+      </c>
+      <c r="G405">
+        <v>799.7540283203125</v>
+      </c>
+      <c r="H405">
+        <f t="shared" si="47"/>
+        <v>403</v>
+      </c>
+      <c r="I405">
+        <f>SUM($F$3:F405)/H405</f>
+        <v>4911484.4544044668</v>
+      </c>
+      <c r="N405">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O405">
+        <f t="shared" si="55"/>
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="P405">
+        <f t="shared" si="46"/>
+        <v>0.76933334271113074</v>
+      </c>
+      <c r="Q405">
+        <f t="shared" si="37"/>
+        <v>0.77797618934086377</v>
+      </c>
+      <c r="R405">
+        <f t="shared" si="38"/>
+        <v>-8.6428466297330253E-3</v>
+      </c>
+      <c r="S405">
+        <f t="shared" si="39"/>
+        <v>6.3639469698173311E-3</v>
+      </c>
+      <c r="T405">
+        <f t="shared" si="40"/>
+        <v>9.5459204547259957E-5</v>
+      </c>
+      <c r="U405">
+        <f t="shared" si="41"/>
+        <v>-90.539688348797455</v>
+      </c>
+    </row>
+    <row r="406" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A406" s="1">
+        <v>44981</v>
+      </c>
+      <c r="B406">
+        <v>0.76800000667572021</v>
+      </c>
+      <c r="C406">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="D406">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="E406">
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="F406">
+        <v>1018601</v>
+      </c>
+      <c r="G406">
+        <v>779.92901611328125</v>
+      </c>
+      <c r="H406">
+        <f t="shared" si="47"/>
+        <v>404</v>
+      </c>
+      <c r="I406">
+        <f>SUM($F$3:F406)/H406</f>
+        <v>4901848.6042698016</v>
+      </c>
+      <c r="N406">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O406">
+        <f t="shared" si="55"/>
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="P406">
+        <f t="shared" si="46"/>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="Q406">
+        <f t="shared" si="37"/>
+        <v>0.77695237738745537</v>
+      </c>
+      <c r="R406">
+        <f t="shared" si="38"/>
+        <v>-1.1952391692570119E-2</v>
+      </c>
+      <c r="S406">
+        <f t="shared" si="39"/>
+        <v>7.3401372448927971E-3</v>
+      </c>
+      <c r="T406">
+        <f t="shared" si="40"/>
+        <v>1.1010205867339195E-4</v>
+      </c>
+      <c r="U406">
+        <f t="shared" si="41"/>
+        <v>-108.55738608871825</v>
+      </c>
+    </row>
+    <row r="407" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A407" s="1">
+        <v>44984</v>
+      </c>
+      <c r="B407">
+        <v>0.75900000333786011</v>
+      </c>
+      <c r="C407">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="D407">
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="E407">
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="F407">
+        <v>2463800</v>
+      </c>
+      <c r="G407">
+        <v>1870.217041015625</v>
+      </c>
+      <c r="H407">
+        <f t="shared" si="47"/>
+        <v>405</v>
+      </c>
+      <c r="I407">
+        <f>SUM($F$3:F407)/H407</f>
+        <v>4895828.7311728392</v>
+      </c>
+      <c r="N407">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O407">
+        <f t="shared" si="55"/>
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="P407">
+        <f t="shared" si="46"/>
+        <v>0.75799999634424842</v>
+      </c>
+      <c r="Q407">
+        <f t="shared" si="37"/>
+        <v>0.77535713996206013</v>
+      </c>
+      <c r="R407">
+        <f t="shared" si="38"/>
+        <v>-1.735714361781171E-2</v>
+      </c>
+      <c r="S407">
+        <f t="shared" si="39"/>
+        <v>8.4523828256697995E-3</v>
+      </c>
+      <c r="T407">
+        <f t="shared" si="40"/>
+        <v>1.2678574238504699E-4</v>
+      </c>
+      <c r="U407">
+        <f t="shared" si="41"/>
+        <v>-136.90138410909205</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:U407"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408"/>
+      <selection activeCell="A389" sqref="A389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24708,1204 +24708,65 @@
       </c>
     </row>
     <row r="389" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A389" s="1">
-        <v>44958</v>
-      </c>
-      <c r="B389">
-        <v>0.78799998760223389</v>
-      </c>
-      <c r="C389">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="D389">
-        <v>0.78799998760223389</v>
-      </c>
-      <c r="E389">
-        <v>0.79900002479553223</v>
-      </c>
-      <c r="F389">
-        <v>2298500</v>
-      </c>
-      <c r="G389">
-        <v>1828.115966796875</v>
-      </c>
-      <c r="H389">
-        <f t="shared" si="47"/>
-        <v>387</v>
-      </c>
-      <c r="I389">
-        <f>SUM($F$3:F389)/H389</f>
-        <v>5051773.4010012923</v>
-      </c>
-      <c r="N389">
-        <f t="shared" ref="N389:N407" si="54">IF(A389&lt;&gt;$K$21,MAX(N388,VLOOKUP(A389,A:C,3)),)</f>
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="O389">
-        <f t="shared" ref="O389:O407" si="55">IF(A389&lt;&gt;$K$21,MIN(O388,VLOOKUP(A389,A:D,4)),)</f>
-        <v>0.78799998760223389</v>
-      </c>
-      <c r="P389">
-        <f t="shared" si="46"/>
-        <v>0.79566667477289832</v>
-      </c>
-      <c r="Q389">
-        <f t="shared" si="37"/>
-        <v>0.77047618655931382</v>
-      </c>
-      <c r="R389">
-        <f t="shared" si="38"/>
-        <v>2.5190488213584494E-2</v>
-      </c>
-      <c r="S389">
-        <f t="shared" si="39"/>
-        <v>1.674149798698165E-2</v>
-      </c>
-      <c r="T389">
-        <f t="shared" si="40"/>
-        <v>2.5112246980472474E-4</v>
-      </c>
-      <c r="U389">
-        <f t="shared" si="41"/>
-        <v>100.31156603856621</v>
-      </c>
+      <c r="A389" s="1"/>
     </row>
     <row r="390" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A390" s="1">
-        <v>44959</v>
-      </c>
-      <c r="B390">
-        <v>0.80099999904632568</v>
-      </c>
-      <c r="C390">
-        <v>0.80199998617172241</v>
-      </c>
-      <c r="D390">
-        <v>0.79400002956390381</v>
-      </c>
-      <c r="E390">
-        <v>0.79500001668930054</v>
-      </c>
-      <c r="F390">
-        <v>1222000</v>
-      </c>
-      <c r="G390">
-        <v>974.9000244140625</v>
-      </c>
-      <c r="H390">
-        <f t="shared" si="47"/>
-        <v>388</v>
-      </c>
-      <c r="I390">
-        <f>SUM($F$3:F390)/H390</f>
-        <v>5041902.8509987118</v>
-      </c>
-      <c r="N390">
-        <f t="shared" si="54"/>
-        <v>0.80199998617172241</v>
-      </c>
-      <c r="O390">
-        <f t="shared" si="55"/>
-        <v>0.78799998760223389</v>
-      </c>
-      <c r="P390">
-        <f t="shared" si="46"/>
-        <v>0.79700001080830896</v>
-      </c>
-      <c r="Q390">
-        <f t="shared" si="37"/>
-        <v>0.77416666348775232</v>
-      </c>
-      <c r="R390">
-        <f t="shared" si="38"/>
-        <v>2.2833347320556641E-2</v>
-      </c>
-      <c r="S390">
-        <f t="shared" si="39"/>
-        <v>1.6285717487335198E-2</v>
-      </c>
-      <c r="T390">
-        <f t="shared" si="40"/>
-        <v>2.4428576231002794E-4</v>
-      </c>
-      <c r="U390">
-        <f t="shared" si="41"/>
-        <v>93.469824457384391</v>
-      </c>
+      <c r="A390" s="1"/>
     </row>
     <row r="391" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A391" s="1">
-        <v>44960</v>
-      </c>
-      <c r="B391">
-        <v>0.79199999570846558</v>
-      </c>
-      <c r="C391">
-        <v>0.79199999570846558</v>
-      </c>
-      <c r="D391">
-        <v>0.78100001811981201</v>
-      </c>
-      <c r="E391">
-        <v>0.79100000858306885</v>
-      </c>
-      <c r="F391">
-        <v>2231500</v>
-      </c>
-      <c r="G391">
-        <v>1757.35205078125</v>
-      </c>
-      <c r="H391">
-        <f t="shared" si="47"/>
-        <v>389</v>
-      </c>
-      <c r="I391">
-        <f>SUM($F$3:F391)/H391</f>
-        <v>5034678.1650064271</v>
-      </c>
-      <c r="N391">
-        <f t="shared" si="54"/>
-        <v>0.80199998617172241</v>
-      </c>
-      <c r="O391">
-        <f t="shared" si="55"/>
-        <v>0.78100001811981201</v>
-      </c>
-      <c r="P391">
-        <f t="shared" si="46"/>
-        <v>0.78800000747044885</v>
-      </c>
-      <c r="Q391">
-        <f t="shared" si="37"/>
-        <v>0.77699999866031466</v>
-      </c>
-      <c r="R391">
-        <f t="shared" si="38"/>
-        <v>1.1000008810134188E-2</v>
-      </c>
-      <c r="S391">
-        <f t="shared" si="39"/>
-        <v>1.4619049977283083E-2</v>
-      </c>
-      <c r="T391">
-        <f t="shared" si="40"/>
-        <v>2.1928574965924625E-4</v>
-      </c>
-      <c r="U391">
-        <f t="shared" si="41"/>
-        <v>50.162898534115342</v>
-      </c>
+      <c r="A391" s="1"/>
     </row>
     <row r="392" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A392" s="1">
-        <v>44963</v>
-      </c>
-      <c r="B392">
-        <v>0.78299999237060547</v>
-      </c>
-      <c r="C392">
-        <v>0.7850000262260437</v>
-      </c>
-      <c r="D392">
-        <v>0.77600002288818359</v>
-      </c>
-      <c r="E392">
-        <v>0.77700001001358032</v>
-      </c>
-      <c r="F392">
-        <v>653500</v>
-      </c>
-      <c r="G392">
-        <v>509.80899047851562</v>
-      </c>
-      <c r="H392">
-        <f t="shared" si="47"/>
-        <v>390</v>
-      </c>
-      <c r="I392">
-        <f>SUM($F$3:F392)/H392</f>
-        <v>5023444.3748397436</v>
-      </c>
-      <c r="N392">
-        <f t="shared" si="54"/>
-        <v>0.80199998617172241</v>
-      </c>
-      <c r="O392">
-        <f t="shared" si="55"/>
-        <v>0.77600002288818359</v>
-      </c>
-      <c r="P392">
-        <f t="shared" si="46"/>
-        <v>0.77933335304260254</v>
-      </c>
-      <c r="Q392">
-        <f t="shared" si="37"/>
-        <v>0.77904761830965685</v>
-      </c>
-      <c r="R392">
-        <f t="shared" si="38"/>
-        <v>2.8573473294568608E-4</v>
-      </c>
-      <c r="S392">
-        <f t="shared" si="39"/>
-        <v>1.2272112426303652E-2</v>
-      </c>
-      <c r="T392">
-        <f t="shared" si="40"/>
-        <v>1.8408168639455478E-4</v>
-      </c>
-      <c r="U392">
-        <f t="shared" si="41"/>
-        <v>1.5522170539727207</v>
-      </c>
+      <c r="A392" s="1"/>
     </row>
     <row r="393" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A393" s="1">
-        <v>44964</v>
-      </c>
-      <c r="B393">
-        <v>0.78299999237060547</v>
-      </c>
-      <c r="C393">
-        <v>0.7839999794960022</v>
-      </c>
-      <c r="D393">
-        <v>0.77700001001358032</v>
-      </c>
-      <c r="E393">
-        <v>0.77999997138977051</v>
-      </c>
-      <c r="F393">
-        <v>1518500</v>
-      </c>
-      <c r="G393">
-        <v>1184.8780517578125</v>
-      </c>
-      <c r="H393">
-        <f t="shared" si="47"/>
-        <v>391</v>
-      </c>
-      <c r="I393">
-        <f>SUM($F$3:F393)/H393</f>
-        <v>5014480.3227301789</v>
-      </c>
-      <c r="N393">
-        <f t="shared" si="54"/>
-        <v>0.80199998617172241</v>
-      </c>
-      <c r="O393">
-        <f t="shared" si="55"/>
-        <v>0.77600002288818359</v>
-      </c>
-      <c r="P393">
-        <f t="shared" si="46"/>
-        <v>0.78033332029978431</v>
-      </c>
-      <c r="Q393">
-        <f t="shared" si="37"/>
-        <v>0.78119047482808435</v>
-      </c>
-      <c r="R393">
-        <f t="shared" si="38"/>
-        <v>-8.5715452830004146E-4</v>
-      </c>
-      <c r="S393">
-        <f t="shared" si="39"/>
-        <v>1.0027212756020689E-2</v>
-      </c>
-      <c r="T393">
-        <f t="shared" si="40"/>
-        <v>1.5040819134031034E-4</v>
-      </c>
-      <c r="U393">
-        <f t="shared" si="41"/>
-        <v>-5.6988553659332428</v>
-      </c>
+      <c r="A393" s="1"/>
     </row>
     <row r="394" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A394" s="1">
-        <v>44965</v>
-      </c>
-      <c r="B394">
-        <v>0.77999997138977051</v>
-      </c>
-      <c r="C394">
-        <v>0.78100001811981201</v>
-      </c>
-      <c r="D394">
-        <v>0.77600002288818359</v>
-      </c>
-      <c r="E394">
-        <v>0.77700001001358032</v>
-      </c>
-      <c r="F394">
-        <v>1171112</v>
-      </c>
-      <c r="G394">
-        <v>912.447021484375</v>
-      </c>
-      <c r="H394">
-        <f t="shared" si="47"/>
-        <v>392</v>
-      </c>
-      <c r="I394">
-        <f>SUM($F$3:F394)/H394</f>
-        <v>5004675.8117028065</v>
-      </c>
-      <c r="N394">
-        <f t="shared" si="54"/>
-        <v>0.80199998617172241</v>
-      </c>
-      <c r="O394">
-        <f t="shared" si="55"/>
-        <v>0.77600002288818359</v>
-      </c>
-      <c r="P394">
-        <f t="shared" si="46"/>
-        <v>0.77800001700719201</v>
-      </c>
-      <c r="Q394">
-        <f t="shared" si="37"/>
-        <v>0.78302381010282607</v>
-      </c>
-      <c r="R394">
-        <f t="shared" si="38"/>
-        <v>-5.0237930956340549E-3</v>
-      </c>
-      <c r="S394">
-        <f t="shared" si="39"/>
-        <v>8.4557825205277392E-3</v>
-      </c>
-      <c r="T394">
-        <f t="shared" si="40"/>
-        <v>1.2683673780791607E-4</v>
-      </c>
-      <c r="U394">
-        <f t="shared" si="41"/>
-        <v>-39.608343627082093</v>
-      </c>
+      <c r="A394" s="1"/>
     </row>
     <row r="395" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A395" s="1">
-        <v>44966</v>
-      </c>
-      <c r="B395">
-        <v>0.77399998903274536</v>
-      </c>
-      <c r="C395">
-        <v>0.78799998760223389</v>
-      </c>
-      <c r="D395">
-        <v>0.77399998903274536</v>
-      </c>
-      <c r="E395">
-        <v>0.78799998760223389</v>
-      </c>
-      <c r="F395">
-        <v>1557100</v>
-      </c>
-      <c r="G395">
-        <v>1221.449951171875</v>
-      </c>
-      <c r="H395">
-        <f t="shared" si="47"/>
-        <v>393</v>
-      </c>
-      <c r="I395">
-        <f>SUM($F$3:F395)/H395</f>
-        <v>4995903.354166667</v>
-      </c>
-      <c r="N395">
-        <f t="shared" si="54"/>
-        <v>0.80199998617172241</v>
-      </c>
-      <c r="O395">
-        <f t="shared" si="55"/>
-        <v>0.77399998903274536</v>
-      </c>
-      <c r="P395">
-        <f t="shared" si="46"/>
-        <v>0.78333332141240442</v>
-      </c>
-      <c r="Q395">
-        <f t="shared" si="37"/>
-        <v>0.78478571488743742</v>
-      </c>
-      <c r="R395">
-        <f t="shared" si="38"/>
-        <v>-1.4523934750330092E-3</v>
-      </c>
-      <c r="S395">
-        <f t="shared" si="39"/>
-        <v>6.9455784194323534E-3</v>
-      </c>
-      <c r="T395">
-        <f t="shared" si="40"/>
-        <v>1.041836762914853E-4</v>
-      </c>
-      <c r="U395">
-        <f t="shared" si="41"/>
-        <v>-13.940700949825382</v>
-      </c>
+      <c r="A395" s="1"/>
     </row>
     <row r="396" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A396" s="1">
-        <v>44967</v>
-      </c>
-      <c r="B396">
-        <v>0.78799998760223389</v>
-      </c>
-      <c r="C396">
-        <v>0.78799998760223389</v>
-      </c>
-      <c r="D396">
-        <v>0.77899998426437378</v>
-      </c>
-      <c r="E396">
-        <v>0.7839999794960022</v>
-      </c>
-      <c r="F396">
-        <v>2219900</v>
-      </c>
-      <c r="G396">
-        <v>1734.8929443359375</v>
-      </c>
-      <c r="H396">
-        <f t="shared" si="47"/>
-        <v>394</v>
-      </c>
-      <c r="I396">
-        <f>SUM($F$3:F396)/H396</f>
-        <v>4988857.6603743657</v>
-      </c>
-      <c r="N396">
-        <f t="shared" si="54"/>
-        <v>0.80199998617172241</v>
-      </c>
-      <c r="O396">
-        <f t="shared" si="55"/>
-        <v>0.77399998903274536</v>
-      </c>
-      <c r="P396">
-        <f t="shared" si="46"/>
-        <v>0.78366665045420325</v>
-      </c>
-      <c r="Q396">
-        <f t="shared" si="37"/>
-        <v>0.7857142857142857</v>
-      </c>
-      <c r="R396">
-        <f t="shared" si="38"/>
-        <v>-2.0476352600824477E-3</v>
-      </c>
-      <c r="S396">
-        <f t="shared" si="39"/>
-        <v>6.1496605678480476E-3</v>
-      </c>
-      <c r="T396">
-        <f t="shared" si="40"/>
-        <v>9.224490851772071E-5</v>
-      </c>
-      <c r="U396">
-        <f t="shared" si="41"/>
-        <v>-22.197813331768732</v>
-      </c>
+      <c r="A396" s="1"/>
     </row>
     <row r="397" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A397" s="1">
-        <v>44970</v>
-      </c>
-      <c r="B397">
-        <v>0.78100001811981201</v>
-      </c>
-      <c r="C397">
-        <v>0.79000002145767212</v>
-      </c>
-      <c r="D397">
-        <v>0.78100001811981201</v>
-      </c>
-      <c r="E397">
-        <v>0.78899997472763062</v>
-      </c>
-      <c r="F397">
-        <v>2053500</v>
-      </c>
-      <c r="G397">
-        <v>1613.4949951171875</v>
-      </c>
-      <c r="H397">
-        <f t="shared" si="47"/>
-        <v>395</v>
-      </c>
-      <c r="I397">
-        <f>SUM($F$3:F397)/H397</f>
-        <v>4981426.375158228</v>
-      </c>
-      <c r="N397">
-        <f t="shared" si="54"/>
-        <v>0.80199998617172241</v>
-      </c>
-      <c r="O397">
-        <f t="shared" si="55"/>
-        <v>0.77399998903274536</v>
-      </c>
-      <c r="P397">
-        <f t="shared" si="46"/>
-        <v>0.78666667143503821</v>
-      </c>
-      <c r="Q397">
-        <f t="shared" si="37"/>
-        <v>0.78611904808453148</v>
-      </c>
-      <c r="R397">
-        <f t="shared" si="38"/>
-        <v>5.4762335050673183E-4</v>
-      </c>
-      <c r="S397">
-        <f t="shared" si="39"/>
-        <v>5.8979611007534682E-3</v>
-      </c>
-      <c r="T397">
-        <f t="shared" si="40"/>
-        <v>8.846941651130202E-5</v>
-      </c>
-      <c r="U397">
-        <f t="shared" si="41"/>
-        <v>6.1899735761993258</v>
-      </c>
+      <c r="A397" s="1"/>
     </row>
     <row r="398" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A398" s="1">
-        <v>44971</v>
-      </c>
-      <c r="B398">
-        <v>0.79199999570846558</v>
-      </c>
-      <c r="C398">
-        <v>0.79199999570846558</v>
-      </c>
-      <c r="D398">
-        <v>0.78299999237060547</v>
-      </c>
-      <c r="E398">
-        <v>0.78700000047683716</v>
-      </c>
-      <c r="F398">
-        <v>1283308</v>
-      </c>
-      <c r="G398">
-        <v>1008.1619873046875</v>
-      </c>
-      <c r="H398">
-        <f t="shared" si="47"/>
-        <v>396</v>
-      </c>
-      <c r="I398">
-        <f>SUM($F$3:F398)/H398</f>
-        <v>4972087.6923926771</v>
-      </c>
-      <c r="N398">
-        <f t="shared" si="54"/>
-        <v>0.80199998617172241</v>
-      </c>
-      <c r="O398">
-        <f t="shared" si="55"/>
-        <v>0.77399998903274536</v>
-      </c>
-      <c r="P398">
-        <f t="shared" si="46"/>
-        <v>0.7873333295186361</v>
-      </c>
-      <c r="Q398">
-        <f t="shared" si="37"/>
-        <v>0.78683333311762116</v>
-      </c>
-      <c r="R398">
-        <f t="shared" si="38"/>
-        <v>4.9999640101494602E-4</v>
-      </c>
-      <c r="S398">
-        <f t="shared" si="39"/>
-        <v>5.3809536557619187E-3</v>
-      </c>
-      <c r="T398">
-        <f t="shared" si="40"/>
-        <v>8.0714304836428777E-5</v>
-      </c>
-      <c r="U398">
-        <f t="shared" si="41"/>
-        <v>6.1946442087088718</v>
-      </c>
+      <c r="A398" s="1"/>
     </row>
     <row r="399" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A399" s="1">
-        <v>44972</v>
-      </c>
-      <c r="B399">
-        <v>0.78799998760223389</v>
-      </c>
-      <c r="C399">
-        <v>0.79100000858306885</v>
-      </c>
-      <c r="D399">
-        <v>0.7839999794960022</v>
-      </c>
-      <c r="E399">
-        <v>0.78600001335144043</v>
-      </c>
-      <c r="F399">
-        <v>854601</v>
-      </c>
-      <c r="G399">
-        <v>671.81597900390625</v>
-      </c>
-      <c r="H399">
-        <f t="shared" si="47"/>
-        <v>397</v>
-      </c>
-      <c r="I399">
-        <f>SUM($F$3:F399)/H399</f>
-        <v>4961716.1893891692</v>
-      </c>
-      <c r="N399">
-        <f t="shared" si="54"/>
-        <v>0.80199998617172241</v>
-      </c>
-      <c r="O399">
-        <f t="shared" si="55"/>
-        <v>0.77399998903274536</v>
-      </c>
-      <c r="P399">
-        <f t="shared" si="46"/>
-        <v>0.78700000047683716</v>
-      </c>
-      <c r="Q399">
-        <f t="shared" si="37"/>
-        <v>0.787357142993382</v>
-      </c>
-      <c r="R399">
-        <f t="shared" si="38"/>
-        <v>-3.5714251654483942E-4</v>
-      </c>
-      <c r="S399">
-        <f t="shared" si="39"/>
-        <v>4.9353756872164067E-3</v>
-      </c>
-      <c r="T399">
-        <f t="shared" si="40"/>
-        <v>7.4030635308246096E-5</v>
-      </c>
-      <c r="U399">
-        <f t="shared" si="41"/>
-        <v>-4.8242530279225928</v>
-      </c>
+      <c r="A399" s="1"/>
     </row>
     <row r="400" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A400" s="1">
-        <v>44973</v>
-      </c>
-      <c r="B400">
-        <v>0.79100000858306885</v>
-      </c>
-      <c r="C400">
-        <v>0.79199999570846558</v>
-      </c>
-      <c r="D400">
-        <v>0.7720000147819519</v>
-      </c>
-      <c r="E400">
-        <v>0.77799999713897705</v>
-      </c>
-      <c r="F400">
-        <v>1755000</v>
-      </c>
-      <c r="G400">
-        <v>1372.9659423828125</v>
-      </c>
-      <c r="H400">
-        <f t="shared" si="47"/>
-        <v>398</v>
-      </c>
-      <c r="I400">
-        <f>SUM($F$3:F400)/H400</f>
-        <v>4953659.1135364324</v>
-      </c>
-      <c r="N400">
-        <f t="shared" si="54"/>
-        <v>0.80199998617172241</v>
-      </c>
-      <c r="O400">
-        <f t="shared" si="55"/>
-        <v>0.7720000147819519</v>
-      </c>
-      <c r="P400">
-        <f t="shared" si="46"/>
-        <v>0.78066666920979821</v>
-      </c>
-      <c r="Q400">
-        <f t="shared" si="37"/>
-        <v>0.78697619125956586</v>
-      </c>
-      <c r="R400">
-        <f t="shared" si="38"/>
-        <v>-6.3095220497676463E-3</v>
-      </c>
-      <c r="S400">
-        <f t="shared" si="39"/>
-        <v>5.2619051365625346E-3</v>
-      </c>
-      <c r="T400">
-        <f t="shared" si="40"/>
-        <v>7.8928577048438018E-5</v>
-      </c>
-      <c r="U400">
-        <f t="shared" si="41"/>
-        <v>-79.939640187552456</v>
-      </c>
-    </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A401" s="1">
-        <v>44974</v>
-      </c>
-      <c r="B401">
-        <v>0.77499997615814209</v>
-      </c>
-      <c r="C401">
-        <v>0.77499997615814209</v>
-      </c>
-      <c r="D401">
-        <v>0.75999999046325684</v>
-      </c>
-      <c r="E401">
-        <v>0.76099997758865356</v>
-      </c>
-      <c r="F401">
-        <v>3067106</v>
-      </c>
-      <c r="G401">
-        <v>2349.093017578125</v>
-      </c>
-      <c r="H401">
-        <f t="shared" si="47"/>
-        <v>399</v>
-      </c>
-      <c r="I401">
-        <f>SUM($F$3:F401)/H401</f>
-        <v>4948930.9102443606</v>
-      </c>
-      <c r="N401">
-        <f t="shared" si="54"/>
-        <v>0.80199998617172241</v>
-      </c>
-      <c r="O401">
-        <f t="shared" si="55"/>
-        <v>0.75999999046325684</v>
-      </c>
-      <c r="P401">
-        <f t="shared" si="46"/>
-        <v>0.7653333147366842</v>
-      </c>
-      <c r="Q401">
-        <f t="shared" si="37"/>
-        <v>0.78461904752822165</v>
-      </c>
-      <c r="R401">
-        <f t="shared" si="38"/>
-        <v>-1.9285732791537447E-2</v>
-      </c>
-      <c r="S401">
-        <f t="shared" si="39"/>
-        <v>5.9523837906973699E-3</v>
-      </c>
-      <c r="T401">
-        <f t="shared" si="40"/>
-        <v>8.9285756860460545E-5</v>
-      </c>
-      <c r="U401">
-        <f t="shared" si="41"/>
-        <v>-216.00010426834353</v>
-      </c>
-    </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A402" s="1">
-        <v>44977</v>
-      </c>
-      <c r="B402">
-        <v>0.75800001621246338</v>
-      </c>
-      <c r="C402">
-        <v>0.77499997615814209</v>
-      </c>
-      <c r="D402">
-        <v>0.75599998235702515</v>
-      </c>
-      <c r="E402">
-        <v>0.77399998903274536</v>
-      </c>
-      <c r="F402">
-        <v>956200</v>
-      </c>
-      <c r="G402">
-        <v>735.38299560546875</v>
-      </c>
-      <c r="H402">
-        <f t="shared" si="47"/>
-        <v>400</v>
-      </c>
-      <c r="I402">
-        <f>SUM($F$3:F402)/H402</f>
-        <v>4938949.08296875</v>
-      </c>
-      <c r="N402">
-        <f t="shared" si="54"/>
-        <v>0.80199998617172241</v>
-      </c>
-      <c r="O402">
-        <f t="shared" si="55"/>
-        <v>0.75599998235702515</v>
-      </c>
-      <c r="P402">
-        <f t="shared" si="46"/>
-        <v>0.7683333158493042</v>
-      </c>
-      <c r="Q402">
-        <f t="shared" si="37"/>
-        <v>0.78290476117815289</v>
-      </c>
-      <c r="R402">
-        <f t="shared" si="38"/>
-        <v>-1.4571445328848687E-2</v>
-      </c>
-      <c r="S402">
-        <f t="shared" si="39"/>
-        <v>6.4897967033645731E-3</v>
-      </c>
-      <c r="T402">
-        <f t="shared" si="40"/>
-        <v>9.7346950550468591E-5</v>
-      </c>
-      <c r="U402">
-        <f t="shared" si="41"/>
-        <v>-149.68568862662278</v>
-      </c>
-    </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A403" s="1">
-        <v>44978</v>
-      </c>
-      <c r="B403">
-        <v>0.77399998903274536</v>
-      </c>
-      <c r="C403">
-        <v>0.77700001001358032</v>
-      </c>
-      <c r="D403">
-        <v>0.76999998092651367</v>
-      </c>
-      <c r="E403">
-        <v>0.77399998903274536</v>
-      </c>
-      <c r="F403">
-        <v>1222500</v>
-      </c>
-      <c r="G403">
-        <v>944.00799560546875</v>
-      </c>
-      <c r="H403">
-        <f t="shared" si="47"/>
-        <v>401</v>
-      </c>
-      <c r="I403">
-        <f>SUM($F$3:F403)/H403</f>
-        <v>4929681.1301433919</v>
-      </c>
-      <c r="N403">
-        <f t="shared" si="54"/>
-        <v>0.80199998617172241</v>
-      </c>
-      <c r="O403">
-        <f t="shared" si="55"/>
-        <v>0.75599998235702515</v>
-      </c>
-      <c r="P403">
-        <f t="shared" si="46"/>
-        <v>0.77366665999094641</v>
-      </c>
-      <c r="Q403">
-        <f t="shared" si="37"/>
-        <v>0.78133333155087059</v>
-      </c>
-      <c r="R403">
-        <f t="shared" si="38"/>
-        <v>-7.6666715599241764E-3</v>
-      </c>
-      <c r="S403">
-        <f t="shared" si="39"/>
-        <v>6.2380958171117896E-3</v>
-      </c>
-      <c r="T403">
-        <f t="shared" si="40"/>
-        <v>9.3571437256676846E-5</v>
-      </c>
-      <c r="U403">
-        <f t="shared" si="41"/>
-        <v>-81.933886928482721</v>
-      </c>
-    </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A404" s="1">
-        <v>44979</v>
-      </c>
-      <c r="B404">
-        <v>0.76999998092651367</v>
-      </c>
-      <c r="C404">
-        <v>0.77100002765655518</v>
-      </c>
-      <c r="D404">
-        <v>0.76700001955032349</v>
-      </c>
-      <c r="E404">
-        <v>0.76800000667572021</v>
-      </c>
-      <c r="F404">
-        <v>1488800</v>
-      </c>
-      <c r="G404">
-        <v>1145.47900390625</v>
-      </c>
-      <c r="H404">
-        <f t="shared" si="47"/>
-        <v>402</v>
-      </c>
-      <c r="I404">
-        <f>SUM($F$3:F404)/H404</f>
-        <v>4921121.7243470149</v>
-      </c>
-      <c r="N404">
-        <f t="shared" si="54"/>
-        <v>0.80199998617172241</v>
-      </c>
-      <c r="O404">
-        <f t="shared" si="55"/>
-        <v>0.75599998235702515</v>
-      </c>
-      <c r="P404">
-        <f t="shared" si="46"/>
-        <v>0.76866668462753296</v>
-      </c>
-      <c r="Q404">
-        <f t="shared" si="37"/>
-        <v>0.77930952253795804</v>
-      </c>
-      <c r="R404">
-        <f t="shared" si="38"/>
-        <v>-1.0642837910425085E-2</v>
-      </c>
-      <c r="S404">
-        <f t="shared" si="39"/>
-        <v>6.0782314968757922E-3</v>
-      </c>
-      <c r="T404">
-        <f t="shared" si="40"/>
-        <v>9.1173472453136878E-5</v>
-      </c>
-      <c r="U404">
-        <f t="shared" si="41"/>
-        <v>-116.73173812586219</v>
-      </c>
-    </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A405" s="1">
-        <v>44980</v>
-      </c>
-      <c r="B405">
-        <v>0.7720000147819519</v>
-      </c>
-      <c r="C405">
-        <v>0.77399998903274536</v>
-      </c>
-      <c r="D405">
-        <v>0.76700001955032349</v>
-      </c>
-      <c r="E405">
-        <v>0.76700001955032349</v>
-      </c>
-      <c r="F405">
-        <v>1037301.9375</v>
-      </c>
-      <c r="G405">
-        <v>799.7540283203125</v>
-      </c>
-      <c r="H405">
-        <f t="shared" si="47"/>
-        <v>403</v>
-      </c>
-      <c r="I405">
-        <f>SUM($F$3:F405)/H405</f>
-        <v>4911484.4544044668</v>
-      </c>
-      <c r="N405">
-        <f t="shared" si="54"/>
-        <v>0.80199998617172241</v>
-      </c>
-      <c r="O405">
-        <f t="shared" si="55"/>
-        <v>0.75599998235702515</v>
-      </c>
-      <c r="P405">
-        <f t="shared" si="46"/>
-        <v>0.76933334271113074</v>
-      </c>
-      <c r="Q405">
-        <f t="shared" si="37"/>
-        <v>0.77797618934086377</v>
-      </c>
-      <c r="R405">
-        <f t="shared" si="38"/>
-        <v>-8.6428466297330253E-3</v>
-      </c>
-      <c r="S405">
-        <f t="shared" si="39"/>
-        <v>6.3639469698173311E-3</v>
-      </c>
-      <c r="T405">
-        <f t="shared" si="40"/>
-        <v>9.5459204547259957E-5</v>
-      </c>
-      <c r="U405">
-        <f t="shared" si="41"/>
-        <v>-90.539688348797455</v>
-      </c>
-    </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A406" s="1">
-        <v>44981</v>
-      </c>
-      <c r="B406">
-        <v>0.76800000667572021</v>
-      </c>
-      <c r="C406">
-        <v>0.76899999380111694</v>
-      </c>
-      <c r="D406">
-        <v>0.76099997758865356</v>
-      </c>
-      <c r="E406">
-        <v>0.76499998569488525</v>
-      </c>
-      <c r="F406">
-        <v>1018601</v>
-      </c>
-      <c r="G406">
-        <v>779.92901611328125</v>
-      </c>
-      <c r="H406">
-        <f t="shared" si="47"/>
-        <v>404</v>
-      </c>
-      <c r="I406">
-        <f>SUM($F$3:F406)/H406</f>
-        <v>4901848.6042698016</v>
-      </c>
-      <c r="N406">
-        <f t="shared" si="54"/>
-        <v>0.80199998617172241</v>
-      </c>
-      <c r="O406">
-        <f t="shared" si="55"/>
-        <v>0.75599998235702515</v>
-      </c>
-      <c r="P406">
-        <f t="shared" si="46"/>
-        <v>0.76499998569488525</v>
-      </c>
-      <c r="Q406">
-        <f t="shared" si="37"/>
-        <v>0.77695237738745537</v>
-      </c>
-      <c r="R406">
-        <f t="shared" si="38"/>
-        <v>-1.1952391692570119E-2</v>
-      </c>
-      <c r="S406">
-        <f t="shared" si="39"/>
-        <v>7.3401372448927971E-3</v>
-      </c>
-      <c r="T406">
-        <f t="shared" si="40"/>
-        <v>1.1010205867339195E-4</v>
-      </c>
-      <c r="U406">
-        <f t="shared" si="41"/>
-        <v>-108.55738608871825</v>
-      </c>
-    </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A407" s="1">
-        <v>44984</v>
-      </c>
-      <c r="B407">
-        <v>0.75900000333786011</v>
-      </c>
-      <c r="C407">
-        <v>0.76099997758865356</v>
-      </c>
-      <c r="D407">
-        <v>0.75599998235702515</v>
-      </c>
-      <c r="E407">
-        <v>0.75700002908706665</v>
-      </c>
-      <c r="F407">
-        <v>2463800</v>
-      </c>
-      <c r="G407">
-        <v>1870.217041015625</v>
-      </c>
-      <c r="H407">
-        <f t="shared" si="47"/>
-        <v>405</v>
-      </c>
-      <c r="I407">
-        <f>SUM($F$3:F407)/H407</f>
-        <v>4895828.7311728392</v>
-      </c>
-      <c r="N407">
-        <f t="shared" si="54"/>
-        <v>0.80199998617172241</v>
-      </c>
-      <c r="O407">
-        <f t="shared" si="55"/>
-        <v>0.75599998235702515</v>
-      </c>
-      <c r="P407">
-        <f t="shared" si="46"/>
-        <v>0.75799999634424842</v>
-      </c>
-      <c r="Q407">
-        <f t="shared" si="37"/>
-        <v>0.77535713996206013</v>
-      </c>
-      <c r="R407">
-        <f t="shared" si="38"/>
-        <v>-1.735714361781171E-2</v>
-      </c>
-      <c r="S407">
-        <f t="shared" si="39"/>
-        <v>8.4523828256697995E-3</v>
-      </c>
-      <c r="T407">
-        <f t="shared" si="40"/>
-        <v>1.2678574238504699E-4</v>
-      </c>
-      <c r="U407">
-        <f t="shared" si="41"/>
-        <v>-136.90138410909205</v>
-      </c>
+      <c r="A400" s="1"/>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A401" s="1"/>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A402" s="1"/>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A403" s="1"/>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A404" s="1"/>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A405" s="1"/>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A406" s="1"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A407" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:U407"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="A389" sqref="A389"/>
+      <selection activeCell="A408" sqref="A408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24708,65 +24708,1204 @@
       </c>
     </row>
     <row r="389" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A389" s="1"/>
+      <c r="A389" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B389">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="C389">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="D389">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="E389">
+        <v>0.79900002479553223</v>
+      </c>
+      <c r="F389">
+        <v>2298500</v>
+      </c>
+      <c r="G389">
+        <v>1828.115966796875</v>
+      </c>
+      <c r="H389">
+        <f t="shared" si="47"/>
+        <v>387</v>
+      </c>
+      <c r="I389">
+        <f>SUM($F$3:F389)/H389</f>
+        <v>5051773.4010012923</v>
+      </c>
+      <c r="N389">
+        <f t="shared" ref="N389:N407" si="54">IF(A389&lt;&gt;$K$21,MAX(N388,VLOOKUP(A389,A:C,3)),)</f>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="O389">
+        <f t="shared" ref="O389:O407" si="55">IF(A389&lt;&gt;$K$21,MIN(O388,VLOOKUP(A389,A:D,4)),)</f>
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="P389">
+        <f t="shared" si="46"/>
+        <v>0.79566667477289832</v>
+      </c>
+      <c r="Q389">
+        <f t="shared" si="37"/>
+        <v>0.77047618655931382</v>
+      </c>
+      <c r="R389">
+        <f t="shared" si="38"/>
+        <v>2.5190488213584494E-2</v>
+      </c>
+      <c r="S389">
+        <f t="shared" si="39"/>
+        <v>1.674149798698165E-2</v>
+      </c>
+      <c r="T389">
+        <f t="shared" si="40"/>
+        <v>2.5112246980472474E-4</v>
+      </c>
+      <c r="U389">
+        <f t="shared" si="41"/>
+        <v>100.31156603856621</v>
+      </c>
     </row>
     <row r="390" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A390" s="1"/>
+      <c r="A390" s="1">
+        <v>44959</v>
+      </c>
+      <c r="B390">
+        <v>0.80099999904632568</v>
+      </c>
+      <c r="C390">
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="D390">
+        <v>0.79400002956390381</v>
+      </c>
+      <c r="E390">
+        <v>0.79500001668930054</v>
+      </c>
+      <c r="F390">
+        <v>1222000</v>
+      </c>
+      <c r="G390">
+        <v>974.9000244140625</v>
+      </c>
+      <c r="H390">
+        <f t="shared" si="47"/>
+        <v>388</v>
+      </c>
+      <c r="I390">
+        <f>SUM($F$3:F390)/H390</f>
+        <v>5041902.8509987118</v>
+      </c>
+      <c r="N390">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O390">
+        <f t="shared" si="55"/>
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="P390">
+        <f t="shared" si="46"/>
+        <v>0.79700001080830896</v>
+      </c>
+      <c r="Q390">
+        <f t="shared" si="37"/>
+        <v>0.77416666348775232</v>
+      </c>
+      <c r="R390">
+        <f t="shared" si="38"/>
+        <v>2.2833347320556641E-2</v>
+      </c>
+      <c r="S390">
+        <f t="shared" si="39"/>
+        <v>1.6285717487335198E-2</v>
+      </c>
+      <c r="T390">
+        <f t="shared" si="40"/>
+        <v>2.4428576231002794E-4</v>
+      </c>
+      <c r="U390">
+        <f t="shared" si="41"/>
+        <v>93.469824457384391</v>
+      </c>
     </row>
     <row r="391" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A391" s="1"/>
+      <c r="A391" s="1">
+        <v>44960</v>
+      </c>
+      <c r="B391">
+        <v>0.79199999570846558</v>
+      </c>
+      <c r="C391">
+        <v>0.79199999570846558</v>
+      </c>
+      <c r="D391">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="E391">
+        <v>0.79100000858306885</v>
+      </c>
+      <c r="F391">
+        <v>2231500</v>
+      </c>
+      <c r="G391">
+        <v>1757.35205078125</v>
+      </c>
+      <c r="H391">
+        <f t="shared" si="47"/>
+        <v>389</v>
+      </c>
+      <c r="I391">
+        <f>SUM($F$3:F391)/H391</f>
+        <v>5034678.1650064271</v>
+      </c>
+      <c r="N391">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O391">
+        <f t="shared" si="55"/>
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="P391">
+        <f t="shared" si="46"/>
+        <v>0.78800000747044885</v>
+      </c>
+      <c r="Q391">
+        <f t="shared" si="37"/>
+        <v>0.77699999866031466</v>
+      </c>
+      <c r="R391">
+        <f t="shared" si="38"/>
+        <v>1.1000008810134188E-2</v>
+      </c>
+      <c r="S391">
+        <f t="shared" si="39"/>
+        <v>1.4619049977283083E-2</v>
+      </c>
+      <c r="T391">
+        <f t="shared" si="40"/>
+        <v>2.1928574965924625E-4</v>
+      </c>
+      <c r="U391">
+        <f t="shared" si="41"/>
+        <v>50.162898534115342</v>
+      </c>
     </row>
     <row r="392" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A392" s="1"/>
+      <c r="A392" s="1">
+        <v>44963</v>
+      </c>
+      <c r="B392">
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="C392">
+        <v>0.7850000262260437</v>
+      </c>
+      <c r="D392">
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="E392">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="F392">
+        <v>653500</v>
+      </c>
+      <c r="G392">
+        <v>509.80899047851562</v>
+      </c>
+      <c r="H392">
+        <f t="shared" si="47"/>
+        <v>390</v>
+      </c>
+      <c r="I392">
+        <f>SUM($F$3:F392)/H392</f>
+        <v>5023444.3748397436</v>
+      </c>
+      <c r="N392">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O392">
+        <f t="shared" si="55"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P392">
+        <f t="shared" si="46"/>
+        <v>0.77933335304260254</v>
+      </c>
+      <c r="Q392">
+        <f t="shared" si="37"/>
+        <v>0.77904761830965685</v>
+      </c>
+      <c r="R392">
+        <f t="shared" si="38"/>
+        <v>2.8573473294568608E-4</v>
+      </c>
+      <c r="S392">
+        <f t="shared" si="39"/>
+        <v>1.2272112426303652E-2</v>
+      </c>
+      <c r="T392">
+        <f t="shared" si="40"/>
+        <v>1.8408168639455478E-4</v>
+      </c>
+      <c r="U392">
+        <f t="shared" si="41"/>
+        <v>1.5522170539727207</v>
+      </c>
     </row>
     <row r="393" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A393" s="1"/>
+      <c r="A393" s="1">
+        <v>44964</v>
+      </c>
+      <c r="B393">
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="C393">
+        <v>0.7839999794960022</v>
+      </c>
+      <c r="D393">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="E393">
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="F393">
+        <v>1518500</v>
+      </c>
+      <c r="G393">
+        <v>1184.8780517578125</v>
+      </c>
+      <c r="H393">
+        <f t="shared" si="47"/>
+        <v>391</v>
+      </c>
+      <c r="I393">
+        <f>SUM($F$3:F393)/H393</f>
+        <v>5014480.3227301789</v>
+      </c>
+      <c r="N393">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O393">
+        <f t="shared" si="55"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P393">
+        <f t="shared" si="46"/>
+        <v>0.78033332029978431</v>
+      </c>
+      <c r="Q393">
+        <f t="shared" si="37"/>
+        <v>0.78119047482808435</v>
+      </c>
+      <c r="R393">
+        <f t="shared" si="38"/>
+        <v>-8.5715452830004146E-4</v>
+      </c>
+      <c r="S393">
+        <f t="shared" si="39"/>
+        <v>1.0027212756020689E-2</v>
+      </c>
+      <c r="T393">
+        <f t="shared" si="40"/>
+        <v>1.5040819134031034E-4</v>
+      </c>
+      <c r="U393">
+        <f t="shared" si="41"/>
+        <v>-5.6988553659332428</v>
+      </c>
     </row>
     <row r="394" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A394" s="1"/>
+      <c r="A394" s="1">
+        <v>44965</v>
+      </c>
+      <c r="B394">
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="C394">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="D394">
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="E394">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="F394">
+        <v>1171112</v>
+      </c>
+      <c r="G394">
+        <v>912.447021484375</v>
+      </c>
+      <c r="H394">
+        <f t="shared" si="47"/>
+        <v>392</v>
+      </c>
+      <c r="I394">
+        <f>SUM($F$3:F394)/H394</f>
+        <v>5004675.8117028065</v>
+      </c>
+      <c r="N394">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O394">
+        <f t="shared" si="55"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P394">
+        <f t="shared" si="46"/>
+        <v>0.77800001700719201</v>
+      </c>
+      <c r="Q394">
+        <f t="shared" si="37"/>
+        <v>0.78302381010282607</v>
+      </c>
+      <c r="R394">
+        <f t="shared" si="38"/>
+        <v>-5.0237930956340549E-3</v>
+      </c>
+      <c r="S394">
+        <f t="shared" si="39"/>
+        <v>8.4557825205277392E-3</v>
+      </c>
+      <c r="T394">
+        <f t="shared" si="40"/>
+        <v>1.2683673780791607E-4</v>
+      </c>
+      <c r="U394">
+        <f t="shared" si="41"/>
+        <v>-39.608343627082093</v>
+      </c>
     </row>
     <row r="395" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A395" s="1"/>
+      <c r="A395" s="1">
+        <v>44966</v>
+      </c>
+      <c r="B395">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="C395">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="D395">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="E395">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="F395">
+        <v>1557100</v>
+      </c>
+      <c r="G395">
+        <v>1221.449951171875</v>
+      </c>
+      <c r="H395">
+        <f t="shared" si="47"/>
+        <v>393</v>
+      </c>
+      <c r="I395">
+        <f>SUM($F$3:F395)/H395</f>
+        <v>4995903.354166667</v>
+      </c>
+      <c r="N395">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O395">
+        <f t="shared" si="55"/>
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="P395">
+        <f t="shared" si="46"/>
+        <v>0.78333332141240442</v>
+      </c>
+      <c r="Q395">
+        <f t="shared" si="37"/>
+        <v>0.78478571488743742</v>
+      </c>
+      <c r="R395">
+        <f t="shared" si="38"/>
+        <v>-1.4523934750330092E-3</v>
+      </c>
+      <c r="S395">
+        <f t="shared" si="39"/>
+        <v>6.9455784194323534E-3</v>
+      </c>
+      <c r="T395">
+        <f t="shared" si="40"/>
+        <v>1.041836762914853E-4</v>
+      </c>
+      <c r="U395">
+        <f t="shared" si="41"/>
+        <v>-13.940700949825382</v>
+      </c>
     </row>
     <row r="396" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A396" s="1"/>
+      <c r="A396" s="1">
+        <v>44967</v>
+      </c>
+      <c r="B396">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="C396">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="D396">
+        <v>0.77899998426437378</v>
+      </c>
+      <c r="E396">
+        <v>0.7839999794960022</v>
+      </c>
+      <c r="F396">
+        <v>2219900</v>
+      </c>
+      <c r="G396">
+        <v>1734.8929443359375</v>
+      </c>
+      <c r="H396">
+        <f t="shared" si="47"/>
+        <v>394</v>
+      </c>
+      <c r="I396">
+        <f>SUM($F$3:F396)/H396</f>
+        <v>4988857.6603743657</v>
+      </c>
+      <c r="N396">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O396">
+        <f t="shared" si="55"/>
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="P396">
+        <f t="shared" si="46"/>
+        <v>0.78366665045420325</v>
+      </c>
+      <c r="Q396">
+        <f t="shared" si="37"/>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="R396">
+        <f t="shared" si="38"/>
+        <v>-2.0476352600824477E-3</v>
+      </c>
+      <c r="S396">
+        <f t="shared" si="39"/>
+        <v>6.1496605678480476E-3</v>
+      </c>
+      <c r="T396">
+        <f t="shared" si="40"/>
+        <v>9.224490851772071E-5</v>
+      </c>
+      <c r="U396">
+        <f t="shared" si="41"/>
+        <v>-22.197813331768732</v>
+      </c>
     </row>
     <row r="397" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A397" s="1"/>
+      <c r="A397" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B397">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C397">
+        <v>0.79000002145767212</v>
+      </c>
+      <c r="D397">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="E397">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="F397">
+        <v>2053500</v>
+      </c>
+      <c r="G397">
+        <v>1613.4949951171875</v>
+      </c>
+      <c r="H397">
+        <f t="shared" si="47"/>
+        <v>395</v>
+      </c>
+      <c r="I397">
+        <f>SUM($F$3:F397)/H397</f>
+        <v>4981426.375158228</v>
+      </c>
+      <c r="N397">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O397">
+        <f t="shared" si="55"/>
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="P397">
+        <f t="shared" si="46"/>
+        <v>0.78666667143503821</v>
+      </c>
+      <c r="Q397">
+        <f t="shared" si="37"/>
+        <v>0.78611904808453148</v>
+      </c>
+      <c r="R397">
+        <f t="shared" si="38"/>
+        <v>5.4762335050673183E-4</v>
+      </c>
+      <c r="S397">
+        <f t="shared" si="39"/>
+        <v>5.8979611007534682E-3</v>
+      </c>
+      <c r="T397">
+        <f t="shared" si="40"/>
+        <v>8.846941651130202E-5</v>
+      </c>
+      <c r="U397">
+        <f t="shared" si="41"/>
+        <v>6.1899735761993258</v>
+      </c>
     </row>
     <row r="398" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A398" s="1"/>
+      <c r="A398" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B398">
+        <v>0.79199999570846558</v>
+      </c>
+      <c r="C398">
+        <v>0.79199999570846558</v>
+      </c>
+      <c r="D398">
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="E398">
+        <v>0.78700000047683716</v>
+      </c>
+      <c r="F398">
+        <v>1283308</v>
+      </c>
+      <c r="G398">
+        <v>1008.1619873046875</v>
+      </c>
+      <c r="H398">
+        <f t="shared" si="47"/>
+        <v>396</v>
+      </c>
+      <c r="I398">
+        <f>SUM($F$3:F398)/H398</f>
+        <v>4972087.6923926771</v>
+      </c>
+      <c r="N398">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O398">
+        <f t="shared" si="55"/>
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="P398">
+        <f t="shared" si="46"/>
+        <v>0.7873333295186361</v>
+      </c>
+      <c r="Q398">
+        <f t="shared" si="37"/>
+        <v>0.78683333311762116</v>
+      </c>
+      <c r="R398">
+        <f t="shared" si="38"/>
+        <v>4.9999640101494602E-4</v>
+      </c>
+      <c r="S398">
+        <f t="shared" si="39"/>
+        <v>5.3809536557619187E-3</v>
+      </c>
+      <c r="T398">
+        <f t="shared" si="40"/>
+        <v>8.0714304836428777E-5</v>
+      </c>
+      <c r="U398">
+        <f t="shared" si="41"/>
+        <v>6.1946442087088718</v>
+      </c>
     </row>
     <row r="399" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A399" s="1"/>
+      <c r="A399" s="1">
+        <v>44972</v>
+      </c>
+      <c r="B399">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="C399">
+        <v>0.79100000858306885</v>
+      </c>
+      <c r="D399">
+        <v>0.7839999794960022</v>
+      </c>
+      <c r="E399">
+        <v>0.78600001335144043</v>
+      </c>
+      <c r="F399">
+        <v>854601</v>
+      </c>
+      <c r="G399">
+        <v>671.81597900390625</v>
+      </c>
+      <c r="H399">
+        <f t="shared" si="47"/>
+        <v>397</v>
+      </c>
+      <c r="I399">
+        <f>SUM($F$3:F399)/H399</f>
+        <v>4961716.1893891692</v>
+      </c>
+      <c r="N399">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O399">
+        <f t="shared" si="55"/>
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="P399">
+        <f t="shared" si="46"/>
+        <v>0.78700000047683716</v>
+      </c>
+      <c r="Q399">
+        <f t="shared" si="37"/>
+        <v>0.787357142993382</v>
+      </c>
+      <c r="R399">
+        <f t="shared" si="38"/>
+        <v>-3.5714251654483942E-4</v>
+      </c>
+      <c r="S399">
+        <f t="shared" si="39"/>
+        <v>4.9353756872164067E-3</v>
+      </c>
+      <c r="T399">
+        <f t="shared" si="40"/>
+        <v>7.4030635308246096E-5</v>
+      </c>
+      <c r="U399">
+        <f t="shared" si="41"/>
+        <v>-4.8242530279225928</v>
+      </c>
     </row>
     <row r="400" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A400" s="1"/>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A401" s="1"/>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A402" s="1"/>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A403" s="1"/>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A404" s="1"/>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A405" s="1"/>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A406" s="1"/>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A407" s="1"/>
+      <c r="A400" s="1">
+        <v>44973</v>
+      </c>
+      <c r="B400">
+        <v>0.79100000858306885</v>
+      </c>
+      <c r="C400">
+        <v>0.79199999570846558</v>
+      </c>
+      <c r="D400">
+        <v>0.7720000147819519</v>
+      </c>
+      <c r="E400">
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="F400">
+        <v>1755000</v>
+      </c>
+      <c r="G400">
+        <v>1372.9659423828125</v>
+      </c>
+      <c r="H400">
+        <f t="shared" si="47"/>
+        <v>398</v>
+      </c>
+      <c r="I400">
+        <f>SUM($F$3:F400)/H400</f>
+        <v>4953659.1135364324</v>
+      </c>
+      <c r="N400">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O400">
+        <f t="shared" si="55"/>
+        <v>0.7720000147819519</v>
+      </c>
+      <c r="P400">
+        <f t="shared" si="46"/>
+        <v>0.78066666920979821</v>
+      </c>
+      <c r="Q400">
+        <f t="shared" si="37"/>
+        <v>0.78697619125956586</v>
+      </c>
+      <c r="R400">
+        <f t="shared" si="38"/>
+        <v>-6.3095220497676463E-3</v>
+      </c>
+      <c r="S400">
+        <f t="shared" si="39"/>
+        <v>5.2619051365625346E-3</v>
+      </c>
+      <c r="T400">
+        <f t="shared" si="40"/>
+        <v>7.8928577048438018E-5</v>
+      </c>
+      <c r="U400">
+        <f t="shared" si="41"/>
+        <v>-79.939640187552456</v>
+      </c>
+    </row>
+    <row r="401" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A401" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B401">
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="C401">
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="D401">
+        <v>0.75999999046325684</v>
+      </c>
+      <c r="E401">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="F401">
+        <v>3067106</v>
+      </c>
+      <c r="G401">
+        <v>2349.093017578125</v>
+      </c>
+      <c r="H401">
+        <f t="shared" si="47"/>
+        <v>399</v>
+      </c>
+      <c r="I401">
+        <f>SUM($F$3:F401)/H401</f>
+        <v>4948930.9102443606</v>
+      </c>
+      <c r="N401">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O401">
+        <f t="shared" si="55"/>
+        <v>0.75999999046325684</v>
+      </c>
+      <c r="P401">
+        <f t="shared" si="46"/>
+        <v>0.7653333147366842</v>
+      </c>
+      <c r="Q401">
+        <f t="shared" si="37"/>
+        <v>0.78461904752822165</v>
+      </c>
+      <c r="R401">
+        <f t="shared" si="38"/>
+        <v>-1.9285732791537447E-2</v>
+      </c>
+      <c r="S401">
+        <f t="shared" si="39"/>
+        <v>5.9523837906973699E-3</v>
+      </c>
+      <c r="T401">
+        <f t="shared" si="40"/>
+        <v>8.9285756860460545E-5</v>
+      </c>
+      <c r="U401">
+        <f t="shared" si="41"/>
+        <v>-216.00010426834353</v>
+      </c>
+    </row>
+    <row r="402" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A402" s="1">
+        <v>44977</v>
+      </c>
+      <c r="B402">
+        <v>0.75800001621246338</v>
+      </c>
+      <c r="C402">
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="D402">
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="E402">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="F402">
+        <v>956200</v>
+      </c>
+      <c r="G402">
+        <v>735.38299560546875</v>
+      </c>
+      <c r="H402">
+        <f t="shared" si="47"/>
+        <v>400</v>
+      </c>
+      <c r="I402">
+        <f>SUM($F$3:F402)/H402</f>
+        <v>4938949.08296875</v>
+      </c>
+      <c r="N402">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O402">
+        <f t="shared" si="55"/>
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="P402">
+        <f t="shared" si="46"/>
+        <v>0.7683333158493042</v>
+      </c>
+      <c r="Q402">
+        <f t="shared" si="37"/>
+        <v>0.78290476117815289</v>
+      </c>
+      <c r="R402">
+        <f t="shared" si="38"/>
+        <v>-1.4571445328848687E-2</v>
+      </c>
+      <c r="S402">
+        <f t="shared" si="39"/>
+        <v>6.4897967033645731E-3</v>
+      </c>
+      <c r="T402">
+        <f t="shared" si="40"/>
+        <v>9.7346950550468591E-5</v>
+      </c>
+      <c r="U402">
+        <f t="shared" si="41"/>
+        <v>-149.68568862662278</v>
+      </c>
+    </row>
+    <row r="403" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A403" s="1">
+        <v>44978</v>
+      </c>
+      <c r="B403">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="C403">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="D403">
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="E403">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="F403">
+        <v>1222500</v>
+      </c>
+      <c r="G403">
+        <v>944.00799560546875</v>
+      </c>
+      <c r="H403">
+        <f t="shared" si="47"/>
+        <v>401</v>
+      </c>
+      <c r="I403">
+        <f>SUM($F$3:F403)/H403</f>
+        <v>4929681.1301433919</v>
+      </c>
+      <c r="N403">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O403">
+        <f t="shared" si="55"/>
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="P403">
+        <f t="shared" si="46"/>
+        <v>0.77366665999094641</v>
+      </c>
+      <c r="Q403">
+        <f t="shared" si="37"/>
+        <v>0.78133333155087059</v>
+      </c>
+      <c r="R403">
+        <f t="shared" si="38"/>
+        <v>-7.6666715599241764E-3</v>
+      </c>
+      <c r="S403">
+        <f t="shared" si="39"/>
+        <v>6.2380958171117896E-3</v>
+      </c>
+      <c r="T403">
+        <f t="shared" si="40"/>
+        <v>9.3571437256676846E-5</v>
+      </c>
+      <c r="U403">
+        <f t="shared" si="41"/>
+        <v>-81.933886928482721</v>
+      </c>
+    </row>
+    <row r="404" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A404" s="1">
+        <v>44979</v>
+      </c>
+      <c r="B404">
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="C404">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="D404">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="E404">
+        <v>0.76800000667572021</v>
+      </c>
+      <c r="F404">
+        <v>1488800</v>
+      </c>
+      <c r="G404">
+        <v>1145.47900390625</v>
+      </c>
+      <c r="H404">
+        <f t="shared" si="47"/>
+        <v>402</v>
+      </c>
+      <c r="I404">
+        <f>SUM($F$3:F404)/H404</f>
+        <v>4921121.7243470149</v>
+      </c>
+      <c r="N404">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O404">
+        <f t="shared" si="55"/>
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="P404">
+        <f t="shared" si="46"/>
+        <v>0.76866668462753296</v>
+      </c>
+      <c r="Q404">
+        <f t="shared" si="37"/>
+        <v>0.77930952253795804</v>
+      </c>
+      <c r="R404">
+        <f t="shared" si="38"/>
+        <v>-1.0642837910425085E-2</v>
+      </c>
+      <c r="S404">
+        <f t="shared" si="39"/>
+        <v>6.0782314968757922E-3</v>
+      </c>
+      <c r="T404">
+        <f t="shared" si="40"/>
+        <v>9.1173472453136878E-5</v>
+      </c>
+      <c r="U404">
+        <f t="shared" si="41"/>
+        <v>-116.73173812586219</v>
+      </c>
+    </row>
+    <row r="405" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A405" s="1">
+        <v>44980</v>
+      </c>
+      <c r="B405">
+        <v>0.7720000147819519</v>
+      </c>
+      <c r="C405">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="D405">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="E405">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="F405">
+        <v>1037301.9375</v>
+      </c>
+      <c r="G405">
+        <v>799.7540283203125</v>
+      </c>
+      <c r="H405">
+        <f t="shared" si="47"/>
+        <v>403</v>
+      </c>
+      <c r="I405">
+        <f>SUM($F$3:F405)/H405</f>
+        <v>4911484.4544044668</v>
+      </c>
+      <c r="N405">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O405">
+        <f t="shared" si="55"/>
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="P405">
+        <f t="shared" si="46"/>
+        <v>0.76933334271113074</v>
+      </c>
+      <c r="Q405">
+        <f t="shared" si="37"/>
+        <v>0.77797618934086377</v>
+      </c>
+      <c r="R405">
+        <f t="shared" si="38"/>
+        <v>-8.6428466297330253E-3</v>
+      </c>
+      <c r="S405">
+        <f t="shared" si="39"/>
+        <v>6.3639469698173311E-3</v>
+      </c>
+      <c r="T405">
+        <f t="shared" si="40"/>
+        <v>9.5459204547259957E-5</v>
+      </c>
+      <c r="U405">
+        <f t="shared" si="41"/>
+        <v>-90.539688348797455</v>
+      </c>
+    </row>
+    <row r="406" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A406" s="1">
+        <v>44981</v>
+      </c>
+      <c r="B406">
+        <v>0.76800000667572021</v>
+      </c>
+      <c r="C406">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="D406">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="E406">
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="F406">
+        <v>1018601</v>
+      </c>
+      <c r="G406">
+        <v>779.92901611328125</v>
+      </c>
+      <c r="H406">
+        <f t="shared" si="47"/>
+        <v>404</v>
+      </c>
+      <c r="I406">
+        <f>SUM($F$3:F406)/H406</f>
+        <v>4901848.6042698016</v>
+      </c>
+      <c r="N406">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O406">
+        <f t="shared" si="55"/>
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="P406">
+        <f t="shared" si="46"/>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="Q406">
+        <f t="shared" si="37"/>
+        <v>0.77695237738745537</v>
+      </c>
+      <c r="R406">
+        <f t="shared" si="38"/>
+        <v>-1.1952391692570119E-2</v>
+      </c>
+      <c r="S406">
+        <f t="shared" si="39"/>
+        <v>7.3401372448927971E-3</v>
+      </c>
+      <c r="T406">
+        <f t="shared" si="40"/>
+        <v>1.1010205867339195E-4</v>
+      </c>
+      <c r="U406">
+        <f t="shared" si="41"/>
+        <v>-108.55738608871825</v>
+      </c>
+    </row>
+    <row r="407" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A407" s="1">
+        <v>44984</v>
+      </c>
+      <c r="B407">
+        <v>0.75900000333786011</v>
+      </c>
+      <c r="C407">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="D407">
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="E407">
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="F407">
+        <v>2463800</v>
+      </c>
+      <c r="G407">
+        <v>1870.217041015625</v>
+      </c>
+      <c r="H407">
+        <f t="shared" si="47"/>
+        <v>405</v>
+      </c>
+      <c r="I407">
+        <f>SUM($F$3:F407)/H407</f>
+        <v>4895828.7311728392</v>
+      </c>
+      <c r="N407">
+        <f t="shared" si="54"/>
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="O407">
+        <f t="shared" si="55"/>
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="P407">
+        <f t="shared" si="46"/>
+        <v>0.75799999634424842</v>
+      </c>
+      <c r="Q407">
+        <f t="shared" si="37"/>
+        <v>0.77535713996206013</v>
+      </c>
+      <c r="R407">
+        <f t="shared" si="38"/>
+        <v>-1.735714361781171E-2</v>
+      </c>
+      <c r="S407">
+        <f t="shared" si="39"/>
+        <v>8.4523828256697995E-3</v>
+      </c>
+      <c r="T407">
+        <f t="shared" si="40"/>
+        <v>1.2678574238504699E-4</v>
+      </c>
+      <c r="U407">
+        <f t="shared" si="41"/>
+        <v>-136.90138410909205</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U407"/>
+  <dimension ref="A1:U408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="A408" sqref="A408"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="A409" sqref="A409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1586,7 +1586,7 @@
         <v>108.21827744904742</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44400</v>
       </c>
@@ -1616,6 +1616,12 @@
         <f>SUM($F$3:F22)/H22</f>
         <v>39128742.049999997</v>
       </c>
+      <c r="K22" s="2">
+        <v>45016</v>
+      </c>
+      <c r="L22" s="2">
+        <v>44986</v>
+      </c>
       <c r="N22">
         <f t="shared" si="2"/>
         <v>1.054</v>
@@ -17379,23 +17385,23 @@
         <v>0.78866666555404663</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272:Q407" si="37">SUM(P259:P272)/14</f>
+        <f t="shared" ref="Q272:Q408" si="37">SUM(P259:P272)/14</f>
         <v>0.8100476208187285</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272:R407" si="38">P272-Q272</f>
+        <f t="shared" ref="R272:R408" si="38">P272-Q272</f>
         <v>-2.1380955264681867E-2</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272:S407" si="39">AVEDEV(P259:P272)</f>
+        <f t="shared" ref="S272:S408" si="39">AVEDEV(P259:P272)</f>
         <v>7.8163195629509085E-3</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272:T407" si="40">0.015*S272</f>
+        <f t="shared" ref="T272:T408" si="40">0.015*S272</f>
         <v>1.1724479344426362E-4</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272:U407" si="41">R272/T272</f>
+        <f t="shared" ref="U272:U408" si="41">R272/T272</f>
         <v>-182.36166090263143</v>
       </c>
     </row>
@@ -20525,7 +20531,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P407" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P408" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20635,7 +20641,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H407" si="47">H323+1</f>
+        <f t="shared" ref="H324:H408" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -24738,11 +24744,11 @@
         <v>5051773.4010012923</v>
       </c>
       <c r="N389">
-        <f t="shared" ref="N389:N407" si="54">IF(A389&lt;&gt;$K$21,MAX(N388,VLOOKUP(A389,A:C,3)),)</f>
+        <f t="shared" ref="N389:N408" si="54">IF(A389&lt;&gt;$K$21,MAX(N388,VLOOKUP(A389,A:C,3)),)</f>
         <v>0.80000001192092896</v>
       </c>
       <c r="O389">
-        <f t="shared" ref="O389:O407" si="55">IF(A389&lt;&gt;$K$21,MIN(O388,VLOOKUP(A389,A:D,4)),)</f>
+        <f t="shared" ref="O389:O408" si="55">IF(A389&lt;&gt;$K$21,MIN(O388,VLOOKUP(A389,A:D,4)),)</f>
         <v>0.78799998760223389</v>
       </c>
       <c r="P389">
@@ -25902,6 +25908,69 @@
       <c r="U407">
         <f t="shared" si="41"/>
         <v>-136.90138410909205</v>
+      </c>
+    </row>
+    <row r="408" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A408" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B408">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C408">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="D408">
+        <v>0.75900000333786011</v>
+      </c>
+      <c r="E408">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="F408">
+        <v>699600</v>
+      </c>
+      <c r="G408">
+        <v>532.60498046875</v>
+      </c>
+      <c r="H408">
+        <f t="shared" si="47"/>
+        <v>406</v>
+      </c>
+      <c r="I408">
+        <f>SUM($F$3:F408)/H408</f>
+        <v>4885493.1924261088</v>
+      </c>
+      <c r="N408">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="O408">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="P408">
+        <f t="shared" si="46"/>
+        <v>0.76166667540868127</v>
+      </c>
+      <c r="Q408">
+        <f t="shared" si="37"/>
+        <v>0.77419047270502361</v>
+      </c>
+      <c r="R408">
+        <f t="shared" si="38"/>
+        <v>-1.2523797296342343E-2</v>
+      </c>
+      <c r="S408">
+        <f t="shared" si="39"/>
+        <v>9.0748294681107945E-3</v>
+      </c>
+      <c r="T408">
+        <f t="shared" si="40"/>
+        <v>1.3612244202166192E-4</v>
+      </c>
+      <c r="U408">
+        <f t="shared" si="41"/>
+        <v>-92.003912876830128</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U408"/>
+  <dimension ref="A1:U430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="A409" sqref="A409"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="A431" sqref="A431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17385,23 +17385,23 @@
         <v>0.78866666555404663</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272:Q408" si="37">SUM(P259:P272)/14</f>
+        <f t="shared" ref="Q272:Q430" si="37">SUM(P259:P272)/14</f>
         <v>0.8100476208187285</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272:R408" si="38">P272-Q272</f>
+        <f t="shared" ref="R272:R430" si="38">P272-Q272</f>
         <v>-2.1380955264681867E-2</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272:S408" si="39">AVEDEV(P259:P272)</f>
+        <f t="shared" ref="S272:S430" si="39">AVEDEV(P259:P272)</f>
         <v>7.8163195629509085E-3</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272:T408" si="40">0.015*S272</f>
+        <f t="shared" ref="T272:T430" si="40">0.015*S272</f>
         <v>1.1724479344426362E-4</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272:U408" si="41">R272/T272</f>
+        <f t="shared" ref="U272:U430" si="41">R272/T272</f>
         <v>-182.36166090263143</v>
       </c>
     </row>
@@ -20531,7 +20531,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P408" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P430" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20641,7 +20641,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H408" si="47">H323+1</f>
+        <f t="shared" ref="H324:H430" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -24744,11 +24744,11 @@
         <v>5051773.4010012923</v>
       </c>
       <c r="N389">
-        <f t="shared" ref="N389:N408" si="54">IF(A389&lt;&gt;$K$21,MAX(N388,VLOOKUP(A389,A:C,3)),)</f>
+        <f t="shared" ref="N389:N407" si="54">IF(A389&lt;&gt;$K$21,MAX(N388,VLOOKUP(A389,A:C,3)),)</f>
         <v>0.80000001192092896</v>
       </c>
       <c r="O389">
-        <f t="shared" ref="O389:O408" si="55">IF(A389&lt;&gt;$K$21,MIN(O388,VLOOKUP(A389,A:D,4)),)</f>
+        <f t="shared" ref="O389:O407" si="55">IF(A389&lt;&gt;$K$21,MIN(O388,VLOOKUP(A389,A:D,4)),)</f>
         <v>0.78799998760223389</v>
       </c>
       <c r="P389">
@@ -25941,12 +25941,12 @@
         <v>4885493.1924261088</v>
       </c>
       <c r="N408">
-        <f t="shared" si="54"/>
-        <v>0</v>
+        <f>VLOOKUP(L22,A:C,3)</f>
+        <v>0.77499997615814209</v>
       </c>
       <c r="O408">
-        <f t="shared" si="55"/>
-        <v>0</v>
+        <f>VLOOKUP(L22,A:D,4)</f>
+        <v>0.7630000114440918</v>
       </c>
       <c r="P408">
         <f t="shared" si="46"/>
@@ -25971,6 +25971,1392 @@
       <c r="U408">
         <f t="shared" si="41"/>
         <v>-92.003912876830128</v>
+      </c>
+    </row>
+    <row r="409" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A409" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B409">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C409">
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="D409">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="E409">
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="F409">
+        <v>1724202</v>
+      </c>
+      <c r="G409">
+        <v>1327.5670166015625</v>
+      </c>
+      <c r="H409">
+        <f t="shared" si="47"/>
+        <v>407</v>
+      </c>
+      <c r="I409">
+        <f>SUM($F$3:F409)/H409</f>
+        <v>4877725.8921990171</v>
+      </c>
+      <c r="N409">
+        <f t="shared" ref="N409:N430" si="56">IF(A409&lt;&gt;$K$22,MAX(N408,VLOOKUP(A409,A:C,3)),)</f>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O409">
+        <f t="shared" ref="O409:O430" si="57">IF(A409&lt;&gt;$K$22,MIN(O408,VLOOKUP(A409,A:D,4)),)</f>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="P409">
+        <f t="shared" si="46"/>
+        <v>0.77033332983652747</v>
+      </c>
+      <c r="Q409">
+        <f t="shared" si="37"/>
+        <v>0.77326190187817534</v>
+      </c>
+      <c r="R409">
+        <f t="shared" si="38"/>
+        <v>-2.92857204164787E-3</v>
+      </c>
+      <c r="S409">
+        <f t="shared" si="39"/>
+        <v>8.4897956880582524E-3</v>
+      </c>
+      <c r="T409">
+        <f t="shared" si="40"/>
+        <v>1.2734693532087378E-4</v>
+      </c>
+      <c r="U409">
+        <f t="shared" si="41"/>
+        <v>-22.996800309868469</v>
+      </c>
+    </row>
+    <row r="410" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A410" s="1">
+        <v>44987</v>
+      </c>
+      <c r="B410">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="C410">
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="D410">
+        <v>0.76599997282028198</v>
+      </c>
+      <c r="E410">
+        <v>0.76599997282028198</v>
+      </c>
+      <c r="F410">
+        <v>1815200</v>
+      </c>
+      <c r="G410">
+        <v>1400.39697265625</v>
+      </c>
+      <c r="H410">
+        <f t="shared" si="47"/>
+        <v>408</v>
+      </c>
+      <c r="I410">
+        <f>SUM($F$3:F410)/H410</f>
+        <v>4870219.7012867648</v>
+      </c>
+      <c r="N410">
+        <f t="shared" si="56"/>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O410">
+        <f t="shared" si="57"/>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="P410">
+        <f t="shared" si="46"/>
+        <v>0.76899997393290198</v>
+      </c>
+      <c r="Q410">
+        <f t="shared" si="37"/>
+        <v>0.77221428212665377</v>
+      </c>
+      <c r="R410">
+        <f t="shared" si="38"/>
+        <v>-3.2143081937517914E-3</v>
+      </c>
+      <c r="S410">
+        <f t="shared" si="39"/>
+        <v>7.7517028568553359E-3</v>
+      </c>
+      <c r="T410">
+        <f t="shared" si="40"/>
+        <v>1.1627554285283004E-4</v>
+      </c>
+      <c r="U410">
+        <f t="shared" si="41"/>
+        <v>-27.643888945933725</v>
+      </c>
+    </row>
+    <row r="411" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A411" s="1">
+        <v>44988</v>
+      </c>
+      <c r="B411">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="C411">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="D411">
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="E411">
+        <v>0.76800000667572021</v>
+      </c>
+      <c r="F411">
+        <v>332900</v>
+      </c>
+      <c r="G411">
+        <v>256.22299194335937</v>
+      </c>
+      <c r="H411">
+        <f t="shared" si="47"/>
+        <v>409</v>
+      </c>
+      <c r="I411">
+        <f>SUM($F$3:F411)/H411</f>
+        <v>4859126.0100855744</v>
+      </c>
+      <c r="N411">
+        <f t="shared" si="56"/>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O411">
+        <f t="shared" si="57"/>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="P411">
+        <f t="shared" si="46"/>
+        <v>0.76800000667572021</v>
+      </c>
+      <c r="Q411">
+        <f t="shared" si="37"/>
+        <v>0.77088094892955961</v>
+      </c>
+      <c r="R411">
+        <f t="shared" si="38"/>
+        <v>-2.8809422538393914E-3</v>
+      </c>
+      <c r="S411">
+        <f t="shared" si="39"/>
+        <v>6.4489804968542019E-3</v>
+      </c>
+      <c r="T411">
+        <f t="shared" si="40"/>
+        <v>9.6734707452813019E-5</v>
+      </c>
+      <c r="U411">
+        <f t="shared" si="41"/>
+        <v>-29.781888318054911</v>
+      </c>
+    </row>
+    <row r="412" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A412" s="1">
+        <v>44991</v>
+      </c>
+      <c r="B412">
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="C412">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="D412">
+        <v>0.75999999046325684</v>
+      </c>
+      <c r="E412">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="F412">
+        <v>3717800</v>
+      </c>
+      <c r="G412">
+        <v>2838.031982421875</v>
+      </c>
+      <c r="H412">
+        <f t="shared" si="47"/>
+        <v>410</v>
+      </c>
+      <c r="I412">
+        <f>SUM($F$3:F412)/H412</f>
+        <v>4856342.2881097561</v>
+      </c>
+      <c r="N412">
+        <f t="shared" si="56"/>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O412">
+        <f t="shared" si="57"/>
+        <v>0.75999999046325684</v>
+      </c>
+      <c r="P412">
+        <f t="shared" si="46"/>
+        <v>0.76599999268849694</v>
+      </c>
+      <c r="Q412">
+        <f t="shared" si="37"/>
+        <v>0.76935713915597836</v>
+      </c>
+      <c r="R412">
+        <f t="shared" si="38"/>
+        <v>-3.35714646748142E-3</v>
+      </c>
+      <c r="S412">
+        <f t="shared" si="39"/>
+        <v>4.8911575557423759E-3</v>
+      </c>
+      <c r="T412">
+        <f t="shared" si="40"/>
+        <v>7.3367363336135637E-5</v>
+      </c>
+      <c r="U412">
+        <f t="shared" si="41"/>
+        <v>-45.758036200653869</v>
+      </c>
+    </row>
+    <row r="413" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A413" s="1">
+        <v>44992</v>
+      </c>
+      <c r="B413">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C413">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="D413">
+        <v>0.75400000810623169</v>
+      </c>
+      <c r="E413">
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="F413">
+        <v>2807500</v>
+      </c>
+      <c r="G413">
+        <v>2146.64404296875</v>
+      </c>
+      <c r="H413">
+        <f t="shared" si="47"/>
+        <v>411</v>
+      </c>
+      <c r="I413">
+        <f>SUM($F$3:F413)/H413</f>
+        <v>4851357.2703771293</v>
+      </c>
+      <c r="N413">
+        <f t="shared" si="56"/>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O413">
+        <f t="shared" si="57"/>
+        <v>0.75400000810623169</v>
+      </c>
+      <c r="P413">
+        <f t="shared" si="46"/>
+        <v>0.75966666142145789</v>
+      </c>
+      <c r="Q413">
+        <f t="shared" si="37"/>
+        <v>0.76740475779487982</v>
+      </c>
+      <c r="R413">
+        <f t="shared" si="38"/>
+        <v>-7.7380963734219321E-3</v>
+      </c>
+      <c r="S413">
+        <f t="shared" si="39"/>
+        <v>4.108845782117755E-3</v>
+      </c>
+      <c r="T413">
+        <f t="shared" si="40"/>
+        <v>6.1632686731766324E-5</v>
+      </c>
+      <c r="U413">
+        <f t="shared" si="41"/>
+        <v>-125.55182621032181</v>
+      </c>
+    </row>
+    <row r="414" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A414" s="1">
+        <v>44993</v>
+      </c>
+      <c r="B414">
+        <v>0.75400000810623169</v>
+      </c>
+      <c r="C414">
+        <v>0.75400000810623169</v>
+      </c>
+      <c r="D414">
+        <v>0.74900001287460327</v>
+      </c>
+      <c r="E414">
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="F414">
+        <v>2423100</v>
+      </c>
+      <c r="G414">
+        <v>1820.1920166015625</v>
+      </c>
+      <c r="H414">
+        <f t="shared" si="47"/>
+        <v>412</v>
+      </c>
+      <c r="I414">
+        <f>SUM($F$3:F414)/H414</f>
+        <v>4845463.4420509711</v>
+      </c>
+      <c r="N414">
+        <f t="shared" si="56"/>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O414">
+        <f t="shared" si="57"/>
+        <v>0.74900001287460327</v>
+      </c>
+      <c r="P414">
+        <f t="shared" si="46"/>
+        <v>0.75166666507720947</v>
+      </c>
+      <c r="Q414">
+        <f t="shared" si="37"/>
+        <v>0.76533332892826622</v>
+      </c>
+      <c r="R414">
+        <f t="shared" si="38"/>
+        <v>-1.3666663851056748E-2</v>
+      </c>
+      <c r="S414">
+        <f t="shared" si="39"/>
+        <v>4.3809535552044266E-3</v>
+      </c>
+      <c r="T414">
+        <f t="shared" si="40"/>
+        <v>6.5714303328066401E-5</v>
+      </c>
+      <c r="U414">
+        <f t="shared" si="41"/>
+        <v>-207.97091590286635</v>
+      </c>
+    </row>
+    <row r="415" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A415" s="1">
+        <v>44994</v>
+      </c>
+      <c r="B415">
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="C415">
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="D415">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="E415">
+        <v>0.75400000810623169</v>
+      </c>
+      <c r="F415">
+        <v>1194801</v>
+      </c>
+      <c r="G415">
+        <v>901.9959716796875</v>
+      </c>
+      <c r="H415">
+        <f t="shared" si="47"/>
+        <v>413</v>
+      </c>
+      <c r="I415">
+        <f>SUM($F$3:F415)/H415</f>
+        <v>4836624.065677966</v>
+      </c>
+      <c r="N415">
+        <f t="shared" si="56"/>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O415">
+        <f t="shared" si="57"/>
+        <v>0.74900001287460327</v>
+      </c>
+      <c r="P415">
+        <f t="shared" si="46"/>
+        <v>0.75400000810623169</v>
+      </c>
+      <c r="Q415">
+        <f t="shared" si="37"/>
+        <v>0.76452380702609102</v>
+      </c>
+      <c r="R415">
+        <f t="shared" si="38"/>
+        <v>-1.0523798919859328E-2</v>
+      </c>
+      <c r="S415">
+        <f t="shared" si="39"/>
+        <v>5.3741469675180975E-3</v>
+      </c>
+      <c r="T415">
+        <f t="shared" si="40"/>
+        <v>8.0612204512771457E-5</v>
+      </c>
+      <c r="U415">
+        <f t="shared" si="41"/>
+        <v>-130.54845706634947</v>
+      </c>
+    </row>
+    <row r="416" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A416" s="1">
+        <v>44995</v>
+      </c>
+      <c r="B416">
+        <v>0.75400000810623169</v>
+      </c>
+      <c r="C416">
+        <v>0.75400000810623169</v>
+      </c>
+      <c r="D416">
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="E416">
+        <v>0.74800002574920654</v>
+      </c>
+      <c r="F416">
+        <v>3065800</v>
+      </c>
+      <c r="G416">
+        <v>2295.97705078125</v>
+      </c>
+      <c r="H416">
+        <f t="shared" si="47"/>
+        <v>414</v>
+      </c>
+      <c r="I416">
+        <f>SUM($F$3:F416)/H416</f>
+        <v>4832346.7128623184</v>
+      </c>
+      <c r="N416">
+        <f t="shared" si="56"/>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O416">
+        <f t="shared" si="57"/>
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="P416">
+        <f t="shared" si="46"/>
+        <v>0.74933334191640222</v>
+      </c>
+      <c r="Q416">
+        <f t="shared" si="37"/>
+        <v>0.76316666603088379</v>
+      </c>
+      <c r="R416">
+        <f t="shared" si="38"/>
+        <v>-1.3833324114481571E-2</v>
+      </c>
+      <c r="S416">
+        <f t="shared" si="39"/>
+        <v>6.3809497015816742E-3</v>
+      </c>
+      <c r="T416">
+        <f t="shared" si="40"/>
+        <v>9.5714245523725115E-5</v>
+      </c>
+      <c r="U416">
+        <f t="shared" si="41"/>
+        <v>-144.5273275549421</v>
+      </c>
+    </row>
+    <row r="417" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A417" s="1">
+        <v>44998</v>
+      </c>
+      <c r="B417">
+        <v>0.74500000476837158</v>
+      </c>
+      <c r="C417">
+        <v>0.75</v>
+      </c>
+      <c r="D417">
+        <v>0.74299997091293335</v>
+      </c>
+      <c r="E417">
+        <v>0.74900001287460327</v>
+      </c>
+      <c r="F417">
+        <v>1219303</v>
+      </c>
+      <c r="G417">
+        <v>911.2979736328125</v>
+      </c>
+      <c r="H417">
+        <f t="shared" si="47"/>
+        <v>415</v>
+      </c>
+      <c r="I417">
+        <f>SUM($F$3:F417)/H417</f>
+        <v>4823640.5834337352</v>
+      </c>
+      <c r="N417">
+        <f t="shared" si="56"/>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O417">
+        <f t="shared" si="57"/>
+        <v>0.74299997091293335</v>
+      </c>
+      <c r="P417">
+        <f t="shared" si="46"/>
+        <v>0.74733332792917884</v>
+      </c>
+      <c r="Q417">
+        <f t="shared" si="37"/>
+        <v>0.76128571374075749</v>
+      </c>
+      <c r="R417">
+        <f t="shared" si="38"/>
+        <v>-1.3952385811578649E-2</v>
+      </c>
+      <c r="S417">
+        <f t="shared" si="39"/>
+        <v>6.8163259499738104E-3</v>
+      </c>
+      <c r="T417">
+        <f t="shared" si="40"/>
+        <v>1.0224488924960716E-4</v>
+      </c>
+      <c r="U417">
+        <f t="shared" si="41"/>
+        <v>-136.46047165758222</v>
+      </c>
+    </row>
+    <row r="418" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A418" s="1">
+        <v>44999</v>
+      </c>
+      <c r="B418">
+        <v>0.74900001287460327</v>
+      </c>
+      <c r="C418">
+        <v>0.74900001287460327</v>
+      </c>
+      <c r="D418">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="E418">
+        <v>0.74299997091293335</v>
+      </c>
+      <c r="F418">
+        <v>244204</v>
+      </c>
+      <c r="G418">
+        <v>180.80299377441406</v>
+      </c>
+      <c r="H418">
+        <f t="shared" si="47"/>
+        <v>416</v>
+      </c>
+      <c r="I418">
+        <f>SUM($F$3:F418)/H418</f>
+        <v>4812632.322415865</v>
+      </c>
+      <c r="N418">
+        <f t="shared" si="56"/>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O418">
+        <f t="shared" si="57"/>
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="P418">
+        <f t="shared" si="46"/>
+        <v>0.74200000365575158</v>
+      </c>
+      <c r="Q418">
+        <f t="shared" si="37"/>
+        <v>0.75938095081420176</v>
+      </c>
+      <c r="R418">
+        <f t="shared" si="38"/>
+        <v>-1.7380947158450177E-2</v>
+      </c>
+      <c r="S418">
+        <f t="shared" si="39"/>
+        <v>7.7074802651697161E-3</v>
+      </c>
+      <c r="T418">
+        <f t="shared" si="40"/>
+        <v>1.1561220397754574E-4</v>
+      </c>
+      <c r="U418">
+        <f t="shared" si="41"/>
+        <v>-150.33834284333784</v>
+      </c>
+    </row>
+    <row r="419" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A419" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B419">
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="C419">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="D419">
+        <v>0.74099999666213989</v>
+      </c>
+      <c r="E419">
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="F419">
+        <v>2845969</v>
+      </c>
+      <c r="G419">
+        <v>2120.841064453125</v>
+      </c>
+      <c r="H419">
+        <f t="shared" si="47"/>
+        <v>417</v>
+      </c>
+      <c r="I419">
+        <f>SUM($F$3:F419)/H419</f>
+        <v>4807916.1034172662</v>
+      </c>
+      <c r="N419">
+        <f t="shared" si="56"/>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O419">
+        <f t="shared" si="57"/>
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="P419">
+        <f t="shared" si="46"/>
+        <v>0.74466665585835778</v>
+      </c>
+      <c r="Q419">
+        <f t="shared" si="37"/>
+        <v>0.75761904461043217</v>
+      </c>
+      <c r="R419">
+        <f t="shared" si="38"/>
+        <v>-1.2952388752074384E-2</v>
+      </c>
+      <c r="S419">
+        <f t="shared" si="39"/>
+        <v>8.1020378742088228E-3</v>
+      </c>
+      <c r="T419">
+        <f t="shared" si="40"/>
+        <v>1.2153056811313234E-4</v>
+      </c>
+      <c r="U419">
+        <f t="shared" si="41"/>
+        <v>-106.57720895385805</v>
+      </c>
+    </row>
+    <row r="420" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A420" s="1">
+        <v>45001</v>
+      </c>
+      <c r="B420">
+        <v>0.73799997568130493</v>
+      </c>
+      <c r="C420">
+        <v>0.73799997568130493</v>
+      </c>
+      <c r="D420">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="E420">
+        <v>0.73000001907348633</v>
+      </c>
+      <c r="F420">
+        <v>1216716</v>
+      </c>
+      <c r="G420">
+        <v>893.90997314453125</v>
+      </c>
+      <c r="H420">
+        <f t="shared" si="47"/>
+        <v>418</v>
+      </c>
+      <c r="I420">
+        <f>SUM($F$3:F420)/H420</f>
+        <v>4799324.7156100478</v>
+      </c>
+      <c r="N420">
+        <f t="shared" si="56"/>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O420">
+        <f t="shared" si="57"/>
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="P420">
+        <f t="shared" si="46"/>
+        <v>0.73199999332427979</v>
+      </c>
+      <c r="Q420">
+        <f t="shared" si="37"/>
+        <v>0.75526190229824608</v>
+      </c>
+      <c r="R420">
+        <f t="shared" si="38"/>
+        <v>-2.3261908973966294E-2</v>
+      </c>
+      <c r="S420">
+        <f t="shared" si="39"/>
+        <v>9.4047600314730584E-3</v>
+      </c>
+      <c r="T420">
+        <f t="shared" si="40"/>
+        <v>1.4107140047209588E-4</v>
+      </c>
+      <c r="U420">
+        <f t="shared" si="41"/>
+        <v>-164.89457747013387</v>
+      </c>
+    </row>
+    <row r="421" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A421" s="1">
+        <v>45002</v>
+      </c>
+      <c r="B421">
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="C421">
+        <v>0.74099999666213989</v>
+      </c>
+      <c r="D421">
+        <v>0.73000001907348633</v>
+      </c>
+      <c r="E421">
+        <v>0.73000001907348633</v>
+      </c>
+      <c r="F421">
+        <v>2325807</v>
+      </c>
+      <c r="G421">
+        <v>1709.5550537109375</v>
+      </c>
+      <c r="H421">
+        <f t="shared" si="47"/>
+        <v>419</v>
+      </c>
+      <c r="I421">
+        <f>SUM($F$3:F421)/H421</f>
+        <v>4793421.3320405725</v>
+      </c>
+      <c r="N421">
+        <f t="shared" si="56"/>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O421">
+        <f t="shared" si="57"/>
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="P421">
+        <f t="shared" si="46"/>
+        <v>0.73366667826970422</v>
+      </c>
+      <c r="Q421">
+        <f t="shared" si="37"/>
+        <v>0.75352380815006448</v>
+      </c>
+      <c r="R421">
+        <f t="shared" si="38"/>
+        <v>-1.9857129880360258E-2</v>
+      </c>
+      <c r="S421">
+        <f t="shared" si="39"/>
+        <v>1.057142728850954E-2</v>
+      </c>
+      <c r="T421">
+        <f t="shared" si="40"/>
+        <v>1.5857140932764311E-4</v>
+      </c>
+      <c r="U421">
+        <f t="shared" si="41"/>
+        <v>-125.22515858663461</v>
+      </c>
+    </row>
+    <row r="422" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A422" s="1">
+        <v>45005</v>
+      </c>
+      <c r="B422">
+        <v>0.73199999332427979</v>
+      </c>
+      <c r="C422">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="D422">
+        <v>0.73100000619888306</v>
+      </c>
+      <c r="E422">
+        <v>0.73100000619888306</v>
+      </c>
+      <c r="F422">
+        <v>3156704</v>
+      </c>
+      <c r="G422">
+        <v>2323.39697265625</v>
+      </c>
+      <c r="H422">
+        <f t="shared" si="47"/>
+        <v>420</v>
+      </c>
+      <c r="I422">
+        <f>SUM($F$3:F422)/H422</f>
+        <v>4789524.386011905</v>
+      </c>
+      <c r="N422">
+        <f t="shared" si="56"/>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O422">
+        <f t="shared" si="57"/>
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="P422">
+        <f t="shared" si="46"/>
+        <v>0.73400000731150306</v>
+      </c>
+      <c r="Q422">
+        <f t="shared" si="37"/>
+        <v>0.75154761757169453</v>
+      </c>
+      <c r="R422">
+        <f t="shared" si="38"/>
+        <v>-1.7547610260191471E-2</v>
+      </c>
+      <c r="S422">
+        <f t="shared" si="39"/>
+        <v>1.1119044962383442E-2</v>
+      </c>
+      <c r="T422">
+        <f t="shared" si="40"/>
+        <v>1.6678567443575163E-4</v>
+      </c>
+      <c r="U422">
+        <f t="shared" si="41"/>
+        <v>-105.21053633386887</v>
+      </c>
+    </row>
+    <row r="423" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A423" s="1">
+        <v>45006</v>
+      </c>
+      <c r="B423">
+        <v>0.73600000143051147</v>
+      </c>
+      <c r="C423">
+        <v>0.74299997091293335</v>
+      </c>
+      <c r="D423">
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="E423">
+        <v>0.74299997091293335</v>
+      </c>
+      <c r="F423">
+        <v>3195000</v>
+      </c>
+      <c r="G423">
+        <v>2362.77490234375</v>
+      </c>
+      <c r="H423">
+        <f t="shared" si="47"/>
+        <v>421</v>
+      </c>
+      <c r="I423">
+        <f>SUM($F$3:F423)/H423</f>
+        <v>4785736.9171615206</v>
+      </c>
+      <c r="N423">
+        <f t="shared" si="56"/>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O423">
+        <f t="shared" si="57"/>
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="P423">
+        <f t="shared" si="46"/>
+        <v>0.74033331871032715</v>
+      </c>
+      <c r="Q423">
+        <f t="shared" si="37"/>
+        <v>0.74940475963410869</v>
+      </c>
+      <c r="R423">
+        <f t="shared" si="38"/>
+        <v>-9.0714409237815374E-3</v>
+      </c>
+      <c r="S423">
+        <f t="shared" si="39"/>
+        <v>1.0272107156766495E-2</v>
+      </c>
+      <c r="T423">
+        <f t="shared" si="40"/>
+        <v>1.5408160735149741E-4</v>
+      </c>
+      <c r="U423">
+        <f t="shared" si="41"/>
+        <v>-58.874262020692626</v>
+      </c>
+    </row>
+    <row r="424" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A424" s="1">
+        <v>45007</v>
+      </c>
+      <c r="B424">
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="C424">
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="D424">
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="E424">
+        <v>0.75</v>
+      </c>
+      <c r="F424">
+        <v>1591900</v>
+      </c>
+      <c r="G424">
+        <v>1192.31396484375</v>
+      </c>
+      <c r="H424">
+        <f t="shared" si="47"/>
+        <v>422</v>
+      </c>
+      <c r="I424">
+        <f>SUM($F$3:F424)/H424</f>
+        <v>4778168.583234597</v>
+      </c>
+      <c r="N424">
+        <f t="shared" si="56"/>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O424">
+        <f t="shared" si="57"/>
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="P424">
+        <f t="shared" si="46"/>
+        <v>0.7496666510899862</v>
+      </c>
+      <c r="Q424">
+        <f t="shared" si="37"/>
+        <v>0.74802380800247192</v>
+      </c>
+      <c r="R424">
+        <f t="shared" si="38"/>
+        <v>1.6428430875142785E-3</v>
+      </c>
+      <c r="S424">
+        <f t="shared" si="39"/>
+        <v>8.8809529940287301E-3</v>
+      </c>
+      <c r="T424">
+        <f t="shared" si="40"/>
+        <v>1.3321429491043094E-4</v>
+      </c>
+      <c r="U424">
+        <f t="shared" si="41"/>
+        <v>12.332333317673408</v>
+      </c>
+    </row>
+    <row r="425" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A425" s="1">
+        <v>45008</v>
+      </c>
+      <c r="B425">
+        <v>0.74900001287460327</v>
+      </c>
+      <c r="C425">
+        <v>0.75999999046325684</v>
+      </c>
+      <c r="D425">
+        <v>0.74900001287460327</v>
+      </c>
+      <c r="E425">
+        <v>0.75999999046325684</v>
+      </c>
+      <c r="F425">
+        <v>1783313.125</v>
+      </c>
+      <c r="G425">
+        <v>1345.2340087890625</v>
+      </c>
+      <c r="H425">
+        <f t="shared" si="47"/>
+        <v>423</v>
+      </c>
+      <c r="I425">
+        <f>SUM($F$3:F425)/H425</f>
+        <v>4771088.5466903076</v>
+      </c>
+      <c r="N425">
+        <f t="shared" si="56"/>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O425">
+        <f t="shared" si="57"/>
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="P425">
+        <f t="shared" si="46"/>
+        <v>0.75633333126703894</v>
+      </c>
+      <c r="Q425">
+        <f t="shared" si="37"/>
+        <v>0.74719047404470895</v>
+      </c>
+      <c r="R425">
+        <f t="shared" si="38"/>
+        <v>9.142857222329992E-3</v>
+      </c>
+      <c r="S425">
+        <f t="shared" si="39"/>
+        <v>8.0680267340471935E-3</v>
+      </c>
+      <c r="T425">
+        <f t="shared" si="40"/>
+        <v>1.2102040101070789E-4</v>
+      </c>
+      <c r="U425">
+        <f t="shared" si="41"/>
+        <v>75.548065830000283</v>
+      </c>
+    </row>
+    <row r="426" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A426" s="1">
+        <v>45009</v>
+      </c>
+      <c r="B426">
+        <v>0.75999999046325684</v>
+      </c>
+      <c r="C426">
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="D426">
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="E426">
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="F426">
+        <v>1272500</v>
+      </c>
+      <c r="G426">
+        <v>968.11798095703125</v>
+      </c>
+      <c r="H426">
+        <f t="shared" si="47"/>
+        <v>424</v>
+      </c>
+      <c r="I426">
+        <f>SUM($F$3:F426)/H426</f>
+        <v>4762837.1586084906</v>
+      </c>
+      <c r="N426">
+        <f t="shared" si="56"/>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O426">
+        <f t="shared" si="57"/>
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="P426">
+        <f t="shared" si="46"/>
+        <v>0.7603333592414856</v>
+      </c>
+      <c r="Q426">
+        <f t="shared" si="37"/>
+        <v>0.74678571451277953</v>
+      </c>
+      <c r="R426">
+        <f t="shared" si="38"/>
+        <v>1.3547644728706065E-2</v>
+      </c>
+      <c r="S426">
+        <f t="shared" si="39"/>
+        <v>7.7210899923934439E-3</v>
+      </c>
+      <c r="T426">
+        <f t="shared" si="40"/>
+        <v>1.1581634988590165E-4</v>
+      </c>
+      <c r="U426">
+        <f t="shared" si="41"/>
+        <v>116.97523486150915</v>
+      </c>
+    </row>
+    <row r="427" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A427" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B427">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C427">
+        <v>0.76399999856948853</v>
+      </c>
+      <c r="D427">
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="E427">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="F427">
+        <v>1645105.125</v>
+      </c>
+      <c r="G427">
+        <v>1253.782958984375</v>
+      </c>
+      <c r="H427">
+        <f t="shared" si="47"/>
+        <v>425</v>
+      </c>
+      <c r="I427">
+        <f>SUM($F$3:F427)/H427</f>
+        <v>4755501.3185294122</v>
+      </c>
+      <c r="N427">
+        <f t="shared" si="56"/>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O427">
+        <f t="shared" si="57"/>
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="P427">
+        <f t="shared" si="46"/>
+        <v>0.76133334636688232</v>
+      </c>
+      <c r="Q427">
+        <f t="shared" si="37"/>
+        <v>0.74690476343745271</v>
+      </c>
+      <c r="R427">
+        <f t="shared" si="38"/>
+        <v>1.4428582929429612E-2</v>
+      </c>
+      <c r="S427">
+        <f t="shared" si="39"/>
+        <v>7.8231319278275913E-3</v>
+      </c>
+      <c r="T427">
+        <f t="shared" si="40"/>
+        <v>1.1734697891741387E-4</v>
+      </c>
+      <c r="U427">
+        <f t="shared" si="41"/>
+        <v>122.95657768560126</v>
+      </c>
+    </row>
+    <row r="428" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A428" s="1">
+        <v>45013</v>
+      </c>
+      <c r="B428">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C428">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="D428">
+        <v>0.75300002098083496</v>
+      </c>
+      <c r="E428">
+        <v>0.75300002098083496</v>
+      </c>
+      <c r="F428">
+        <v>2560200</v>
+      </c>
+      <c r="G428">
+        <v>1938.916015625</v>
+      </c>
+      <c r="H428">
+        <f t="shared" si="47"/>
+        <v>426</v>
+      </c>
+      <c r="I428">
+        <f>SUM($F$3:F428)/H428</f>
+        <v>4750348.0290492959</v>
+      </c>
+      <c r="N428">
+        <f t="shared" si="56"/>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O428">
+        <f t="shared" si="57"/>
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="P428">
+        <f t="shared" si="46"/>
+        <v>0.75566667318344116</v>
+      </c>
+      <c r="Q428">
+        <f t="shared" si="37"/>
+        <v>0.74719047830218355</v>
+      </c>
+      <c r="R428">
+        <f t="shared" si="38"/>
+        <v>8.4761948812576149E-3</v>
+      </c>
+      <c r="S428">
+        <f t="shared" si="39"/>
+        <v>8.0680303833111644E-3</v>
+      </c>
+      <c r="T428">
+        <f t="shared" si="40"/>
+        <v>1.2102045574966746E-4</v>
+      </c>
+      <c r="U428">
+        <f t="shared" si="41"/>
+        <v>70.039356807503225</v>
+      </c>
+    </row>
+    <row r="429" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A429" s="1">
+        <v>45014</v>
+      </c>
+      <c r="B429">
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="C429">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="D429">
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="E429">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="F429">
+        <v>5493502</v>
+      </c>
+      <c r="G429">
+        <v>4164.5908203125</v>
+      </c>
+      <c r="H429">
+        <f t="shared" si="47"/>
+        <v>427</v>
+      </c>
+      <c r="I429">
+        <f>SUM($F$3:F429)/H429</f>
+        <v>4752088.4364754101</v>
+      </c>
+      <c r="N429">
+        <f t="shared" si="56"/>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O429">
+        <f t="shared" si="57"/>
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="P429">
+        <f t="shared" si="46"/>
+        <v>0.75933331251144409</v>
+      </c>
+      <c r="Q429">
+        <f t="shared" si="37"/>
+        <v>0.74757142861684167</v>
+      </c>
+      <c r="R429">
+        <f t="shared" si="38"/>
+        <v>1.1761883894602421E-2</v>
+      </c>
+      <c r="S429">
+        <f t="shared" si="39"/>
+        <v>8.4285736083984375E-3</v>
+      </c>
+      <c r="T429">
+        <f t="shared" si="40"/>
+        <v>1.2642860412597656E-4</v>
+      </c>
+      <c r="U429">
+        <f t="shared" si="41"/>
+        <v>93.031825953583976</v>
+      </c>
+    </row>
+    <row r="430" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A430" s="1">
+        <v>45015</v>
+      </c>
+      <c r="B430">
+        <v>0.75900000333786011</v>
+      </c>
+      <c r="C430">
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="D430">
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="E430">
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="F430">
+        <v>1849000</v>
+      </c>
+      <c r="G430">
+        <v>1407.4630126953125</v>
+      </c>
+      <c r="H430">
+        <f t="shared" si="47"/>
+        <v>428</v>
+      </c>
+      <c r="I430">
+        <f>SUM($F$3:F430)/H430</f>
+        <v>4745305.5195677569</v>
+      </c>
+      <c r="N430">
+        <f t="shared" si="56"/>
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="O430">
+        <f t="shared" si="57"/>
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="P430">
+        <f t="shared" si="46"/>
+        <v>0.76233333349227905</v>
+      </c>
+      <c r="Q430">
+        <f t="shared" si="37"/>
+        <v>0.74849999944369006</v>
+      </c>
+      <c r="R430">
+        <f t="shared" si="38"/>
+        <v>1.3833334048588997E-2</v>
+      </c>
+      <c r="S430">
+        <f t="shared" si="39"/>
+        <v>9.3571444352467826E-3</v>
+      </c>
+      <c r="T430">
+        <f t="shared" si="40"/>
+        <v>1.4035716652870174E-4</v>
+      </c>
+      <c r="U430">
+        <f t="shared" si="41"/>
+        <v>98.558088558735676</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U430"/>
+  <dimension ref="A1:U431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431"/>
+    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
+      <selection activeCell="A432" sqref="A432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1655,7 +1655,7 @@
         <v>27.204783258594759</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44403</v>
       </c>
@@ -1685,6 +1685,12 @@
         <f>SUM($F$3:F23)/H23</f>
         <v>38263612.285714284</v>
       </c>
+      <c r="K23" s="2">
+        <v>45044</v>
+      </c>
+      <c r="L23" s="2">
+        <v>45019</v>
+      </c>
       <c r="N23">
         <f t="shared" si="2"/>
         <v>1.054</v>
@@ -17385,23 +17391,23 @@
         <v>0.78866666555404663</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272:Q430" si="37">SUM(P259:P272)/14</f>
+        <f t="shared" ref="Q272:Q431" si="37">SUM(P259:P272)/14</f>
         <v>0.8100476208187285</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272:R430" si="38">P272-Q272</f>
+        <f t="shared" ref="R272:R431" si="38">P272-Q272</f>
         <v>-2.1380955264681867E-2</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272:S430" si="39">AVEDEV(P259:P272)</f>
+        <f t="shared" ref="S272:S431" si="39">AVEDEV(P259:P272)</f>
         <v>7.8163195629509085E-3</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272:T430" si="40">0.015*S272</f>
+        <f t="shared" ref="T272:T431" si="40">0.015*S272</f>
         <v>1.1724479344426362E-4</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272:U430" si="41">R272/T272</f>
+        <f t="shared" ref="U272:U431" si="41">R272/T272</f>
         <v>-182.36166090263143</v>
       </c>
     </row>
@@ -20531,7 +20537,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P430" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P431" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20641,7 +20647,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H430" si="47">H323+1</f>
+        <f t="shared" ref="H324:H431" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -26004,11 +26010,11 @@
         <v>4877725.8921990171</v>
       </c>
       <c r="N409">
-        <f t="shared" ref="N409:N430" si="56">IF(A409&lt;&gt;$K$22,MAX(N408,VLOOKUP(A409,A:C,3)),)</f>
+        <f t="shared" ref="N409:N431" si="56">IF(A409&lt;&gt;$K$22,MAX(N408,VLOOKUP(A409,A:C,3)),)</f>
         <v>0.77499997615814209</v>
       </c>
       <c r="O409">
-        <f t="shared" ref="O409:O430" si="57">IF(A409&lt;&gt;$K$22,MIN(O408,VLOOKUP(A409,A:D,4)),)</f>
+        <f t="shared" ref="O409:O431" si="57">IF(A409&lt;&gt;$K$22,MIN(O408,VLOOKUP(A409,A:D,4)),)</f>
         <v>0.7630000114440918</v>
       </c>
       <c r="P409">
@@ -27357,6 +27363,69 @@
       <c r="U430">
         <f t="shared" si="41"/>
         <v>98.558088558735676</v>
+      </c>
+    </row>
+    <row r="431" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A431" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B431">
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="C431">
+        <v>0.7720000147819519</v>
+      </c>
+      <c r="D431">
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="E431">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="F431">
+        <v>1673001</v>
+      </c>
+      <c r="G431">
+        <v>1286.60498046875</v>
+      </c>
+      <c r="H431">
+        <f t="shared" si="47"/>
+        <v>429</v>
+      </c>
+      <c r="I431">
+        <f>SUM($F$3:F431)/H431</f>
+        <v>4738143.9705710951</v>
+      </c>
+      <c r="N431">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="O431">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="P431">
+        <f t="shared" si="46"/>
+        <v>0.76933334271113074</v>
+      </c>
+      <c r="Q431">
+        <f t="shared" si="37"/>
+        <v>0.75007142907097235</v>
+      </c>
+      <c r="R431">
+        <f t="shared" si="38"/>
+        <v>1.926191364015839E-2</v>
+      </c>
+      <c r="S431">
+        <f t="shared" si="39"/>
+        <v>1.0595242182413724E-2</v>
+      </c>
+      <c r="T431">
+        <f t="shared" si="40"/>
+        <v>1.5892863273620587E-4</v>
+      </c>
+      <c r="U431">
+        <f t="shared" si="41"/>
+        <v>121.19851098278713</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U431"/>
+  <dimension ref="A1:U449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A432" sqref="A432"/>
+    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
+      <selection activeCell="A450" sqref="A450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17391,23 +17391,23 @@
         <v>0.78866666555404663</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272:Q431" si="37">SUM(P259:P272)/14</f>
+        <f t="shared" ref="Q272:Q449" si="37">SUM(P259:P272)/14</f>
         <v>0.8100476208187285</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272:R431" si="38">P272-Q272</f>
+        <f t="shared" ref="R272:R449" si="38">P272-Q272</f>
         <v>-2.1380955264681867E-2</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272:S431" si="39">AVEDEV(P259:P272)</f>
+        <f t="shared" ref="S272:S449" si="39">AVEDEV(P259:P272)</f>
         <v>7.8163195629509085E-3</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272:T431" si="40">0.015*S272</f>
+        <f t="shared" ref="T272:T449" si="40">0.015*S272</f>
         <v>1.1724479344426362E-4</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272:U431" si="41">R272/T272</f>
+        <f t="shared" ref="U272:U449" si="41">R272/T272</f>
         <v>-182.36166090263143</v>
       </c>
     </row>
@@ -20537,7 +20537,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P431" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P449" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20647,7 +20647,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H431" si="47">H323+1</f>
+        <f t="shared" ref="H324:H449" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -26010,11 +26010,11 @@
         <v>4877725.8921990171</v>
       </c>
       <c r="N409">
-        <f t="shared" ref="N409:N431" si="56">IF(A409&lt;&gt;$K$22,MAX(N408,VLOOKUP(A409,A:C,3)),)</f>
+        <f t="shared" ref="N409:N430" si="56">IF(A409&lt;&gt;$K$22,MAX(N408,VLOOKUP(A409,A:C,3)),)</f>
         <v>0.77499997615814209</v>
       </c>
       <c r="O409">
-        <f t="shared" ref="O409:O431" si="57">IF(A409&lt;&gt;$K$22,MIN(O408,VLOOKUP(A409,A:D,4)),)</f>
+        <f t="shared" ref="O409:O430" si="57">IF(A409&lt;&gt;$K$22,MIN(O408,VLOOKUP(A409,A:D,4)),)</f>
         <v>0.7630000114440918</v>
       </c>
       <c r="P409">
@@ -27396,12 +27396,12 @@
         <v>4738143.9705710951</v>
       </c>
       <c r="N431">
-        <f t="shared" si="56"/>
-        <v>0</v>
+        <f>VLOOKUP(L23,A:C,3)</f>
+        <v>0.77900000000000003</v>
       </c>
       <c r="O431">
-        <f t="shared" si="57"/>
-        <v>0</v>
+        <f>VLOOKUP(L23,A:D,4)</f>
+        <v>0.77300000000000002</v>
       </c>
       <c r="P431">
         <f t="shared" si="46"/>
@@ -27426,6 +27426,1140 @@
       <c r="U431">
         <f t="shared" si="41"/>
         <v>121.19851098278713</v>
+      </c>
+    </row>
+    <row r="432" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A432" s="1">
+        <v>45019</v>
+      </c>
+      <c r="B432">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="C432">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="D432">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="E432">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="F432">
+        <v>2424301</v>
+      </c>
+      <c r="G432">
+        <v>1879142.88</v>
+      </c>
+      <c r="H432">
+        <f t="shared" si="47"/>
+        <v>430</v>
+      </c>
+      <c r="I432">
+        <f>SUM($F$3:F432)/H432</f>
+        <v>4732762.9404069772</v>
+      </c>
+      <c r="N432">
+        <f t="shared" ref="N432:N449" si="58">IF(A432&lt;&gt;$K$23,MAX(N431,VLOOKUP(A432,A:C,3)),)</f>
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="O432">
+        <f t="shared" ref="O432:O449" si="59">IF(A432&lt;&gt;$K$23,MIN(O431,VLOOKUP(A432,A:D,4)),)</f>
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="P432">
+        <f t="shared" si="46"/>
+        <v>0.77666666666666673</v>
+      </c>
+      <c r="Q432">
+        <f t="shared" si="37"/>
+        <v>0.75254761928603764</v>
+      </c>
+      <c r="R432">
+        <f t="shared" si="38"/>
+        <v>2.4119047380629088E-2</v>
+      </c>
+      <c r="S432">
+        <f t="shared" si="39"/>
+        <v>1.1564630164581082E-2</v>
+      </c>
+      <c r="T432">
+        <f t="shared" si="40"/>
+        <v>1.7346945246871624E-4</v>
+      </c>
+      <c r="U432">
+        <f t="shared" si="41"/>
+        <v>139.03916244261367</v>
+      </c>
+    </row>
+    <row r="433" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A433" s="1">
+        <v>45020</v>
+      </c>
+      <c r="B433">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="C433">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D433">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="E433">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="F433">
+        <v>3434956</v>
+      </c>
+      <c r="G433">
+        <v>2643943</v>
+      </c>
+      <c r="H433">
+        <f t="shared" si="47"/>
+        <v>431</v>
+      </c>
+      <c r="I433">
+        <f>SUM($F$3:F433)/H433</f>
+        <v>4729751.7874129927</v>
+      </c>
+      <c r="N433">
+        <f t="shared" si="58"/>
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="O433">
+        <f t="shared" si="59"/>
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="P433">
+        <f t="shared" si="46"/>
+        <v>0.77133333333333332</v>
+      </c>
+      <c r="Q433">
+        <f t="shared" si="37"/>
+        <v>0.75445238196282161</v>
+      </c>
+      <c r="R433">
+        <f t="shared" si="38"/>
+        <v>1.688095137051171E-2</v>
+      </c>
+      <c r="S433">
+        <f t="shared" si="39"/>
+        <v>1.1799323015472509E-2</v>
+      </c>
+      <c r="T433">
+        <f t="shared" si="40"/>
+        <v>1.7698984523208762E-4</v>
+      </c>
+      <c r="U433">
+        <f t="shared" si="41"/>
+        <v>95.378078603185614</v>
+      </c>
+    </row>
+    <row r="434" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A434" s="1">
+        <v>45022</v>
+      </c>
+      <c r="B434">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="C434">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="D434">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="E434">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="F434">
+        <v>2342103</v>
+      </c>
+      <c r="G434">
+        <v>1810911.38</v>
+      </c>
+      <c r="H434">
+        <f t="shared" si="47"/>
+        <v>432</v>
+      </c>
+      <c r="I434">
+        <f>SUM($F$3:F434)/H434</f>
+        <v>4724224.8226273144</v>
+      </c>
+      <c r="N434">
+        <f t="shared" si="58"/>
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="O434">
+        <f t="shared" si="59"/>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="P434">
+        <f t="shared" si="46"/>
+        <v>0.77233333333333343</v>
+      </c>
+      <c r="Q434">
+        <f t="shared" si="37"/>
+        <v>0.75733333482061116</v>
+      </c>
+      <c r="R434">
+        <f t="shared" si="38"/>
+        <v>1.4999998512722268E-2</v>
+      </c>
+      <c r="S434">
+        <f t="shared" si="39"/>
+        <v>1.0619049870238016E-2</v>
+      </c>
+      <c r="T434">
+        <f t="shared" si="40"/>
+        <v>1.5928574805357024E-4</v>
+      </c>
+      <c r="U434">
+        <f t="shared" si="41"/>
+        <v>94.170374286577967</v>
+      </c>
+    </row>
+    <row r="435" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A435" s="1">
+        <v>45023</v>
+      </c>
+      <c r="B435">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="C435">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="D435">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E435">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="F435">
+        <v>3182218</v>
+      </c>
+      <c r="G435">
+        <v>2494053</v>
+      </c>
+      <c r="H435">
+        <f t="shared" si="47"/>
+        <v>433</v>
+      </c>
+      <c r="I435">
+        <f>SUM($F$3:F435)/H435</f>
+        <v>4720663.6059468826</v>
+      </c>
+      <c r="N435">
+        <f t="shared" si="58"/>
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="O435">
+        <f t="shared" si="59"/>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="P435">
+        <f t="shared" si="46"/>
+        <v>0.78166666666666662</v>
+      </c>
+      <c r="Q435">
+        <f t="shared" si="37"/>
+        <v>0.76076190542039412</v>
+      </c>
+      <c r="R435">
+        <f t="shared" si="38"/>
+        <v>2.0904761246272496E-2</v>
+      </c>
+      <c r="S435">
+        <f t="shared" si="39"/>
+        <v>9.9523835182190011E-3</v>
+      </c>
+      <c r="T435">
+        <f t="shared" si="40"/>
+        <v>1.4928575277328501E-4</v>
+      </c>
+      <c r="U435">
+        <f t="shared" si="41"/>
+        <v>140.03185741388074</v>
+      </c>
+    </row>
+    <row r="436" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A436" s="1">
+        <v>45026</v>
+      </c>
+      <c r="B436">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="C436">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="D436">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="E436">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="F436">
+        <v>3654903</v>
+      </c>
+      <c r="G436">
+        <v>2871418.75</v>
+      </c>
+      <c r="H436">
+        <f t="shared" si="47"/>
+        <v>434</v>
+      </c>
+      <c r="I436">
+        <f>SUM($F$3:F436)/H436</f>
+        <v>4718207.936347926</v>
+      </c>
+      <c r="N436">
+        <f t="shared" si="58"/>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="O436">
+        <f t="shared" si="59"/>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="P436">
+        <f t="shared" si="46"/>
+        <v>0.78266666666666673</v>
+      </c>
+      <c r="Q436">
+        <f t="shared" si="37"/>
+        <v>0.76423809537433451</v>
+      </c>
+      <c r="R436">
+        <f t="shared" si="38"/>
+        <v>1.8428571292332219E-2</v>
+      </c>
+      <c r="S436">
+        <f t="shared" si="39"/>
+        <v>9.7959195902558617E-3</v>
+      </c>
+      <c r="T436">
+        <f t="shared" si="40"/>
+        <v>1.4693879385383791E-4</v>
+      </c>
+      <c r="U436">
+        <f t="shared" si="41"/>
+        <v>125.41665008264174</v>
+      </c>
+    </row>
+    <row r="437" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A437" s="1">
+        <v>45027</v>
+      </c>
+      <c r="B437">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="C437">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="D437">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="E437">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="F437">
+        <v>1594800</v>
+      </c>
+      <c r="G437">
+        <v>1248547.5</v>
+      </c>
+      <c r="H437">
+        <f t="shared" si="47"/>
+        <v>435</v>
+      </c>
+      <c r="I437">
+        <f>SUM($F$3:F437)/H437</f>
+        <v>4711027.6882183906</v>
+      </c>
+      <c r="N437">
+        <f t="shared" si="58"/>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="O437">
+        <f t="shared" si="59"/>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="P437">
+        <f t="shared" si="46"/>
+        <v>0.78266666666666662</v>
+      </c>
+      <c r="Q437">
+        <f t="shared" si="37"/>
+        <v>0.76726190594264432</v>
+      </c>
+      <c r="R437">
+        <f t="shared" si="38"/>
+        <v>1.5404760724022304E-2</v>
+      </c>
+      <c r="S437">
+        <f t="shared" si="39"/>
+        <v>9.40476206370763E-3</v>
+      </c>
+      <c r="T437">
+        <f t="shared" si="40"/>
+        <v>1.4107143095561445E-4</v>
+      </c>
+      <c r="U437">
+        <f t="shared" si="41"/>
+        <v>109.19830202097496</v>
+      </c>
+    </row>
+    <row r="438" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A438" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B438">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="C438">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="D438">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="E438">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="F438">
+        <v>2168020</v>
+      </c>
+      <c r="G438">
+        <v>1697468.38</v>
+      </c>
+      <c r="H438">
+        <f t="shared" si="47"/>
+        <v>436</v>
+      </c>
+      <c r="I438">
+        <f>SUM($F$3:F438)/H438</f>
+        <v>4705195.1017775228</v>
+      </c>
+      <c r="N438">
+        <f t="shared" si="58"/>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="O438">
+        <f t="shared" si="59"/>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="P438">
+        <f t="shared" si="46"/>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="Q438">
+        <f t="shared" si="37"/>
+        <v>0.76966666896002633</v>
+      </c>
+      <c r="R438">
+        <f t="shared" si="38"/>
+        <v>1.3666664373306991E-2</v>
+      </c>
+      <c r="S438">
+        <f t="shared" si="39"/>
+        <v>8.9999977066403478E-3</v>
+      </c>
+      <c r="T438">
+        <f t="shared" si="40"/>
+        <v>1.3499996559960522E-4</v>
+      </c>
+      <c r="U438">
+        <f t="shared" si="41"/>
+        <v>101.23457670975108</v>
+      </c>
+    </row>
+    <row r="439" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A439" s="1">
+        <v>45029</v>
+      </c>
+      <c r="B439">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="C439">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D439">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="E439">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="F439">
+        <v>1556601</v>
+      </c>
+      <c r="G439">
+        <v>1199176.8799999999</v>
+      </c>
+      <c r="H439">
+        <f t="shared" si="47"/>
+        <v>437</v>
+      </c>
+      <c r="I439">
+        <f>SUM($F$3:F439)/H439</f>
+        <v>4697990.0809496567</v>
+      </c>
+      <c r="N439">
+        <f t="shared" si="58"/>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="O439">
+        <f t="shared" si="59"/>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="P439">
+        <f t="shared" si="46"/>
+        <v>0.77066666666666672</v>
+      </c>
+      <c r="Q439">
+        <f t="shared" si="37"/>
+        <v>0.77069047863142826</v>
+      </c>
+      <c r="R439">
+        <f t="shared" si="38"/>
+        <v>-2.3811964761533133E-5</v>
+      </c>
+      <c r="S439">
+        <f t="shared" si="39"/>
+        <v>7.9761880352383629E-3</v>
+      </c>
+      <c r="T439">
+        <f t="shared" si="40"/>
+        <v>1.1964282052857544E-4</v>
+      </c>
+      <c r="U439">
+        <f t="shared" si="41"/>
+        <v>-0.19902543801904013</v>
+      </c>
+    </row>
+    <row r="440" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A440" s="1">
+        <v>45030</v>
+      </c>
+      <c r="B440">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="C440">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="D440">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="E440">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F440">
+        <v>627000</v>
+      </c>
+      <c r="G440">
+        <v>484354.09</v>
+      </c>
+      <c r="H440">
+        <f t="shared" si="47"/>
+        <v>438</v>
+      </c>
+      <c r="I440">
+        <f>SUM($F$3:F440)/H440</f>
+        <v>4688695.5830479451</v>
+      </c>
+      <c r="N440">
+        <f t="shared" si="58"/>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="O440">
+        <f t="shared" si="59"/>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="P440">
+        <f t="shared" si="46"/>
+        <v>0.77433333333333332</v>
+      </c>
+      <c r="Q440">
+        <f t="shared" si="37"/>
+        <v>0.77169047678084601</v>
+      </c>
+      <c r="R440">
+        <f t="shared" si="38"/>
+        <v>2.6428565524873049E-3</v>
+      </c>
+      <c r="S440">
+        <f t="shared" si="39"/>
+        <v>7.4047613143920976E-3</v>
+      </c>
+      <c r="T440">
+        <f t="shared" si="40"/>
+        <v>1.1107141971588146E-4</v>
+      </c>
+      <c r="U440">
+        <f t="shared" si="41"/>
+        <v>23.79420880049684</v>
+      </c>
+    </row>
+    <row r="441" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A441" s="1">
+        <v>45033</v>
+      </c>
+      <c r="B441">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="C441">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="D441">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="E441">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="F441">
+        <v>1589040</v>
+      </c>
+      <c r="G441">
+        <v>1232148.5</v>
+      </c>
+      <c r="H441">
+        <f t="shared" si="47"/>
+        <v>439</v>
+      </c>
+      <c r="I441">
+        <f>SUM($F$3:F441)/H441</f>
+        <v>4681634.8641799549</v>
+      </c>
+      <c r="N441">
+        <f t="shared" si="58"/>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="O441">
+        <f t="shared" si="59"/>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="P441">
+        <f t="shared" si="46"/>
+        <v>0.77566666666666662</v>
+      </c>
+      <c r="Q441">
+        <f t="shared" si="37"/>
+        <v>0.77271428537368769</v>
+      </c>
+      <c r="R441">
+        <f t="shared" si="38"/>
+        <v>2.9523812929789228E-3</v>
+      </c>
+      <c r="S441">
+        <f t="shared" si="39"/>
+        <v>6.8571431977408181E-3</v>
+      </c>
+      <c r="T441">
+        <f t="shared" si="40"/>
+        <v>1.0285714796611227E-4</v>
+      </c>
+      <c r="U441">
+        <f t="shared" si="41"/>
+        <v>28.70370558934442</v>
+      </c>
+    </row>
+    <row r="442" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A442" s="1">
+        <v>45034</v>
+      </c>
+      <c r="B442">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="C442">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="D442">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="E442">
+        <v>0.78</v>
+      </c>
+      <c r="F442">
+        <v>1538800</v>
+      </c>
+      <c r="G442">
+        <v>1200914.25</v>
+      </c>
+      <c r="H442">
+        <f t="shared" si="47"/>
+        <v>440</v>
+      </c>
+      <c r="I442">
+        <f>SUM($F$3:F442)/H442</f>
+        <v>4674492.0576704545</v>
+      </c>
+      <c r="N442">
+        <f t="shared" si="58"/>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="O442">
+        <f t="shared" si="59"/>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="P442">
+        <f t="shared" si="46"/>
+        <v>0.77966666666666684</v>
+      </c>
+      <c r="Q442">
+        <f t="shared" si="37"/>
+        <v>0.77442857062248949</v>
+      </c>
+      <c r="R442">
+        <f t="shared" si="38"/>
+        <v>5.2380960441773539E-3</v>
+      </c>
+      <c r="S442">
+        <f t="shared" si="39"/>
+        <v>5.9047627108437728E-3</v>
+      </c>
+      <c r="T442">
+        <f t="shared" si="40"/>
+        <v>8.8571440662656582E-5</v>
+      </c>
+      <c r="U442">
+        <f t="shared" si="41"/>
+        <v>59.139785973762933</v>
+      </c>
+    </row>
+    <row r="443" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A443" s="1">
+        <v>45035</v>
+      </c>
+      <c r="B443">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="C443">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="D443">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="E443">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="F443">
+        <v>2686200</v>
+      </c>
+      <c r="G443">
+        <v>2082108.5</v>
+      </c>
+      <c r="H443">
+        <f t="shared" si="47"/>
+        <v>441</v>
+      </c>
+      <c r="I443">
+        <f>SUM($F$3:F443)/H443</f>
+        <v>4669983.4589002272</v>
+      </c>
+      <c r="N443">
+        <f t="shared" si="58"/>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="O443">
+        <f t="shared" si="59"/>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="P443">
+        <f t="shared" si="46"/>
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="Q443">
+        <f t="shared" si="37"/>
+        <v>0.77547619115738642</v>
+      </c>
+      <c r="R443">
+        <f t="shared" si="38"/>
+        <v>-1.4761911573863973E-3</v>
+      </c>
+      <c r="S443">
+        <f t="shared" si="39"/>
+        <v>4.8571421759469203E-3</v>
+      </c>
+      <c r="T443">
+        <f t="shared" si="40"/>
+        <v>7.2857132639203803E-5</v>
+      </c>
+      <c r="U443">
+        <f t="shared" si="41"/>
+        <v>-20.261450099836505</v>
+      </c>
+    </row>
+    <row r="444" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A444" s="1">
+        <v>45036</v>
+      </c>
+      <c r="B444">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="C444">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="D444">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="E444">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="F444">
+        <v>2455600</v>
+      </c>
+      <c r="G444">
+        <v>1888839.13</v>
+      </c>
+      <c r="H444">
+        <f t="shared" si="47"/>
+        <v>442</v>
+      </c>
+      <c r="I444">
+        <f>SUM($F$3:F444)/H444</f>
+        <v>4664973.5415723985</v>
+      </c>
+      <c r="N444">
+        <f t="shared" si="58"/>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="O444">
+        <f t="shared" si="59"/>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="P444">
+        <f t="shared" si="46"/>
+        <v>0.76966666666666672</v>
+      </c>
+      <c r="Q444">
+        <f t="shared" si="37"/>
+        <v>0.77600000066984265</v>
+      </c>
+      <c r="R444">
+        <f t="shared" si="38"/>
+        <v>-6.3333340031759278E-3</v>
+      </c>
+      <c r="S444">
+        <f t="shared" si="39"/>
+        <v>4.3809518068015207E-3</v>
+      </c>
+      <c r="T444">
+        <f t="shared" si="40"/>
+        <v>6.5714277102022807E-5</v>
+      </c>
+      <c r="U444">
+        <f t="shared" si="41"/>
+        <v>-96.376834418239014</v>
+      </c>
+    </row>
+    <row r="445" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A445" s="1">
+        <v>45037</v>
+      </c>
+      <c r="B445">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="C445">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="D445">
+        <v>0.754</v>
+      </c>
+      <c r="E445">
+        <v>0.755</v>
+      </c>
+      <c r="F445">
+        <v>1505700</v>
+      </c>
+      <c r="G445">
+        <v>1156530</v>
+      </c>
+      <c r="H445">
+        <f t="shared" si="47"/>
+        <v>443</v>
+      </c>
+      <c r="I445">
+        <f>SUM($F$3:F445)/H445</f>
+        <v>4657841.9985891646</v>
+      </c>
+      <c r="N445">
+        <f t="shared" si="58"/>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="O445">
+        <f t="shared" si="59"/>
+        <v>0.754</v>
+      </c>
+      <c r="P445">
+        <f t="shared" si="46"/>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="Q445">
+        <f t="shared" si="37"/>
+        <v>0.77540476190476171</v>
+      </c>
+      <c r="R445">
+        <f t="shared" si="38"/>
+        <v>-1.4404761904761698E-2</v>
+      </c>
+      <c r="S445">
+        <f t="shared" si="39"/>
+        <v>4.9285714285714254E-3</v>
+      </c>
+      <c r="T445">
+        <f t="shared" si="40"/>
+        <v>7.3928571428571373E-5</v>
+      </c>
+      <c r="U445">
+        <f t="shared" si="41"/>
+        <v>-194.84702093397482</v>
+      </c>
+    </row>
+    <row r="446" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A446" s="1">
+        <v>45040</v>
+      </c>
+      <c r="B446">
+        <v>0.755</v>
+      </c>
+      <c r="C446">
+        <v>0.755</v>
+      </c>
+      <c r="D446">
+        <v>0.745</v>
+      </c>
+      <c r="E446">
+        <v>0.745</v>
+      </c>
+      <c r="F446">
+        <v>1583000</v>
+      </c>
+      <c r="G446">
+        <v>1190050.5</v>
+      </c>
+      <c r="H446">
+        <f t="shared" si="47"/>
+        <v>444</v>
+      </c>
+      <c r="I446">
+        <f>SUM($F$3:F446)/H446</f>
+        <v>4650916.6787725221</v>
+      </c>
+      <c r="N446">
+        <f t="shared" si="58"/>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="O446">
+        <f t="shared" si="59"/>
+        <v>0.745</v>
+      </c>
+      <c r="P446">
+        <f t="shared" si="46"/>
+        <v>0.74833333333333341</v>
+      </c>
+      <c r="Q446">
+        <f t="shared" si="37"/>
+        <v>0.77338095238095239</v>
+      </c>
+      <c r="R446">
+        <f t="shared" si="38"/>
+        <v>-2.5047619047618985E-2</v>
+      </c>
+      <c r="S446">
+        <f t="shared" si="39"/>
+        <v>6.7074829931972656E-3</v>
+      </c>
+      <c r="T446">
+        <f t="shared" si="40"/>
+        <v>1.0061224489795899E-4</v>
+      </c>
+      <c r="U446">
+        <f t="shared" si="41"/>
+        <v>-248.95199459093971</v>
+      </c>
+    </row>
+    <row r="447" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A447" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B447">
+        <v>0.747</v>
+      </c>
+      <c r="C447">
+        <v>0.747</v>
+      </c>
+      <c r="D447">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="E447">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="F447">
+        <v>2309800</v>
+      </c>
+      <c r="G447">
+        <v>1703117.13</v>
+      </c>
+      <c r="H447">
+        <f t="shared" si="47"/>
+        <v>445</v>
+      </c>
+      <c r="I447">
+        <f>SUM($F$3:F447)/H447</f>
+        <v>4645655.7424157299</v>
+      </c>
+      <c r="N447">
+        <f t="shared" si="58"/>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="O447">
+        <f t="shared" si="59"/>
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="P447">
+        <f t="shared" si="46"/>
+        <v>0.73733333333333329</v>
+      </c>
+      <c r="Q447">
+        <f t="shared" si="37"/>
+        <v>0.77095238095238094</v>
+      </c>
+      <c r="R447">
+        <f t="shared" si="38"/>
+        <v>-3.3619047619047659E-2</v>
+      </c>
+      <c r="S447">
+        <f t="shared" si="39"/>
+        <v>9.6802721088435437E-3</v>
+      </c>
+      <c r="T447">
+        <f t="shared" si="40"/>
+        <v>1.4520408163265315E-4</v>
+      </c>
+      <c r="U447">
+        <f t="shared" si="41"/>
+        <v>-231.52963223237305</v>
+      </c>
+    </row>
+    <row r="448" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A448" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B448">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="C448">
+        <v>0.745</v>
+      </c>
+      <c r="D448">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="E448">
+        <v>0.74</v>
+      </c>
+      <c r="F448">
+        <v>984000</v>
+      </c>
+      <c r="G448">
+        <v>726577.88</v>
+      </c>
+      <c r="H448">
+        <f t="shared" si="47"/>
+        <v>446</v>
+      </c>
+      <c r="I448">
+        <f>SUM($F$3:F448)/H448</f>
+        <v>4637445.7519618832</v>
+      </c>
+      <c r="N448">
+        <f t="shared" si="58"/>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="O448">
+        <f t="shared" si="59"/>
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="P448">
+        <f t="shared" si="46"/>
+        <v>0.73866666666666669</v>
+      </c>
+      <c r="Q448">
+        <f t="shared" si="37"/>
+        <v>0.76854761904761904</v>
+      </c>
+      <c r="R448">
+        <f t="shared" si="38"/>
+        <v>-2.9880952380952341E-2</v>
+      </c>
+      <c r="S448">
+        <f t="shared" si="39"/>
+        <v>1.2693877551020425E-2</v>
+      </c>
+      <c r="T448">
+        <f t="shared" si="40"/>
+        <v>1.9040816326530637E-4</v>
+      </c>
+      <c r="U448">
+        <f t="shared" si="41"/>
+        <v>-156.93104680242902</v>
+      </c>
+    </row>
+    <row r="449" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A449" s="1">
+        <v>45043</v>
+      </c>
+      <c r="B449">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="C449">
+        <v>0.748</v>
+      </c>
+      <c r="D449">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E449">
+        <v>0.746</v>
+      </c>
+      <c r="F449">
+        <v>2219001</v>
+      </c>
+      <c r="G449">
+        <v>1652428.5</v>
+      </c>
+      <c r="H449">
+        <f t="shared" si="47"/>
+        <v>447</v>
+      </c>
+      <c r="I449">
+        <f>SUM($F$3:F449)/H449</f>
+        <v>4632035.3610178968</v>
+      </c>
+      <c r="N449">
+        <f t="shared" si="58"/>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="O449">
+        <f t="shared" si="59"/>
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="P449">
+        <f t="shared" si="46"/>
+        <v>0.74533333333333329</v>
+      </c>
+      <c r="Q449">
+        <f t="shared" si="37"/>
+        <v>0.76595238095238105</v>
+      </c>
+      <c r="R449">
+        <f t="shared" si="38"/>
+        <v>-2.0619047619047759E-2</v>
+      </c>
+      <c r="S449">
+        <f t="shared" si="39"/>
+        <v>1.4156462585034002E-2</v>
+      </c>
+      <c r="T449">
+        <f t="shared" si="40"/>
+        <v>2.1234693877551002E-4</v>
+      </c>
+      <c r="U449">
+        <f t="shared" si="41"/>
+        <v>-97.100752843185106</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U449"/>
+  <dimension ref="A1:U450"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="A450" sqref="A450"/>
+    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="A451" sqref="A451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1724,7 +1724,7 @@
         <v>-162.52927400468482</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44404</v>
       </c>
@@ -1754,6 +1754,12 @@
         <f>SUM($F$3:F24)/H24</f>
         <v>37430054.68181818</v>
       </c>
+      <c r="K24" s="2">
+        <v>45077</v>
+      </c>
+      <c r="L24" s="2">
+        <v>45050</v>
+      </c>
       <c r="N24">
         <f t="shared" si="2"/>
         <v>1.054</v>
@@ -17391,23 +17397,23 @@
         <v>0.78866666555404663</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272:Q449" si="37">SUM(P259:P272)/14</f>
+        <f t="shared" ref="Q272:Q450" si="37">SUM(P259:P272)/14</f>
         <v>0.8100476208187285</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272:R449" si="38">P272-Q272</f>
+        <f t="shared" ref="R272:R450" si="38">P272-Q272</f>
         <v>-2.1380955264681867E-2</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272:S449" si="39">AVEDEV(P259:P272)</f>
+        <f t="shared" ref="S272:S450" si="39">AVEDEV(P259:P272)</f>
         <v>7.8163195629509085E-3</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272:T449" si="40">0.015*S272</f>
+        <f t="shared" ref="T272:T450" si="40">0.015*S272</f>
         <v>1.1724479344426362E-4</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272:U449" si="41">R272/T272</f>
+        <f t="shared" ref="U272:U450" si="41">R272/T272</f>
         <v>-182.36166090263143</v>
       </c>
     </row>
@@ -20537,7 +20543,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P449" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P450" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20647,7 +20653,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H449" si="47">H323+1</f>
+        <f t="shared" ref="H324:H450" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -27459,11 +27465,11 @@
         <v>4732762.9404069772</v>
       </c>
       <c r="N432">
-        <f t="shared" ref="N432:N449" si="58">IF(A432&lt;&gt;$K$23,MAX(N431,VLOOKUP(A432,A:C,3)),)</f>
+        <f t="shared" ref="N432:N450" si="58">IF(A432&lt;&gt;$K$23,MAX(N431,VLOOKUP(A432,A:C,3)),)</f>
         <v>0.77900000000000003</v>
       </c>
       <c r="O432">
-        <f t="shared" ref="O432:O449" si="59">IF(A432&lt;&gt;$K$23,MIN(O431,VLOOKUP(A432,A:D,4)),)</f>
+        <f t="shared" ref="O432:O450" si="59">IF(A432&lt;&gt;$K$23,MIN(O431,VLOOKUP(A432,A:D,4)),)</f>
         <v>0.77300000000000002</v>
       </c>
       <c r="P432">
@@ -28560,6 +28566,69 @@
       <c r="U449">
         <f t="shared" si="41"/>
         <v>-97.100752843185106</v>
+      </c>
+    </row>
+    <row r="450" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A450" s="1">
+        <v>45044</v>
+      </c>
+      <c r="B450">
+        <v>0.75</v>
+      </c>
+      <c r="C450">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="D450">
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="E450">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="F450">
+        <v>192590000</v>
+      </c>
+      <c r="G450">
+        <v>1925900</v>
+      </c>
+      <c r="H450">
+        <f t="shared" si="47"/>
+        <v>448</v>
+      </c>
+      <c r="I450">
+        <f>SUM($F$3:F450)/H450</f>
+        <v>5051584.3892299104</v>
+      </c>
+      <c r="N450">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="O450">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="P450">
+        <f t="shared" si="46"/>
+        <v>0.7496666510899862</v>
+      </c>
+      <c r="Q450">
+        <f t="shared" si="37"/>
+        <v>0.76359523698261811</v>
+      </c>
+      <c r="R450">
+        <f t="shared" si="38"/>
+        <v>-1.3928585892631906E-2</v>
+      </c>
+      <c r="S450">
+        <f t="shared" si="39"/>
+        <v>1.4462586305579363E-2</v>
+      </c>
+      <c r="T450">
+        <f t="shared" si="40"/>
+        <v>2.1693879458369045E-4</v>
+      </c>
+      <c r="U450">
+        <f t="shared" si="41"/>
+        <v>-64.205140990854673</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U450"/>
+  <dimension ref="A1:U469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="A451" sqref="A451"/>
+    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
+      <selection activeCell="A470" sqref="A470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17397,23 +17397,23 @@
         <v>0.78866666555404663</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272:Q450" si="37">SUM(P259:P272)/14</f>
+        <f t="shared" ref="Q272:Q469" si="37">SUM(P259:P272)/14</f>
         <v>0.8100476208187285</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272:R450" si="38">P272-Q272</f>
+        <f t="shared" ref="R272:R469" si="38">P272-Q272</f>
         <v>-2.1380955264681867E-2</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272:S450" si="39">AVEDEV(P259:P272)</f>
+        <f t="shared" ref="S272:S469" si="39">AVEDEV(P259:P272)</f>
         <v>7.8163195629509085E-3</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272:T450" si="40">0.015*S272</f>
+        <f t="shared" ref="T272:T469" si="40">0.015*S272</f>
         <v>1.1724479344426362E-4</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272:U450" si="41">R272/T272</f>
+        <f t="shared" ref="U272:U469" si="41">R272/T272</f>
         <v>-182.36166090263143</v>
       </c>
     </row>
@@ -20543,7 +20543,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P450" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P469" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20653,7 +20653,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H450" si="47">H323+1</f>
+        <f t="shared" ref="H324:H469" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -27465,11 +27465,11 @@
         <v>4732762.9404069772</v>
       </c>
       <c r="N432">
-        <f t="shared" ref="N432:N450" si="58">IF(A432&lt;&gt;$K$23,MAX(N431,VLOOKUP(A432,A:C,3)),)</f>
+        <f t="shared" ref="N432:N449" si="58">IF(A432&lt;&gt;$K$23,MAX(N431,VLOOKUP(A432,A:C,3)),)</f>
         <v>0.77900000000000003</v>
       </c>
       <c r="O432">
-        <f t="shared" ref="O432:O450" si="59">IF(A432&lt;&gt;$K$23,MIN(O431,VLOOKUP(A432,A:D,4)),)</f>
+        <f t="shared" ref="O432:O449" si="59">IF(A432&lt;&gt;$K$23,MIN(O431,VLOOKUP(A432,A:D,4)),)</f>
         <v>0.77300000000000002</v>
       </c>
       <c r="P432">
@@ -28585,7 +28585,7 @@
         <v>0.75099998712539673</v>
       </c>
       <c r="F450">
-        <v>192590000</v>
+        <v>1925900</v>
       </c>
       <c r="G450">
         <v>1925900</v>
@@ -28596,15 +28596,15 @@
       </c>
       <c r="I450">
         <f>SUM($F$3:F450)/H450</f>
-        <v>5051584.3892299104</v>
+        <v>4625994.8803013396</v>
       </c>
       <c r="N450">
-        <f t="shared" si="58"/>
-        <v>0</v>
+        <f>VLOOKUP(L24,A:C,3)</f>
+        <v>0.74699997901916504</v>
       </c>
       <c r="O450">
-        <f t="shared" si="59"/>
-        <v>0</v>
+        <f>VLOOKUP(L24,A:D,4)</f>
+        <v>0.74099999666213989</v>
       </c>
       <c r="P450">
         <f t="shared" si="46"/>
@@ -28629,6 +28629,1203 @@
       <c r="U450">
         <f t="shared" si="41"/>
         <v>-64.205140990854673</v>
+      </c>
+    </row>
+    <row r="451" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A451" s="1">
+        <v>45050</v>
+      </c>
+      <c r="B451">
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="C451">
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="D451">
+        <v>0.74099999666213989</v>
+      </c>
+      <c r="E451">
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="F451">
+        <v>1058500</v>
+      </c>
+      <c r="G451">
+        <v>10585</v>
+      </c>
+      <c r="H451">
+        <f t="shared" si="47"/>
+        <v>449</v>
+      </c>
+      <c r="I451">
+        <f>SUM($F$3:F451)/H451</f>
+        <v>4618049.4574053455</v>
+      </c>
+      <c r="N451">
+        <f t="shared" ref="N451:N469" si="60">IF(A451&lt;&gt;$K$24,MAX(N450,VLOOKUP(A451,A:C,3)),)</f>
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="O451">
+        <f t="shared" ref="O451:O469" si="61">IF(A451&lt;&gt;$K$24,MIN(O450,VLOOKUP(A451,A:D,4)),)</f>
+        <v>0.74099999666213989</v>
+      </c>
+      <c r="P451">
+        <f t="shared" si="46"/>
+        <v>0.74333331982294715</v>
+      </c>
+      <c r="Q451">
+        <f t="shared" si="37"/>
+        <v>0.76078571220806668</v>
+      </c>
+      <c r="R451">
+        <f t="shared" si="38"/>
+        <v>-1.7452392385119531E-2</v>
+      </c>
+      <c r="S451">
+        <f t="shared" si="39"/>
+        <v>1.4578233666971443E-2</v>
+      </c>
+      <c r="T451">
+        <f t="shared" si="40"/>
+        <v>2.1867350500457165E-4</v>
+      </c>
+      <c r="U451">
+        <f t="shared" si="41"/>
+        <v>-79.810274156234271</v>
+      </c>
+    </row>
+    <row r="452" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A452" s="1">
+        <v>45051</v>
+      </c>
+      <c r="B452">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="C452">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="D452">
+        <v>0.73000001907348633</v>
+      </c>
+      <c r="E452">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="F452">
+        <v>1972200</v>
+      </c>
+      <c r="G452">
+        <v>19722</v>
+      </c>
+      <c r="H452">
+        <f t="shared" si="47"/>
+        <v>450</v>
+      </c>
+      <c r="I452">
+        <f>SUM($F$3:F452)/H452</f>
+        <v>4612169.7919444442</v>
+      </c>
+      <c r="N452">
+        <f t="shared" si="60"/>
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="O452">
+        <f t="shared" si="61"/>
+        <v>0.73000001907348633</v>
+      </c>
+      <c r="P452">
+        <f t="shared" si="46"/>
+        <v>0.7346666852633158</v>
+      </c>
+      <c r="Q452">
+        <f t="shared" si="37"/>
+        <v>0.75730952306020816</v>
+      </c>
+      <c r="R452">
+        <f t="shared" si="38"/>
+        <v>-2.2642837796892357E-2</v>
+      </c>
+      <c r="S452">
+        <f t="shared" si="39"/>
+        <v>1.4833334082648888E-2</v>
+      </c>
+      <c r="T452">
+        <f t="shared" si="40"/>
+        <v>2.2250001123973331E-4</v>
+      </c>
+      <c r="U452">
+        <f t="shared" si="41"/>
+        <v>-101.76555799134663</v>
+      </c>
+    </row>
+    <row r="453" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A453" s="1">
+        <v>45054</v>
+      </c>
+      <c r="B453">
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="C453">
+        <v>0.73799997568130493</v>
+      </c>
+      <c r="D453">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="E453">
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="F453">
+        <v>1697402.875</v>
+      </c>
+      <c r="G453">
+        <v>16974.029296875</v>
+      </c>
+      <c r="H453">
+        <f t="shared" si="47"/>
+        <v>451</v>
+      </c>
+      <c r="I453">
+        <f>SUM($F$3:F453)/H453</f>
+        <v>4605706.8941241689</v>
+      </c>
+      <c r="N453">
+        <f t="shared" si="60"/>
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="O453">
+        <f t="shared" si="61"/>
+        <v>0.73000001907348633</v>
+      </c>
+      <c r="P453">
+        <f t="shared" si="46"/>
+        <v>0.73566667238871253</v>
+      </c>
+      <c r="Q453">
+        <f t="shared" si="37"/>
+        <v>0.75480952346892571</v>
+      </c>
+      <c r="R453">
+        <f t="shared" si="38"/>
+        <v>-1.9142851080213186E-2</v>
+      </c>
+      <c r="S453">
+        <f t="shared" si="39"/>
+        <v>1.5068027502825472E-2</v>
+      </c>
+      <c r="T453">
+        <f t="shared" si="40"/>
+        <v>2.2602041254238207E-4</v>
+      </c>
+      <c r="U453">
+        <f t="shared" si="41"/>
+        <v>-84.695231129284068</v>
+      </c>
+    </row>
+    <row r="454" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A454" s="1">
+        <v>45055</v>
+      </c>
+      <c r="B454">
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="C454">
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="D454">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="E454">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="F454">
+        <v>1804107</v>
+      </c>
+      <c r="G454">
+        <v>18041.0703125</v>
+      </c>
+      <c r="H454">
+        <f t="shared" si="47"/>
+        <v>452</v>
+      </c>
+      <c r="I454">
+        <f>SUM($F$3:F454)/H454</f>
+        <v>4599508.6642699111</v>
+      </c>
+      <c r="N454">
+        <f t="shared" si="60"/>
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="O454">
+        <f t="shared" si="61"/>
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="P454">
+        <f t="shared" si="46"/>
+        <v>0.73266665140787757</v>
+      </c>
+      <c r="Q454">
+        <f t="shared" si="37"/>
+        <v>0.75183333190282176</v>
+      </c>
+      <c r="R454">
+        <f t="shared" si="38"/>
+        <v>-1.9166680494944188E-2</v>
+      </c>
+      <c r="S454">
+        <f t="shared" si="39"/>
+        <v>1.4404762926555808E-2</v>
+      </c>
+      <c r="T454">
+        <f t="shared" si="40"/>
+        <v>2.1607144389833711E-4</v>
+      </c>
+      <c r="U454">
+        <f t="shared" si="41"/>
+        <v>-88.705291866158049</v>
+      </c>
+    </row>
+    <row r="455" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A455" s="1">
+        <v>45056</v>
+      </c>
+      <c r="B455">
+        <v>0.72699999809265137</v>
+      </c>
+      <c r="C455">
+        <v>0.73299998044967651</v>
+      </c>
+      <c r="D455">
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="E455">
+        <v>0.73199999332427979</v>
+      </c>
+      <c r="F455">
+        <v>1982402.875</v>
+      </c>
+      <c r="G455">
+        <v>19824.029296875</v>
+      </c>
+      <c r="H455">
+        <f t="shared" si="47"/>
+        <v>453</v>
+      </c>
+      <c r="I455">
+        <f>SUM($F$3:F455)/H455</f>
+        <v>4593731.3887969097</v>
+      </c>
+      <c r="N455">
+        <f t="shared" si="60"/>
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="O455">
+        <f t="shared" si="61"/>
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="P455">
+        <f t="shared" si="46"/>
+        <v>0.72966665029525757</v>
+      </c>
+      <c r="Q455">
+        <f t="shared" si="37"/>
+        <v>0.74854761644772105</v>
+      </c>
+      <c r="R455">
+        <f t="shared" si="38"/>
+        <v>-1.8880966152463485E-2</v>
+      </c>
+      <c r="S455">
+        <f t="shared" si="39"/>
+        <v>1.3037414597816195E-2</v>
+      </c>
+      <c r="T455">
+        <f t="shared" si="40"/>
+        <v>1.955612189672429E-4</v>
+      </c>
+      <c r="U455">
+        <f t="shared" si="41"/>
+        <v>-96.54759901873031</v>
+      </c>
+    </row>
+    <row r="456" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A456" s="1">
+        <v>45057</v>
+      </c>
+      <c r="B456">
+        <v>0.73299998044967651</v>
+      </c>
+      <c r="C456">
+        <v>0.73900002241134644</v>
+      </c>
+      <c r="D456">
+        <v>0.73299998044967651</v>
+      </c>
+      <c r="E456">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="F456">
+        <v>994305.9375</v>
+      </c>
+      <c r="G456">
+        <v>9943.0595703125</v>
+      </c>
+      <c r="H456">
+        <f t="shared" si="47"/>
+        <v>454</v>
+      </c>
+      <c r="I456">
+        <f>SUM($F$3:F456)/H456</f>
+        <v>4585803.138904185</v>
+      </c>
+      <c r="N456">
+        <f t="shared" si="60"/>
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="O456">
+        <f t="shared" si="61"/>
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="P456">
+        <f t="shared" si="46"/>
+        <v>0.73533334334691369</v>
+      </c>
+      <c r="Q456">
+        <f t="shared" si="37"/>
+        <v>0.74538095049631026</v>
+      </c>
+      <c r="R456">
+        <f t="shared" si="38"/>
+        <v>-1.0047607149396565E-2</v>
+      </c>
+      <c r="S456">
+        <f t="shared" si="39"/>
+        <v>1.0823128372633559E-2</v>
+      </c>
+      <c r="T456">
+        <f t="shared" si="40"/>
+        <v>1.6234692558950338E-4</v>
+      </c>
+      <c r="U456">
+        <f t="shared" si="41"/>
+        <v>-61.889728511410738</v>
+      </c>
+    </row>
+    <row r="457" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A457" s="1">
+        <v>45058</v>
+      </c>
+      <c r="B457">
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="C457">
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="D457">
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="E457">
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="F457">
+        <v>746000</v>
+      </c>
+      <c r="G457">
+        <v>7460</v>
+      </c>
+      <c r="H457">
+        <f t="shared" si="47"/>
+        <v>455</v>
+      </c>
+      <c r="I457">
+        <f>SUM($F$3:F457)/H457</f>
+        <v>4577364.0111263739</v>
+      </c>
+      <c r="N457">
+        <f t="shared" si="60"/>
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="O457">
+        <f t="shared" si="61"/>
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="P457">
+        <f t="shared" si="46"/>
+        <v>0.72900001207987464</v>
+      </c>
+      <c r="Q457">
+        <f t="shared" si="37"/>
+        <v>0.74216666564487277</v>
+      </c>
+      <c r="R457">
+        <f t="shared" si="38"/>
+        <v>-1.3166653564998132E-2</v>
+      </c>
+      <c r="S457">
+        <f t="shared" si="39"/>
+        <v>9.1904729110043239E-3</v>
+      </c>
+      <c r="T457">
+        <f t="shared" si="40"/>
+        <v>1.3785709366506484E-4</v>
+      </c>
+      <c r="U457">
+        <f t="shared" si="41"/>
+        <v>-95.509438179420783</v>
+      </c>
+    </row>
+    <row r="458" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A458" s="1">
+        <v>45061</v>
+      </c>
+      <c r="B458">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="C458">
+        <v>0.73900002241134644</v>
+      </c>
+      <c r="D458">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="E458">
+        <v>0.73900002241134644</v>
+      </c>
+      <c r="F458">
+        <v>2252000</v>
+      </c>
+      <c r="G458">
+        <v>22520</v>
+      </c>
+      <c r="H458">
+        <f t="shared" si="47"/>
+        <v>456</v>
+      </c>
+      <c r="I458">
+        <f>SUM($F$3:F458)/H458</f>
+        <v>4572264.528645833</v>
+      </c>
+      <c r="N458">
+        <f t="shared" si="60"/>
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="O458">
+        <f t="shared" si="61"/>
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="P458">
+        <f t="shared" si="46"/>
+        <v>0.73533334334691369</v>
+      </c>
+      <c r="Q458">
+        <f t="shared" si="37"/>
+        <v>0.73971428540774764</v>
+      </c>
+      <c r="R458">
+        <f t="shared" si="38"/>
+        <v>-4.3809420608339478E-3</v>
+      </c>
+      <c r="S458">
+        <f t="shared" si="39"/>
+        <v>7.0136015058375112E-3</v>
+      </c>
+      <c r="T458">
+        <f t="shared" si="40"/>
+        <v>1.0520402258756266E-4</v>
+      </c>
+      <c r="U458">
+        <f t="shared" si="41"/>
+        <v>-41.642343639356881</v>
+      </c>
+    </row>
+    <row r="459" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A459" s="1">
+        <v>45062</v>
+      </c>
+      <c r="B459">
+        <v>0.73799997568130493</v>
+      </c>
+      <c r="C459">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="D459">
+        <v>0.73299998044967651</v>
+      </c>
+      <c r="E459">
+        <v>0.73600000143051147</v>
+      </c>
+      <c r="F459">
+        <v>1420902</v>
+      </c>
+      <c r="G459">
+        <v>14209.01953125</v>
+      </c>
+      <c r="H459">
+        <f t="shared" si="47"/>
+        <v>457</v>
+      </c>
+      <c r="I459">
+        <f>SUM($F$3:F459)/H459</f>
+        <v>4565368.7681892775</v>
+      </c>
+      <c r="N459">
+        <f t="shared" si="60"/>
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="O459">
+        <f t="shared" si="61"/>
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="P459">
+        <f t="shared" si="46"/>
+        <v>0.73633333047231042</v>
+      </c>
+      <c r="Q459">
+        <f t="shared" si="37"/>
+        <v>0.73795238044148415</v>
+      </c>
+      <c r="R459">
+        <f t="shared" si="38"/>
+        <v>-1.6190499691737248E-3</v>
+      </c>
+      <c r="S459">
+        <f t="shared" si="39"/>
+        <v>5.0816288626924378E-3</v>
+      </c>
+      <c r="T459">
+        <f t="shared" si="40"/>
+        <v>7.6224432940386565E-5</v>
+      </c>
+      <c r="U459">
+        <f t="shared" si="41"/>
+        <v>-21.240564300949902</v>
+      </c>
+    </row>
+    <row r="460" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A460" s="1">
+        <v>45063</v>
+      </c>
+      <c r="B460">
+        <v>0.73600000143051147</v>
+      </c>
+      <c r="C460">
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="D460">
+        <v>0.73299998044967651</v>
+      </c>
+      <c r="E460">
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="F460">
+        <v>423604.96875</v>
+      </c>
+      <c r="G460">
+        <v>4236.0498046875</v>
+      </c>
+      <c r="H460">
+        <f t="shared" si="47"/>
+        <v>458</v>
+      </c>
+      <c r="I460">
+        <f>SUM($F$3:F460)/H460</f>
+        <v>4556325.615788755</v>
+      </c>
+      <c r="N460">
+        <f t="shared" si="60"/>
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="O460">
+        <f t="shared" si="61"/>
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="P460">
+        <f t="shared" si="46"/>
+        <v>0.73566665252049768</v>
+      </c>
+      <c r="Q460">
+        <f t="shared" si="37"/>
+        <v>0.73704761752628156</v>
+      </c>
+      <c r="R460">
+        <f t="shared" si="38"/>
+        <v>-1.3809650057838851E-3</v>
+      </c>
+      <c r="S460">
+        <f t="shared" si="39"/>
+        <v>4.1564595164085205E-3</v>
+      </c>
+      <c r="T460">
+        <f t="shared" si="40"/>
+        <v>6.2346892746127799E-5</v>
+      </c>
+      <c r="U460">
+        <f t="shared" si="41"/>
+        <v>-22.149700569795488</v>
+      </c>
+    </row>
+    <row r="461" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A461" s="1">
+        <v>45064</v>
+      </c>
+      <c r="B461">
+        <v>0.73900002241134644</v>
+      </c>
+      <c r="C461">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="D461">
+        <v>0.73299998044967651</v>
+      </c>
+      <c r="E461">
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="F461">
+        <v>2057301</v>
+      </c>
+      <c r="G461">
+        <v>20573.009765625</v>
+      </c>
+      <c r="H461">
+        <f t="shared" si="47"/>
+        <v>459</v>
+      </c>
+      <c r="I461">
+        <f>SUM($F$3:F461)/H461</f>
+        <v>4550881.1177151417</v>
+      </c>
+      <c r="N461">
+        <f t="shared" si="60"/>
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="O461">
+        <f t="shared" si="61"/>
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="P461">
+        <f t="shared" si="46"/>
+        <v>0.73666665951410926</v>
+      </c>
+      <c r="Q461">
+        <f t="shared" si="37"/>
+        <v>0.7369999979677655</v>
+      </c>
+      <c r="R461">
+        <f t="shared" si="38"/>
+        <v>-3.3333845365624004E-4</v>
+      </c>
+      <c r="S461">
+        <f t="shared" si="39"/>
+        <v>4.1428541488388194E-3</v>
+      </c>
+      <c r="T461">
+        <f t="shared" si="40"/>
+        <v>6.2142812232582288E-5</v>
+      </c>
+      <c r="U461">
+        <f t="shared" si="41"/>
+        <v>-5.3640709469126078</v>
+      </c>
+    </row>
+    <row r="462" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A462" s="1">
+        <v>45065</v>
+      </c>
+      <c r="B462">
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="C462">
+        <v>0.74299997091293335</v>
+      </c>
+      <c r="D462">
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="E462">
+        <v>0.73900002241134644</v>
+      </c>
+      <c r="F462">
+        <v>895813.9375</v>
+      </c>
+      <c r="G462">
+        <v>8958.1396484375</v>
+      </c>
+      <c r="H462">
+        <f t="shared" si="47"/>
+        <v>460</v>
+      </c>
+      <c r="I462">
+        <f>SUM($F$3:F462)/H462</f>
+        <v>4542935.3194972826</v>
+      </c>
+      <c r="N462">
+        <f t="shared" si="60"/>
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="O462">
+        <f t="shared" si="61"/>
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="P462">
+        <f t="shared" si="46"/>
+        <v>0.73966666062672937</v>
+      </c>
+      <c r="Q462">
+        <f t="shared" si="37"/>
+        <v>0.73707142610776988</v>
+      </c>
+      <c r="R462">
+        <f t="shared" si="38"/>
+        <v>2.5952345189594883E-3</v>
+      </c>
+      <c r="S462">
+        <f t="shared" si="39"/>
+        <v>4.244894348845174E-3</v>
+      </c>
+      <c r="T462">
+        <f t="shared" si="40"/>
+        <v>6.3673415232677613E-5</v>
+      </c>
+      <c r="U462">
+        <f t="shared" si="41"/>
+        <v>40.758525508265762</v>
+      </c>
+    </row>
+    <row r="463" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A463" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B463">
+        <v>0.73900002241134644</v>
+      </c>
+      <c r="C463">
+        <v>0.74299997091293335</v>
+      </c>
+      <c r="D463">
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="E463">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="F463">
+        <v>1001900</v>
+      </c>
+      <c r="G463">
+        <v>10019</v>
+      </c>
+      <c r="H463">
+        <f t="shared" si="47"/>
+        <v>461</v>
+      </c>
+      <c r="I463">
+        <f>SUM($F$3:F463)/H463</f>
+        <v>4535254.1148996744</v>
+      </c>
+      <c r="N463">
+        <f t="shared" si="60"/>
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="O463">
+        <f t="shared" si="61"/>
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="P463">
+        <f t="shared" si="46"/>
+        <v>0.73933333158493042</v>
+      </c>
+      <c r="Q463">
+        <f t="shared" si="37"/>
+        <v>0.73664285455431255</v>
+      </c>
+      <c r="R463">
+        <f t="shared" si="38"/>
+        <v>2.690477030617866E-3</v>
+      </c>
+      <c r="S463">
+        <f t="shared" si="39"/>
+        <v>3.6360499810199304E-3</v>
+      </c>
+      <c r="T463">
+        <f t="shared" si="40"/>
+        <v>5.4540749715298953E-5</v>
+      </c>
+      <c r="U463">
+        <f t="shared" si="41"/>
+        <v>49.329667169264702</v>
+      </c>
+    </row>
+    <row r="464" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A464" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B464">
+        <v>0.74099999666213989</v>
+      </c>
+      <c r="C464">
+        <v>0.74099999666213989</v>
+      </c>
+      <c r="D464">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="E464">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="F464">
+        <v>288600</v>
+      </c>
+      <c r="G464">
+        <v>2886</v>
+      </c>
+      <c r="H464">
+        <f t="shared" si="47"/>
+        <v>462</v>
+      </c>
+      <c r="I464">
+        <f>SUM($F$3:F464)/H464</f>
+        <v>4526062.2228760822</v>
+      </c>
+      <c r="N464">
+        <f t="shared" si="60"/>
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="O464">
+        <f t="shared" si="61"/>
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="P464">
+        <f t="shared" si="46"/>
+        <v>0.73633335034052527</v>
+      </c>
+      <c r="Q464">
+        <f t="shared" si="37"/>
+        <v>0.735690475929351</v>
+      </c>
+      <c r="R464">
+        <f t="shared" si="38"/>
+        <v>6.4287441117427679E-4</v>
+      </c>
+      <c r="S464">
+        <f t="shared" si="39"/>
+        <v>2.503399540777908E-3</v>
+      </c>
+      <c r="T464">
+        <f t="shared" si="40"/>
+        <v>3.7550993111668617E-5</v>
+      </c>
+      <c r="U464">
+        <f t="shared" si="41"/>
+        <v>17.120037525039773</v>
+      </c>
+    </row>
+    <row r="465" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A465" s="1">
+        <v>45070</v>
+      </c>
+      <c r="B465">
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="C465">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="D465">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="E465">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="F465">
+        <v>857200</v>
+      </c>
+      <c r="G465">
+        <v>8572</v>
+      </c>
+      <c r="H465">
+        <f t="shared" si="47"/>
+        <v>463</v>
+      </c>
+      <c r="I465">
+        <f>SUM($F$3:F465)/H465</f>
+        <v>4518138.1144033475</v>
+      </c>
+      <c r="N465">
+        <f t="shared" si="60"/>
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="O465">
+        <f t="shared" si="61"/>
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="P465">
+        <f t="shared" si="46"/>
+        <v>0.72999999920527137</v>
+      </c>
+      <c r="Q465">
+        <f t="shared" si="37"/>
+        <v>0.73473809588523131</v>
+      </c>
+      <c r="R465">
+        <f t="shared" si="38"/>
+        <v>-4.7380966799599467E-3</v>
+      </c>
+      <c r="S465">
+        <f t="shared" si="39"/>
+        <v>2.5272115963657243E-3</v>
+      </c>
+      <c r="T465">
+        <f t="shared" si="40"/>
+        <v>3.790817394548586E-5</v>
+      </c>
+      <c r="U465">
+        <f t="shared" si="41"/>
+        <v>-124.98878702977365</v>
+      </c>
+    </row>
+    <row r="466" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A466" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B466">
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="C466">
+        <v>0.73199999332427979</v>
+      </c>
+      <c r="D466">
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="E466">
+        <v>0.73000001907348633</v>
+      </c>
+      <c r="F466">
+        <v>1715300</v>
+      </c>
+      <c r="G466">
+        <v>17153</v>
+      </c>
+      <c r="H466">
+        <f t="shared" si="47"/>
+        <v>464</v>
+      </c>
+      <c r="I466">
+        <f>SUM($F$3:F466)/H466</f>
+        <v>4512097.515018858</v>
+      </c>
+      <c r="N466">
+        <f t="shared" si="60"/>
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="O466">
+        <f t="shared" si="61"/>
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="P466">
+        <f t="shared" si="46"/>
+        <v>0.72866666316986084</v>
+      </c>
+      <c r="Q466">
+        <f t="shared" si="37"/>
+        <v>0.73430952287855589</v>
+      </c>
+      <c r="R466">
+        <f t="shared" si="38"/>
+        <v>-5.6428597086950472E-3</v>
+      </c>
+      <c r="S466">
+        <f t="shared" si="39"/>
+        <v>3.0782340335197716E-3</v>
+      </c>
+      <c r="T466">
+        <f t="shared" si="40"/>
+        <v>4.617351050279657E-5</v>
+      </c>
+      <c r="U466">
+        <f t="shared" si="41"/>
+        <v>-122.20989149944054</v>
+      </c>
+    </row>
+    <row r="467" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A467" s="1">
+        <v>45072</v>
+      </c>
+      <c r="B467">
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C467">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="D467">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="E467">
+        <v>0.72699999809265137</v>
+      </c>
+      <c r="F467">
+        <v>772200</v>
+      </c>
+      <c r="G467">
+        <v>7722</v>
+      </c>
+      <c r="H467">
+        <f t="shared" si="47"/>
+        <v>465</v>
+      </c>
+      <c r="I467">
+        <f>SUM($F$3:F467)/H467</f>
+        <v>4504054.7246639784</v>
+      </c>
+      <c r="N467">
+        <f t="shared" si="60"/>
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="O467">
+        <f t="shared" si="61"/>
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="P467">
+        <f t="shared" si="46"/>
+        <v>0.72500000397364295</v>
+      </c>
+      <c r="Q467">
+        <f t="shared" si="37"/>
+        <v>0.73354761799176516</v>
+      </c>
+      <c r="R467">
+        <f t="shared" si="38"/>
+        <v>-8.5476140181222071E-3</v>
+      </c>
+      <c r="S467">
+        <f t="shared" si="39"/>
+        <v>3.7551039741153258E-3</v>
+      </c>
+      <c r="T467">
+        <f t="shared" si="40"/>
+        <v>5.6326559611729883E-5</v>
+      </c>
+      <c r="U467">
+        <f t="shared" si="41"/>
+        <v>-151.75104030927153</v>
+      </c>
+    </row>
+    <row r="468" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A468" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B468">
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="C468">
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="D468">
+        <v>0.71700000762939453</v>
+      </c>
+      <c r="E468">
+        <v>0.71799999475479126</v>
+      </c>
+      <c r="F468">
+        <v>1938114</v>
+      </c>
+      <c r="G468">
+        <v>19381.140625</v>
+      </c>
+      <c r="H468">
+        <f t="shared" si="47"/>
+        <v>466</v>
+      </c>
+      <c r="I468">
+        <f>SUM($F$3:F468)/H468</f>
+        <v>4498548.4140960304</v>
+      </c>
+      <c r="N468">
+        <f t="shared" si="60"/>
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="O468">
+        <f t="shared" si="61"/>
+        <v>0.71700000762939453</v>
+      </c>
+      <c r="P468">
+        <f t="shared" si="46"/>
+        <v>0.71966665983200073</v>
+      </c>
+      <c r="Q468">
+        <f t="shared" si="37"/>
+        <v>0.73261904716491699</v>
+      </c>
+      <c r="R468">
+        <f t="shared" si="38"/>
+        <v>-1.295238733291626E-2</v>
+      </c>
+      <c r="S468">
+        <f t="shared" si="39"/>
+        <v>4.8163277762276946E-3</v>
+      </c>
+      <c r="T468">
+        <f t="shared" si="40"/>
+        <v>7.2244916643415409E-5</v>
+      </c>
+      <c r="U468">
+        <f t="shared" si="41"/>
+        <v>-179.28441106585143</v>
+      </c>
+    </row>
+    <row r="469" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A469" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B469">
+        <v>0.72100001573562622</v>
+      </c>
+      <c r="C469">
+        <v>0.72500002384185791</v>
+      </c>
+      <c r="D469">
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="E469">
+        <v>0.72500002384185791</v>
+      </c>
+      <c r="F469">
+        <v>919800</v>
+      </c>
+      <c r="G469">
+        <v>9198</v>
+      </c>
+      <c r="H469">
+        <f t="shared" si="47"/>
+        <v>467</v>
+      </c>
+      <c r="I469">
+        <f>SUM($F$3:F469)/H469</f>
+        <v>4490885.1412607068</v>
+      </c>
+      <c r="N469">
+        <f t="shared" si="60"/>
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="O469">
+        <f t="shared" si="61"/>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="P469">
+        <f t="shared" si="46"/>
+        <v>0.721666673819224</v>
+      </c>
+      <c r="Q469">
+        <f t="shared" si="37"/>
+        <v>0.73204762027377168</v>
+      </c>
+      <c r="R469">
+        <f t="shared" si="38"/>
+        <v>-1.0380946454547679E-2</v>
+      </c>
+      <c r="S469">
+        <f t="shared" si="39"/>
+        <v>5.4693870803937073E-3</v>
+      </c>
+      <c r="T469">
+        <f t="shared" si="40"/>
+        <v>8.2040806205905604E-5</v>
+      </c>
+      <c r="U469">
+        <f t="shared" si="41"/>
+        <v>-126.53394005531383</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U469"/>
+  <dimension ref="A1:U470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
-      <selection activeCell="A470" sqref="A470"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A471" sqref="A471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1793,7 +1793,7 @@
         <v>-248.42009132420097</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44405</v>
       </c>
@@ -1823,6 +1823,12 @@
         <f>SUM($F$3:F25)/H25</f>
         <v>36373258.130434781</v>
       </c>
+      <c r="K25" s="2">
+        <v>45107</v>
+      </c>
+      <c r="L25" s="2">
+        <v>45078</v>
+      </c>
       <c r="N25">
         <f t="shared" si="2"/>
         <v>1.054</v>
@@ -17397,23 +17403,23 @@
         <v>0.78866666555404663</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272:Q469" si="37">SUM(P259:P272)/14</f>
+        <f t="shared" ref="Q272:Q470" si="37">SUM(P259:P272)/14</f>
         <v>0.8100476208187285</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272:R469" si="38">P272-Q272</f>
+        <f t="shared" ref="R272:R470" si="38">P272-Q272</f>
         <v>-2.1380955264681867E-2</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272:S469" si="39">AVEDEV(P259:P272)</f>
+        <f t="shared" ref="S272:S470" si="39">AVEDEV(P259:P272)</f>
         <v>7.8163195629509085E-3</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272:T469" si="40">0.015*S272</f>
+        <f t="shared" ref="T272:T470" si="40">0.015*S272</f>
         <v>1.1724479344426362E-4</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272:U469" si="41">R272/T272</f>
+        <f t="shared" ref="U272:U470" si="41">R272/T272</f>
         <v>-182.36166090263143</v>
       </c>
     </row>
@@ -20543,7 +20549,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P469" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P470" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20653,7 +20659,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H469" si="47">H323+1</f>
+        <f t="shared" ref="H324:H470" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -28662,11 +28668,11 @@
         <v>4618049.4574053455</v>
       </c>
       <c r="N451">
-        <f t="shared" ref="N451:N469" si="60">IF(A451&lt;&gt;$K$24,MAX(N450,VLOOKUP(A451,A:C,3)),)</f>
+        <f t="shared" ref="N451:N470" si="60">IF(A451&lt;&gt;$K$24,MAX(N450,VLOOKUP(A451,A:C,3)),)</f>
         <v>0.74699997901916504</v>
       </c>
       <c r="O451">
-        <f t="shared" ref="O451:O469" si="61">IF(A451&lt;&gt;$K$24,MIN(O450,VLOOKUP(A451,A:D,4)),)</f>
+        <f t="shared" ref="O451:O470" si="61">IF(A451&lt;&gt;$K$24,MIN(O450,VLOOKUP(A451,A:D,4)),)</f>
         <v>0.74099999666213989</v>
       </c>
       <c r="P451">
@@ -29826,6 +29832,69 @@
       <c r="U469">
         <f t="shared" si="41"/>
         <v>-126.53394005531383</v>
+      </c>
+    </row>
+    <row r="470" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A470" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B470">
+        <v>0.72100001573562622</v>
+      </c>
+      <c r="C470">
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="D470">
+        <v>0.7160000205039978</v>
+      </c>
+      <c r="E470">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="F470">
+        <v>1602700</v>
+      </c>
+      <c r="G470">
+        <v>16027</v>
+      </c>
+      <c r="H470">
+        <f t="shared" si="47"/>
+        <v>468</v>
+      </c>
+      <c r="I470">
+        <f>SUM($F$3:F470)/H470</f>
+        <v>4484713.805488782</v>
+      </c>
+      <c r="N470">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="O470">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="P470">
+        <f t="shared" si="46"/>
+        <v>0.71966667970021569</v>
+      </c>
+      <c r="Q470">
+        <f t="shared" si="37"/>
+        <v>0.73092857287043622</v>
+      </c>
+      <c r="R470">
+        <f t="shared" si="38"/>
+        <v>-1.1261893170220527E-2</v>
+      </c>
+      <c r="S470">
+        <f t="shared" si="39"/>
+        <v>6.1190454732804201E-3</v>
+      </c>
+      <c r="T470">
+        <f t="shared" si="40"/>
+        <v>9.1785682099206303E-5</v>
+      </c>
+      <c r="U470">
+        <f t="shared" si="41"/>
+        <v>-122.69771180703479</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U470"/>
+  <dimension ref="A1:U489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A471" sqref="A471"/>
+    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
+      <selection activeCell="A490" sqref="A490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17403,23 +17403,23 @@
         <v>0.78866666555404663</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272:Q470" si="37">SUM(P259:P272)/14</f>
+        <f t="shared" ref="Q272:Q489" si="37">SUM(P259:P272)/14</f>
         <v>0.8100476208187285</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272:R470" si="38">P272-Q272</f>
+        <f t="shared" ref="R272:R489" si="38">P272-Q272</f>
         <v>-2.1380955264681867E-2</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272:S470" si="39">AVEDEV(P259:P272)</f>
+        <f t="shared" ref="S272:S489" si="39">AVEDEV(P259:P272)</f>
         <v>7.8163195629509085E-3</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272:T470" si="40">0.015*S272</f>
+        <f t="shared" ref="T272:T489" si="40">0.015*S272</f>
         <v>1.1724479344426362E-4</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272:U470" si="41">R272/T272</f>
+        <f t="shared" ref="U272:U489" si="41">R272/T272</f>
         <v>-182.36166090263143</v>
       </c>
     </row>
@@ -20549,7 +20549,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P470" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P489" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20659,7 +20659,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H470" si="47">H323+1</f>
+        <f t="shared" ref="H324:H489" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -28668,11 +28668,11 @@
         <v>4618049.4574053455</v>
       </c>
       <c r="N451">
-        <f t="shared" ref="N451:N470" si="60">IF(A451&lt;&gt;$K$24,MAX(N450,VLOOKUP(A451,A:C,3)),)</f>
+        <f t="shared" ref="N451:N469" si="60">IF(A451&lt;&gt;$K$24,MAX(N450,VLOOKUP(A451,A:C,3)),)</f>
         <v>0.74699997901916504</v>
       </c>
       <c r="O451">
-        <f t="shared" ref="O451:O470" si="61">IF(A451&lt;&gt;$K$24,MIN(O450,VLOOKUP(A451,A:D,4)),)</f>
+        <f t="shared" ref="O451:O469" si="61">IF(A451&lt;&gt;$K$24,MIN(O450,VLOOKUP(A451,A:D,4)),)</f>
         <v>0.74099999666213989</v>
       </c>
       <c r="P451">
@@ -29865,12 +29865,12 @@
         <v>4484713.805488782</v>
       </c>
       <c r="N470">
-        <f t="shared" si="60"/>
-        <v>0</v>
+        <f>VLOOKUP(L25,A:C,3)</f>
+        <v>0.7279999852180481</v>
       </c>
       <c r="O470">
-        <f t="shared" si="61"/>
-        <v>0</v>
+        <f>VLOOKUP(L25,A:D,4)</f>
+        <v>0.7160000205039978</v>
       </c>
       <c r="P470">
         <f t="shared" si="46"/>
@@ -29895,6 +29895,1203 @@
       <c r="U470">
         <f t="shared" si="41"/>
         <v>-122.69771180703479</v>
+      </c>
+    </row>
+    <row r="471" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A471" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B471">
+        <v>0.7160000205039978</v>
+      </c>
+      <c r="C471">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="D471">
+        <v>0.7160000205039978</v>
+      </c>
+      <c r="E471">
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="F471">
+        <v>5649100</v>
+      </c>
+      <c r="G471">
+        <v>56491</v>
+      </c>
+      <c r="H471">
+        <f t="shared" si="47"/>
+        <v>469</v>
+      </c>
+      <c r="I471">
+        <f>SUM($F$3:F471)/H471</f>
+        <v>4487196.5052638594</v>
+      </c>
+      <c r="N471">
+        <f t="shared" ref="N471:N489" si="62">IF(A471&lt;&gt;$K$25,MAX(N470,VLOOKUP(A471,A:C,3)),)</f>
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="O471">
+        <f t="shared" ref="O471:O489" si="63">IF(A471&lt;&gt;$K$25,MIN(O470,VLOOKUP(A471,A:D,4)),)</f>
+        <v>0.7160000205039978</v>
+      </c>
+      <c r="P471">
+        <f t="shared" si="46"/>
+        <v>0.72266666094462073</v>
+      </c>
+      <c r="Q471">
+        <f t="shared" si="37"/>
+        <v>0.73047619064648939</v>
+      </c>
+      <c r="R471">
+        <f t="shared" si="38"/>
+        <v>-7.809529701868656E-3</v>
+      </c>
+      <c r="S471">
+        <f t="shared" si="39"/>
+        <v>6.5714276972271279E-3</v>
+      </c>
+      <c r="T471">
+        <f t="shared" si="40"/>
+        <v>9.857141545840691E-5</v>
+      </c>
+      <c r="U471">
+        <f t="shared" si="41"/>
+        <v>-79.227123457144202</v>
+      </c>
+    </row>
+    <row r="472" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A472" s="1">
+        <v>45079</v>
+      </c>
+      <c r="B472">
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="C472">
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="D472">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="E472">
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="F472">
+        <v>1584000</v>
+      </c>
+      <c r="G472">
+        <v>15840</v>
+      </c>
+      <c r="H472">
+        <f t="shared" si="47"/>
+        <v>470</v>
+      </c>
+      <c r="I472">
+        <f>SUM($F$3:F472)/H472</f>
+        <v>4481019.4914228721</v>
+      </c>
+      <c r="N472">
+        <f t="shared" si="62"/>
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="O472">
+        <f t="shared" si="63"/>
+        <v>0.7160000205039978</v>
+      </c>
+      <c r="P472">
+        <f t="shared" si="46"/>
+        <v>0.73266667127609253</v>
+      </c>
+      <c r="Q472">
+        <f t="shared" si="37"/>
+        <v>0.73028571407000231</v>
+      </c>
+      <c r="R472">
+        <f t="shared" si="38"/>
+        <v>2.3809572060902173E-3</v>
+      </c>
+      <c r="S472">
+        <f t="shared" si="39"/>
+        <v>6.3809511207399017E-3</v>
+      </c>
+      <c r="T472">
+        <f t="shared" si="40"/>
+        <v>9.5714266811098523E-5</v>
+      </c>
+      <c r="U472">
+        <f t="shared" si="41"/>
+        <v>24.875677215281495</v>
+      </c>
+    </row>
+    <row r="473" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A473" s="1">
+        <v>45082</v>
+      </c>
+      <c r="B473">
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="C473">
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="D473">
+        <v>0.72699999809265137</v>
+      </c>
+      <c r="E473">
+        <v>0.73000001907348633</v>
+      </c>
+      <c r="F473">
+        <v>1425400</v>
+      </c>
+      <c r="G473">
+        <v>14254</v>
+      </c>
+      <c r="H473">
+        <f t="shared" si="47"/>
+        <v>471</v>
+      </c>
+      <c r="I473">
+        <f>SUM($F$3:F473)/H473</f>
+        <v>4474531.9765790869</v>
+      </c>
+      <c r="N473">
+        <f t="shared" si="62"/>
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="O473">
+        <f t="shared" si="63"/>
+        <v>0.7160000205039978</v>
+      </c>
+      <c r="P473">
+        <f t="shared" si="46"/>
+        <v>0.73066667715708411</v>
+      </c>
+      <c r="Q473">
+        <f t="shared" si="37"/>
+        <v>0.72988095311891465</v>
+      </c>
+      <c r="R473">
+        <f t="shared" si="38"/>
+        <v>7.8572403816945524E-4</v>
+      </c>
+      <c r="S473">
+        <f t="shared" si="39"/>
+        <v>5.9931967534175524E-3</v>
+      </c>
+      <c r="T473">
+        <f t="shared" si="40"/>
+        <v>8.9897951301263278E-5</v>
+      </c>
+      <c r="U473">
+        <f t="shared" si="41"/>
+        <v>8.7401773543911006</v>
+      </c>
+    </row>
+    <row r="474" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A474" s="1">
+        <v>45083</v>
+      </c>
+      <c r="B474">
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="C474">
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="D474">
+        <v>0.71899998188018799</v>
+      </c>
+      <c r="E474">
+        <v>0.71899998188018799</v>
+      </c>
+      <c r="F474">
+        <v>2938513</v>
+      </c>
+      <c r="G474">
+        <v>29385.130859375</v>
+      </c>
+      <c r="H474">
+        <f t="shared" si="47"/>
+        <v>472</v>
+      </c>
+      <c r="I474">
+        <f>SUM($F$3:F474)/H474</f>
+        <v>4471277.6990863346</v>
+      </c>
+      <c r="N474">
+        <f t="shared" si="62"/>
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="O474">
+        <f t="shared" si="63"/>
+        <v>0.7160000205039978</v>
+      </c>
+      <c r="P474">
+        <f t="shared" si="46"/>
+        <v>0.72233331203460693</v>
+      </c>
+      <c r="Q474">
+        <f t="shared" si="37"/>
+        <v>0.72892857165563663</v>
+      </c>
+      <c r="R474">
+        <f t="shared" si="38"/>
+        <v>-6.5952596210296921E-3</v>
+      </c>
+      <c r="S474">
+        <f t="shared" si="39"/>
+        <v>6.1190497307550317E-3</v>
+      </c>
+      <c r="T474">
+        <f t="shared" si="40"/>
+        <v>9.1785745961325469E-5</v>
+      </c>
+      <c r="U474">
+        <f t="shared" si="41"/>
+        <v>-71.854943836362651</v>
+      </c>
+    </row>
+    <row r="475" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A475" s="1">
+        <v>45084</v>
+      </c>
+      <c r="B475">
+        <v>0.71899998188018799</v>
+      </c>
+      <c r="C475">
+        <v>0.71899998188018799</v>
+      </c>
+      <c r="D475">
+        <v>0.71200001239776611</v>
+      </c>
+      <c r="E475">
+        <v>0.71299999952316284</v>
+      </c>
+      <c r="F475">
+        <v>770500</v>
+      </c>
+      <c r="G475">
+        <v>7705</v>
+      </c>
+      <c r="H475">
+        <f t="shared" si="47"/>
+        <v>473</v>
+      </c>
+      <c r="I475">
+        <f>SUM($F$3:F475)/H475</f>
+        <v>4463453.6447542282</v>
+      </c>
+      <c r="N475">
+        <f t="shared" si="62"/>
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="O475">
+        <f t="shared" si="63"/>
+        <v>0.71200001239776611</v>
+      </c>
+      <c r="P475">
+        <f t="shared" si="46"/>
+        <v>0.71466666460037231</v>
+      </c>
+      <c r="Q475">
+        <f t="shared" si="37"/>
+        <v>0.72735714344751268</v>
+      </c>
+      <c r="R475">
+        <f t="shared" si="38"/>
+        <v>-1.2690478847140363E-2</v>
+      </c>
+      <c r="S475">
+        <f t="shared" si="39"/>
+        <v>6.547621318272182E-3</v>
+      </c>
+      <c r="T475">
+        <f t="shared" si="40"/>
+        <v>9.821431977408272E-5</v>
+      </c>
+      <c r="U475">
+        <f t="shared" si="41"/>
+        <v>-129.2121034522421</v>
+      </c>
+    </row>
+    <row r="476" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A476" s="1">
+        <v>45085</v>
+      </c>
+      <c r="B476">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="C476">
+        <v>0.71899998188018799</v>
+      </c>
+      <c r="D476">
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="E476">
+        <v>0.7160000205039978</v>
+      </c>
+      <c r="F476">
+        <v>2520500</v>
+      </c>
+      <c r="G476">
+        <v>25205</v>
+      </c>
+      <c r="H476">
+        <f t="shared" si="47"/>
+        <v>474</v>
+      </c>
+      <c r="I476">
+        <f>SUM($F$3:F476)/H476</f>
+        <v>4459354.5864319624</v>
+      </c>
+      <c r="N476">
+        <f t="shared" si="62"/>
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="O476">
+        <f t="shared" si="63"/>
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="P476">
+        <f t="shared" si="46"/>
+        <v>0.71533334255218506</v>
+      </c>
+      <c r="Q476">
+        <f t="shared" si="37"/>
+        <v>0.72561904929933096</v>
+      </c>
+      <c r="R476">
+        <f t="shared" si="38"/>
+        <v>-1.0285706747145906E-2</v>
+      </c>
+      <c r="S476">
+        <f t="shared" si="39"/>
+        <v>6.2789138482541463E-3</v>
+      </c>
+      <c r="T476">
+        <f t="shared" si="40"/>
+        <v>9.4183707723812188E-5</v>
+      </c>
+      <c r="U476">
+        <f t="shared" si="41"/>
+        <v>-109.20898099815837</v>
+      </c>
+    </row>
+    <row r="477" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A477" s="1">
+        <v>45086</v>
+      </c>
+      <c r="B477">
+        <v>0.71700000762939453</v>
+      </c>
+      <c r="C477">
+        <v>0.71899998188018799</v>
+      </c>
+      <c r="D477">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="E477">
+        <v>0.71899998188018799</v>
+      </c>
+      <c r="F477">
+        <v>2008602.875</v>
+      </c>
+      <c r="G477">
+        <v>20086.029296875</v>
+      </c>
+      <c r="H477">
+        <f t="shared" si="47"/>
+        <v>475</v>
+      </c>
+      <c r="I477">
+        <f>SUM($F$3:F477)/H477</f>
+        <v>4454195.109144737</v>
+      </c>
+      <c r="N477">
+        <f t="shared" si="62"/>
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="O477">
+        <f t="shared" si="63"/>
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="P477">
+        <f t="shared" si="46"/>
+        <v>0.71733331680297852</v>
+      </c>
+      <c r="Q477">
+        <f t="shared" si="37"/>
+        <v>0.72404761967204856</v>
+      </c>
+      <c r="R477">
+        <f t="shared" si="38"/>
+        <v>-6.7143028690700435E-3</v>
+      </c>
+      <c r="S477">
+        <f t="shared" si="39"/>
+        <v>5.5782352985978712E-3</v>
+      </c>
+      <c r="T477">
+        <f t="shared" si="40"/>
+        <v>8.3673529478968059E-5</v>
+      </c>
+      <c r="U477">
+        <f t="shared" si="41"/>
+        <v>-80.244049831287825</v>
+      </c>
+    </row>
+    <row r="478" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A478" s="1">
+        <v>45089</v>
+      </c>
+      <c r="B478">
+        <v>0.72100001573562622</v>
+      </c>
+      <c r="C478">
+        <v>0.73100000619888306</v>
+      </c>
+      <c r="D478">
+        <v>0.71799999475479126</v>
+      </c>
+      <c r="E478">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="F478">
+        <v>3438700</v>
+      </c>
+      <c r="G478">
+        <v>34387</v>
+      </c>
+      <c r="H478">
+        <f t="shared" si="47"/>
+        <v>476</v>
+      </c>
+      <c r="I478">
+        <f>SUM($F$3:F478)/H478</f>
+        <v>4452061.716058298</v>
+      </c>
+      <c r="N478">
+        <f t="shared" si="62"/>
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="O478">
+        <f t="shared" si="63"/>
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="P478">
+        <f t="shared" si="46"/>
+        <v>0.72566666205724084</v>
+      </c>
+      <c r="Q478">
+        <f t="shared" si="37"/>
+        <v>0.72328571336609992</v>
+      </c>
+      <c r="R478">
+        <f t="shared" si="38"/>
+        <v>2.3809486911409161E-3</v>
+      </c>
+      <c r="S478">
+        <f t="shared" si="39"/>
+        <v>4.7074852346563213E-3</v>
+      </c>
+      <c r="T478">
+        <f t="shared" si="40"/>
+        <v>7.0612278519844823E-5</v>
+      </c>
+      <c r="U478">
+        <f t="shared" si="41"/>
+        <v>33.718621478441264</v>
+      </c>
+    </row>
+    <row r="479" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A479" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B479">
+        <v>0.71700000762939453</v>
+      </c>
+      <c r="C479">
+        <v>0.73600000143051147</v>
+      </c>
+      <c r="D479">
+        <v>0.71700000762939453</v>
+      </c>
+      <c r="E479">
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="F479">
+        <v>2970470</v>
+      </c>
+      <c r="G479">
+        <v>29704.69921875</v>
+      </c>
+      <c r="H479">
+        <f t="shared" si="47"/>
+        <v>477</v>
+      </c>
+      <c r="I479">
+        <f>SUM($F$3:F479)/H479</f>
+        <v>4448955.6537604826</v>
+      </c>
+      <c r="N479">
+        <f t="shared" si="62"/>
+        <v>0.73600000143051147</v>
+      </c>
+      <c r="O479">
+        <f t="shared" si="63"/>
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="P479">
+        <f t="shared" si="46"/>
+        <v>0.72933334112167358</v>
+      </c>
+      <c r="Q479">
+        <f t="shared" si="37"/>
+        <v>0.72323809493155711</v>
+      </c>
+      <c r="R479">
+        <f t="shared" si="38"/>
+        <v>6.0952461901164767E-3</v>
+      </c>
+      <c r="S479">
+        <f t="shared" si="39"/>
+        <v>4.6530641666075057E-3</v>
+      </c>
+      <c r="T479">
+        <f t="shared" si="40"/>
+        <v>6.9795962499112589E-5</v>
+      </c>
+      <c r="U479">
+        <f t="shared" si="41"/>
+        <v>87.329495458909591</v>
+      </c>
+    </row>
+    <row r="480" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A480" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B480">
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="C480">
+        <v>0.73900002241134644</v>
+      </c>
+      <c r="D480">
+        <v>0.73600000143051147</v>
+      </c>
+      <c r="E480">
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="F480">
+        <v>2196000</v>
+      </c>
+      <c r="G480">
+        <v>21960</v>
+      </c>
+      <c r="H480">
+        <f t="shared" si="47"/>
+        <v>478</v>
+      </c>
+      <c r="I480">
+        <f>SUM($F$3:F480)/H480</f>
+        <v>4444242.3574137026</v>
+      </c>
+      <c r="N480">
+        <f t="shared" si="62"/>
+        <v>0.73900002241134644</v>
+      </c>
+      <c r="O480">
+        <f t="shared" si="63"/>
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="P480">
+        <f t="shared" si="46"/>
+        <v>0.737333337465922</v>
+      </c>
+      <c r="Q480">
+        <f t="shared" si="37"/>
+        <v>0.72385714309556148</v>
+      </c>
+      <c r="R480">
+        <f t="shared" si="38"/>
+        <v>1.3476194370360517E-2</v>
+      </c>
+      <c r="S480">
+        <f t="shared" si="39"/>
+        <v>5.3605477826125002E-3</v>
+      </c>
+      <c r="T480">
+        <f t="shared" si="40"/>
+        <v>8.0408216739187504E-5</v>
+      </c>
+      <c r="U480">
+        <f t="shared" si="41"/>
+        <v>167.59722969695957</v>
+      </c>
+    </row>
+    <row r="481" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A481" s="1">
+        <v>45092</v>
+      </c>
+      <c r="B481">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="C481">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="D481">
+        <v>0.73900002241134644</v>
+      </c>
+      <c r="E481">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="F481">
+        <v>2319500</v>
+      </c>
+      <c r="G481">
+        <v>23195</v>
+      </c>
+      <c r="H481">
+        <f t="shared" si="47"/>
+        <v>479</v>
+      </c>
+      <c r="I481">
+        <f>SUM($F$3:F481)/H481</f>
+        <v>4439806.5696111694</v>
+      </c>
+      <c r="N481">
+        <f t="shared" si="62"/>
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="O481">
+        <f t="shared" si="63"/>
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="P481">
+        <f t="shared" si="46"/>
+        <v>0.74966667095820105</v>
+      </c>
+      <c r="Q481">
+        <f t="shared" si="37"/>
+        <v>0.72561904788017262</v>
+      </c>
+      <c r="R481">
+        <f t="shared" si="38"/>
+        <v>2.4047623078028435E-2</v>
+      </c>
+      <c r="S481">
+        <f t="shared" si="39"/>
+        <v>7.3741532507396691E-3</v>
+      </c>
+      <c r="T481">
+        <f t="shared" si="40"/>
+        <v>1.1061229876109504E-4</v>
+      </c>
+      <c r="U481">
+        <f t="shared" si="41"/>
+        <v>217.40460461785966</v>
+      </c>
+    </row>
+    <row r="482" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A482" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B482">
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="C482">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="D482">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="E482">
+        <v>0.76599997282028198</v>
+      </c>
+      <c r="F482">
+        <v>4359900</v>
+      </c>
+      <c r="G482">
+        <v>43599</v>
+      </c>
+      <c r="H482">
+        <f t="shared" si="47"/>
+        <v>480</v>
+      </c>
+      <c r="I482">
+        <f>SUM($F$3:F482)/H482</f>
+        <v>4439640.0975911459</v>
+      </c>
+      <c r="N482">
+        <f t="shared" si="62"/>
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="O482">
+        <f t="shared" si="63"/>
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="P482">
+        <f t="shared" si="46"/>
+        <v>0.762666662534078</v>
+      </c>
+      <c r="Q482">
+        <f t="shared" si="37"/>
+        <v>0.72869047664460673</v>
+      </c>
+      <c r="R482">
+        <f t="shared" si="38"/>
+        <v>3.3976185889471266E-2</v>
+      </c>
+      <c r="S482">
+        <f t="shared" si="39"/>
+        <v>1.0027214377915761E-2</v>
+      </c>
+      <c r="T482">
+        <f t="shared" si="40"/>
+        <v>1.5040821566873641E-4</v>
+      </c>
+      <c r="U482">
+        <f t="shared" si="41"/>
+        <v>225.89315176972408</v>
+      </c>
+    </row>
+    <row r="483" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A483" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B483">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C483">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="D483">
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="E483">
+        <v>0.76599997282028198</v>
+      </c>
+      <c r="F483">
+        <v>4514824</v>
+      </c>
+      <c r="G483">
+        <v>45148.23828125</v>
+      </c>
+      <c r="H483">
+        <f t="shared" si="47"/>
+        <v>481</v>
+      </c>
+      <c r="I483">
+        <f>SUM($F$3:F483)/H483</f>
+        <v>4439796.4050805615</v>
+      </c>
+      <c r="N483">
+        <f t="shared" si="62"/>
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="O483">
+        <f t="shared" si="63"/>
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="P483">
+        <f t="shared" si="46"/>
+        <v>0.76500000556310022</v>
+      </c>
+      <c r="Q483">
+        <f t="shared" si="37"/>
+        <v>0.73178571462631226</v>
+      </c>
+      <c r="R483">
+        <f t="shared" si="38"/>
+        <v>3.321429093678796E-2</v>
+      </c>
+      <c r="S483">
+        <f t="shared" si="39"/>
+        <v>1.262925352369036E-2</v>
+      </c>
+      <c r="T483">
+        <f t="shared" si="40"/>
+        <v>1.8943880285535538E-4</v>
+      </c>
+      <c r="U483">
+        <f t="shared" si="41"/>
+        <v>175.3299241557628</v>
+      </c>
+    </row>
+    <row r="484" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A484" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B484">
+        <v>0.76599997282028198</v>
+      </c>
+      <c r="C484">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="D484">
+        <v>0.76599997282028198</v>
+      </c>
+      <c r="E484">
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="F484">
+        <v>2357700</v>
+      </c>
+      <c r="G484">
+        <v>23577</v>
+      </c>
+      <c r="H484">
+        <f t="shared" si="47"/>
+        <v>482</v>
+      </c>
+      <c r="I484">
+        <f>SUM($F$3:F484)/H484</f>
+        <v>4435476.702995332</v>
+      </c>
+      <c r="N484">
+        <f t="shared" si="62"/>
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="O484">
+        <f t="shared" si="63"/>
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="P484">
+        <f t="shared" si="46"/>
+        <v>0.77099998792012536</v>
+      </c>
+      <c r="Q484">
+        <f t="shared" si="37"/>
+        <v>0.73545237949916309</v>
+      </c>
+      <c r="R484">
+        <f t="shared" si="38"/>
+        <v>3.5547608420962273E-2</v>
+      </c>
+      <c r="S484">
+        <f t="shared" si="39"/>
+        <v>1.5486395277944598E-2</v>
+      </c>
+      <c r="T484">
+        <f t="shared" si="40"/>
+        <v>2.3229592916916897E-4</v>
+      </c>
+      <c r="U484">
+        <f t="shared" si="41"/>
+        <v>153.02725514003652</v>
+      </c>
+    </row>
+    <row r="485" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A485" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B485">
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="C485">
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="D485">
+        <v>0.75999999046325684</v>
+      </c>
+      <c r="E485">
+        <v>0.75999999046325684</v>
+      </c>
+      <c r="F485">
+        <v>3288543</v>
+      </c>
+      <c r="G485">
+        <v>32885.4296875</v>
+      </c>
+      <c r="H485">
+        <f t="shared" si="47"/>
+        <v>483</v>
+      </c>
+      <c r="I485">
+        <f>SUM($F$3:F485)/H485</f>
+        <v>4433102.0990553834</v>
+      </c>
+      <c r="N485">
+        <f t="shared" si="62"/>
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="O485">
+        <f t="shared" si="63"/>
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="P485">
+        <f t="shared" si="46"/>
+        <v>0.76433332761128747</v>
+      </c>
+      <c r="Q485">
+        <f t="shared" si="37"/>
+        <v>0.73842856997535355</v>
+      </c>
+      <c r="R485">
+        <f t="shared" si="38"/>
+        <v>2.5904757635933917E-2</v>
+      </c>
+      <c r="S485">
+        <f t="shared" si="39"/>
+        <v>1.721768638714646E-2</v>
+      </c>
+      <c r="T485">
+        <f t="shared" si="40"/>
+        <v>2.5826529580719691E-4</v>
+      </c>
+      <c r="U485">
+        <f t="shared" si="41"/>
+        <v>100.30289805283256</v>
+      </c>
+    </row>
+    <row r="486" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A486" s="1">
+        <v>45103</v>
+      </c>
+      <c r="B486">
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="C486">
+        <v>0.75800001621246338</v>
+      </c>
+      <c r="D486">
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="E486">
+        <v>0.74800002574920654</v>
+      </c>
+      <c r="F486">
+        <v>2561305</v>
+      </c>
+      <c r="G486">
+        <v>25613.05078125</v>
+      </c>
+      <c r="H486">
+        <f t="shared" si="47"/>
+        <v>484</v>
+      </c>
+      <c r="I486">
+        <f>SUM($F$3:F486)/H486</f>
+        <v>4429234.7496771691</v>
+      </c>
+      <c r="N486">
+        <f t="shared" si="62"/>
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="O486">
+        <f t="shared" si="63"/>
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="P486">
+        <f t="shared" si="46"/>
+        <v>0.75066667795181274</v>
+      </c>
+      <c r="Q486">
+        <f t="shared" si="37"/>
+        <v>0.7397142847379049</v>
+      </c>
+      <c r="R486">
+        <f t="shared" si="38"/>
+        <v>1.0952393213907841E-2</v>
+      </c>
+      <c r="S486">
+        <f t="shared" si="39"/>
+        <v>1.7863946301596521E-2</v>
+      </c>
+      <c r="T486">
+        <f t="shared" si="40"/>
+        <v>2.679591945239478E-4</v>
+      </c>
+      <c r="U486">
+        <f t="shared" si="41"/>
+        <v>40.873362204889794</v>
+      </c>
+    </row>
+    <row r="487" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A487" s="1">
+        <v>45104</v>
+      </c>
+      <c r="B487">
+        <v>0.74900001287460327</v>
+      </c>
+      <c r="C487">
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="D487">
+        <v>0.74800002574920654</v>
+      </c>
+      <c r="E487">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="F487">
+        <v>2626617</v>
+      </c>
+      <c r="G487">
+        <v>26266.169921875</v>
+      </c>
+      <c r="H487">
+        <f t="shared" si="47"/>
+        <v>485</v>
+      </c>
+      <c r="I487">
+        <f>SUM($F$3:F487)/H487</f>
+        <v>4425518.012048969</v>
+      </c>
+      <c r="N487">
+        <f t="shared" si="62"/>
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="O487">
+        <f t="shared" si="63"/>
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="P487">
+        <f t="shared" si="46"/>
+        <v>0.75300000111262</v>
+      </c>
+      <c r="Q487">
+        <f t="shared" si="37"/>
+        <v>0.74130952216330037</v>
+      </c>
+      <c r="R487">
+        <f t="shared" si="38"/>
+        <v>1.1690478949319627E-2</v>
+      </c>
+      <c r="S487">
+        <f t="shared" si="39"/>
+        <v>1.8166668358303256E-2</v>
+      </c>
+      <c r="T487">
+        <f t="shared" si="40"/>
+        <v>2.7250002537454883E-4</v>
+      </c>
+      <c r="U487">
+        <f t="shared" si="41"/>
+        <v>42.90083618616611</v>
+      </c>
+    </row>
+    <row r="488" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A488" s="1">
+        <v>45105</v>
+      </c>
+      <c r="B488">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C488">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="D488">
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="E488">
+        <v>0.74800002574920654</v>
+      </c>
+      <c r="F488">
+        <v>2682320</v>
+      </c>
+      <c r="G488">
+        <v>26823.19921875</v>
+      </c>
+      <c r="H488">
+        <f t="shared" si="47"/>
+        <v>486</v>
+      </c>
+      <c r="I488">
+        <f>SUM($F$3:F488)/H488</f>
+        <v>4421931.1848636828</v>
+      </c>
+      <c r="N488">
+        <f t="shared" si="62"/>
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="O488">
+        <f t="shared" si="63"/>
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="P488">
+        <f t="shared" si="46"/>
+        <v>0.74833333492279053</v>
+      </c>
+      <c r="Q488">
+        <f t="shared" si="37"/>
+        <v>0.74316666665531339</v>
+      </c>
+      <c r="R488">
+        <f t="shared" si="38"/>
+        <v>5.1666682674771369E-3</v>
+      </c>
+      <c r="S488">
+        <f t="shared" si="39"/>
+        <v>1.704761933307259E-2</v>
+      </c>
+      <c r="T488">
+        <f t="shared" si="40"/>
+        <v>2.5571428999608887E-4</v>
+      </c>
+      <c r="U488">
+        <f t="shared" si="41"/>
+        <v>20.20484763505458</v>
+      </c>
+    </row>
+    <row r="489" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A489" s="1">
+        <v>45106</v>
+      </c>
+      <c r="B489">
+        <v>0.75</v>
+      </c>
+      <c r="C489">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="D489">
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="E489">
+        <v>0.74900001287460327</v>
+      </c>
+      <c r="F489">
+        <v>2050200</v>
+      </c>
+      <c r="G489">
+        <v>20502</v>
+      </c>
+      <c r="H489">
+        <f t="shared" si="47"/>
+        <v>487</v>
+      </c>
+      <c r="I489">
+        <f>SUM($F$3:F489)/H489</f>
+        <v>4417061.1002951749</v>
+      </c>
+      <c r="N489">
+        <f t="shared" si="62"/>
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="O489">
+        <f t="shared" si="63"/>
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="P489">
+        <f t="shared" si="46"/>
+        <v>0.74800000588099158</v>
+      </c>
+      <c r="Q489">
+        <f t="shared" si="37"/>
+        <v>0.74554761960392901</v>
+      </c>
+      <c r="R489">
+        <f t="shared" si="38"/>
+        <v>2.4523862770625682E-3</v>
+      </c>
+      <c r="S489">
+        <f t="shared" si="39"/>
+        <v>1.4676871145663637E-2</v>
+      </c>
+      <c r="T489">
+        <f t="shared" si="40"/>
+        <v>2.2015306718495454E-4</v>
+      </c>
+      <c r="U489">
+        <f t="shared" si="41"/>
+        <v>11.139459960384174</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U489"/>
+  <dimension ref="A1:U490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="A490" sqref="A490"/>
+    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
+      <selection activeCell="A491" sqref="A491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1862,7 +1862,7 @@
         <v>-217.54719371594999</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44406</v>
       </c>
@@ -1892,6 +1892,12 @@
         <f>SUM($F$3:F26)/H26</f>
         <v>35345998.958333336</v>
       </c>
+      <c r="K26" s="2">
+        <v>45138</v>
+      </c>
+      <c r="L26" s="2">
+        <v>45110</v>
+      </c>
       <c r="N26">
         <f t="shared" si="2"/>
         <v>1.054</v>
@@ -1925,7 +1931,7 @@
         <v>-79.442909760589387</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44407</v>
       </c>
@@ -1955,6 +1961,12 @@
         <f>SUM($F$3:F27)/H27</f>
         <v>34298297.880000003</v>
       </c>
+      <c r="K27" s="2">
+        <v>45138</v>
+      </c>
+      <c r="L27" s="2">
+        <v>45110</v>
+      </c>
       <c r="N27">
         <f>VLOOKUP(L2,A:C,3)</f>
         <v>1.0369999999999999</v>
@@ -17403,23 +17415,23 @@
         <v>0.78866666555404663</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272:Q489" si="37">SUM(P259:P272)/14</f>
+        <f t="shared" ref="Q272:Q490" si="37">SUM(P259:P272)/14</f>
         <v>0.8100476208187285</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272:R489" si="38">P272-Q272</f>
+        <f t="shared" ref="R272:R490" si="38">P272-Q272</f>
         <v>-2.1380955264681867E-2</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272:S489" si="39">AVEDEV(P259:P272)</f>
+        <f t="shared" ref="S272:S490" si="39">AVEDEV(P259:P272)</f>
         <v>7.8163195629509085E-3</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272:T489" si="40">0.015*S272</f>
+        <f t="shared" ref="T272:T490" si="40">0.015*S272</f>
         <v>1.1724479344426362E-4</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272:U489" si="41">R272/T272</f>
+        <f t="shared" ref="U272:U490" si="41">R272/T272</f>
         <v>-182.36166090263143</v>
       </c>
     </row>
@@ -20549,7 +20561,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P489" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P490" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20659,7 +20671,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H489" si="47">H323+1</f>
+        <f t="shared" ref="H324:H490" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -29928,11 +29940,11 @@
         <v>4487196.5052638594</v>
       </c>
       <c r="N471">
-        <f t="shared" ref="N471:N489" si="62">IF(A471&lt;&gt;$K$25,MAX(N470,VLOOKUP(A471,A:C,3)),)</f>
+        <f t="shared" ref="N471:N490" si="62">IF(A471&lt;&gt;$K$25,MAX(N470,VLOOKUP(A471,A:C,3)),)</f>
         <v>0.7279999852180481</v>
       </c>
       <c r="O471">
-        <f t="shared" ref="O471:O489" si="63">IF(A471&lt;&gt;$K$25,MIN(O470,VLOOKUP(A471,A:D,4)),)</f>
+        <f t="shared" ref="O471:O490" si="63">IF(A471&lt;&gt;$K$25,MIN(O470,VLOOKUP(A471,A:D,4)),)</f>
         <v>0.7160000205039978</v>
       </c>
       <c r="P471">
@@ -31092,6 +31104,69 @@
       <c r="U489">
         <f t="shared" si="41"/>
         <v>11.139459960384174</v>
+      </c>
+    </row>
+    <row r="490" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A490" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B490">
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="C490">
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="D490">
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="E490">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="F490">
+        <v>2280700</v>
+      </c>
+      <c r="G490">
+        <v>22807</v>
+      </c>
+      <c r="H490">
+        <f t="shared" si="47"/>
+        <v>488</v>
+      </c>
+      <c r="I490">
+        <f>SUM($F$3:F490)/H490</f>
+        <v>4412683.3111552252</v>
+      </c>
+      <c r="N490">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="O490">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="P490">
+        <f t="shared" si="46"/>
+        <v>0.75266667207082116</v>
+      </c>
+      <c r="Q490">
+        <f t="shared" si="37"/>
+        <v>0.74821428599811735</v>
+      </c>
+      <c r="R490">
+        <f t="shared" si="38"/>
+        <v>4.4523860727038178E-3</v>
+      </c>
+      <c r="S490">
+        <f t="shared" si="39"/>
+        <v>1.1914966665968616E-2</v>
+      </c>
+      <c r="T490">
+        <f t="shared" si="40"/>
+        <v>1.7872449998952922E-4</v>
+      </c>
+      <c r="U490">
+        <f t="shared" si="41"/>
+        <v>24.912007435828137</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U490"/>
+  <dimension ref="A1:U510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
-      <selection activeCell="A491" sqref="A491"/>
+    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="A511" sqref="A511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17415,23 +17415,23 @@
         <v>0.78866666555404663</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272:Q490" si="37">SUM(P259:P272)/14</f>
+        <f t="shared" ref="Q272:Q510" si="37">SUM(P259:P272)/14</f>
         <v>0.8100476208187285</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272:R490" si="38">P272-Q272</f>
+        <f t="shared" ref="R272:R510" si="38">P272-Q272</f>
         <v>-2.1380955264681867E-2</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272:S490" si="39">AVEDEV(P259:P272)</f>
+        <f t="shared" ref="S272:S510" si="39">AVEDEV(P259:P272)</f>
         <v>7.8163195629509085E-3</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272:T490" si="40">0.015*S272</f>
+        <f t="shared" ref="T272:T510" si="40">0.015*S272</f>
         <v>1.1724479344426362E-4</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272:U490" si="41">R272/T272</f>
+        <f t="shared" ref="U272:U510" si="41">R272/T272</f>
         <v>-182.36166090263143</v>
       </c>
     </row>
@@ -20561,7 +20561,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P490" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P510" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20671,7 +20671,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H490" si="47">H323+1</f>
+        <f t="shared" ref="H324:H510" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -29940,11 +29940,11 @@
         <v>4487196.5052638594</v>
       </c>
       <c r="N471">
-        <f t="shared" ref="N471:N490" si="62">IF(A471&lt;&gt;$K$25,MAX(N470,VLOOKUP(A471,A:C,3)),)</f>
+        <f t="shared" ref="N471:N489" si="62">IF(A471&lt;&gt;$K$25,MAX(N470,VLOOKUP(A471,A:C,3)),)</f>
         <v>0.7279999852180481</v>
       </c>
       <c r="O471">
-        <f t="shared" ref="O471:O490" si="63">IF(A471&lt;&gt;$K$25,MIN(O470,VLOOKUP(A471,A:D,4)),)</f>
+        <f t="shared" ref="O471:O489" si="63">IF(A471&lt;&gt;$K$25,MIN(O470,VLOOKUP(A471,A:D,4)),)</f>
         <v>0.7160000205039978</v>
       </c>
       <c r="P471">
@@ -31137,12 +31137,12 @@
         <v>4412683.3111552252</v>
       </c>
       <c r="N490">
-        <f t="shared" si="62"/>
-        <v>0</v>
+        <f>VLOOKUP(L27,A:C,3)</f>
+        <v>0.76499998569488525</v>
       </c>
       <c r="O490">
-        <f t="shared" si="63"/>
-        <v>0</v>
+        <f>VLOOKUP(L27,A:D,4)</f>
+        <v>0.75199997425079346</v>
       </c>
       <c r="P490">
         <f t="shared" si="46"/>
@@ -31167,6 +31167,1266 @@
       <c r="U490">
         <f t="shared" si="41"/>
         <v>24.912007435828137</v>
+      </c>
+    </row>
+    <row r="491" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A491" s="1">
+        <v>45110</v>
+      </c>
+      <c r="B491">
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="C491">
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="D491">
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="E491">
+        <v>0.75900000333786011</v>
+      </c>
+      <c r="F491">
+        <v>4327200</v>
+      </c>
+      <c r="G491">
+        <v>43272</v>
+      </c>
+      <c r="H491">
+        <f t="shared" si="47"/>
+        <v>489</v>
+      </c>
+      <c r="I491">
+        <f>SUM($F$3:F491)/H491</f>
+        <v>4412508.4986579753</v>
+      </c>
+      <c r="N491">
+        <f t="shared" ref="N491:N510" si="64">IF(A491&lt;&gt;$K$27,MAX(N490,VLOOKUP(A491,A:C,3)),)</f>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="O491">
+        <f t="shared" ref="O491:O510" si="65">IF(A491&lt;&gt;$K$27,MIN(O490,VLOOKUP(A491,A:D,4)),)</f>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="P491">
+        <f t="shared" si="46"/>
+        <v>0.75866665442784631</v>
+      </c>
+      <c r="Q491">
+        <f t="shared" si="37"/>
+        <v>0.75116666725703651</v>
+      </c>
+      <c r="R491">
+        <f t="shared" si="38"/>
+        <v>7.4999871708097965E-3</v>
+      </c>
+      <c r="S491">
+        <f t="shared" si="39"/>
+        <v>9.8809486343747286E-3</v>
+      </c>
+      <c r="T491">
+        <f t="shared" si="40"/>
+        <v>1.4821422951562092E-4</v>
+      </c>
+      <c r="U491">
+        <f t="shared" si="41"/>
+        <v>50.602342267139349</v>
+      </c>
+    </row>
+    <row r="492" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A492" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B492">
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="C492">
+        <v>0.76399999856948853</v>
+      </c>
+      <c r="D492">
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="E492">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="F492">
+        <v>2623001</v>
+      </c>
+      <c r="G492">
+        <v>26230.009765625</v>
+      </c>
+      <c r="H492">
+        <f t="shared" si="47"/>
+        <v>490</v>
+      </c>
+      <c r="I492">
+        <f>SUM($F$3:F492)/H492</f>
+        <v>4408856.4425382651</v>
+      </c>
+      <c r="N492">
+        <f t="shared" si="64"/>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="O492">
+        <f t="shared" si="65"/>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="P492">
+        <f t="shared" si="46"/>
+        <v>0.76133334636688232</v>
+      </c>
+      <c r="Q492">
+        <f t="shared" si="37"/>
+        <v>0.75371428756486814</v>
+      </c>
+      <c r="R492">
+        <f t="shared" si="38"/>
+        <v>7.6190588020141892E-3</v>
+      </c>
+      <c r="S492">
+        <f t="shared" si="39"/>
+        <v>8.6734655763016644E-3</v>
+      </c>
+      <c r="T492">
+        <f t="shared" si="40"/>
+        <v>1.3010198364452497E-4</v>
+      </c>
+      <c r="U492">
+        <f t="shared" si="41"/>
+        <v>58.562203193085743</v>
+      </c>
+    </row>
+    <row r="493" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A493" s="1">
+        <v>45112</v>
+      </c>
+      <c r="B493">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C493">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="D493">
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="E493">
+        <v>0.75800001621246338</v>
+      </c>
+      <c r="F493">
+        <v>3790700</v>
+      </c>
+      <c r="G493">
+        <v>37907</v>
+      </c>
+      <c r="H493">
+        <f t="shared" si="47"/>
+        <v>491</v>
+      </c>
+      <c r="I493">
+        <f>SUM($F$3:F493)/H493</f>
+        <v>4407597.4681135435</v>
+      </c>
+      <c r="N493">
+        <f t="shared" si="64"/>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="O493">
+        <f t="shared" si="65"/>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="P493">
+        <f t="shared" si="46"/>
+        <v>0.75933335224787391</v>
+      </c>
+      <c r="Q493">
+        <f t="shared" si="37"/>
+        <v>0.75585714550245375</v>
+      </c>
+      <c r="R493">
+        <f t="shared" si="38"/>
+        <v>3.4762067454201517E-3</v>
+      </c>
+      <c r="S493">
+        <f t="shared" si="39"/>
+        <v>7.3333311648596088E-3</v>
+      </c>
+      <c r="T493">
+        <f t="shared" si="40"/>
+        <v>1.0999996747289413E-4</v>
+      </c>
+      <c r="U493">
+        <f t="shared" si="41"/>
+        <v>31.60188884852851</v>
+      </c>
+    </row>
+    <row r="494" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A494" s="1">
+        <v>45113</v>
+      </c>
+      <c r="B494">
+        <v>0.75800001621246338</v>
+      </c>
+      <c r="C494">
+        <v>0.75900000333786011</v>
+      </c>
+      <c r="D494">
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="E494">
+        <v>0.75300002098083496</v>
+      </c>
+      <c r="F494">
+        <v>2061201</v>
+      </c>
+      <c r="G494">
+        <v>20612.009765625</v>
+      </c>
+      <c r="H494">
+        <f t="shared" si="47"/>
+        <v>492</v>
+      </c>
+      <c r="I494">
+        <f>SUM($F$3:F494)/H494</f>
+        <v>4402828.3696011174</v>
+      </c>
+      <c r="N494">
+        <f t="shared" si="64"/>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="O494">
+        <f t="shared" si="65"/>
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="P494">
+        <f t="shared" si="46"/>
+        <v>0.75466666618982947</v>
+      </c>
+      <c r="Q494">
+        <f t="shared" si="37"/>
+        <v>0.75709524041130416</v>
+      </c>
+      <c r="R494">
+        <f t="shared" si="38"/>
+        <v>-2.4285742214746886E-3</v>
+      </c>
+      <c r="S494">
+        <f t="shared" si="39"/>
+        <v>6.0952362560090746E-3</v>
+      </c>
+      <c r="T494">
+        <f t="shared" si="40"/>
+        <v>9.1428543840136112E-5</v>
+      </c>
+      <c r="U494">
+        <f t="shared" si="41"/>
+        <v>-26.562538562585875</v>
+      </c>
+    </row>
+    <row r="495" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A495" s="1">
+        <v>45114</v>
+      </c>
+      <c r="B495">
+        <v>0.74800002574920654</v>
+      </c>
+      <c r="C495">
+        <v>0.74900001287460327</v>
+      </c>
+      <c r="D495">
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="E495">
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="F495">
+        <v>2546700</v>
+      </c>
+      <c r="G495">
+        <v>25467</v>
+      </c>
+      <c r="H495">
+        <f t="shared" si="47"/>
+        <v>493</v>
+      </c>
+      <c r="I495">
+        <f>SUM($F$3:F495)/H495</f>
+        <v>4399063.403334179</v>
+      </c>
+      <c r="N495">
+        <f t="shared" si="64"/>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="O495">
+        <f t="shared" si="65"/>
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="P495">
+        <f t="shared" si="46"/>
+        <v>0.74633334080378211</v>
+      </c>
+      <c r="Q495">
+        <f t="shared" si="37"/>
+        <v>0.75685714540027416</v>
+      </c>
+      <c r="R495">
+        <f t="shared" si="38"/>
+        <v>-1.0523804596492048E-2</v>
+      </c>
+      <c r="S495">
+        <f t="shared" si="39"/>
+        <v>6.3333312670389996E-3</v>
+      </c>
+      <c r="T495">
+        <f t="shared" si="40"/>
+        <v>9.499996900558499E-5</v>
+      </c>
+      <c r="U495">
+        <f t="shared" si="41"/>
+        <v>-110.77692663113774</v>
+      </c>
+    </row>
+    <row r="496" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A496" s="1">
+        <v>45117</v>
+      </c>
+      <c r="B496">
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="C496">
+        <v>0.75300002098083496</v>
+      </c>
+      <c r="D496">
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="E496">
+        <v>0.75</v>
+      </c>
+      <c r="F496">
+        <v>2755700</v>
+      </c>
+      <c r="G496">
+        <v>27557</v>
+      </c>
+      <c r="H496">
+        <f t="shared" si="47"/>
+        <v>494</v>
+      </c>
+      <c r="I496">
+        <f>SUM($F$3:F496)/H496</f>
+        <v>4395736.7567687249</v>
+      </c>
+      <c r="N496">
+        <f t="shared" si="64"/>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="O496">
+        <f t="shared" si="65"/>
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="P496">
+        <f t="shared" si="46"/>
+        <v>0.74966667095820105</v>
+      </c>
+      <c r="Q496">
+        <f t="shared" si="37"/>
+        <v>0.75592857457342588</v>
+      </c>
+      <c r="R496">
+        <f t="shared" si="38"/>
+        <v>-6.2619036152248286E-3</v>
+      </c>
+      <c r="S496">
+        <f t="shared" si="39"/>
+        <v>6.2993180995084786E-3</v>
+      </c>
+      <c r="T496">
+        <f t="shared" si="40"/>
+        <v>9.4489771492627171E-5</v>
+      </c>
+      <c r="U496">
+        <f t="shared" si="41"/>
+        <v>-66.270703339709428</v>
+      </c>
+    </row>
+    <row r="497" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A497" s="1">
+        <v>45118</v>
+      </c>
+      <c r="B497">
+        <v>0.75</v>
+      </c>
+      <c r="C497">
+        <v>0.75800001621246338</v>
+      </c>
+      <c r="D497">
+        <v>0.75</v>
+      </c>
+      <c r="E497">
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="F497">
+        <v>2417402</v>
+      </c>
+      <c r="G497">
+        <v>24174.01953125</v>
+      </c>
+      <c r="H497">
+        <f t="shared" si="47"/>
+        <v>495</v>
+      </c>
+      <c r="I497">
+        <f>SUM($F$3:F497)/H497</f>
+        <v>4391740.1208964642</v>
+      </c>
+      <c r="N497">
+        <f t="shared" si="64"/>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="O497">
+        <f t="shared" si="65"/>
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="P497">
+        <f t="shared" si="46"/>
+        <v>0.75500001509984338</v>
+      </c>
+      <c r="Q497">
+        <f t="shared" si="37"/>
+        <v>0.7552142895403362</v>
+      </c>
+      <c r="R497">
+        <f t="shared" si="38"/>
+        <v>-2.1427444049282318E-4</v>
+      </c>
+      <c r="S497">
+        <f t="shared" si="39"/>
+        <v>5.5136029817620114E-3</v>
+      </c>
+      <c r="T497">
+        <f t="shared" si="40"/>
+        <v>8.2704044726430174E-5</v>
+      </c>
+      <c r="U497">
+        <f t="shared" si="41"/>
+        <v>-2.5908580553902021</v>
+      </c>
+    </row>
+    <row r="498" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A498" s="1">
+        <v>45119</v>
+      </c>
+      <c r="B498">
+        <v>0.75800001621246338</v>
+      </c>
+      <c r="C498">
+        <v>0.75800001621246338</v>
+      </c>
+      <c r="D498">
+        <v>0.75</v>
+      </c>
+      <c r="E498">
+        <v>0.75</v>
+      </c>
+      <c r="F498">
+        <v>1800601</v>
+      </c>
+      <c r="G498">
+        <v>18006.009765625</v>
+      </c>
+      <c r="H498">
+        <f t="shared" si="47"/>
+        <v>496</v>
+      </c>
+      <c r="I498">
+        <f>SUM($F$3:F498)/H498</f>
+        <v>4386516.0500882054</v>
+      </c>
+      <c r="N498">
+        <f t="shared" si="64"/>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="O498">
+        <f t="shared" si="65"/>
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="P498">
+        <f t="shared" si="46"/>
+        <v>0.75266667207082116</v>
+      </c>
+      <c r="Q498">
+        <f t="shared" si="37"/>
+        <v>0.75390476697967179</v>
+      </c>
+      <c r="R498">
+        <f t="shared" si="38"/>
+        <v>-1.2380949088506288E-3</v>
+      </c>
+      <c r="S498">
+        <f t="shared" si="39"/>
+        <v>4.2721085807904359E-3</v>
+      </c>
+      <c r="T498">
+        <f t="shared" si="40"/>
+        <v>6.4081628711856541E-5</v>
+      </c>
+      <c r="U498">
+        <f t="shared" si="41"/>
+        <v>-19.320590530208442</v>
+      </c>
+    </row>
+    <row r="499" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A499" s="1">
+        <v>45120</v>
+      </c>
+      <c r="B499">
+        <v>0.75</v>
+      </c>
+      <c r="C499">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="D499">
+        <v>0.75</v>
+      </c>
+      <c r="E499">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="F499">
+        <v>2210004</v>
+      </c>
+      <c r="G499">
+        <v>22100.0390625</v>
+      </c>
+      <c r="H499">
+        <f t="shared" si="47"/>
+        <v>497</v>
+      </c>
+      <c r="I499">
+        <f>SUM($F$3:F499)/H499</f>
+        <v>4382136.7501886319</v>
+      </c>
+      <c r="N499">
+        <f t="shared" si="64"/>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="O499">
+        <f t="shared" si="65"/>
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="P499">
+        <f t="shared" si="46"/>
+        <v>0.75866667429606116</v>
+      </c>
+      <c r="Q499">
+        <f t="shared" si="37"/>
+        <v>0.75350000602858425</v>
+      </c>
+      <c r="R499">
+        <f t="shared" si="38"/>
+        <v>5.1666682674769149E-3</v>
+      </c>
+      <c r="S499">
+        <f t="shared" si="39"/>
+        <v>3.8095246366903362E-3</v>
+      </c>
+      <c r="T499">
+        <f t="shared" si="40"/>
+        <v>5.7142869550355043E-5</v>
+      </c>
+      <c r="U499">
+        <f t="shared" si="41"/>
+        <v>90.416675048563661</v>
+      </c>
+    </row>
+    <row r="500" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A500" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B500">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="C500">
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="D500">
+        <v>0.75900000333786011</v>
+      </c>
+      <c r="E500">
+        <v>0.75900000333786011</v>
+      </c>
+      <c r="F500">
+        <v>1423302</v>
+      </c>
+      <c r="G500">
+        <v>14233.01953125</v>
+      </c>
+      <c r="H500">
+        <f t="shared" si="47"/>
+        <v>498</v>
+      </c>
+      <c r="I500">
+        <f>SUM($F$3:F500)/H500</f>
+        <v>4376195.3149472894</v>
+      </c>
+      <c r="N500">
+        <f t="shared" si="64"/>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="O500">
+        <f t="shared" si="65"/>
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="P500">
+        <f t="shared" si="46"/>
+        <v>0.7600000103314718</v>
+      </c>
+      <c r="Q500">
+        <f t="shared" si="37"/>
+        <v>0.75416667262713133</v>
+      </c>
+      <c r="R500">
+        <f t="shared" si="38"/>
+        <v>5.8333377043404688E-3</v>
+      </c>
+      <c r="S500">
+        <f t="shared" si="39"/>
+        <v>4.0714300814129111E-3</v>
+      </c>
+      <c r="T500">
+        <f t="shared" si="40"/>
+        <v>6.1071451221193668E-5</v>
+      </c>
+      <c r="U500">
+        <f t="shared" si="41"/>
+        <v>95.516605348263312</v>
+      </c>
+    </row>
+    <row r="501" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A501" s="1">
+        <v>45124</v>
+      </c>
+      <c r="B501">
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="C501">
+        <v>0.75800001621246338</v>
+      </c>
+      <c r="D501">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="E501">
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="F501">
+        <v>3941809</v>
+      </c>
+      <c r="G501">
+        <v>39418.08984375</v>
+      </c>
+      <c r="H501">
+        <f t="shared" si="47"/>
+        <v>499</v>
+      </c>
+      <c r="I501">
+        <f>SUM($F$3:F501)/H501</f>
+        <v>4375324.80129008</v>
+      </c>
+      <c r="N501">
+        <f t="shared" si="64"/>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="O501">
+        <f t="shared" si="65"/>
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="P501">
+        <f t="shared" si="46"/>
+        <v>0.75633333126703894</v>
+      </c>
+      <c r="Q501">
+        <f t="shared" si="37"/>
+        <v>0.75440476763816111</v>
+      </c>
+      <c r="R501">
+        <f t="shared" si="38"/>
+        <v>1.9285636288778329E-3</v>
+      </c>
+      <c r="S501">
+        <f t="shared" si="39"/>
+        <v>4.1088441602226767E-3</v>
+      </c>
+      <c r="T501">
+        <f t="shared" si="40"/>
+        <v>6.1632662403340142E-5</v>
+      </c>
+      <c r="U501">
+        <f t="shared" si="41"/>
+        <v>31.291259434109985</v>
+      </c>
+    </row>
+    <row r="502" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A502" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B502">
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="C502">
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="D502">
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="E502">
+        <v>0.75300002098083496</v>
+      </c>
+      <c r="F502">
+        <v>1428600</v>
+      </c>
+      <c r="G502">
+        <v>14286</v>
+      </c>
+      <c r="H502">
+        <f t="shared" si="47"/>
+        <v>500</v>
+      </c>
+      <c r="I502">
+        <f>SUM($F$3:F502)/H502</f>
+        <v>4369431.3516875003</v>
+      </c>
+      <c r="N502">
+        <f t="shared" si="64"/>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="O502">
+        <f t="shared" si="65"/>
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="P502">
+        <f t="shared" si="46"/>
+        <v>0.75366665919621789</v>
+      </c>
+      <c r="Q502">
+        <f t="shared" si="37"/>
+        <v>0.75478571937197736</v>
+      </c>
+      <c r="R502">
+        <f t="shared" si="38"/>
+        <v>-1.1190601757594676E-3</v>
+      </c>
+      <c r="S502">
+        <f t="shared" si="39"/>
+        <v>3.6904783475966707E-3</v>
+      </c>
+      <c r="T502">
+        <f t="shared" si="40"/>
+        <v>5.5357175213950057E-5</v>
+      </c>
+      <c r="U502">
+        <f t="shared" si="41"/>
+        <v>-20.215268778336497</v>
+      </c>
+    </row>
+    <row r="503" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A503" s="1">
+        <v>45126</v>
+      </c>
+      <c r="B503">
+        <v>0.75300002098083496</v>
+      </c>
+      <c r="C503">
+        <v>0.75400000810623169</v>
+      </c>
+      <c r="D503">
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="E503">
+        <v>0.75</v>
+      </c>
+      <c r="F503">
+        <v>1650910</v>
+      </c>
+      <c r="G503">
+        <v>16509.099609375</v>
+      </c>
+      <c r="H503">
+        <f t="shared" si="47"/>
+        <v>501</v>
+      </c>
+      <c r="I503">
+        <f>SUM($F$3:F503)/H503</f>
+        <v>4364005.1613647705</v>
+      </c>
+      <c r="N503">
+        <f t="shared" si="64"/>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="O503">
+        <f t="shared" si="65"/>
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="P503">
+        <f t="shared" si="46"/>
+        <v>0.75033332904179895</v>
+      </c>
+      <c r="Q503">
+        <f t="shared" si="37"/>
+        <v>0.75495238531203501</v>
+      </c>
+      <c r="R503">
+        <f t="shared" si="38"/>
+        <v>-4.619056270236066E-3</v>
+      </c>
+      <c r="S503">
+        <f t="shared" si="39"/>
+        <v>3.5238124075390015E-3</v>
+      </c>
+      <c r="T503">
+        <f t="shared" si="40"/>
+        <v>5.2857186113085019E-5</v>
+      </c>
+      <c r="U503">
+        <f t="shared" si="41"/>
+        <v>-87.387479544481451</v>
+      </c>
+    </row>
+    <row r="504" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A504" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B504">
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="C504">
+        <v>0.75400000810623169</v>
+      </c>
+      <c r="D504">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="E504">
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="F504">
+        <v>2022802</v>
+      </c>
+      <c r="G504">
+        <v>20228.01953125</v>
+      </c>
+      <c r="H504">
+        <f t="shared" si="47"/>
+        <v>502</v>
+      </c>
+      <c r="I504">
+        <f>SUM($F$3:F504)/H504</f>
+        <v>4359341.4100473104</v>
+      </c>
+      <c r="N504">
+        <f t="shared" si="64"/>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="O504">
+        <f t="shared" si="65"/>
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="P504">
+        <f t="shared" si="46"/>
+        <v>0.74533333381017053</v>
+      </c>
+      <c r="Q504">
+        <f t="shared" si="37"/>
+        <v>0.75442857543627428</v>
+      </c>
+      <c r="R504">
+        <f t="shared" si="38"/>
+        <v>-9.0952416261037561E-3</v>
+      </c>
+      <c r="S504">
+        <f t="shared" si="39"/>
+        <v>4.0816352480933593E-3</v>
+      </c>
+      <c r="T504">
+        <f t="shared" si="40"/>
+        <v>6.1224528721400383E-5</v>
+      </c>
+      <c r="U504">
+        <f t="shared" si="41"/>
+        <v>-148.55551877730684</v>
+      </c>
+    </row>
+    <row r="505" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A505" s="1">
+        <v>45128</v>
+      </c>
+      <c r="B505">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="C505">
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="D505">
+        <v>0.73799997568130493</v>
+      </c>
+      <c r="E505">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="F505">
+        <v>1567600</v>
+      </c>
+      <c r="G505">
+        <v>15676</v>
+      </c>
+      <c r="H505">
+        <f t="shared" si="47"/>
+        <v>503</v>
+      </c>
+      <c r="I505">
+        <f>SUM($F$3:F505)/H505</f>
+        <v>4353791.2283175942</v>
+      </c>
+      <c r="N505">
+        <f t="shared" si="64"/>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="O505">
+        <f t="shared" si="65"/>
+        <v>0.73799997568130493</v>
+      </c>
+      <c r="P505">
+        <f t="shared" si="46"/>
+        <v>0.74166665474573767</v>
+      </c>
+      <c r="Q505">
+        <f t="shared" si="37"/>
+        <v>0.75321428974469495</v>
+      </c>
+      <c r="R505">
+        <f t="shared" si="38"/>
+        <v>-1.1547634998957279E-2</v>
+      </c>
+      <c r="S505">
+        <f t="shared" si="39"/>
+        <v>4.7551052910941071E-3</v>
+      </c>
+      <c r="T505">
+        <f t="shared" si="40"/>
+        <v>7.1326579366411604E-5</v>
+      </c>
+      <c r="U505">
+        <f t="shared" si="41"/>
+        <v>-161.89806242685424</v>
+      </c>
+    </row>
+    <row r="506" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A506" s="1">
+        <v>45131</v>
+      </c>
+      <c r="B506">
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="C506">
+        <v>0.74199998378753662</v>
+      </c>
+      <c r="D506">
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="E506">
+        <v>0.73500001430511475</v>
+      </c>
+      <c r="F506">
+        <v>1049800</v>
+      </c>
+      <c r="G506">
+        <v>10498</v>
+      </c>
+      <c r="H506">
+        <f t="shared" si="47"/>
+        <v>504</v>
+      </c>
+      <c r="I506">
+        <f>SUM($F$3:F506)/H506</f>
+        <v>4347235.6901661707</v>
+      </c>
+      <c r="N506">
+        <f t="shared" si="64"/>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="O506">
+        <f t="shared" si="65"/>
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="P506">
+        <f t="shared" si="46"/>
+        <v>0.73700000842412317</v>
+      </c>
+      <c r="Q506">
+        <f t="shared" si="37"/>
+        <v>0.75147619417735512</v>
+      </c>
+      <c r="R506">
+        <f t="shared" si="38"/>
+        <v>-1.4476185753231952E-2</v>
+      </c>
+      <c r="S506">
+        <f t="shared" si="39"/>
+        <v>5.5034038971881428E-3</v>
+      </c>
+      <c r="T506">
+        <f t="shared" si="40"/>
+        <v>8.2551058457822136E-5</v>
+      </c>
+      <c r="U506">
+        <f t="shared" si="41"/>
+        <v>-175.36038935985633</v>
+      </c>
+    </row>
+    <row r="507" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A507" s="1">
+        <v>45132</v>
+      </c>
+      <c r="B507">
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="C507">
+        <v>0.75300002098083496</v>
+      </c>
+      <c r="D507">
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="E507">
+        <v>0.75300002098083496</v>
+      </c>
+      <c r="F507">
+        <v>3738700</v>
+      </c>
+      <c r="G507">
+        <v>37387</v>
+      </c>
+      <c r="H507">
+        <f t="shared" si="47"/>
+        <v>505</v>
+      </c>
+      <c r="I507">
+        <f>SUM($F$3:F507)/H507</f>
+        <v>4346030.6689975243</v>
+      </c>
+      <c r="N507">
+        <f t="shared" si="64"/>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="O507">
+        <f t="shared" si="65"/>
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="P507">
+        <f t="shared" si="46"/>
+        <v>0.75066667795181274</v>
+      </c>
+      <c r="Q507">
+        <f t="shared" si="37"/>
+        <v>0.75085714601335074</v>
+      </c>
+      <c r="R507">
+        <f t="shared" si="38"/>
+        <v>-1.9046806153799611E-4</v>
+      </c>
+      <c r="S507">
+        <f t="shared" si="39"/>
+        <v>5.0000009082612562E-3</v>
+      </c>
+      <c r="T507">
+        <f t="shared" si="40"/>
+        <v>7.500001362391884E-5</v>
+      </c>
+      <c r="U507">
+        <f t="shared" si="41"/>
+        <v>-2.53957369252067</v>
+      </c>
+    </row>
+    <row r="508" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A508" s="1">
+        <v>45133</v>
+      </c>
+      <c r="B508">
+        <v>0.74900001287460327</v>
+      </c>
+      <c r="C508">
+        <v>0.75</v>
+      </c>
+      <c r="D508">
+        <v>0.74800002574920654</v>
+      </c>
+      <c r="E508">
+        <v>0.74800002574920654</v>
+      </c>
+      <c r="F508">
+        <v>1144400</v>
+      </c>
+      <c r="G508">
+        <v>11444</v>
+      </c>
+      <c r="H508">
+        <f t="shared" si="47"/>
+        <v>506</v>
+      </c>
+      <c r="I508">
+        <f>SUM($F$3:F508)/H508</f>
+        <v>4339703.335659585</v>
+      </c>
+      <c r="N508">
+        <f t="shared" si="64"/>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="O508">
+        <f t="shared" si="65"/>
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="P508">
+        <f t="shared" si="46"/>
+        <v>0.74866668383280432</v>
+      </c>
+      <c r="Q508">
+        <f t="shared" si="37"/>
+        <v>0.75042857584499167</v>
+      </c>
+      <c r="R508">
+        <f t="shared" si="38"/>
+        <v>-1.7618920121873494E-3</v>
+      </c>
+      <c r="S508">
+        <f t="shared" si="39"/>
+        <v>4.8571441854749486E-3</v>
+      </c>
+      <c r="T508">
+        <f t="shared" si="40"/>
+        <v>7.285716278212423E-5</v>
+      </c>
+      <c r="U508">
+        <f t="shared" si="41"/>
+        <v>-24.182824926304104</v>
+      </c>
+    </row>
+    <row r="509" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A509" s="1">
+        <v>45134</v>
+      </c>
+      <c r="B509">
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="C509">
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="D509">
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="E509">
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="F509">
+        <v>1466100</v>
+      </c>
+      <c r="G509">
+        <v>14661</v>
+      </c>
+      <c r="H509">
+        <f t="shared" si="47"/>
+        <v>507</v>
+      </c>
+      <c r="I509">
+        <f>SUM($F$3:F509)/H509</f>
+        <v>4334035.4789817557</v>
+      </c>
+      <c r="N509">
+        <f t="shared" si="64"/>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="O509">
+        <f t="shared" si="65"/>
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="P509">
+        <f t="shared" si="46"/>
+        <v>0.74799998601277673</v>
+      </c>
+      <c r="Q509">
+        <f t="shared" si="37"/>
+        <v>0.7505476219313485</v>
+      </c>
+      <c r="R509">
+        <f t="shared" si="38"/>
+        <v>-2.5476359185717667E-3</v>
+      </c>
+      <c r="S509">
+        <f t="shared" si="39"/>
+        <v>4.7380980991181898E-3</v>
+      </c>
+      <c r="T509">
+        <f t="shared" si="40"/>
+        <v>7.1071471486772839E-5</v>
+      </c>
+      <c r="U509">
+        <f t="shared" si="41"/>
+        <v>-35.846111882542196</v>
+      </c>
+    </row>
+    <row r="510" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A510" s="1">
+        <v>45135</v>
+      </c>
+      <c r="B510">
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="C510">
+        <v>0.75900000333786011</v>
+      </c>
+      <c r="D510">
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="E510">
+        <v>0.75800001621246338</v>
+      </c>
+      <c r="F510">
+        <v>2266102</v>
+      </c>
+      <c r="G510">
+        <v>22661.01953125</v>
+      </c>
+      <c r="H510">
+        <f t="shared" si="47"/>
+        <v>508</v>
+      </c>
+      <c r="I510">
+        <f>SUM($F$3:F510)/H510</f>
+        <v>4329964.7437869096</v>
+      </c>
+      <c r="N510">
+        <f t="shared" si="64"/>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="O510">
+        <f t="shared" si="65"/>
+        <v>0.73400002717971802</v>
+      </c>
+      <c r="P510">
+        <f t="shared" si="46"/>
+        <v>0.75366667906443274</v>
+      </c>
+      <c r="Q510">
+        <f t="shared" si="37"/>
+        <v>0.75083333679607922</v>
+      </c>
+      <c r="R510">
+        <f t="shared" si="38"/>
+        <v>2.8333422683535225E-3</v>
+      </c>
+      <c r="S510">
+        <f t="shared" si="39"/>
+        <v>4.8809548219044974E-3</v>
+      </c>
+      <c r="T510">
+        <f t="shared" si="40"/>
+        <v>7.3214322328567463E-5</v>
+      </c>
+      <c r="U510">
+        <f t="shared" si="41"/>
+        <v>38.699289677751779</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U510"/>
+  <dimension ref="A1:U511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
-      <selection activeCell="A511" sqref="A511"/>
+    <sheetView tabSelected="1" topLeftCell="A497" workbookViewId="0">
+      <selection activeCell="A512" sqref="A512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2000,7 +2000,7 @@
         <v>-53.501214932625707</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44410</v>
       </c>
@@ -2030,6 +2030,12 @@
         <f>SUM($F$3:F28)/H28</f>
         <v>33511582.653846152</v>
       </c>
+      <c r="K28" s="2">
+        <v>45169</v>
+      </c>
+      <c r="L28" s="2">
+        <v>45139</v>
+      </c>
       <c r="N28">
         <f>IF(A28&lt;&gt;$K$3,MAX(N27,VLOOKUP(A28,A:C,3)),)</f>
         <v>1.0369999999999999</v>
@@ -17415,23 +17421,23 @@
         <v>0.78866666555404663</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272:Q510" si="37">SUM(P259:P272)/14</f>
+        <f t="shared" ref="Q272:Q511" si="37">SUM(P259:P272)/14</f>
         <v>0.8100476208187285</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272:R510" si="38">P272-Q272</f>
+        <f t="shared" ref="R272:R511" si="38">P272-Q272</f>
         <v>-2.1380955264681867E-2</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272:S510" si="39">AVEDEV(P259:P272)</f>
+        <f t="shared" ref="S272:S511" si="39">AVEDEV(P259:P272)</f>
         <v>7.8163195629509085E-3</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272:T510" si="40">0.015*S272</f>
+        <f t="shared" ref="T272:T511" si="40">0.015*S272</f>
         <v>1.1724479344426362E-4</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272:U510" si="41">R272/T272</f>
+        <f t="shared" ref="U272:U511" si="41">R272/T272</f>
         <v>-182.36166090263143</v>
       </c>
     </row>
@@ -20561,7 +20567,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P510" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P511" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20671,7 +20677,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H510" si="47">H323+1</f>
+        <f t="shared" ref="H324:H511" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -31200,11 +31206,11 @@
         <v>4412508.4986579753</v>
       </c>
       <c r="N491">
-        <f t="shared" ref="N491:N510" si="64">IF(A491&lt;&gt;$K$27,MAX(N490,VLOOKUP(A491,A:C,3)),)</f>
+        <f t="shared" ref="N491:N511" si="64">IF(A491&lt;&gt;$K$27,MAX(N490,VLOOKUP(A491,A:C,3)),)</f>
         <v>0.76499998569488525</v>
       </c>
       <c r="O491">
-        <f t="shared" ref="O491:O510" si="65">IF(A491&lt;&gt;$K$27,MIN(O490,VLOOKUP(A491,A:D,4)),)</f>
+        <f t="shared" ref="O491:O511" si="65">IF(A491&lt;&gt;$K$27,MIN(O490,VLOOKUP(A491,A:D,4)),)</f>
         <v>0.75199997425079346</v>
       </c>
       <c r="P491">
@@ -32427,6 +32433,69 @@
       <c r="U510">
         <f t="shared" si="41"/>
         <v>38.699289677751779</v>
+      </c>
+    </row>
+    <row r="511" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A511" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B511">
+        <v>0.75400000810623169</v>
+      </c>
+      <c r="C511">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="D511">
+        <v>0.75400000810623169</v>
+      </c>
+      <c r="E511">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="F511">
+        <v>2111506</v>
+      </c>
+      <c r="G511">
+        <v>21115.060546875</v>
+      </c>
+      <c r="H511">
+        <f t="shared" si="47"/>
+        <v>509</v>
+      </c>
+      <c r="I511">
+        <f>SUM($F$3:F511)/H511</f>
+        <v>4325606.2786714146</v>
+      </c>
+      <c r="N511">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="O511">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="P511">
+        <f t="shared" si="46"/>
+        <v>0.76200000445048011</v>
+      </c>
+      <c r="Q511">
+        <f t="shared" si="37"/>
+        <v>0.75133333603541053</v>
+      </c>
+      <c r="R511">
+        <f t="shared" si="38"/>
+        <v>1.066666841506958E-2</v>
+      </c>
+      <c r="S511">
+        <f t="shared" si="39"/>
+        <v>5.3809540612356922E-3</v>
+      </c>
+      <c r="T511">
+        <f t="shared" si="40"/>
+        <v>8.0714310918535384E-5</v>
+      </c>
+      <c r="U511">
+        <f t="shared" si="41"/>
+        <v>132.15337272513426</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U511"/>
+  <dimension ref="A1:U533"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A497" workbookViewId="0">
-      <selection activeCell="A512" sqref="A512"/>
+    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
+      <selection activeCell="A534" sqref="A534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17421,23 +17421,23 @@
         <v>0.78866666555404663</v>
       </c>
       <c r="Q272">
-        <f t="shared" ref="Q272:Q511" si="37">SUM(P259:P272)/14</f>
+        <f t="shared" ref="Q272:Q526" si="37">SUM(P259:P272)/14</f>
         <v>0.8100476208187285</v>
       </c>
       <c r="R272">
-        <f t="shared" ref="R272:R511" si="38">P272-Q272</f>
+        <f t="shared" ref="R272:R526" si="38">P272-Q272</f>
         <v>-2.1380955264681867E-2</v>
       </c>
       <c r="S272">
-        <f t="shared" ref="S272:S511" si="39">AVEDEV(P259:P272)</f>
+        <f t="shared" ref="S272:S526" si="39">AVEDEV(P259:P272)</f>
         <v>7.8163195629509085E-3</v>
       </c>
       <c r="T272">
-        <f t="shared" ref="T272:T511" si="40">0.015*S272</f>
+        <f t="shared" ref="T272:T526" si="40">0.015*S272</f>
         <v>1.1724479344426362E-4</v>
       </c>
       <c r="U272">
-        <f t="shared" ref="U272:U511" si="41">R272/T272</f>
+        <f t="shared" ref="U272:U526" si="41">R272/T272</f>
         <v>-182.36166090263143</v>
       </c>
     </row>
@@ -20567,7 +20567,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P511" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P533" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20677,7 +20677,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H511" si="47">H323+1</f>
+        <f t="shared" ref="H324:H533" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -31206,11 +31206,11 @@
         <v>4412508.4986579753</v>
       </c>
       <c r="N491">
-        <f t="shared" ref="N491:N511" si="64">IF(A491&lt;&gt;$K$27,MAX(N490,VLOOKUP(A491,A:C,3)),)</f>
+        <f t="shared" ref="N491:N510" si="64">IF(A491&lt;&gt;$K$27,MAX(N490,VLOOKUP(A491,A:C,3)),)</f>
         <v>0.76499998569488525</v>
       </c>
       <c r="O491">
-        <f t="shared" ref="O491:O511" si="65">IF(A491&lt;&gt;$K$27,MIN(O490,VLOOKUP(A491,A:D,4)),)</f>
+        <f t="shared" ref="O491:O510" si="65">IF(A491&lt;&gt;$K$27,MIN(O490,VLOOKUP(A491,A:D,4)),)</f>
         <v>0.75199997425079346</v>
       </c>
       <c r="P491">
@@ -32466,12 +32466,12 @@
         <v>4325606.2786714146</v>
       </c>
       <c r="N511">
-        <f t="shared" si="64"/>
-        <v>0</v>
+        <f>VLOOKUP(L28,A:C,3)</f>
+        <v>0.7630000114440918</v>
       </c>
       <c r="O511">
-        <f t="shared" si="65"/>
-        <v>0</v>
+        <f>VLOOKUP(L28,A:D,4)</f>
+        <v>0.75700002908706665</v>
       </c>
       <c r="P511">
         <f t="shared" si="46"/>
@@ -32496,6 +32496,1392 @@
       <c r="U511">
         <f t="shared" si="41"/>
         <v>132.15337272513426</v>
+      </c>
+    </row>
+    <row r="512" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A512" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B512">
+        <v>0.75900000333786011</v>
+      </c>
+      <c r="C512">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="D512">
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="E512">
+        <v>0.75900000333786011</v>
+      </c>
+      <c r="F512">
+        <v>1168500</v>
+      </c>
+      <c r="G512">
+        <v>11685</v>
+      </c>
+      <c r="H512">
+        <f t="shared" si="47"/>
+        <v>510</v>
+      </c>
+      <c r="I512">
+        <f>SUM($F$3:F512)/H512</f>
+        <v>4319415.8742034314</v>
+      </c>
+      <c r="N512">
+        <f t="shared" ref="N512:N533" si="66">IF(A512&lt;&gt;$K$28,MAX(N511,VLOOKUP(A512,A:C,3)),)</f>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="O512">
+        <f t="shared" ref="O512:O533" si="67">IF(A512&lt;&gt;$K$28,MIN(O511,VLOOKUP(A512,A:D,4)),)</f>
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="P512">
+        <f t="shared" si="46"/>
+        <v>0.75966668128967285</v>
+      </c>
+      <c r="Q512">
+        <f t="shared" si="37"/>
+        <v>0.75183333669389996</v>
+      </c>
+      <c r="R512">
+        <f t="shared" si="38"/>
+        <v>7.8333445957728953E-3</v>
+      </c>
+      <c r="S512">
+        <f t="shared" si="39"/>
+        <v>5.8809547197250988E-3</v>
+      </c>
+      <c r="T512">
+        <f t="shared" si="40"/>
+        <v>8.8214320795876482E-5</v>
+      </c>
+      <c r="U512">
+        <f t="shared" si="41"/>
+        <v>88.799012735118851</v>
+      </c>
+    </row>
+    <row r="513" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A513" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B513">
+        <v>0.75999999046325684</v>
+      </c>
+      <c r="C513">
+        <v>0.75999999046325684</v>
+      </c>
+      <c r="D513">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="E513">
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="F513">
+        <v>195700</v>
+      </c>
+      <c r="G513">
+        <v>1957</v>
+      </c>
+      <c r="H513">
+        <f t="shared" si="47"/>
+        <v>511</v>
+      </c>
+      <c r="I513">
+        <f>SUM($F$3:F513)/H513</f>
+        <v>4311345.9801247558</v>
+      </c>
+      <c r="N513">
+        <f t="shared" si="66"/>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="O513">
+        <f t="shared" si="67"/>
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="P513">
+        <f t="shared" si="46"/>
+        <v>0.75699998935063684</v>
+      </c>
+      <c r="Q513">
+        <f t="shared" si="37"/>
+        <v>0.75171428776922677</v>
+      </c>
+      <c r="R513">
+        <f t="shared" si="38"/>
+        <v>5.2857015814100627E-3</v>
+      </c>
+      <c r="S513">
+        <f t="shared" si="39"/>
+        <v>5.7619057950519326E-3</v>
+      </c>
+      <c r="T513">
+        <f t="shared" si="40"/>
+        <v>8.6428586925778981E-5</v>
+      </c>
+      <c r="U513">
+        <f t="shared" si="41"/>
+        <v>61.156866835612938</v>
+      </c>
+    </row>
+    <row r="514" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A514" s="1">
+        <v>45141</v>
+      </c>
+      <c r="B514">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C514">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="D514">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="E514">
+        <v>0.75999999046325684</v>
+      </c>
+      <c r="F514">
+        <v>195700</v>
+      </c>
+      <c r="G514">
+        <v>1957</v>
+      </c>
+      <c r="H514">
+        <f t="shared" si="47"/>
+        <v>512</v>
+      </c>
+      <c r="I514">
+        <f>SUM($F$3:F514)/H514</f>
+        <v>4303307.6090698242</v>
+      </c>
+      <c r="N514">
+        <f t="shared" si="66"/>
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="O514">
+        <f t="shared" si="67"/>
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="P514">
+        <f t="shared" si="46"/>
+        <v>0.75866665442784631</v>
+      </c>
+      <c r="Q514">
+        <f t="shared" si="37"/>
+        <v>0.75161904806182511</v>
+      </c>
+      <c r="R514">
+        <f t="shared" si="38"/>
+        <v>7.0476063660211974E-3</v>
+      </c>
+      <c r="S514">
+        <f t="shared" si="39"/>
+        <v>5.6666660876501119E-3</v>
+      </c>
+      <c r="T514">
+        <f t="shared" si="40"/>
+        <v>8.4999991314751671E-5</v>
+      </c>
+      <c r="U514">
+        <f t="shared" si="41"/>
+        <v>82.913024542840063</v>
+      </c>
+    </row>
+    <row r="515" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A515" s="1">
+        <v>45142</v>
+      </c>
+      <c r="B515">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C515">
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="D515">
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="E515">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="F515">
+        <v>1707300</v>
+      </c>
+      <c r="G515">
+        <v>17073</v>
+      </c>
+      <c r="H515">
+        <f t="shared" si="47"/>
+        <v>513</v>
+      </c>
+      <c r="I515">
+        <f>SUM($F$3:F515)/H515</f>
+        <v>4298247.1653874265</v>
+      </c>
+      <c r="N515">
+        <f t="shared" si="66"/>
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="O515">
+        <f t="shared" si="67"/>
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="P515">
+        <f t="shared" si="46"/>
+        <v>0.76633334159851074</v>
+      </c>
+      <c r="Q515">
+        <f t="shared" si="37"/>
+        <v>0.75233333451407314</v>
+      </c>
+      <c r="R515">
+        <f t="shared" si="38"/>
+        <v>1.4000007084437605E-2</v>
+      </c>
+      <c r="S515">
+        <f t="shared" si="39"/>
+        <v>6.3809525398980981E-3</v>
+      </c>
+      <c r="T515">
+        <f t="shared" si="40"/>
+        <v>9.571428809847147E-5</v>
+      </c>
+      <c r="U515">
+        <f t="shared" si="41"/>
+        <v>146.26872708946345</v>
+      </c>
+    </row>
+    <row r="516" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A516" s="1">
+        <v>45145</v>
+      </c>
+      <c r="B516">
+        <v>0.76800000667572021</v>
+      </c>
+      <c r="C516">
+        <v>0.76800000667572021</v>
+      </c>
+      <c r="D516">
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="E516">
+        <v>0.75800001621246338</v>
+      </c>
+      <c r="F516">
+        <v>434900</v>
+      </c>
+      <c r="G516">
+        <v>4349</v>
+      </c>
+      <c r="H516">
+        <f t="shared" si="47"/>
+        <v>514</v>
+      </c>
+      <c r="I516">
+        <f>SUM($F$3:F516)/H516</f>
+        <v>4290730.9257660508</v>
+      </c>
+      <c r="N516">
+        <f t="shared" si="66"/>
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="O516">
+        <f t="shared" si="67"/>
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="P516">
+        <f t="shared" si="46"/>
+        <v>0.76100001732508338</v>
+      </c>
+      <c r="Q516">
+        <f t="shared" si="37"/>
+        <v>0.75285714580899199</v>
+      </c>
+      <c r="R516">
+        <f t="shared" si="38"/>
+        <v>8.1428715160913878E-3</v>
+      </c>
+      <c r="S516">
+        <f t="shared" si="39"/>
+        <v>6.9047638348170614E-3</v>
+      </c>
+      <c r="T516">
+        <f t="shared" si="40"/>
+        <v>1.0357145752225592E-4</v>
+      </c>
+      <c r="U516">
+        <f t="shared" si="41"/>
+        <v>78.620806454728211</v>
+      </c>
+    </row>
+    <row r="517" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A517" s="1">
+        <v>45146</v>
+      </c>
+      <c r="B517">
+        <v>0.75999999046325684</v>
+      </c>
+      <c r="C517">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="D517">
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="E517">
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="F517">
+        <v>1843000</v>
+      </c>
+      <c r="G517">
+        <v>18430</v>
+      </c>
+      <c r="H517">
+        <f t="shared" si="47"/>
+        <v>515</v>
+      </c>
+      <c r="I517">
+        <f>SUM($F$3:F517)/H517</f>
+        <v>4285978.0501820389</v>
+      </c>
+      <c r="N517">
+        <f t="shared" si="66"/>
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="O517">
+        <f t="shared" si="67"/>
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="P517">
+        <f t="shared" si="46"/>
+        <v>0.75799999634424842</v>
+      </c>
+      <c r="Q517">
+        <f t="shared" si="37"/>
+        <v>0.75340476490202402</v>
+      </c>
+      <c r="R517">
+        <f t="shared" si="38"/>
+        <v>4.5952314422244012E-3</v>
+      </c>
+      <c r="S517">
+        <f t="shared" si="39"/>
+        <v>7.0136063763884416E-3</v>
+      </c>
+      <c r="T517">
+        <f t="shared" si="40"/>
+        <v>1.0520409564582662E-4</v>
+      </c>
+      <c r="U517">
+        <f t="shared" si="41"/>
+        <v>43.679206726840881</v>
+      </c>
+    </row>
+    <row r="518" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A518" s="1">
+        <v>45147</v>
+      </c>
+      <c r="B518">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="C518">
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="D518">
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="E518">
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="F518">
+        <v>2687648</v>
+      </c>
+      <c r="G518">
+        <v>26876.48046875</v>
+      </c>
+      <c r="H518">
+        <f t="shared" si="47"/>
+        <v>516</v>
+      </c>
+      <c r="I518">
+        <f>SUM($F$3:F518)/H518</f>
+        <v>4282880.5113250967</v>
+      </c>
+      <c r="N518">
+        <f t="shared" si="66"/>
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="O518">
+        <f t="shared" si="67"/>
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="P518">
+        <f t="shared" si="46"/>
+        <v>0.75299998124440515</v>
+      </c>
+      <c r="Q518">
+        <f t="shared" si="37"/>
+        <v>0.75395238257589792</v>
+      </c>
+      <c r="R518">
+        <f t="shared" si="38"/>
+        <v>-9.5240133149276929E-4</v>
+      </c>
+      <c r="S518">
+        <f t="shared" si="39"/>
+        <v>6.428572393599008E-3</v>
+      </c>
+      <c r="T518">
+        <f t="shared" si="40"/>
+        <v>9.6428585903985111E-5</v>
+      </c>
+      <c r="U518">
+        <f t="shared" si="41"/>
+        <v>-9.8767530661611556</v>
+      </c>
+    </row>
+    <row r="519" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A519" s="1">
+        <v>45148</v>
+      </c>
+      <c r="B519">
+        <v>0.75400000810623169</v>
+      </c>
+      <c r="C519">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="D519">
+        <v>0.74800002574920654</v>
+      </c>
+      <c r="E519">
+        <v>0.75400000810623169</v>
+      </c>
+      <c r="F519">
+        <v>1424702</v>
+      </c>
+      <c r="G519">
+        <v>14247.01953125</v>
+      </c>
+      <c r="H519">
+        <f t="shared" si="47"/>
+        <v>517</v>
+      </c>
+      <c r="I519">
+        <f>SUM($F$3:F519)/H519</f>
+        <v>4277352.1196204061</v>
+      </c>
+      <c r="N519">
+        <f t="shared" si="66"/>
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="O519">
+        <f t="shared" si="67"/>
+        <v>0.74800002574920654</v>
+      </c>
+      <c r="P519">
+        <f t="shared" si="46"/>
+        <v>0.75233334302902222</v>
+      </c>
+      <c r="Q519">
+        <f t="shared" si="37"/>
+        <v>0.75471428888184688</v>
+      </c>
+      <c r="R519">
+        <f t="shared" si="38"/>
+        <v>-2.3809458528246674E-3</v>
+      </c>
+      <c r="S519">
+        <f t="shared" si="39"/>
+        <v>5.6666660876501119E-3</v>
+      </c>
+      <c r="T519">
+        <f t="shared" si="40"/>
+        <v>8.4999991314751671E-5</v>
+      </c>
+      <c r="U519">
+        <f t="shared" si="41"/>
+        <v>-28.011130542450495</v>
+      </c>
+    </row>
+    <row r="520" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A520" s="1">
+        <v>45149</v>
+      </c>
+      <c r="B520">
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="C520">
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="D520">
+        <v>0.73900002241134644</v>
+      </c>
+      <c r="E520">
+        <v>0.73900002241134644</v>
+      </c>
+      <c r="F520">
+        <v>877800</v>
+      </c>
+      <c r="G520">
+        <v>8778</v>
+      </c>
+      <c r="H520">
+        <f t="shared" si="47"/>
+        <v>518</v>
+      </c>
+      <c r="I520">
+        <f>SUM($F$3:F520)/H520</f>
+        <v>4270789.2776906369</v>
+      </c>
+      <c r="N520">
+        <f t="shared" si="66"/>
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="O520">
+        <f t="shared" si="67"/>
+        <v>0.73900002241134644</v>
+      </c>
+      <c r="P520">
+        <f t="shared" si="46"/>
+        <v>0.74333333969116211</v>
+      </c>
+      <c r="Q520">
+        <f t="shared" si="37"/>
+        <v>0.75516666968663526</v>
+      </c>
+      <c r="R520">
+        <f t="shared" si="38"/>
+        <v>-1.1833329995473152E-2</v>
+      </c>
+      <c r="S520">
+        <f t="shared" si="39"/>
+        <v>5.214285282861616E-3</v>
+      </c>
+      <c r="T520">
+        <f t="shared" si="40"/>
+        <v>7.8214279242924242E-5</v>
+      </c>
+      <c r="U520">
+        <f t="shared" si="41"/>
+        <v>-151.29372935497159</v>
+      </c>
+    </row>
+    <row r="521" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A521" s="1">
+        <v>45152</v>
+      </c>
+      <c r="B521">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="C521">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="D521">
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="E521">
+        <v>0.73299998044967651</v>
+      </c>
+      <c r="F521">
+        <v>2439943</v>
+      </c>
+      <c r="G521">
+        <v>24399.4296875</v>
+      </c>
+      <c r="H521">
+        <f t="shared" si="47"/>
+        <v>519</v>
+      </c>
+      <c r="I521">
+        <f>SUM($F$3:F521)/H521</f>
+        <v>4267261.6355370907</v>
+      </c>
+      <c r="N521">
+        <f t="shared" si="66"/>
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="O521">
+        <f t="shared" si="67"/>
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="P521">
+        <f t="shared" si="46"/>
+        <v>0.73199999332427979</v>
+      </c>
+      <c r="Q521">
+        <f t="shared" si="37"/>
+        <v>0.75383333507038297</v>
+      </c>
+      <c r="R521">
+        <f t="shared" si="38"/>
+        <v>-2.1833341746103185E-2</v>
+      </c>
+      <c r="S521">
+        <f t="shared" si="39"/>
+        <v>6.5476198991139701E-3</v>
+      </c>
+      <c r="T521">
+        <f t="shared" si="40"/>
+        <v>9.8214298486709543E-5</v>
+      </c>
+      <c r="U521">
+        <f t="shared" si="41"/>
+        <v>-222.30308705058556</v>
+      </c>
+    </row>
+    <row r="522" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A522" s="1">
+        <v>45153</v>
+      </c>
+      <c r="B522">
+        <v>0.73100000619888306</v>
+      </c>
+      <c r="C522">
+        <v>0.73100000619888306</v>
+      </c>
+      <c r="D522">
+        <v>0.72100001573562622</v>
+      </c>
+      <c r="E522">
+        <v>0.72500002384185791</v>
+      </c>
+      <c r="F522">
+        <v>1750403.875</v>
+      </c>
+      <c r="G522">
+        <v>17504.0390625</v>
+      </c>
+      <c r="H522">
+        <f t="shared" si="47"/>
+        <v>520</v>
+      </c>
+      <c r="I522">
+        <f>SUM($F$3:F522)/H522</f>
+        <v>4262421.5244591348</v>
+      </c>
+      <c r="N522">
+        <f t="shared" si="66"/>
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="O522">
+        <f t="shared" si="67"/>
+        <v>0.72100001573562622</v>
+      </c>
+      <c r="P522">
+        <f t="shared" si="46"/>
+        <v>0.72566668192545569</v>
+      </c>
+      <c r="Q522">
+        <f t="shared" si="37"/>
+        <v>0.75219047779128656</v>
+      </c>
+      <c r="R522">
+        <f t="shared" si="38"/>
+        <v>-2.6523795865830868E-2</v>
+      </c>
+      <c r="S522">
+        <f t="shared" si="39"/>
+        <v>8.5374157444960772E-3</v>
+      </c>
+      <c r="T522">
+        <f t="shared" si="40"/>
+        <v>1.2806123616744116E-4</v>
+      </c>
+      <c r="U522">
+        <f t="shared" si="41"/>
+        <v>-207.11806835247771</v>
+      </c>
+    </row>
+    <row r="523" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A523" s="1">
+        <v>45154</v>
+      </c>
+      <c r="B523">
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="C523">
+        <v>0.72699999809265137</v>
+      </c>
+      <c r="D523">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="E523">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="F523">
+        <v>323801</v>
+      </c>
+      <c r="G523">
+        <v>3238.010009765625</v>
+      </c>
+      <c r="H523">
+        <f t="shared" si="47"/>
+        <v>521</v>
+      </c>
+      <c r="I523">
+        <f>SUM($F$3:F523)/H523</f>
+        <v>4254861.7921665069</v>
+      </c>
+      <c r="N523">
+        <f t="shared" si="66"/>
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="O523">
+        <f t="shared" si="67"/>
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="P523">
+        <f t="shared" si="46"/>
+        <v>0.72233335177103675</v>
+      </c>
+      <c r="Q523">
+        <f t="shared" si="37"/>
+        <v>0.75035714677401955</v>
+      </c>
+      <c r="R523">
+        <f t="shared" si="38"/>
+        <v>-2.8023795002982799E-2</v>
+      </c>
+      <c r="S523">
+        <f t="shared" si="39"/>
+        <v>1.1156460054877653E-2</v>
+      </c>
+      <c r="T523">
+        <f t="shared" si="40"/>
+        <v>1.6734690082316478E-4</v>
+      </c>
+      <c r="U523">
+        <f t="shared" si="41"/>
+        <v>-167.45930080052992</v>
+      </c>
+    </row>
+    <row r="524" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A524" s="1">
+        <v>45155</v>
+      </c>
+      <c r="B524">
+        <v>0.71899998188018799</v>
+      </c>
+      <c r="C524">
+        <v>0.72500002384185791</v>
+      </c>
+      <c r="D524">
+        <v>0.71299999952316284</v>
+      </c>
+      <c r="E524">
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="F524">
+        <v>937500</v>
+      </c>
+      <c r="G524">
+        <v>9375</v>
+      </c>
+      <c r="H524">
+        <f t="shared" si="47"/>
+        <v>522</v>
+      </c>
+      <c r="I524">
+        <f>SUM($F$3:F524)/H524</f>
+        <v>4248506.6929477965</v>
+      </c>
+      <c r="N524">
+        <f t="shared" si="66"/>
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="O524">
+        <f t="shared" si="67"/>
+        <v>0.71299999952316284</v>
+      </c>
+      <c r="P524">
+        <f t="shared" si="46"/>
+        <v>0.72066666682561242</v>
+      </c>
+      <c r="Q524">
+        <f t="shared" si="37"/>
+        <v>0.74800000304267511</v>
+      </c>
+      <c r="R524">
+        <f t="shared" si="38"/>
+        <v>-2.7333336217062687E-2</v>
+      </c>
+      <c r="S524">
+        <f t="shared" si="39"/>
+        <v>1.3714283096547058E-2</v>
+      </c>
+      <c r="T524">
+        <f t="shared" si="40"/>
+        <v>2.0571424644820585E-4</v>
+      </c>
+      <c r="U524">
+        <f t="shared" si="41"/>
+        <v>-132.87040975037476</v>
+      </c>
+    </row>
+    <row r="525" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A525" s="1">
+        <v>45156</v>
+      </c>
+      <c r="B525">
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="C525">
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="D525">
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="E525">
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="F525">
+        <v>999313</v>
+      </c>
+      <c r="G525">
+        <v>9993.1298828125</v>
+      </c>
+      <c r="H525">
+        <f t="shared" si="47"/>
+        <v>523</v>
+      </c>
+      <c r="I525">
+        <f>SUM($F$3:F525)/H525</f>
+        <v>4242294.0855043018</v>
+      </c>
+      <c r="N525">
+        <f t="shared" si="66"/>
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="O525">
+        <f t="shared" si="67"/>
+        <v>0.71299999952316284</v>
+      </c>
+      <c r="P525">
+        <f t="shared" si="46"/>
+        <v>0.71866665283838904</v>
+      </c>
+      <c r="Q525">
+        <f t="shared" si="37"/>
+        <v>0.74490476364181146</v>
+      </c>
+      <c r="R525">
+        <f t="shared" si="38"/>
+        <v>-2.6238110803422421E-2</v>
+      </c>
+      <c r="S525">
+        <f t="shared" si="39"/>
+        <v>1.5251699353561941E-2</v>
+      </c>
+      <c r="T525">
+        <f t="shared" si="40"/>
+        <v>2.2877549030342911E-4</v>
+      </c>
+      <c r="U525">
+        <f t="shared" si="41"/>
+        <v>-114.68934355084251</v>
+      </c>
+    </row>
+    <row r="526" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A526" s="1">
+        <v>45159</v>
+      </c>
+      <c r="B526">
+        <v>0.71200001239776611</v>
+      </c>
+      <c r="C526">
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="D526">
+        <v>0.70599997043609619</v>
+      </c>
+      <c r="E526">
+        <v>0.70599997043609619</v>
+      </c>
+      <c r="F526">
+        <v>946000</v>
+      </c>
+      <c r="G526">
+        <v>9460</v>
+      </c>
+      <c r="H526">
+        <f t="shared" si="47"/>
+        <v>524</v>
+      </c>
+      <c r="I526">
+        <f>SUM($F$3:F526)/H526</f>
+        <v>4236003.4479365461</v>
+      </c>
+      <c r="N526">
+        <f t="shared" si="66"/>
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="O526">
+        <f t="shared" si="67"/>
+        <v>0.70599997043609619</v>
+      </c>
+      <c r="P526">
+        <f t="shared" si="46"/>
+        <v>0.70899997154871619</v>
+      </c>
+      <c r="Q526">
+        <f t="shared" si="37"/>
+        <v>0.74128571294602885</v>
+      </c>
+      <c r="R526">
+        <f t="shared" si="38"/>
+        <v>-3.2285741397312662E-2</v>
+      </c>
+      <c r="S526">
+        <f t="shared" si="39"/>
+        <v>1.7054422777526255E-2</v>
+      </c>
+      <c r="T526">
+        <f t="shared" si="40"/>
+        <v>2.558163416628938E-4</v>
+      </c>
+      <c r="U526">
+        <f t="shared" si="41"/>
+        <v>-126.20671997513642</v>
+      </c>
+    </row>
+    <row r="527" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A527" s="1">
+        <v>45160</v>
+      </c>
+      <c r="B527">
+        <v>0.7070000171661377</v>
+      </c>
+      <c r="C527">
+        <v>0.70999997854232788</v>
+      </c>
+      <c r="D527">
+        <v>0.69700002670288086</v>
+      </c>
+      <c r="E527">
+        <v>0.70800000429153442</v>
+      </c>
+      <c r="F527">
+        <v>1811300</v>
+      </c>
+      <c r="G527">
+        <v>18113</v>
+      </c>
+      <c r="H527">
+        <f t="shared" si="47"/>
+        <v>525</v>
+      </c>
+      <c r="I527">
+        <f>SUM($F$3:F527)/H527</f>
+        <v>4231384.9651785716</v>
+      </c>
+      <c r="N527">
+        <f t="shared" si="66"/>
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="O527">
+        <f t="shared" si="67"/>
+        <v>0.69700002670288086</v>
+      </c>
+      <c r="P527">
+        <f t="shared" si="46"/>
+        <v>0.70500000317891443</v>
+      </c>
+      <c r="Q527">
+        <f t="shared" ref="Q527:Q533" si="68">SUM(P514:P527)/14</f>
+        <v>0.73757142821947741</v>
+      </c>
+      <c r="R527">
+        <f t="shared" ref="R527:R533" si="69">P527-Q527</f>
+        <v>-3.2571425040562985E-2</v>
+      </c>
+      <c r="S527">
+        <f t="shared" ref="S527:S533" si="70">AVEDEV(P514:P527)</f>
+        <v>1.8523810874848144E-2</v>
+      </c>
+      <c r="T527">
+        <f t="shared" ref="T527:T533" si="71">0.015*S527</f>
+        <v>2.7785716312272215E-4</v>
+      </c>
+      <c r="U527">
+        <f t="shared" ref="U527:U533" si="72">R527/T527</f>
+        <v>-117.22362912838439</v>
+      </c>
+    </row>
+    <row r="528" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A528" s="1">
+        <v>45161</v>
+      </c>
+      <c r="B528">
+        <v>0.70399999618530273</v>
+      </c>
+      <c r="C528">
+        <v>0.70399999618530273</v>
+      </c>
+      <c r="D528">
+        <v>0.69300001859664917</v>
+      </c>
+      <c r="E528">
+        <v>0.69300001859664917</v>
+      </c>
+      <c r="F528">
+        <v>1334701</v>
+      </c>
+      <c r="G528">
+        <v>13347.009765625</v>
+      </c>
+      <c r="H528">
+        <f t="shared" si="47"/>
+        <v>526</v>
+      </c>
+      <c r="I528">
+        <f>SUM($F$3:F528)/H528</f>
+        <v>4225877.9614424901</v>
+      </c>
+      <c r="N528">
+        <f t="shared" si="66"/>
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="O528">
+        <f t="shared" si="67"/>
+        <v>0.69300001859664917</v>
+      </c>
+      <c r="P528">
+        <f t="shared" si="46"/>
+        <v>0.69666667779286706</v>
+      </c>
+      <c r="Q528">
+        <f t="shared" si="68"/>
+        <v>0.73314285845983596</v>
+      </c>
+      <c r="R528">
+        <f t="shared" si="69"/>
+        <v>-3.6476180666968894E-2</v>
+      </c>
+      <c r="S528">
+        <f t="shared" si="70"/>
+        <v>1.9306124067630898E-2</v>
+      </c>
+      <c r="T528">
+        <f t="shared" si="71"/>
+        <v>2.8959186101446346E-4</v>
+      </c>
+      <c r="U528">
+        <f t="shared" si="72"/>
+        <v>-125.95720245448167</v>
+      </c>
+    </row>
+    <row r="529" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A529" s="1">
+        <v>45162</v>
+      </c>
+      <c r="B529">
+        <v>0.69599997997283936</v>
+      </c>
+      <c r="C529">
+        <v>0.7070000171661377</v>
+      </c>
+      <c r="D529">
+        <v>0.69599997997283936</v>
+      </c>
+      <c r="E529">
+        <v>0.70200002193450928</v>
+      </c>
+      <c r="F529">
+        <v>1755400</v>
+      </c>
+      <c r="G529">
+        <v>17554</v>
+      </c>
+      <c r="H529">
+        <f t="shared" si="47"/>
+        <v>527</v>
+      </c>
+      <c r="I529">
+        <f>SUM($F$3:F529)/H529</f>
+        <v>4221190.147473909</v>
+      </c>
+      <c r="N529">
+        <f t="shared" si="66"/>
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="O529">
+        <f t="shared" si="67"/>
+        <v>0.69300001859664917</v>
+      </c>
+      <c r="P529">
+        <f t="shared" si="46"/>
+        <v>0.70166667302449548</v>
+      </c>
+      <c r="Q529">
+        <f t="shared" si="68"/>
+        <v>0.72852381070454919</v>
+      </c>
+      <c r="R529">
+        <f t="shared" si="69"/>
+        <v>-2.6857137680053711E-2</v>
+      </c>
+      <c r="S529">
+        <f t="shared" si="70"/>
+        <v>1.8360543818700885E-2</v>
+      </c>
+      <c r="T529">
+        <f t="shared" si="71"/>
+        <v>2.7540815728051326E-4</v>
+      </c>
+      <c r="U529">
+        <f t="shared" si="72"/>
+        <v>-97.517582432021925</v>
+      </c>
+    </row>
+    <row r="530" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A530" s="1">
+        <v>45163</v>
+      </c>
+      <c r="B530">
+        <v>0.69700002670288086</v>
+      </c>
+      <c r="C530">
+        <v>0.69700002670288086</v>
+      </c>
+      <c r="D530">
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="E530">
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="F530">
+        <v>4130100</v>
+      </c>
+      <c r="G530">
+        <v>41301</v>
+      </c>
+      <c r="H530">
+        <f t="shared" si="47"/>
+        <v>528</v>
+      </c>
+      <c r="I530">
+        <f>SUM($F$3:F530)/H530</f>
+        <v>4221017.628255208</v>
+      </c>
+      <c r="N530">
+        <f t="shared" si="66"/>
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="O530">
+        <f t="shared" si="67"/>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="P530">
+        <f t="shared" si="46"/>
+        <v>0.69033332665761316</v>
+      </c>
+      <c r="Q530">
+        <f t="shared" si="68"/>
+        <v>0.72347618994258711</v>
+      </c>
+      <c r="R530">
+        <f t="shared" si="69"/>
+        <v>-3.3142863284973956E-2</v>
+      </c>
+      <c r="S530">
+        <f t="shared" si="70"/>
+        <v>1.763945655757879E-2</v>
+      </c>
+      <c r="T530">
+        <f t="shared" si="71"/>
+        <v>2.6459184836368182E-4</v>
+      </c>
+      <c r="U530">
+        <f t="shared" si="72"/>
+        <v>-125.26033394429842</v>
+      </c>
+    </row>
+    <row r="531" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A531" s="1">
+        <v>45166</v>
+      </c>
+      <c r="B531">
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="C531">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="D531">
+        <v>0.69599997997283936</v>
+      </c>
+      <c r="E531">
+        <v>0.69800001382827759</v>
+      </c>
+      <c r="F531">
+        <v>4080600</v>
+      </c>
+      <c r="G531">
+        <v>40806</v>
+      </c>
+      <c r="H531">
+        <f t="shared" si="47"/>
+        <v>529</v>
+      </c>
+      <c r="I531">
+        <f>SUM($F$3:F531)/H531</f>
+        <v>4220752.1885042535</v>
+      </c>
+      <c r="N531">
+        <f t="shared" si="66"/>
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="O531">
+        <f t="shared" si="67"/>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="P531">
+        <f t="shared" si="46"/>
+        <v>0.70733332633972168</v>
+      </c>
+      <c r="Q531">
+        <f t="shared" si="68"/>
+        <v>0.71985714208512086</v>
+      </c>
+      <c r="R531">
+        <f t="shared" si="69"/>
+        <v>-1.2523815745399181E-2</v>
+      </c>
+      <c r="S531">
+        <f t="shared" si="70"/>
+        <v>1.576190903073265E-2</v>
+      </c>
+      <c r="T531">
+        <f t="shared" si="71"/>
+        <v>2.3642863546098974E-4</v>
+      </c>
+      <c r="U531">
+        <f t="shared" si="72"/>
+        <v>-52.970807537674872</v>
+      </c>
+    </row>
+    <row r="532" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A532" s="1">
+        <v>45167</v>
+      </c>
+      <c r="B532">
+        <v>0.69599997997283936</v>
+      </c>
+      <c r="C532">
+        <v>0.7160000205039978</v>
+      </c>
+      <c r="D532">
+        <v>0.69599997997283936</v>
+      </c>
+      <c r="E532">
+        <v>0.71100002527236938</v>
+      </c>
+      <c r="F532">
+        <v>3433200</v>
+      </c>
+      <c r="G532">
+        <v>34332</v>
+      </c>
+      <c r="H532">
+        <f t="shared" si="47"/>
+        <v>530</v>
+      </c>
+      <c r="I532">
+        <f>SUM($F$3:F532)/H532</f>
+        <v>4219266.2409787737</v>
+      </c>
+      <c r="N532">
+        <f t="shared" si="66"/>
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="O532">
+        <f t="shared" si="67"/>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="P532">
+        <f t="shared" si="46"/>
+        <v>0.70766667524973548</v>
+      </c>
+      <c r="Q532">
+        <f t="shared" si="68"/>
+        <v>0.71661904879978711</v>
+      </c>
+      <c r="R532">
+        <f t="shared" si="69"/>
+        <v>-8.9523735500516288E-3</v>
+      </c>
+      <c r="S532">
+        <f t="shared" si="70"/>
+        <v>1.4095241115206754E-2</v>
+      </c>
+      <c r="T532">
+        <f t="shared" si="71"/>
+        <v>2.1142861672810128E-4</v>
+      </c>
+      <c r="U532">
+        <f t="shared" si="72"/>
+        <v>-42.34229825929593</v>
+      </c>
+    </row>
+    <row r="533" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A533" s="1">
+        <v>45168</v>
+      </c>
+      <c r="B533">
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="C533">
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="D533">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="E533">
+        <v>0.71799999475479126</v>
+      </c>
+      <c r="F533">
+        <v>3097306</v>
+      </c>
+      <c r="G533">
+        <v>30973.060546875</v>
+      </c>
+      <c r="H533">
+        <f t="shared" si="47"/>
+        <v>531</v>
+      </c>
+      <c r="I533">
+        <f>SUM($F$3:F533)/H533</f>
+        <v>4217153.3215042371</v>
+      </c>
+      <c r="N533">
+        <f t="shared" si="66"/>
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="O533">
+        <f t="shared" si="67"/>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="P533">
+        <f t="shared" si="46"/>
+        <v>0.71833332379659021</v>
+      </c>
+      <c r="Q533">
+        <f t="shared" si="68"/>
+        <v>0.71419047599747054</v>
+      </c>
+      <c r="R533">
+        <f t="shared" si="69"/>
+        <v>4.1428477991196644E-3</v>
+      </c>
+      <c r="S533">
+        <f t="shared" si="70"/>
+        <v>1.1666668312890181E-2</v>
+      </c>
+      <c r="T533">
+        <f t="shared" si="71"/>
+        <v>1.7500002469335269E-4</v>
+      </c>
+      <c r="U533">
+        <f t="shared" si="72"/>
+        <v>23.673412654535635</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U533"/>
+  <dimension ref="A1:U534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A508" workbookViewId="0">
-      <selection activeCell="A534" sqref="A534"/>
+    <sheetView tabSelected="1" topLeftCell="A506" workbookViewId="0">
+      <selection activeCell="A535" sqref="A535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2069,7 +2069,7 @@
         <v>-3.4825870646762205</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44411</v>
       </c>
@@ -2099,6 +2099,12 @@
         <f>SUM($F$3:F29)/H29</f>
         <v>32536855.703703705</v>
       </c>
+      <c r="K29" s="2">
+        <v>45197</v>
+      </c>
+      <c r="L29" s="2">
+        <v>45170</v>
+      </c>
       <c r="N29">
         <f t="shared" ref="N29:N48" si="9">IF(A29&lt;&gt;$K$3,MAX(N28,VLOOKUP(A29,A:C,3)),)</f>
         <v>1.0369999999999999</v>
@@ -20567,7 +20573,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P533" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P534" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20677,7 +20683,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H533" si="47">H323+1</f>
+        <f t="shared" ref="H324:H534" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -32529,11 +32535,11 @@
         <v>4319415.8742034314</v>
       </c>
       <c r="N512">
-        <f t="shared" ref="N512:N533" si="66">IF(A512&lt;&gt;$K$28,MAX(N511,VLOOKUP(A512,A:C,3)),)</f>
+        <f t="shared" ref="N512:N534" si="66">IF(A512&lt;&gt;$K$28,MAX(N511,VLOOKUP(A512,A:C,3)),)</f>
         <v>0.7630000114440918</v>
       </c>
       <c r="O512">
-        <f t="shared" ref="O512:O533" si="67">IF(A512&lt;&gt;$K$28,MIN(O511,VLOOKUP(A512,A:D,4)),)</f>
+        <f t="shared" ref="O512:O534" si="67">IF(A512&lt;&gt;$K$28,MIN(O511,VLOOKUP(A512,A:D,4)),)</f>
         <v>0.75700002908706665</v>
       </c>
       <c r="P512">
@@ -33486,23 +33492,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q533" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q534" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R533" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R534" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S533" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S534" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T533" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T534" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U533" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U534" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -33882,6 +33888,69 @@
       <c r="U533">
         <f t="shared" si="72"/>
         <v>23.673412654535635</v>
+      </c>
+    </row>
+    <row r="534" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A534" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B534">
+        <v>0.7160000205039978</v>
+      </c>
+      <c r="C534">
+        <v>0.71799999475479126</v>
+      </c>
+      <c r="D534">
+        <v>0.71299999952316284</v>
+      </c>
+      <c r="E534">
+        <v>0.71399998664855957</v>
+      </c>
+      <c r="F534">
+        <v>3152600</v>
+      </c>
+      <c r="G534">
+        <v>31526</v>
+      </c>
+      <c r="H534">
+        <f t="shared" si="47"/>
+        <v>532</v>
+      </c>
+      <c r="I534">
+        <f>SUM($F$3:F534)/H534</f>
+        <v>4215152.2814262221</v>
+      </c>
+      <c r="N534">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="O534">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="P534">
+        <f t="shared" si="46"/>
+        <v>0.71499999364217126</v>
+      </c>
+      <c r="Q534">
+        <f t="shared" si="68"/>
+        <v>0.71216666556539987</v>
+      </c>
+      <c r="R534">
+        <f t="shared" si="69"/>
+        <v>2.8333280767713909E-3</v>
+      </c>
+      <c r="S534">
+        <f t="shared" si="70"/>
+        <v>9.6428578808194065E-3</v>
+      </c>
+      <c r="T534">
+        <f t="shared" si="71"/>
+        <v>1.446428682122911E-4</v>
+      </c>
+      <c r="U534">
+        <f t="shared" si="72"/>
+        <v>19.588439525500419</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U534"/>
+  <dimension ref="A1:U553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A506" workbookViewId="0">
-      <selection activeCell="A535" sqref="A535"/>
+    <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
+      <selection activeCell="A554" sqref="A554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20573,7 +20573,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P534" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P553" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20683,7 +20683,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H534" si="47">H323+1</f>
+        <f t="shared" ref="H324:H553" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -32535,11 +32535,11 @@
         <v>4319415.8742034314</v>
       </c>
       <c r="N512">
-        <f t="shared" ref="N512:N534" si="66">IF(A512&lt;&gt;$K$28,MAX(N511,VLOOKUP(A512,A:C,3)),)</f>
+        <f t="shared" ref="N512:N533" si="66">IF(A512&lt;&gt;$K$28,MAX(N511,VLOOKUP(A512,A:C,3)),)</f>
         <v>0.7630000114440918</v>
       </c>
       <c r="O512">
-        <f t="shared" ref="O512:O534" si="67">IF(A512&lt;&gt;$K$28,MIN(O511,VLOOKUP(A512,A:D,4)),)</f>
+        <f t="shared" ref="O512:O533" si="67">IF(A512&lt;&gt;$K$28,MIN(O511,VLOOKUP(A512,A:D,4)),)</f>
         <v>0.75700002908706665</v>
       </c>
       <c r="P512">
@@ -33492,23 +33492,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q534" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q553" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R534" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R553" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S534" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S553" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T534" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T553" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U534" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U553" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -33921,12 +33921,12 @@
         <v>4215152.2814262221</v>
       </c>
       <c r="N534">
-        <f t="shared" si="66"/>
-        <v>0</v>
+        <f>VLOOKUP(L29,A:C,3)</f>
+        <v>0.72100001573562622</v>
       </c>
       <c r="O534">
-        <f t="shared" si="67"/>
-        <v>0</v>
+        <f>VLOOKUP(L29,A:D,4)</f>
+        <v>0.7149999737739563</v>
       </c>
       <c r="P534">
         <f t="shared" si="46"/>
@@ -33951,6 +33951,1203 @@
       <c r="U534">
         <f t="shared" si="72"/>
         <v>19.588439525500419</v>
+      </c>
+    </row>
+    <row r="535" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A535" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B535">
+        <v>0.7160000205039978</v>
+      </c>
+      <c r="C535">
+        <v>0.72100001573562622</v>
+      </c>
+      <c r="D535">
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="E535">
+        <v>0.71700000762939453</v>
+      </c>
+      <c r="F535">
+        <v>6276518</v>
+      </c>
+      <c r="G535">
+        <v>62765.1796875</v>
+      </c>
+      <c r="H535">
+        <f t="shared" si="47"/>
+        <v>533</v>
+      </c>
+      <c r="I535">
+        <f>SUM($F$3:F535)/H535</f>
+        <v>4219019.7593222326</v>
+      </c>
+      <c r="N535">
+        <f t="shared" ref="N535:N553" si="73">IF(A535&lt;&gt;$K$29,MAX(N534,VLOOKUP(A535,A:C,3)),)</f>
+        <v>0.72100001573562622</v>
+      </c>
+      <c r="O535">
+        <f t="shared" ref="O535:O553" si="74">IF(A535&lt;&gt;$K$29,MIN(O534,VLOOKUP(A535,A:D,4)),)</f>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="P535">
+        <f t="shared" si="46"/>
+        <v>0.71766666571299231</v>
+      </c>
+      <c r="Q535">
+        <f t="shared" si="68"/>
+        <v>0.71114285645030784</v>
+      </c>
+      <c r="R535">
+        <f t="shared" si="69"/>
+        <v>6.5238092626844768E-3</v>
+      </c>
+      <c r="S535">
+        <f t="shared" si="70"/>
+        <v>8.6190487657274439E-3</v>
+      </c>
+      <c r="T535">
+        <f t="shared" si="71"/>
+        <v>1.2928573148591164E-4</v>
+      </c>
+      <c r="U535">
+        <f t="shared" si="72"/>
+        <v>50.460396423524749</v>
+      </c>
+    </row>
+    <row r="536" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A536" s="1">
+        <v>45173</v>
+      </c>
+      <c r="B536">
+        <v>0.71799999475479126</v>
+      </c>
+      <c r="C536">
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="D536">
+        <v>0.71700000762939453</v>
+      </c>
+      <c r="E536">
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="F536">
+        <v>1394301</v>
+      </c>
+      <c r="G536">
+        <v>13943.009765625</v>
+      </c>
+      <c r="H536">
+        <f t="shared" si="47"/>
+        <v>534</v>
+      </c>
+      <c r="I536">
+        <f>SUM($F$3:F536)/H536</f>
+        <v>4213730.0238178838</v>
+      </c>
+      <c r="N536">
+        <f t="shared" si="73"/>
+        <v>0.72399997711181641</v>
+      </c>
+      <c r="O536">
+        <f t="shared" si="74"/>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="P536">
+        <f t="shared" si="46"/>
+        <v>0.72166665395100915</v>
+      </c>
+      <c r="Q536">
+        <f t="shared" si="68"/>
+        <v>0.71085714016641888</v>
+      </c>
+      <c r="R536">
+        <f t="shared" si="69"/>
+        <v>1.0809513784590274E-2</v>
+      </c>
+      <c r="S536">
+        <f t="shared" si="70"/>
+        <v>8.3333324818384048E-3</v>
+      </c>
+      <c r="T536">
+        <f t="shared" si="71"/>
+        <v>1.2499998722757607E-4</v>
+      </c>
+      <c r="U536">
+        <f t="shared" si="72"/>
+        <v>86.476119112799424</v>
+      </c>
+    </row>
+    <row r="537" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A537" s="1">
+        <v>45174</v>
+      </c>
+      <c r="B537">
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="C537">
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="D537">
+        <v>0.71899998188018799</v>
+      </c>
+      <c r="E537">
+        <v>0.71899998188018799</v>
+      </c>
+      <c r="F537">
+        <v>3168303</v>
+      </c>
+      <c r="G537">
+        <v>31683.029296875</v>
+      </c>
+      <c r="H537">
+        <f t="shared" si="47"/>
+        <v>535</v>
+      </c>
+      <c r="I537">
+        <f>SUM($F$3:F537)/H537</f>
+        <v>4211775.9546144856</v>
+      </c>
+      <c r="N537">
+        <f t="shared" si="73"/>
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="O537">
+        <f t="shared" si="74"/>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="P537">
+        <f t="shared" si="46"/>
+        <v>0.72133332490921021</v>
+      </c>
+      <c r="Q537">
+        <f t="shared" si="68"/>
+        <v>0.71078570967628851</v>
+      </c>
+      <c r="R537">
+        <f t="shared" si="69"/>
+        <v>1.0547615232921692E-2</v>
+      </c>
+      <c r="S537">
+        <f t="shared" si="70"/>
+        <v>8.2619019917079383E-3</v>
+      </c>
+      <c r="T537">
+        <f t="shared" si="71"/>
+        <v>1.2392852987561906E-4</v>
+      </c>
+      <c r="U537">
+        <f t="shared" si="72"/>
+        <v>85.110468457164885</v>
+      </c>
+    </row>
+    <row r="538" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A538" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B538">
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="C538">
+        <v>0.71700000762939453</v>
+      </c>
+      <c r="D538">
+        <v>0.71299999952316284</v>
+      </c>
+      <c r="E538">
+        <v>0.71700000762939453</v>
+      </c>
+      <c r="F538">
+        <v>2825200</v>
+      </c>
+      <c r="G538">
+        <v>28252</v>
+      </c>
+      <c r="H538">
+        <f t="shared" si="47"/>
+        <v>536</v>
+      </c>
+      <c r="I538">
+        <f>SUM($F$3:F538)/H538</f>
+        <v>4209189.0591767728</v>
+      </c>
+      <c r="N538">
+        <f t="shared" si="73"/>
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="O538">
+        <f t="shared" si="74"/>
+        <v>0.71299999952316284</v>
+      </c>
+      <c r="P538">
+        <f t="shared" si="46"/>
+        <v>0.71566667159398401</v>
+      </c>
+      <c r="Q538">
+        <f t="shared" si="68"/>
+        <v>0.71042856715974356</v>
+      </c>
+      <c r="R538">
+        <f t="shared" si="69"/>
+        <v>5.2381044342404426E-3</v>
+      </c>
+      <c r="S538">
+        <f t="shared" si="70"/>
+        <v>7.9047594751630503E-3</v>
+      </c>
+      <c r="T538">
+        <f t="shared" si="71"/>
+        <v>1.1857139212744575E-4</v>
+      </c>
+      <c r="U538">
+        <f t="shared" si="72"/>
+        <v>44.176797963292003</v>
+      </c>
+    </row>
+    <row r="539" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A539" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B539">
+        <v>0.71200001239776611</v>
+      </c>
+      <c r="C539">
+        <v>0.71200001239776611</v>
+      </c>
+      <c r="D539">
+        <v>0.70099997520446777</v>
+      </c>
+      <c r="E539">
+        <v>0.70099997520446777</v>
+      </c>
+      <c r="F539">
+        <v>5462600</v>
+      </c>
+      <c r="G539">
+        <v>54626</v>
+      </c>
+      <c r="H539">
+        <f t="shared" si="47"/>
+        <v>537</v>
+      </c>
+      <c r="I539">
+        <f>SUM($F$3:F539)/H539</f>
+        <v>4211523.157763035</v>
+      </c>
+      <c r="N539">
+        <f t="shared" si="73"/>
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="O539">
+        <f t="shared" si="74"/>
+        <v>0.70099997520446777</v>
+      </c>
+      <c r="P539">
+        <f t="shared" si="46"/>
+        <v>0.70466665426890052</v>
+      </c>
+      <c r="Q539">
+        <f t="shared" si="68"/>
+        <v>0.70942856726192283</v>
+      </c>
+      <c r="R539">
+        <f t="shared" si="69"/>
+        <v>-4.7619129930223103E-3</v>
+      </c>
+      <c r="S539">
+        <f t="shared" si="70"/>
+        <v>7.585032862059915E-3</v>
+      </c>
+      <c r="T539">
+        <f t="shared" si="71"/>
+        <v>1.1377549293089872E-4</v>
+      </c>
+      <c r="U539">
+        <f t="shared" si="72"/>
+        <v>-41.853591404912187</v>
+      </c>
+    </row>
+    <row r="540" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A540" s="1">
+        <v>45177</v>
+      </c>
+      <c r="B540">
+        <v>0.70099997520446777</v>
+      </c>
+      <c r="C540">
+        <v>0.70099997520446777</v>
+      </c>
+      <c r="D540">
+        <v>0.6940000057220459</v>
+      </c>
+      <c r="E540">
+        <v>0.69800001382827759</v>
+      </c>
+      <c r="F540">
+        <v>4803900</v>
+      </c>
+      <c r="G540">
+        <v>48039</v>
+      </c>
+      <c r="H540">
+        <f t="shared" si="47"/>
+        <v>538</v>
+      </c>
+      <c r="I540">
+        <f>SUM($F$3:F540)/H540</f>
+        <v>4212624.2299605021</v>
+      </c>
+      <c r="N540">
+        <f t="shared" si="73"/>
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="O540">
+        <f t="shared" si="74"/>
+        <v>0.6940000057220459</v>
+      </c>
+      <c r="P540">
+        <f t="shared" si="46"/>
+        <v>0.69766666491826379</v>
+      </c>
+      <c r="Q540">
+        <f t="shared" si="68"/>
+        <v>0.70861904535974773</v>
+      </c>
+      <c r="R540">
+        <f t="shared" si="69"/>
+        <v>-1.0952380441483944E-2</v>
+      </c>
+      <c r="S540">
+        <f t="shared" si="70"/>
+        <v>8.2789087782100725E-3</v>
+      </c>
+      <c r="T540">
+        <f t="shared" si="71"/>
+        <v>1.2418363167315108E-4</v>
+      </c>
+      <c r="U540">
+        <f t="shared" si="72"/>
+        <v>-88.195040633941176</v>
+      </c>
+    </row>
+    <row r="541" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A541" s="1">
+        <v>45180</v>
+      </c>
+      <c r="B541">
+        <v>0.69999998807907104</v>
+      </c>
+      <c r="C541">
+        <v>0.7070000171661377</v>
+      </c>
+      <c r="D541">
+        <v>0.69599997997283936</v>
+      </c>
+      <c r="E541">
+        <v>0.70300000905990601</v>
+      </c>
+      <c r="F541">
+        <v>5004800</v>
+      </c>
+      <c r="G541">
+        <v>50048</v>
+      </c>
+      <c r="H541">
+        <f t="shared" si="47"/>
+        <v>539</v>
+      </c>
+      <c r="I541">
+        <f>SUM($F$3:F541)/H541</f>
+        <v>4214093.9438195731</v>
+      </c>
+      <c r="N541">
+        <f t="shared" si="73"/>
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="O541">
+        <f t="shared" si="74"/>
+        <v>0.6940000057220459</v>
+      </c>
+      <c r="P541">
+        <f t="shared" si="46"/>
+        <v>0.70200000206629432</v>
+      </c>
+      <c r="Q541">
+        <f t="shared" si="68"/>
+        <v>0.70840475956598914</v>
+      </c>
+      <c r="R541">
+        <f t="shared" si="69"/>
+        <v>-6.4047574996948242E-3</v>
+      </c>
+      <c r="S541">
+        <f t="shared" si="70"/>
+        <v>8.4625823157174242E-3</v>
+      </c>
+      <c r="T541">
+        <f t="shared" si="71"/>
+        <v>1.2693873473576135E-4</v>
+      </c>
+      <c r="U541">
+        <f t="shared" si="72"/>
+        <v>-50.45550133319918</v>
+      </c>
+    </row>
+    <row r="542" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A542" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B542">
+        <v>0.70399999618530273</v>
+      </c>
+      <c r="C542">
+        <v>0.70599997043609619</v>
+      </c>
+      <c r="D542">
+        <v>0.70099997520446777</v>
+      </c>
+      <c r="E542">
+        <v>0.70300000905990601</v>
+      </c>
+      <c r="F542">
+        <v>2089600</v>
+      </c>
+      <c r="G542">
+        <v>20896</v>
+      </c>
+      <c r="H542">
+        <f t="shared" si="47"/>
+        <v>540</v>
+      </c>
+      <c r="I542">
+        <f>SUM($F$3:F542)/H542</f>
+        <v>4210159.6957754632</v>
+      </c>
+      <c r="N542">
+        <f t="shared" si="73"/>
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="O542">
+        <f t="shared" si="74"/>
+        <v>0.6940000057220459</v>
+      </c>
+      <c r="P542">
+        <f t="shared" si="46"/>
+        <v>0.70333331823348999</v>
+      </c>
+      <c r="Q542">
+        <f t="shared" si="68"/>
+        <v>0.7088809481688908</v>
+      </c>
+      <c r="R542">
+        <f t="shared" si="69"/>
+        <v>-5.5476299354008107E-3</v>
+      </c>
+      <c r="S542">
+        <f t="shared" si="70"/>
+        <v>8.0544206560874531E-3</v>
+      </c>
+      <c r="T542">
+        <f t="shared" si="71"/>
+        <v>1.2081630984131179E-4</v>
+      </c>
+      <c r="U542">
+        <f t="shared" si="72"/>
+        <v>-45.917889254252493</v>
+      </c>
+    </row>
+    <row r="543" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A543" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B543">
+        <v>0.70099997520446777</v>
+      </c>
+      <c r="C543">
+        <v>0.70099997520446777</v>
+      </c>
+      <c r="D543">
+        <v>0.69099998474121094</v>
+      </c>
+      <c r="E543">
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="F543">
+        <v>2751816</v>
+      </c>
+      <c r="G543">
+        <v>27518.16015625</v>
+      </c>
+      <c r="H543">
+        <f t="shared" si="47"/>
+        <v>541</v>
+      </c>
+      <c r="I543">
+        <f>SUM($F$3:F543)/H543</f>
+        <v>4207464.0512361368</v>
+      </c>
+      <c r="N543">
+        <f t="shared" si="73"/>
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="O543">
+        <f t="shared" si="74"/>
+        <v>0.69099998474121094</v>
+      </c>
+      <c r="P543">
+        <f t="shared" si="46"/>
+        <v>0.69566665093104041</v>
+      </c>
+      <c r="Q543">
+        <f t="shared" si="68"/>
+        <v>0.70845237516221538</v>
+      </c>
+      <c r="R543">
+        <f t="shared" si="69"/>
+        <v>-1.2785724231174966E-2</v>
+      </c>
+      <c r="S543">
+        <f t="shared" si="70"/>
+        <v>8.421768947523469E-3</v>
+      </c>
+      <c r="T543">
+        <f t="shared" si="71"/>
+        <v>1.2632653421285202E-4</v>
+      </c>
+      <c r="U543">
+        <f t="shared" si="72"/>
+        <v>-101.21170750740181</v>
+      </c>
+    </row>
+    <row r="544" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A544" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B544">
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="C544">
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="D544">
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="E544">
+        <v>0.68900001049041748</v>
+      </c>
+      <c r="F544">
+        <v>4087902</v>
+      </c>
+      <c r="G544">
+        <v>40879.01953125</v>
+      </c>
+      <c r="H544">
+        <f t="shared" si="47"/>
+        <v>542</v>
+      </c>
+      <c r="I544">
+        <f>SUM($F$3:F544)/H544</f>
+        <v>4207243.4570456641</v>
+      </c>
+      <c r="N544">
+        <f t="shared" si="73"/>
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="O544">
+        <f t="shared" si="74"/>
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="P544">
+        <f t="shared" si="46"/>
+        <v>0.69033332665761316</v>
+      </c>
+      <c r="Q544">
+        <f t="shared" si="68"/>
+        <v>0.70845237516221538</v>
+      </c>
+      <c r="R544">
+        <f t="shared" si="69"/>
+        <v>-1.811904850460222E-2</v>
+      </c>
+      <c r="S544">
+        <f t="shared" si="70"/>
+        <v>8.421768947523469E-3</v>
+      </c>
+      <c r="T544">
+        <f t="shared" si="71"/>
+        <v>1.2632653421285202E-4</v>
+      </c>
+      <c r="U544">
+        <f t="shared" si="72"/>
+        <v>-143.43026678839141</v>
+      </c>
+    </row>
+    <row r="545" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A545" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B545">
+        <v>0.69099998474121094</v>
+      </c>
+      <c r="C545">
+        <v>0.69099998474121094</v>
+      </c>
+      <c r="D545">
+        <v>0.68199998140335083</v>
+      </c>
+      <c r="E545">
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="F545">
+        <v>2740800</v>
+      </c>
+      <c r="G545">
+        <v>27408</v>
+      </c>
+      <c r="H545">
+        <f t="shared" si="47"/>
+        <v>543</v>
+      </c>
+      <c r="I545">
+        <f>SUM($F$3:F545)/H545</f>
+        <v>4204542.8245280851</v>
+      </c>
+      <c r="N545">
+        <f t="shared" si="73"/>
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="O545">
+        <f t="shared" si="74"/>
+        <v>0.68199998140335083</v>
+      </c>
+      <c r="P545">
+        <f t="shared" si="46"/>
+        <v>0.68533333142598474</v>
+      </c>
+      <c r="Q545">
+        <f t="shared" si="68"/>
+        <v>0.70688094695409143</v>
+      </c>
+      <c r="R545">
+        <f t="shared" si="69"/>
+        <v>-2.1547615528106689E-2</v>
+      </c>
+      <c r="S545">
+        <f t="shared" si="70"/>
+        <v>9.8809543110075504E-3</v>
+      </c>
+      <c r="T545">
+        <f t="shared" si="71"/>
+        <v>1.4821431466511325E-4</v>
+      </c>
+      <c r="U545">
+        <f t="shared" si="72"/>
+        <v>-145.38147396081828</v>
+      </c>
+    </row>
+    <row r="546" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A546" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B546">
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="C546">
+        <v>0.69300001859664917</v>
+      </c>
+      <c r="D546">
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="E546">
+        <v>0.68800002336502075</v>
+      </c>
+      <c r="F546">
+        <v>3551100</v>
+      </c>
+      <c r="G546">
+        <v>35511</v>
+      </c>
+      <c r="H546">
+        <f t="shared" si="47"/>
+        <v>544</v>
+      </c>
+      <c r="I546">
+        <f>SUM($F$3:F546)/H546</f>
+        <v>4203341.6428653495</v>
+      </c>
+      <c r="N546">
+        <f t="shared" si="73"/>
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="O546">
+        <f t="shared" si="74"/>
+        <v>0.68199998140335083</v>
+      </c>
+      <c r="P546">
+        <f t="shared" si="46"/>
+        <v>0.68800002336502075</v>
+      </c>
+      <c r="Q546">
+        <f t="shared" si="68"/>
+        <v>0.70547618610518337</v>
+      </c>
+      <c r="R546">
+        <f t="shared" si="69"/>
+        <v>-1.7476162740162615E-2</v>
+      </c>
+      <c r="S546">
+        <f t="shared" si="70"/>
+        <v>1.0972788139265444E-2</v>
+      </c>
+      <c r="T546">
+        <f t="shared" si="71"/>
+        <v>1.6459182208898164E-4</v>
+      </c>
+      <c r="U546">
+        <f t="shared" si="72"/>
+        <v>-106.17880352958636</v>
+      </c>
+    </row>
+    <row r="547" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A547" s="1">
+        <v>45188</v>
+      </c>
+      <c r="B547">
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="C547">
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="D547">
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="E547">
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="F547">
+        <v>2608300</v>
+      </c>
+      <c r="G547">
+        <v>26083</v>
+      </c>
+      <c r="H547">
+        <f t="shared" si="47"/>
+        <v>545</v>
+      </c>
+      <c r="I547">
+        <f>SUM($F$3:F547)/H547</f>
+        <v>4200414.9609518349</v>
+      </c>
+      <c r="N547">
+        <f t="shared" si="73"/>
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="O547">
+        <f t="shared" si="74"/>
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="P547">
+        <f t="shared" si="46"/>
+        <v>0.6839999953905741</v>
+      </c>
+      <c r="Q547">
+        <f t="shared" si="68"/>
+        <v>0.70302380550475352</v>
+      </c>
+      <c r="R547">
+        <f t="shared" si="69"/>
+        <v>-1.9023810114179418E-2</v>
+      </c>
+      <c r="S547">
+        <f t="shared" si="70"/>
+        <v>1.1166663396926155E-2</v>
+      </c>
+      <c r="T547">
+        <f t="shared" si="71"/>
+        <v>1.6749995095389234E-4</v>
+      </c>
+      <c r="U547">
+        <f t="shared" si="72"/>
+        <v>-113.57501901248972</v>
+      </c>
+    </row>
+    <row r="548" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A548" s="1">
+        <v>45189</v>
+      </c>
+      <c r="B548">
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="C548">
+        <v>0.68400001525878906</v>
+      </c>
+      <c r="D548">
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="E548">
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="F548">
+        <v>2154100</v>
+      </c>
+      <c r="G548">
+        <v>21541</v>
+      </c>
+      <c r="H548">
+        <f t="shared" si="47"/>
+        <v>546</v>
+      </c>
+      <c r="I548">
+        <f>SUM($F$3:F548)/H548</f>
+        <v>4196667.1313530216</v>
+      </c>
+      <c r="N548">
+        <f t="shared" si="73"/>
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="O548">
+        <f t="shared" si="74"/>
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="P548">
+        <f t="shared" si="46"/>
+        <v>0.68166667222976685</v>
+      </c>
+      <c r="Q548">
+        <f t="shared" si="68"/>
+        <v>0.70064285397529591</v>
+      </c>
+      <c r="R548">
+        <f t="shared" si="69"/>
+        <v>-1.8976181745529064E-2</v>
+      </c>
+      <c r="S548">
+        <f t="shared" si="70"/>
+        <v>1.1690473272686908E-2</v>
+      </c>
+      <c r="T548">
+        <f t="shared" si="71"/>
+        <v>1.753570990903036E-4</v>
+      </c>
+      <c r="U548">
+        <f t="shared" si="72"/>
+        <v>-108.21450539482809</v>
+      </c>
+    </row>
+    <row r="549" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A549" s="1">
+        <v>45190</v>
+      </c>
+      <c r="B549">
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="C549">
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="D549">
+        <v>0.67500001192092896</v>
+      </c>
+      <c r="E549">
+        <v>0.67599999904632568</v>
+      </c>
+      <c r="F549">
+        <v>2342901</v>
+      </c>
+      <c r="G549">
+        <v>23429.009765625</v>
+      </c>
+      <c r="H549">
+        <f t="shared" si="47"/>
+        <v>547</v>
+      </c>
+      <c r="I549">
+        <f>SUM($F$3:F549)/H549</f>
+        <v>4193278.162191499</v>
+      </c>
+      <c r="N549">
+        <f t="shared" si="73"/>
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="O549">
+        <f t="shared" si="74"/>
+        <v>0.67500001192092896</v>
+      </c>
+      <c r="P549">
+        <f t="shared" si="46"/>
+        <v>0.67733333508173621</v>
+      </c>
+      <c r="Q549">
+        <f t="shared" si="68"/>
+        <v>0.6977619017873492</v>
+      </c>
+      <c r="R549">
+        <f t="shared" si="69"/>
+        <v>-2.0428566705612994E-2</v>
+      </c>
+      <c r="S549">
+        <f t="shared" si="70"/>
+        <v>1.172788775697047E-2</v>
+      </c>
+      <c r="T549">
+        <f t="shared" si="71"/>
+        <v>1.7591831635455703E-4</v>
+      </c>
+      <c r="U549">
+        <f t="shared" si="72"/>
+        <v>-116.12529683628823</v>
+      </c>
+    </row>
+    <row r="550" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A550" s="1">
+        <v>45191</v>
+      </c>
+      <c r="B550">
+        <v>0.67500001192092896</v>
+      </c>
+      <c r="C550">
+        <v>0.68999999761581421</v>
+      </c>
+      <c r="D550">
+        <v>0.67500001192092896</v>
+      </c>
+      <c r="E550">
+        <v>0.68999999761581421</v>
+      </c>
+      <c r="F550">
+        <v>3491900</v>
+      </c>
+      <c r="G550">
+        <v>34919</v>
+      </c>
+      <c r="H550">
+        <f t="shared" si="47"/>
+        <v>548</v>
+      </c>
+      <c r="I550">
+        <f>SUM($F$3:F550)/H550</f>
+        <v>4191998.2750342153</v>
+      </c>
+      <c r="N550">
+        <f t="shared" si="73"/>
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="O550">
+        <f t="shared" si="74"/>
+        <v>0.67500001192092896</v>
+      </c>
+      <c r="P550">
+        <f t="shared" si="46"/>
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="Q550">
+        <f t="shared" si="68"/>
+        <v>0.6951428552468617</v>
+      </c>
+      <c r="R550">
+        <f t="shared" si="69"/>
+        <v>-1.0142852862675911E-2</v>
+      </c>
+      <c r="S550">
+        <f t="shared" si="70"/>
+        <v>1.0619042884735832E-2</v>
+      </c>
+      <c r="T550">
+        <f t="shared" si="71"/>
+        <v>1.5928564327103746E-4</v>
+      </c>
+      <c r="U550">
+        <f t="shared" si="72"/>
+        <v>-63.677131563056328</v>
+      </c>
+    </row>
+    <row r="551" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A551" s="1">
+        <v>45194</v>
+      </c>
+      <c r="B551">
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="C551">
+        <v>0.68800002336502075</v>
+      </c>
+      <c r="D551">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="E551">
+        <v>0.68599998950958252</v>
+      </c>
+      <c r="F551">
+        <v>2189500</v>
+      </c>
+      <c r="G551">
+        <v>21895</v>
+      </c>
+      <c r="H551">
+        <f t="shared" si="47"/>
+        <v>549</v>
+      </c>
+      <c r="I551">
+        <f>SUM($F$3:F551)/H551</f>
+        <v>4188350.7371926229</v>
+      </c>
+      <c r="N551">
+        <f t="shared" si="73"/>
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="O551">
+        <f t="shared" si="74"/>
+        <v>0.67500001192092896</v>
+      </c>
+      <c r="P551">
+        <f t="shared" si="46"/>
+        <v>0.68633333841959632</v>
+      </c>
+      <c r="Q551">
+        <f t="shared" si="68"/>
+        <v>0.69264285621188926</v>
+      </c>
+      <c r="R551">
+        <f t="shared" si="69"/>
+        <v>-6.3095177922929402E-3</v>
+      </c>
+      <c r="S551">
+        <f t="shared" si="70"/>
+        <v>9.0204035343766885E-3</v>
+      </c>
+      <c r="T551">
+        <f t="shared" si="71"/>
+        <v>1.3530605301565032E-4</v>
+      </c>
+      <c r="U551">
+        <f t="shared" si="72"/>
+        <v>-46.63145256009458</v>
+      </c>
+    </row>
+    <row r="552" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A552" s="1">
+        <v>45195</v>
+      </c>
+      <c r="B552">
+        <v>0.68800002336502075</v>
+      </c>
+      <c r="C552">
+        <v>0.68800002336502075</v>
+      </c>
+      <c r="D552">
+        <v>0.68199998140335083</v>
+      </c>
+      <c r="E552">
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="F552">
+        <v>2279100</v>
+      </c>
+      <c r="G552">
+        <v>22791</v>
+      </c>
+      <c r="H552">
+        <f t="shared" si="47"/>
+        <v>550</v>
+      </c>
+      <c r="I552">
+        <f>SUM($F$3:F552)/H552</f>
+        <v>4184879.372215909</v>
+      </c>
+      <c r="N552">
+        <f t="shared" si="73"/>
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="O552">
+        <f t="shared" si="74"/>
+        <v>0.67500001192092896</v>
+      </c>
+      <c r="P552">
+        <f t="shared" si="46"/>
+        <v>0.68433334430058801</v>
+      </c>
+      <c r="Q552">
+        <f t="shared" si="68"/>
+        <v>0.69040476140521811</v>
+      </c>
+      <c r="R552">
+        <f t="shared" si="69"/>
+        <v>-6.0714171046301058E-3</v>
+      </c>
+      <c r="S552">
+        <f t="shared" si="70"/>
+        <v>7.3299261988425402E-3</v>
+      </c>
+      <c r="T552">
+        <f t="shared" si="71"/>
+        <v>1.099488929826381E-4</v>
+      </c>
+      <c r="U552">
+        <f t="shared" si="72"/>
+        <v>-55.220356839689472</v>
+      </c>
+    </row>
+    <row r="553" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A553" s="1">
+        <v>45196</v>
+      </c>
+      <c r="B553">
+        <v>0.68199998140335083</v>
+      </c>
+      <c r="C553">
+        <v>0.69099998474121094</v>
+      </c>
+      <c r="D553">
+        <v>0.68199998140335083</v>
+      </c>
+      <c r="E553">
+        <v>0.68599998950958252</v>
+      </c>
+      <c r="F553">
+        <v>1982514</v>
+      </c>
+      <c r="G553">
+        <v>19825.140625</v>
+      </c>
+      <c r="H553">
+        <f t="shared" si="47"/>
+        <v>551</v>
+      </c>
+      <c r="I553">
+        <f>SUM($F$3:F553)/H553</f>
+        <v>4180882.3388725044</v>
+      </c>
+      <c r="N553">
+        <f t="shared" si="73"/>
+        <v>0.72600001096725464</v>
+      </c>
+      <c r="O553">
+        <f t="shared" si="74"/>
+        <v>0.67500001192092896</v>
+      </c>
+      <c r="P553">
+        <f t="shared" si="46"/>
+        <v>0.68633331855138147</v>
+      </c>
+      <c r="Q553">
+        <f t="shared" si="68"/>
+        <v>0.68909523742539558</v>
+      </c>
+      <c r="R553">
+        <f t="shared" si="69"/>
+        <v>-2.7619188740141132E-3</v>
+      </c>
+      <c r="S553">
+        <f t="shared" si="70"/>
+        <v>6.2176822399606967E-3</v>
+      </c>
+      <c r="T553">
+        <f t="shared" si="71"/>
+        <v>9.3265233599410441E-5</v>
+      </c>
+      <c r="U553">
+        <f t="shared" si="72"/>
+        <v>-29.613595199654036</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U553"/>
+  <dimension ref="A1:U554"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
-      <selection activeCell="A554" sqref="A554"/>
+    <sheetView tabSelected="1" topLeftCell="A540" workbookViewId="0">
+      <selection activeCell="A555" sqref="A555"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2138,7 +2138,7 @@
         <v>14.775725593667531</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44412</v>
       </c>
@@ -2168,6 +2168,12 @@
         <f>SUM($F$3:F30)/H30</f>
         <v>32156108.571428571</v>
       </c>
+      <c r="K30" s="2">
+        <v>45230</v>
+      </c>
+      <c r="L30" s="2">
+        <v>45208</v>
+      </c>
       <c r="N30">
         <f t="shared" si="9"/>
         <v>1.0469999999999999</v>
@@ -20573,7 +20579,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P553" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P554" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20683,7 +20689,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H553" si="47">H323+1</f>
+        <f t="shared" ref="H324:H554" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -33492,23 +33498,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q553" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q554" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R553" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R554" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S553" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S554" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T553" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T554" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U553" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U554" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -33984,11 +33990,11 @@
         <v>4219019.7593222326</v>
       </c>
       <c r="N535">
-        <f t="shared" ref="N535:N553" si="73">IF(A535&lt;&gt;$K$29,MAX(N534,VLOOKUP(A535,A:C,3)),)</f>
+        <f t="shared" ref="N535:N554" si="73">IF(A535&lt;&gt;$K$29,MAX(N534,VLOOKUP(A535,A:C,3)),)</f>
         <v>0.72100001573562622</v>
       </c>
       <c r="O535">
-        <f t="shared" ref="O535:O553" si="74">IF(A535&lt;&gt;$K$29,MIN(O534,VLOOKUP(A535,A:D,4)),)</f>
+        <f t="shared" ref="O535:O554" si="74">IF(A535&lt;&gt;$K$29,MIN(O534,VLOOKUP(A535,A:D,4)),)</f>
         <v>0.7149999737739563</v>
       </c>
       <c r="P535">
@@ -35148,6 +35154,69 @@
       <c r="U553">
         <f t="shared" si="72"/>
         <v>-29.613595199654036</v>
+      </c>
+    </row>
+    <row r="554" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A554" s="1">
+        <v>45197</v>
+      </c>
+      <c r="B554">
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="C554">
+        <v>0.68699997663497925</v>
+      </c>
+      <c r="D554">
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="E554">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="F554">
+        <v>1644900</v>
+      </c>
+      <c r="G554">
+        <v>16449</v>
+      </c>
+      <c r="H554">
+        <f t="shared" si="47"/>
+        <v>552</v>
+      </c>
+      <c r="I554">
+        <f>SUM($F$3:F554)/H554</f>
+        <v>4176288.16796875</v>
+      </c>
+      <c r="N554">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="O554">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="P554">
+        <f t="shared" si="46"/>
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="Q554">
+        <f t="shared" si="68"/>
+        <v>0.68819047581581849</v>
+      </c>
+      <c r="R554">
+        <f t="shared" si="69"/>
+        <v>-3.190473431632701E-3</v>
+      </c>
+      <c r="S554">
+        <f t="shared" si="70"/>
+        <v>5.5101992321663429E-3</v>
+      </c>
+      <c r="T554">
+        <f t="shared" si="71"/>
+        <v>8.2652988482495137E-5</v>
+      </c>
+      <c r="U554">
+        <f t="shared" si="72"/>
+        <v>-38.600823638801678</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U554"/>
+  <dimension ref="A1:U570"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A540" workbookViewId="0">
-      <selection activeCell="A555" sqref="A555"/>
+    <sheetView tabSelected="1" topLeftCell="A551" workbookViewId="0">
+      <selection activeCell="A571" sqref="A571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -719,11 +719,11 @@
         <v>44501</v>
       </c>
       <c r="N6">
-        <f>IF(A6&lt;&gt;$K$2,MAX(N5,VLOOKUP(A6,A:C,3)),)</f>
+        <f t="shared" ref="N6:N26" si="2">IF(A6&lt;&gt;$K$2,MAX(N5,VLOOKUP(A6,A:C,3)),)</f>
         <v>1.0369999999999999</v>
       </c>
       <c r="O6">
-        <f>IF(A6&lt;&gt;$K$2,MIN(O5,VLOOKUP(A6,A:D,4)),)</f>
+        <f t="shared" ref="O6:O26" si="3">IF(A6&lt;&gt;$K$2,MIN(O5,VLOOKUP(A6,A:D,4)),)</f>
         <v>1.0209999999999999</v>
       </c>
       <c r="P6">
@@ -768,11 +768,11 @@
         <v>44531</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N26" si="2">IF(A7&lt;&gt;$K$2,MAX(N6,VLOOKUP(A7,A:C,3)),)</f>
+        <f t="shared" si="2"/>
         <v>1.0369999999999999</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O7:O26" si="3">IF(A7&lt;&gt;$K$2,MIN(O6,VLOOKUP(A7,A:D,4)),)</f>
+        <f t="shared" si="3"/>
         <v>0.997</v>
       </c>
       <c r="P7">
@@ -2037,11 +2037,11 @@
         <v>45139</v>
       </c>
       <c r="N28">
-        <f>IF(A28&lt;&gt;$K$3,MAX(N27,VLOOKUP(A28,A:C,3)),)</f>
+        <f t="shared" ref="N28:N48" si="9">IF(A28&lt;&gt;$K$3,MAX(N27,VLOOKUP(A28,A:C,3)),)</f>
         <v>1.0369999999999999</v>
       </c>
       <c r="O28">
-        <f>IF(A28&lt;&gt;$K$3,MIN(O27,VLOOKUP(A28,A:D,4)),)</f>
+        <f t="shared" ref="O28:O48" si="10">IF(A28&lt;&gt;$K$3,MIN(O27,VLOOKUP(A28,A:D,4)),)</f>
         <v>0.998</v>
       </c>
       <c r="P28">
@@ -2106,11 +2106,11 @@
         <v>45170</v>
       </c>
       <c r="N29">
-        <f t="shared" ref="N29:N48" si="9">IF(A29&lt;&gt;$K$3,MAX(N28,VLOOKUP(A29,A:C,3)),)</f>
+        <f t="shared" si="9"/>
         <v>1.0369999999999999</v>
       </c>
       <c r="O29">
-        <f t="shared" ref="O29:O48" si="10">IF(A29&lt;&gt;$K$3,MIN(O28,VLOOKUP(A29,A:D,4)),)</f>
+        <f t="shared" si="10"/>
         <v>0.998</v>
       </c>
       <c r="P29">
@@ -3435,11 +3435,11 @@
         <v>21135943.583333332</v>
       </c>
       <c r="N50">
-        <f>IF(A50&lt;&gt;$K$4,MAX(N49,VLOOKUP(A50,A:C,3)),)</f>
+        <f t="shared" ref="N50:N68" si="11">IF(A50&lt;&gt;$K$4,MAX(N49,VLOOKUP(A50,A:C,3)),)</f>
         <v>0.97199999999999998</v>
       </c>
       <c r="O50">
-        <f>IF(A50&lt;&gt;$K$4,MIN(O49,VLOOKUP(A50,A:D,4)),)</f>
+        <f t="shared" ref="O50:O68" si="12">IF(A50&lt;&gt;$K$4,MIN(O49,VLOOKUP(A50,A:D,4)),)</f>
         <v>0.94699999999999995</v>
       </c>
       <c r="P50">
@@ -3498,11 +3498,11 @@
         <v>20809208.632653061</v>
       </c>
       <c r="N51">
-        <f t="shared" ref="N51:N68" si="11">IF(A51&lt;&gt;$K$4,MAX(N50,VLOOKUP(A51,A:C,3)),)</f>
+        <f t="shared" si="11"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="O51">
-        <f t="shared" ref="O51:O68" si="12">IF(A51&lt;&gt;$K$4,MIN(O50,VLOOKUP(A51,A:D,4)),)</f>
+        <f t="shared" si="12"/>
         <v>0.94699999999999995</v>
       </c>
       <c r="P51">
@@ -20579,7 +20579,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P554" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P570" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20689,7 +20689,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H554" si="47">H323+1</f>
+        <f t="shared" ref="H324:H570" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -33498,23 +33498,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q554" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q570" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R554" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R570" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S554" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S570" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T554" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T570" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U554" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U570" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -33990,11 +33990,11 @@
         <v>4219019.7593222326</v>
       </c>
       <c r="N535">
-        <f t="shared" ref="N535:N554" si="73">IF(A535&lt;&gt;$K$29,MAX(N534,VLOOKUP(A535,A:C,3)),)</f>
+        <f t="shared" ref="N535:N553" si="73">IF(A535&lt;&gt;$K$29,MAX(N534,VLOOKUP(A535,A:C,3)),)</f>
         <v>0.72100001573562622</v>
       </c>
       <c r="O535">
-        <f t="shared" ref="O535:O554" si="74">IF(A535&lt;&gt;$K$29,MIN(O534,VLOOKUP(A535,A:D,4)),)</f>
+        <f t="shared" ref="O535:O553" si="74">IF(A535&lt;&gt;$K$29,MIN(O534,VLOOKUP(A535,A:D,4)),)</f>
         <v>0.7149999737739563</v>
       </c>
       <c r="P535">
@@ -35187,12 +35187,12 @@
         <v>4176288.16796875</v>
       </c>
       <c r="N554">
-        <f t="shared" si="73"/>
-        <v>0</v>
+        <f>VLOOKUP(L30,A:C,3)</f>
+        <v>0.68800002336502075</v>
       </c>
       <c r="O554">
-        <f t="shared" si="74"/>
-        <v>0</v>
+        <f>VLOOKUP(L30,A:D,4)</f>
+        <v>0.67799997329711914</v>
       </c>
       <c r="P554">
         <f t="shared" si="46"/>
@@ -35219,8 +35219,1017 @@
         <v>-38.600823638801678</v>
       </c>
     </row>
+    <row r="555" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A555" s="1">
+        <v>45208</v>
+      </c>
+      <c r="B555">
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="C555">
+        <v>0.68800002336502075</v>
+      </c>
+      <c r="D555">
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="E555">
+        <v>0.68599998950958252</v>
+      </c>
+      <c r="F555">
+        <v>3470304</v>
+      </c>
+      <c r="G555">
+        <v>34703.0390625</v>
+      </c>
+      <c r="H555">
+        <f t="shared" si="47"/>
+        <v>553</v>
+      </c>
+      <c r="I555">
+        <f>SUM($F$3:F555)/H555</f>
+        <v>4175011.523903707</v>
+      </c>
+      <c r="N555">
+        <f t="shared" ref="N555:N570" si="75">IF(A555&lt;&gt;$K$30,MAX(N554,VLOOKUP(A555,A:C,3)),)</f>
+        <v>0.68800002336502075</v>
+      </c>
+      <c r="O555">
+        <f t="shared" ref="O555:O570" si="76">IF(A555&lt;&gt;$K$30,MIN(O554,VLOOKUP(A555,A:D,4)),)</f>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="P555">
+        <f t="shared" si="46"/>
+        <v>0.6839999953905741</v>
+      </c>
+      <c r="Q555">
+        <f t="shared" si="68"/>
+        <v>0.68690476105326692</v>
+      </c>
+      <c r="R555">
+        <f t="shared" si="69"/>
+        <v>-2.9047656626928209E-3</v>
+      </c>
+      <c r="S555">
+        <f t="shared" si="70"/>
+        <v>4.2448964248708908E-3</v>
+      </c>
+      <c r="T555">
+        <f t="shared" si="71"/>
+        <v>6.3673446373063361E-5</v>
+      </c>
+      <c r="U555">
+        <f t="shared" si="72"/>
+        <v>-45.619733627637643</v>
+      </c>
+    </row>
+    <row r="556" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A556" s="1">
+        <v>45209</v>
+      </c>
+      <c r="B556">
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="C556">
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="D556">
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="E556">
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="F556">
+        <v>3837805</v>
+      </c>
+      <c r="G556">
+        <v>38378.05078125</v>
+      </c>
+      <c r="H556">
+        <f t="shared" si="47"/>
+        <v>554</v>
+      </c>
+      <c r="I556">
+        <f>SUM($F$3:F556)/H556</f>
+        <v>4174402.8478677799</v>
+      </c>
+      <c r="N556">
+        <f t="shared" si="75"/>
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="O556">
+        <f t="shared" si="76"/>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="P556">
+        <f t="shared" si="46"/>
+        <v>0.68566666046778357</v>
+      </c>
+      <c r="Q556">
+        <f t="shared" si="68"/>
+        <v>0.68564285692714499</v>
+      </c>
+      <c r="R556">
+        <f t="shared" si="69"/>
+        <v>2.3803540638578369E-5</v>
+      </c>
+      <c r="S556">
+        <f t="shared" si="70"/>
+        <v>2.6394538327950056E-3</v>
+      </c>
+      <c r="T556">
+        <f t="shared" si="71"/>
+        <v>3.9591807491925086E-5</v>
+      </c>
+      <c r="U556">
+        <f t="shared" si="72"/>
+        <v>0.60122389318631642</v>
+      </c>
+    </row>
+    <row r="557" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A557" s="1">
+        <v>45210</v>
+      </c>
+      <c r="B557">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="C557">
+        <v>0.68999999761581421</v>
+      </c>
+      <c r="D557">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="E557">
+        <v>0.68599998950958252</v>
+      </c>
+      <c r="F557">
+        <v>3807500</v>
+      </c>
+      <c r="G557">
+        <v>38075</v>
+      </c>
+      <c r="H557">
+        <f t="shared" si="47"/>
+        <v>555</v>
+      </c>
+      <c r="I557">
+        <f>SUM($F$3:F557)/H557</f>
+        <v>4173741.7616554056</v>
+      </c>
+      <c r="N557">
+        <f t="shared" si="75"/>
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="O557">
+        <f t="shared" si="76"/>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="P557">
+        <f t="shared" si="46"/>
+        <v>0.68699999650319421</v>
+      </c>
+      <c r="Q557">
+        <f t="shared" si="68"/>
+        <v>0.68502381018229896</v>
+      </c>
+      <c r="R557">
+        <f t="shared" si="69"/>
+        <v>1.9761863208952457E-3</v>
+      </c>
+      <c r="S557">
+        <f t="shared" si="70"/>
+        <v>1.9761891592116687E-3</v>
+      </c>
+      <c r="T557">
+        <f t="shared" si="71"/>
+        <v>2.9642837388175032E-5</v>
+      </c>
+      <c r="U557">
+        <f t="shared" si="72"/>
+        <v>66.666570916169306</v>
+      </c>
+    </row>
+    <row r="558" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A558" s="1">
+        <v>45211</v>
+      </c>
+      <c r="B558">
+        <v>0.68999999761581421</v>
+      </c>
+      <c r="C558">
+        <v>0.69099998474121094</v>
+      </c>
+      <c r="D558">
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="E558">
+        <v>0.68999999761581421</v>
+      </c>
+      <c r="F558">
+        <v>2504100</v>
+      </c>
+      <c r="G558">
+        <v>25041</v>
+      </c>
+      <c r="H558">
+        <f t="shared" si="47"/>
+        <v>556</v>
+      </c>
+      <c r="I558">
+        <f>SUM($F$3:F558)/H558</f>
+        <v>4170738.8088466725</v>
+      </c>
+      <c r="N558">
+        <f t="shared" si="75"/>
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="O558">
+        <f t="shared" si="76"/>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="P558">
+        <f t="shared" si="46"/>
+        <v>0.68866666158040368</v>
+      </c>
+      <c r="Q558">
+        <f t="shared" si="68"/>
+        <v>0.68490476267678402</v>
+      </c>
+      <c r="R558">
+        <f t="shared" si="69"/>
+        <v>3.7618989036196648E-3</v>
+      </c>
+      <c r="S558">
+        <f t="shared" si="70"/>
+        <v>1.8843529986686417E-3</v>
+      </c>
+      <c r="T558">
+        <f t="shared" si="71"/>
+        <v>2.8265294980029624E-5</v>
+      </c>
+      <c r="U558">
+        <f t="shared" si="72"/>
+        <v>133.09250465199716</v>
+      </c>
+    </row>
+    <row r="559" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A559" s="1">
+        <v>45212</v>
+      </c>
+      <c r="B559">
+        <v>0.68999999761581421</v>
+      </c>
+      <c r="C559">
+        <v>0.68999999761581421</v>
+      </c>
+      <c r="D559">
+        <v>0.67900002002716064</v>
+      </c>
+      <c r="E559">
+        <v>0.68199998140335083</v>
+      </c>
+      <c r="F559">
+        <v>4214900</v>
+      </c>
+      <c r="G559">
+        <v>42149</v>
+      </c>
+      <c r="H559">
+        <f t="shared" si="47"/>
+        <v>557</v>
+      </c>
+      <c r="I559">
+        <f>SUM($F$3:F559)/H559</f>
+        <v>4170818.092852334</v>
+      </c>
+      <c r="N559">
+        <f t="shared" si="75"/>
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="O559">
+        <f t="shared" si="76"/>
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="P559">
+        <f t="shared" si="46"/>
+        <v>0.68366666634877526</v>
+      </c>
+      <c r="Q559">
+        <f t="shared" si="68"/>
+        <v>0.68478571517126918</v>
+      </c>
+      <c r="R559">
+        <f t="shared" si="69"/>
+        <v>-1.1190488224939177E-3</v>
+      </c>
+      <c r="S559">
+        <f t="shared" si="70"/>
+        <v>1.959183183657049E-3</v>
+      </c>
+      <c r="T559">
+        <f t="shared" si="71"/>
+        <v>2.9387747754855734E-5</v>
+      </c>
+      <c r="U559">
+        <f t="shared" si="72"/>
+        <v>-38.078754174314611</v>
+      </c>
+    </row>
+    <row r="560" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A560" s="1">
+        <v>45215</v>
+      </c>
+      <c r="B560">
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="C560">
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="D560">
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="E560">
+        <v>0.67199999094009399</v>
+      </c>
+      <c r="F560">
+        <v>3185100</v>
+      </c>
+      <c r="G560">
+        <v>31851</v>
+      </c>
+      <c r="H560">
+        <f t="shared" si="47"/>
+        <v>558</v>
+      </c>
+      <c r="I560">
+        <f>SUM($F$3:F560)/H560</f>
+        <v>4169051.5729726702</v>
+      </c>
+      <c r="N560">
+        <f t="shared" si="75"/>
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="O560">
+        <f t="shared" si="76"/>
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="P560">
+        <f t="shared" si="46"/>
+        <v>0.67400000492731726</v>
+      </c>
+      <c r="Q560">
+        <f t="shared" si="68"/>
+        <v>0.6837857138542901</v>
+      </c>
+      <c r="R560">
+        <f t="shared" si="69"/>
+        <v>-9.7857089269728359E-3</v>
+      </c>
+      <c r="S560">
+        <f t="shared" si="70"/>
+        <v>2.6394538327950611E-3</v>
+      </c>
+      <c r="T560">
+        <f t="shared" si="71"/>
+        <v>3.9591807491925919E-5</v>
+      </c>
+      <c r="U560">
+        <f t="shared" si="72"/>
+        <v>-247.16499566150057</v>
+      </c>
+    </row>
+    <row r="561" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A561" s="1">
+        <v>45216</v>
+      </c>
+      <c r="B561">
+        <v>0.67199999094009399</v>
+      </c>
+      <c r="C561">
+        <v>0.67400002479553223</v>
+      </c>
+      <c r="D561">
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="E561">
+        <v>0.67199999094009399</v>
+      </c>
+      <c r="F561">
+        <v>3367605.75</v>
+      </c>
+      <c r="G561">
+        <v>33676.05859375</v>
+      </c>
+      <c r="H561">
+        <f t="shared" si="47"/>
+        <v>559</v>
+      </c>
+      <c r="I561">
+        <f>SUM($F$3:F561)/H561</f>
+        <v>4167617.8595147585</v>
+      </c>
+      <c r="N561">
+        <f t="shared" si="75"/>
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="O561">
+        <f t="shared" si="76"/>
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="P561">
+        <f t="shared" si="46"/>
+        <v>0.67200001080830896</v>
+      </c>
+      <c r="Q561">
+        <f t="shared" si="68"/>
+        <v>0.68292857209841418</v>
+      </c>
+      <c r="R561">
+        <f t="shared" si="69"/>
+        <v>-1.0928561290105221E-2</v>
+      </c>
+      <c r="S561">
+        <f t="shared" si="70"/>
+        <v>3.8163236209324191E-3</v>
+      </c>
+      <c r="T561">
+        <f t="shared" si="71"/>
+        <v>5.7244854313986283E-5</v>
+      </c>
+      <c r="U561">
+        <f t="shared" si="72"/>
+        <v>-190.90905935688812</v>
+      </c>
+    </row>
+    <row r="562" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A562" s="1">
+        <v>45217</v>
+      </c>
+      <c r="B562">
+        <v>0.67199999094009399</v>
+      </c>
+      <c r="C562">
+        <v>0.67199999094009399</v>
+      </c>
+      <c r="D562">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="E562">
+        <v>0.66500002145767212</v>
+      </c>
+      <c r="F562">
+        <v>4342700</v>
+      </c>
+      <c r="G562">
+        <v>43427</v>
+      </c>
+      <c r="H562">
+        <f t="shared" si="47"/>
+        <v>560</v>
+      </c>
+      <c r="I562">
+        <f>SUM($F$3:F562)/H562</f>
+        <v>4167930.5061941966</v>
+      </c>
+      <c r="N562">
+        <f t="shared" si="75"/>
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="O562">
+        <f t="shared" si="76"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="P562">
+        <f t="shared" si="46"/>
+        <v>0.66699999570846558</v>
+      </c>
+      <c r="Q562">
+        <f t="shared" si="68"/>
+        <v>0.68188095234689261</v>
+      </c>
+      <c r="R562">
+        <f t="shared" si="69"/>
+        <v>-1.4880956638427034E-2</v>
+      </c>
+      <c r="S562">
+        <f t="shared" si="70"/>
+        <v>5.3129232659631809E-3</v>
+      </c>
+      <c r="T562">
+        <f t="shared" si="71"/>
+        <v>7.9693848989447711E-5</v>
+      </c>
+      <c r="U562">
+        <f t="shared" si="72"/>
+        <v>-186.72653946476379</v>
+      </c>
+    </row>
+    <row r="563" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A563" s="1">
+        <v>45218</v>
+      </c>
+      <c r="B563">
+        <v>0.6600000262260437</v>
+      </c>
+      <c r="C563">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="D563">
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="E563">
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="F563">
+        <v>2865108</v>
+      </c>
+      <c r="G563">
+        <v>28651.080078125</v>
+      </c>
+      <c r="H563">
+        <f t="shared" si="47"/>
+        <v>561</v>
+      </c>
+      <c r="I563">
+        <f>SUM($F$3:F563)/H563</f>
+        <v>4165608.1844362747</v>
+      </c>
+      <c r="N563">
+        <f t="shared" si="75"/>
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="O563">
+        <f t="shared" si="76"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="P563">
+        <f t="shared" si="46"/>
+        <v>0.65699998537699378</v>
+      </c>
+      <c r="Q563">
+        <f t="shared" si="68"/>
+        <v>0.68042857022512515</v>
+      </c>
+      <c r="R563">
+        <f t="shared" si="69"/>
+        <v>-2.3428584848131373E-2</v>
+      </c>
+      <c r="S563">
+        <f t="shared" si="70"/>
+        <v>7.3877548684879802E-3</v>
+      </c>
+      <c r="T563">
+        <f t="shared" si="71"/>
+        <v>1.108163230273197E-4</v>
+      </c>
+      <c r="U563">
+        <f t="shared" si="72"/>
+        <v>-211.41817566312403</v>
+      </c>
+    </row>
+    <row r="564" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A564" s="1">
+        <v>45219</v>
+      </c>
+      <c r="B564">
+        <v>0.65200001001358032</v>
+      </c>
+      <c r="C564">
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="D564">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="E564">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="F564">
+        <v>3652507.75</v>
+      </c>
+      <c r="G564">
+        <v>36525.078125</v>
+      </c>
+      <c r="H564">
+        <f t="shared" si="47"/>
+        <v>562</v>
+      </c>
+      <c r="I564">
+        <f>SUM($F$3:F564)/H564</f>
+        <v>4164695.1943394127</v>
+      </c>
+      <c r="N564">
+        <f t="shared" si="75"/>
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="O564">
+        <f t="shared" si="76"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="P564">
+        <f t="shared" si="46"/>
+        <v>0.64966664711634314</v>
+      </c>
+      <c r="Q564">
+        <f t="shared" si="68"/>
+        <v>0.67790475913456494</v>
+      </c>
+      <c r="R564">
+        <f t="shared" si="69"/>
+        <v>-2.8238112018221795E-2</v>
+      </c>
+      <c r="S564">
+        <f t="shared" si="70"/>
+        <v>9.97959310505671E-3</v>
+      </c>
+      <c r="T564">
+        <f t="shared" si="71"/>
+        <v>1.4969389657585065E-4</v>
+      </c>
+      <c r="U564">
+        <f t="shared" si="72"/>
+        <v>-188.63903381600733</v>
+      </c>
+    </row>
+    <row r="565" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A565" s="1">
+        <v>45222</v>
+      </c>
+      <c r="B565">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C565">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="D565">
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="E565">
+        <v>0.63899999856948853</v>
+      </c>
+      <c r="F565">
+        <v>2503606</v>
+      </c>
+      <c r="G565">
+        <v>25036.060546875</v>
+      </c>
+      <c r="H565">
+        <f t="shared" si="47"/>
+        <v>563</v>
+      </c>
+      <c r="I565">
+        <f>SUM($F$3:F565)/H565</f>
+        <v>4161744.769482682</v>
+      </c>
+      <c r="N565">
+        <f t="shared" si="75"/>
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="O565">
+        <f t="shared" si="76"/>
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="P565">
+        <f t="shared" si="46"/>
+        <v>0.64066668351491296</v>
+      </c>
+      <c r="Q565">
+        <f t="shared" si="68"/>
+        <v>0.67464285521280198</v>
+      </c>
+      <c r="R565">
+        <f t="shared" si="69"/>
+        <v>-3.3976171697889024E-2</v>
+      </c>
+      <c r="S565">
+        <f t="shared" si="70"/>
+        <v>1.250340054635289E-2</v>
+      </c>
+      <c r="T565">
+        <f t="shared" si="71"/>
+        <v>1.8755100819529334E-4</v>
+      </c>
+      <c r="U565">
+        <f t="shared" si="72"/>
+        <v>-181.15696644248521</v>
+      </c>
+    </row>
+    <row r="566" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A566" s="1">
+        <v>45223</v>
+      </c>
+      <c r="B566">
+        <v>0.64099997282028198</v>
+      </c>
+      <c r="C566">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="D566">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="E566">
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="F566">
+        <v>3562200</v>
+      </c>
+      <c r="G566">
+        <v>35622</v>
+      </c>
+      <c r="H566">
+        <f t="shared" si="47"/>
+        <v>564</v>
+      </c>
+      <c r="I566">
+        <f>SUM($F$3:F566)/H566</f>
+        <v>4160681.7468417552</v>
+      </c>
+      <c r="N566">
+        <f t="shared" si="75"/>
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="O566">
+        <f t="shared" si="76"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="P566">
+        <f t="shared" si="46"/>
+        <v>0.64133334159851074</v>
+      </c>
+      <c r="Q566">
+        <f t="shared" si="68"/>
+        <v>0.67157142644836798</v>
+      </c>
+      <c r="R566">
+        <f t="shared" si="69"/>
+        <v>-3.0238084849857239E-2</v>
+      </c>
+      <c r="S566">
+        <f t="shared" si="70"/>
+        <v>1.4598639846659014E-2</v>
+      </c>
+      <c r="T566">
+        <f t="shared" si="71"/>
+        <v>2.189795976998852E-4</v>
+      </c>
+      <c r="U566">
+        <f t="shared" si="72"/>
+        <v>-138.08631108775251</v>
+      </c>
+    </row>
+    <row r="567" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A567" s="1">
+        <v>45224</v>
+      </c>
+      <c r="B567">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="C567">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="D567">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="E567">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="F567">
+        <v>2452600</v>
+      </c>
+      <c r="G567">
+        <v>24526</v>
+      </c>
+      <c r="H567">
+        <f t="shared" si="47"/>
+        <v>565</v>
+      </c>
+      <c r="I567">
+        <f>SUM($F$3:F567)/H567</f>
+        <v>4157658.5933075221</v>
+      </c>
+      <c r="N567">
+        <f t="shared" si="75"/>
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="O567">
+        <f t="shared" si="76"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="P567">
+        <f t="shared" si="46"/>
+        <v>0.64533332983652747</v>
+      </c>
+      <c r="Q567">
+        <f t="shared" si="68"/>
+        <v>0.66864285582587824</v>
+      </c>
+      <c r="R567">
+        <f t="shared" si="69"/>
+        <v>-2.3309525989350766E-2</v>
+      </c>
+      <c r="S567">
+        <f t="shared" si="70"/>
+        <v>1.5836735971930908E-2</v>
+      </c>
+      <c r="T567">
+        <f t="shared" si="71"/>
+        <v>2.375510395789636E-4</v>
+      </c>
+      <c r="U567">
+        <f t="shared" si="72"/>
+        <v>-98.124285335331138</v>
+      </c>
+    </row>
+    <row r="568" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A568" s="1">
+        <v>45225</v>
+      </c>
+      <c r="B568">
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="C568">
+        <v>0.64399999380111694</v>
+      </c>
+      <c r="D568">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="E568">
+        <v>0.64399999380111694</v>
+      </c>
+      <c r="F568">
+        <v>1588519</v>
+      </c>
+      <c r="G568">
+        <v>15885.1904296875</v>
+      </c>
+      <c r="H568">
+        <f t="shared" si="47"/>
+        <v>566</v>
+      </c>
+      <c r="I568">
+        <f>SUM($F$3:F568)/H568</f>
+        <v>4153119.4774182863</v>
+      </c>
+      <c r="N568">
+        <f t="shared" si="75"/>
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="O568">
+        <f t="shared" si="76"/>
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="P568">
+        <f t="shared" si="46"/>
+        <v>0.64099999268849694</v>
+      </c>
+      <c r="Q568">
+        <f t="shared" si="68"/>
+        <v>0.66549999799047199</v>
+      </c>
+      <c r="R568">
+        <f t="shared" si="69"/>
+        <v>-2.4500005301975047E-2</v>
+      </c>
+      <c r="S568">
+        <f t="shared" si="70"/>
+        <v>1.6857143973006687E-2</v>
+      </c>
+      <c r="T568">
+        <f t="shared" si="71"/>
+        <v>2.5285715959510031E-4</v>
+      </c>
+      <c r="U568">
+        <f t="shared" si="72"/>
+        <v>-96.892669921654019</v>
+      </c>
+    </row>
+    <row r="569" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A569" s="1">
+        <v>45226</v>
+      </c>
+      <c r="B569">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="C569">
+        <v>0.66200000047683716</v>
+      </c>
+      <c r="D569">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="E569">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="F569">
+        <v>3387300</v>
+      </c>
+      <c r="G569">
+        <v>33873</v>
+      </c>
+      <c r="H569">
+        <f t="shared" si="47"/>
+        <v>567</v>
+      </c>
+      <c r="I569">
+        <f>SUM($F$3:F569)/H569</f>
+        <v>4151768.8257826278</v>
+      </c>
+      <c r="N569">
+        <f t="shared" si="75"/>
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="O569">
+        <f t="shared" si="76"/>
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="P569">
+        <f t="shared" si="46"/>
+        <v>0.65466666221618652</v>
+      </c>
+      <c r="Q569">
+        <f t="shared" si="68"/>
+        <v>0.6634047599065872</v>
+      </c>
+      <c r="R569">
+        <f t="shared" si="69"/>
+        <v>-8.7380976904006813E-3</v>
+      </c>
+      <c r="S569">
+        <f t="shared" si="70"/>
+        <v>1.6309525285448354E-2</v>
+      </c>
+      <c r="T569">
+        <f t="shared" si="71"/>
+        <v>2.4464287928172533E-4</v>
+      </c>
+      <c r="U569">
+        <f t="shared" si="72"/>
+        <v>-35.717768348933149</v>
+      </c>
+    </row>
+    <row r="570" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A570" s="1">
+        <v>45229</v>
+      </c>
+      <c r="B570">
+        <v>0.6600000262260437</v>
+      </c>
+      <c r="C570">
+        <v>0.67100000381469727</v>
+      </c>
+      <c r="D570">
+        <v>0.6600000262260437</v>
+      </c>
+      <c r="E570">
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="F570">
+        <v>4676300</v>
+      </c>
+      <c r="G570">
+        <v>46763</v>
+      </c>
+      <c r="H570">
+        <f t="shared" si="47"/>
+        <v>568</v>
+      </c>
+      <c r="I570">
+        <f>SUM($F$3:F570)/H570</f>
+        <v>4152692.2961597713</v>
+      </c>
+      <c r="N570">
+        <f t="shared" si="75"/>
+        <v>0.69499999284744263</v>
+      </c>
+      <c r="O570">
+        <f t="shared" si="76"/>
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="P570">
+        <f t="shared" si="46"/>
+        <v>0.66700001557668054</v>
+      </c>
+      <c r="Q570">
+        <f t="shared" si="68"/>
+        <v>0.66207142812865138</v>
+      </c>
+      <c r="R570">
+        <f t="shared" si="69"/>
+        <v>4.9285874480291536E-3</v>
+      </c>
+      <c r="S570">
+        <f t="shared" si="70"/>
+        <v>1.4976193507512423E-2</v>
+      </c>
+      <c r="T570">
+        <f t="shared" si="71"/>
+        <v>2.2464290261268633E-4</v>
+      </c>
+      <c r="U570">
+        <f t="shared" si="72"/>
+        <v>21.939653515458183</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U570"/>
+  <dimension ref="A1:U571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A551" workbookViewId="0">
-      <selection activeCell="A571" sqref="A571"/>
+    <sheetView tabSelected="1" topLeftCell="A557" workbookViewId="0">
+      <selection activeCell="A572" sqref="A572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2207,7 +2207,7 @@
         <v>76.452599388379596</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44413</v>
       </c>
@@ -2237,6 +2237,12 @@
         <f>SUM($F$3:F31)/H31</f>
         <v>31326125.310344826</v>
       </c>
+      <c r="K31" s="2">
+        <v>45260</v>
+      </c>
+      <c r="L31" s="2">
+        <v>45231</v>
+      </c>
       <c r="N31">
         <f t="shared" si="9"/>
         <v>1.0469999999999999</v>
@@ -20579,7 +20585,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P570" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P571" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20689,7 +20695,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H570" si="47">H323+1</f>
+        <f t="shared" ref="H324:H571" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -33498,23 +33504,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q570" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q571" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R570" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R571" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S570" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S571" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T570" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T571" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U570" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U571" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -35250,11 +35256,11 @@
         <v>4175011.523903707</v>
       </c>
       <c r="N555">
-        <f t="shared" ref="N555:N570" si="75">IF(A555&lt;&gt;$K$30,MAX(N554,VLOOKUP(A555,A:C,3)),)</f>
+        <f t="shared" ref="N555:N571" si="75">IF(A555&lt;&gt;$K$30,MAX(N554,VLOOKUP(A555,A:C,3)),)</f>
         <v>0.68800002336502075</v>
       </c>
       <c r="O555">
-        <f t="shared" ref="O555:O570" si="76">IF(A555&lt;&gt;$K$30,MIN(O554,VLOOKUP(A555,A:D,4)),)</f>
+        <f t="shared" ref="O555:O571" si="76">IF(A555&lt;&gt;$K$30,MIN(O554,VLOOKUP(A555,A:D,4)),)</f>
         <v>0.67799997329711914</v>
       </c>
       <c r="P555">
@@ -36225,6 +36231,69 @@
       <c r="U570">
         <f t="shared" si="72"/>
         <v>21.939653515458183</v>
+      </c>
+    </row>
+    <row r="571" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A571" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B571">
+        <v>0.67699998617172241</v>
+      </c>
+      <c r="C571">
+        <v>0.67699998617172241</v>
+      </c>
+      <c r="D571">
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="E571">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="F571">
+        <v>3279702</v>
+      </c>
+      <c r="G571">
+        <v>32797.01953125</v>
+      </c>
+      <c r="H571">
+        <f t="shared" si="47"/>
+        <v>569</v>
+      </c>
+      <c r="I571">
+        <f>SUM($F$3:F571)/H571</f>
+        <v>4151158.042563708</v>
+      </c>
+      <c r="N571">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="O571">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="P571">
+        <f t="shared" si="46"/>
+        <v>0.66266665856043494</v>
+      </c>
+      <c r="Q571">
+        <f t="shared" si="68"/>
+        <v>0.66033333256131133</v>
+      </c>
+      <c r="R571">
+        <f t="shared" si="69"/>
+        <v>2.3333259991236144E-3</v>
+      </c>
+      <c r="S571">
+        <f t="shared" si="70"/>
+        <v>1.3238097940172475E-2</v>
+      </c>
+      <c r="T571">
+        <f t="shared" si="71"/>
+        <v>1.9857146910258713E-4</v>
+      </c>
+      <c r="U571">
+        <f t="shared" si="72"/>
+        <v>11.750560187063723</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U571"/>
+  <dimension ref="A1:U592"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A557" workbookViewId="0">
-      <selection activeCell="A572" sqref="A572"/>
+    <sheetView tabSelected="1" topLeftCell="A572" workbookViewId="0">
+      <selection activeCell="A593" sqref="A593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20585,7 +20585,7 @@
         <v>0.67799997329711914</v>
       </c>
       <c r="P322">
-        <f t="shared" ref="P322:P571" si="46">(C322+D322+E322)/3</f>
+        <f t="shared" ref="P322:P576" si="46">(C322+D322+E322)/3</f>
         <v>0.71466666460037231</v>
       </c>
       <c r="Q322">
@@ -20695,7 +20695,7 @@
         <v>3848.76708984375</v>
       </c>
       <c r="H324">
-        <f t="shared" ref="H324:H571" si="47">H323+1</f>
+        <f t="shared" ref="H324:H578" si="47">H323+1</f>
         <v>322</v>
       </c>
       <c r="I324">
@@ -33504,23 +33504,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q571" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q592" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R571" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R592" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S571" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S592" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T571" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T592" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U571" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U592" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -35256,11 +35256,11 @@
         <v>4175011.523903707</v>
       </c>
       <c r="N555">
-        <f t="shared" ref="N555:N571" si="75">IF(A555&lt;&gt;$K$30,MAX(N554,VLOOKUP(A555,A:C,3)),)</f>
+        <f t="shared" ref="N555:N570" si="75">IF(A555&lt;&gt;$K$30,MAX(N554,VLOOKUP(A555,A:C,3)),)</f>
         <v>0.68800002336502075</v>
       </c>
       <c r="O555">
-        <f t="shared" ref="O555:O571" si="76">IF(A555&lt;&gt;$K$30,MIN(O554,VLOOKUP(A555,A:D,4)),)</f>
+        <f t="shared" ref="O555:O570" si="76">IF(A555&lt;&gt;$K$30,MIN(O554,VLOOKUP(A555,A:D,4)),)</f>
         <v>0.67799997329711914</v>
       </c>
       <c r="P555">
@@ -36264,12 +36264,12 @@
         <v>4151158.042563708</v>
       </c>
       <c r="N571">
-        <f t="shared" si="75"/>
-        <v>0</v>
+        <f>VLOOKUP(L31,A:C,3)</f>
+        <v>0.66299998760223389</v>
       </c>
       <c r="O571">
-        <f t="shared" si="76"/>
-        <v>0</v>
+        <f>VLOOKUP(L31,A:D,4)</f>
+        <v>0.65700000524520874</v>
       </c>
       <c r="P571">
         <f t="shared" si="46"/>
@@ -36294,6 +36294,1329 @@
       <c r="U571">
         <f t="shared" si="72"/>
         <v>11.750560187063723</v>
+      </c>
+    </row>
+    <row r="572" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A572" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B572">
+        <v>0.6600000262260437</v>
+      </c>
+      <c r="C572">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="D572">
+        <v>0.65700000524520874</v>
+      </c>
+      <c r="E572">
+        <v>0.6600000262260437</v>
+      </c>
+      <c r="F572">
+        <v>2258500</v>
+      </c>
+      <c r="G572">
+        <v>22585</v>
+      </c>
+      <c r="H572">
+        <f t="shared" si="47"/>
+        <v>570</v>
+      </c>
+      <c r="I572">
+        <f>SUM($F$3:F572)/H572</f>
+        <v>4147837.5898574563</v>
+      </c>
+      <c r="N572">
+        <f t="shared" ref="N572:N592" si="77">IF(A572&lt;&gt;$K$31,MAX(N571,VLOOKUP(A572,A:C,3)),)</f>
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="O572">
+        <f t="shared" ref="O572:O592" si="78">IF(A572&lt;&gt;$K$31,MIN(O571,VLOOKUP(A572,A:D,4)),)</f>
+        <v>0.65700000524520874</v>
+      </c>
+      <c r="P572">
+        <f t="shared" si="46"/>
+        <v>0.66000000635782874</v>
+      </c>
+      <c r="Q572">
+        <f t="shared" si="68"/>
+        <v>0.65828571433112726</v>
+      </c>
+      <c r="R572">
+        <f t="shared" si="69"/>
+        <v>1.7142920267014805E-3</v>
+      </c>
+      <c r="S572">
+        <f t="shared" si="70"/>
+        <v>1.1190479709988552E-2</v>
+      </c>
+      <c r="T572">
+        <f t="shared" si="71"/>
+        <v>1.6785719564982828E-4</v>
+      </c>
+      <c r="U572">
+        <f t="shared" si="72"/>
+        <v>10.212800351304059</v>
+      </c>
+    </row>
+    <row r="573" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A573" s="1">
+        <v>45232</v>
+      </c>
+      <c r="B573">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C573">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="D573">
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="E573">
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="F573">
+        <v>2110200</v>
+      </c>
+      <c r="G573">
+        <v>21102</v>
+      </c>
+      <c r="H573">
+        <f t="shared" si="47"/>
+        <v>571</v>
+      </c>
+      <c r="I573">
+        <f>SUM($F$3:F573)/H573</f>
+        <v>4144269.0476685641</v>
+      </c>
+      <c r="N573">
+        <f t="shared" si="77"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O573">
+        <f t="shared" si="78"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="P573">
+        <f t="shared" si="46"/>
+        <v>0.65733331441879272</v>
+      </c>
+      <c r="Q573">
+        <f t="shared" si="68"/>
+        <v>0.65640476062184283</v>
+      </c>
+      <c r="R573">
+        <f t="shared" si="69"/>
+        <v>9.285537969498936E-4</v>
+      </c>
+      <c r="S573">
+        <f t="shared" si="70"/>
+        <v>9.3945581085827911E-3</v>
+      </c>
+      <c r="T573">
+        <f t="shared" si="71"/>
+        <v>1.4091837162874185E-4</v>
+      </c>
+      <c r="U573">
+        <f t="shared" si="72"/>
+        <v>6.5893026311446876</v>
+      </c>
+    </row>
+    <row r="574" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A574" s="1">
+        <v>45233</v>
+      </c>
+      <c r="B574">
+        <v>0.65799999237060547</v>
+      </c>
+      <c r="C574">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="D574">
+        <v>0.65799999237060547</v>
+      </c>
+      <c r="E574">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="F574">
+        <v>2500506</v>
+      </c>
+      <c r="G574">
+        <v>25005.060546875</v>
+      </c>
+      <c r="H574">
+        <f t="shared" si="47"/>
+        <v>572</v>
+      </c>
+      <c r="I574">
+        <f>SUM($F$3:F574)/H574</f>
+        <v>4141395.3360467656</v>
+      </c>
+      <c r="N574">
+        <f t="shared" si="77"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O574">
+        <f t="shared" si="78"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="P574">
+        <f t="shared" si="46"/>
+        <v>0.66166665156682336</v>
+      </c>
+      <c r="Q574">
+        <f t="shared" si="68"/>
+        <v>0.65552380681037914</v>
+      </c>
+      <c r="R574">
+        <f t="shared" si="69"/>
+        <v>6.1428447564442212E-3</v>
+      </c>
+      <c r="S574">
+        <f t="shared" si="70"/>
+        <v>8.6394548416137539E-3</v>
+      </c>
+      <c r="T574">
+        <f t="shared" si="71"/>
+        <v>1.295918226242063E-4</v>
+      </c>
+      <c r="U574">
+        <f t="shared" si="72"/>
+        <v>47.4014843842223</v>
+      </c>
+    </row>
+    <row r="575" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A575" s="1">
+        <v>45236</v>
+      </c>
+      <c r="B575">
+        <v>0.66699999570846558</v>
+      </c>
+      <c r="C575">
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="D575">
+        <v>0.66699999570846558</v>
+      </c>
+      <c r="E575">
+        <v>0.67900002002716064</v>
+      </c>
+      <c r="F575">
+        <v>4370708</v>
+      </c>
+      <c r="G575">
+        <v>43707.078125</v>
+      </c>
+      <c r="H575">
+        <f t="shared" si="47"/>
+        <v>573</v>
+      </c>
+      <c r="I575">
+        <f>SUM($F$3:F575)/H575</f>
+        <v>4141795.5326679754</v>
+      </c>
+      <c r="N575">
+        <f t="shared" si="77"/>
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="O575">
+        <f t="shared" si="78"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="P575">
+        <f t="shared" si="46"/>
+        <v>0.6753333409627279</v>
+      </c>
+      <c r="Q575">
+        <f t="shared" si="68"/>
+        <v>0.65576190182140892</v>
+      </c>
+      <c r="R575">
+        <f t="shared" si="69"/>
+        <v>1.957143914131898E-2</v>
+      </c>
+      <c r="S575">
+        <f t="shared" si="70"/>
+        <v>8.8435362796394235E-3</v>
+      </c>
+      <c r="T575">
+        <f t="shared" si="71"/>
+        <v>1.3265304419459134E-4</v>
+      </c>
+      <c r="U575">
+        <f t="shared" si="72"/>
+        <v>147.53856016006128</v>
+      </c>
+    </row>
+    <row r="576" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A576" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B576">
+        <v>0.67900002002716064</v>
+      </c>
+      <c r="C576">
+        <v>0.67900002002716064</v>
+      </c>
+      <c r="D576">
+        <v>0.67400002479553223</v>
+      </c>
+      <c r="E576">
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="F576">
+        <v>1463012</v>
+      </c>
+      <c r="G576">
+        <v>14630.1201171875</v>
+      </c>
+      <c r="H576">
+        <f t="shared" si="47"/>
+        <v>574</v>
+      </c>
+      <c r="I576">
+        <f>SUM($F$3:F576)/H576</f>
+        <v>4137128.6624020035</v>
+      </c>
+      <c r="N576">
+        <f t="shared" si="77"/>
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="O576">
+        <f t="shared" si="78"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="P576">
+        <f t="shared" si="46"/>
+        <v>0.67700000603993737</v>
+      </c>
+      <c r="Q576">
+        <f t="shared" si="68"/>
+        <v>0.65647618827365695</v>
+      </c>
+      <c r="R576">
+        <f t="shared" si="69"/>
+        <v>2.0523817766280428E-2</v>
+      </c>
+      <c r="S576">
+        <f t="shared" si="70"/>
+        <v>9.4557818101376912E-3</v>
+      </c>
+      <c r="T576">
+        <f t="shared" si="71"/>
+        <v>1.4183672715206537E-4</v>
+      </c>
+      <c r="U576">
+        <f t="shared" si="72"/>
+        <v>144.70030561461365</v>
+      </c>
+    </row>
+    <row r="577" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A577" s="1">
+        <v>45238</v>
+      </c>
+      <c r="B577">
+        <v>0.67699998617172241</v>
+      </c>
+      <c r="C577">
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="D577">
+        <v>0.67400002479553223</v>
+      </c>
+      <c r="E577">
+        <v>0.67699998617172241</v>
+      </c>
+      <c r="F577">
+        <v>4474600</v>
+      </c>
+      <c r="G577">
+        <v>44746</v>
+      </c>
+      <c r="H577">
+        <f t="shared" si="47"/>
+        <v>575</v>
+      </c>
+      <c r="I577">
+        <f>SUM($F$3:F577)/H577</f>
+        <v>4137715.5690760869</v>
+      </c>
+      <c r="N577">
+        <f t="shared" si="77"/>
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="O577">
+        <f t="shared" si="78"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="P577">
+        <f t="shared" ref="P577:P592" si="79">(C577+D577+E577)/3</f>
+        <v>0.67700000603993737</v>
+      </c>
+      <c r="Q577">
+        <f t="shared" si="68"/>
+        <v>0.65790476117815289</v>
+      </c>
+      <c r="R577">
+        <f t="shared" si="69"/>
+        <v>1.9095244861784488E-2</v>
+      </c>
+      <c r="S577">
+        <f t="shared" si="70"/>
+        <v>1.0761908122471409E-2</v>
+      </c>
+      <c r="T577">
+        <f t="shared" si="71"/>
+        <v>1.6142862183707112E-4</v>
+      </c>
+      <c r="U577">
+        <f t="shared" si="72"/>
+        <v>118.28909052483392</v>
+      </c>
+    </row>
+    <row r="578" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A578" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B578">
+        <v>0.67900002002716064</v>
+      </c>
+      <c r="C578">
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="D578">
+        <v>0.67500001192092896</v>
+      </c>
+      <c r="E578">
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="F578">
+        <v>3878505.75</v>
+      </c>
+      <c r="G578">
+        <v>38785.05859375</v>
+      </c>
+      <c r="H578">
+        <f t="shared" si="47"/>
+        <v>576</v>
+      </c>
+      <c r="I578">
+        <f>SUM($F$3:F578)/H578</f>
+        <v>4137265.5520290798</v>
+      </c>
+      <c r="N578">
+        <f t="shared" si="77"/>
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="O578">
+        <f t="shared" si="78"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="P578">
+        <f t="shared" si="79"/>
+        <v>0.67766666412353516</v>
+      </c>
+      <c r="Q578">
+        <f t="shared" si="68"/>
+        <v>0.65990476239295237</v>
+      </c>
+      <c r="R578">
+        <f t="shared" si="69"/>
+        <v>1.7761901730582785E-2</v>
+      </c>
+      <c r="S578">
+        <f t="shared" si="70"/>
+        <v>1.1299321440612378E-2</v>
+      </c>
+      <c r="T578">
+        <f t="shared" si="71"/>
+        <v>1.6948982160918565E-4</v>
+      </c>
+      <c r="U578">
+        <f t="shared" si="72"/>
+        <v>104.79627367558787</v>
+      </c>
+    </row>
+    <row r="579" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A579" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B579">
+        <v>0.67500001192092896</v>
+      </c>
+      <c r="C579">
+        <v>0.67500001192092896</v>
+      </c>
+      <c r="D579">
+        <v>0.67100000381469727</v>
+      </c>
+      <c r="E579">
+        <v>0.67400002479553223</v>
+      </c>
+      <c r="F579">
+        <v>4207200</v>
+      </c>
+      <c r="G579">
+        <v>42072</v>
+      </c>
+      <c r="H579">
+        <f t="shared" ref="H579:H592" si="80">H578+1</f>
+        <v>577</v>
+      </c>
+      <c r="I579">
+        <f>SUM($F$3:F579)/H579</f>
+        <v>4137386.7555784229</v>
+      </c>
+      <c r="N579">
+        <f t="shared" si="77"/>
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="O579">
+        <f t="shared" si="78"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="P579">
+        <f t="shared" si="79"/>
+        <v>0.67333334684371948</v>
+      </c>
+      <c r="Q579">
+        <f t="shared" si="68"/>
+        <v>0.66223809548786705</v>
+      </c>
+      <c r="R579">
+        <f t="shared" si="69"/>
+        <v>1.1095251355852431E-2</v>
+      </c>
+      <c r="S579">
+        <f t="shared" si="70"/>
+        <v>1.0619052818843304E-2</v>
+      </c>
+      <c r="T579">
+        <f t="shared" si="71"/>
+        <v>1.5928579228264957E-4</v>
+      </c>
+      <c r="U579">
+        <f t="shared" si="72"/>
+        <v>69.656252430625585</v>
+      </c>
+    </row>
+    <row r="580" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A580" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B580">
+        <v>0.67299997806549072</v>
+      </c>
+      <c r="C580">
+        <v>0.67699998617172241</v>
+      </c>
+      <c r="D580">
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="E580">
+        <v>0.67199999094009399</v>
+      </c>
+      <c r="F580">
+        <v>3385907</v>
+      </c>
+      <c r="G580">
+        <v>33859.0703125</v>
+      </c>
+      <c r="H580">
+        <f t="shared" si="80"/>
+        <v>578</v>
+      </c>
+      <c r="I580">
+        <f>SUM($F$3:F580)/H580</f>
+        <v>4136086.6175929932</v>
+      </c>
+      <c r="N580">
+        <f t="shared" si="77"/>
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="O580">
+        <f t="shared" si="78"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="P580">
+        <f t="shared" si="79"/>
+        <v>0.67299999793370568</v>
+      </c>
+      <c r="Q580">
+        <f t="shared" si="68"/>
+        <v>0.66449999951180949</v>
+      </c>
+      <c r="R580">
+        <f t="shared" si="69"/>
+        <v>8.4999984218961933E-3</v>
+      </c>
+      <c r="S580">
+        <f t="shared" si="70"/>
+        <v>9.8333401339394857E-3</v>
+      </c>
+      <c r="T580">
+        <f t="shared" si="71"/>
+        <v>1.4750010200909229E-4</v>
+      </c>
+      <c r="U580">
+        <f t="shared" si="72"/>
+        <v>57.62706809092397</v>
+      </c>
+    </row>
+    <row r="581" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A581" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B581">
+        <v>0.67500001192092896</v>
+      </c>
+      <c r="C581">
+        <v>0.67699998617172241</v>
+      </c>
+      <c r="D581">
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="E581">
+        <v>0.67199999094009399</v>
+      </c>
+      <c r="F581">
+        <v>4337600</v>
+      </c>
+      <c r="G581">
+        <v>43376</v>
+      </c>
+      <c r="H581">
+        <f t="shared" si="80"/>
+        <v>579</v>
+      </c>
+      <c r="I581">
+        <f>SUM($F$3:F581)/H581</f>
+        <v>4136434.6545228842</v>
+      </c>
+      <c r="N581">
+        <f t="shared" si="77"/>
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="O581">
+        <f t="shared" si="78"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="P581">
+        <f t="shared" si="79"/>
+        <v>0.67299999793370568</v>
+      </c>
+      <c r="Q581">
+        <f t="shared" si="68"/>
+        <v>0.66647619009017944</v>
+      </c>
+      <c r="R581">
+        <f t="shared" si="69"/>
+        <v>6.5238078435262414E-3</v>
+      </c>
+      <c r="S581">
+        <f t="shared" si="70"/>
+        <v>8.789122104644791E-3</v>
+      </c>
+      <c r="T581">
+        <f t="shared" si="71"/>
+        <v>1.3183683156967185E-4</v>
+      </c>
+      <c r="U581">
+        <f t="shared" si="72"/>
+        <v>49.483955021162679</v>
+      </c>
+    </row>
+    <row r="582" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A582" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B582">
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="C582">
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="D582">
+        <v>0.67599999904632568</v>
+      </c>
+      <c r="E582">
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="F582">
+        <v>3713200</v>
+      </c>
+      <c r="G582">
+        <v>37132</v>
+      </c>
+      <c r="H582">
+        <f t="shared" si="80"/>
+        <v>580</v>
+      </c>
+      <c r="I582">
+        <f>SUM($F$3:F582)/H582</f>
+        <v>4135704.9396012933</v>
+      </c>
+      <c r="N582">
+        <f t="shared" si="77"/>
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="O582">
+        <f t="shared" si="78"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="P582">
+        <f t="shared" si="79"/>
+        <v>0.67833332220713294</v>
+      </c>
+      <c r="Q582">
+        <f t="shared" si="68"/>
+        <v>0.66914285648436767</v>
+      </c>
+      <c r="R582">
+        <f t="shared" si="69"/>
+        <v>9.1904657227652731E-3</v>
+      </c>
+      <c r="S582">
+        <f t="shared" si="70"/>
+        <v>7.3605471727799599E-3</v>
+      </c>
+      <c r="T582">
+        <f t="shared" si="71"/>
+        <v>1.104082075916994E-4</v>
+      </c>
+      <c r="U582">
+        <f t="shared" si="72"/>
+        <v>83.240783663045548</v>
+      </c>
+    </row>
+    <row r="583" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A583" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B583">
+        <v>0.67699998617172241</v>
+      </c>
+      <c r="C583">
+        <v>0.67699998617172241</v>
+      </c>
+      <c r="D583">
+        <v>0.6679999828338623</v>
+      </c>
+      <c r="E583">
+        <v>0.6679999828338623</v>
+      </c>
+      <c r="F583">
+        <v>3441800</v>
+      </c>
+      <c r="G583">
+        <v>34418</v>
+      </c>
+      <c r="H583">
+        <f t="shared" si="80"/>
+        <v>581</v>
+      </c>
+      <c r="I583">
+        <f>SUM($F$3:F583)/H583</f>
+        <v>4134510.610961704</v>
+      </c>
+      <c r="N583">
+        <f t="shared" si="77"/>
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="O583">
+        <f t="shared" si="78"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="P583">
+        <f t="shared" si="79"/>
+        <v>0.6709999839464823</v>
+      </c>
+      <c r="Q583">
+        <f t="shared" si="68"/>
+        <v>0.67030952232224583</v>
+      </c>
+      <c r="R583">
+        <f t="shared" si="69"/>
+        <v>6.9046162423647139E-4</v>
+      </c>
+      <c r="S583">
+        <f t="shared" si="70"/>
+        <v>6.1258521615243046E-3</v>
+      </c>
+      <c r="T583">
+        <f t="shared" si="71"/>
+        <v>9.1887782422864559E-5</v>
+      </c>
+      <c r="U583">
+        <f t="shared" si="72"/>
+        <v>7.5141831267511678</v>
+      </c>
+    </row>
+    <row r="584" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A584" s="1">
+        <v>45247</v>
+      </c>
+      <c r="B584">
+        <v>0.66699999570846558</v>
+      </c>
+      <c r="C584">
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="D584">
+        <v>0.66600000858306885</v>
+      </c>
+      <c r="E584">
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="F584">
+        <v>3699800</v>
+      </c>
+      <c r="G584">
+        <v>36998</v>
+      </c>
+      <c r="H584">
+        <f t="shared" si="80"/>
+        <v>582</v>
+      </c>
+      <c r="I584">
+        <f>SUM($F$3:F584)/H584</f>
+        <v>4133763.6855133162</v>
+      </c>
+      <c r="N584">
+        <f t="shared" si="77"/>
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="O584">
+        <f t="shared" si="78"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="P584">
+        <f t="shared" si="79"/>
+        <v>0.66833335161209106</v>
+      </c>
+      <c r="Q584">
+        <f t="shared" si="68"/>
+        <v>0.67040476061048959</v>
+      </c>
+      <c r="R584">
+        <f t="shared" si="69"/>
+        <v>-2.0714089983985273E-3</v>
+      </c>
+      <c r="S584">
+        <f t="shared" si="70"/>
+        <v>6.003402933782479E-3</v>
+      </c>
+      <c r="T584">
+        <f t="shared" si="71"/>
+        <v>9.0051044006737188E-5</v>
+      </c>
+      <c r="U584">
+        <f t="shared" si="72"/>
+        <v>-23.002609478281613</v>
+      </c>
+    </row>
+    <row r="585" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A585" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B585">
+        <v>0.6679999828338623</v>
+      </c>
+      <c r="C585">
+        <v>0.67500001192092896</v>
+      </c>
+      <c r="D585">
+        <v>0.66500002145767212</v>
+      </c>
+      <c r="E585">
+        <v>0.67199999094009399</v>
+      </c>
+      <c r="F585">
+        <v>4373000</v>
+      </c>
+      <c r="G585">
+        <v>43730</v>
+      </c>
+      <c r="H585">
+        <f t="shared" si="80"/>
+        <v>583</v>
+      </c>
+      <c r="I585">
+        <f>SUM($F$3:F585)/H585</f>
+        <v>4134174.039397513</v>
+      </c>
+      <c r="N585">
+        <f t="shared" si="77"/>
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="O585">
+        <f t="shared" si="78"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="P585">
+        <f t="shared" si="79"/>
+        <v>0.67066667477289832</v>
+      </c>
+      <c r="Q585">
+        <f t="shared" si="68"/>
+        <v>0.67097619033995126</v>
+      </c>
+      <c r="R585">
+        <f t="shared" si="69"/>
+        <v>-3.0951556705294259E-4</v>
+      </c>
+      <c r="S585">
+        <f t="shared" si="70"/>
+        <v>5.2687075673317606E-3</v>
+      </c>
+      <c r="T585">
+        <f t="shared" si="71"/>
+        <v>7.9030613509976404E-5</v>
+      </c>
+      <c r="U585">
+        <f t="shared" si="72"/>
+        <v>-3.9164009148666294</v>
+      </c>
+    </row>
+    <row r="586" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A586" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B586">
+        <v>0.67400002479553223</v>
+      </c>
+      <c r="C586">
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="D586">
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="E586">
+        <v>0.67100000381469727</v>
+      </c>
+      <c r="F586">
+        <v>2959412</v>
+      </c>
+      <c r="G586">
+        <v>29594.119140625</v>
+      </c>
+      <c r="H586">
+        <f t="shared" si="80"/>
+        <v>584</v>
+      </c>
+      <c r="I586">
+        <f>SUM($F$3:F586)/H586</f>
+        <v>4132162.4605629281</v>
+      </c>
+      <c r="N586">
+        <f t="shared" si="77"/>
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="O586">
+        <f t="shared" si="78"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="P586">
+        <f t="shared" si="79"/>
+        <v>0.67266666889190674</v>
+      </c>
+      <c r="Q586">
+        <f t="shared" si="68"/>
+        <v>0.67188095194952824</v>
+      </c>
+      <c r="R586">
+        <f t="shared" si="69"/>
+        <v>7.8571694237850043E-4</v>
+      </c>
+      <c r="S586">
+        <f t="shared" si="70"/>
+        <v>4.3435404900791152E-3</v>
+      </c>
+      <c r="T586">
+        <f t="shared" si="71"/>
+        <v>6.5153107351186728E-5</v>
+      </c>
+      <c r="U586">
+        <f t="shared" si="72"/>
+        <v>12.059546724968122</v>
+      </c>
+    </row>
+    <row r="587" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A587" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B587">
+        <v>0.66699999570846558</v>
+      </c>
+      <c r="C587">
+        <v>0.6679999828338623</v>
+      </c>
+      <c r="D587">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="E587">
+        <v>0.6600000262260437</v>
+      </c>
+      <c r="F587">
+        <v>4265800</v>
+      </c>
+      <c r="G587">
+        <v>42658</v>
+      </c>
+      <c r="H587">
+        <f t="shared" si="80"/>
+        <v>585</v>
+      </c>
+      <c r="I587">
+        <f>SUM($F$3:F587)/H587</f>
+        <v>4132390.9008012819</v>
+      </c>
+      <c r="N587">
+        <f t="shared" si="77"/>
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="O587">
+        <f t="shared" si="78"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="P587">
+        <f t="shared" si="79"/>
+        <v>0.6623333295186361</v>
+      </c>
+      <c r="Q587">
+        <f t="shared" si="68"/>
+        <v>0.67223809588523142</v>
+      </c>
+      <c r="R587">
+        <f t="shared" si="69"/>
+        <v>-9.9047663665953189E-3</v>
+      </c>
+      <c r="S587">
+        <f t="shared" si="70"/>
+        <v>3.8843554298893918E-3</v>
+      </c>
+      <c r="T587">
+        <f t="shared" si="71"/>
+        <v>5.8265331448340872E-5</v>
+      </c>
+      <c r="U587">
+        <f t="shared" si="72"/>
+        <v>-169.9941649757381</v>
+      </c>
+    </row>
+    <row r="588" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A588" s="1">
+        <v>45253</v>
+      </c>
+      <c r="B588">
+        <v>0.65499997138977051</v>
+      </c>
+      <c r="C588">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="D588">
+        <v>0.65499997138977051</v>
+      </c>
+      <c r="E588">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="F588">
+        <v>3177202</v>
+      </c>
+      <c r="G588">
+        <v>31772.01953125</v>
+      </c>
+      <c r="H588">
+        <f t="shared" si="80"/>
+        <v>586</v>
+      </c>
+      <c r="I588">
+        <f>SUM($F$3:F588)/H588</f>
+        <v>4130760.8856122014</v>
+      </c>
+      <c r="N588">
+        <f t="shared" si="77"/>
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="O588">
+        <f t="shared" si="78"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="P588">
+        <f t="shared" si="79"/>
+        <v>0.66099997361501062</v>
+      </c>
+      <c r="Q588">
+        <f t="shared" si="68"/>
+        <v>0.67219047603153059</v>
+      </c>
+      <c r="R588">
+        <f t="shared" si="69"/>
+        <v>-1.1190502416519976E-2</v>
+      </c>
+      <c r="S588">
+        <f t="shared" si="70"/>
+        <v>3.9455809560762544E-3</v>
+      </c>
+      <c r="T588">
+        <f t="shared" si="71"/>
+        <v>5.9183714341143813E-5</v>
+      </c>
+      <c r="U588">
+        <f t="shared" si="72"/>
+        <v>-189.08077232220069</v>
+      </c>
+    </row>
+    <row r="589" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A589" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B589">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="C589">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="D589">
+        <v>0.65600001811981201</v>
+      </c>
+      <c r="E589">
+        <v>0.65700000524520874</v>
+      </c>
+      <c r="F589">
+        <v>4421200</v>
+      </c>
+      <c r="G589">
+        <v>44212</v>
+      </c>
+      <c r="H589">
+        <f t="shared" si="80"/>
+        <v>587</v>
+      </c>
+      <c r="I589">
+        <f>SUM($F$3:F589)/H589</f>
+        <v>4131255.671156303</v>
+      </c>
+      <c r="N589">
+        <f t="shared" si="77"/>
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="O589">
+        <f t="shared" si="78"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="P589">
+        <f t="shared" si="79"/>
+        <v>0.65899999936421716</v>
+      </c>
+      <c r="Q589">
+        <f t="shared" si="68"/>
+        <v>0.67102380877449419</v>
+      </c>
+      <c r="R589">
+        <f t="shared" si="69"/>
+        <v>-1.2023809410277031E-2</v>
+      </c>
+      <c r="S589">
+        <f t="shared" si="70"/>
+        <v>4.8299342596611772E-3</v>
+      </c>
+      <c r="T589">
+        <f t="shared" si="71"/>
+        <v>7.2449013894917657E-5</v>
+      </c>
+      <c r="U589">
+        <f t="shared" si="72"/>
+        <v>-165.9623611677689</v>
+      </c>
+    </row>
+    <row r="590" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A590" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B590">
+        <v>0.65499997138977051</v>
+      </c>
+      <c r="C590">
+        <v>0.65499997138977051</v>
+      </c>
+      <c r="D590">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="E590">
+        <v>0.65499997138977051</v>
+      </c>
+      <c r="F590">
+        <v>4541400</v>
+      </c>
+      <c r="G590">
+        <v>45414</v>
+      </c>
+      <c r="H590">
+        <f t="shared" si="80"/>
+        <v>588</v>
+      </c>
+      <c r="I590">
+        <f>SUM($F$3:F590)/H590</f>
+        <v>4131953.1955250851</v>
+      </c>
+      <c r="N590">
+        <f t="shared" si="77"/>
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="O590">
+        <f t="shared" si="78"/>
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="P590">
+        <f t="shared" si="79"/>
+        <v>0.65333330631256104</v>
+      </c>
+      <c r="Q590">
+        <f t="shared" si="68"/>
+        <v>0.66933333022253871</v>
+      </c>
+      <c r="R590">
+        <f t="shared" si="69"/>
+        <v>-1.6000023909977679E-2</v>
+      </c>
+      <c r="S590">
+        <f t="shared" si="70"/>
+        <v>6.0952415271680604E-3</v>
+      </c>
+      <c r="T590">
+        <f t="shared" si="71"/>
+        <v>9.1428622907520899E-5</v>
+      </c>
+      <c r="U590">
+        <f t="shared" si="72"/>
+        <v>-175.00016298136237</v>
+      </c>
+    </row>
+    <row r="591" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A591" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B591">
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="C591">
+        <v>0.6600000262260437</v>
+      </c>
+      <c r="D591">
+        <v>0.65299999713897705</v>
+      </c>
+      <c r="E591">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="F591">
+        <v>4431206</v>
+      </c>
+      <c r="G591">
+        <v>44312.05859375</v>
+      </c>
+      <c r="H591">
+        <f t="shared" si="80"/>
+        <v>589</v>
+      </c>
+      <c r="I591">
+        <f>SUM($F$3:F591)/H591</f>
+        <v>4132461.2648026315</v>
+      </c>
+      <c r="N591">
+        <f t="shared" si="77"/>
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="O591">
+        <f t="shared" si="78"/>
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="P591">
+        <f t="shared" si="79"/>
+        <v>0.65733333428700769</v>
+      </c>
+      <c r="Q591">
+        <f t="shared" si="68"/>
+        <v>0.66792856795447209</v>
+      </c>
+      <c r="R591">
+        <f t="shared" si="69"/>
+        <v>-1.0595233667464399E-2</v>
+      </c>
+      <c r="S591">
+        <f t="shared" si="70"/>
+        <v>6.6632709535611734E-3</v>
+      </c>
+      <c r="T591">
+        <f t="shared" si="71"/>
+        <v>9.99490643034176E-5</v>
+      </c>
+      <c r="U591">
+        <f t="shared" si="72"/>
+        <v>-106.00633173813625</v>
+      </c>
+    </row>
+    <row r="592" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A592" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B592">
+        <v>0.65600001811981201</v>
+      </c>
+      <c r="C592">
+        <v>0.65700000524520874</v>
+      </c>
+      <c r="D592">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="E592">
+        <v>0.65200001001358032</v>
+      </c>
+      <c r="F592">
+        <v>2555400</v>
+      </c>
+      <c r="G592">
+        <v>25554</v>
+      </c>
+      <c r="H592">
+        <f t="shared" si="80"/>
+        <v>590</v>
+      </c>
+      <c r="I592">
+        <f>SUM($F$3:F592)/H592</f>
+        <v>4129788.2796080508</v>
+      </c>
+      <c r="N592">
+        <f t="shared" si="77"/>
+        <v>0.6809999942779541</v>
+      </c>
+      <c r="O592">
+        <f t="shared" si="78"/>
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="P592">
+        <f t="shared" si="79"/>
+        <v>0.65333334604899085</v>
+      </c>
+      <c r="Q592">
+        <f t="shared" si="68"/>
+        <v>0.66619047380629037</v>
+      </c>
+      <c r="R592">
+        <f t="shared" si="69"/>
+        <v>-1.2857127757299525E-2</v>
+      </c>
+      <c r="S592">
+        <f t="shared" si="70"/>
+        <v>7.2585076701884299E-3</v>
+      </c>
+      <c r="T592">
+        <f t="shared" si="71"/>
+        <v>1.0887761505282644E-4</v>
+      </c>
+      <c r="U592">
+        <f t="shared" si="72"/>
+        <v>-118.08788933392196</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U592"/>
+  <dimension ref="A1:U593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A572" workbookViewId="0">
-      <selection activeCell="A593" sqref="A593"/>
+    <sheetView tabSelected="1" topLeftCell="A580" workbookViewId="0">
+      <selection activeCell="A594" sqref="A594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2276,7 +2276,7 @@
         <v>75.420875420875646</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44414</v>
       </c>
@@ -2306,6 +2306,12 @@
         <f>SUM($F$3:F32)/H32</f>
         <v>30496367.166666668</v>
       </c>
+      <c r="K32" s="2">
+        <v>45289</v>
+      </c>
+      <c r="L32" s="2">
+        <v>45261</v>
+      </c>
       <c r="N32">
         <f t="shared" si="9"/>
         <v>1.0469999999999999</v>
@@ -33504,23 +33510,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q592" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q593" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R592" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R593" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S592" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S593" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T592" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T593" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U592" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U593" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -36327,11 +36333,11 @@
         <v>4147837.5898574563</v>
       </c>
       <c r="N572">
-        <f t="shared" ref="N572:N592" si="77">IF(A572&lt;&gt;$K$31,MAX(N571,VLOOKUP(A572,A:C,3)),)</f>
+        <f t="shared" ref="N572:N593" si="77">IF(A572&lt;&gt;$K$31,MAX(N571,VLOOKUP(A572,A:C,3)),)</f>
         <v>0.66299998760223389</v>
       </c>
       <c r="O572">
-        <f t="shared" ref="O572:O592" si="78">IF(A572&lt;&gt;$K$31,MIN(O571,VLOOKUP(A572,A:D,4)),)</f>
+        <f t="shared" ref="O572:O593" si="78">IF(A572&lt;&gt;$K$31,MIN(O571,VLOOKUP(A572,A:D,4)),)</f>
         <v>0.65700000524520874</v>
       </c>
       <c r="P572">
@@ -36650,7 +36656,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P592" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P593" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36760,7 +36766,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H592" si="80">H578+1</f>
+        <f t="shared" ref="H579:H593" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -37617,6 +37623,69 @@
       <c r="U592">
         <f t="shared" si="72"/>
         <v>-118.08788933392196</v>
+      </c>
+    </row>
+    <row r="593" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A593" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B593">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C593">
+        <v>0.65499997138977051</v>
+      </c>
+      <c r="D593">
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="E593">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="F593">
+        <v>3444800</v>
+      </c>
+      <c r="G593">
+        <v>34448</v>
+      </c>
+      <c r="H593">
+        <f t="shared" si="80"/>
+        <v>591</v>
+      </c>
+      <c r="I593">
+        <f>SUM($F$3:F593)/H593</f>
+        <v>4128629.2469860404</v>
+      </c>
+      <c r="N593">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="O593">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="P593">
+        <f t="shared" si="79"/>
+        <v>0.65133333206176758</v>
+      </c>
+      <c r="Q593">
+        <f t="shared" si="68"/>
+        <v>0.66461904417900808</v>
+      </c>
+      <c r="R593">
+        <f t="shared" si="69"/>
+        <v>-1.32857121172405E-2</v>
+      </c>
+      <c r="S593">
+        <f t="shared" si="70"/>
+        <v>7.8095268635522642E-3</v>
+      </c>
+      <c r="T593">
+        <f t="shared" si="71"/>
+        <v>1.1714290295328396E-4</v>
+      </c>
+      <c r="U593">
+        <f t="shared" si="72"/>
+        <v>-113.41457128255375</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U593"/>
+  <dimension ref="A1:U613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A580" workbookViewId="0">
-      <selection activeCell="A594" sqref="A594"/>
+    <sheetView tabSelected="1" topLeftCell="A593" workbookViewId="0">
+      <selection activeCell="A614" sqref="A614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33510,23 +33510,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q593" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q613" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R593" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R613" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S593" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S613" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T593" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T613" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U593" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U613" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -36333,11 +36333,11 @@
         <v>4147837.5898574563</v>
       </c>
       <c r="N572">
-        <f t="shared" ref="N572:N593" si="77">IF(A572&lt;&gt;$K$31,MAX(N571,VLOOKUP(A572,A:C,3)),)</f>
+        <f t="shared" ref="N572:N592" si="77">IF(A572&lt;&gt;$K$31,MAX(N571,VLOOKUP(A572,A:C,3)),)</f>
         <v>0.66299998760223389</v>
       </c>
       <c r="O572">
-        <f t="shared" ref="O572:O593" si="78">IF(A572&lt;&gt;$K$31,MIN(O571,VLOOKUP(A572,A:D,4)),)</f>
+        <f t="shared" ref="O572:O592" si="78">IF(A572&lt;&gt;$K$31,MIN(O571,VLOOKUP(A572,A:D,4)),)</f>
         <v>0.65700000524520874</v>
       </c>
       <c r="P572">
@@ -36656,7 +36656,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P593" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P613" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36766,7 +36766,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H593" si="80">H578+1</f>
+        <f t="shared" ref="H579:H613" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -37656,12 +37656,12 @@
         <v>4128629.2469860404</v>
       </c>
       <c r="N593">
-        <f t="shared" si="77"/>
-        <v>0</v>
+        <f>VLOOKUP(L32,A:C,3)</f>
+        <v>0.65100002288818359</v>
       </c>
       <c r="O593">
-        <f t="shared" si="78"/>
-        <v>0</v>
+        <f>VLOOKUP(L32,A:D,4)</f>
+        <v>0.64200001955032349</v>
       </c>
       <c r="P593">
         <f t="shared" si="79"/>
@@ -37686,6 +37686,1266 @@
       <c r="U593">
         <f t="shared" si="72"/>
         <v>-113.41457128255375</v>
+      </c>
+    </row>
+    <row r="594" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A594" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B594">
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="C594">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="D594">
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="E594">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="F594">
+        <v>4693500</v>
+      </c>
+      <c r="G594">
+        <v>46935</v>
+      </c>
+      <c r="H594">
+        <f t="shared" si="80"/>
+        <v>592</v>
+      </c>
+      <c r="I594">
+        <f>SUM($F$3:F594)/H594</f>
+        <v>4129583.420555321</v>
+      </c>
+      <c r="N594">
+        <f t="shared" ref="N594:N613" si="81">IF(A594&lt;&gt;$K$32,MAX(N593,VLOOKUP(A594,A:C,3)),)</f>
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="O594">
+        <f t="shared" ref="O594:O613" si="82">IF(A594&lt;&gt;$K$32,MIN(O593,VLOOKUP(A594,A:D,4)),)</f>
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="P594">
+        <f t="shared" si="79"/>
+        <v>0.64733334382375085</v>
+      </c>
+      <c r="Q594">
+        <f t="shared" si="68"/>
+        <v>0.66278571174258272</v>
+      </c>
+      <c r="R594">
+        <f t="shared" si="69"/>
+        <v>-1.5452367918831866E-2</v>
+      </c>
+      <c r="S594">
+        <f t="shared" si="70"/>
+        <v>8.1836755583886145E-3</v>
+      </c>
+      <c r="T594">
+        <f t="shared" si="71"/>
+        <v>1.2275513337582921E-4</v>
+      </c>
+      <c r="U594">
+        <f t="shared" si="72"/>
+        <v>-125.87960677393941</v>
+      </c>
+    </row>
+    <row r="595" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A595" s="1">
+        <v>45264</v>
+      </c>
+      <c r="B595">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C595">
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="D595">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="E595">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="F595">
+        <v>4336800</v>
+      </c>
+      <c r="G595">
+        <v>43368</v>
+      </c>
+      <c r="H595">
+        <f t="shared" si="80"/>
+        <v>593</v>
+      </c>
+      <c r="I595">
+        <f>SUM($F$3:F595)/H595</f>
+        <v>4129932.8582946882</v>
+      </c>
+      <c r="N595">
+        <f t="shared" si="81"/>
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="O595">
+        <f t="shared" si="82"/>
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="P595">
+        <f t="shared" si="79"/>
+        <v>0.64466667175292969</v>
+      </c>
+      <c r="Q595">
+        <f t="shared" si="68"/>
+        <v>0.66076190272967017</v>
+      </c>
+      <c r="R595">
+        <f t="shared" si="69"/>
+        <v>-1.6095230976740482E-2</v>
+      </c>
+      <c r="S595">
+        <f t="shared" si="70"/>
+        <v>8.4285693509238025E-3</v>
+      </c>
+      <c r="T595">
+        <f t="shared" si="71"/>
+        <v>1.2642854026385702E-4</v>
+      </c>
+      <c r="U595">
+        <f t="shared" si="72"/>
+        <v>-127.3069430616667</v>
+      </c>
+    </row>
+    <row r="596" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A596" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B596">
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="C596">
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="D596">
+        <v>0.62999999523162842</v>
+      </c>
+      <c r="E596">
+        <v>0.62999999523162842</v>
+      </c>
+      <c r="F596">
+        <v>3056000</v>
+      </c>
+      <c r="G596">
+        <v>30560</v>
+      </c>
+      <c r="H596">
+        <f t="shared" si="80"/>
+        <v>594</v>
+      </c>
+      <c r="I596">
+        <f>SUM($F$3:F596)/H596</f>
+        <v>4128124.890519781</v>
+      </c>
+      <c r="N596">
+        <f t="shared" si="81"/>
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="O596">
+        <f t="shared" si="82"/>
+        <v>0.62999999523162842</v>
+      </c>
+      <c r="P596">
+        <f t="shared" si="79"/>
+        <v>0.63333332538604736</v>
+      </c>
+      <c r="Q596">
+        <f t="shared" si="68"/>
+        <v>0.65754761724244981</v>
+      </c>
+      <c r="R596">
+        <f t="shared" si="69"/>
+        <v>-2.4214291856402448E-2</v>
+      </c>
+      <c r="S596">
+        <f t="shared" si="70"/>
+        <v>8.880951574870519E-3</v>
+      </c>
+      <c r="T596">
+        <f t="shared" si="71"/>
+        <v>1.3321427362305777E-4</v>
+      </c>
+      <c r="U596">
+        <f t="shared" si="72"/>
+        <v>-181.76949960271563</v>
+      </c>
+    </row>
+    <row r="597" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A597" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B597">
+        <v>0.62999999523162842</v>
+      </c>
+      <c r="C597">
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="D597">
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="E597">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="F597">
+        <v>4830800</v>
+      </c>
+      <c r="G597">
+        <v>48308</v>
+      </c>
+      <c r="H597">
+        <f t="shared" si="80"/>
+        <v>595</v>
+      </c>
+      <c r="I597">
+        <f>SUM($F$3:F597)/H597</f>
+        <v>4129305.8570903363</v>
+      </c>
+      <c r="N597">
+        <f t="shared" si="81"/>
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="O597">
+        <f t="shared" si="82"/>
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="P597">
+        <f t="shared" si="79"/>
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="Q597">
+        <f t="shared" si="68"/>
+        <v>0.65483333383287701</v>
+      </c>
+      <c r="R597">
+        <f t="shared" si="69"/>
+        <v>-2.1833317620413628E-2</v>
+      </c>
+      <c r="S597">
+        <f t="shared" si="70"/>
+        <v>9.642856461661211E-3</v>
+      </c>
+      <c r="T597">
+        <f t="shared" si="71"/>
+        <v>1.4464284692491816E-4</v>
+      </c>
+      <c r="U597">
+        <f t="shared" si="72"/>
+        <v>-150.94640408831941</v>
+      </c>
+    </row>
+    <row r="598" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A598" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B598">
+        <v>0.63200002908706665</v>
+      </c>
+      <c r="C598">
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="D598">
+        <v>0.62800002098083496</v>
+      </c>
+      <c r="E598">
+        <v>0.63200002908706665</v>
+      </c>
+      <c r="F598">
+        <v>5383005</v>
+      </c>
+      <c r="G598">
+        <v>53830.05078125</v>
+      </c>
+      <c r="H598">
+        <f t="shared" si="80"/>
+        <v>596</v>
+      </c>
+      <c r="I598">
+        <f>SUM($F$3:F598)/H598</f>
+        <v>4131409.3791421978</v>
+      </c>
+      <c r="N598">
+        <f t="shared" si="81"/>
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="O598">
+        <f t="shared" si="82"/>
+        <v>0.62800002098083496</v>
+      </c>
+      <c r="P598">
+        <f t="shared" si="79"/>
+        <v>0.63133335113525391</v>
+      </c>
+      <c r="Q598">
+        <f t="shared" si="68"/>
+        <v>0.65219047665596008</v>
+      </c>
+      <c r="R598">
+        <f t="shared" si="69"/>
+        <v>-2.0857125520706177E-2</v>
+      </c>
+      <c r="S598">
+        <f t="shared" si="70"/>
+        <v>1.0306117080506827E-2</v>
+      </c>
+      <c r="T598">
+        <f t="shared" si="71"/>
+        <v>1.5459175620760241E-4</v>
+      </c>
+      <c r="U598">
+        <f t="shared" si="72"/>
+        <v>-134.91744988456557</v>
+      </c>
+    </row>
+    <row r="599" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A599" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B599">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="C599">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="D599">
+        <v>0.63200002908706665</v>
+      </c>
+      <c r="E599">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="F599">
+        <v>3773400</v>
+      </c>
+      <c r="G599">
+        <v>37734</v>
+      </c>
+      <c r="H599">
+        <f t="shared" si="80"/>
+        <v>597</v>
+      </c>
+      <c r="I599">
+        <f>SUM($F$3:F599)/H599</f>
+        <v>4130809.6984401173</v>
+      </c>
+      <c r="N599">
+        <f t="shared" si="81"/>
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="O599">
+        <f t="shared" si="82"/>
+        <v>0.62800002098083496</v>
+      </c>
+      <c r="P599">
+        <f t="shared" si="79"/>
+        <v>0.63433333237965905</v>
+      </c>
+      <c r="Q599">
+        <f t="shared" si="68"/>
+        <v>0.64959523791358598</v>
+      </c>
+      <c r="R599">
+        <f t="shared" si="69"/>
+        <v>-1.5261905533926923E-2</v>
+      </c>
+      <c r="S599">
+        <f t="shared" si="70"/>
+        <v>1.0510198113058684E-2</v>
+      </c>
+      <c r="T599">
+        <f t="shared" si="71"/>
+        <v>1.5765297169588027E-4</v>
+      </c>
+      <c r="U599">
+        <f t="shared" si="72"/>
+        <v>-96.806963863439449</v>
+      </c>
+    </row>
+    <row r="600" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A600" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B600">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C600">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="D600">
+        <v>0.62800002098083496</v>
+      </c>
+      <c r="E600">
+        <v>0.64399999380111694</v>
+      </c>
+      <c r="F600">
+        <v>3656300</v>
+      </c>
+      <c r="G600">
+        <v>36563</v>
+      </c>
+      <c r="H600">
+        <f t="shared" si="80"/>
+        <v>598</v>
+      </c>
+      <c r="I600">
+        <f>SUM($F$3:F600)/H600</f>
+        <v>4130016.2039611205</v>
+      </c>
+      <c r="N600">
+        <f t="shared" si="81"/>
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="O600">
+        <f t="shared" si="82"/>
+        <v>0.62800002098083496</v>
+      </c>
+      <c r="P600">
+        <f t="shared" si="79"/>
+        <v>0.63899999856948853</v>
+      </c>
+      <c r="Q600">
+        <f t="shared" si="68"/>
+        <v>0.64719047574769883</v>
+      </c>
+      <c r="R600">
+        <f t="shared" si="69"/>
+        <v>-8.1904771782103092E-3</v>
+      </c>
+      <c r="S600">
+        <f t="shared" si="70"/>
+        <v>9.6394512929073063E-3</v>
+      </c>
+      <c r="T600">
+        <f t="shared" si="71"/>
+        <v>1.445917693936096E-4</v>
+      </c>
+      <c r="U600">
+        <f t="shared" si="72"/>
+        <v>-56.645528390444447</v>
+      </c>
+    </row>
+    <row r="601" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A601" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B601">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="C601">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="D601">
+        <v>0.64099997282028198</v>
+      </c>
+      <c r="E601">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="F601">
+        <v>3545300</v>
+      </c>
+      <c r="G601">
+        <v>35453</v>
+      </c>
+      <c r="H601">
+        <f t="shared" si="80"/>
+        <v>599</v>
+      </c>
+      <c r="I601">
+        <f>SUM($F$3:F601)/H601</f>
+        <v>4129040.050031302</v>
+      </c>
+      <c r="N601">
+        <f t="shared" si="81"/>
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="O601">
+        <f t="shared" si="82"/>
+        <v>0.62800002098083496</v>
+      </c>
+      <c r="P601">
+        <f t="shared" si="79"/>
+        <v>0.64299998680750525</v>
+      </c>
+      <c r="Q601">
+        <f t="shared" si="68"/>
+        <v>0.64580952269690362</v>
+      </c>
+      <c r="R601">
+        <f t="shared" si="69"/>
+        <v>-2.8095358893983624E-3</v>
+      </c>
+      <c r="S601">
+        <f t="shared" si="70"/>
+        <v>8.8571395192827574E-3</v>
+      </c>
+      <c r="T601">
+        <f t="shared" si="71"/>
+        <v>1.3285709278924136E-4</v>
+      </c>
+      <c r="U601">
+        <f t="shared" si="72"/>
+        <v>-21.14705229818092</v>
+      </c>
+    </row>
+    <row r="602" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A602" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B602">
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="C602">
+        <v>0.64099997282028198</v>
+      </c>
+      <c r="D602">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="E602">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="F602">
+        <v>5078000</v>
+      </c>
+      <c r="G602">
+        <v>50780</v>
+      </c>
+      <c r="H602">
+        <f t="shared" si="80"/>
+        <v>600</v>
+      </c>
+      <c r="I602">
+        <f>SUM($F$3:F602)/H602</f>
+        <v>4130621.6499479166</v>
+      </c>
+      <c r="N602">
+        <f t="shared" si="81"/>
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="O602">
+        <f t="shared" si="82"/>
+        <v>0.62800002098083496</v>
+      </c>
+      <c r="P602">
+        <f t="shared" si="79"/>
+        <v>0.63699998458226526</v>
+      </c>
+      <c r="Q602">
+        <f t="shared" si="68"/>
+        <v>0.64409523776599342</v>
+      </c>
+      <c r="R602">
+        <f t="shared" si="69"/>
+        <v>-7.0952531837281674E-3</v>
+      </c>
+      <c r="S602">
+        <f t="shared" si="70"/>
+        <v>8.2380956127530072E-3</v>
+      </c>
+      <c r="T602">
+        <f t="shared" si="71"/>
+        <v>1.2357143419129511E-4</v>
+      </c>
+      <c r="U602">
+        <f t="shared" si="72"/>
+        <v>-57.418231245453867</v>
+      </c>
+    </row>
+    <row r="603" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A603" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B603">
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="C603">
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="D603">
+        <v>0.63099998235702515</v>
+      </c>
+      <c r="E603">
+        <v>0.63099998235702515</v>
+      </c>
+      <c r="F603">
+        <v>3375400</v>
+      </c>
+      <c r="G603">
+        <v>33754</v>
+      </c>
+      <c r="H603">
+        <f t="shared" si="80"/>
+        <v>601</v>
+      </c>
+      <c r="I603">
+        <f>SUM($F$3:F603)/H603</f>
+        <v>4129365.0415453413</v>
+      </c>
+      <c r="N603">
+        <f t="shared" si="81"/>
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="O603">
+        <f t="shared" si="82"/>
+        <v>0.62800002098083496</v>
+      </c>
+      <c r="P603">
+        <f t="shared" si="79"/>
+        <v>0.63466666142145789</v>
+      </c>
+      <c r="Q603">
+        <f t="shared" si="68"/>
+        <v>0.64235714219865347</v>
+      </c>
+      <c r="R603">
+        <f t="shared" si="69"/>
+        <v>-7.6904807771955852E-3</v>
+      </c>
+      <c r="S603">
+        <f t="shared" si="70"/>
+        <v>7.6904751005626836E-3</v>
+      </c>
+      <c r="T603">
+        <f t="shared" si="71"/>
+        <v>1.1535712650844025E-4</v>
+      </c>
+      <c r="U603">
+        <f t="shared" si="72"/>
+        <v>-66.666715875875269</v>
+      </c>
+    </row>
+    <row r="604" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A604" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B604">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="C604">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="D604">
+        <v>0.62699997425079346</v>
+      </c>
+      <c r="E604">
+        <v>0.62800002098083496</v>
+      </c>
+      <c r="F604">
+        <v>4696708</v>
+      </c>
+      <c r="G604">
+        <v>46967.078125</v>
+      </c>
+      <c r="H604">
+        <f t="shared" si="80"/>
+        <v>602</v>
+      </c>
+      <c r="I604">
+        <f>SUM($F$3:F604)/H604</f>
+        <v>4130307.4717088873</v>
+      </c>
+      <c r="N604">
+        <f t="shared" si="81"/>
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="O604">
+        <f t="shared" si="82"/>
+        <v>0.62699997425079346</v>
+      </c>
+      <c r="P604">
+        <f t="shared" si="79"/>
+        <v>0.63033332427342736</v>
+      </c>
+      <c r="Q604">
+        <f t="shared" si="68"/>
+        <v>0.64071428633871541</v>
+      </c>
+      <c r="R604">
+        <f t="shared" si="69"/>
+        <v>-1.0380962065288046E-2</v>
+      </c>
+      <c r="S604">
+        <f t="shared" si="70"/>
+        <v>7.530613821379999E-3</v>
+      </c>
+      <c r="T604">
+        <f t="shared" si="71"/>
+        <v>1.1295920732069998E-4</v>
+      </c>
+      <c r="U604">
+        <f t="shared" si="72"/>
+        <v>-91.900096605809978</v>
+      </c>
+    </row>
+    <row r="605" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A605" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B605">
+        <v>0.625</v>
+      </c>
+      <c r="C605">
+        <v>0.62599998712539673</v>
+      </c>
+      <c r="D605">
+        <v>0.62000000476837158</v>
+      </c>
+      <c r="E605">
+        <v>0.62099999189376831</v>
+      </c>
+      <c r="F605">
+        <v>3207900</v>
+      </c>
+      <c r="G605">
+        <v>32079</v>
+      </c>
+      <c r="H605">
+        <f t="shared" si="80"/>
+        <v>603</v>
+      </c>
+      <c r="I605">
+        <f>SUM($F$3:F605)/H605</f>
+        <v>4128777.7744092038</v>
+      </c>
+      <c r="N605">
+        <f t="shared" si="81"/>
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="O605">
+        <f t="shared" si="82"/>
+        <v>0.62000000476837158</v>
+      </c>
+      <c r="P605">
+        <f t="shared" si="79"/>
+        <v>0.62233332792917884</v>
+      </c>
+      <c r="Q605">
+        <f t="shared" si="68"/>
+        <v>0.63821428588458473</v>
+      </c>
+      <c r="R605">
+        <f t="shared" si="69"/>
+        <v>-1.5880957955405894E-2</v>
+      </c>
+      <c r="S605">
+        <f t="shared" si="70"/>
+        <v>7.0544233938463685E-3</v>
+      </c>
+      <c r="T605">
+        <f t="shared" si="71"/>
+        <v>1.0581635090769552E-4</v>
+      </c>
+      <c r="U605">
+        <f t="shared" si="72"/>
+        <v>-150.08037811905822</v>
+      </c>
+    </row>
+    <row r="606" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A606" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B606">
+        <v>0.61799997091293335</v>
+      </c>
+      <c r="C606">
+        <v>0.62400001287460327</v>
+      </c>
+      <c r="D606">
+        <v>0.61799997091293335</v>
+      </c>
+      <c r="E606">
+        <v>0.62099999189376831</v>
+      </c>
+      <c r="F606">
+        <v>4697300</v>
+      </c>
+      <c r="G606">
+        <v>46973</v>
+      </c>
+      <c r="H606">
+        <f t="shared" si="80"/>
+        <v>604</v>
+      </c>
+      <c r="I606">
+        <f>SUM($F$3:F606)/H606</f>
+        <v>4129719.0363721028</v>
+      </c>
+      <c r="N606">
+        <f t="shared" si="81"/>
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="O606">
+        <f t="shared" si="82"/>
+        <v>0.61799997091293335</v>
+      </c>
+      <c r="P606">
+        <f t="shared" si="79"/>
+        <v>0.62099999189376831</v>
+      </c>
+      <c r="Q606">
+        <f t="shared" si="68"/>
+        <v>0.63590476058778311</v>
+      </c>
+      <c r="R606">
+        <f t="shared" si="69"/>
+        <v>-1.4904768694014803E-2</v>
+      </c>
+      <c r="S606">
+        <f t="shared" si="70"/>
+        <v>6.7006791530012334E-3</v>
+      </c>
+      <c r="T606">
+        <f t="shared" si="71"/>
+        <v>1.005101872950185E-4</v>
+      </c>
+      <c r="U606">
+        <f t="shared" si="72"/>
+        <v>-148.29112446349521</v>
+      </c>
+    </row>
+    <row r="607" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A607" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B607">
+        <v>0.62099999189376831</v>
+      </c>
+      <c r="C607">
+        <v>0.62199997901916504</v>
+      </c>
+      <c r="D607">
+        <v>0.61299997568130493</v>
+      </c>
+      <c r="E607">
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="F607">
+        <v>3285503</v>
+      </c>
+      <c r="G607">
+        <v>32855.03125</v>
+      </c>
+      <c r="H607">
+        <f t="shared" si="80"/>
+        <v>605</v>
+      </c>
+      <c r="I607">
+        <f>SUM($F$3:F607)/H607</f>
+        <v>4128323.6379648759</v>
+      </c>
+      <c r="N607">
+        <f t="shared" si="81"/>
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="O607">
+        <f t="shared" si="82"/>
+        <v>0.61299997568130493</v>
+      </c>
+      <c r="P607">
+        <f t="shared" si="79"/>
+        <v>0.61633332570393884</v>
+      </c>
+      <c r="Q607">
+        <f t="shared" si="68"/>
+        <v>0.63340476013365254</v>
+      </c>
+      <c r="R607">
+        <f t="shared" si="69"/>
+        <v>-1.7071434429713706E-2</v>
+      </c>
+      <c r="S607">
+        <f t="shared" si="70"/>
+        <v>6.5952369144984656E-3</v>
+      </c>
+      <c r="T607">
+        <f t="shared" si="71"/>
+        <v>9.8928553717476979E-5</v>
+      </c>
+      <c r="U607">
+        <f t="shared" si="72"/>
+        <v>-172.56326700647824</v>
+      </c>
+    </row>
+    <row r="608" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A608" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B608">
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="C608">
+        <v>0.62400001287460327</v>
+      </c>
+      <c r="D608">
+        <v>0.6119999885559082</v>
+      </c>
+      <c r="E608">
+        <v>0.62199997901916504</v>
+      </c>
+      <c r="F608">
+        <v>5557500</v>
+      </c>
+      <c r="G608">
+        <v>55575</v>
+      </c>
+      <c r="H608">
+        <f t="shared" si="80"/>
+        <v>606</v>
+      </c>
+      <c r="I608">
+        <f>SUM($F$3:F608)/H608</f>
+        <v>4130682.0147999176</v>
+      </c>
+      <c r="N608">
+        <f t="shared" si="81"/>
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="O608">
+        <f t="shared" si="82"/>
+        <v>0.6119999885559082</v>
+      </c>
+      <c r="P608">
+        <f t="shared" si="79"/>
+        <v>0.61933332681655884</v>
+      </c>
+      <c r="Q608">
+        <f t="shared" si="68"/>
+        <v>0.63140475891885306</v>
+      </c>
+      <c r="R608">
+        <f t="shared" si="69"/>
+        <v>-1.2071432102294222E-2</v>
+      </c>
+      <c r="S608">
+        <f t="shared" si="70"/>
+        <v>6.8231293944274419E-3</v>
+      </c>
+      <c r="T608">
+        <f t="shared" si="71"/>
+        <v>1.0234694091641162E-4</v>
+      </c>
+      <c r="U608">
+        <f t="shared" si="72"/>
+        <v>-117.94619354723218</v>
+      </c>
+    </row>
+    <row r="609" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A609" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B609">
+        <v>0.62000000476837158</v>
+      </c>
+      <c r="C609">
+        <v>0.62699997425079346</v>
+      </c>
+      <c r="D609">
+        <v>0.61799997091293335</v>
+      </c>
+      <c r="E609">
+        <v>0.62199997901916504</v>
+      </c>
+      <c r="F609">
+        <v>4980000</v>
+      </c>
+      <c r="G609">
+        <v>49800</v>
+      </c>
+      <c r="H609">
+        <f t="shared" si="80"/>
+        <v>607</v>
+      </c>
+      <c r="I609">
+        <f>SUM($F$3:F609)/H609</f>
+        <v>4132081.2207063427</v>
+      </c>
+      <c r="N609">
+        <f t="shared" si="81"/>
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="O609">
+        <f t="shared" si="82"/>
+        <v>0.6119999885559082</v>
+      </c>
+      <c r="P609">
+        <f t="shared" si="79"/>
+        <v>0.62233330806096399</v>
+      </c>
+      <c r="Q609">
+        <f t="shared" si="68"/>
+        <v>0.62980951865514112</v>
+      </c>
+      <c r="R609">
+        <f t="shared" si="69"/>
+        <v>-7.4762105941771351E-3</v>
+      </c>
+      <c r="S609">
+        <f t="shared" si="70"/>
+        <v>6.8163304101853351E-3</v>
+      </c>
+      <c r="T609">
+        <f t="shared" si="71"/>
+        <v>1.0224495615278002E-4</v>
+      </c>
+      <c r="U609">
+        <f t="shared" si="72"/>
+        <v>-73.120580960549006</v>
+      </c>
+    </row>
+    <row r="610" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A610" s="1">
+        <v>45285</v>
+      </c>
+      <c r="B610">
+        <v>0.62300002574920654</v>
+      </c>
+      <c r="C610">
+        <v>0.62599998712539673</v>
+      </c>
+      <c r="D610">
+        <v>0.62199997901916504</v>
+      </c>
+      <c r="E610">
+        <v>0.62599998712539673</v>
+      </c>
+      <c r="F610">
+        <v>3893100</v>
+      </c>
+      <c r="G610">
+        <v>38931</v>
+      </c>
+      <c r="H610">
+        <f t="shared" si="80"/>
+        <v>608</v>
+      </c>
+      <c r="I610">
+        <f>SUM($F$3:F610)/H610</f>
+        <v>4131688.1594880759</v>
+      </c>
+      <c r="N610">
+        <f t="shared" si="81"/>
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="O610">
+        <f t="shared" si="82"/>
+        <v>0.6119999885559082</v>
+      </c>
+      <c r="P610">
+        <f t="shared" si="79"/>
+        <v>0.6246666510899862</v>
+      </c>
+      <c r="Q610">
+        <f t="shared" si="68"/>
+        <v>0.62919047049113686</v>
+      </c>
+      <c r="R610">
+        <f t="shared" si="69"/>
+        <v>-4.5238194011506527E-3</v>
+      </c>
+      <c r="S610">
+        <f t="shared" si="70"/>
+        <v>7.0204130646322792E-3</v>
+      </c>
+      <c r="T610">
+        <f t="shared" si="71"/>
+        <v>1.0530619596948418E-4</v>
+      </c>
+      <c r="U610">
+        <f t="shared" si="72"/>
+        <v>-42.958720135153044</v>
+      </c>
+    </row>
+    <row r="611" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A611" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B611">
+        <v>0.62199997901916504</v>
+      </c>
+      <c r="C611">
+        <v>0.62199997901916504</v>
+      </c>
+      <c r="D611">
+        <v>0.61599999666213989</v>
+      </c>
+      <c r="E611">
+        <v>0.61900001764297485</v>
+      </c>
+      <c r="F611">
+        <v>3500900</v>
+      </c>
+      <c r="G611">
+        <v>35009</v>
+      </c>
+      <c r="H611">
+        <f t="shared" si="80"/>
+        <v>609</v>
+      </c>
+      <c r="I611">
+        <f>SUM($F$3:F611)/H611</f>
+        <v>4130652.3825431033</v>
+      </c>
+      <c r="N611">
+        <f t="shared" si="81"/>
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="O611">
+        <f t="shared" si="82"/>
+        <v>0.6119999885559082</v>
+      </c>
+      <c r="P611">
+        <f t="shared" si="79"/>
+        <v>0.61899999777475989</v>
+      </c>
+      <c r="Q611">
+        <f t="shared" si="68"/>
+        <v>0.62819046917415799</v>
+      </c>
+      <c r="R611">
+        <f t="shared" si="69"/>
+        <v>-9.1904713993981035E-3</v>
+      </c>
+      <c r="S611">
+        <f t="shared" si="70"/>
+        <v>7.4761935642787391E-3</v>
+      </c>
+      <c r="T611">
+        <f t="shared" si="71"/>
+        <v>1.1214290346418108E-4</v>
+      </c>
+      <c r="U611">
+        <f t="shared" si="72"/>
+        <v>-81.953214296200017</v>
+      </c>
+    </row>
+    <row r="612" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A612" s="1">
+        <v>45287</v>
+      </c>
+      <c r="B612">
+        <v>0.61900001764297485</v>
+      </c>
+      <c r="C612">
+        <v>0.62199997901916504</v>
+      </c>
+      <c r="D612">
+        <v>0.61699998378753662</v>
+      </c>
+      <c r="E612">
+        <v>0.62099999189376831</v>
+      </c>
+      <c r="F612">
+        <v>4099801.25</v>
+      </c>
+      <c r="G612">
+        <v>40998.01171875</v>
+      </c>
+      <c r="H612">
+        <f t="shared" si="80"/>
+        <v>610</v>
+      </c>
+      <c r="I612">
+        <f>SUM($F$3:F612)/H612</f>
+        <v>4130601.8069159836</v>
+      </c>
+      <c r="N612">
+        <f t="shared" si="81"/>
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="O612">
+        <f t="shared" si="82"/>
+        <v>0.6119999885559082</v>
+      </c>
+      <c r="P612">
+        <f t="shared" si="79"/>
+        <v>0.61999998490015662</v>
+      </c>
+      <c r="Q612">
+        <f t="shared" si="68"/>
+        <v>0.62738094301450809</v>
+      </c>
+      <c r="R612">
+        <f t="shared" si="69"/>
+        <v>-7.3809581143514658E-3</v>
+      </c>
+      <c r="S612">
+        <f t="shared" si="70"/>
+        <v>7.7210899923934274E-3</v>
+      </c>
+      <c r="T612">
+        <f t="shared" si="71"/>
+        <v>1.1581634988590141E-4</v>
+      </c>
+      <c r="U612">
+        <f t="shared" si="72"/>
+        <v>-63.729845756863789</v>
+      </c>
+    </row>
+    <row r="613" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A613" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B613">
+        <v>0.62099999189376831</v>
+      </c>
+      <c r="C613">
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="D613">
+        <v>0.62099999189376831</v>
+      </c>
+      <c r="E613">
+        <v>0.63899999856948853</v>
+      </c>
+      <c r="F613">
+        <v>5897900</v>
+      </c>
+      <c r="G613">
+        <v>58979</v>
+      </c>
+      <c r="H613">
+        <f t="shared" si="80"/>
+        <v>611</v>
+      </c>
+      <c r="I613">
+        <f>SUM($F$3:F613)/H613</f>
+        <v>4133494.2753171031</v>
+      </c>
+      <c r="N613">
+        <f t="shared" si="81"/>
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="O613">
+        <f t="shared" si="82"/>
+        <v>0.6119999885559082</v>
+      </c>
+      <c r="P613">
+        <f t="shared" si="79"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="Q613">
+        <f t="shared" si="68"/>
+        <v>0.62735713379723668</v>
+      </c>
+      <c r="R613">
+        <f t="shared" si="69"/>
+        <v>6.6428695406234306E-3</v>
+      </c>
+      <c r="S613">
+        <f t="shared" si="70"/>
+        <v>7.6938794583690162E-3</v>
+      </c>
+      <c r="T613">
+        <f t="shared" si="71"/>
+        <v>1.1540819187553524E-4</v>
+      </c>
+      <c r="U613">
+        <f t="shared" si="72"/>
+        <v>57.559774853656783</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U613"/>
+  <dimension ref="A1:U614"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A593" workbookViewId="0">
-      <selection activeCell="A614" sqref="A614"/>
+    <sheetView tabSelected="1" topLeftCell="A598" workbookViewId="0">
+      <selection activeCell="A615" sqref="A615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2345,7 +2345,7 @@
         <v>51.139299976509214</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44417</v>
       </c>
@@ -2375,6 +2375,12 @@
         <f>SUM($F$3:F33)/H33</f>
         <v>29832874.903225806</v>
       </c>
+      <c r="K33" s="2">
+        <v>45322</v>
+      </c>
+      <c r="L33" s="2">
+        <v>45293</v>
+      </c>
       <c r="N33">
         <f t="shared" si="9"/>
         <v>1.0469999999999999</v>
@@ -33510,23 +33516,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q613" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q614" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R613" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R614" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S613" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S614" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T613" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T614" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U613" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U614" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -36656,7 +36662,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P613" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P614" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36766,7 +36772,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H613" si="80">H578+1</f>
+        <f t="shared" ref="H579:H614" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -37719,11 +37725,11 @@
         <v>4129583.420555321</v>
       </c>
       <c r="N594">
-        <f t="shared" ref="N594:N613" si="81">IF(A594&lt;&gt;$K$32,MAX(N593,VLOOKUP(A594,A:C,3)),)</f>
+        <f t="shared" ref="N594:N614" si="81">IF(A594&lt;&gt;$K$32,MAX(N593,VLOOKUP(A594,A:C,3)),)</f>
         <v>0.65100002288818359</v>
       </c>
       <c r="O594">
-        <f t="shared" ref="O594:O613" si="82">IF(A594&lt;&gt;$K$32,MIN(O593,VLOOKUP(A594,A:D,4)),)</f>
+        <f t="shared" ref="O594:O614" si="82">IF(A594&lt;&gt;$K$32,MIN(O593,VLOOKUP(A594,A:D,4)),)</f>
         <v>0.64200001955032349</v>
       </c>
       <c r="P594">
@@ -38946,6 +38952,69 @@
       <c r="U613">
         <f t="shared" si="72"/>
         <v>57.559774853656783</v>
+      </c>
+    </row>
+    <row r="614" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A614" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B614">
+        <v>0.64099997282028198</v>
+      </c>
+      <c r="C614">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="D614">
+        <v>0.64099997282028198</v>
+      </c>
+      <c r="E614">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="F614">
+        <v>5609700</v>
+      </c>
+      <c r="G614">
+        <v>56097</v>
+      </c>
+      <c r="H614">
+        <f t="shared" si="80"/>
+        <v>612</v>
+      </c>
+      <c r="I614">
+        <f>SUM($F$3:F614)/H614</f>
+        <v>4135906.376174428</v>
+      </c>
+      <c r="N614">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="O614">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="P614">
+        <f t="shared" si="79"/>
+        <v>0.64399999380111694</v>
+      </c>
+      <c r="Q614">
+        <f t="shared" si="68"/>
+        <v>0.62771427631378174</v>
+      </c>
+      <c r="R614">
+        <f t="shared" si="69"/>
+        <v>1.6285717487335205E-2</v>
+      </c>
+      <c r="S614">
+        <f t="shared" si="70"/>
+        <v>8.1020423344203406E-3</v>
+      </c>
+      <c r="T614">
+        <f t="shared" si="71"/>
+        <v>1.2153063501630511E-4</v>
+      </c>
+      <c r="U614">
+        <f t="shared" si="72"/>
+        <v>134.00503901876459</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U614"/>
+  <dimension ref="A1:U635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A598" workbookViewId="0">
-      <selection activeCell="A615" sqref="A615"/>
+    <sheetView tabSelected="1" topLeftCell="A610" workbookViewId="0">
+      <selection activeCell="A636" sqref="A636"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33516,23 +33516,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q614" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q635" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R614" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R635" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S614" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S635" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T614" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T635" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U614" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U635" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -36662,7 +36662,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P614" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P635" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36772,7 +36772,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H614" si="80">H578+1</f>
+        <f t="shared" ref="H579:H635" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -37725,11 +37725,11 @@
         <v>4129583.420555321</v>
       </c>
       <c r="N594">
-        <f t="shared" ref="N594:N614" si="81">IF(A594&lt;&gt;$K$32,MAX(N593,VLOOKUP(A594,A:C,3)),)</f>
+        <f t="shared" ref="N594:N613" si="81">IF(A594&lt;&gt;$K$32,MAX(N593,VLOOKUP(A594,A:C,3)),)</f>
         <v>0.65100002288818359</v>
       </c>
       <c r="O594">
-        <f t="shared" ref="O594:O614" si="82">IF(A594&lt;&gt;$K$32,MIN(O593,VLOOKUP(A594,A:D,4)),)</f>
+        <f t="shared" ref="O594:O613" si="82">IF(A594&lt;&gt;$K$32,MIN(O593,VLOOKUP(A594,A:D,4)),)</f>
         <v>0.64200001955032349</v>
       </c>
       <c r="P594">
@@ -38985,12 +38985,12 @@
         <v>4135906.376174428</v>
       </c>
       <c r="N614">
-        <f t="shared" si="81"/>
-        <v>0</v>
+        <f>VLOOKUP(L33,A:C,3)</f>
+        <v>0.64499998092651367</v>
       </c>
       <c r="O614">
-        <f t="shared" si="82"/>
-        <v>0</v>
+        <f>VLOOKUP(L33,A:D,4)</f>
+        <v>0.63400000333786011</v>
       </c>
       <c r="P614">
         <f t="shared" si="79"/>
@@ -39015,6 +39015,1329 @@
       <c r="U614">
         <f t="shared" si="72"/>
         <v>134.00503901876459</v>
+      </c>
+    </row>
+    <row r="615" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A615" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B615">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C615">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="D615">
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="E615">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="F615">
+        <v>3965712</v>
+      </c>
+      <c r="G615">
+        <v>39657.12109375</v>
+      </c>
+      <c r="H615">
+        <f t="shared" si="80"/>
+        <v>613</v>
+      </c>
+      <c r="I615">
+        <f>SUM($F$3:F615)/H615</f>
+        <v>4135628.7344514681</v>
+      </c>
+      <c r="N615">
+        <f t="shared" ref="N615:N635" si="83">IF(A615&lt;&gt;$K$33,MAX(N614,VLOOKUP(A615,A:C,3)),)</f>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O615">
+        <f t="shared" ref="O615:O635" si="84">IF(A615&lt;&gt;$K$33,MIN(O614,VLOOKUP(A615,A:D,4)),)</f>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P615">
+        <f t="shared" si="79"/>
+        <v>0.63799999157587683</v>
+      </c>
+      <c r="Q615">
+        <f t="shared" si="68"/>
+        <v>0.6273571337972369</v>
+      </c>
+      <c r="R615">
+        <f t="shared" si="69"/>
+        <v>1.0642857778639936E-2</v>
+      </c>
+      <c r="S615">
+        <f t="shared" si="70"/>
+        <v>7.6938794583690474E-3</v>
+      </c>
+      <c r="T615">
+        <f t="shared" si="71"/>
+        <v>1.154081918755357E-4</v>
+      </c>
+      <c r="U615">
+        <f t="shared" si="72"/>
+        <v>92.219257625298738</v>
+      </c>
+    </row>
+    <row r="616" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A616" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B616">
+        <v>0.63099998235702515</v>
+      </c>
+      <c r="C616">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="D616">
+        <v>0.625</v>
+      </c>
+      <c r="E616">
+        <v>0.62800002098083496</v>
+      </c>
+      <c r="F616">
+        <v>5324003</v>
+      </c>
+      <c r="G616">
+        <v>53240.03125</v>
+      </c>
+      <c r="H616">
+        <f t="shared" si="80"/>
+        <v>614</v>
+      </c>
+      <c r="I616">
+        <f>SUM($F$3:F616)/H616</f>
+        <v>4137564.1974246744</v>
+      </c>
+      <c r="N616">
+        <f t="shared" si="83"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O616">
+        <f t="shared" si="84"/>
+        <v>0.625</v>
+      </c>
+      <c r="P616">
+        <f t="shared" si="79"/>
+        <v>0.62866667906443274</v>
+      </c>
+      <c r="Q616">
+        <f t="shared" si="68"/>
+        <v>0.62676189768882018</v>
+      </c>
+      <c r="R616">
+        <f t="shared" si="69"/>
+        <v>1.9047813756125631E-3</v>
+      </c>
+      <c r="S616">
+        <f t="shared" si="70"/>
+        <v>7.0136096201786225E-3</v>
+      </c>
+      <c r="T616">
+        <f t="shared" si="71"/>
+        <v>1.0520414430267933E-4</v>
+      </c>
+      <c r="U616">
+        <f t="shared" si="72"/>
+        <v>18.105573580185016</v>
+      </c>
+    </row>
+    <row r="617" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A617" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B617">
+        <v>0.62599998712539673</v>
+      </c>
+      <c r="C617">
+        <v>0.62599998712539673</v>
+      </c>
+      <c r="D617">
+        <v>0.61599999666213989</v>
+      </c>
+      <c r="E617">
+        <v>0.62099999189376831</v>
+      </c>
+      <c r="F617">
+        <v>4827800</v>
+      </c>
+      <c r="G617">
+        <v>48278</v>
+      </c>
+      <c r="H617">
+        <f t="shared" si="80"/>
+        <v>615</v>
+      </c>
+      <c r="I617">
+        <f>SUM($F$3:F617)/H617</f>
+        <v>4138686.5320630083</v>
+      </c>
+      <c r="N617">
+        <f t="shared" si="83"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O617">
+        <f t="shared" si="84"/>
+        <v>0.61599999666213989</v>
+      </c>
+      <c r="P617">
+        <f t="shared" si="79"/>
+        <v>0.62099999189376831</v>
+      </c>
+      <c r="Q617">
+        <f t="shared" si="68"/>
+        <v>0.62578570700827107</v>
+      </c>
+      <c r="R617">
+        <f t="shared" si="69"/>
+        <v>-4.7857151145027643E-3</v>
+      </c>
+      <c r="S617">
+        <f t="shared" si="70"/>
+        <v>6.5816367159084611E-3</v>
+      </c>
+      <c r="T617">
+        <f t="shared" si="71"/>
+        <v>9.8724550738626916E-5</v>
+      </c>
+      <c r="U617">
+        <f t="shared" si="72"/>
+        <v>-48.475430667422707</v>
+      </c>
+    </row>
+    <row r="618" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A618" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B618">
+        <v>0.61799997091293335</v>
+      </c>
+      <c r="C618">
+        <v>0.625</v>
+      </c>
+      <c r="D618">
+        <v>0.6119999885559082</v>
+      </c>
+      <c r="E618">
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="F618">
+        <v>5069000</v>
+      </c>
+      <c r="G618">
+        <v>50690</v>
+      </c>
+      <c r="H618">
+        <f t="shared" si="80"/>
+        <v>616</v>
+      </c>
+      <c r="I618">
+        <f>SUM($F$3:F618)/H618</f>
+        <v>4140196.7811992695</v>
+      </c>
+      <c r="N618">
+        <f t="shared" si="83"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O618">
+        <f t="shared" si="84"/>
+        <v>0.6119999885559082</v>
+      </c>
+      <c r="P618">
+        <f t="shared" si="79"/>
+        <v>0.61700000365575158</v>
+      </c>
+      <c r="Q618">
+        <f t="shared" si="68"/>
+        <v>0.6248333269641515</v>
+      </c>
+      <c r="R618">
+        <f t="shared" si="69"/>
+        <v>-7.8333233083999199E-3</v>
+      </c>
+      <c r="S618">
+        <f t="shared" si="70"/>
+        <v>6.4761942746688738E-3</v>
+      </c>
+      <c r="T618">
+        <f t="shared" si="71"/>
+        <v>9.7142914120033099E-5</v>
+      </c>
+      <c r="U618">
+        <f t="shared" si="72"/>
+        <v>-80.637104408055933</v>
+      </c>
+    </row>
+    <row r="619" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A619" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B619">
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="C619">
+        <v>0.61699998378753662</v>
+      </c>
+      <c r="D619">
+        <v>0.60600000619888306</v>
+      </c>
+      <c r="E619">
+        <v>0.60699999332427979</v>
+      </c>
+      <c r="F619">
+        <v>3375707</v>
+      </c>
+      <c r="G619">
+        <v>33757.0703125</v>
+      </c>
+      <c r="H619">
+        <f t="shared" si="80"/>
+        <v>617</v>
+      </c>
+      <c r="I619">
+        <f>SUM($F$3:F619)/H619</f>
+        <v>4138957.7377937599</v>
+      </c>
+      <c r="N619">
+        <f t="shared" si="83"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O619">
+        <f t="shared" si="84"/>
+        <v>0.60600000619888306</v>
+      </c>
+      <c r="P619">
+        <f t="shared" si="79"/>
+        <v>0.60999999443689978</v>
+      </c>
+      <c r="Q619">
+        <f t="shared" si="68"/>
+        <v>0.62395237457184571</v>
+      </c>
+      <c r="R619">
+        <f t="shared" si="69"/>
+        <v>-1.395238013494593E-2</v>
+      </c>
+      <c r="S619">
+        <f t="shared" si="70"/>
+        <v>7.0816351442921088E-3</v>
+      </c>
+      <c r="T619">
+        <f t="shared" si="71"/>
+        <v>1.0622452716438162E-4</v>
+      </c>
+      <c r="U619">
+        <f t="shared" si="72"/>
+        <v>-131.3480088582059</v>
+      </c>
+    </row>
+    <row r="620" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A620" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B620">
+        <v>0.60500001907348633</v>
+      </c>
+      <c r="C620">
+        <v>0.6119999885559082</v>
+      </c>
+      <c r="D620">
+        <v>0.6029999852180481</v>
+      </c>
+      <c r="E620">
+        <v>0.60699999332427979</v>
+      </c>
+      <c r="F620">
+        <v>4566301</v>
+      </c>
+      <c r="G620">
+        <v>45663.01171875</v>
+      </c>
+      <c r="H620">
+        <f t="shared" si="80"/>
+        <v>618</v>
+      </c>
+      <c r="I620">
+        <f>SUM($F$3:F620)/H620</f>
+        <v>4139649.2317455499</v>
+      </c>
+      <c r="N620">
+        <f t="shared" si="83"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O620">
+        <f t="shared" si="84"/>
+        <v>0.6029999852180481</v>
+      </c>
+      <c r="P620">
+        <f t="shared" si="79"/>
+        <v>0.60733332236607873</v>
+      </c>
+      <c r="Q620">
+        <f t="shared" si="68"/>
+        <v>0.6229761838912965</v>
+      </c>
+      <c r="R620">
+        <f t="shared" si="69"/>
+        <v>-1.5642861525217766E-2</v>
+      </c>
+      <c r="S620">
+        <f t="shared" si="70"/>
+        <v>7.7789142018273028E-3</v>
+      </c>
+      <c r="T620">
+        <f t="shared" si="71"/>
+        <v>1.1668371302740954E-4</v>
+      </c>
+      <c r="U620">
+        <f t="shared" si="72"/>
+        <v>-134.06208218231095</v>
+      </c>
+    </row>
+    <row r="621" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A621" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B621">
+        <v>0.60500001907348633</v>
+      </c>
+      <c r="C621">
+        <v>0.60799998044967651</v>
+      </c>
+      <c r="D621">
+        <v>0.59899997711181641</v>
+      </c>
+      <c r="E621">
+        <v>0.6029999852180481</v>
+      </c>
+      <c r="F621">
+        <v>1888100</v>
+      </c>
+      <c r="G621">
+        <v>18881</v>
+      </c>
+      <c r="H621">
+        <f t="shared" si="80"/>
+        <v>619</v>
+      </c>
+      <c r="I621">
+        <f>SUM($F$3:F621)/H621</f>
+        <v>4136011.8339559776</v>
+      </c>
+      <c r="N621">
+        <f t="shared" si="83"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O621">
+        <f t="shared" si="84"/>
+        <v>0.59899997711181641</v>
+      </c>
+      <c r="P621">
+        <f t="shared" si="79"/>
+        <v>0.60333331425984704</v>
+      </c>
+      <c r="Q621">
+        <f t="shared" si="68"/>
+        <v>0.62204761164528999</v>
+      </c>
+      <c r="R621">
+        <f t="shared" si="69"/>
+        <v>-1.8714297385442946E-2</v>
+      </c>
+      <c r="S621">
+        <f t="shared" si="70"/>
+        <v>8.482993865499713E-3</v>
+      </c>
+      <c r="T621">
+        <f t="shared" si="71"/>
+        <v>1.2724490798249569E-4</v>
+      </c>
+      <c r="U621">
+        <f t="shared" si="72"/>
+        <v>-147.07305527713029</v>
+      </c>
+    </row>
+    <row r="622" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A622" s="1">
+        <v>45302</v>
+      </c>
+      <c r="B622">
+        <v>0.60100001096725464</v>
+      </c>
+      <c r="C622">
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="D622">
+        <v>0.60100001096725464</v>
+      </c>
+      <c r="E622">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="F622">
+        <v>4264900</v>
+      </c>
+      <c r="G622">
+        <v>42649</v>
+      </c>
+      <c r="H622">
+        <f t="shared" si="80"/>
+        <v>620</v>
+      </c>
+      <c r="I622">
+        <f>SUM($F$3:F622)/H622</f>
+        <v>4136219.7180947582</v>
+      </c>
+      <c r="N622">
+        <f t="shared" si="83"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O622">
+        <f t="shared" si="84"/>
+        <v>0.59899997711181641</v>
+      </c>
+      <c r="P622">
+        <f t="shared" si="79"/>
+        <v>0.60833334922790527</v>
+      </c>
+      <c r="Q622">
+        <f t="shared" si="68"/>
+        <v>0.62126189896038597</v>
+      </c>
+      <c r="R622">
+        <f t="shared" si="69"/>
+        <v>-1.2928549732480699E-2</v>
+      </c>
+      <c r="S622">
+        <f t="shared" si="70"/>
+        <v>9.1564618811315369E-3</v>
+      </c>
+      <c r="T622">
+        <f t="shared" si="71"/>
+        <v>1.3734692821697306E-4</v>
+      </c>
+      <c r="U622">
+        <f t="shared" si="72"/>
+        <v>-94.130607071582205</v>
+      </c>
+    </row>
+    <row r="623" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A623" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B623">
+        <v>0.61100000143051147</v>
+      </c>
+      <c r="C623">
+        <v>0.6119999885559082</v>
+      </c>
+      <c r="D623">
+        <v>0.60500001907348633</v>
+      </c>
+      <c r="E623">
+        <v>0.60600000619888306</v>
+      </c>
+      <c r="F623">
+        <v>5015500</v>
+      </c>
+      <c r="G623">
+        <v>50155</v>
+      </c>
+      <c r="H623">
+        <f t="shared" si="80"/>
+        <v>621</v>
+      </c>
+      <c r="I623">
+        <f>SUM($F$3:F623)/H623</f>
+        <v>4137635.6283715782</v>
+      </c>
+      <c r="N623">
+        <f t="shared" si="83"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O623">
+        <f t="shared" si="84"/>
+        <v>0.59899997711181641</v>
+      </c>
+      <c r="P623">
+        <f t="shared" si="79"/>
+        <v>0.60766667127609253</v>
+      </c>
+      <c r="Q623">
+        <f t="shared" si="68"/>
+        <v>0.62021428204718088</v>
+      </c>
+      <c r="R623">
+        <f t="shared" si="69"/>
+        <v>-1.2547610771088347E-2</v>
+      </c>
+      <c r="S623">
+        <f t="shared" si="70"/>
+        <v>9.8639454971365306E-3</v>
+      </c>
+      <c r="T623">
+        <f t="shared" si="71"/>
+        <v>1.4795918245704795E-4</v>
+      </c>
+      <c r="U623">
+        <f t="shared" si="72"/>
+        <v>-84.804542460424017</v>
+      </c>
+    </row>
+    <row r="624" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A624" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B624">
+        <v>0.60199999809265137</v>
+      </c>
+      <c r="C624">
+        <v>0.60900002717971802</v>
+      </c>
+      <c r="D624">
+        <v>0.59899997711181641</v>
+      </c>
+      <c r="E624">
+        <v>0.6029999852180481</v>
+      </c>
+      <c r="F624">
+        <v>2965998</v>
+      </c>
+      <c r="G624">
+        <v>29659.98046875</v>
+      </c>
+      <c r="H624">
+        <f t="shared" si="80"/>
+        <v>622</v>
+      </c>
+      <c r="I624">
+        <f>SUM($F$3:F624)/H624</f>
+        <v>4135751.9665896301</v>
+      </c>
+      <c r="N624">
+        <f t="shared" si="83"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O624">
+        <f t="shared" si="84"/>
+        <v>0.59899997711181641</v>
+      </c>
+      <c r="P624">
+        <f t="shared" si="79"/>
+        <v>0.60366666316986084</v>
+      </c>
+      <c r="Q624">
+        <f t="shared" si="68"/>
+        <v>0.61871428291002906</v>
+      </c>
+      <c r="R624">
+        <f t="shared" si="69"/>
+        <v>-1.5047619740168217E-2</v>
+      </c>
+      <c r="S624">
+        <f t="shared" si="70"/>
+        <v>1.0523808853966834E-2</v>
+      </c>
+      <c r="T624">
+        <f t="shared" si="71"/>
+        <v>1.5785713280950251E-4</v>
+      </c>
+      <c r="U624">
+        <f t="shared" si="72"/>
+        <v>-95.324294014178349</v>
+      </c>
+    </row>
+    <row r="625" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A625" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B625">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="C625">
+        <v>0.60699999332427979</v>
+      </c>
+      <c r="D625">
+        <v>0.59799998998641968</v>
+      </c>
+      <c r="E625">
+        <v>0.60600000619888306</v>
+      </c>
+      <c r="F625">
+        <v>4803000</v>
+      </c>
+      <c r="G625">
+        <v>48030</v>
+      </c>
+      <c r="H625">
+        <f t="shared" si="80"/>
+        <v>623</v>
+      </c>
+      <c r="I625">
+        <f>SUM($F$3:F625)/H625</f>
+        <v>4136822.9907203051</v>
+      </c>
+      <c r="N625">
+        <f t="shared" si="83"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O625">
+        <f t="shared" si="84"/>
+        <v>0.59799998998641968</v>
+      </c>
+      <c r="P625">
+        <f t="shared" si="79"/>
+        <v>0.60366666316986084</v>
+      </c>
+      <c r="Q625">
+        <f t="shared" si="68"/>
+        <v>0.61761904472396478</v>
+      </c>
+      <c r="R625">
+        <f t="shared" si="69"/>
+        <v>-1.3952381554103943E-2</v>
+      </c>
+      <c r="S625">
+        <f t="shared" si="70"/>
+        <v>1.1421768032774606E-2</v>
+      </c>
+      <c r="T625">
+        <f t="shared" si="71"/>
+        <v>1.7132652049161909E-4</v>
+      </c>
+      <c r="U625">
+        <f t="shared" si="72"/>
+        <v>-81.437371832847461</v>
+      </c>
+    </row>
+    <row r="626" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A626" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B626">
+        <v>0.60199999809265137</v>
+      </c>
+      <c r="C626">
+        <v>0.6029999852180481</v>
+      </c>
+      <c r="D626">
+        <v>0.59200000762939453</v>
+      </c>
+      <c r="E626">
+        <v>0.59299999475479126</v>
+      </c>
+      <c r="F626">
+        <v>6739621</v>
+      </c>
+      <c r="G626">
+        <v>67396.2109375</v>
+      </c>
+      <c r="H626">
+        <f t="shared" si="80"/>
+        <v>624</v>
+      </c>
+      <c r="I626">
+        <f>SUM($F$3:F626)/H626</f>
+        <v>4140994.141376202</v>
+      </c>
+      <c r="N626">
+        <f t="shared" si="83"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O626">
+        <f t="shared" si="84"/>
+        <v>0.59200000762939453</v>
+      </c>
+      <c r="P626">
+        <f t="shared" si="79"/>
+        <v>0.59599999586741126</v>
+      </c>
+      <c r="Q626">
+        <f t="shared" si="68"/>
+        <v>0.61590475979305448</v>
+      </c>
+      <c r="R626">
+        <f t="shared" si="69"/>
+        <v>-1.9904763925643221E-2</v>
+      </c>
+      <c r="S626">
+        <f t="shared" si="70"/>
+        <v>1.246258636721137E-2</v>
+      </c>
+      <c r="T626">
+        <f t="shared" si="71"/>
+        <v>1.8693879550817056E-4</v>
+      </c>
+      <c r="U626">
+        <f t="shared" si="72"/>
+        <v>-106.47743755668544</v>
+      </c>
+    </row>
+    <row r="627" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A627" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B627">
+        <v>0.59399998188018799</v>
+      </c>
+      <c r="C627">
+        <v>0.60100001096725464</v>
+      </c>
+      <c r="D627">
+        <v>0.58399999141693115</v>
+      </c>
+      <c r="E627">
+        <v>0.60100001096725464</v>
+      </c>
+      <c r="F627">
+        <v>5042200</v>
+      </c>
+      <c r="G627">
+        <v>50422</v>
+      </c>
+      <c r="H627">
+        <f t="shared" si="80"/>
+        <v>625</v>
+      </c>
+      <c r="I627">
+        <f>SUM($F$3:F627)/H627</f>
+        <v>4142436.07075</v>
+      </c>
+      <c r="N627">
+        <f t="shared" si="83"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O627">
+        <f t="shared" si="84"/>
+        <v>0.58399999141693115</v>
+      </c>
+      <c r="P627">
+        <f t="shared" si="79"/>
+        <v>0.59533333778381348</v>
+      </c>
+      <c r="Q627">
+        <f t="shared" si="68"/>
+        <v>0.6131428551106225</v>
+      </c>
+      <c r="R627">
+        <f t="shared" si="69"/>
+        <v>-1.7809517326809021E-2</v>
+      </c>
+      <c r="S627">
+        <f t="shared" si="70"/>
+        <v>1.1850340633976188E-2</v>
+      </c>
+      <c r="T627">
+        <f t="shared" si="71"/>
+        <v>1.7775510950964282E-4</v>
+      </c>
+      <c r="U627">
+        <f t="shared" si="72"/>
+        <v>-100.19131025790792</v>
+      </c>
+    </row>
+    <row r="628" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A628" s="1">
+        <v>45310</v>
+      </c>
+      <c r="B628">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="C628">
+        <v>0.60399997234344482</v>
+      </c>
+      <c r="D628">
+        <v>0.59700000286102295</v>
+      </c>
+      <c r="E628">
+        <v>0.60100001096725464</v>
+      </c>
+      <c r="F628">
+        <v>6041001</v>
+      </c>
+      <c r="G628">
+        <v>60410.01171875</v>
+      </c>
+      <c r="H628">
+        <f t="shared" si="80"/>
+        <v>626</v>
+      </c>
+      <c r="I628">
+        <f>SUM($F$3:F628)/H628</f>
+        <v>4145468.9220746807</v>
+      </c>
+      <c r="N628">
+        <f t="shared" si="83"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O628">
+        <f t="shared" si="84"/>
+        <v>0.58399999141693115</v>
+      </c>
+      <c r="P628">
+        <f t="shared" si="79"/>
+        <v>0.60066666205724084</v>
+      </c>
+      <c r="Q628">
+        <f t="shared" si="68"/>
+        <v>0.6100476171289172</v>
+      </c>
+      <c r="R628">
+        <f t="shared" si="69"/>
+        <v>-9.3809550716763557E-3</v>
+      </c>
+      <c r="S628">
+        <f t="shared" si="70"/>
+        <v>9.210885382023002E-3</v>
+      </c>
+      <c r="T628">
+        <f t="shared" si="71"/>
+        <v>1.3816328073034502E-4</v>
+      </c>
+      <c r="U628">
+        <f t="shared" si="72"/>
+        <v>-67.897599290402511</v>
+      </c>
+    </row>
+    <row r="629" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A629" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B629">
+        <v>0.59500002861022949</v>
+      </c>
+      <c r="C629">
+        <v>0.59899997711181641</v>
+      </c>
+      <c r="D629">
+        <v>0.58099997043609619</v>
+      </c>
+      <c r="E629">
+        <v>0.58499997854232788</v>
+      </c>
+      <c r="F629">
+        <v>6227601</v>
+      </c>
+      <c r="G629">
+        <v>62276.01171875</v>
+      </c>
+      <c r="H629">
+        <f t="shared" si="80"/>
+        <v>627</v>
+      </c>
+      <c r="I629">
+        <f>SUM($F$3:F629)/H629</f>
+        <v>4148789.7068879586</v>
+      </c>
+      <c r="N629">
+        <f t="shared" si="83"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O629">
+        <f t="shared" si="84"/>
+        <v>0.58099997043609619</v>
+      </c>
+      <c r="P629">
+        <f t="shared" si="79"/>
+        <v>0.58833330869674683</v>
+      </c>
+      <c r="Q629">
+        <f t="shared" si="68"/>
+        <v>0.60649999692326506</v>
+      </c>
+      <c r="R629">
+        <f t="shared" si="69"/>
+        <v>-1.8166688226518235E-2</v>
+      </c>
+      <c r="S629">
+        <f t="shared" si="70"/>
+        <v>7.7857190654391306E-3</v>
+      </c>
+      <c r="T629">
+        <f t="shared" si="71"/>
+        <v>1.1678578598158696E-4</v>
+      </c>
+      <c r="U629">
+        <f t="shared" si="72"/>
+        <v>-155.55564466879974</v>
+      </c>
+    </row>
+    <row r="630" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A630" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B630">
+        <v>0.5820000171661377</v>
+      </c>
+      <c r="C630">
+        <v>0.59299999475479126</v>
+      </c>
+      <c r="D630">
+        <v>0.57999998331069946</v>
+      </c>
+      <c r="E630">
+        <v>0.5899999737739563</v>
+      </c>
+      <c r="F630">
+        <v>6997200</v>
+      </c>
+      <c r="G630">
+        <v>69972</v>
+      </c>
+      <c r="H630">
+        <f t="shared" si="80"/>
+        <v>628</v>
+      </c>
+      <c r="I630">
+        <f>SUM($F$3:F630)/H630</f>
+        <v>4153325.3920680732</v>
+      </c>
+      <c r="N630">
+        <f t="shared" si="83"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O630">
+        <f t="shared" si="84"/>
+        <v>0.57999998331069946</v>
+      </c>
+      <c r="P630">
+        <f t="shared" si="79"/>
+        <v>0.58766665061314904</v>
+      </c>
+      <c r="Q630">
+        <f t="shared" si="68"/>
+        <v>0.60357142346245907</v>
+      </c>
+      <c r="R630">
+        <f t="shared" si="69"/>
+        <v>-1.5904772849310023E-2</v>
+      </c>
+      <c r="S630">
+        <f t="shared" si="70"/>
+        <v>7.1564673566493764E-3</v>
+      </c>
+      <c r="T630">
+        <f t="shared" si="71"/>
+        <v>1.0734701034974064E-4</v>
+      </c>
+      <c r="U630">
+        <f t="shared" si="72"/>
+        <v>-148.16223383857331</v>
+      </c>
+    </row>
+    <row r="631" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A631" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B631">
+        <v>0.59700000286102295</v>
+      </c>
+      <c r="C631">
+        <v>0.59700000286102295</v>
+      </c>
+      <c r="D631">
+        <v>0.57700002193450928</v>
+      </c>
+      <c r="E631">
+        <v>0.59299999475479126</v>
+      </c>
+      <c r="F631">
+        <v>10120701</v>
+      </c>
+      <c r="G631">
+        <v>101207.0078125</v>
+      </c>
+      <c r="H631">
+        <f t="shared" si="80"/>
+        <v>629</v>
+      </c>
+      <c r="I631">
+        <f>SUM($F$3:F631)/H631</f>
+        <v>4162812.4757054849</v>
+      </c>
+      <c r="N631">
+        <f t="shared" si="83"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O631">
+        <f t="shared" si="84"/>
+        <v>0.57700002193450928</v>
+      </c>
+      <c r="P631">
+        <f t="shared" si="79"/>
+        <v>0.58900000651677453</v>
+      </c>
+      <c r="Q631">
+        <f t="shared" si="68"/>
+        <v>0.60128571022124522</v>
+      </c>
+      <c r="R631">
+        <f t="shared" si="69"/>
+        <v>-1.2285703704470685E-2</v>
+      </c>
+      <c r="S631">
+        <f t="shared" si="70"/>
+        <v>7.244899970333586E-3</v>
+      </c>
+      <c r="T631">
+        <f t="shared" si="71"/>
+        <v>1.0867349955500379E-4</v>
+      </c>
+      <c r="U631">
+        <f t="shared" si="72"/>
+        <v>-113.05151444260267</v>
+      </c>
+    </row>
+    <row r="632" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A632" s="1">
+        <v>45316</v>
+      </c>
+      <c r="B632">
+        <v>0.59200000762939453</v>
+      </c>
+      <c r="C632">
+        <v>0.60199999809265137</v>
+      </c>
+      <c r="D632">
+        <v>0.58799999952316284</v>
+      </c>
+      <c r="E632">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="F632">
+        <v>9728400</v>
+      </c>
+      <c r="G632">
+        <v>97284</v>
+      </c>
+      <c r="H632">
+        <f t="shared" si="80"/>
+        <v>630</v>
+      </c>
+      <c r="I632">
+        <f>SUM($F$3:F632)/H632</f>
+        <v>4171646.7416170635</v>
+      </c>
+      <c r="N632">
+        <f t="shared" si="83"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O632">
+        <f t="shared" si="84"/>
+        <v>0.57700002193450928</v>
+      </c>
+      <c r="P632">
+        <f t="shared" si="79"/>
+        <v>0.596666673819224</v>
+      </c>
+      <c r="Q632">
+        <f t="shared" si="68"/>
+        <v>0.59983332951863599</v>
+      </c>
+      <c r="R632">
+        <f t="shared" si="69"/>
+        <v>-3.166655699411991E-3</v>
+      </c>
+      <c r="S632">
+        <f t="shared" si="70"/>
+        <v>6.5714291163853399E-3</v>
+      </c>
+      <c r="T632">
+        <f t="shared" si="71"/>
+        <v>9.8571436745780101E-5</v>
+      </c>
+      <c r="U632">
+        <f t="shared" si="72"/>
+        <v>-32.125489938621165</v>
+      </c>
+    </row>
+    <row r="633" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A633" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B633">
+        <v>0.59899997711181641</v>
+      </c>
+      <c r="C633">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="D633">
+        <v>0.59399998188018799</v>
+      </c>
+      <c r="E633">
+        <v>0.59500002861022949</v>
+      </c>
+      <c r="F633">
+        <v>7842006</v>
+      </c>
+      <c r="G633">
+        <v>78420.0625</v>
+      </c>
+      <c r="H633">
+        <f t="shared" si="80"/>
+        <v>631</v>
+      </c>
+      <c r="I633">
+        <f>SUM($F$3:F633)/H633</f>
+        <v>4177463.475782488</v>
+      </c>
+      <c r="N633">
+        <f t="shared" si="83"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O633">
+        <f t="shared" si="84"/>
+        <v>0.57700002193450928</v>
+      </c>
+      <c r="P633">
+        <f t="shared" si="79"/>
+        <v>0.59633334477742517</v>
+      </c>
+      <c r="Q633">
+        <f t="shared" si="68"/>
+        <v>0.59885714025724501</v>
+      </c>
+      <c r="R633">
+        <f t="shared" si="69"/>
+        <v>-2.5237954798198459E-3</v>
+      </c>
+      <c r="S633">
+        <f t="shared" si="70"/>
+        <v>6.0952376751672709E-3</v>
+      </c>
+      <c r="T633">
+        <f t="shared" si="71"/>
+        <v>9.1428565127509058E-5</v>
+      </c>
+      <c r="U633">
+        <f t="shared" si="72"/>
+        <v>-27.60401496293947</v>
+      </c>
+    </row>
+    <row r="634" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A634" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B634">
+        <v>0.59399998188018799</v>
+      </c>
+      <c r="C634">
+        <v>0.59399998188018799</v>
+      </c>
+      <c r="D634">
+        <v>0.57999998331069946</v>
+      </c>
+      <c r="E634">
+        <v>0.58099997043609619</v>
+      </c>
+      <c r="F634">
+        <v>9681100</v>
+      </c>
+      <c r="G634">
+        <v>96811</v>
+      </c>
+      <c r="H634">
+        <f t="shared" si="80"/>
+        <v>632</v>
+      </c>
+      <c r="I634">
+        <f>SUM($F$3:F634)/H634</f>
+        <v>4186171.761422073</v>
+      </c>
+      <c r="N634">
+        <f t="shared" si="83"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O634">
+        <f t="shared" si="84"/>
+        <v>0.57700002193450928</v>
+      </c>
+      <c r="P634">
+        <f t="shared" si="79"/>
+        <v>0.58499997854232788</v>
+      </c>
+      <c r="Q634">
+        <f t="shared" si="68"/>
+        <v>0.59726190141269142</v>
+      </c>
+      <c r="R634">
+        <f t="shared" si="69"/>
+        <v>-1.226192287036354E-2</v>
+      </c>
+      <c r="S634">
+        <f t="shared" si="70"/>
+        <v>6.2517020978084302E-3</v>
+      </c>
+      <c r="T634">
+        <f t="shared" si="71"/>
+        <v>9.3775531467126455E-5</v>
+      </c>
+      <c r="U634">
+        <f t="shared" si="72"/>
+        <v>-130.75823382202879</v>
+      </c>
+    </row>
+    <row r="635" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A635" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B635">
+        <v>0.57700002193450928</v>
+      </c>
+      <c r="C635">
+        <v>0.57999998331069946</v>
+      </c>
+      <c r="D635">
+        <v>0.56599998474121094</v>
+      </c>
+      <c r="E635">
+        <v>0.56599998474121094</v>
+      </c>
+      <c r="F635">
+        <v>8327102.5</v>
+      </c>
+      <c r="G635">
+        <v>83271.0234375</v>
+      </c>
+      <c r="H635">
+        <f t="shared" si="80"/>
+        <v>633</v>
+      </c>
+      <c r="I635">
+        <f>SUM($F$3:F635)/H635</f>
+        <v>4192713.5161433648</v>
+      </c>
+      <c r="N635">
+        <f t="shared" si="83"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O635">
+        <f t="shared" si="84"/>
+        <v>0.56599998474121094</v>
+      </c>
+      <c r="P635">
+        <f t="shared" si="79"/>
+        <v>0.57066665093104041</v>
+      </c>
+      <c r="Q635">
+        <f t="shared" si="68"/>
+        <v>0.59492856831777652</v>
+      </c>
+      <c r="R635">
+        <f t="shared" si="69"/>
+        <v>-2.4261917386736109E-2</v>
+      </c>
+      <c r="S635">
+        <f t="shared" si="70"/>
+        <v>7.7108923269778185E-3</v>
+      </c>
+      <c r="T635">
+        <f t="shared" si="71"/>
+        <v>1.1566338490466727E-4</v>
+      </c>
+      <c r="U635">
+        <f t="shared" si="72"/>
+        <v>-209.76316235888658</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U635"/>
+  <dimension ref="A1:U636"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A610" workbookViewId="0">
-      <selection activeCell="A636" sqref="A636"/>
+    <sheetView tabSelected="1" topLeftCell="A626" workbookViewId="0">
+      <selection activeCell="A637" sqref="A637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2414,7 +2414,7 @@
         <v>27.078189300411573</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44418</v>
       </c>
@@ -2444,6 +2444,12 @@
         <f>SUM($F$3:F34)/H34</f>
         <v>29034552.8125</v>
       </c>
+      <c r="K34" s="2">
+        <v>45351</v>
+      </c>
+      <c r="L34" s="2">
+        <v>45323</v>
+      </c>
       <c r="N34">
         <f t="shared" si="9"/>
         <v>1.0469999999999999</v>
@@ -33516,23 +33522,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q635" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q636" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R635" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R636" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S635" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S636" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T635" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T636" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U635" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U636" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -36662,7 +36668,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P635" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P636" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36772,7 +36778,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H635" si="80">H578+1</f>
+        <f t="shared" ref="H579:H636" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -39048,11 +39054,11 @@
         <v>4135628.7344514681</v>
       </c>
       <c r="N615">
-        <f t="shared" ref="N615:N635" si="83">IF(A615&lt;&gt;$K$33,MAX(N614,VLOOKUP(A615,A:C,3)),)</f>
+        <f t="shared" ref="N615:N636" si="83">IF(A615&lt;&gt;$K$33,MAX(N614,VLOOKUP(A615,A:C,3)),)</f>
         <v>0.64499998092651367</v>
       </c>
       <c r="O615">
-        <f t="shared" ref="O615:O635" si="84">IF(A615&lt;&gt;$K$33,MIN(O614,VLOOKUP(A615,A:D,4)),)</f>
+        <f t="shared" ref="O615:O636" si="84">IF(A615&lt;&gt;$K$33,MIN(O614,VLOOKUP(A615,A:D,4)),)</f>
         <v>0.63400000333786011</v>
       </c>
       <c r="P615">
@@ -40338,6 +40344,69 @@
       <c r="U635">
         <f t="shared" si="72"/>
         <v>-209.76316235888658</v>
+      </c>
+    </row>
+    <row r="636" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A636" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B636">
+        <v>0.56599998474121094</v>
+      </c>
+      <c r="C636">
+        <v>0.56800001859664917</v>
+      </c>
+      <c r="D636">
+        <v>0.55900001525878906</v>
+      </c>
+      <c r="E636">
+        <v>0.56099998950958252</v>
+      </c>
+      <c r="F636">
+        <v>10787006</v>
+      </c>
+      <c r="G636">
+        <v>107870.0625</v>
+      </c>
+      <c r="H636">
+        <f t="shared" si="80"/>
+        <v>634</v>
+      </c>
+      <c r="I636">
+        <f>SUM($F$3:F636)/H636</f>
+        <v>4203114.608389196</v>
+      </c>
+      <c r="N636">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="O636">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="P636">
+        <f t="shared" si="79"/>
+        <v>0.56266667445500695</v>
+      </c>
+      <c r="Q636">
+        <f t="shared" si="68"/>
+        <v>0.59166666297685533</v>
+      </c>
+      <c r="R636">
+        <f t="shared" si="69"/>
+        <v>-2.8999988521848374E-2</v>
+      </c>
+      <c r="S636">
+        <f t="shared" si="70"/>
+        <v>9.5238154437266177E-3</v>
+      </c>
+      <c r="T636">
+        <f t="shared" si="71"/>
+        <v>1.4285723165589925E-4</v>
+      </c>
+      <c r="U636">
+        <f t="shared" si="72"/>
+        <v>-202.99979347003418</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -64,15 +64,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>turnover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>transaction amount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>volume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume mean</t>
+    <t>turnover mean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U651"/>
+  <dimension ref="A1:U671"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A619" workbookViewId="0">
-      <selection activeCell="A652" sqref="A652"/>
+    <sheetView tabSelected="1" topLeftCell="A653" workbookViewId="0">
+      <selection activeCell="A672" sqref="A672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -503,10 +503,10 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
       <c r="I2" t="s">
         <v>14</v>
@@ -33528,23 +33528,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q651" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q671" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R651" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R671" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S651" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S671" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T651" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T671" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U651" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U671" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -36674,7 +36674,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P651" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P671" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36784,7 +36784,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H651" si="80">H578+1</f>
+        <f t="shared" ref="H579:H671" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -40446,11 +40446,11 @@
         <v>4213546.5538877957</v>
       </c>
       <c r="N637">
-        <f t="shared" ref="N637:N651" si="85">IF(A637&lt;&gt;$K$34,MAX(N636,VLOOKUP(A637,A:C,3)),)</f>
+        <f t="shared" ref="N637:N650" si="85">IF(A637&lt;&gt;$K$34,MAX(N636,VLOOKUP(A637,A:C,3)),)</f>
         <v>0.57300001382827759</v>
       </c>
       <c r="O637">
-        <f t="shared" ref="O637:O651" si="86">IF(A637&lt;&gt;$K$34,MIN(O636,VLOOKUP(A637,A:D,4)),)</f>
+        <f t="shared" ref="O637:O650" si="86">IF(A637&lt;&gt;$K$34,MIN(O636,VLOOKUP(A637,A:D,4)),)</f>
         <v>0.55800002813339233</v>
       </c>
       <c r="P637">
@@ -41328,12 +41328,12 @@
         <v>4305005.2464849772</v>
       </c>
       <c r="N651">
-        <f t="shared" si="85"/>
-        <v>0</v>
+        <f>VLOOKUP(L35,A:C,3)</f>
+        <v>0.64899998903274536</v>
       </c>
       <c r="O651">
-        <f t="shared" si="86"/>
-        <v>0</v>
+        <f>VLOOKUP(L35,A:D,4)</f>
+        <v>0.6380000114440918</v>
       </c>
       <c r="P651">
         <f t="shared" si="79"/>
@@ -41358,6 +41358,1266 @@
       <c r="U651">
         <f t="shared" si="72"/>
         <v>102.81793481326457</v>
+      </c>
+    </row>
+    <row r="652" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A652" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B652">
+        <v>0.63899999856948853</v>
+      </c>
+      <c r="C652">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="D652">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="E652">
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="F652">
+        <v>7985700</v>
+      </c>
+      <c r="G652">
+        <v>79857</v>
+      </c>
+      <c r="H652">
+        <f t="shared" si="80"/>
+        <v>650</v>
+      </c>
+      <c r="I652">
+        <f>SUM($F$3:F652)/H652</f>
+        <v>4310667.8537980765</v>
+      </c>
+      <c r="N652">
+        <f t="shared" ref="N652:N671" si="87">IF(A652&lt;&gt;$K$35,MAX(N651,VLOOKUP(A652,A:C,3)),)</f>
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="O652">
+        <f t="shared" ref="O652:O671" si="88">IF(A652&lt;&gt;$K$35,MIN(O651,VLOOKUP(A652,A:D,4)),)</f>
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="P652">
+        <f t="shared" si="79"/>
+        <v>0.64500000079472863</v>
+      </c>
+      <c r="Q652">
+        <f t="shared" si="68"/>
+        <v>0.60935713705562411</v>
+      </c>
+      <c r="R652">
+        <f t="shared" si="69"/>
+        <v>3.5642863739104524E-2</v>
+      </c>
+      <c r="S652">
+        <f t="shared" si="70"/>
+        <v>1.6734689676842718E-2</v>
+      </c>
+      <c r="T652">
+        <f t="shared" si="71"/>
+        <v>2.5102034515264075E-4</v>
+      </c>
+      <c r="U652">
+        <f t="shared" si="72"/>
+        <v>141.9919318389542</v>
+      </c>
+    </row>
+    <row r="653" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A653" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B653">
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="C653">
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="D653">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="E653">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="F653">
+        <v>6837400</v>
+      </c>
+      <c r="G653">
+        <v>68374</v>
+      </c>
+      <c r="H653">
+        <f t="shared" si="80"/>
+        <v>651</v>
+      </c>
+      <c r="I653">
+        <f>SUM($F$3:F653)/H653</f>
+        <v>4314549.1627784176</v>
+      </c>
+      <c r="N653">
+        <f t="shared" si="87"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="O653">
+        <f t="shared" si="88"/>
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="P653">
+        <f t="shared" si="79"/>
+        <v>0.64933331807454431</v>
+      </c>
+      <c r="Q653">
+        <f t="shared" si="68"/>
+        <v>0.61621427961758202</v>
+      </c>
+      <c r="R653">
+        <f t="shared" si="69"/>
+        <v>3.3119038456962291E-2</v>
+      </c>
+      <c r="S653">
+        <f t="shared" si="70"/>
+        <v>1.4357139666875201E-2</v>
+      </c>
+      <c r="T653">
+        <f t="shared" si="71"/>
+        <v>2.1535709500312801E-4</v>
+      </c>
+      <c r="U653">
+        <f t="shared" si="72"/>
+        <v>153.78661407222847</v>
+      </c>
+    </row>
+    <row r="654" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A654" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B654">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C654">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="D654">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="E654">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="F654">
+        <v>6104100</v>
+      </c>
+      <c r="G654">
+        <v>61041</v>
+      </c>
+      <c r="H654">
+        <f t="shared" si="80"/>
+        <v>652</v>
+      </c>
+      <c r="I654">
+        <f>SUM($F$3:F654)/H654</f>
+        <v>4317293.8726514569</v>
+      </c>
+      <c r="N654">
+        <f t="shared" si="87"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="O654">
+        <f t="shared" si="88"/>
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="P654">
+        <f t="shared" si="79"/>
+        <v>0.64733332395553589</v>
+      </c>
+      <c r="Q654">
+        <f t="shared" si="68"/>
+        <v>0.62128570675849915</v>
+      </c>
+      <c r="R654">
+        <f t="shared" si="69"/>
+        <v>2.6047617197036743E-2</v>
+      </c>
+      <c r="S654">
+        <f t="shared" si="70"/>
+        <v>1.3945576690492179E-2</v>
+      </c>
+      <c r="T654">
+        <f t="shared" si="71"/>
+        <v>2.0918365035738266E-4</v>
+      </c>
+      <c r="U654">
+        <f t="shared" si="72"/>
+        <v>124.52033011440109</v>
+      </c>
+    </row>
+    <row r="655" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A655" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B655">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C655">
+        <v>0.65299999713897705</v>
+      </c>
+      <c r="D655">
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="E655">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="F655">
+        <v>9097800</v>
+      </c>
+      <c r="G655">
+        <v>90978</v>
+      </c>
+      <c r="H655">
+        <f t="shared" si="80"/>
+        <v>653</v>
+      </c>
+      <c r="I655">
+        <f>SUM($F$3:F655)/H655</f>
+        <v>4324614.7089873664</v>
+      </c>
+      <c r="N655">
+        <f t="shared" si="87"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="O655">
+        <f t="shared" si="88"/>
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="P655">
+        <f t="shared" si="79"/>
+        <v>0.64733334382375085</v>
+      </c>
+      <c r="Q655">
+        <f t="shared" si="68"/>
+        <v>0.62521427869796753</v>
+      </c>
+      <c r="R655">
+        <f t="shared" si="69"/>
+        <v>2.2119065125783322E-2</v>
+      </c>
+      <c r="S655">
+        <f t="shared" si="70"/>
+        <v>1.3768709841228679E-2</v>
+      </c>
+      <c r="T655">
+        <f t="shared" si="71"/>
+        <v>2.0653064761843017E-4</v>
+      </c>
+      <c r="U655">
+        <f t="shared" si="72"/>
+        <v>107.09822189028706</v>
+      </c>
+    </row>
+    <row r="656" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A656" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B656">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="C656">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="D656">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="E656">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="F656">
+        <v>8184200</v>
+      </c>
+      <c r="G656">
+        <v>81842</v>
+      </c>
+      <c r="H656">
+        <f t="shared" si="80"/>
+        <v>654</v>
+      </c>
+      <c r="I656">
+        <f>SUM($F$3:F656)/H656</f>
+        <v>4330516.215548547</v>
+      </c>
+      <c r="N656">
+        <f t="shared" si="87"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="O656">
+        <f t="shared" si="88"/>
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="P656">
+        <f t="shared" si="79"/>
+        <v>0.64233334859212243</v>
+      </c>
+      <c r="Q656">
+        <f t="shared" si="68"/>
+        <v>0.62799999401682904</v>
+      </c>
+      <c r="R656">
+        <f t="shared" si="69"/>
+        <v>1.4333354575293389E-2</v>
+      </c>
+      <c r="S656">
+        <f t="shared" si="70"/>
+        <v>1.3714291206022531E-2</v>
+      </c>
+      <c r="T656">
+        <f t="shared" si="71"/>
+        <v>2.0571436809033796E-4</v>
+      </c>
+      <c r="U656">
+        <f t="shared" si="72"/>
+        <v>69.676001284455737</v>
+      </c>
+    </row>
+    <row r="657" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A657" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B657">
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="C657">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="D657">
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="E657">
+        <v>0.64399999380111694</v>
+      </c>
+      <c r="F657">
+        <v>8433300</v>
+      </c>
+      <c r="G657">
+        <v>84333</v>
+      </c>
+      <c r="H657">
+        <f t="shared" si="80"/>
+        <v>655</v>
+      </c>
+      <c r="I657">
+        <f>SUM($F$3:F657)/H657</f>
+        <v>4336780.0075858776</v>
+      </c>
+      <c r="N657">
+        <f t="shared" si="87"/>
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="O657">
+        <f t="shared" si="88"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P657">
+        <f t="shared" si="79"/>
+        <v>0.64099999268849694</v>
+      </c>
+      <c r="Q657">
+        <f t="shared" si="68"/>
+        <v>0.63040475618271596</v>
+      </c>
+      <c r="R657">
+        <f t="shared" si="69"/>
+        <v>1.0595236505780981E-2</v>
+      </c>
+      <c r="S657">
+        <f t="shared" si="70"/>
+        <v>1.3166671707516644E-2</v>
+      </c>
+      <c r="T657">
+        <f t="shared" si="71"/>
+        <v>1.9750007561274965E-4</v>
+      </c>
+      <c r="U657">
+        <f t="shared" si="72"/>
+        <v>53.646746579255499</v>
+      </c>
+    </row>
+    <row r="658" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A658" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B658">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="C658">
+        <v>0.66200000047683716</v>
+      </c>
+      <c r="D658">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="E658">
+        <v>0.66200000047683716</v>
+      </c>
+      <c r="F658">
+        <v>8367000</v>
+      </c>
+      <c r="G658">
+        <v>83670</v>
+      </c>
+      <c r="H658">
+        <f t="shared" si="80"/>
+        <v>656</v>
+      </c>
+      <c r="I658">
+        <f>SUM($F$3:F658)/H658</f>
+        <v>4342923.6356230946</v>
+      </c>
+      <c r="N658">
+        <f t="shared" si="87"/>
+        <v>0.66200000047683716</v>
+      </c>
+      <c r="O658">
+        <f t="shared" si="88"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P658">
+        <f t="shared" si="79"/>
+        <v>0.65666667620340979</v>
+      </c>
+      <c r="Q658">
+        <f t="shared" si="68"/>
+        <v>0.6339999948229107</v>
+      </c>
+      <c r="R658">
+        <f t="shared" si="69"/>
+        <v>2.2666681380499099E-2</v>
+      </c>
+      <c r="S658">
+        <f t="shared" si="70"/>
+        <v>1.3000005767458975E-2</v>
+      </c>
+      <c r="T658">
+        <f t="shared" si="71"/>
+        <v>1.9500008651188462E-4</v>
+      </c>
+      <c r="U658">
+        <f t="shared" si="72"/>
+        <v>116.23934012520368</v>
+      </c>
+    </row>
+    <row r="659" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A659" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B659">
+        <v>0.66200000047683716</v>
+      </c>
+      <c r="C659">
+        <v>0.66600000858306885</v>
+      </c>
+      <c r="D659">
+        <v>0.65799999237060547</v>
+      </c>
+      <c r="E659">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="F659">
+        <v>9596400</v>
+      </c>
+      <c r="G659">
+        <v>95964</v>
+      </c>
+      <c r="H659">
+        <f t="shared" si="80"/>
+        <v>657</v>
+      </c>
+      <c r="I659">
+        <f>SUM($F$3:F659)/H659</f>
+        <v>4350919.7944729831</v>
+      </c>
+      <c r="N659">
+        <f t="shared" si="87"/>
+        <v>0.66600000858306885</v>
+      </c>
+      <c r="O659">
+        <f t="shared" si="88"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P659">
+        <f t="shared" si="79"/>
+        <v>0.66266665856043494</v>
+      </c>
+      <c r="Q659">
+        <f t="shared" si="68"/>
+        <v>0.63764285189764824</v>
+      </c>
+      <c r="R659">
+        <f t="shared" si="69"/>
+        <v>2.5023806662786696E-2</v>
+      </c>
+      <c r="S659">
+        <f t="shared" si="70"/>
+        <v>1.2931978215976667E-2</v>
+      </c>
+      <c r="T659">
+        <f t="shared" si="71"/>
+        <v>1.9397967323965E-4</v>
+      </c>
+      <c r="U659">
+        <f t="shared" si="72"/>
+        <v>129.00221061755948</v>
+      </c>
+    </row>
+    <row r="660" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A660" s="1">
+        <v>45364</v>
+      </c>
+      <c r="B660">
+        <v>0.66600000858306885</v>
+      </c>
+      <c r="C660">
+        <v>0.66699999570846558</v>
+      </c>
+      <c r="D660">
+        <v>0.66100001335144043</v>
+      </c>
+      <c r="E660">
+        <v>0.66200000047683716</v>
+      </c>
+      <c r="F660">
+        <v>7583700</v>
+      </c>
+      <c r="G660">
+        <v>75837</v>
+      </c>
+      <c r="H660">
+        <f t="shared" si="80"/>
+        <v>658</v>
+      </c>
+      <c r="I660">
+        <f>SUM($F$3:F660)/H660</f>
+        <v>4355832.8342990121</v>
+      </c>
+      <c r="N660">
+        <f t="shared" si="87"/>
+        <v>0.66699999570846558</v>
+      </c>
+      <c r="O660">
+        <f t="shared" si="88"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P660">
+        <f t="shared" si="79"/>
+        <v>0.66333333651224768</v>
+      </c>
+      <c r="Q660">
+        <f t="shared" si="68"/>
+        <v>0.64104761538051414</v>
+      </c>
+      <c r="R660">
+        <f t="shared" si="69"/>
+        <v>2.2285721131733549E-2</v>
+      </c>
+      <c r="S660">
+        <f t="shared" si="70"/>
+        <v>1.2231297638951533E-2</v>
+      </c>
+      <c r="T660">
+        <f t="shared" si="71"/>
+        <v>1.8346946458427298E-4</v>
+      </c>
+      <c r="U660">
+        <f t="shared" si="72"/>
+        <v>121.46828455749406</v>
+      </c>
+    </row>
+    <row r="661" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A661" s="1">
+        <v>45365</v>
+      </c>
+      <c r="B661">
+        <v>0.65799999237060547</v>
+      </c>
+      <c r="C661">
+        <v>0.6679999828338623</v>
+      </c>
+      <c r="D661">
+        <v>0.65600001811981201</v>
+      </c>
+      <c r="E661">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="F661">
+        <v>6283300</v>
+      </c>
+      <c r="G661">
+        <v>62833</v>
+      </c>
+      <c r="H661">
+        <f t="shared" si="80"/>
+        <v>659</v>
+      </c>
+      <c r="I661">
+        <f>SUM($F$3:F661)/H661</f>
+        <v>4358757.6706657819</v>
+      </c>
+      <c r="N661">
+        <f t="shared" si="87"/>
+        <v>0.6679999828338623</v>
+      </c>
+      <c r="O661">
+        <f t="shared" si="88"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P661">
+        <f t="shared" si="79"/>
+        <v>0.66099999348322547</v>
+      </c>
+      <c r="Q661">
+        <f t="shared" si="68"/>
+        <v>0.6442142824331919</v>
+      </c>
+      <c r="R661">
+        <f t="shared" si="69"/>
+        <v>1.6785711050033569E-2</v>
+      </c>
+      <c r="S661">
+        <f t="shared" si="70"/>
+        <v>1.1278913134620301E-2</v>
+      </c>
+      <c r="T661">
+        <f t="shared" si="71"/>
+        <v>1.6918369701930449E-4</v>
+      </c>
+      <c r="U661">
+        <f t="shared" si="72"/>
+        <v>99.215889862710924</v>
+      </c>
+    </row>
+    <row r="662" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A662" s="1">
+        <v>45366</v>
+      </c>
+      <c r="B662">
+        <v>0.65200001001358032</v>
+      </c>
+      <c r="C662">
+        <v>0.6600000262260437</v>
+      </c>
+      <c r="D662">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="E662">
+        <v>0.6600000262260437</v>
+      </c>
+      <c r="F662">
+        <v>8597202</v>
+      </c>
+      <c r="G662">
+        <v>85972.0234375</v>
+      </c>
+      <c r="H662">
+        <f t="shared" si="80"/>
+        <v>660</v>
+      </c>
+      <c r="I662">
+        <f>SUM($F$3:F662)/H662</f>
+        <v>4365179.5560132572</v>
+      </c>
+      <c r="N662">
+        <f t="shared" si="87"/>
+        <v>0.6679999828338623</v>
+      </c>
+      <c r="O662">
+        <f t="shared" si="88"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P662">
+        <f t="shared" si="79"/>
+        <v>0.65633334716161096</v>
+      </c>
+      <c r="Q662">
+        <f t="shared" si="68"/>
+        <v>0.64685714102926717</v>
+      </c>
+      <c r="R662">
+        <f t="shared" si="69"/>
+        <v>9.4762061323437896E-3</v>
+      </c>
+      <c r="S662">
+        <f t="shared" si="70"/>
+        <v>9.8775527915175854E-3</v>
+      </c>
+      <c r="T662">
+        <f t="shared" si="71"/>
+        <v>1.4816329187276376E-4</v>
+      </c>
+      <c r="U662">
+        <f t="shared" si="72"/>
+        <v>63.957853612496315</v>
+      </c>
+    </row>
+    <row r="663" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A663" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B663">
+        <v>0.66500002145767212</v>
+      </c>
+      <c r="C663">
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="D663">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="E663">
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="F663">
+        <v>9510701</v>
+      </c>
+      <c r="G663">
+        <v>95107.0078125</v>
+      </c>
+      <c r="H663">
+        <f t="shared" si="80"/>
+        <v>661</v>
+      </c>
+      <c r="I663">
+        <f>SUM($F$3:F663)/H663</f>
+        <v>4372964.0060041603</v>
+      </c>
+      <c r="N663">
+        <f t="shared" si="87"/>
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="O663">
+        <f t="shared" si="88"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P663">
+        <f t="shared" si="79"/>
+        <v>0.66766667366027832</v>
+      </c>
+      <c r="Q663">
+        <f t="shared" si="68"/>
+        <v>0.64983333292461587</v>
+      </c>
+      <c r="R663">
+        <f t="shared" si="69"/>
+        <v>1.7833340735662451E-2</v>
+      </c>
+      <c r="S663">
+        <f t="shared" si="70"/>
+        <v>9.8095268619303733E-3</v>
+      </c>
+      <c r="T663">
+        <f t="shared" si="71"/>
+        <v>1.471429029289556E-4</v>
+      </c>
+      <c r="U663">
+        <f t="shared" si="72"/>
+        <v>121.1974235976087</v>
+      </c>
+    </row>
+    <row r="664" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A664" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B664">
+        <v>0.66699999570846558</v>
+      </c>
+      <c r="C664">
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="D664">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="E664">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="F664">
+        <v>4593200</v>
+      </c>
+      <c r="G664">
+        <v>45932</v>
+      </c>
+      <c r="H664">
+        <f t="shared" si="80"/>
+        <v>662</v>
+      </c>
+      <c r="I664">
+        <f>SUM($F$3:F664)/H664</f>
+        <v>4373296.6887745466</v>
+      </c>
+      <c r="N664">
+        <f t="shared" si="87"/>
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="O664">
+        <f t="shared" si="88"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P664">
+        <f t="shared" si="79"/>
+        <v>0.66599998871485389</v>
+      </c>
+      <c r="Q664">
+        <f t="shared" si="68"/>
+        <v>0.65276190496626352</v>
+      </c>
+      <c r="R664">
+        <f t="shared" si="69"/>
+        <v>1.3238083748590368E-2</v>
+      </c>
+      <c r="S664">
+        <f t="shared" si="70"/>
+        <v>9.1904770760308872E-3</v>
+      </c>
+      <c r="T664">
+        <f t="shared" si="71"/>
+        <v>1.3785715614046329E-4</v>
+      </c>
+      <c r="U664">
+        <f t="shared" si="72"/>
+        <v>96.027541255109199</v>
+      </c>
+    </row>
+    <row r="665" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A665" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B665">
+        <v>0.66600000858306885</v>
+      </c>
+      <c r="C665">
+        <v>0.66600000858306885</v>
+      </c>
+      <c r="D665">
+        <v>0.66100001335144043</v>
+      </c>
+      <c r="E665">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="F665">
+        <v>7983400</v>
+      </c>
+      <c r="G665">
+        <v>79834</v>
+      </c>
+      <c r="H665">
+        <f t="shared" si="80"/>
+        <v>663</v>
+      </c>
+      <c r="I665">
+        <f>SUM($F$3:F665)/H665</f>
+        <v>4378741.7918080697</v>
+      </c>
+      <c r="N665">
+        <f t="shared" si="87"/>
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="O665">
+        <f t="shared" si="88"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P665">
+        <f t="shared" si="79"/>
+        <v>0.66333333651224768</v>
+      </c>
+      <c r="Q665">
+        <f t="shared" si="68"/>
+        <v>0.65495238133839195</v>
+      </c>
+      <c r="R665">
+        <f t="shared" si="69"/>
+        <v>8.3809551738557309E-3</v>
+      </c>
+      <c r="S665">
+        <f t="shared" si="70"/>
+        <v>8.1972800144532697E-3</v>
+      </c>
+      <c r="T665">
+        <f t="shared" si="71"/>
+        <v>1.2295920021679905E-4</v>
+      </c>
+      <c r="U665">
+        <f t="shared" si="72"/>
+        <v>68.160456143815253</v>
+      </c>
+    </row>
+    <row r="666" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A666" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B666">
+        <v>0.66600000858306885</v>
+      </c>
+      <c r="C666">
+        <v>0.66600000858306885</v>
+      </c>
+      <c r="D666">
+        <v>0.6600000262260437</v>
+      </c>
+      <c r="E666">
+        <v>0.6600000262260437</v>
+      </c>
+      <c r="F666">
+        <v>9111000</v>
+      </c>
+      <c r="G666">
+        <v>91110</v>
+      </c>
+      <c r="H666">
+        <f t="shared" si="80"/>
+        <v>664</v>
+      </c>
+      <c r="I666">
+        <f>SUM($F$3:F666)/H666</f>
+        <v>4385868.686699925</v>
+      </c>
+      <c r="N666">
+        <f t="shared" si="87"/>
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="O666">
+        <f t="shared" si="88"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P666">
+        <f t="shared" si="79"/>
+        <v>0.66200002034505212</v>
+      </c>
+      <c r="Q666">
+        <f t="shared" si="68"/>
+        <v>0.65616666844912952</v>
+      </c>
+      <c r="R666">
+        <f t="shared" si="69"/>
+        <v>5.8333518959226005E-3</v>
+      </c>
+      <c r="S666">
+        <f t="shared" si="70"/>
+        <v>7.6428593015994539E-3</v>
+      </c>
+      <c r="T666">
+        <f t="shared" si="71"/>
+        <v>1.1464288952399181E-4</v>
+      </c>
+      <c r="U666">
+        <f t="shared" si="72"/>
+        <v>50.882805903996598</v>
+      </c>
+    </row>
+    <row r="667" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A667" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B667">
+        <v>0.65700000524520874</v>
+      </c>
+      <c r="C667">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="D667">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="E667">
+        <v>0.65499997138977051</v>
+      </c>
+      <c r="F667">
+        <v>9943601</v>
+      </c>
+      <c r="G667">
+        <v>99436.0078125</v>
+      </c>
+      <c r="H667">
+        <f t="shared" si="80"/>
+        <v>665</v>
+      </c>
+      <c r="I667">
+        <f>SUM($F$3:F667)/H667</f>
+        <v>4394226.178900376</v>
+      </c>
+      <c r="N667">
+        <f t="shared" si="87"/>
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="O667">
+        <f t="shared" si="88"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P667">
+        <f t="shared" si="79"/>
+        <v>0.65433331330617273</v>
+      </c>
+      <c r="Q667">
+        <f t="shared" si="68"/>
+        <v>0.65652381096567436</v>
+      </c>
+      <c r="R667">
+        <f t="shared" si="69"/>
+        <v>-2.1904976595016334E-3</v>
+      </c>
+      <c r="S667">
+        <f t="shared" si="70"/>
+        <v>7.2108851809079555E-3</v>
+      </c>
+      <c r="T667">
+        <f t="shared" si="71"/>
+        <v>1.0816327771361933E-4</v>
+      </c>
+      <c r="U667">
+        <f t="shared" si="72"/>
+        <v>-20.251768491163411</v>
+      </c>
+    </row>
+    <row r="668" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A668" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B668">
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="C668">
+        <v>0.65799999237060547</v>
+      </c>
+      <c r="D668">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="E668">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="F668">
+        <v>7009100</v>
+      </c>
+      <c r="G668">
+        <v>70091</v>
+      </c>
+      <c r="H668">
+        <f t="shared" si="80"/>
+        <v>666</v>
+      </c>
+      <c r="I668">
+        <f>SUM($F$3:F668)/H668</f>
+        <v>4398152.4158689938</v>
+      </c>
+      <c r="N668">
+        <f t="shared" si="87"/>
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="O668">
+        <f t="shared" si="88"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P668">
+        <f t="shared" si="79"/>
+        <v>0.6500000158945719</v>
+      </c>
+      <c r="Q668">
+        <f t="shared" si="68"/>
+        <v>0.65671428896131967</v>
+      </c>
+      <c r="R668">
+        <f t="shared" si="69"/>
+        <v>-6.7142730667477668E-3</v>
+      </c>
+      <c r="S668">
+        <f t="shared" si="70"/>
+        <v>6.9999978655860351E-3</v>
+      </c>
+      <c r="T668">
+        <f t="shared" si="71"/>
+        <v>1.0499996798379052E-4</v>
+      </c>
+      <c r="U668">
+        <f t="shared" si="72"/>
+        <v>-63.94547727656726</v>
+      </c>
+    </row>
+    <row r="669" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A669" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B669">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C669">
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="D669">
+        <v>0.64399999380111694</v>
+      </c>
+      <c r="E669">
+        <v>0.65200001001358032</v>
+      </c>
+      <c r="F669">
+        <v>8737911</v>
+      </c>
+      <c r="G669">
+        <v>87379.109375</v>
+      </c>
+      <c r="H669">
+        <f t="shared" si="80"/>
+        <v>667</v>
+      </c>
+      <c r="I669">
+        <f>SUM($F$3:F669)/H669</f>
+        <v>4404658.8005528487</v>
+      </c>
+      <c r="N669">
+        <f t="shared" si="87"/>
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="O669">
+        <f t="shared" si="88"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P669">
+        <f t="shared" si="79"/>
+        <v>0.64999999602635705</v>
+      </c>
+      <c r="Q669">
+        <f t="shared" si="68"/>
+        <v>0.65690476411864862</v>
+      </c>
+      <c r="R669">
+        <f t="shared" si="69"/>
+        <v>-6.9047680922915688E-3</v>
+      </c>
+      <c r="S669">
+        <f t="shared" si="70"/>
+        <v>6.8095227082570209E-3</v>
+      </c>
+      <c r="T669">
+        <f t="shared" si="71"/>
+        <v>1.0214284062385531E-4</v>
+      </c>
+      <c r="U669">
+        <f t="shared" si="72"/>
+        <v>-67.599139108717623</v>
+      </c>
+    </row>
+    <row r="670" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A670" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B670">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="C670">
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="D670">
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="E670">
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="F670">
+        <v>8944000</v>
+      </c>
+      <c r="G670">
+        <v>89440</v>
+      </c>
+      <c r="H670">
+        <f t="shared" si="80"/>
+        <v>668</v>
+      </c>
+      <c r="I670">
+        <f>SUM($F$3:F670)/H670</f>
+        <v>4411454.2215101048</v>
+      </c>
+      <c r="N670">
+        <f t="shared" si="87"/>
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="O670">
+        <f t="shared" si="88"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P670">
+        <f t="shared" si="79"/>
+        <v>0.64066668351491296</v>
+      </c>
+      <c r="Q670">
+        <f t="shared" si="68"/>
+        <v>0.65678571661313379</v>
+      </c>
+      <c r="R670">
+        <f t="shared" si="69"/>
+        <v>-1.6119033098220825E-2</v>
+      </c>
+      <c r="S670">
+        <f t="shared" si="70"/>
+        <v>6.928570213771983E-3</v>
+      </c>
+      <c r="T670">
+        <f t="shared" si="71"/>
+        <v>1.0392855320657975E-4</v>
+      </c>
+      <c r="U670">
+        <f t="shared" si="72"/>
+        <v>-155.09725288084087</v>
+      </c>
+    </row>
+    <row r="671" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A671" s="1">
+        <v>45379</v>
+      </c>
+      <c r="B671">
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="C671">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="D671">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="E671">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="F671">
+        <v>8218500</v>
+      </c>
+      <c r="G671">
+        <v>82185</v>
+      </c>
+      <c r="H671">
+        <f t="shared" si="80"/>
+        <v>669</v>
+      </c>
+      <c r="I671">
+        <f>SUM($F$3:F671)/H671</f>
+        <v>4417144.8728979817</v>
+      </c>
+      <c r="N671">
+        <f t="shared" si="87"/>
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="O671">
+        <f t="shared" si="88"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P671">
+        <f t="shared" si="79"/>
+        <v>0.64433334271113074</v>
+      </c>
+      <c r="Q671">
+        <f t="shared" si="68"/>
+        <v>0.65702381304332191</v>
+      </c>
+      <c r="R671">
+        <f t="shared" si="69"/>
+        <v>-1.2690470332191173E-2</v>
+      </c>
+      <c r="S671">
+        <f t="shared" si="70"/>
+        <v>6.6904737835838547E-3</v>
+      </c>
+      <c r="T671">
+        <f t="shared" si="71"/>
+        <v>1.0035710675375781E-4</v>
+      </c>
+      <c r="U671">
+        <f t="shared" si="72"/>
+        <v>-126.45313065201519</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U671"/>
+  <dimension ref="A1:U691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A653" workbookViewId="0">
-      <selection activeCell="A672" sqref="A672"/>
+    <sheetView tabSelected="1" topLeftCell="A673" workbookViewId="0">
+      <selection activeCell="A692" sqref="A692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2552,7 +2552,7 @@
         <v>47.886591234230949</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44420</v>
       </c>
@@ -2582,6 +2582,12 @@
         <f>SUM($F$3:F36)/H36</f>
         <v>27622013.794117648</v>
       </c>
+      <c r="K36" s="2">
+        <v>45412</v>
+      </c>
+      <c r="L36" s="2">
+        <v>45383</v>
+      </c>
       <c r="N36">
         <f t="shared" si="9"/>
         <v>1.0469999999999999</v>
@@ -33528,23 +33534,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q671" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q691" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R671" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R691" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S671" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S691" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T671" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T691" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U671" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U691" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -36674,7 +36680,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P671" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P691" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36784,7 +36790,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H671" si="80">H578+1</f>
+        <f t="shared" ref="H579:H691" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -42618,6 +42624,1266 @@
       <c r="U671">
         <f t="shared" si="72"/>
         <v>-126.45313065201519</v>
+      </c>
+    </row>
+    <row r="672" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A672" s="1">
+        <v>45380</v>
+      </c>
+      <c r="B672">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C672">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="D672">
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="E672">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="F672">
+        <v>8545319</v>
+      </c>
+      <c r="G672">
+        <v>85453.1875</v>
+      </c>
+      <c r="H672">
+        <f t="shared" si="80"/>
+        <v>670</v>
+      </c>
+      <c r="I672">
+        <f>SUM($F$3:F672)/H672</f>
+        <v>4423306.3268190296</v>
+      </c>
+      <c r="N672">
+        <f>VLOOKUP(L36,A:C,3)</f>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O672">
+        <f>VLOOKUP(L36,A:D,4)</f>
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="P672">
+        <f t="shared" si="79"/>
+        <v>0.64500002066294349</v>
+      </c>
+      <c r="Q672">
+        <f t="shared" si="68"/>
+        <v>0.65619048050471707</v>
+      </c>
+      <c r="R672">
+        <f t="shared" si="69"/>
+        <v>-1.1190459841773581E-2</v>
+      </c>
+      <c r="S672">
+        <f t="shared" si="70"/>
+        <v>7.5442158446020046E-3</v>
+      </c>
+      <c r="T672">
+        <f t="shared" si="71"/>
+        <v>1.1316323766903006E-4</v>
+      </c>
+      <c r="U672">
+        <f t="shared" si="72"/>
+        <v>-98.887766665906639</v>
+      </c>
+    </row>
+    <row r="673" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A673" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B673">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C673">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="D673">
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="E673">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="F673">
+        <v>9247900</v>
+      </c>
+      <c r="G673">
+        <v>92479</v>
+      </c>
+      <c r="H673">
+        <f t="shared" si="80"/>
+        <v>671</v>
+      </c>
+      <c r="I673">
+        <f>SUM($F$3:F673)/H673</f>
+        <v>4430496.4813245153</v>
+      </c>
+      <c r="N673">
+        <f t="shared" ref="N673:N691" si="89">IF(A673&lt;&gt;$K$36,MAX(N672,VLOOKUP(A673,A:C,3)),)</f>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O673">
+        <f t="shared" ref="O673:O691" si="90">IF(A673&lt;&gt;$K$36,MIN(O672,VLOOKUP(A673,A:D,4)),)</f>
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="P673">
+        <f t="shared" si="79"/>
+        <v>0.6559999783833822</v>
+      </c>
+      <c r="Q673">
+        <f t="shared" si="68"/>
+        <v>0.65571428906349905</v>
+      </c>
+      <c r="R673">
+        <f t="shared" si="69"/>
+        <v>2.8568931988315338E-4</v>
+      </c>
+      <c r="S673">
+        <f t="shared" si="70"/>
+        <v>7.1360517521293831E-3</v>
+      </c>
+      <c r="T673">
+        <f t="shared" si="71"/>
+        <v>1.0704077628194074E-4</v>
+      </c>
+      <c r="U673">
+        <f t="shared" si="72"/>
+        <v>2.6689765321830268</v>
+      </c>
+    </row>
+    <row r="674" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A674" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B674">
+        <v>0.66200000047683716</v>
+      </c>
+      <c r="C674">
+        <v>0.66200000047683716</v>
+      </c>
+      <c r="D674">
+        <v>0.65799999237060547</v>
+      </c>
+      <c r="E674">
+        <v>0.6600000262260437</v>
+      </c>
+      <c r="F674">
+        <v>8738600</v>
+      </c>
+      <c r="G674">
+        <v>87386</v>
+      </c>
+      <c r="H674">
+        <f t="shared" si="80"/>
+        <v>672</v>
+      </c>
+      <c r="I674">
+        <f>SUM($F$3:F674)/H674</f>
+        <v>4436907.3496558778</v>
+      </c>
+      <c r="N674">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O674">
+        <f t="shared" si="90"/>
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="P674">
+        <f t="shared" si="79"/>
+        <v>0.66000000635782874</v>
+      </c>
+      <c r="Q674">
+        <f t="shared" si="68"/>
+        <v>0.65547619405246915</v>
+      </c>
+      <c r="R674">
+        <f t="shared" si="69"/>
+        <v>4.5238123053595869E-3</v>
+      </c>
+      <c r="S674">
+        <f t="shared" si="70"/>
+        <v>6.9319703141037291E-3</v>
+      </c>
+      <c r="T674">
+        <f t="shared" si="71"/>
+        <v>1.0397955471155593E-4</v>
+      </c>
+      <c r="U674">
+        <f t="shared" si="72"/>
+        <v>43.506748205537619</v>
+      </c>
+    </row>
+    <row r="675" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A675" s="1">
+        <v>45385</v>
+      </c>
+      <c r="B675">
+        <v>0.65600001811981201</v>
+      </c>
+      <c r="C675">
+        <v>0.6600000262260437</v>
+      </c>
+      <c r="D675">
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="E675">
+        <v>0.65799999237060547</v>
+      </c>
+      <c r="F675">
+        <v>16424300</v>
+      </c>
+      <c r="G675">
+        <v>164243</v>
+      </c>
+      <c r="H675">
+        <f t="shared" si="80"/>
+        <v>673</v>
+      </c>
+      <c r="I675">
+        <f>SUM($F$3:F675)/H675</f>
+        <v>4454719.2258079499</v>
+      </c>
+      <c r="N675">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O675">
+        <f t="shared" si="90"/>
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="P675">
+        <f t="shared" si="79"/>
+        <v>0.65733333428700769</v>
+      </c>
+      <c r="Q675">
+        <f t="shared" si="68"/>
+        <v>0.65521428982416796</v>
+      </c>
+      <c r="R675">
+        <f t="shared" si="69"/>
+        <v>2.1190444628397254E-3</v>
+      </c>
+      <c r="S675">
+        <f t="shared" si="70"/>
+        <v>6.7074809755597719E-3</v>
+      </c>
+      <c r="T675">
+        <f t="shared" si="71"/>
+        <v>1.0061221463339658E-4</v>
+      </c>
+      <c r="U675">
+        <f t="shared" si="72"/>
+        <v>21.061503024865761</v>
+      </c>
+    </row>
+    <row r="676" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A676" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B676">
+        <v>0.65200001001358032</v>
+      </c>
+      <c r="C676">
+        <v>0.65600001811981201</v>
+      </c>
+      <c r="D676">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="E676">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="F676">
+        <v>16469700</v>
+      </c>
+      <c r="G676">
+        <v>164697</v>
+      </c>
+      <c r="H676">
+        <f t="shared" si="80"/>
+        <v>674</v>
+      </c>
+      <c r="I676">
+        <f>SUM($F$3:F676)/H676</f>
+        <v>4472545.6067785611</v>
+      </c>
+      <c r="N676">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O676">
+        <f t="shared" si="90"/>
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="P676">
+        <f t="shared" si="79"/>
+        <v>0.6500000158945719</v>
+      </c>
+      <c r="Q676">
+        <f t="shared" si="68"/>
+        <v>0.65476190901937936</v>
+      </c>
+      <c r="R676">
+        <f t="shared" si="69"/>
+        <v>-4.7618931248074592E-3</v>
+      </c>
+      <c r="S676">
+        <f t="shared" si="70"/>
+        <v>6.9999964464278475E-3</v>
+      </c>
+      <c r="T676">
+        <f t="shared" si="71"/>
+        <v>1.0499994669641771E-4</v>
+      </c>
+      <c r="U676">
+        <f t="shared" si="72"/>
+        <v>-45.351386116179057</v>
+      </c>
+    </row>
+    <row r="677" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A677" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B677">
+        <v>0.64399999380111694</v>
+      </c>
+      <c r="C677">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="D677">
+        <v>0.64399999380111694</v>
+      </c>
+      <c r="E677">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="F677">
+        <v>728100</v>
+      </c>
+      <c r="G677">
+        <v>7281</v>
+      </c>
+      <c r="H677">
+        <f t="shared" si="80"/>
+        <v>675</v>
+      </c>
+      <c r="I677">
+        <f>SUM($F$3:F677)/H677</f>
+        <v>4466998.2799537033</v>
+      </c>
+      <c r="N677">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O677">
+        <f t="shared" si="90"/>
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="P677">
+        <f t="shared" si="79"/>
+        <v>0.64766665299733484</v>
+      </c>
+      <c r="Q677">
+        <f t="shared" si="68"/>
+        <v>0.65333333611488342</v>
+      </c>
+      <c r="R677">
+        <f t="shared" si="69"/>
+        <v>-5.6666831175485877E-3</v>
+      </c>
+      <c r="S677">
+        <f t="shared" si="70"/>
+        <v>6.523803586051583E-3</v>
+      </c>
+      <c r="T677">
+        <f t="shared" si="71"/>
+        <v>9.7857053790773737E-5</v>
+      </c>
+      <c r="U677">
+        <f t="shared" si="72"/>
+        <v>-57.907763396028791</v>
+      </c>
+    </row>
+    <row r="678" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A678" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B678">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="C678">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="D678">
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="E678">
+        <v>0.63899999856948853</v>
+      </c>
+      <c r="F678">
+        <v>6117912</v>
+      </c>
+      <c r="G678">
+        <v>61179.12109375</v>
+      </c>
+      <c r="H678">
+        <f t="shared" si="80"/>
+        <v>676</v>
+      </c>
+      <c r="I678">
+        <f>SUM($F$3:F678)/H678</f>
+        <v>4469440.4600129435</v>
+      </c>
+      <c r="N678">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O678">
+        <f t="shared" si="90"/>
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="P678">
+        <f t="shared" si="79"/>
+        <v>0.64166667064030969</v>
+      </c>
+      <c r="Q678">
+        <f t="shared" si="68"/>
+        <v>0.65159524196670182</v>
+      </c>
+      <c r="R678">
+        <f t="shared" si="69"/>
+        <v>-9.9285713263921327E-3</v>
+      </c>
+      <c r="S678">
+        <f t="shared" si="70"/>
+        <v>6.2040767702115874E-3</v>
+      </c>
+      <c r="T678">
+        <f t="shared" si="71"/>
+        <v>9.3061151553173815E-5</v>
+      </c>
+      <c r="U678">
+        <f t="shared" si="72"/>
+        <v>-106.68867901037189</v>
+      </c>
+    </row>
+    <row r="679" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A679" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B679">
+        <v>0.63899999856948853</v>
+      </c>
+      <c r="C679">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="D679">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="E679">
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="F679">
+        <v>1937000</v>
+      </c>
+      <c r="G679">
+        <v>19370</v>
+      </c>
+      <c r="H679">
+        <f t="shared" si="80"/>
+        <v>677</v>
+      </c>
+      <c r="I679">
+        <f>SUM($F$3:F679)/H679</f>
+        <v>4465699.7798652146</v>
+      </c>
+      <c r="N679">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O679">
+        <f t="shared" si="90"/>
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="P679">
+        <f t="shared" si="79"/>
+        <v>0.64033333460489905</v>
+      </c>
+      <c r="Q679">
+        <f t="shared" si="68"/>
+        <v>0.6499523846876053</v>
+      </c>
+      <c r="R679">
+        <f t="shared" si="69"/>
+        <v>-9.6190500827062486E-3</v>
+      </c>
+      <c r="S679">
+        <f t="shared" si="70"/>
+        <v>5.7210861420144976E-3</v>
+      </c>
+      <c r="T679">
+        <f t="shared" si="71"/>
+        <v>8.5816292130217457E-5</v>
+      </c>
+      <c r="U679">
+        <f t="shared" si="72"/>
+        <v>-112.08885683513712</v>
+      </c>
+    </row>
+    <row r="680" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A680" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B680">
+        <v>0.64099997282028198</v>
+      </c>
+      <c r="C680">
+        <v>0.64099997282028198</v>
+      </c>
+      <c r="D680">
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="E680">
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="F680">
+        <v>7925000</v>
+      </c>
+      <c r="G680">
+        <v>79250</v>
+      </c>
+      <c r="H680">
+        <f t="shared" si="80"/>
+        <v>678</v>
+      </c>
+      <c r="I680">
+        <f>SUM($F$3:F680)/H680</f>
+        <v>4470801.9925792776</v>
+      </c>
+      <c r="N680">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O680">
+        <f t="shared" si="90"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P680">
+        <f t="shared" si="79"/>
+        <v>0.63633332649866736</v>
+      </c>
+      <c r="Q680">
+        <f t="shared" si="68"/>
+        <v>0.64811904941286347</v>
+      </c>
+      <c r="R680">
+        <f t="shared" si="69"/>
+        <v>-1.1785722914196106E-2</v>
+      </c>
+      <c r="S680">
+        <f t="shared" si="70"/>
+        <v>5.8333306085495773E-3</v>
+      </c>
+      <c r="T680">
+        <f t="shared" si="71"/>
+        <v>8.7499959128243662E-5</v>
+      </c>
+      <c r="U680">
+        <f t="shared" si="72"/>
+        <v>-134.69403907860629</v>
+      </c>
+    </row>
+    <row r="681" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A681" s="1">
+        <v>45397</v>
+      </c>
+      <c r="B681">
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="C681">
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="D681">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="E681">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="F681">
+        <v>8349600</v>
+      </c>
+      <c r="G681">
+        <v>83496</v>
+      </c>
+      <c r="H681">
+        <f t="shared" si="80"/>
+        <v>679</v>
+      </c>
+      <c r="I681">
+        <f>SUM($F$3:F681)/H681</f>
+        <v>4476514.5080541233</v>
+      </c>
+      <c r="N681">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O681">
+        <f t="shared" si="90"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P681">
+        <f t="shared" si="79"/>
+        <v>0.64333333571751916</v>
+      </c>
+      <c r="Q681">
+        <f t="shared" si="68"/>
+        <v>0.64733333672795978</v>
+      </c>
+      <c r="R681">
+        <f t="shared" si="69"/>
+        <v>-4.0000010104406236E-3</v>
+      </c>
+      <c r="S681">
+        <f t="shared" si="70"/>
+        <v>5.6666632493337045E-3</v>
+      </c>
+      <c r="T681">
+        <f t="shared" si="71"/>
+        <v>8.4999948740005561E-5</v>
+      </c>
+      <c r="U681">
+        <f t="shared" si="72"/>
+        <v>-47.05886379620847</v>
+      </c>
+    </row>
+    <row r="682" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A682" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B682">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="C682">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="D682">
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="E682">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="F682">
+        <v>9089702</v>
+      </c>
+      <c r="G682">
+        <v>90897.0234375</v>
+      </c>
+      <c r="H682">
+        <f t="shared" si="80"/>
+        <v>680</v>
+      </c>
+      <c r="I682">
+        <f>SUM($F$3:F682)/H682</f>
+        <v>4483298.6073069852</v>
+      </c>
+      <c r="N682">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O682">
+        <f t="shared" si="90"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P682">
+        <f t="shared" si="79"/>
+        <v>0.64066668351491296</v>
+      </c>
+      <c r="Q682">
+        <f t="shared" si="68"/>
+        <v>0.64666667012941281</v>
+      </c>
+      <c r="R682">
+        <f t="shared" si="69"/>
+        <v>-5.9999866144998526E-3</v>
+      </c>
+      <c r="S682">
+        <f t="shared" si="70"/>
+        <v>5.8571375957151882E-3</v>
+      </c>
+      <c r="T682">
+        <f t="shared" si="71"/>
+        <v>8.7857063935727815E-5</v>
+      </c>
+      <c r="U682">
+        <f t="shared" si="72"/>
+        <v>-68.292591918268144</v>
+      </c>
+    </row>
+    <row r="683" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A683" s="1">
+        <v>45399</v>
+      </c>
+      <c r="B683">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C683">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="D683">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="E683">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="F683">
+        <v>9119901</v>
+      </c>
+      <c r="G683">
+        <v>91199.0078125</v>
+      </c>
+      <c r="H683">
+        <f t="shared" si="80"/>
+        <v>681</v>
+      </c>
+      <c r="I683">
+        <f>SUM($F$3:F683)/H683</f>
+        <v>4490107.1277074153</v>
+      </c>
+      <c r="N683">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O683">
+        <f t="shared" si="90"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P683">
+        <f t="shared" si="79"/>
+        <v>0.64566665887832642</v>
+      </c>
+      <c r="Q683">
+        <f t="shared" si="68"/>
+        <v>0.64635714604741057</v>
+      </c>
+      <c r="R683">
+        <f t="shared" si="69"/>
+        <v>-6.9048716908415297E-4</v>
+      </c>
+      <c r="S683">
+        <f t="shared" si="70"/>
+        <v>5.6020368118675579E-3</v>
+      </c>
+      <c r="T683">
+        <f t="shared" si="71"/>
+        <v>8.4030552178013363E-5</v>
+      </c>
+      <c r="U683">
+        <f t="shared" si="72"/>
+        <v>-8.2170966533862586</v>
+      </c>
+    </row>
+    <row r="684" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A684" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B684">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C684">
+        <v>0.65499997138977051</v>
+      </c>
+      <c r="D684">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="E684">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="F684">
+        <v>8730900</v>
+      </c>
+      <c r="G684">
+        <v>87309</v>
+      </c>
+      <c r="H684">
+        <f t="shared" si="80"/>
+        <v>682</v>
+      </c>
+      <c r="I684">
+        <f>SUM($F$3:F684)/H684</f>
+        <v>4496325.2990744133</v>
+      </c>
+      <c r="N684">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O684">
+        <f t="shared" si="90"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P684">
+        <f t="shared" si="79"/>
+        <v>0.64999999602635705</v>
+      </c>
+      <c r="Q684">
+        <f t="shared" si="68"/>
+        <v>0.64702381122679942</v>
+      </c>
+      <c r="R684">
+        <f t="shared" si="69"/>
+        <v>2.9761847995576352E-3</v>
+      </c>
+      <c r="S684">
+        <f t="shared" si="70"/>
+        <v>5.5510166550980277E-3</v>
+      </c>
+      <c r="T684">
+        <f t="shared" si="71"/>
+        <v>8.3265249826470407E-5</v>
+      </c>
+      <c r="U684">
+        <f t="shared" si="72"/>
+        <v>35.74342004329749</v>
+      </c>
+    </row>
+    <row r="685" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A685" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B685">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="C685">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="D685">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="E685">
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="F685">
+        <v>7076000</v>
+      </c>
+      <c r="G685">
+        <v>70760</v>
+      </c>
+      <c r="H685">
+        <f t="shared" si="80"/>
+        <v>683</v>
+      </c>
+      <c r="I685">
+        <f>SUM($F$3:F685)/H685</f>
+        <v>4500102.2752104681</v>
+      </c>
+      <c r="N685">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O685">
+        <f t="shared" si="90"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P685">
+        <f t="shared" si="79"/>
+        <v>0.64133332173029578</v>
+      </c>
+      <c r="Q685">
+        <f t="shared" si="68"/>
+        <v>0.64680952401388248</v>
+      </c>
+      <c r="R685">
+        <f t="shared" si="69"/>
+        <v>-5.4762022835866953E-3</v>
+      </c>
+      <c r="S685">
+        <f t="shared" si="70"/>
+        <v>5.7346914090266755E-3</v>
+      </c>
+      <c r="T685">
+        <f t="shared" si="71"/>
+        <v>8.6020371135400129E-5</v>
+      </c>
+      <c r="U685">
+        <f t="shared" si="72"/>
+        <v>-63.661690961166563</v>
+      </c>
+    </row>
+    <row r="686" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A686" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B686">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C686">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="D686">
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="E686">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="F686">
+        <v>7219300</v>
+      </c>
+      <c r="G686">
+        <v>72193</v>
+      </c>
+      <c r="H686">
+        <f t="shared" si="80"/>
+        <v>684</v>
+      </c>
+      <c r="I686">
+        <f>SUM($F$3:F686)/H686</f>
+        <v>4504077.7104806285</v>
+      </c>
+      <c r="N686">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O686">
+        <f t="shared" si="90"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P686">
+        <f t="shared" si="79"/>
+        <v>0.63933334747950232</v>
+      </c>
+      <c r="Q686">
+        <f t="shared" si="68"/>
+        <v>0.64640476164363669</v>
+      </c>
+      <c r="R686">
+        <f t="shared" si="69"/>
+        <v>-7.0714141641343708E-3</v>
+      </c>
+      <c r="S686">
+        <f t="shared" si="70"/>
+        <v>6.0816305835230755E-3</v>
+      </c>
+      <c r="T686">
+        <f t="shared" si="71"/>
+        <v>9.1224458752846128E-5</v>
+      </c>
+      <c r="U686">
+        <f t="shared" si="72"/>
+        <v>-77.516646969568882</v>
+      </c>
+    </row>
+    <row r="687" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A687" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B687">
+        <v>0.63899999856948853</v>
+      </c>
+      <c r="C687">
+        <v>0.64099997282028198</v>
+      </c>
+      <c r="D687">
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="E687">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="F687">
+        <v>8243300</v>
+      </c>
+      <c r="G687">
+        <v>82433</v>
+      </c>
+      <c r="H687">
+        <f t="shared" si="80"/>
+        <v>685</v>
+      </c>
+      <c r="I687">
+        <f>SUM($F$3:F687)/H687</f>
+        <v>4509536.4291514596</v>
+      </c>
+      <c r="N687">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O687">
+        <f t="shared" si="90"/>
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="P687">
+        <f t="shared" si="79"/>
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="Q687">
+        <f t="shared" si="68"/>
+        <v>0.64490476250648499</v>
+      </c>
+      <c r="R687">
+        <f t="shared" si="69"/>
+        <v>-9.9047720432281494E-3</v>
+      </c>
+      <c r="S687">
+        <f t="shared" si="70"/>
+        <v>5.8911556289309597E-3</v>
+      </c>
+      <c r="T687">
+        <f t="shared" si="71"/>
+        <v>8.8367334433964398E-5</v>
+      </c>
+      <c r="U687">
+        <f t="shared" si="72"/>
+        <v>-112.0863507615457</v>
+      </c>
+    </row>
+    <row r="688" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A688" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B688">
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="C688">
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="D688">
+        <v>0.62999999523162842</v>
+      </c>
+      <c r="E688">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="F688">
+        <v>4167401.25</v>
+      </c>
+      <c r="G688">
+        <v>41674.01171875</v>
+      </c>
+      <c r="H688">
+        <f t="shared" si="80"/>
+        <v>686</v>
+      </c>
+      <c r="I688">
+        <f>SUM($F$3:F688)/H688</f>
+        <v>4509037.6898232503</v>
+      </c>
+      <c r="N688">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O688">
+        <f t="shared" si="90"/>
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="P688">
+        <f t="shared" si="79"/>
+        <v>0.63433333237965905</v>
+      </c>
+      <c r="Q688">
+        <f t="shared" si="68"/>
+        <v>0.64307142865090139</v>
+      </c>
+      <c r="R688">
+        <f t="shared" si="69"/>
+        <v>-8.7380962712423349E-3</v>
+      </c>
+      <c r="S688">
+        <f t="shared" si="70"/>
+        <v>5.0816316993869126E-3</v>
+      </c>
+      <c r="T688">
+        <f t="shared" si="71"/>
+        <v>7.622447549080368E-5</v>
+      </c>
+      <c r="U688">
+        <f t="shared" si="72"/>
+        <v>-114.63635813796537</v>
+      </c>
+    </row>
+    <row r="689" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A689" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B689">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C689">
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="D689">
+        <v>0.63200002908706665</v>
+      </c>
+      <c r="E689">
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="F689">
+        <v>1688207</v>
+      </c>
+      <c r="G689">
+        <v>16882.0703125</v>
+      </c>
+      <c r="H689">
+        <f t="shared" si="80"/>
+        <v>687</v>
+      </c>
+      <c r="I689">
+        <f>SUM($F$3:F689)/H689</f>
+        <v>4504931.6771743083</v>
+      </c>
+      <c r="N689">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O689">
+        <f t="shared" si="90"/>
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="P689">
+        <f t="shared" si="79"/>
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="Q689">
+        <f t="shared" si="68"/>
+        <v>0.64161904936745062</v>
+      </c>
+      <c r="R689">
+        <f t="shared" si="69"/>
+        <v>-4.619025048755554E-3</v>
+      </c>
+      <c r="S689">
+        <f t="shared" si="70"/>
+        <v>4.0884334213879903E-3</v>
+      </c>
+      <c r="T689">
+        <f t="shared" si="71"/>
+        <v>6.1326501320819847E-5</v>
+      </c>
+      <c r="U689">
+        <f t="shared" si="72"/>
+        <v>-75.318580862649554</v>
+      </c>
+    </row>
+    <row r="690" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A690" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B690">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="C690">
+        <v>0.65200001001358032</v>
+      </c>
+      <c r="D690">
+        <v>0.64099997282028198</v>
+      </c>
+      <c r="E690">
+        <v>0.65200001001358032</v>
+      </c>
+      <c r="F690">
+        <v>3923000</v>
+      </c>
+      <c r="G690">
+        <v>39230</v>
+      </c>
+      <c r="H690">
+        <f t="shared" si="80"/>
+        <v>688</v>
+      </c>
+      <c r="I690">
+        <f>SUM($F$3:F690)/H690</f>
+        <v>4504085.8462481834</v>
+      </c>
+      <c r="N690">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O690">
+        <f t="shared" si="90"/>
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="P690">
+        <f t="shared" si="79"/>
+        <v>0.64833333094914758</v>
+      </c>
+      <c r="Q690">
+        <f t="shared" si="68"/>
+        <v>0.64150000044277744</v>
+      </c>
+      <c r="R690">
+        <f t="shared" si="69"/>
+        <v>6.8333305063701388E-3</v>
+      </c>
+      <c r="S690">
+        <f t="shared" si="70"/>
+        <v>3.9523775074757983E-3</v>
+      </c>
+      <c r="T690">
+        <f t="shared" si="71"/>
+        <v>5.9285662612136972E-5</v>
+      </c>
+      <c r="U690">
+        <f t="shared" si="72"/>
+        <v>115.26109695485158</v>
+      </c>
+    </row>
+    <row r="691" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A691" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B691">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C691">
+        <v>0.67299997806549072</v>
+      </c>
+      <c r="D691">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="E691">
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="F691">
+        <v>4791402</v>
+      </c>
+      <c r="G691">
+        <v>47914.01953125</v>
+      </c>
+      <c r="H691">
+        <f t="shared" si="80"/>
+        <v>689</v>
+      </c>
+      <c r="I691">
+        <f>SUM($F$3:F691)/H691</f>
+        <v>4504502.8508254718</v>
+      </c>
+      <c r="N691">
+        <f t="shared" si="89"/>
+        <v>0.67299997806549072</v>
+      </c>
+      <c r="O691">
+        <f t="shared" si="90"/>
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="P691">
+        <f t="shared" si="79"/>
+        <v>0.66399999459584558</v>
+      </c>
+      <c r="Q691">
+        <f t="shared" si="68"/>
+        <v>0.64266666769981395</v>
+      </c>
+      <c r="R691">
+        <f t="shared" si="69"/>
+        <v>2.1333326896031624E-2</v>
+      </c>
+      <c r="S691">
+        <f t="shared" si="70"/>
+        <v>5.4285682383038202E-3</v>
+      </c>
+      <c r="T691">
+        <f t="shared" si="71"/>
+        <v>8.1428523574557306E-5</v>
+      </c>
+      <c r="U691">
+        <f t="shared" si="72"/>
+        <v>261.9883790045447</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -463,8 +463,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A673" workbookViewId="0">
-      <selection activeCell="A692" sqref="A692"/>
+    <sheetView tabSelected="1" topLeftCell="A670" workbookViewId="0">
+      <selection activeCell="A673" sqref="A673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33534,23 +33534,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q691" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q672" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R691" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R672" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S691" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S672" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T691" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T672" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U691" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U672" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -36680,7 +36680,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P691" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P672" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36790,7 +36790,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H691" si="80">H578+1</f>
+        <f t="shared" ref="H579:H672" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -42658,11 +42658,11 @@
       </c>
       <c r="N672">
         <f>VLOOKUP(L36,A:C,3)</f>
-        <v>0.66399997472763062</v>
+        <v>0.6470000147819519</v>
       </c>
       <c r="O672">
         <f>VLOOKUP(L36,A:D,4)</f>
-        <v>0.63999998569488525</v>
+        <v>0.64200001955032349</v>
       </c>
       <c r="P672">
         <f t="shared" si="79"/>
@@ -42689,1202 +42689,62 @@
         <v>-98.887766665906639</v>
       </c>
     </row>
-    <row r="673" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A673" s="1">
-        <v>45383</v>
-      </c>
-      <c r="B673">
-        <v>0.64600002765655518</v>
-      </c>
-      <c r="C673">
-        <v>0.66399997472763062</v>
-      </c>
-      <c r="D673">
-        <v>0.63999998569488525</v>
-      </c>
-      <c r="E673">
-        <v>0.66399997472763062</v>
-      </c>
-      <c r="F673">
-        <v>9247900</v>
-      </c>
-      <c r="G673">
-        <v>92479</v>
-      </c>
-      <c r="H673">
-        <f t="shared" si="80"/>
-        <v>671</v>
-      </c>
-      <c r="I673">
-        <f>SUM($F$3:F673)/H673</f>
-        <v>4430496.4813245153</v>
-      </c>
-      <c r="N673">
-        <f t="shared" ref="N673:N691" si="89">IF(A673&lt;&gt;$K$36,MAX(N672,VLOOKUP(A673,A:C,3)),)</f>
-        <v>0.66399997472763062</v>
-      </c>
-      <c r="O673">
-        <f t="shared" ref="O673:O691" si="90">IF(A673&lt;&gt;$K$36,MIN(O672,VLOOKUP(A673,A:D,4)),)</f>
-        <v>0.63999998569488525</v>
-      </c>
-      <c r="P673">
-        <f t="shared" si="79"/>
-        <v>0.6559999783833822</v>
-      </c>
-      <c r="Q673">
-        <f t="shared" si="68"/>
-        <v>0.65571428906349905</v>
-      </c>
-      <c r="R673">
-        <f t="shared" si="69"/>
-        <v>2.8568931988315338E-4</v>
-      </c>
-      <c r="S673">
-        <f t="shared" si="70"/>
-        <v>7.1360517521293831E-3</v>
-      </c>
-      <c r="T673">
-        <f t="shared" si="71"/>
-        <v>1.0704077628194074E-4</v>
-      </c>
-      <c r="U673">
-        <f t="shared" si="72"/>
-        <v>2.6689765321830268</v>
-      </c>
-    </row>
-    <row r="674" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A674" s="1">
-        <v>45384</v>
-      </c>
-      <c r="B674">
-        <v>0.66200000047683716</v>
-      </c>
-      <c r="C674">
-        <v>0.66200000047683716</v>
-      </c>
-      <c r="D674">
-        <v>0.65799999237060547</v>
-      </c>
-      <c r="E674">
-        <v>0.6600000262260437</v>
-      </c>
-      <c r="F674">
-        <v>8738600</v>
-      </c>
-      <c r="G674">
-        <v>87386</v>
-      </c>
-      <c r="H674">
-        <f t="shared" si="80"/>
-        <v>672</v>
-      </c>
-      <c r="I674">
-        <f>SUM($F$3:F674)/H674</f>
-        <v>4436907.3496558778</v>
-      </c>
-      <c r="N674">
-        <f t="shared" si="89"/>
-        <v>0.66399997472763062</v>
-      </c>
-      <c r="O674">
-        <f t="shared" si="90"/>
-        <v>0.63999998569488525</v>
-      </c>
-      <c r="P674">
-        <f t="shared" si="79"/>
-        <v>0.66000000635782874</v>
-      </c>
-      <c r="Q674">
-        <f t="shared" si="68"/>
-        <v>0.65547619405246915</v>
-      </c>
-      <c r="R674">
-        <f t="shared" si="69"/>
-        <v>4.5238123053595869E-3</v>
-      </c>
-      <c r="S674">
-        <f t="shared" si="70"/>
-        <v>6.9319703141037291E-3</v>
-      </c>
-      <c r="T674">
-        <f t="shared" si="71"/>
-        <v>1.0397955471155593E-4</v>
-      </c>
-      <c r="U674">
-        <f t="shared" si="72"/>
-        <v>43.506748205537619</v>
-      </c>
-    </row>
-    <row r="675" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A675" s="1">
-        <v>45385</v>
-      </c>
-      <c r="B675">
-        <v>0.65600001811981201</v>
-      </c>
-      <c r="C675">
-        <v>0.6600000262260437</v>
-      </c>
-      <c r="D675">
-        <v>0.65399998426437378</v>
-      </c>
-      <c r="E675">
-        <v>0.65799999237060547</v>
-      </c>
-      <c r="F675">
-        <v>16424300</v>
-      </c>
-      <c r="G675">
-        <v>164243</v>
-      </c>
-      <c r="H675">
-        <f t="shared" si="80"/>
-        <v>673</v>
-      </c>
-      <c r="I675">
-        <f>SUM($F$3:F675)/H675</f>
-        <v>4454719.2258079499</v>
-      </c>
-      <c r="N675">
-        <f t="shared" si="89"/>
-        <v>0.66399997472763062</v>
-      </c>
-      <c r="O675">
-        <f t="shared" si="90"/>
-        <v>0.63999998569488525</v>
-      </c>
-      <c r="P675">
-        <f t="shared" si="79"/>
-        <v>0.65733333428700769</v>
-      </c>
-      <c r="Q675">
-        <f t="shared" si="68"/>
-        <v>0.65521428982416796</v>
-      </c>
-      <c r="R675">
-        <f t="shared" si="69"/>
-        <v>2.1190444628397254E-3</v>
-      </c>
-      <c r="S675">
-        <f t="shared" si="70"/>
-        <v>6.7074809755597719E-3</v>
-      </c>
-      <c r="T675">
-        <f t="shared" si="71"/>
-        <v>1.0061221463339658E-4</v>
-      </c>
-      <c r="U675">
-        <f t="shared" si="72"/>
-        <v>21.061503024865761</v>
-      </c>
-    </row>
-    <row r="676" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A676" s="1">
-        <v>45390</v>
-      </c>
-      <c r="B676">
-        <v>0.65200001001358032</v>
-      </c>
-      <c r="C676">
-        <v>0.65600001811981201</v>
-      </c>
-      <c r="D676">
-        <v>0.6470000147819519</v>
-      </c>
-      <c r="E676">
-        <v>0.6470000147819519</v>
-      </c>
-      <c r="F676">
-        <v>16469700</v>
-      </c>
-      <c r="G676">
-        <v>164697</v>
-      </c>
-      <c r="H676">
-        <f t="shared" si="80"/>
-        <v>674</v>
-      </c>
-      <c r="I676">
-        <f>SUM($F$3:F676)/H676</f>
-        <v>4472545.6067785611</v>
-      </c>
-      <c r="N676">
-        <f t="shared" si="89"/>
-        <v>0.66399997472763062</v>
-      </c>
-      <c r="O676">
-        <f t="shared" si="90"/>
-        <v>0.63999998569488525</v>
-      </c>
-      <c r="P676">
-        <f t="shared" si="79"/>
-        <v>0.6500000158945719</v>
-      </c>
-      <c r="Q676">
-        <f t="shared" si="68"/>
-        <v>0.65476190901937936</v>
-      </c>
-      <c r="R676">
-        <f t="shared" si="69"/>
-        <v>-4.7618931248074592E-3</v>
-      </c>
-      <c r="S676">
-        <f t="shared" si="70"/>
-        <v>6.9999964464278475E-3</v>
-      </c>
-      <c r="T676">
-        <f t="shared" si="71"/>
-        <v>1.0499994669641771E-4</v>
-      </c>
-      <c r="U676">
-        <f t="shared" si="72"/>
-        <v>-45.351386116179057</v>
-      </c>
-    </row>
-    <row r="677" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A677" s="1">
-        <v>45391</v>
-      </c>
-      <c r="B677">
-        <v>0.64399999380111694</v>
-      </c>
-      <c r="C677">
-        <v>0.64999997615814209</v>
-      </c>
-      <c r="D677">
-        <v>0.64399999380111694</v>
-      </c>
-      <c r="E677">
-        <v>0.64899998903274536</v>
-      </c>
-      <c r="F677">
-        <v>728100</v>
-      </c>
-      <c r="G677">
-        <v>7281</v>
-      </c>
-      <c r="H677">
-        <f t="shared" si="80"/>
-        <v>675</v>
-      </c>
-      <c r="I677">
-        <f>SUM($F$3:F677)/H677</f>
-        <v>4466998.2799537033</v>
-      </c>
-      <c r="N677">
-        <f t="shared" si="89"/>
-        <v>0.66399997472763062</v>
-      </c>
-      <c r="O677">
-        <f t="shared" si="90"/>
-        <v>0.63999998569488525</v>
-      </c>
-      <c r="P677">
-        <f t="shared" si="79"/>
-        <v>0.64766665299733484</v>
-      </c>
-      <c r="Q677">
-        <f t="shared" si="68"/>
-        <v>0.65333333611488342</v>
-      </c>
-      <c r="R677">
-        <f t="shared" si="69"/>
-        <v>-5.6666831175485877E-3</v>
-      </c>
-      <c r="S677">
-        <f t="shared" si="70"/>
-        <v>6.523803586051583E-3</v>
-      </c>
-      <c r="T677">
-        <f t="shared" si="71"/>
-        <v>9.7857053790773737E-5</v>
-      </c>
-      <c r="U677">
-        <f t="shared" si="72"/>
-        <v>-57.907763396028791</v>
-      </c>
-    </row>
-    <row r="678" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A678" s="1">
-        <v>45392</v>
-      </c>
-      <c r="B678">
-        <v>0.64899998903274536</v>
-      </c>
-      <c r="C678">
-        <v>0.64899998903274536</v>
-      </c>
-      <c r="D678">
-        <v>0.63700002431869507</v>
-      </c>
-      <c r="E678">
-        <v>0.63899999856948853</v>
-      </c>
-      <c r="F678">
-        <v>6117912</v>
-      </c>
-      <c r="G678">
-        <v>61179.12109375</v>
-      </c>
-      <c r="H678">
-        <f t="shared" si="80"/>
-        <v>676</v>
-      </c>
-      <c r="I678">
-        <f>SUM($F$3:F678)/H678</f>
-        <v>4469440.4600129435</v>
-      </c>
-      <c r="N678">
-        <f t="shared" si="89"/>
-        <v>0.66399997472763062</v>
-      </c>
-      <c r="O678">
-        <f t="shared" si="90"/>
-        <v>0.63700002431869507</v>
-      </c>
-      <c r="P678">
-        <f t="shared" si="79"/>
-        <v>0.64166667064030969</v>
-      </c>
-      <c r="Q678">
-        <f t="shared" si="68"/>
-        <v>0.65159524196670182</v>
-      </c>
-      <c r="R678">
-        <f t="shared" si="69"/>
-        <v>-9.9285713263921327E-3</v>
-      </c>
-      <c r="S678">
-        <f t="shared" si="70"/>
-        <v>6.2040767702115874E-3</v>
-      </c>
-      <c r="T678">
-        <f t="shared" si="71"/>
-        <v>9.3061151553173815E-5</v>
-      </c>
-      <c r="U678">
-        <f t="shared" si="72"/>
-        <v>-106.68867901037189</v>
-      </c>
-    </row>
-    <row r="679" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A679" s="1">
-        <v>45393</v>
-      </c>
-      <c r="B679">
-        <v>0.63899999856948853</v>
-      </c>
-      <c r="C679">
-        <v>0.64300000667572021</v>
-      </c>
-      <c r="D679">
-        <v>0.6380000114440918</v>
-      </c>
-      <c r="E679">
-        <v>0.63999998569488525</v>
-      </c>
-      <c r="F679">
-        <v>1937000</v>
-      </c>
-      <c r="G679">
-        <v>19370</v>
-      </c>
-      <c r="H679">
-        <f t="shared" si="80"/>
-        <v>677</v>
-      </c>
-      <c r="I679">
-        <f>SUM($F$3:F679)/H679</f>
-        <v>4465699.7798652146</v>
-      </c>
-      <c r="N679">
-        <f t="shared" si="89"/>
-        <v>0.66399997472763062</v>
-      </c>
-      <c r="O679">
-        <f t="shared" si="90"/>
-        <v>0.63700002431869507</v>
-      </c>
-      <c r="P679">
-        <f t="shared" si="79"/>
-        <v>0.64033333460489905</v>
-      </c>
-      <c r="Q679">
-        <f t="shared" si="68"/>
-        <v>0.6499523846876053</v>
-      </c>
-      <c r="R679">
-        <f t="shared" si="69"/>
-        <v>-9.6190500827062486E-3</v>
-      </c>
-      <c r="S679">
-        <f t="shared" si="70"/>
-        <v>5.7210861420144976E-3</v>
-      </c>
-      <c r="T679">
-        <f t="shared" si="71"/>
-        <v>8.5816292130217457E-5</v>
-      </c>
-      <c r="U679">
-        <f t="shared" si="72"/>
-        <v>-112.08885683513712</v>
-      </c>
-    </row>
-    <row r="680" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A680" s="1">
-        <v>45394</v>
-      </c>
-      <c r="B680">
-        <v>0.64099997282028198</v>
-      </c>
-      <c r="C680">
-        <v>0.64099997282028198</v>
-      </c>
-      <c r="D680">
-        <v>0.63400000333786011</v>
-      </c>
-      <c r="E680">
-        <v>0.63400000333786011</v>
-      </c>
-      <c r="F680">
-        <v>7925000</v>
-      </c>
-      <c r="G680">
-        <v>79250</v>
-      </c>
-      <c r="H680">
-        <f t="shared" si="80"/>
-        <v>678</v>
-      </c>
-      <c r="I680">
-        <f>SUM($F$3:F680)/H680</f>
-        <v>4470801.9925792776</v>
-      </c>
-      <c r="N680">
-        <f t="shared" si="89"/>
-        <v>0.66399997472763062</v>
-      </c>
-      <c r="O680">
-        <f t="shared" si="90"/>
-        <v>0.63400000333786011</v>
-      </c>
-      <c r="P680">
-        <f t="shared" si="79"/>
-        <v>0.63633332649866736</v>
-      </c>
-      <c r="Q680">
-        <f t="shared" si="68"/>
-        <v>0.64811904941286347</v>
-      </c>
-      <c r="R680">
-        <f t="shared" si="69"/>
-        <v>-1.1785722914196106E-2</v>
-      </c>
-      <c r="S680">
-        <f t="shared" si="70"/>
-        <v>5.8333306085495773E-3</v>
-      </c>
-      <c r="T680">
-        <f t="shared" si="71"/>
-        <v>8.7499959128243662E-5</v>
-      </c>
-      <c r="U680">
-        <f t="shared" si="72"/>
-        <v>-134.69403907860629</v>
-      </c>
-    </row>
-    <row r="681" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A681" s="1">
-        <v>45397</v>
-      </c>
-      <c r="B681">
-        <v>0.64200001955032349</v>
-      </c>
-      <c r="C681">
-        <v>0.64800000190734863</v>
-      </c>
-      <c r="D681">
-        <v>0.63599997758865356</v>
-      </c>
-      <c r="E681">
-        <v>0.64600002765655518</v>
-      </c>
-      <c r="F681">
-        <v>8349600</v>
-      </c>
-      <c r="G681">
-        <v>83496</v>
-      </c>
-      <c r="H681">
-        <f t="shared" si="80"/>
-        <v>679</v>
-      </c>
-      <c r="I681">
-        <f>SUM($F$3:F681)/H681</f>
-        <v>4476514.5080541233</v>
-      </c>
-      <c r="N681">
-        <f t="shared" si="89"/>
-        <v>0.66399997472763062</v>
-      </c>
-      <c r="O681">
-        <f t="shared" si="90"/>
-        <v>0.63400000333786011</v>
-      </c>
-      <c r="P681">
-        <f t="shared" si="79"/>
-        <v>0.64333333571751916</v>
-      </c>
-      <c r="Q681">
-        <f t="shared" si="68"/>
-        <v>0.64733333672795978</v>
-      </c>
-      <c r="R681">
-        <f t="shared" si="69"/>
-        <v>-4.0000010104406236E-3</v>
-      </c>
-      <c r="S681">
-        <f t="shared" si="70"/>
-        <v>5.6666632493337045E-3</v>
-      </c>
-      <c r="T681">
-        <f t="shared" si="71"/>
-        <v>8.4999948740005561E-5</v>
-      </c>
-      <c r="U681">
-        <f t="shared" si="72"/>
-        <v>-47.05886379620847</v>
-      </c>
-    </row>
-    <row r="682" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A682" s="1">
-        <v>45398</v>
-      </c>
-      <c r="B682">
-        <v>0.64300000667572021</v>
-      </c>
-      <c r="C682">
-        <v>0.6470000147819519</v>
-      </c>
-      <c r="D682">
-        <v>0.63700002431869507</v>
-      </c>
-      <c r="E682">
-        <v>0.6380000114440918</v>
-      </c>
-      <c r="F682">
-        <v>9089702</v>
-      </c>
-      <c r="G682">
-        <v>90897.0234375</v>
-      </c>
-      <c r="H682">
-        <f t="shared" si="80"/>
-        <v>680</v>
-      </c>
-      <c r="I682">
-        <f>SUM($F$3:F682)/H682</f>
-        <v>4483298.6073069852</v>
-      </c>
-      <c r="N682">
-        <f t="shared" si="89"/>
-        <v>0.66399997472763062</v>
-      </c>
-      <c r="O682">
-        <f t="shared" si="90"/>
-        <v>0.63400000333786011</v>
-      </c>
-      <c r="P682">
-        <f t="shared" si="79"/>
-        <v>0.64066668351491296</v>
-      </c>
-      <c r="Q682">
-        <f t="shared" si="68"/>
-        <v>0.64666667012941281</v>
-      </c>
-      <c r="R682">
-        <f t="shared" si="69"/>
-        <v>-5.9999866144998526E-3</v>
-      </c>
-      <c r="S682">
-        <f t="shared" si="70"/>
-        <v>5.8571375957151882E-3</v>
-      </c>
-      <c r="T682">
-        <f t="shared" si="71"/>
-        <v>8.7857063935727815E-5</v>
-      </c>
-      <c r="U682">
-        <f t="shared" si="72"/>
-        <v>-68.292591918268144</v>
-      </c>
-    </row>
-    <row r="683" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A683" s="1">
-        <v>45399</v>
-      </c>
-      <c r="B683">
-        <v>0.6380000114440918</v>
-      </c>
-      <c r="C683">
-        <v>0.64999997615814209</v>
-      </c>
-      <c r="D683">
-        <v>0.6380000114440918</v>
-      </c>
-      <c r="E683">
-        <v>0.64899998903274536</v>
-      </c>
-      <c r="F683">
-        <v>9119901</v>
-      </c>
-      <c r="G683">
-        <v>91199.0078125</v>
-      </c>
-      <c r="H683">
-        <f t="shared" si="80"/>
-        <v>681</v>
-      </c>
-      <c r="I683">
-        <f>SUM($F$3:F683)/H683</f>
-        <v>4490107.1277074153</v>
-      </c>
-      <c r="N683">
-        <f t="shared" si="89"/>
-        <v>0.66399997472763062</v>
-      </c>
-      <c r="O683">
-        <f t="shared" si="90"/>
-        <v>0.63400000333786011</v>
-      </c>
-      <c r="P683">
-        <f t="shared" si="79"/>
-        <v>0.64566665887832642</v>
-      </c>
-      <c r="Q683">
-        <f t="shared" si="68"/>
-        <v>0.64635714604741057</v>
-      </c>
-      <c r="R683">
-        <f t="shared" si="69"/>
-        <v>-6.9048716908415297E-4</v>
-      </c>
-      <c r="S683">
-        <f t="shared" si="70"/>
-        <v>5.6020368118675579E-3</v>
-      </c>
-      <c r="T683">
-        <f t="shared" si="71"/>
-        <v>8.4030552178013363E-5</v>
-      </c>
-      <c r="U683">
-        <f t="shared" si="72"/>
-        <v>-8.2170966533862586</v>
-      </c>
-    </row>
-    <row r="684" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A684" s="1">
-        <v>45400</v>
-      </c>
-      <c r="B684">
-        <v>0.64600002765655518</v>
-      </c>
-      <c r="C684">
-        <v>0.65499997138977051</v>
-      </c>
-      <c r="D684">
-        <v>0.64600002765655518</v>
-      </c>
-      <c r="E684">
-        <v>0.64899998903274536</v>
-      </c>
-      <c r="F684">
-        <v>8730900</v>
-      </c>
-      <c r="G684">
-        <v>87309</v>
-      </c>
-      <c r="H684">
-        <f t="shared" si="80"/>
-        <v>682</v>
-      </c>
-      <c r="I684">
-        <f>SUM($F$3:F684)/H684</f>
-        <v>4496325.2990744133</v>
-      </c>
-      <c r="N684">
-        <f t="shared" si="89"/>
-        <v>0.66399997472763062</v>
-      </c>
-      <c r="O684">
-        <f t="shared" si="90"/>
-        <v>0.63400000333786011</v>
-      </c>
-      <c r="P684">
-        <f t="shared" si="79"/>
-        <v>0.64999999602635705</v>
-      </c>
-      <c r="Q684">
-        <f t="shared" si="68"/>
-        <v>0.64702381122679942</v>
-      </c>
-      <c r="R684">
-        <f t="shared" si="69"/>
-        <v>2.9761847995576352E-3</v>
-      </c>
-      <c r="S684">
-        <f t="shared" si="70"/>
-        <v>5.5510166550980277E-3</v>
-      </c>
-      <c r="T684">
-        <f t="shared" si="71"/>
-        <v>8.3265249826470407E-5</v>
-      </c>
-      <c r="U684">
-        <f t="shared" si="72"/>
-        <v>35.74342004329749</v>
-      </c>
-    </row>
-    <row r="685" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A685" s="1">
-        <v>45401</v>
-      </c>
-      <c r="B685">
-        <v>0.64899998903274536</v>
-      </c>
-      <c r="C685">
-        <v>0.64899998903274536</v>
-      </c>
-      <c r="D685">
-        <v>0.63499999046325684</v>
-      </c>
-      <c r="E685">
-        <v>0.63999998569488525</v>
-      </c>
-      <c r="F685">
-        <v>7076000</v>
-      </c>
-      <c r="G685">
-        <v>70760</v>
-      </c>
-      <c r="H685">
-        <f t="shared" si="80"/>
-        <v>683</v>
-      </c>
-      <c r="I685">
-        <f>SUM($F$3:F685)/H685</f>
-        <v>4500102.2752104681</v>
-      </c>
-      <c r="N685">
-        <f t="shared" si="89"/>
-        <v>0.66399997472763062</v>
-      </c>
-      <c r="O685">
-        <f t="shared" si="90"/>
-        <v>0.63400000333786011</v>
-      </c>
-      <c r="P685">
-        <f t="shared" si="79"/>
-        <v>0.64133332173029578</v>
-      </c>
-      <c r="Q685">
-        <f t="shared" si="68"/>
-        <v>0.64680952401388248</v>
-      </c>
-      <c r="R685">
-        <f t="shared" si="69"/>
-        <v>-5.4762022835866953E-3</v>
-      </c>
-      <c r="S685">
-        <f t="shared" si="70"/>
-        <v>5.7346914090266755E-3</v>
-      </c>
-      <c r="T685">
-        <f t="shared" si="71"/>
-        <v>8.6020371135400129E-5</v>
-      </c>
-      <c r="U685">
-        <f t="shared" si="72"/>
-        <v>-63.661690961166563</v>
-      </c>
-    </row>
-    <row r="686" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A686" s="1">
-        <v>45404</v>
-      </c>
-      <c r="B686">
-        <v>0.6380000114440918</v>
-      </c>
-      <c r="C686">
-        <v>0.64300000667572021</v>
-      </c>
-      <c r="D686">
-        <v>0.63700002431869507</v>
-      </c>
-      <c r="E686">
-        <v>0.6380000114440918</v>
-      </c>
-      <c r="F686">
-        <v>7219300</v>
-      </c>
-      <c r="G686">
-        <v>72193</v>
-      </c>
-      <c r="H686">
-        <f t="shared" si="80"/>
-        <v>684</v>
-      </c>
-      <c r="I686">
-        <f>SUM($F$3:F686)/H686</f>
-        <v>4504077.7104806285</v>
-      </c>
-      <c r="N686">
-        <f t="shared" si="89"/>
-        <v>0.66399997472763062</v>
-      </c>
-      <c r="O686">
-        <f t="shared" si="90"/>
-        <v>0.63400000333786011</v>
-      </c>
-      <c r="P686">
-        <f t="shared" si="79"/>
-        <v>0.63933334747950232</v>
-      </c>
-      <c r="Q686">
-        <f t="shared" si="68"/>
-        <v>0.64640476164363669</v>
-      </c>
-      <c r="R686">
-        <f t="shared" si="69"/>
-        <v>-7.0714141641343708E-3</v>
-      </c>
-      <c r="S686">
-        <f t="shared" si="70"/>
-        <v>6.0816305835230755E-3</v>
-      </c>
-      <c r="T686">
-        <f t="shared" si="71"/>
-        <v>9.1224458752846128E-5</v>
-      </c>
-      <c r="U686">
-        <f t="shared" si="72"/>
-        <v>-77.516646969568882</v>
-      </c>
-    </row>
-    <row r="687" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A687" s="1">
-        <v>45405</v>
-      </c>
-      <c r="B687">
-        <v>0.63899999856948853</v>
-      </c>
-      <c r="C687">
-        <v>0.64099997282028198</v>
-      </c>
-      <c r="D687">
-        <v>0.62900000810623169</v>
-      </c>
-      <c r="E687">
-        <v>0.63499999046325684</v>
-      </c>
-      <c r="F687">
-        <v>8243300</v>
-      </c>
-      <c r="G687">
-        <v>82433</v>
-      </c>
-      <c r="H687">
-        <f t="shared" si="80"/>
-        <v>685</v>
-      </c>
-      <c r="I687">
-        <f>SUM($F$3:F687)/H687</f>
-        <v>4509536.4291514596</v>
-      </c>
-      <c r="N687">
-        <f t="shared" si="89"/>
-        <v>0.66399997472763062</v>
-      </c>
-      <c r="O687">
-        <f t="shared" si="90"/>
-        <v>0.62900000810623169</v>
-      </c>
-      <c r="P687">
-        <f t="shared" si="79"/>
-        <v>0.63499999046325684</v>
-      </c>
-      <c r="Q687">
-        <f t="shared" si="68"/>
-        <v>0.64490476250648499</v>
-      </c>
-      <c r="R687">
-        <f t="shared" si="69"/>
-        <v>-9.9047720432281494E-3</v>
-      </c>
-      <c r="S687">
-        <f t="shared" si="70"/>
-        <v>5.8911556289309597E-3</v>
-      </c>
-      <c r="T687">
-        <f t="shared" si="71"/>
-        <v>8.8367334433964398E-5</v>
-      </c>
-      <c r="U687">
-        <f t="shared" si="72"/>
-        <v>-112.0863507615457</v>
-      </c>
-    </row>
-    <row r="688" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A688" s="1">
-        <v>45406</v>
-      </c>
-      <c r="B688">
-        <v>0.63400000333786011</v>
-      </c>
-      <c r="C688">
-        <v>0.63700002431869507</v>
-      </c>
-      <c r="D688">
-        <v>0.62999999523162842</v>
-      </c>
-      <c r="E688">
-        <v>0.63599997758865356</v>
-      </c>
-      <c r="F688">
-        <v>4167401.25</v>
-      </c>
-      <c r="G688">
-        <v>41674.01171875</v>
-      </c>
-      <c r="H688">
-        <f t="shared" si="80"/>
-        <v>686</v>
-      </c>
-      <c r="I688">
-        <f>SUM($F$3:F688)/H688</f>
-        <v>4509037.6898232503</v>
-      </c>
-      <c r="N688">
-        <f t="shared" si="89"/>
-        <v>0.66399997472763062</v>
-      </c>
-      <c r="O688">
-        <f t="shared" si="90"/>
-        <v>0.62900000810623169</v>
-      </c>
-      <c r="P688">
-        <f t="shared" si="79"/>
-        <v>0.63433333237965905</v>
-      </c>
-      <c r="Q688">
-        <f t="shared" si="68"/>
-        <v>0.64307142865090139</v>
-      </c>
-      <c r="R688">
-        <f t="shared" si="69"/>
-        <v>-8.7380962712423349E-3</v>
-      </c>
-      <c r="S688">
-        <f t="shared" si="70"/>
-        <v>5.0816316993869126E-3</v>
-      </c>
-      <c r="T688">
-        <f t="shared" si="71"/>
-        <v>7.622447549080368E-5</v>
-      </c>
-      <c r="U688">
-        <f t="shared" si="72"/>
-        <v>-114.63635813796537</v>
-      </c>
-    </row>
-    <row r="689" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A689" s="1">
-        <v>45407</v>
-      </c>
-      <c r="B689">
-        <v>0.63300001621246338</v>
-      </c>
-      <c r="C689">
-        <v>0.64200001955032349</v>
-      </c>
-      <c r="D689">
-        <v>0.63200002908706665</v>
-      </c>
-      <c r="E689">
-        <v>0.63700002431869507</v>
-      </c>
-      <c r="F689">
-        <v>1688207</v>
-      </c>
-      <c r="G689">
-        <v>16882.0703125</v>
-      </c>
-      <c r="H689">
-        <f t="shared" si="80"/>
-        <v>687</v>
-      </c>
-      <c r="I689">
-        <f>SUM($F$3:F689)/H689</f>
-        <v>4504931.6771743083</v>
-      </c>
-      <c r="N689">
-        <f t="shared" si="89"/>
-        <v>0.66399997472763062</v>
-      </c>
-      <c r="O689">
-        <f t="shared" si="90"/>
-        <v>0.62900000810623169</v>
-      </c>
-      <c r="P689">
-        <f t="shared" si="79"/>
-        <v>0.63700002431869507</v>
-      </c>
-      <c r="Q689">
-        <f t="shared" si="68"/>
-        <v>0.64161904936745062</v>
-      </c>
-      <c r="R689">
-        <f t="shared" si="69"/>
-        <v>-4.619025048755554E-3</v>
-      </c>
-      <c r="S689">
-        <f t="shared" si="70"/>
-        <v>4.0884334213879903E-3</v>
-      </c>
-      <c r="T689">
-        <f t="shared" si="71"/>
-        <v>6.1326501320819847E-5</v>
-      </c>
-      <c r="U689">
-        <f t="shared" si="72"/>
-        <v>-75.318580862649554</v>
-      </c>
-    </row>
-    <row r="690" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A690" s="1">
-        <v>45408</v>
-      </c>
-      <c r="B690">
-        <v>0.64300000667572021</v>
-      </c>
-      <c r="C690">
-        <v>0.65200001001358032</v>
-      </c>
-      <c r="D690">
-        <v>0.64099997282028198</v>
-      </c>
-      <c r="E690">
-        <v>0.65200001001358032</v>
-      </c>
-      <c r="F690">
-        <v>3923000</v>
-      </c>
-      <c r="G690">
-        <v>39230</v>
-      </c>
-      <c r="H690">
-        <f t="shared" si="80"/>
-        <v>688</v>
-      </c>
-      <c r="I690">
-        <f>SUM($F$3:F690)/H690</f>
-        <v>4504085.8462481834</v>
-      </c>
-      <c r="N690">
-        <f t="shared" si="89"/>
-        <v>0.66399997472763062</v>
-      </c>
-      <c r="O690">
-        <f t="shared" si="90"/>
-        <v>0.62900000810623169</v>
-      </c>
-      <c r="P690">
-        <f t="shared" si="79"/>
-        <v>0.64833333094914758</v>
-      </c>
-      <c r="Q690">
-        <f t="shared" si="68"/>
-        <v>0.64150000044277744</v>
-      </c>
-      <c r="R690">
-        <f t="shared" si="69"/>
-        <v>6.8333305063701388E-3</v>
-      </c>
-      <c r="S690">
-        <f t="shared" si="70"/>
-        <v>3.9523775074757983E-3</v>
-      </c>
-      <c r="T690">
-        <f t="shared" si="71"/>
-        <v>5.9285662612136972E-5</v>
-      </c>
-      <c r="U690">
-        <f t="shared" si="72"/>
-        <v>115.26109695485158</v>
-      </c>
-    </row>
-    <row r="691" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A691" s="1">
-        <v>45411</v>
-      </c>
-      <c r="B691">
-        <v>0.64999997615814209</v>
-      </c>
-      <c r="C691">
-        <v>0.67299997806549072</v>
-      </c>
-      <c r="D691">
-        <v>0.64999997615814209</v>
-      </c>
-      <c r="E691">
-        <v>0.66900002956390381</v>
-      </c>
-      <c r="F691">
-        <v>4791402</v>
-      </c>
-      <c r="G691">
-        <v>47914.01953125</v>
-      </c>
-      <c r="H691">
-        <f t="shared" si="80"/>
-        <v>689</v>
-      </c>
-      <c r="I691">
-        <f>SUM($F$3:F691)/H691</f>
-        <v>4504502.8508254718</v>
-      </c>
-      <c r="N691">
-        <f t="shared" si="89"/>
-        <v>0.67299997806549072</v>
-      </c>
-      <c r="O691">
-        <f t="shared" si="90"/>
-        <v>0.62900000810623169</v>
-      </c>
-      <c r="P691">
-        <f t="shared" si="79"/>
-        <v>0.66399999459584558</v>
-      </c>
-      <c r="Q691">
-        <f t="shared" si="68"/>
-        <v>0.64266666769981395</v>
-      </c>
-      <c r="R691">
-        <f t="shared" si="69"/>
-        <v>2.1333326896031624E-2</v>
-      </c>
-      <c r="S691">
-        <f t="shared" si="70"/>
-        <v>5.4285682383038202E-3</v>
-      </c>
-      <c r="T691">
-        <f t="shared" si="71"/>
-        <v>8.1428523574557306E-5</v>
-      </c>
-      <c r="U691">
-        <f t="shared" si="72"/>
-        <v>261.9883790045447</v>
-      </c>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A673" s="1"/>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A674" s="1"/>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A675" s="1"/>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A676" s="1"/>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A677" s="1"/>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A678" s="1"/>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A679" s="1"/>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A680" s="1"/>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A681" s="1"/>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A682" s="1"/>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A683" s="1"/>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A684" s="1"/>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A685" s="1"/>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A686" s="1"/>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A687" s="1"/>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A688" s="1"/>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A689" s="1"/>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A690" s="1"/>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A691" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -463,8 +463,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A670" workbookViewId="0">
-      <selection activeCell="A673" sqref="A673"/>
+    <sheetView tabSelected="1" topLeftCell="A673" workbookViewId="0">
+      <selection activeCell="A692" sqref="A692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33534,23 +33534,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q672" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q691" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R672" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R691" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S672" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S691" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T672" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T691" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U672" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U691" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -36680,7 +36680,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P672" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P691" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36790,7 +36790,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H672" si="80">H578+1</f>
+        <f t="shared" ref="H579:H691" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -42658,11 +42658,11 @@
       </c>
       <c r="N672">
         <f>VLOOKUP(L36,A:C,3)</f>
-        <v>0.6470000147819519</v>
+        <v>0.66399997472763062</v>
       </c>
       <c r="O672">
         <f>VLOOKUP(L36,A:D,4)</f>
-        <v>0.64200001955032349</v>
+        <v>0.63999998569488525</v>
       </c>
       <c r="P672">
         <f t="shared" si="79"/>
@@ -42689,62 +42689,1202 @@
         <v>-98.887766665906639</v>
       </c>
     </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A673" s="1"/>
-    </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A674" s="1"/>
-    </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A675" s="1"/>
-    </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A676" s="1"/>
-    </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A677" s="1"/>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A678" s="1"/>
-    </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A679" s="1"/>
-    </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A680" s="1"/>
-    </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A681" s="1"/>
-    </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A682" s="1"/>
-    </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A683" s="1"/>
-    </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A684" s="1"/>
-    </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A685" s="1"/>
-    </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A686" s="1"/>
-    </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A687" s="1"/>
-    </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A688" s="1"/>
-    </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A689" s="1"/>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A690" s="1"/>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A691" s="1"/>
+    <row r="673" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A673" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B673">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C673">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="D673">
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="E673">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="F673">
+        <v>9247900</v>
+      </c>
+      <c r="G673">
+        <v>92479</v>
+      </c>
+      <c r="H673">
+        <f t="shared" si="80"/>
+        <v>671</v>
+      </c>
+      <c r="I673">
+        <f>SUM($F$3:F673)/H673</f>
+        <v>4430496.4813245153</v>
+      </c>
+      <c r="N673">
+        <f t="shared" ref="N673:N691" si="89">IF(A673&lt;&gt;$K$36,MAX(N672,VLOOKUP(A673,A:C,3)),)</f>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O673">
+        <f t="shared" ref="O673:O691" si="90">IF(A673&lt;&gt;$K$36,MIN(O672,VLOOKUP(A673,A:D,4)),)</f>
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="P673">
+        <f t="shared" si="79"/>
+        <v>0.6559999783833822</v>
+      </c>
+      <c r="Q673">
+        <f t="shared" si="68"/>
+        <v>0.65571428906349905</v>
+      </c>
+      <c r="R673">
+        <f t="shared" si="69"/>
+        <v>2.8568931988315338E-4</v>
+      </c>
+      <c r="S673">
+        <f t="shared" si="70"/>
+        <v>7.1360517521293831E-3</v>
+      </c>
+      <c r="T673">
+        <f t="shared" si="71"/>
+        <v>1.0704077628194074E-4</v>
+      </c>
+      <c r="U673">
+        <f t="shared" si="72"/>
+        <v>2.6689765321830268</v>
+      </c>
+    </row>
+    <row r="674" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A674" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B674">
+        <v>0.66200000047683716</v>
+      </c>
+      <c r="C674">
+        <v>0.66200000047683716</v>
+      </c>
+      <c r="D674">
+        <v>0.65799999237060547</v>
+      </c>
+      <c r="E674">
+        <v>0.6600000262260437</v>
+      </c>
+      <c r="F674">
+        <v>8738600</v>
+      </c>
+      <c r="G674">
+        <v>87386</v>
+      </c>
+      <c r="H674">
+        <f t="shared" si="80"/>
+        <v>672</v>
+      </c>
+      <c r="I674">
+        <f>SUM($F$3:F674)/H674</f>
+        <v>4436907.3496558778</v>
+      </c>
+      <c r="N674">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O674">
+        <f t="shared" si="90"/>
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="P674">
+        <f t="shared" si="79"/>
+        <v>0.66000000635782874</v>
+      </c>
+      <c r="Q674">
+        <f t="shared" si="68"/>
+        <v>0.65547619405246915</v>
+      </c>
+      <c r="R674">
+        <f t="shared" si="69"/>
+        <v>4.5238123053595869E-3</v>
+      </c>
+      <c r="S674">
+        <f t="shared" si="70"/>
+        <v>6.9319703141037291E-3</v>
+      </c>
+      <c r="T674">
+        <f t="shared" si="71"/>
+        <v>1.0397955471155593E-4</v>
+      </c>
+      <c r="U674">
+        <f t="shared" si="72"/>
+        <v>43.506748205537619</v>
+      </c>
+    </row>
+    <row r="675" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A675" s="1">
+        <v>45385</v>
+      </c>
+      <c r="B675">
+        <v>0.65600001811981201</v>
+      </c>
+      <c r="C675">
+        <v>0.6600000262260437</v>
+      </c>
+      <c r="D675">
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="E675">
+        <v>0.65799999237060547</v>
+      </c>
+      <c r="F675">
+        <v>16424300</v>
+      </c>
+      <c r="G675">
+        <v>164243</v>
+      </c>
+      <c r="H675">
+        <f t="shared" si="80"/>
+        <v>673</v>
+      </c>
+      <c r="I675">
+        <f>SUM($F$3:F675)/H675</f>
+        <v>4454719.2258079499</v>
+      </c>
+      <c r="N675">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O675">
+        <f t="shared" si="90"/>
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="P675">
+        <f t="shared" si="79"/>
+        <v>0.65733333428700769</v>
+      </c>
+      <c r="Q675">
+        <f t="shared" si="68"/>
+        <v>0.65521428982416796</v>
+      </c>
+      <c r="R675">
+        <f t="shared" si="69"/>
+        <v>2.1190444628397254E-3</v>
+      </c>
+      <c r="S675">
+        <f t="shared" si="70"/>
+        <v>6.7074809755597719E-3</v>
+      </c>
+      <c r="T675">
+        <f t="shared" si="71"/>
+        <v>1.0061221463339658E-4</v>
+      </c>
+      <c r="U675">
+        <f t="shared" si="72"/>
+        <v>21.061503024865761</v>
+      </c>
+    </row>
+    <row r="676" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A676" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B676">
+        <v>0.65200001001358032</v>
+      </c>
+      <c r="C676">
+        <v>0.65600001811981201</v>
+      </c>
+      <c r="D676">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="E676">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="F676">
+        <v>16469700</v>
+      </c>
+      <c r="G676">
+        <v>164697</v>
+      </c>
+      <c r="H676">
+        <f t="shared" si="80"/>
+        <v>674</v>
+      </c>
+      <c r="I676">
+        <f>SUM($F$3:F676)/H676</f>
+        <v>4472545.6067785611</v>
+      </c>
+      <c r="N676">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O676">
+        <f t="shared" si="90"/>
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="P676">
+        <f t="shared" si="79"/>
+        <v>0.6500000158945719</v>
+      </c>
+      <c r="Q676">
+        <f t="shared" si="68"/>
+        <v>0.65476190901937936</v>
+      </c>
+      <c r="R676">
+        <f t="shared" si="69"/>
+        <v>-4.7618931248074592E-3</v>
+      </c>
+      <c r="S676">
+        <f t="shared" si="70"/>
+        <v>6.9999964464278475E-3</v>
+      </c>
+      <c r="T676">
+        <f t="shared" si="71"/>
+        <v>1.0499994669641771E-4</v>
+      </c>
+      <c r="U676">
+        <f t="shared" si="72"/>
+        <v>-45.351386116179057</v>
+      </c>
+    </row>
+    <row r="677" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A677" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B677">
+        <v>0.64399999380111694</v>
+      </c>
+      <c r="C677">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="D677">
+        <v>0.64399999380111694</v>
+      </c>
+      <c r="E677">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="F677">
+        <v>728100</v>
+      </c>
+      <c r="G677">
+        <v>7281</v>
+      </c>
+      <c r="H677">
+        <f t="shared" si="80"/>
+        <v>675</v>
+      </c>
+      <c r="I677">
+        <f>SUM($F$3:F677)/H677</f>
+        <v>4466998.2799537033</v>
+      </c>
+      <c r="N677">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O677">
+        <f t="shared" si="90"/>
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="P677">
+        <f t="shared" si="79"/>
+        <v>0.64766665299733484</v>
+      </c>
+      <c r="Q677">
+        <f t="shared" si="68"/>
+        <v>0.65333333611488342</v>
+      </c>
+      <c r="R677">
+        <f t="shared" si="69"/>
+        <v>-5.6666831175485877E-3</v>
+      </c>
+      <c r="S677">
+        <f t="shared" si="70"/>
+        <v>6.523803586051583E-3</v>
+      </c>
+      <c r="T677">
+        <f t="shared" si="71"/>
+        <v>9.7857053790773737E-5</v>
+      </c>
+      <c r="U677">
+        <f t="shared" si="72"/>
+        <v>-57.907763396028791</v>
+      </c>
+    </row>
+    <row r="678" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A678" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B678">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="C678">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="D678">
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="E678">
+        <v>0.63899999856948853</v>
+      </c>
+      <c r="F678">
+        <v>6117912</v>
+      </c>
+      <c r="G678">
+        <v>61179.12109375</v>
+      </c>
+      <c r="H678">
+        <f t="shared" si="80"/>
+        <v>676</v>
+      </c>
+      <c r="I678">
+        <f>SUM($F$3:F678)/H678</f>
+        <v>4469440.4600129435</v>
+      </c>
+      <c r="N678">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O678">
+        <f t="shared" si="90"/>
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="P678">
+        <f t="shared" si="79"/>
+        <v>0.64166667064030969</v>
+      </c>
+      <c r="Q678">
+        <f t="shared" si="68"/>
+        <v>0.65159524196670182</v>
+      </c>
+      <c r="R678">
+        <f t="shared" si="69"/>
+        <v>-9.9285713263921327E-3</v>
+      </c>
+      <c r="S678">
+        <f t="shared" si="70"/>
+        <v>6.2040767702115874E-3</v>
+      </c>
+      <c r="T678">
+        <f t="shared" si="71"/>
+        <v>9.3061151553173815E-5</v>
+      </c>
+      <c r="U678">
+        <f t="shared" si="72"/>
+        <v>-106.68867901037189</v>
+      </c>
+    </row>
+    <row r="679" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A679" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B679">
+        <v>0.63899999856948853</v>
+      </c>
+      <c r="C679">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="D679">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="E679">
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="F679">
+        <v>1937000</v>
+      </c>
+      <c r="G679">
+        <v>19370</v>
+      </c>
+      <c r="H679">
+        <f t="shared" si="80"/>
+        <v>677</v>
+      </c>
+      <c r="I679">
+        <f>SUM($F$3:F679)/H679</f>
+        <v>4465699.7798652146</v>
+      </c>
+      <c r="N679">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O679">
+        <f t="shared" si="90"/>
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="P679">
+        <f t="shared" si="79"/>
+        <v>0.64033333460489905</v>
+      </c>
+      <c r="Q679">
+        <f t="shared" si="68"/>
+        <v>0.6499523846876053</v>
+      </c>
+      <c r="R679">
+        <f t="shared" si="69"/>
+        <v>-9.6190500827062486E-3</v>
+      </c>
+      <c r="S679">
+        <f t="shared" si="70"/>
+        <v>5.7210861420144976E-3</v>
+      </c>
+      <c r="T679">
+        <f t="shared" si="71"/>
+        <v>8.5816292130217457E-5</v>
+      </c>
+      <c r="U679">
+        <f t="shared" si="72"/>
+        <v>-112.08885683513712</v>
+      </c>
+    </row>
+    <row r="680" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A680" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B680">
+        <v>0.64099997282028198</v>
+      </c>
+      <c r="C680">
+        <v>0.64099997282028198</v>
+      </c>
+      <c r="D680">
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="E680">
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="F680">
+        <v>7925000</v>
+      </c>
+      <c r="G680">
+        <v>79250</v>
+      </c>
+      <c r="H680">
+        <f t="shared" si="80"/>
+        <v>678</v>
+      </c>
+      <c r="I680">
+        <f>SUM($F$3:F680)/H680</f>
+        <v>4470801.9925792776</v>
+      </c>
+      <c r="N680">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O680">
+        <f t="shared" si="90"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P680">
+        <f t="shared" si="79"/>
+        <v>0.63633332649866736</v>
+      </c>
+      <c r="Q680">
+        <f t="shared" si="68"/>
+        <v>0.64811904941286347</v>
+      </c>
+      <c r="R680">
+        <f t="shared" si="69"/>
+        <v>-1.1785722914196106E-2</v>
+      </c>
+      <c r="S680">
+        <f t="shared" si="70"/>
+        <v>5.8333306085495773E-3</v>
+      </c>
+      <c r="T680">
+        <f t="shared" si="71"/>
+        <v>8.7499959128243662E-5</v>
+      </c>
+      <c r="U680">
+        <f t="shared" si="72"/>
+        <v>-134.69403907860629</v>
+      </c>
+    </row>
+    <row r="681" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A681" s="1">
+        <v>45397</v>
+      </c>
+      <c r="B681">
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="C681">
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="D681">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="E681">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="F681">
+        <v>8349600</v>
+      </c>
+      <c r="G681">
+        <v>83496</v>
+      </c>
+      <c r="H681">
+        <f t="shared" si="80"/>
+        <v>679</v>
+      </c>
+      <c r="I681">
+        <f>SUM($F$3:F681)/H681</f>
+        <v>4476514.5080541233</v>
+      </c>
+      <c r="N681">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O681">
+        <f t="shared" si="90"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P681">
+        <f t="shared" si="79"/>
+        <v>0.64333333571751916</v>
+      </c>
+      <c r="Q681">
+        <f t="shared" si="68"/>
+        <v>0.64733333672795978</v>
+      </c>
+      <c r="R681">
+        <f t="shared" si="69"/>
+        <v>-4.0000010104406236E-3</v>
+      </c>
+      <c r="S681">
+        <f t="shared" si="70"/>
+        <v>5.6666632493337045E-3</v>
+      </c>
+      <c r="T681">
+        <f t="shared" si="71"/>
+        <v>8.4999948740005561E-5</v>
+      </c>
+      <c r="U681">
+        <f t="shared" si="72"/>
+        <v>-47.05886379620847</v>
+      </c>
+    </row>
+    <row r="682" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A682" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B682">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="C682">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="D682">
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="E682">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="F682">
+        <v>9089702</v>
+      </c>
+      <c r="G682">
+        <v>90897.0234375</v>
+      </c>
+      <c r="H682">
+        <f t="shared" si="80"/>
+        <v>680</v>
+      </c>
+      <c r="I682">
+        <f>SUM($F$3:F682)/H682</f>
+        <v>4483298.6073069852</v>
+      </c>
+      <c r="N682">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O682">
+        <f t="shared" si="90"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P682">
+        <f t="shared" si="79"/>
+        <v>0.64066668351491296</v>
+      </c>
+      <c r="Q682">
+        <f t="shared" si="68"/>
+        <v>0.64666667012941281</v>
+      </c>
+      <c r="R682">
+        <f t="shared" si="69"/>
+        <v>-5.9999866144998526E-3</v>
+      </c>
+      <c r="S682">
+        <f t="shared" si="70"/>
+        <v>5.8571375957151882E-3</v>
+      </c>
+      <c r="T682">
+        <f t="shared" si="71"/>
+        <v>8.7857063935727815E-5</v>
+      </c>
+      <c r="U682">
+        <f t="shared" si="72"/>
+        <v>-68.292591918268144</v>
+      </c>
+    </row>
+    <row r="683" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A683" s="1">
+        <v>45399</v>
+      </c>
+      <c r="B683">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C683">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="D683">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="E683">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="F683">
+        <v>9119901</v>
+      </c>
+      <c r="G683">
+        <v>91199.0078125</v>
+      </c>
+      <c r="H683">
+        <f t="shared" si="80"/>
+        <v>681</v>
+      </c>
+      <c r="I683">
+        <f>SUM($F$3:F683)/H683</f>
+        <v>4490107.1277074153</v>
+      </c>
+      <c r="N683">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O683">
+        <f t="shared" si="90"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P683">
+        <f t="shared" si="79"/>
+        <v>0.64566665887832642</v>
+      </c>
+      <c r="Q683">
+        <f t="shared" si="68"/>
+        <v>0.64635714604741057</v>
+      </c>
+      <c r="R683">
+        <f t="shared" si="69"/>
+        <v>-6.9048716908415297E-4</v>
+      </c>
+      <c r="S683">
+        <f t="shared" si="70"/>
+        <v>5.6020368118675579E-3</v>
+      </c>
+      <c r="T683">
+        <f t="shared" si="71"/>
+        <v>8.4030552178013363E-5</v>
+      </c>
+      <c r="U683">
+        <f t="shared" si="72"/>
+        <v>-8.2170966533862586</v>
+      </c>
+    </row>
+    <row r="684" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A684" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B684">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C684">
+        <v>0.65499997138977051</v>
+      </c>
+      <c r="D684">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="E684">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="F684">
+        <v>8730900</v>
+      </c>
+      <c r="G684">
+        <v>87309</v>
+      </c>
+      <c r="H684">
+        <f t="shared" si="80"/>
+        <v>682</v>
+      </c>
+      <c r="I684">
+        <f>SUM($F$3:F684)/H684</f>
+        <v>4496325.2990744133</v>
+      </c>
+      <c r="N684">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O684">
+        <f t="shared" si="90"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P684">
+        <f t="shared" si="79"/>
+        <v>0.64999999602635705</v>
+      </c>
+      <c r="Q684">
+        <f t="shared" si="68"/>
+        <v>0.64702381122679942</v>
+      </c>
+      <c r="R684">
+        <f t="shared" si="69"/>
+        <v>2.9761847995576352E-3</v>
+      </c>
+      <c r="S684">
+        <f t="shared" si="70"/>
+        <v>5.5510166550980277E-3</v>
+      </c>
+      <c r="T684">
+        <f t="shared" si="71"/>
+        <v>8.3265249826470407E-5</v>
+      </c>
+      <c r="U684">
+        <f t="shared" si="72"/>
+        <v>35.74342004329749</v>
+      </c>
+    </row>
+    <row r="685" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A685" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B685">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="C685">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="D685">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="E685">
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="F685">
+        <v>7076000</v>
+      </c>
+      <c r="G685">
+        <v>70760</v>
+      </c>
+      <c r="H685">
+        <f t="shared" si="80"/>
+        <v>683</v>
+      </c>
+      <c r="I685">
+        <f>SUM($F$3:F685)/H685</f>
+        <v>4500102.2752104681</v>
+      </c>
+      <c r="N685">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O685">
+        <f t="shared" si="90"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P685">
+        <f t="shared" si="79"/>
+        <v>0.64133332173029578</v>
+      </c>
+      <c r="Q685">
+        <f t="shared" si="68"/>
+        <v>0.64680952401388248</v>
+      </c>
+      <c r="R685">
+        <f t="shared" si="69"/>
+        <v>-5.4762022835866953E-3</v>
+      </c>
+      <c r="S685">
+        <f t="shared" si="70"/>
+        <v>5.7346914090266755E-3</v>
+      </c>
+      <c r="T685">
+        <f t="shared" si="71"/>
+        <v>8.6020371135400129E-5</v>
+      </c>
+      <c r="U685">
+        <f t="shared" si="72"/>
+        <v>-63.661690961166563</v>
+      </c>
+    </row>
+    <row r="686" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A686" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B686">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="C686">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="D686">
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="E686">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="F686">
+        <v>7219300</v>
+      </c>
+      <c r="G686">
+        <v>72193</v>
+      </c>
+      <c r="H686">
+        <f t="shared" si="80"/>
+        <v>684</v>
+      </c>
+      <c r="I686">
+        <f>SUM($F$3:F686)/H686</f>
+        <v>4504077.7104806285</v>
+      </c>
+      <c r="N686">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O686">
+        <f t="shared" si="90"/>
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="P686">
+        <f t="shared" si="79"/>
+        <v>0.63933334747950232</v>
+      </c>
+      <c r="Q686">
+        <f t="shared" si="68"/>
+        <v>0.64640476164363669</v>
+      </c>
+      <c r="R686">
+        <f t="shared" si="69"/>
+        <v>-7.0714141641343708E-3</v>
+      </c>
+      <c r="S686">
+        <f t="shared" si="70"/>
+        <v>6.0816305835230755E-3</v>
+      </c>
+      <c r="T686">
+        <f t="shared" si="71"/>
+        <v>9.1224458752846128E-5</v>
+      </c>
+      <c r="U686">
+        <f t="shared" si="72"/>
+        <v>-77.516646969568882</v>
+      </c>
+    </row>
+    <row r="687" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A687" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B687">
+        <v>0.63899999856948853</v>
+      </c>
+      <c r="C687">
+        <v>0.64099997282028198</v>
+      </c>
+      <c r="D687">
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="E687">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="F687">
+        <v>8243300</v>
+      </c>
+      <c r="G687">
+        <v>82433</v>
+      </c>
+      <c r="H687">
+        <f t="shared" si="80"/>
+        <v>685</v>
+      </c>
+      <c r="I687">
+        <f>SUM($F$3:F687)/H687</f>
+        <v>4509536.4291514596</v>
+      </c>
+      <c r="N687">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O687">
+        <f t="shared" si="90"/>
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="P687">
+        <f t="shared" si="79"/>
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="Q687">
+        <f t="shared" si="68"/>
+        <v>0.64490476250648499</v>
+      </c>
+      <c r="R687">
+        <f t="shared" si="69"/>
+        <v>-9.9047720432281494E-3</v>
+      </c>
+      <c r="S687">
+        <f t="shared" si="70"/>
+        <v>5.8911556289309597E-3</v>
+      </c>
+      <c r="T687">
+        <f t="shared" si="71"/>
+        <v>8.8367334433964398E-5</v>
+      </c>
+      <c r="U687">
+        <f t="shared" si="72"/>
+        <v>-112.0863507615457</v>
+      </c>
+    </row>
+    <row r="688" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A688" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B688">
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="C688">
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="D688">
+        <v>0.62999999523162842</v>
+      </c>
+      <c r="E688">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="F688">
+        <v>4167401.25</v>
+      </c>
+      <c r="G688">
+        <v>41674.01171875</v>
+      </c>
+      <c r="H688">
+        <f t="shared" si="80"/>
+        <v>686</v>
+      </c>
+      <c r="I688">
+        <f>SUM($F$3:F688)/H688</f>
+        <v>4509037.6898232503</v>
+      </c>
+      <c r="N688">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O688">
+        <f t="shared" si="90"/>
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="P688">
+        <f t="shared" si="79"/>
+        <v>0.63433333237965905</v>
+      </c>
+      <c r="Q688">
+        <f t="shared" si="68"/>
+        <v>0.64307142865090139</v>
+      </c>
+      <c r="R688">
+        <f t="shared" si="69"/>
+        <v>-8.7380962712423349E-3</v>
+      </c>
+      <c r="S688">
+        <f t="shared" si="70"/>
+        <v>5.0816316993869126E-3</v>
+      </c>
+      <c r="T688">
+        <f t="shared" si="71"/>
+        <v>7.622447549080368E-5</v>
+      </c>
+      <c r="U688">
+        <f t="shared" si="72"/>
+        <v>-114.63635813796537</v>
+      </c>
+    </row>
+    <row r="689" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A689" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B689">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C689">
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="D689">
+        <v>0.63200002908706665</v>
+      </c>
+      <c r="E689">
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="F689">
+        <v>1688207</v>
+      </c>
+      <c r="G689">
+        <v>16882.0703125</v>
+      </c>
+      <c r="H689">
+        <f t="shared" si="80"/>
+        <v>687</v>
+      </c>
+      <c r="I689">
+        <f>SUM($F$3:F689)/H689</f>
+        <v>4504931.6771743083</v>
+      </c>
+      <c r="N689">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O689">
+        <f t="shared" si="90"/>
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="P689">
+        <f t="shared" si="79"/>
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="Q689">
+        <f t="shared" si="68"/>
+        <v>0.64161904936745062</v>
+      </c>
+      <c r="R689">
+        <f t="shared" si="69"/>
+        <v>-4.619025048755554E-3</v>
+      </c>
+      <c r="S689">
+        <f t="shared" si="70"/>
+        <v>4.0884334213879903E-3</v>
+      </c>
+      <c r="T689">
+        <f t="shared" si="71"/>
+        <v>6.1326501320819847E-5</v>
+      </c>
+      <c r="U689">
+        <f t="shared" si="72"/>
+        <v>-75.318580862649554</v>
+      </c>
+    </row>
+    <row r="690" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A690" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B690">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="C690">
+        <v>0.65200001001358032</v>
+      </c>
+      <c r="D690">
+        <v>0.64099997282028198</v>
+      </c>
+      <c r="E690">
+        <v>0.65200001001358032</v>
+      </c>
+      <c r="F690">
+        <v>3923000</v>
+      </c>
+      <c r="G690">
+        <v>39230</v>
+      </c>
+      <c r="H690">
+        <f t="shared" si="80"/>
+        <v>688</v>
+      </c>
+      <c r="I690">
+        <f>SUM($F$3:F690)/H690</f>
+        <v>4504085.8462481834</v>
+      </c>
+      <c r="N690">
+        <f t="shared" si="89"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="O690">
+        <f t="shared" si="90"/>
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="P690">
+        <f t="shared" si="79"/>
+        <v>0.64833333094914758</v>
+      </c>
+      <c r="Q690">
+        <f t="shared" si="68"/>
+        <v>0.64150000044277744</v>
+      </c>
+      <c r="R690">
+        <f t="shared" si="69"/>
+        <v>6.8333305063701388E-3</v>
+      </c>
+      <c r="S690">
+        <f t="shared" si="70"/>
+        <v>3.9523775074757983E-3</v>
+      </c>
+      <c r="T690">
+        <f t="shared" si="71"/>
+        <v>5.9285662612136972E-5</v>
+      </c>
+      <c r="U690">
+        <f t="shared" si="72"/>
+        <v>115.26109695485158</v>
+      </c>
+    </row>
+    <row r="691" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A691" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B691">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="C691">
+        <v>0.67299997806549072</v>
+      </c>
+      <c r="D691">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="E691">
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="F691">
+        <v>4791402</v>
+      </c>
+      <c r="G691">
+        <v>47914.01953125</v>
+      </c>
+      <c r="H691">
+        <f t="shared" si="80"/>
+        <v>689</v>
+      </c>
+      <c r="I691">
+        <f>SUM($F$3:F691)/H691</f>
+        <v>4504502.8508254718</v>
+      </c>
+      <c r="N691">
+        <f t="shared" si="89"/>
+        <v>0.67299997806549072</v>
+      </c>
+      <c r="O691">
+        <f t="shared" si="90"/>
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="P691">
+        <f t="shared" si="79"/>
+        <v>0.66399999459584558</v>
+      </c>
+      <c r="Q691">
+        <f t="shared" si="68"/>
+        <v>0.64266666769981395</v>
+      </c>
+      <c r="R691">
+        <f t="shared" si="69"/>
+        <v>2.1333326896031624E-2</v>
+      </c>
+      <c r="S691">
+        <f t="shared" si="70"/>
+        <v>5.4285682383038202E-3</v>
+      </c>
+      <c r="T691">
+        <f t="shared" si="71"/>
+        <v>8.1428523574557306E-5</v>
+      </c>
+      <c r="U691">
+        <f t="shared" si="72"/>
+        <v>261.9883790045447</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U691"/>
+  <dimension ref="A1:U692"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A673" workbookViewId="0">
-      <selection activeCell="A692" sqref="A692"/>
+    <sheetView tabSelected="1" topLeftCell="A680" workbookViewId="0">
+      <selection activeCell="A693" sqref="A693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2621,7 +2621,7 @@
         <v>22.140772415665815</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44421</v>
       </c>
@@ -2651,6 +2651,12 @@
         <f>SUM($F$3:F37)/H37</f>
         <v>27014551.342857141</v>
       </c>
+      <c r="K37" s="2">
+        <v>45443</v>
+      </c>
+      <c r="L37" s="2">
+        <v>45418</v>
+      </c>
       <c r="N37">
         <f t="shared" si="9"/>
         <v>1.0469999999999999</v>
@@ -33534,23 +33540,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q691" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q692" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R691" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R692" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S691" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S692" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T691" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T692" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U691" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U692" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -36680,7 +36686,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P691" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P692" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36790,7 +36796,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H691" si="80">H578+1</f>
+        <f t="shared" ref="H579:H692" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -42720,11 +42726,11 @@
         <v>4430496.4813245153</v>
       </c>
       <c r="N673">
-        <f t="shared" ref="N673:N691" si="89">IF(A673&lt;&gt;$K$36,MAX(N672,VLOOKUP(A673,A:C,3)),)</f>
+        <f t="shared" ref="N673:N692" si="89">IF(A673&lt;&gt;$K$36,MAX(N672,VLOOKUP(A673,A:C,3)),)</f>
         <v>0.66399997472763062</v>
       </c>
       <c r="O673">
-        <f t="shared" ref="O673:O691" si="90">IF(A673&lt;&gt;$K$36,MIN(O672,VLOOKUP(A673,A:D,4)),)</f>
+        <f t="shared" ref="O673:O692" si="90">IF(A673&lt;&gt;$K$36,MIN(O672,VLOOKUP(A673,A:D,4)),)</f>
         <v>0.63999998569488525</v>
       </c>
       <c r="P673">
@@ -43884,6 +43890,69 @@
       <c r="U691">
         <f t="shared" si="72"/>
         <v>261.9883790045447</v>
+      </c>
+    </row>
+    <row r="692" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A692" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B692">
+        <v>0.66699999570846558</v>
+      </c>
+      <c r="C692">
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="D692">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="E692">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="F692">
+        <v>5195700</v>
+      </c>
+      <c r="G692">
+        <v>51957</v>
+      </c>
+      <c r="H692">
+        <f t="shared" si="80"/>
+        <v>690</v>
+      </c>
+      <c r="I692">
+        <f>SUM($F$3:F692)/H692</f>
+        <v>4505504.5858242754</v>
+      </c>
+      <c r="N692">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="O692">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="P692">
+        <f t="shared" si="79"/>
+        <v>0.66566665967305505</v>
+      </c>
+      <c r="Q692">
+        <f t="shared" si="68"/>
+        <v>0.64438095263072426</v>
+      </c>
+      <c r="R692">
+        <f t="shared" si="69"/>
+        <v>2.1285707042330793E-2</v>
+      </c>
+      <c r="S692">
+        <f t="shared" si="70"/>
+        <v>7.3945538527300791E-3</v>
+      </c>
+      <c r="T692">
+        <f t="shared" si="71"/>
+        <v>1.1091830779095118E-4</v>
+      </c>
+      <c r="U692">
+        <f t="shared" si="72"/>
+        <v>191.90436156354073</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U692"/>
+  <dimension ref="A1:U711"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A680" workbookViewId="0">
-      <selection activeCell="A693" sqref="A693"/>
+    <sheetView tabSelected="1" topLeftCell="A693" workbookViewId="0">
+      <selection activeCell="A712" sqref="A712"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33540,23 +33540,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q692" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q711" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R692" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R711" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S692" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S711" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T692" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T711" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U692" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U711" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -36686,7 +36686,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P692" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P711" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36796,7 +36796,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H692" si="80">H578+1</f>
+        <f t="shared" ref="H579:H711" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -42726,11 +42726,11 @@
         <v>4430496.4813245153</v>
       </c>
       <c r="N673">
-        <f t="shared" ref="N673:N692" si="89">IF(A673&lt;&gt;$K$36,MAX(N672,VLOOKUP(A673,A:C,3)),)</f>
+        <f t="shared" ref="N673:N691" si="89">IF(A673&lt;&gt;$K$36,MAX(N672,VLOOKUP(A673,A:C,3)),)</f>
         <v>0.66399997472763062</v>
       </c>
       <c r="O673">
-        <f t="shared" ref="O673:O692" si="90">IF(A673&lt;&gt;$K$36,MIN(O672,VLOOKUP(A673,A:D,4)),)</f>
+        <f t="shared" ref="O673:O691" si="90">IF(A673&lt;&gt;$K$36,MIN(O672,VLOOKUP(A673,A:D,4)),)</f>
         <v>0.63999998569488525</v>
       </c>
       <c r="P673">
@@ -43923,12 +43923,12 @@
         <v>4505504.5858242754</v>
       </c>
       <c r="N692">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f>VLOOKUP(L37,A:C,3)</f>
+        <v>0.68000000715255737</v>
       </c>
       <c r="O692">
-        <f t="shared" si="90"/>
-        <v>0</v>
+        <f>VLOOKUP(L37,A:D,4)</f>
+        <v>0.67000001668930054</v>
       </c>
       <c r="P692">
         <f t="shared" si="79"/>
@@ -43953,6 +43953,1203 @@
       <c r="U692">
         <f t="shared" si="72"/>
         <v>191.90436156354073</v>
+      </c>
+    </row>
+    <row r="693" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A693" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B693">
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="C693">
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="D693">
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="E693">
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="F693">
+        <v>8195301</v>
+      </c>
+      <c r="G693">
+        <v>81953.0078125</v>
+      </c>
+      <c r="H693">
+        <f t="shared" si="80"/>
+        <v>691</v>
+      </c>
+      <c r="I693">
+        <f>SUM($F$3:F693)/H693</f>
+        <v>4510844.3780300291</v>
+      </c>
+      <c r="N693">
+        <f t="shared" ref="N693:N711" si="91">IF(A693&lt;&gt;$K$37,MAX(N692,VLOOKUP(A693,A:C,3)),)</f>
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="O693">
+        <f t="shared" ref="O693:O711" si="92">IF(A693&lt;&gt;$K$37,MIN(O692,VLOOKUP(A693,A:D,4)),)</f>
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="P693">
+        <f t="shared" si="79"/>
+        <v>0.67666667699813843</v>
+      </c>
+      <c r="Q693">
+        <f t="shared" si="68"/>
+        <v>0.64697619137309836</v>
+      </c>
+      <c r="R693">
+        <f t="shared" si="69"/>
+        <v>2.9690485625040064E-2</v>
+      </c>
+      <c r="S693">
+        <f t="shared" si="70"/>
+        <v>9.9693859110072981E-3</v>
+      </c>
+      <c r="T693">
+        <f t="shared" si="71"/>
+        <v>1.4954078866510946E-4</v>
+      </c>
+      <c r="U693">
+        <f t="shared" si="72"/>
+        <v>198.54439641568766</v>
+      </c>
+    </row>
+    <row r="694" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A694" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B694">
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="C694">
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="D694">
+        <v>0.67299997806549072</v>
+      </c>
+      <c r="E694">
+        <v>0.67400002479553223</v>
+      </c>
+      <c r="F694">
+        <v>8909300</v>
+      </c>
+      <c r="G694">
+        <v>89093</v>
+      </c>
+      <c r="H694">
+        <f t="shared" si="80"/>
+        <v>692</v>
+      </c>
+      <c r="I694">
+        <f>SUM($F$3:F694)/H694</f>
+        <v>4517200.52777276</v>
+      </c>
+      <c r="N694">
+        <f t="shared" si="91"/>
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="O694">
+        <f t="shared" si="92"/>
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="P694">
+        <f t="shared" si="79"/>
+        <v>0.67666667699813843</v>
+      </c>
+      <c r="Q694">
+        <f t="shared" si="68"/>
+        <v>0.64985714498020342</v>
+      </c>
+      <c r="R694">
+        <f t="shared" si="69"/>
+        <v>2.6809532017935012E-2</v>
+      </c>
+      <c r="S694">
+        <f t="shared" si="70"/>
+        <v>1.1959182770073786E-2</v>
+      </c>
+      <c r="T694">
+        <f t="shared" si="71"/>
+        <v>1.793877415511068E-4</v>
+      </c>
+      <c r="U694">
+        <f t="shared" si="72"/>
+        <v>149.45018977396006</v>
+      </c>
+    </row>
+    <row r="695" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A695" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B695">
+        <v>0.6679999828338623</v>
+      </c>
+      <c r="C695">
+        <v>0.67199999094009399</v>
+      </c>
+      <c r="D695">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="E695">
+        <v>0.66600000858306885</v>
+      </c>
+      <c r="F695">
+        <v>6778700</v>
+      </c>
+      <c r="G695">
+        <v>67787</v>
+      </c>
+      <c r="H695">
+        <f t="shared" si="80"/>
+        <v>693</v>
+      </c>
+      <c r="I695">
+        <f>SUM($F$3:F695)/H695</f>
+        <v>4520463.8747745315</v>
+      </c>
+      <c r="N695">
+        <f t="shared" si="91"/>
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="O695">
+        <f t="shared" si="92"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="P695">
+        <f t="shared" si="79"/>
+        <v>0.66733332475026452</v>
+      </c>
+      <c r="Q695">
+        <f t="shared" si="68"/>
+        <v>0.65157142991111383</v>
+      </c>
+      <c r="R695">
+        <f t="shared" si="69"/>
+        <v>1.5761894839150692E-2</v>
+      </c>
+      <c r="S695">
+        <f t="shared" si="70"/>
+        <v>1.3210883351410305E-2</v>
+      </c>
+      <c r="T695">
+        <f t="shared" si="71"/>
+        <v>1.9816325027115456E-4</v>
+      </c>
+      <c r="U695">
+        <f t="shared" si="72"/>
+        <v>79.539949095420425</v>
+      </c>
+    </row>
+    <row r="696" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A696" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B696">
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="C696">
+        <v>0.67799997329711914</v>
+      </c>
+      <c r="D696">
+        <v>0.6679999828338623</v>
+      </c>
+      <c r="E696">
+        <v>0.67599999904632568</v>
+      </c>
+      <c r="F696">
+        <v>10373100</v>
+      </c>
+      <c r="G696">
+        <v>103731</v>
+      </c>
+      <c r="H696">
+        <f t="shared" si="80"/>
+        <v>694</v>
+      </c>
+      <c r="I696">
+        <f>SUM($F$3:F696)/H696</f>
+        <v>4528897.0680385446</v>
+      </c>
+      <c r="N696">
+        <f t="shared" si="91"/>
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="O696">
+        <f t="shared" si="92"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="P696">
+        <f t="shared" si="79"/>
+        <v>0.67399998505910241</v>
+      </c>
+      <c r="Q696">
+        <f t="shared" si="68"/>
+        <v>0.65395238002141309</v>
+      </c>
+      <c r="R696">
+        <f t="shared" si="69"/>
+        <v>2.004760503768932E-2</v>
+      </c>
+      <c r="S696">
+        <f t="shared" si="70"/>
+        <v>1.4374148278009322E-2</v>
+      </c>
+      <c r="T696">
+        <f t="shared" si="71"/>
+        <v>2.1561222417013982E-4</v>
+      </c>
+      <c r="U696">
+        <f t="shared" si="72"/>
+        <v>92.979909255375688</v>
+      </c>
+    </row>
+    <row r="697" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A697" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B697">
+        <v>0.67199999094009399</v>
+      </c>
+      <c r="C697">
+        <v>0.67599999904632568</v>
+      </c>
+      <c r="D697">
+        <v>0.66699999570846558</v>
+      </c>
+      <c r="E697">
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="F697">
+        <v>10443000</v>
+      </c>
+      <c r="G697">
+        <v>104430</v>
+      </c>
+      <c r="H697">
+        <f t="shared" si="80"/>
+        <v>695</v>
+      </c>
+      <c r="I697">
+        <f>SUM($F$3:F697)/H697</f>
+        <v>4537406.5686600721</v>
+      </c>
+      <c r="N697">
+        <f t="shared" si="91"/>
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="O697">
+        <f t="shared" si="92"/>
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="P697">
+        <f t="shared" si="79"/>
+        <v>0.67100000381469727</v>
+      </c>
+      <c r="Q697">
+        <f t="shared" si="68"/>
+        <v>0.65576190465972528</v>
+      </c>
+      <c r="R697">
+        <f t="shared" si="69"/>
+        <v>1.5238099154971985E-2</v>
+      </c>
+      <c r="S697">
+        <f t="shared" si="70"/>
+        <v>1.4999998467309142E-2</v>
+      </c>
+      <c r="T697">
+        <f t="shared" si="71"/>
+        <v>2.2499997700963713E-4</v>
+      </c>
+      <c r="U697">
+        <f t="shared" si="72"/>
+        <v>67.724892053297012</v>
+      </c>
+    </row>
+    <row r="698" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A698" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B698">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C698">
+        <v>0.67100000381469727</v>
+      </c>
+      <c r="D698">
+        <v>0.66200000047683716</v>
+      </c>
+      <c r="E698">
+        <v>0.66600000858306885</v>
+      </c>
+      <c r="F698">
+        <v>9810500</v>
+      </c>
+      <c r="G698">
+        <v>98105</v>
+      </c>
+      <c r="H698">
+        <f t="shared" si="80"/>
+        <v>696</v>
+      </c>
+      <c r="I698">
+        <f>SUM($F$3:F698)/H698</f>
+        <v>4544982.8523257906</v>
+      </c>
+      <c r="N698">
+        <f t="shared" si="91"/>
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="O698">
+        <f t="shared" si="92"/>
+        <v>0.66200000047683716</v>
+      </c>
+      <c r="P698">
+        <f t="shared" si="79"/>
+        <v>0.66633333762486779</v>
+      </c>
+      <c r="Q698">
+        <f t="shared" si="68"/>
+        <v>0.65692857191676179</v>
+      </c>
+      <c r="R698">
+        <f t="shared" si="69"/>
+        <v>9.4047657081059999E-3</v>
+      </c>
+      <c r="S698">
+        <f t="shared" si="70"/>
+        <v>1.5176869168573517E-2</v>
+      </c>
+      <c r="T698">
+        <f t="shared" si="71"/>
+        <v>2.2765303752860275E-4</v>
+      </c>
+      <c r="U698">
+        <f t="shared" si="72"/>
+        <v>41.311839324456045</v>
+      </c>
+    </row>
+    <row r="699" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A699" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B699">
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="C699">
+        <v>0.67199999094009399</v>
+      </c>
+      <c r="D699">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="E699">
+        <v>0.66500002145767212</v>
+      </c>
+      <c r="F699">
+        <v>12997100</v>
+      </c>
+      <c r="G699">
+        <v>129971</v>
+      </c>
+      <c r="H699">
+        <f t="shared" si="80"/>
+        <v>697</v>
+      </c>
+      <c r="I699">
+        <f>SUM($F$3:F699)/H699</f>
+        <v>4557109.2757801292</v>
+      </c>
+      <c r="N699">
+        <f t="shared" si="91"/>
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="O699">
+        <f t="shared" si="92"/>
+        <v>0.66200000047683716</v>
+      </c>
+      <c r="P699">
+        <f t="shared" si="79"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q699">
+        <f t="shared" si="68"/>
+        <v>0.65873809655507398</v>
+      </c>
+      <c r="R699">
+        <f t="shared" si="69"/>
+        <v>7.9285701115926477E-3</v>
+      </c>
+      <c r="S699">
+        <f t="shared" si="70"/>
+        <v>1.4241493883587095E-2</v>
+      </c>
+      <c r="T699">
+        <f t="shared" si="71"/>
+        <v>2.1362240825380642E-4</v>
+      </c>
+      <c r="U699">
+        <f t="shared" si="72"/>
+        <v>37.114880299320717</v>
+      </c>
+    </row>
+    <row r="700" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A700" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B700">
+        <v>0.66600000858306885</v>
+      </c>
+      <c r="C700">
+        <v>0.66699999570846558</v>
+      </c>
+      <c r="D700">
+        <v>0.66100001335144043</v>
+      </c>
+      <c r="E700">
+        <v>0.66200000047683716</v>
+      </c>
+      <c r="F700">
+        <v>6398400</v>
+      </c>
+      <c r="G700">
+        <v>63984</v>
+      </c>
+      <c r="H700">
+        <f t="shared" si="80"/>
+        <v>698</v>
+      </c>
+      <c r="I700">
+        <f>SUM($F$3:F700)/H700</f>
+        <v>4559747.228107092</v>
+      </c>
+      <c r="N700">
+        <f t="shared" si="91"/>
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="O700">
+        <f t="shared" si="92"/>
+        <v>0.66100001335144043</v>
+      </c>
+      <c r="P700">
+        <f t="shared" si="79"/>
+        <v>0.66333333651224768</v>
+      </c>
+      <c r="Q700">
+        <f t="shared" si="68"/>
+        <v>0.6604523814859844</v>
+      </c>
+      <c r="R700">
+        <f t="shared" si="69"/>
+        <v>2.8809550262632877E-3</v>
+      </c>
+      <c r="S700">
+        <f t="shared" si="70"/>
+        <v>1.2448978261882777E-2</v>
+      </c>
+      <c r="T700">
+        <f t="shared" si="71"/>
+        <v>1.8673467392824164E-4</v>
+      </c>
+      <c r="U700">
+        <f t="shared" si="72"/>
+        <v>15.428066816184232</v>
+      </c>
+    </row>
+    <row r="701" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A701" s="1">
+        <v>45428</v>
+      </c>
+      <c r="B701">
+        <v>0.65799999237060547</v>
+      </c>
+      <c r="C701">
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="D701">
+        <v>0.65799999237060547</v>
+      </c>
+      <c r="E701">
+        <v>0.66399997472763062</v>
+      </c>
+      <c r="F701">
+        <v>9605490</v>
+      </c>
+      <c r="G701">
+        <v>96054.8984375</v>
+      </c>
+      <c r="H701">
+        <f t="shared" si="80"/>
+        <v>699</v>
+      </c>
+      <c r="I701">
+        <f>SUM($F$3:F701)/H701</f>
+        <v>4566965.7442328325</v>
+      </c>
+      <c r="N701">
+        <f t="shared" si="91"/>
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="O701">
+        <f t="shared" si="92"/>
+        <v>0.65799999237060547</v>
+      </c>
+      <c r="P701">
+        <f t="shared" si="79"/>
+        <v>0.66366666555404663</v>
+      </c>
+      <c r="Q701">
+        <f t="shared" si="68"/>
+        <v>0.66250000113532648</v>
+      </c>
+      <c r="R701">
+        <f t="shared" si="69"/>
+        <v>1.1666644187201536E-3</v>
+      </c>
+      <c r="S701">
+        <f t="shared" si="70"/>
+        <v>9.6904736797826362E-3</v>
+      </c>
+      <c r="T701">
+        <f t="shared" si="71"/>
+        <v>1.4535710519673954E-4</v>
+      </c>
+      <c r="U701">
+        <f t="shared" si="72"/>
+        <v>8.0261946407166249</v>
+      </c>
+    </row>
+    <row r="702" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A702" s="1">
+        <v>45429</v>
+      </c>
+      <c r="B702">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C702">
+        <v>0.66600000858306885</v>
+      </c>
+      <c r="D702">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="E702">
+        <v>0.66600000858306885</v>
+      </c>
+      <c r="F702">
+        <v>6779702.5</v>
+      </c>
+      <c r="G702">
+        <v>67797.0234375</v>
+      </c>
+      <c r="H702">
+        <f t="shared" si="80"/>
+        <v>700</v>
+      </c>
+      <c r="I702">
+        <f>SUM($F$3:F702)/H702</f>
+        <v>4570126.7967410712</v>
+      </c>
+      <c r="N702">
+        <f t="shared" si="91"/>
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="O702">
+        <f t="shared" si="92"/>
+        <v>0.65799999237060547</v>
+      </c>
+      <c r="P702">
+        <f t="shared" si="79"/>
+        <v>0.66366666555404663</v>
+      </c>
+      <c r="Q702">
+        <f t="shared" si="68"/>
+        <v>0.66459523921921149</v>
+      </c>
+      <c r="R702">
+        <f t="shared" si="69"/>
+        <v>-9.2857366516485573E-4</v>
+      </c>
+      <c r="S702">
+        <f t="shared" si="70"/>
+        <v>6.7959168330341702E-3</v>
+      </c>
+      <c r="T702">
+        <f t="shared" si="71"/>
+        <v>1.0193875249551256E-4</v>
+      </c>
+      <c r="U702">
+        <f t="shared" si="72"/>
+        <v>-9.1091331062319263</v>
+      </c>
+    </row>
+    <row r="703" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A703" s="1">
+        <v>45432</v>
+      </c>
+      <c r="B703">
+        <v>0.6679999828338623</v>
+      </c>
+      <c r="C703">
+        <v>0.67100000381469727</v>
+      </c>
+      <c r="D703">
+        <v>0.66500002145767212</v>
+      </c>
+      <c r="E703">
+        <v>0.6679999828338623</v>
+      </c>
+      <c r="F703">
+        <v>8507600</v>
+      </c>
+      <c r="G703">
+        <v>85076</v>
+      </c>
+      <c r="H703">
+        <f t="shared" si="80"/>
+        <v>701</v>
+      </c>
+      <c r="I703">
+        <f>SUM($F$3:F703)/H703</f>
+        <v>4575743.7342635524</v>
+      </c>
+      <c r="N703">
+        <f t="shared" si="91"/>
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="O703">
+        <f t="shared" si="92"/>
+        <v>0.65799999237060547</v>
+      </c>
+      <c r="P703">
+        <f t="shared" si="79"/>
+        <v>0.66800000270207727</v>
+      </c>
+      <c r="Q703">
+        <f t="shared" si="68"/>
+        <v>0.6668095233894531</v>
+      </c>
+      <c r="R703">
+        <f t="shared" si="69"/>
+        <v>1.1904793126241708E-3</v>
+      </c>
+      <c r="S703">
+        <f t="shared" si="70"/>
+        <v>4.6870757122429241E-3</v>
+      </c>
+      <c r="T703">
+        <f t="shared" si="71"/>
+        <v>7.0306135683643859E-5</v>
+      </c>
+      <c r="U703">
+        <f t="shared" si="72"/>
+        <v>16.932794002232811</v>
+      </c>
+    </row>
+    <row r="704" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A704" s="1">
+        <v>45433</v>
+      </c>
+      <c r="B704">
+        <v>0.66699999570846558</v>
+      </c>
+      <c r="C704">
+        <v>0.66699999570846558</v>
+      </c>
+      <c r="D704">
+        <v>0.66200000047683716</v>
+      </c>
+      <c r="E704">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="F704">
+        <v>6708800</v>
+      </c>
+      <c r="G704">
+        <v>67088</v>
+      </c>
+      <c r="H704">
+        <f t="shared" si="80"/>
+        <v>702</v>
+      </c>
+      <c r="I704">
+        <f>SUM($F$3:F704)/H704</f>
+        <v>4578782.2759526353</v>
+      </c>
+      <c r="N704">
+        <f t="shared" si="91"/>
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="O704">
+        <f t="shared" si="92"/>
+        <v>0.65799999237060547</v>
+      </c>
+      <c r="P704">
+        <f t="shared" si="79"/>
+        <v>0.66399999459584558</v>
+      </c>
+      <c r="Q704">
+        <f t="shared" si="68"/>
+        <v>0.66792857079278867</v>
+      </c>
+      <c r="R704">
+        <f t="shared" si="69"/>
+        <v>-3.9285761969430899E-3</v>
+      </c>
+      <c r="S704">
+        <f t="shared" si="70"/>
+        <v>3.8129273726015983E-3</v>
+      </c>
+      <c r="T704">
+        <f t="shared" si="71"/>
+        <v>5.7193910589023969E-5</v>
+      </c>
+      <c r="U704">
+        <f t="shared" si="72"/>
+        <v>-68.688714523693008</v>
+      </c>
+    </row>
+    <row r="705" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A705" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B705">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C705">
+        <v>0.67000001668930054</v>
+      </c>
+      <c r="D705">
+        <v>0.66200000047683716</v>
+      </c>
+      <c r="E705">
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="F705">
+        <v>8331500</v>
+      </c>
+      <c r="G705">
+        <v>83315</v>
+      </c>
+      <c r="H705">
+        <f t="shared" si="80"/>
+        <v>703</v>
+      </c>
+      <c r="I705">
+        <f>SUM($F$3:F705)/H705</f>
+        <v>4584120.4234975111</v>
+      </c>
+      <c r="N705">
+        <f t="shared" si="91"/>
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="O705">
+        <f t="shared" si="92"/>
+        <v>0.65799999237060547</v>
+      </c>
+      <c r="P705">
+        <f t="shared" si="79"/>
+        <v>0.66700001557668054</v>
+      </c>
+      <c r="Q705">
+        <f t="shared" si="68"/>
+        <v>0.66814285800570539</v>
+      </c>
+      <c r="R705">
+        <f t="shared" si="69"/>
+        <v>-1.1428424290248484E-3</v>
+      </c>
+      <c r="S705">
+        <f t="shared" si="70"/>
+        <v>3.6802729781793236E-3</v>
+      </c>
+      <c r="T705">
+        <f t="shared" si="71"/>
+        <v>5.5204094672689849E-5</v>
+      </c>
+      <c r="U705">
+        <f t="shared" si="72"/>
+        <v>-20.702131532105838</v>
+      </c>
+    </row>
+    <row r="706" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A706" s="1">
+        <v>45435</v>
+      </c>
+      <c r="B706">
+        <v>0.66699999570846558</v>
+      </c>
+      <c r="C706">
+        <v>0.66699999570846558</v>
+      </c>
+      <c r="D706">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="E706">
+        <v>0.6600000262260437</v>
+      </c>
+      <c r="F706">
+        <v>4191901.25</v>
+      </c>
+      <c r="G706">
+        <v>41919.01171875</v>
+      </c>
+      <c r="H706">
+        <f t="shared" si="80"/>
+        <v>704</v>
+      </c>
+      <c r="I706">
+        <f>SUM($F$3:F706)/H706</f>
+        <v>4583563.2939897021</v>
+      </c>
+      <c r="N706">
+        <f t="shared" si="91"/>
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="O706">
+        <f t="shared" si="92"/>
+        <v>0.65799999237060547</v>
+      </c>
+      <c r="P706">
+        <f t="shared" si="79"/>
+        <v>0.66200000047683716</v>
+      </c>
+      <c r="Q706">
+        <f t="shared" si="68"/>
+        <v>0.66788095377740408</v>
+      </c>
+      <c r="R706">
+        <f t="shared" si="69"/>
+        <v>-5.8809533005669268E-3</v>
+      </c>
+      <c r="S706">
+        <f t="shared" si="70"/>
+        <v>3.8469395264476409E-3</v>
+      </c>
+      <c r="T706">
+        <f t="shared" si="71"/>
+        <v>5.7704092896714608E-5</v>
+      </c>
+      <c r="U706">
+        <f t="shared" si="72"/>
+        <v>-101.91570485465095</v>
+      </c>
+    </row>
+    <row r="707" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A707" s="1">
+        <v>45436</v>
+      </c>
+      <c r="B707">
+        <v>0.65799999237060547</v>
+      </c>
+      <c r="C707">
+        <v>0.66200000047683716</v>
+      </c>
+      <c r="D707">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="E707">
+        <v>0.65200001001358032</v>
+      </c>
+      <c r="F707">
+        <v>5598501</v>
+      </c>
+      <c r="G707">
+        <v>55985.01171875</v>
+      </c>
+      <c r="H707">
+        <f t="shared" si="80"/>
+        <v>705</v>
+      </c>
+      <c r="I707">
+        <f>SUM($F$3:F707)/H707</f>
+        <v>4585002.921941489</v>
+      </c>
+      <c r="N707">
+        <f t="shared" si="91"/>
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="O707">
+        <f t="shared" si="92"/>
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="P707">
+        <f t="shared" si="79"/>
+        <v>0.65500001112620032</v>
+      </c>
+      <c r="Q707">
+        <f t="shared" si="68"/>
+        <v>0.66633333478655132</v>
+      </c>
+      <c r="R707">
+        <f t="shared" si="69"/>
+        <v>-1.1333323660351002E-2</v>
+      </c>
+      <c r="S707">
+        <f t="shared" si="70"/>
+        <v>3.7619049857263004E-3</v>
+      </c>
+      <c r="T707">
+        <f t="shared" si="71"/>
+        <v>5.6428574785894501E-5</v>
+      </c>
+      <c r="U707">
+        <f t="shared" si="72"/>
+        <v>-200.84369848702971</v>
+      </c>
+    </row>
+    <row r="708" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A708" s="1">
+        <v>45439</v>
+      </c>
+      <c r="B708">
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="C708">
+        <v>0.65600001811981201</v>
+      </c>
+      <c r="D708">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="E708">
+        <v>0.65600001811981201</v>
+      </c>
+      <c r="F708">
+        <v>6298900</v>
+      </c>
+      <c r="G708">
+        <v>62989</v>
+      </c>
+      <c r="H708">
+        <f t="shared" si="80"/>
+        <v>706</v>
+      </c>
+      <c r="I708">
+        <f>SUM($F$3:F708)/H708</f>
+        <v>4587430.5381993623</v>
+      </c>
+      <c r="N708">
+        <f t="shared" si="91"/>
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="O708">
+        <f t="shared" si="92"/>
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="P708">
+        <f t="shared" si="79"/>
+        <v>0.65366667509078979</v>
+      </c>
+      <c r="Q708">
+        <f t="shared" si="68"/>
+        <v>0.66469047750745502</v>
+      </c>
+      <c r="R708">
+        <f t="shared" si="69"/>
+        <v>-1.1023802416665229E-2</v>
+      </c>
+      <c r="S708">
+        <f t="shared" si="70"/>
+        <v>3.9285705203101883E-3</v>
+      </c>
+      <c r="T708">
+        <f t="shared" si="71"/>
+        <v>5.8928557804652825E-5</v>
+      </c>
+      <c r="U708">
+        <f t="shared" si="72"/>
+        <v>-187.07062971418625</v>
+      </c>
+    </row>
+    <row r="709" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A709" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B709">
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="C709">
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="D709">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="E709">
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="F709">
+        <v>7606403</v>
+      </c>
+      <c r="G709">
+        <v>76064.03125</v>
+      </c>
+      <c r="H709">
+        <f t="shared" si="80"/>
+        <v>707</v>
+      </c>
+      <c r="I709">
+        <f>SUM($F$3:F709)/H709</f>
+        <v>4591700.6548355725</v>
+      </c>
+      <c r="N709">
+        <f t="shared" si="91"/>
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="O709">
+        <f t="shared" si="92"/>
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="P709">
+        <f t="shared" si="79"/>
+        <v>0.64966666698455811</v>
+      </c>
+      <c r="Q709">
+        <f t="shared" si="68"/>
+        <v>0.6634285733813331</v>
+      </c>
+      <c r="R709">
+        <f t="shared" si="69"/>
+        <v>-1.3761906396774992E-2</v>
+      </c>
+      <c r="S709">
+        <f t="shared" si="70"/>
+        <v>4.7823109594332348E-3</v>
+      </c>
+      <c r="T709">
+        <f t="shared" si="71"/>
+        <v>7.1734664391498524E-5</v>
+      </c>
+      <c r="U709">
+        <f t="shared" si="72"/>
+        <v>-191.84457770190605</v>
+      </c>
+    </row>
+    <row r="710" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A710" s="1">
+        <v>45441</v>
+      </c>
+      <c r="B710">
+        <v>0.65299999713897705</v>
+      </c>
+      <c r="C710">
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="D710">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="E710">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="F710">
+        <v>9143600</v>
+      </c>
+      <c r="G710">
+        <v>91436</v>
+      </c>
+      <c r="H710">
+        <f t="shared" si="80"/>
+        <v>708</v>
+      </c>
+      <c r="I710">
+        <f>SUM($F$3:F710)/H710</f>
+        <v>4598129.891198799</v>
+      </c>
+      <c r="N710">
+        <f t="shared" si="91"/>
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="O710">
+        <f t="shared" si="92"/>
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="P710">
+        <f t="shared" si="79"/>
+        <v>0.65099998315175378</v>
+      </c>
+      <c r="Q710">
+        <f t="shared" si="68"/>
+        <v>0.6617857161022368</v>
+      </c>
+      <c r="R710">
+        <f t="shared" si="69"/>
+        <v>-1.0785732950483018E-2</v>
+      </c>
+      <c r="S710">
+        <f t="shared" si="70"/>
+        <v>5.4013611508064562E-3</v>
+      </c>
+      <c r="T710">
+        <f t="shared" si="71"/>
+        <v>8.1020417262096843E-5</v>
+      </c>
+      <c r="U710">
+        <f t="shared" si="72"/>
+        <v>-133.12364111371744</v>
+      </c>
+    </row>
+    <row r="711" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A711" s="1">
+        <v>45442</v>
+      </c>
+      <c r="B711">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="C711">
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="D711">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="E711">
+        <v>0.65200001001358032</v>
+      </c>
+      <c r="F711">
+        <v>8721807</v>
+      </c>
+      <c r="G711">
+        <v>87218.0703125</v>
+      </c>
+      <c r="H711">
+        <f t="shared" si="80"/>
+        <v>709</v>
+      </c>
+      <c r="I711">
+        <f>SUM($F$3:F711)/H711</f>
+        <v>4603946.0789404092</v>
+      </c>
+      <c r="N711">
+        <f t="shared" si="91"/>
+        <v>0.68300002813339233</v>
+      </c>
+      <c r="O711">
+        <f t="shared" si="92"/>
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="P711">
+        <f t="shared" si="79"/>
+        <v>0.65166666110356652</v>
+      </c>
+      <c r="Q711">
+        <f t="shared" si="68"/>
+        <v>0.66040476305144169</v>
+      </c>
+      <c r="R711">
+        <f t="shared" si="69"/>
+        <v>-8.7381019478751654E-3</v>
+      </c>
+      <c r="S711">
+        <f t="shared" si="70"/>
+        <v>5.8605454000486158E-3</v>
+      </c>
+      <c r="T711">
+        <f t="shared" si="71"/>
+        <v>8.7908181000729229E-5</v>
+      </c>
+      <c r="U711">
+        <f t="shared" si="72"/>
+        <v>-99.400327118618009</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U711"/>
+  <dimension ref="A1:U712"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A693" workbookViewId="0">
-      <selection activeCell="A712" sqref="A712"/>
+    <sheetView tabSelected="1" topLeftCell="A700" workbookViewId="0">
+      <selection activeCell="A713" sqref="A713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2690,7 +2690,7 @@
         <v>-14.515903040493045</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44424</v>
       </c>
@@ -2720,6 +2720,12 @@
         <f>SUM($F$3:F38)/H38</f>
         <v>26435792.666666668</v>
       </c>
+      <c r="K38" s="2">
+        <v>45471</v>
+      </c>
+      <c r="L38" s="2">
+        <v>45446</v>
+      </c>
       <c r="N38">
         <f t="shared" si="9"/>
         <v>1.0469999999999999</v>
@@ -33540,23 +33546,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q711" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q712" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R711" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R712" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S711" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S712" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T711" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T712" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U711" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U712" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -36686,7 +36692,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P711" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P712" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36796,7 +36802,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H711" si="80">H578+1</f>
+        <f t="shared" ref="H579:H712" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -43986,11 +43992,11 @@
         <v>4510844.3780300291</v>
       </c>
       <c r="N693">
-        <f t="shared" ref="N693:N711" si="91">IF(A693&lt;&gt;$K$37,MAX(N692,VLOOKUP(A693,A:C,3)),)</f>
+        <f t="shared" ref="N693:N712" si="91">IF(A693&lt;&gt;$K$37,MAX(N692,VLOOKUP(A693,A:C,3)),)</f>
         <v>0.68000000715255737</v>
       </c>
       <c r="O693">
-        <f t="shared" ref="O693:O711" si="92">IF(A693&lt;&gt;$K$37,MIN(O692,VLOOKUP(A693,A:D,4)),)</f>
+        <f t="shared" ref="O693:O712" si="92">IF(A693&lt;&gt;$K$37,MIN(O692,VLOOKUP(A693,A:D,4)),)</f>
         <v>0.67000001668930054</v>
       </c>
       <c r="P693">
@@ -45150,6 +45156,69 @@
       <c r="U711">
         <f t="shared" si="72"/>
         <v>-99.400327118618009</v>
+      </c>
+    </row>
+    <row r="712" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A712" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B712">
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="C712">
+        <v>0.65700000524520874</v>
+      </c>
+      <c r="D712">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="E712">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="F712">
+        <v>6567000</v>
+      </c>
+      <c r="G712">
+        <v>65670</v>
+      </c>
+      <c r="H712">
+        <f t="shared" si="80"/>
+        <v>710</v>
+      </c>
+      <c r="I712">
+        <f>SUM($F$3:F712)/H712</f>
+        <v>4606710.9436179576</v>
+      </c>
+      <c r="N712">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="O712">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="P712">
+        <f t="shared" si="79"/>
+        <v>0.65233331918716431</v>
+      </c>
+      <c r="Q712">
+        <f t="shared" si="68"/>
+        <v>0.65940476173446283</v>
+      </c>
+      <c r="R712">
+        <f t="shared" si="69"/>
+        <v>-7.0714425472985232E-3</v>
+      </c>
+      <c r="S712">
+        <f t="shared" si="70"/>
+        <v>6.1564648232492591E-3</v>
+      </c>
+      <c r="T712">
+        <f t="shared" si="71"/>
+        <v>9.2346972348738879E-5</v>
+      </c>
+      <c r="U712">
+        <f t="shared" si="72"/>
+        <v>-76.574709137121957</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U712"/>
+  <dimension ref="A1:U730"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A700" workbookViewId="0">
-      <selection activeCell="A713" sqref="A713"/>
+    <sheetView tabSelected="1" topLeftCell="A713" workbookViewId="0">
+      <selection activeCell="A731" sqref="A731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33546,23 +33546,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q712" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q730" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R712" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R730" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S712" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S730" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T712" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T730" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U712" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U730" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -36692,7 +36692,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P712" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P730" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36802,7 +36802,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H712" si="80">H578+1</f>
+        <f t="shared" ref="H579:H730" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -43992,11 +43992,11 @@
         <v>4510844.3780300291</v>
       </c>
       <c r="N693">
-        <f t="shared" ref="N693:N712" si="91">IF(A693&lt;&gt;$K$37,MAX(N692,VLOOKUP(A693,A:C,3)),)</f>
+        <f t="shared" ref="N693:N711" si="91">IF(A693&lt;&gt;$K$37,MAX(N692,VLOOKUP(A693,A:C,3)),)</f>
         <v>0.68000000715255737</v>
       </c>
       <c r="O693">
-        <f t="shared" ref="O693:O712" si="92">IF(A693&lt;&gt;$K$37,MIN(O692,VLOOKUP(A693,A:D,4)),)</f>
+        <f t="shared" ref="O693:O711" si="92">IF(A693&lt;&gt;$K$37,MIN(O692,VLOOKUP(A693,A:D,4)),)</f>
         <v>0.67000001668930054</v>
       </c>
       <c r="P693">
@@ -45189,12 +45189,12 @@
         <v>4606710.9436179576</v>
       </c>
       <c r="N712">
-        <f t="shared" si="91"/>
-        <v>0</v>
+        <f>VLOOKUP(L38,A:C,3)</f>
+        <v>0.65700000524520874</v>
       </c>
       <c r="O712">
-        <f t="shared" si="92"/>
-        <v>0</v>
+        <f>VLOOKUP(L38,A:D,4)</f>
+        <v>0.64600002765655518</v>
       </c>
       <c r="P712">
         <f t="shared" si="79"/>
@@ -45219,6 +45219,1140 @@
       <c r="U712">
         <f t="shared" si="72"/>
         <v>-76.574709137121957</v>
+      </c>
+    </row>
+    <row r="713" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A713" s="1">
+        <v>45446</v>
+      </c>
+      <c r="B713">
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="C713">
+        <v>0.65700000524520874</v>
+      </c>
+      <c r="D713">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="E713">
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="F713">
+        <v>8643300</v>
+      </c>
+      <c r="G713">
+        <v>86433</v>
+      </c>
+      <c r="H713">
+        <f t="shared" si="80"/>
+        <v>711</v>
+      </c>
+      <c r="I713">
+        <f>SUM($F$3:F713)/H713</f>
+        <v>4612388.2840629397</v>
+      </c>
+      <c r="N713">
+        <f t="shared" ref="N713:N730" si="93">IF(A713&lt;&gt;$K$38,MAX(N712,VLOOKUP(A713,A:C,3)),)</f>
+        <v>0.65700000524520874</v>
+      </c>
+      <c r="O713">
+        <f t="shared" ref="O713:O730" si="94">IF(A713&lt;&gt;$K$38,MIN(O712,VLOOKUP(A713,A:D,4)),)</f>
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="P713">
+        <f t="shared" si="79"/>
+        <v>0.65233333905537927</v>
+      </c>
+      <c r="Q713">
+        <f t="shared" si="68"/>
+        <v>0.65838095261937102</v>
+      </c>
+      <c r="R713">
+        <f t="shared" si="69"/>
+        <v>-6.0476135639917494E-3</v>
+      </c>
+      <c r="S713">
+        <f t="shared" si="70"/>
+        <v>6.142858948026385E-3</v>
+      </c>
+      <c r="T713">
+        <f t="shared" si="71"/>
+        <v>9.2142884220395768E-5</v>
+      </c>
+      <c r="U713">
+        <f t="shared" si="72"/>
+        <v>-65.632996135941596</v>
+      </c>
+    </row>
+    <row r="714" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A714" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B714">
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="C714">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="D714">
+        <v>0.65200001001358032</v>
+      </c>
+      <c r="E714">
+        <v>0.66200000047683716</v>
+      </c>
+      <c r="F714">
+        <v>10209700</v>
+      </c>
+      <c r="G714">
+        <v>102097</v>
+      </c>
+      <c r="H714">
+        <f t="shared" si="80"/>
+        <v>712</v>
+      </c>
+      <c r="I714">
+        <f>SUM($F$3:F714)/H714</f>
+        <v>4620249.6769224014</v>
+      </c>
+      <c r="N714">
+        <f t="shared" si="93"/>
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="O714">
+        <f t="shared" si="94"/>
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="P714">
+        <f t="shared" si="79"/>
+        <v>0.65899999936421716</v>
+      </c>
+      <c r="Q714">
+        <f t="shared" si="68"/>
+        <v>0.65807142853736877</v>
+      </c>
+      <c r="R714">
+        <f t="shared" si="69"/>
+        <v>9.2857082684838499E-4</v>
+      </c>
+      <c r="S714">
+        <f t="shared" si="70"/>
+        <v>5.8333348660242045E-3</v>
+      </c>
+      <c r="T714">
+        <f t="shared" si="71"/>
+        <v>8.7500022990363071E-5</v>
+      </c>
+      <c r="U714">
+        <f t="shared" si="72"/>
+        <v>10.61223523279136</v>
+      </c>
+    </row>
+    <row r="715" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A715" s="1">
+        <v>45448</v>
+      </c>
+      <c r="B715">
+        <v>0.66100001335144043</v>
+      </c>
+      <c r="C715">
+        <v>0.66699999570846558</v>
+      </c>
+      <c r="D715">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="E715">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="F715">
+        <v>7692509.5</v>
+      </c>
+      <c r="G715">
+        <v>76925.09375</v>
+      </c>
+      <c r="H715">
+        <f t="shared" si="80"/>
+        <v>713</v>
+      </c>
+      <c r="I715">
+        <f>SUM($F$3:F715)/H715</f>
+        <v>4624558.5967303645</v>
+      </c>
+      <c r="N715">
+        <f t="shared" si="93"/>
+        <v>0.66699999570846558</v>
+      </c>
+      <c r="O715">
+        <f t="shared" si="94"/>
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="P715">
+        <f t="shared" si="79"/>
+        <v>0.66166665156682336</v>
+      </c>
+      <c r="Q715">
+        <f t="shared" si="68"/>
+        <v>0.65792857039542429</v>
+      </c>
+      <c r="R715">
+        <f t="shared" si="69"/>
+        <v>3.7380811713990658E-3</v>
+      </c>
+      <c r="S715">
+        <f t="shared" si="70"/>
+        <v>5.690476724079685E-3</v>
+      </c>
+      <c r="T715">
+        <f t="shared" si="71"/>
+        <v>8.535715086119527E-5</v>
+      </c>
+      <c r="U715">
+        <f t="shared" si="72"/>
+        <v>43.793415474677673</v>
+      </c>
+    </row>
+    <row r="716" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A716" s="1">
+        <v>45449</v>
+      </c>
+      <c r="B716">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="C716">
+        <v>0.66600000858306885</v>
+      </c>
+      <c r="D716">
+        <v>0.65799999237060547</v>
+      </c>
+      <c r="E716">
+        <v>0.65799999237060547</v>
+      </c>
+      <c r="F716">
+        <v>5600600</v>
+      </c>
+      <c r="G716">
+        <v>56006</v>
+      </c>
+      <c r="H716">
+        <f t="shared" si="80"/>
+        <v>714</v>
+      </c>
+      <c r="I716">
+        <f>SUM($F$3:F716)/H716</f>
+        <v>4625925.6014968483</v>
+      </c>
+      <c r="N716">
+        <f t="shared" si="93"/>
+        <v>0.66699999570846558</v>
+      </c>
+      <c r="O716">
+        <f t="shared" si="94"/>
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="P716">
+        <f t="shared" si="79"/>
+        <v>0.66066666444142663</v>
+      </c>
+      <c r="Q716">
+        <f t="shared" si="68"/>
+        <v>0.65771428460166559</v>
+      </c>
+      <c r="R716">
+        <f t="shared" si="69"/>
+        <v>2.9523798397610435E-3</v>
+      </c>
+      <c r="S716">
+        <f t="shared" si="70"/>
+        <v>5.4761909303211133E-3</v>
+      </c>
+      <c r="T716">
+        <f t="shared" si="71"/>
+        <v>8.2142863954816692E-5</v>
+      </c>
+      <c r="U716">
+        <f t="shared" si="72"/>
+        <v>35.942012459962712</v>
+      </c>
+    </row>
+    <row r="717" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A717" s="1">
+        <v>45450</v>
+      </c>
+      <c r="B717">
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="C717">
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="D717">
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="E717">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="F717">
+        <v>6978200</v>
+      </c>
+      <c r="G717">
+        <v>69782</v>
+      </c>
+      <c r="H717">
+        <f t="shared" si="80"/>
+        <v>715</v>
+      </c>
+      <c r="I717">
+        <f>SUM($F$3:F717)/H717</f>
+        <v>4629215.4957604893</v>
+      </c>
+      <c r="N717">
+        <f t="shared" si="93"/>
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="O717">
+        <f t="shared" si="94"/>
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="P717">
+        <f t="shared" si="79"/>
+        <v>0.65366667509078979</v>
+      </c>
+      <c r="Q717">
+        <f t="shared" si="68"/>
+        <v>0.65669047548657367</v>
+      </c>
+      <c r="R717">
+        <f t="shared" si="69"/>
+        <v>-3.0238003957838711E-3</v>
+      </c>
+      <c r="S717">
+        <f t="shared" si="70"/>
+        <v>4.8843533003411332E-3</v>
+      </c>
+      <c r="T717">
+        <f t="shared" si="71"/>
+        <v>7.3265299505116994E-5</v>
+      </c>
+      <c r="U717">
+        <f t="shared" si="72"/>
+        <v>-41.271931135321203</v>
+      </c>
+    </row>
+    <row r="718" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A718" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B718">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C718">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="D718">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="E718">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="F718">
+        <v>7925500</v>
+      </c>
+      <c r="G718">
+        <v>79255</v>
+      </c>
+      <c r="H718">
+        <f t="shared" si="80"/>
+        <v>716</v>
+      </c>
+      <c r="I718">
+        <f>SUM($F$3:F718)/H718</f>
+        <v>4633819.2450680863</v>
+      </c>
+      <c r="N718">
+        <f t="shared" si="93"/>
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="O718">
+        <f t="shared" si="94"/>
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="P718">
+        <f t="shared" si="79"/>
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="Q718">
+        <f t="shared" si="68"/>
+        <v>0.6555476188659668</v>
+      </c>
+      <c r="R718">
+        <f t="shared" si="69"/>
+        <v>-7.5476169586181641E-3</v>
+      </c>
+      <c r="S718">
+        <f t="shared" si="70"/>
+        <v>4.6564624423072508E-3</v>
+      </c>
+      <c r="T718">
+        <f t="shared" si="71"/>
+        <v>6.9846936634608762E-5</v>
+      </c>
+      <c r="U718">
+        <f t="shared" si="72"/>
+        <v>-108.05938416601026</v>
+      </c>
+    </row>
+    <row r="719" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A719" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B719">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="C719">
+        <v>0.65299999713897705</v>
+      </c>
+      <c r="D719">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="E719">
+        <v>0.64999997615814209</v>
+      </c>
+      <c r="F719">
+        <v>7330306</v>
+      </c>
+      <c r="G719">
+        <v>73303.0625</v>
+      </c>
+      <c r="H719">
+        <f t="shared" si="80"/>
+        <v>717</v>
+      </c>
+      <c r="I719">
+        <f>SUM($F$3:F719)/H719</f>
+        <v>4637580.0355212688</v>
+      </c>
+      <c r="N719">
+        <f t="shared" si="93"/>
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="O719">
+        <f t="shared" si="94"/>
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="P719">
+        <f t="shared" si="79"/>
+        <v>0.65066665410995483</v>
+      </c>
+      <c r="Q719">
+        <f t="shared" si="68"/>
+        <v>0.65438095018977205</v>
+      </c>
+      <c r="R719">
+        <f t="shared" si="69"/>
+        <v>-3.7142960798172142E-3</v>
+      </c>
+      <c r="S719">
+        <f t="shared" si="70"/>
+        <v>3.7755108609491272E-3</v>
+      </c>
+      <c r="T719">
+        <f t="shared" si="71"/>
+        <v>5.6632662914236907E-5</v>
+      </c>
+      <c r="U719">
+        <f t="shared" si="72"/>
+        <v>-65.585757205908749</v>
+      </c>
+    </row>
+    <row r="720" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A720" s="1">
+        <v>45456</v>
+      </c>
+      <c r="B720">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="C720">
+        <v>0.65600001811981201</v>
+      </c>
+      <c r="D720">
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="E720">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="F720">
+        <v>6396090</v>
+      </c>
+      <c r="G720">
+        <v>63960.8984375</v>
+      </c>
+      <c r="H720">
+        <f t="shared" si="80"/>
+        <v>718</v>
+      </c>
+      <c r="I720">
+        <f>SUM($F$3:F720)/H720</f>
+        <v>4640029.2137447773</v>
+      </c>
+      <c r="N720">
+        <f t="shared" si="93"/>
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="O720">
+        <f t="shared" si="94"/>
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="P720">
+        <f t="shared" si="79"/>
+        <v>0.65100000301996863</v>
+      </c>
+      <c r="Q720">
+        <f t="shared" si="68"/>
+        <v>0.65359523608571002</v>
+      </c>
+      <c r="R720">
+        <f t="shared" si="69"/>
+        <v>-2.5952330657413869E-3</v>
+      </c>
+      <c r="S720">
+        <f t="shared" si="70"/>
+        <v>3.1564657379980726E-3</v>
+      </c>
+      <c r="T720">
+        <f t="shared" si="71"/>
+        <v>4.7346986069971089E-5</v>
+      </c>
+      <c r="U720">
+        <f t="shared" si="72"/>
+        <v>-54.813057412061191</v>
+      </c>
+    </row>
+    <row r="721" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A721" s="1">
+        <v>45457</v>
+      </c>
+      <c r="B721">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="C721">
+        <v>0.65600001811981201</v>
+      </c>
+      <c r="D721">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="E721">
+        <v>0.65600001811981201</v>
+      </c>
+      <c r="F721">
+        <v>9069805</v>
+      </c>
+      <c r="G721">
+        <v>90698.046875</v>
+      </c>
+      <c r="H721">
+        <f t="shared" si="80"/>
+        <v>719</v>
+      </c>
+      <c r="I721">
+        <f>SUM($F$3:F721)/H721</f>
+        <v>4646190.2370914463</v>
+      </c>
+      <c r="N721">
+        <f t="shared" si="93"/>
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="O721">
+        <f t="shared" si="94"/>
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="P721">
+        <f t="shared" si="79"/>
+        <v>0.65233333905537927</v>
+      </c>
+      <c r="Q721">
+        <f t="shared" si="68"/>
+        <v>0.65340475950922283</v>
+      </c>
+      <c r="R721">
+        <f t="shared" si="69"/>
+        <v>-1.0714204538435634E-3</v>
+      </c>
+      <c r="S721">
+        <f t="shared" si="70"/>
+        <v>3.0918382868474798E-3</v>
+      </c>
+      <c r="T721">
+        <f t="shared" si="71"/>
+        <v>4.6377574302712198E-5</v>
+      </c>
+      <c r="U721">
+        <f t="shared" si="72"/>
+        <v>-23.102123600735752</v>
+      </c>
+    </row>
+    <row r="722" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A722" s="1">
+        <v>45460</v>
+      </c>
+      <c r="B722">
+        <v>0.65200001001358032</v>
+      </c>
+      <c r="C722">
+        <v>0.6600000262260437</v>
+      </c>
+      <c r="D722">
+        <v>0.65200001001358032</v>
+      </c>
+      <c r="E722">
+        <v>0.65799999237060547</v>
+      </c>
+      <c r="F722">
+        <v>7950501</v>
+      </c>
+      <c r="G722">
+        <v>79505.0078125</v>
+      </c>
+      <c r="H722">
+        <f t="shared" si="80"/>
+        <v>720</v>
+      </c>
+      <c r="I722">
+        <f>SUM($F$3:F722)/H722</f>
+        <v>4650779.5575954858</v>
+      </c>
+      <c r="N722">
+        <f t="shared" si="93"/>
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="O722">
+        <f t="shared" si="94"/>
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="P722">
+        <f t="shared" si="79"/>
+        <v>0.65666667620340979</v>
+      </c>
+      <c r="Q722">
+        <f t="shared" si="68"/>
+        <v>0.65361904530298143</v>
+      </c>
+      <c r="R722">
+        <f t="shared" si="69"/>
+        <v>3.0476309004283664E-3</v>
+      </c>
+      <c r="S722">
+        <f t="shared" si="70"/>
+        <v>3.3673485931085068E-3</v>
+      </c>
+      <c r="T722">
+        <f t="shared" si="71"/>
+        <v>5.05102288966276E-5</v>
+      </c>
+      <c r="U722">
+        <f t="shared" si="72"/>
+        <v>60.336905355656519</v>
+      </c>
+    </row>
+    <row r="723" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A723" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B723">
+        <v>0.6600000262260437</v>
+      </c>
+      <c r="C723">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="D723">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="E723">
+        <v>0.66100001335144043</v>
+      </c>
+      <c r="F723">
+        <v>9485400</v>
+      </c>
+      <c r="G723">
+        <v>94854</v>
+      </c>
+      <c r="H723">
+        <f t="shared" si="80"/>
+        <v>721</v>
+      </c>
+      <c r="I723">
+        <f>SUM($F$3:F723)/H723</f>
+        <v>4657484.9951022882</v>
+      </c>
+      <c r="N723">
+        <f t="shared" si="93"/>
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="O723">
+        <f t="shared" si="94"/>
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="P723">
+        <f t="shared" si="79"/>
+        <v>0.66099999348322547</v>
+      </c>
+      <c r="Q723">
+        <f t="shared" si="68"/>
+        <v>0.65442856862431475</v>
+      </c>
+      <c r="R723">
+        <f t="shared" si="69"/>
+        <v>6.5714248589107127E-3</v>
+      </c>
+      <c r="S723">
+        <f t="shared" si="70"/>
+        <v>3.8367345625040278E-3</v>
+      </c>
+      <c r="T723">
+        <f t="shared" si="71"/>
+        <v>5.7551018437560416E-5</v>
+      </c>
+      <c r="U723">
+        <f t="shared" si="72"/>
+        <v>114.18433656461414</v>
+      </c>
+    </row>
+    <row r="724" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A724" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B724">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="C724">
+        <v>0.66299998760223389</v>
+      </c>
+      <c r="D724">
+        <v>0.65600001811981201</v>
+      </c>
+      <c r="E724">
+        <v>0.65700000524520874</v>
+      </c>
+      <c r="F724">
+        <v>5104400</v>
+      </c>
+      <c r="G724">
+        <v>51044</v>
+      </c>
+      <c r="H724">
+        <f t="shared" si="80"/>
+        <v>722</v>
+      </c>
+      <c r="I724">
+        <f>SUM($F$3:F724)/H724</f>
+        <v>4658103.9909539474</v>
+      </c>
+      <c r="N724">
+        <f t="shared" si="93"/>
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="O724">
+        <f t="shared" si="94"/>
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="P724">
+        <f t="shared" si="79"/>
+        <v>0.65866667032241821</v>
+      </c>
+      <c r="Q724">
+        <f t="shared" si="68"/>
+        <v>0.65497618913650524</v>
+      </c>
+      <c r="R724">
+        <f t="shared" si="69"/>
+        <v>3.6904811859129749E-3</v>
+      </c>
+      <c r="S724">
+        <f t="shared" si="70"/>
+        <v>3.9727886517842747E-3</v>
+      </c>
+      <c r="T724">
+        <f t="shared" si="71"/>
+        <v>5.9591829776764117E-5</v>
+      </c>
+      <c r="U724">
+        <f t="shared" si="72"/>
+        <v>61.929314802680501</v>
+      </c>
+    </row>
+    <row r="725" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A725" s="1">
+        <v>45463</v>
+      </c>
+      <c r="B725">
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="C725">
+        <v>0.65399998426437378</v>
+      </c>
+      <c r="D725">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="E725">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="F725">
+        <v>6829700</v>
+      </c>
+      <c r="G725">
+        <v>68297</v>
+      </c>
+      <c r="H725">
+        <f t="shared" si="80"/>
+        <v>723</v>
+      </c>
+      <c r="I725">
+        <f>SUM($F$3:F725)/H725</f>
+        <v>4661107.5815612031</v>
+      </c>
+      <c r="N725">
+        <f t="shared" si="93"/>
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="O725">
+        <f t="shared" si="94"/>
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="P725">
+        <f t="shared" si="79"/>
+        <v>0.64933333794275916</v>
+      </c>
+      <c r="Q725">
+        <f t="shared" si="68"/>
+        <v>0.65480952319644747</v>
+      </c>
+      <c r="R725">
+        <f t="shared" si="69"/>
+        <v>-5.4761852536883149E-3</v>
+      </c>
+      <c r="S725">
+        <f t="shared" si="70"/>
+        <v>4.1156451718336916E-3</v>
+      </c>
+      <c r="T725">
+        <f t="shared" si="71"/>
+        <v>6.1734677577505377E-5</v>
+      </c>
+      <c r="U725">
+        <f t="shared" si="72"/>
+        <v>-88.705172985040491</v>
+      </c>
+    </row>
+    <row r="726" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A726" s="1">
+        <v>45464</v>
+      </c>
+      <c r="B726">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="C726">
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="D726">
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="E726">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="F726">
+        <v>8226100</v>
+      </c>
+      <c r="G726">
+        <v>82261</v>
+      </c>
+      <c r="H726">
+        <f t="shared" si="80"/>
+        <v>724</v>
+      </c>
+      <c r="I726">
+        <f>SUM($F$3:F726)/H726</f>
+        <v>4666031.6042386051</v>
+      </c>
+      <c r="N726">
+        <f t="shared" si="93"/>
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="O726">
+        <f t="shared" si="94"/>
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="P726">
+        <f t="shared" si="79"/>
+        <v>0.64566667874654138</v>
+      </c>
+      <c r="Q726">
+        <f t="shared" si="68"/>
+        <v>0.65433333459354592</v>
+      </c>
+      <c r="R726">
+        <f t="shared" si="69"/>
+        <v>-8.6666558470045452E-3</v>
+      </c>
+      <c r="S726">
+        <f t="shared" si="70"/>
+        <v>4.5238068314636792E-3</v>
+      </c>
+      <c r="T726">
+        <f t="shared" si="71"/>
+        <v>6.7857102471955181E-5</v>
+      </c>
+      <c r="U726">
+        <f t="shared" si="72"/>
+        <v>-127.71921481006954</v>
+      </c>
+    </row>
+    <row r="727" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A727" s="1">
+        <v>45467</v>
+      </c>
+      <c r="B727">
+        <v>0.64399999380111694</v>
+      </c>
+      <c r="C727">
+        <v>0.6470000147819519</v>
+      </c>
+      <c r="D727">
+        <v>0.63899999856948853</v>
+      </c>
+      <c r="E727">
+        <v>0.63899999856948853</v>
+      </c>
+      <c r="F727">
+        <v>9455300</v>
+      </c>
+      <c r="G727">
+        <v>94553</v>
+      </c>
+      <c r="H727">
+        <f t="shared" si="80"/>
+        <v>725</v>
+      </c>
+      <c r="I727">
+        <f>SUM($F$3:F727)/H727</f>
+        <v>4672637.4916810347</v>
+      </c>
+      <c r="N727">
+        <f t="shared" si="93"/>
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="O727">
+        <f t="shared" si="94"/>
+        <v>0.63899999856948853</v>
+      </c>
+      <c r="P727">
+        <f t="shared" si="79"/>
+        <v>0.64166667064030969</v>
+      </c>
+      <c r="Q727">
+        <f t="shared" si="68"/>
+        <v>0.65357142970675519</v>
+      </c>
+      <c r="R727">
+        <f t="shared" si="69"/>
+        <v>-1.1904759066445503E-2</v>
+      </c>
+      <c r="S727">
+        <f t="shared" si="70"/>
+        <v>5.1904746464320594E-3</v>
+      </c>
+      <c r="T727">
+        <f t="shared" si="71"/>
+        <v>7.7857119696480887E-5</v>
+      </c>
+      <c r="U727">
+        <f t="shared" si="72"/>
+        <v>-152.90520780700797</v>
+      </c>
+    </row>
+    <row r="728" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A728" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B728">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="C728">
+        <v>0.65100002288818359</v>
+      </c>
+      <c r="D728">
+        <v>0.63200002908706665</v>
+      </c>
+      <c r="E728">
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="F728">
+        <v>7340807</v>
+      </c>
+      <c r="G728">
+        <v>73408.0703125</v>
+      </c>
+      <c r="H728">
+        <f t="shared" si="80"/>
+        <v>726</v>
+      </c>
+      <c r="I728">
+        <f>SUM($F$3:F728)/H728</f>
+        <v>4676312.6562930439</v>
+      </c>
+      <c r="N728">
+        <f t="shared" si="93"/>
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="O728">
+        <f t="shared" si="94"/>
+        <v>0.63200002908706665</v>
+      </c>
+      <c r="P728">
+        <f t="shared" si="79"/>
+        <v>0.63900001843770349</v>
+      </c>
+      <c r="Q728">
+        <f t="shared" si="68"/>
+        <v>0.65214285964057572</v>
+      </c>
+      <c r="R728">
+        <f t="shared" si="69"/>
+        <v>-1.3142841202872235E-2</v>
+      </c>
+      <c r="S728">
+        <f t="shared" si="70"/>
+        <v>5.6666646684919086E-3</v>
+      </c>
+      <c r="T728">
+        <f t="shared" si="71"/>
+        <v>8.499997002737863E-5</v>
+      </c>
+      <c r="U728">
+        <f t="shared" si="72"/>
+        <v>-154.62171573282797</v>
+      </c>
+    </row>
+    <row r="729" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A729" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B729">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="C729">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="D729">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="E729">
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="F729">
+        <v>3352000</v>
+      </c>
+      <c r="G729">
+        <v>33520</v>
+      </c>
+      <c r="H729">
+        <f t="shared" si="80"/>
+        <v>727</v>
+      </c>
+      <c r="I729">
+        <f>SUM($F$3:F729)/H729</f>
+        <v>4674491.0432857638</v>
+      </c>
+      <c r="N729">
+        <f t="shared" si="93"/>
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="O729">
+        <f t="shared" si="94"/>
+        <v>0.63200002908706665</v>
+      </c>
+      <c r="P729">
+        <f t="shared" si="79"/>
+        <v>0.63933334747950232</v>
+      </c>
+      <c r="Q729">
+        <f t="shared" si="68"/>
+        <v>0.65054762363433838</v>
+      </c>
+      <c r="R729">
+        <f t="shared" si="69"/>
+        <v>-1.1214276154836056E-2</v>
+      </c>
+      <c r="S729">
+        <f t="shared" si="70"/>
+        <v>5.7550980931236574E-3</v>
+      </c>
+      <c r="T729">
+        <f t="shared" si="71"/>
+        <v>8.632647139685486E-5</v>
+      </c>
+      <c r="U729">
+        <f t="shared" si="72"/>
+        <v>-129.90541572448225</v>
+      </c>
+    </row>
+    <row r="730" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A730" s="1">
+        <v>45470</v>
+      </c>
+      <c r="B730">
+        <v>0.63899999856948853</v>
+      </c>
+      <c r="C730">
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="D730">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="E730">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="F730">
+        <v>8155900</v>
+      </c>
+      <c r="G730">
+        <v>81559</v>
+      </c>
+      <c r="H730">
+        <f t="shared" si="80"/>
+        <v>728</v>
+      </c>
+      <c r="I730">
+        <f>SUM($F$3:F730)/H730</f>
+        <v>4679273.1984460847</v>
+      </c>
+      <c r="N730">
+        <f t="shared" si="93"/>
+        <v>0.66900002956390381</v>
+      </c>
+      <c r="O730">
+        <f t="shared" si="94"/>
+        <v>0.63200002908706665</v>
+      </c>
+      <c r="P730">
+        <f t="shared" si="79"/>
+        <v>0.63666665554046631</v>
+      </c>
+      <c r="Q730">
+        <f t="shared" si="68"/>
+        <v>0.64883333728426973</v>
+      </c>
+      <c r="R730">
+        <f t="shared" si="69"/>
+        <v>-1.216668174380342E-2</v>
+      </c>
+      <c r="S730">
+        <f t="shared" si="70"/>
+        <v>6.0952358505352777E-3</v>
+      </c>
+      <c r="T730">
+        <f t="shared" si="71"/>
+        <v>9.1428537758029166E-5</v>
+      </c>
+      <c r="U730">
+        <f t="shared" si="72"/>
+        <v>-133.07313057989876</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U730"/>
+  <dimension ref="A1:U731"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A713" workbookViewId="0">
-      <selection activeCell="A731" sqref="A731"/>
+    <sheetView tabSelected="1" topLeftCell="A719" workbookViewId="0">
+      <selection activeCell="A732" sqref="A732"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2759,7 +2759,7 @@
         <v>-85.228577992189329</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44425</v>
       </c>
@@ -2789,6 +2789,12 @@
         <f>SUM($F$3:F39)/H39</f>
         <v>25924898.162162162</v>
       </c>
+      <c r="K39" s="2">
+        <v>45504</v>
+      </c>
+      <c r="L39" s="2">
+        <v>45474</v>
+      </c>
       <c r="N39">
         <f t="shared" si="9"/>
         <v>1.0469999999999999</v>
@@ -33546,23 +33552,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q730" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q731" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R730" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R731" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S730" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S731" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T730" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T731" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U730" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U731" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -36692,7 +36698,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P730" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P731" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36802,7 +36808,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H730" si="80">H578+1</f>
+        <f t="shared" ref="H579:H731" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -45252,11 +45258,11 @@
         <v>4612388.2840629397</v>
       </c>
       <c r="N713">
-        <f t="shared" ref="N713:N730" si="93">IF(A713&lt;&gt;$K$38,MAX(N712,VLOOKUP(A713,A:C,3)),)</f>
+        <f t="shared" ref="N713:N731" si="93">IF(A713&lt;&gt;$K$38,MAX(N712,VLOOKUP(A713,A:C,3)),)</f>
         <v>0.65700000524520874</v>
       </c>
       <c r="O713">
-        <f t="shared" ref="O713:O730" si="94">IF(A713&lt;&gt;$K$38,MIN(O712,VLOOKUP(A713,A:D,4)),)</f>
+        <f t="shared" ref="O713:O731" si="94">IF(A713&lt;&gt;$K$38,MIN(O712,VLOOKUP(A713,A:D,4)),)</f>
         <v>0.64600002765655518</v>
       </c>
       <c r="P713">
@@ -46353,6 +46359,69 @@
       <c r="U730">
         <f t="shared" si="72"/>
         <v>-133.07313057989876</v>
+      </c>
+    </row>
+    <row r="731" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A731" s="1">
+        <v>45471</v>
+      </c>
+      <c r="B731">
+        <v>0.62999999523162842</v>
+      </c>
+      <c r="C731">
+        <v>0.64399999380111694</v>
+      </c>
+      <c r="D731">
+        <v>0.62999999523162842</v>
+      </c>
+      <c r="E731">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="F731">
+        <v>8456200</v>
+      </c>
+      <c r="G731">
+        <v>84562</v>
+      </c>
+      <c r="H731">
+        <f t="shared" si="80"/>
+        <v>729</v>
+      </c>
+      <c r="I731">
+        <f>SUM($F$3:F731)/H731</f>
+        <v>4684454.1679955423</v>
+      </c>
+      <c r="N731">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="O731">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="P731">
+        <f t="shared" si="79"/>
+        <v>0.63666665554046631</v>
+      </c>
+      <c r="Q731">
+        <f t="shared" si="68"/>
+        <v>0.64761905017353238</v>
+      </c>
+      <c r="R731">
+        <f t="shared" si="69"/>
+        <v>-1.0952394633066076E-2</v>
+      </c>
+      <c r="S731">
+        <f t="shared" si="70"/>
+        <v>6.6734678080292665E-3</v>
+      </c>
+      <c r="T731">
+        <f t="shared" si="71"/>
+        <v>1.0010201712043899E-4</v>
+      </c>
+      <c r="U731">
+        <f t="shared" si="72"/>
+        <v>-109.41232702522433</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U731"/>
+  <dimension ref="A1:U753"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A719" workbookViewId="0">
-      <selection activeCell="A732" sqref="A732"/>
+    <sheetView tabSelected="1" topLeftCell="A732" workbookViewId="0">
+      <selection activeCell="A754" sqref="A754"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33552,23 +33552,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q731" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q753" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R731" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R753" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S731" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S753" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T731" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T753" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U731" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U753" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -36698,7 +36698,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P731" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P753" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36808,7 +36808,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H731" si="80">H578+1</f>
+        <f t="shared" ref="H579:H753" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -45258,11 +45258,11 @@
         <v>4612388.2840629397</v>
       </c>
       <c r="N713">
-        <f t="shared" ref="N713:N731" si="93">IF(A713&lt;&gt;$K$38,MAX(N712,VLOOKUP(A713,A:C,3)),)</f>
+        <f t="shared" ref="N713:N730" si="93">IF(A713&lt;&gt;$K$38,MAX(N712,VLOOKUP(A713,A:C,3)),)</f>
         <v>0.65700000524520874</v>
       </c>
       <c r="O713">
-        <f t="shared" ref="O713:O731" si="94">IF(A713&lt;&gt;$K$38,MIN(O712,VLOOKUP(A713,A:D,4)),)</f>
+        <f t="shared" ref="O713:O730" si="94">IF(A713&lt;&gt;$K$38,MIN(O712,VLOOKUP(A713,A:D,4)),)</f>
         <v>0.64600002765655518</v>
       </c>
       <c r="P713">
@@ -46392,12 +46392,12 @@
         <v>4684454.1679955423</v>
       </c>
       <c r="N731">
-        <f t="shared" si="93"/>
-        <v>0</v>
+        <f>VLOOKUP(L39,A:C,3)</f>
+        <v>0.63499999046325684</v>
       </c>
       <c r="O731">
-        <f t="shared" si="94"/>
-        <v>0</v>
+        <f>VLOOKUP(L39,A:D,4)</f>
+        <v>0.62599998712539673</v>
       </c>
       <c r="P731">
         <f t="shared" si="79"/>
@@ -46422,6 +46422,1392 @@
       <c r="U731">
         <f t="shared" si="72"/>
         <v>-109.41232702522433</v>
+      </c>
+    </row>
+    <row r="732" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A732" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B732">
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="C732">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="D732">
+        <v>0.62599998712539673</v>
+      </c>
+      <c r="E732">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="F732">
+        <v>5883200</v>
+      </c>
+      <c r="G732">
+        <v>58832</v>
+      </c>
+      <c r="H732">
+        <f t="shared" si="80"/>
+        <v>730</v>
+      </c>
+      <c r="I732">
+        <f>SUM($F$3:F732)/H732</f>
+        <v>4686096.2855736306</v>
+      </c>
+      <c r="N732">
+        <f t="shared" ref="N732:N753" si="95">IF(A732&lt;&gt;$K$39,MAX(N731,VLOOKUP(A732,A:C,3)),)</f>
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="O732">
+        <f t="shared" ref="O732:O753" si="96">IF(A732&lt;&gt;$K$39,MIN(O731,VLOOKUP(A732,A:D,4)),)</f>
+        <v>0.62599998712539673</v>
+      </c>
+      <c r="P732">
+        <f t="shared" si="79"/>
+        <v>0.63133333126703894</v>
+      </c>
+      <c r="Q732">
+        <f t="shared" si="68"/>
+        <v>0.64642857369922446</v>
+      </c>
+      <c r="R732">
+        <f t="shared" si="69"/>
+        <v>-1.5095242432185518E-2</v>
+      </c>
+      <c r="S732">
+        <f t="shared" si="70"/>
+        <v>7.8095226060776379E-3</v>
+      </c>
+      <c r="T732">
+        <f t="shared" si="71"/>
+        <v>1.1714283909116456E-4</v>
+      </c>
+      <c r="U732">
+        <f t="shared" si="72"/>
+        <v>-128.86184549819458</v>
+      </c>
+    </row>
+    <row r="733" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A733" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B733">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="C733">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="D733">
+        <v>0.62400001287460327</v>
+      </c>
+      <c r="E733">
+        <v>0.62699997425079346</v>
+      </c>
+      <c r="F733">
+        <v>14783500</v>
+      </c>
+      <c r="G733">
+        <v>147835</v>
+      </c>
+      <c r="H733">
+        <f t="shared" si="80"/>
+        <v>731</v>
+      </c>
+      <c r="I733">
+        <f>SUM($F$3:F733)/H733</f>
+        <v>4699909.4233498629</v>
+      </c>
+      <c r="N733">
+        <f t="shared" si="95"/>
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="O733">
+        <f t="shared" si="96"/>
+        <v>0.62400001287460327</v>
+      </c>
+      <c r="P733">
+        <f t="shared" si="79"/>
+        <v>0.62800000111262</v>
+      </c>
+      <c r="Q733">
+        <f t="shared" si="68"/>
+        <v>0.6448095270565577</v>
+      </c>
+      <c r="R733">
+        <f t="shared" si="69"/>
+        <v>-1.6809525943937698E-2</v>
+      </c>
+      <c r="S733">
+        <f t="shared" si="70"/>
+        <v>8.7142870539710614E-3</v>
+      </c>
+      <c r="T733">
+        <f t="shared" si="71"/>
+        <v>1.3071430580956591E-4</v>
+      </c>
+      <c r="U733">
+        <f t="shared" si="72"/>
+        <v>-128.59744646792552</v>
+      </c>
+    </row>
+    <row r="734" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A734" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B734">
+        <v>0.62699997425079346</v>
+      </c>
+      <c r="C734">
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="D734">
+        <v>0.62199997901916504</v>
+      </c>
+      <c r="E734">
+        <v>0.625</v>
+      </c>
+      <c r="F734">
+        <v>12043300</v>
+      </c>
+      <c r="G734">
+        <v>120433</v>
+      </c>
+      <c r="H734">
+        <f t="shared" si="80"/>
+        <v>732</v>
+      </c>
+      <c r="I734">
+        <f>SUM($F$3:F734)/H734</f>
+        <v>4709941.3776895488</v>
+      </c>
+      <c r="N734">
+        <f t="shared" si="95"/>
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="O734">
+        <f t="shared" si="96"/>
+        <v>0.62199997901916504</v>
+      </c>
+      <c r="P734">
+        <f t="shared" si="79"/>
+        <v>0.62533332904179895</v>
+      </c>
+      <c r="Q734">
+        <f t="shared" si="68"/>
+        <v>0.64297619320097432</v>
+      </c>
+      <c r="R734">
+        <f t="shared" si="69"/>
+        <v>-1.7642864159175375E-2</v>
+      </c>
+      <c r="S734">
+        <f t="shared" si="70"/>
+        <v>9.4013623639839939E-3</v>
+      </c>
+      <c r="T734">
+        <f t="shared" si="71"/>
+        <v>1.4102043545975991E-4</v>
+      </c>
+      <c r="U734">
+        <f t="shared" si="72"/>
+        <v>-125.10856388760588</v>
+      </c>
+    </row>
+    <row r="735" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A735" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B735">
+        <v>0.62599998712539673</v>
+      </c>
+      <c r="C735">
+        <v>0.63099998235702515</v>
+      </c>
+      <c r="D735">
+        <v>0.62199997901916504</v>
+      </c>
+      <c r="E735">
+        <v>0.62300002574920654</v>
+      </c>
+      <c r="F735">
+        <v>9370000</v>
+      </c>
+      <c r="G735">
+        <v>93700</v>
+      </c>
+      <c r="H735">
+        <f t="shared" si="80"/>
+        <v>733</v>
+      </c>
+      <c r="I735">
+        <f>SUM($F$3:F735)/H735</f>
+        <v>4716298.8928632336</v>
+      </c>
+      <c r="N735">
+        <f t="shared" si="95"/>
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="O735">
+        <f t="shared" si="96"/>
+        <v>0.62199997901916504</v>
+      </c>
+      <c r="P735">
+        <f t="shared" si="79"/>
+        <v>0.62533332904179895</v>
+      </c>
+      <c r="Q735">
+        <f t="shared" si="68"/>
+        <v>0.64104762105714719</v>
+      </c>
+      <c r="R735">
+        <f t="shared" si="69"/>
+        <v>-1.5714292015348241E-2</v>
+      </c>
+      <c r="S735">
+        <f t="shared" si="70"/>
+        <v>9.530614427968773E-3</v>
+      </c>
+      <c r="T735">
+        <f t="shared" si="71"/>
+        <v>1.4295921641953159E-4</v>
+      </c>
+      <c r="U735">
+        <f t="shared" si="72"/>
+        <v>-109.92150355128345</v>
+      </c>
+    </row>
+    <row r="736" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A736" s="1">
+        <v>45478</v>
+      </c>
+      <c r="B736">
+        <v>0.62400001287460327</v>
+      </c>
+      <c r="C736">
+        <v>0.62400001287460327</v>
+      </c>
+      <c r="D736">
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="E736">
+        <v>0.62300002574920654</v>
+      </c>
+      <c r="F736">
+        <v>9157000</v>
+      </c>
+      <c r="G736">
+        <v>91570</v>
+      </c>
+      <c r="H736">
+        <f t="shared" si="80"/>
+        <v>734</v>
+      </c>
+      <c r="I736">
+        <f>SUM($F$3:F736)/H736</f>
+        <v>4722348.8943715943</v>
+      </c>
+      <c r="N736">
+        <f t="shared" si="95"/>
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="O736">
+        <f t="shared" si="96"/>
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="P736">
+        <f t="shared" si="79"/>
+        <v>0.62033335367838538</v>
+      </c>
+      <c r="Q736">
+        <f t="shared" si="68"/>
+        <v>0.63845238373393098</v>
+      </c>
+      <c r="R736">
+        <f t="shared" si="69"/>
+        <v>-1.8119030055545604E-2</v>
+      </c>
+      <c r="S736">
+        <f t="shared" si="70"/>
+        <v>9.3571472735632065E-3</v>
+      </c>
+      <c r="T736">
+        <f t="shared" si="71"/>
+        <v>1.403572091034481E-4</v>
+      </c>
+      <c r="U736">
+        <f t="shared" si="72"/>
+        <v>-129.09226516602547</v>
+      </c>
+    </row>
+    <row r="737" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A737" s="1">
+        <v>45481</v>
+      </c>
+      <c r="B737">
+        <v>0.62000000476837158</v>
+      </c>
+      <c r="C737">
+        <v>0.62099999189376831</v>
+      </c>
+      <c r="D737">
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="E737">
+        <v>0.61599999666213989</v>
+      </c>
+      <c r="F737">
+        <v>8955200</v>
+      </c>
+      <c r="G737">
+        <v>89552</v>
+      </c>
+      <c r="H737">
+        <f t="shared" si="80"/>
+        <v>735</v>
+      </c>
+      <c r="I737">
+        <f>SUM($F$3:F737)/H737</f>
+        <v>4728107.8754676869</v>
+      </c>
+      <c r="N737">
+        <f t="shared" si="95"/>
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="O737">
+        <f t="shared" si="96"/>
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="P737">
+        <f t="shared" si="79"/>
+        <v>0.61700000365575158</v>
+      </c>
+      <c r="Q737">
+        <f t="shared" si="68"/>
+        <v>0.63530952731768298</v>
+      </c>
+      <c r="R737">
+        <f t="shared" si="69"/>
+        <v>-1.8309523661931393E-2</v>
+      </c>
+      <c r="S737">
+        <f t="shared" si="70"/>
+        <v>9.2176880155290797E-3</v>
+      </c>
+      <c r="T737">
+        <f t="shared" si="71"/>
+        <v>1.3826532023293619E-4</v>
+      </c>
+      <c r="U737">
+        <f t="shared" si="72"/>
+        <v>-132.42310964951486</v>
+      </c>
+    </row>
+    <row r="738" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A738" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B738">
+        <v>0.61500000953674316</v>
+      </c>
+      <c r="C738">
+        <v>0.62800002098083496</v>
+      </c>
+      <c r="D738">
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="E738">
+        <v>0.62699997425079346</v>
+      </c>
+      <c r="F738">
+        <v>7864802.5</v>
+      </c>
+      <c r="G738">
+        <v>78648.0234375</v>
+      </c>
+      <c r="H738">
+        <f t="shared" si="80"/>
+        <v>736</v>
+      </c>
+      <c r="I738">
+        <f>SUM($F$3:F738)/H738</f>
+        <v>4732369.6888162363</v>
+      </c>
+      <c r="N738">
+        <f t="shared" si="95"/>
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="O738">
+        <f t="shared" si="96"/>
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="P738">
+        <f t="shared" si="79"/>
+        <v>0.62300000588099158</v>
+      </c>
+      <c r="Q738">
+        <f t="shared" si="68"/>
+        <v>0.63276190842900959</v>
+      </c>
+      <c r="R738">
+        <f t="shared" si="69"/>
+        <v>-9.7619025480180088E-3</v>
+      </c>
+      <c r="S738">
+        <f t="shared" si="70"/>
+        <v>8.4285721892402334E-3</v>
+      </c>
+      <c r="T738">
+        <f t="shared" si="71"/>
+        <v>1.2642858283860349E-4</v>
+      </c>
+      <c r="U738">
+        <f t="shared" si="72"/>
+        <v>-77.21278154703262</v>
+      </c>
+    </row>
+    <row r="739" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A739" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B739">
+        <v>0.62599998712539673</v>
+      </c>
+      <c r="C739">
+        <v>0.63200002908706665</v>
+      </c>
+      <c r="D739">
+        <v>0.62599998712539673</v>
+      </c>
+      <c r="E739">
+        <v>0.62800002098083496</v>
+      </c>
+      <c r="F739">
+        <v>6962202.5</v>
+      </c>
+      <c r="G739">
+        <v>69622.0234375</v>
+      </c>
+      <c r="H739">
+        <f t="shared" si="80"/>
+        <v>737</v>
+      </c>
+      <c r="I739">
+        <f>SUM($F$3:F739)/H739</f>
+        <v>4735395.2421556991</v>
+      </c>
+      <c r="N739">
+        <f t="shared" si="95"/>
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="O739">
+        <f t="shared" si="96"/>
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="P739">
+        <f t="shared" si="79"/>
+        <v>0.62866667906443274</v>
+      </c>
+      <c r="Q739">
+        <f t="shared" si="68"/>
+        <v>0.63128571850912896</v>
+      </c>
+      <c r="R739">
+        <f t="shared" si="69"/>
+        <v>-2.619039444696214E-3</v>
+      </c>
+      <c r="S739">
+        <f t="shared" si="70"/>
+        <v>7.3333325840178043E-3</v>
+      </c>
+      <c r="T739">
+        <f t="shared" si="71"/>
+        <v>1.0999998876026706E-4</v>
+      </c>
+      <c r="U739">
+        <f t="shared" si="72"/>
+        <v>-23.809451930073593</v>
+      </c>
+    </row>
+    <row r="740" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A740" s="1">
+        <v>45484</v>
+      </c>
+      <c r="B740">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C740">
+        <v>0.64099997282028198</v>
+      </c>
+      <c r="D740">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="E740">
+        <v>0.63899999856948853</v>
+      </c>
+      <c r="F740">
+        <v>5349601</v>
+      </c>
+      <c r="G740">
+        <v>53496.01171875</v>
+      </c>
+      <c r="H740">
+        <f t="shared" si="80"/>
+        <v>738</v>
+      </c>
+      <c r="I740">
+        <f>SUM($F$3:F740)/H740</f>
+        <v>4736227.4992801491</v>
+      </c>
+      <c r="N740">
+        <f t="shared" si="95"/>
+        <v>0.64099997282028198</v>
+      </c>
+      <c r="O740">
+        <f t="shared" si="96"/>
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="P740">
+        <f t="shared" si="79"/>
+        <v>0.637666662534078</v>
+      </c>
+      <c r="Q740">
+        <f t="shared" si="68"/>
+        <v>0.6307142887796674</v>
+      </c>
+      <c r="R740">
+        <f t="shared" si="69"/>
+        <v>6.9523737544106012E-3</v>
+      </c>
+      <c r="S740">
+        <f t="shared" si="70"/>
+        <v>6.7619028545561344E-3</v>
+      </c>
+      <c r="T740">
+        <f t="shared" si="71"/>
+        <v>1.0142854281834201E-4</v>
+      </c>
+      <c r="U740">
+        <f t="shared" si="72"/>
+        <v>68.544549307607284</v>
+      </c>
+    </row>
+    <row r="741" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A741" s="1">
+        <v>45485</v>
+      </c>
+      <c r="B741">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C741">
+        <v>0.64099997282028198</v>
+      </c>
+      <c r="D741">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="E741">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="F741">
+        <v>4763300</v>
+      </c>
+      <c r="G741">
+        <v>47633</v>
+      </c>
+      <c r="H741">
+        <f t="shared" si="80"/>
+        <v>739</v>
+      </c>
+      <c r="I741">
+        <f>SUM($F$3:F741)/H741</f>
+        <v>4736264.1332459403</v>
+      </c>
+      <c r="N741">
+        <f t="shared" si="95"/>
+        <v>0.64099997282028198</v>
+      </c>
+      <c r="O741">
+        <f t="shared" si="96"/>
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="P741">
+        <f t="shared" si="79"/>
+        <v>0.63733333349227905</v>
+      </c>
+      <c r="Q741">
+        <f t="shared" si="68"/>
+        <v>0.63040476469766527</v>
+      </c>
+      <c r="R741">
+        <f t="shared" si="69"/>
+        <v>6.9285687946137875E-3</v>
+      </c>
+      <c r="S741">
+        <f t="shared" si="70"/>
+        <v>6.4523787725539461E-3</v>
+      </c>
+      <c r="T741">
+        <f t="shared" si="71"/>
+        <v>9.6785681588309192E-5</v>
+      </c>
+      <c r="U741">
+        <f t="shared" si="72"/>
+        <v>71.586712837187832</v>
+      </c>
+    </row>
+    <row r="742" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A742" s="1">
+        <v>45488</v>
+      </c>
+      <c r="B742">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C742">
+        <v>0.63700002431869507</v>
+      </c>
+      <c r="D742">
+        <v>0.63200002908706665</v>
+      </c>
+      <c r="E742">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="F742">
+        <v>6922300</v>
+      </c>
+      <c r="G742">
+        <v>69223</v>
+      </c>
+      <c r="H742">
+        <f t="shared" si="80"/>
+        <v>740</v>
+      </c>
+      <c r="I742">
+        <f>SUM($F$3:F742)/H742</f>
+        <v>4739218.2357685808</v>
+      </c>
+      <c r="N742">
+        <f t="shared" si="95"/>
+        <v>0.64099997282028198</v>
+      </c>
+      <c r="O742">
+        <f t="shared" si="96"/>
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="P742">
+        <f t="shared" si="79"/>
+        <v>0.63466668128967285</v>
+      </c>
+      <c r="Q742">
+        <f t="shared" si="68"/>
+        <v>0.63009524061566302</v>
+      </c>
+      <c r="R742">
+        <f t="shared" si="69"/>
+        <v>4.5714406740098301E-3</v>
+      </c>
+      <c r="S742">
+        <f t="shared" si="70"/>
+        <v>6.1428546905517578E-3</v>
+      </c>
+      <c r="T742">
+        <f t="shared" si="71"/>
+        <v>9.2142820358276359E-5</v>
+      </c>
+      <c r="U742">
+        <f t="shared" si="72"/>
+        <v>49.612554252570355</v>
+      </c>
+    </row>
+    <row r="743" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A743" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B743">
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="C743">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="D743">
+        <v>0.63400000333786011</v>
+      </c>
+      <c r="E743">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="F743">
+        <v>6796300</v>
+      </c>
+      <c r="G743">
+        <v>67963</v>
+      </c>
+      <c r="H743">
+        <f t="shared" si="80"/>
+        <v>741</v>
+      </c>
+      <c r="I743">
+        <f>SUM($F$3:F743)/H743</f>
+        <v>4741994.324519231</v>
+      </c>
+      <c r="N743">
+        <f t="shared" si="95"/>
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="O743">
+        <f t="shared" si="96"/>
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="P743">
+        <f t="shared" si="79"/>
+        <v>0.64000000556310022</v>
+      </c>
+      <c r="Q743">
+        <f t="shared" si="68"/>
+        <v>0.63014285905020595</v>
+      </c>
+      <c r="R743">
+        <f t="shared" si="69"/>
+        <v>9.8571465128942659E-3</v>
+      </c>
+      <c r="S743">
+        <f t="shared" si="70"/>
+        <v>6.1904731250944645E-3</v>
+      </c>
+      <c r="T743">
+        <f t="shared" si="71"/>
+        <v>9.2857096876416959E-5</v>
+      </c>
+      <c r="U743">
+        <f t="shared" si="72"/>
+        <v>106.15393808847043</v>
+      </c>
+    </row>
+    <row r="744" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A744" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B744">
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="C744">
+        <v>0.64399999380111694</v>
+      </c>
+      <c r="D744">
+        <v>0.6380000114440918</v>
+      </c>
+      <c r="E744">
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="F744">
+        <v>7649400</v>
+      </c>
+      <c r="G744">
+        <v>76494</v>
+      </c>
+      <c r="H744">
+        <f t="shared" si="80"/>
+        <v>742</v>
+      </c>
+      <c r="I744">
+        <f>SUM($F$3:F744)/H744</f>
+        <v>4745912.6610090975</v>
+      </c>
+      <c r="N744">
+        <f t="shared" si="95"/>
+        <v>0.64399999380111694</v>
+      </c>
+      <c r="O744">
+        <f t="shared" si="96"/>
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="P744">
+        <f t="shared" si="79"/>
+        <v>0.64133334159851074</v>
+      </c>
+      <c r="Q744">
+        <f t="shared" si="68"/>
+        <v>0.63047619376863751</v>
+      </c>
+      <c r="R744">
+        <f t="shared" si="69"/>
+        <v>1.0857147829873237E-2</v>
+      </c>
+      <c r="S744">
+        <f t="shared" si="70"/>
+        <v>6.5238078435262093E-3</v>
+      </c>
+      <c r="T744">
+        <f t="shared" si="71"/>
+        <v>9.7857117652893133E-5</v>
+      </c>
+      <c r="U744">
+        <f t="shared" si="72"/>
+        <v>110.94898450191832</v>
+      </c>
+    </row>
+    <row r="745" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A745" s="1">
+        <v>45491</v>
+      </c>
+      <c r="B745">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="C745">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="D745">
+        <v>0.63499999046325684</v>
+      </c>
+      <c r="E745">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="F745">
+        <v>5655702</v>
+      </c>
+      <c r="G745">
+        <v>56557.01953125</v>
+      </c>
+      <c r="H745">
+        <f t="shared" si="80"/>
+        <v>743</v>
+      </c>
+      <c r="I745">
+        <f>SUM($F$3:F745)/H745</f>
+        <v>4747137.141949865</v>
+      </c>
+      <c r="N745">
+        <f t="shared" si="95"/>
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="O745">
+        <f t="shared" si="96"/>
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="P745">
+        <f t="shared" si="79"/>
+        <v>0.64233334859212243</v>
+      </c>
+      <c r="Q745">
+        <f t="shared" si="68"/>
+        <v>0.63088095755804152</v>
+      </c>
+      <c r="R745">
+        <f t="shared" si="69"/>
+        <v>1.1452391034080911E-2</v>
+      </c>
+      <c r="S745">
+        <f t="shared" si="70"/>
+        <v>6.9285716329302183E-3</v>
+      </c>
+      <c r="T745">
+        <f t="shared" si="71"/>
+        <v>1.0392857449395328E-4</v>
+      </c>
+      <c r="U745">
+        <f t="shared" si="72"/>
+        <v>110.19482456912972</v>
+      </c>
+    </row>
+    <row r="746" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A746" s="1">
+        <v>45492</v>
+      </c>
+      <c r="B746">
+        <v>0.64300000667572021</v>
+      </c>
+      <c r="C746">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="D746">
+        <v>0.64200001955032349</v>
+      </c>
+      <c r="E746">
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="F746">
+        <v>7677900</v>
+      </c>
+      <c r="G746">
+        <v>76779</v>
+      </c>
+      <c r="H746">
+        <f t="shared" si="80"/>
+        <v>744</v>
+      </c>
+      <c r="I746">
+        <f>SUM($F$3:F746)/H746</f>
+        <v>4751076.3393397173</v>
+      </c>
+      <c r="N746">
+        <f t="shared" si="95"/>
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="O746">
+        <f t="shared" si="96"/>
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="P746">
+        <f t="shared" si="79"/>
+        <v>0.64666666587193811</v>
+      </c>
+      <c r="Q746">
+        <f t="shared" si="68"/>
+        <v>0.6319761957441058</v>
+      </c>
+      <c r="R746">
+        <f t="shared" si="69"/>
+        <v>1.4690470127832311E-2</v>
+      </c>
+      <c r="S746">
+        <f t="shared" si="70"/>
+        <v>8.023809818994445E-3</v>
+      </c>
+      <c r="T746">
+        <f t="shared" si="71"/>
+        <v>1.2035714728491667E-4</v>
+      </c>
+      <c r="U746">
+        <f t="shared" si="72"/>
+        <v>122.05731407920585</v>
+      </c>
+    </row>
+    <row r="747" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A747" s="1">
+        <v>45495</v>
+      </c>
+      <c r="B747">
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="C747">
+        <v>0.64800000190734863</v>
+      </c>
+      <c r="D747">
+        <v>0.64399999380111694</v>
+      </c>
+      <c r="E747">
+        <v>0.64600002765655518</v>
+      </c>
+      <c r="F747">
+        <v>3403200</v>
+      </c>
+      <c r="G747">
+        <v>34032</v>
+      </c>
+      <c r="H747">
+        <f t="shared" si="80"/>
+        <v>745</v>
+      </c>
+      <c r="I747">
+        <f>SUM($F$3:F747)/H747</f>
+        <v>4749267.1093540266</v>
+      </c>
+      <c r="N747">
+        <f t="shared" si="95"/>
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="O747">
+        <f t="shared" si="96"/>
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="P747">
+        <f t="shared" si="79"/>
+        <v>0.64600000778834021</v>
+      </c>
+      <c r="Q747">
+        <f t="shared" si="68"/>
+        <v>0.63326191050665703</v>
+      </c>
+      <c r="R747">
+        <f t="shared" si="69"/>
+        <v>1.2738097281683181E-2</v>
+      </c>
+      <c r="S747">
+        <f t="shared" si="70"/>
+        <v>8.5578232395405983E-3</v>
+      </c>
+      <c r="T747">
+        <f t="shared" si="71"/>
+        <v>1.2836734859310897E-4</v>
+      </c>
+      <c r="U747">
+        <f t="shared" si="72"/>
+        <v>99.231599166697976</v>
+      </c>
+    </row>
+    <row r="748" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A748" s="1">
+        <v>45496</v>
+      </c>
+      <c r="B748">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="C748">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="D748">
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="E748">
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="F748">
+        <v>8207904</v>
+      </c>
+      <c r="G748">
+        <v>82079.0390625</v>
+      </c>
+      <c r="H748">
+        <f t="shared" si="80"/>
+        <v>746</v>
+      </c>
+      <c r="I748">
+        <f>SUM($F$3:F748)/H748</f>
+        <v>4753903.3518347852</v>
+      </c>
+      <c r="N748">
+        <f t="shared" si="95"/>
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="O748">
+        <f t="shared" si="96"/>
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="P748">
+        <f t="shared" si="79"/>
+        <v>0.63433333237965905</v>
+      </c>
+      <c r="Q748">
+        <f t="shared" si="68"/>
+        <v>0.63390476788793293</v>
+      </c>
+      <c r="R748">
+        <f t="shared" si="69"/>
+        <v>4.2856449172612443E-4</v>
+      </c>
+      <c r="S748">
+        <f t="shared" si="70"/>
+        <v>7.8843525883291934E-3</v>
+      </c>
+      <c r="T748">
+        <f t="shared" si="71"/>
+        <v>1.1826528882493789E-4</v>
+      </c>
+      <c r="U748">
+        <f t="shared" si="72"/>
+        <v>3.6237555075057291</v>
+      </c>
+    </row>
+    <row r="749" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A749" s="1">
+        <v>45497</v>
+      </c>
+      <c r="B749">
+        <v>0.62699997425079346</v>
+      </c>
+      <c r="C749">
+        <v>0.62900000810623169</v>
+      </c>
+      <c r="D749">
+        <v>0.61699998378753662</v>
+      </c>
+      <c r="E749">
+        <v>0.61900001764297485</v>
+      </c>
+      <c r="F749">
+        <v>6972800</v>
+      </c>
+      <c r="G749">
+        <v>69728</v>
+      </c>
+      <c r="H749">
+        <f t="shared" si="80"/>
+        <v>747</v>
+      </c>
+      <c r="I749">
+        <f>SUM($F$3:F749)/H749</f>
+        <v>4756873.7623410309</v>
+      </c>
+      <c r="N749">
+        <f t="shared" si="95"/>
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="O749">
+        <f t="shared" si="96"/>
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="P749">
+        <f t="shared" si="79"/>
+        <v>0.62166666984558105</v>
+      </c>
+      <c r="Q749">
+        <f t="shared" si="68"/>
+        <v>0.63364286365963163</v>
+      </c>
+      <c r="R749">
+        <f t="shared" si="69"/>
+        <v>-1.1976193814050573E-2</v>
+      </c>
+      <c r="S749">
+        <f t="shared" si="70"/>
+        <v>8.2210865961451305E-3</v>
+      </c>
+      <c r="T749">
+        <f t="shared" si="71"/>
+        <v>1.2331629894217694E-4</v>
+      </c>
+      <c r="U749">
+        <f t="shared" si="72"/>
+        <v>-97.117687741068309</v>
+      </c>
+    </row>
+    <row r="750" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A750" s="1">
+        <v>45498</v>
+      </c>
+      <c r="B750">
+        <v>0.61599999666213989</v>
+      </c>
+      <c r="C750">
+        <v>0.62000000476837158</v>
+      </c>
+      <c r="D750">
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="E750">
+        <v>0.61900001764297485</v>
+      </c>
+      <c r="F750">
+        <v>7425504.5</v>
+      </c>
+      <c r="G750">
+        <v>74255.046875</v>
+      </c>
+      <c r="H750">
+        <f t="shared" si="80"/>
+        <v>748</v>
+      </c>
+      <c r="I750">
+        <f>SUM($F$3:F750)/H750</f>
+        <v>4760441.4504929809</v>
+      </c>
+      <c r="N750">
+        <f t="shared" si="95"/>
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="O750">
+        <f t="shared" si="96"/>
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="P750">
+        <f t="shared" si="79"/>
+        <v>0.61766668160756433</v>
+      </c>
+      <c r="Q750">
+        <f t="shared" si="68"/>
+        <v>0.63345238708314444</v>
+      </c>
+      <c r="R750">
+        <f t="shared" si="69"/>
+        <v>-1.5785705475580114E-2</v>
+      </c>
+      <c r="S750">
+        <f t="shared" si="70"/>
+        <v>8.4659850516286862E-3</v>
+      </c>
+      <c r="T750">
+        <f t="shared" si="71"/>
+        <v>1.2698977577443028E-4</v>
+      </c>
+      <c r="U750">
+        <f t="shared" si="72"/>
+        <v>-124.30690092421288</v>
+      </c>
+    </row>
+    <row r="751" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A751" s="1">
+        <v>45499</v>
+      </c>
+      <c r="B751">
+        <v>0.62400001287460327</v>
+      </c>
+      <c r="C751">
+        <v>0.63099998235702515</v>
+      </c>
+      <c r="D751">
+        <v>0.62300002574920654</v>
+      </c>
+      <c r="E751">
+        <v>0.62800002098083496</v>
+      </c>
+      <c r="F751">
+        <v>4244800</v>
+      </c>
+      <c r="G751">
+        <v>42448</v>
+      </c>
+      <c r="H751">
+        <f t="shared" si="80"/>
+        <v>749</v>
+      </c>
+      <c r="I751">
+        <f>SUM($F$3:F751)/H751</f>
+        <v>4759753.010639186</v>
+      </c>
+      <c r="N751">
+        <f t="shared" si="95"/>
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="O751">
+        <f t="shared" si="96"/>
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="P751">
+        <f t="shared" si="79"/>
+        <v>0.62733334302902222</v>
+      </c>
+      <c r="Q751">
+        <f t="shared" si="68"/>
+        <v>0.63419048275266376</v>
+      </c>
+      <c r="R751">
+        <f t="shared" si="69"/>
+        <v>-6.8571397236415477E-3</v>
+      </c>
+      <c r="S751">
+        <f t="shared" si="70"/>
+        <v>7.5170049051038346E-3</v>
+      </c>
+      <c r="T751">
+        <f t="shared" si="71"/>
+        <v>1.1275507357655751E-4</v>
+      </c>
+      <c r="U751">
+        <f t="shared" si="72"/>
+        <v>-60.814467199879424</v>
+      </c>
+    </row>
+    <row r="752" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A752" s="1">
+        <v>45502</v>
+      </c>
+      <c r="B752">
+        <v>0.625</v>
+      </c>
+      <c r="C752">
+        <v>0.625</v>
+      </c>
+      <c r="D752">
+        <v>0.62000000476837158</v>
+      </c>
+      <c r="E752">
+        <v>0.62099999189376831</v>
+      </c>
+      <c r="F752">
+        <v>4540102</v>
+      </c>
+      <c r="G752">
+        <v>45401.01953125</v>
+      </c>
+      <c r="H752">
+        <f t="shared" si="80"/>
+        <v>750</v>
+      </c>
+      <c r="I752">
+        <f>SUM($F$3:F752)/H752</f>
+        <v>4759460.1426250003</v>
+      </c>
+      <c r="N752">
+        <f t="shared" si="95"/>
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="O752">
+        <f t="shared" si="96"/>
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="P752">
+        <f t="shared" si="79"/>
+        <v>0.62199999888738</v>
+      </c>
+      <c r="Q752">
+        <f t="shared" si="68"/>
+        <v>0.63411905368169141</v>
+      </c>
+      <c r="R752">
+        <f t="shared" si="69"/>
+        <v>-1.2119054794311412E-2</v>
+      </c>
+      <c r="S752">
+        <f t="shared" si="70"/>
+        <v>7.6088422820681911E-3</v>
+      </c>
+      <c r="T752">
+        <f t="shared" si="71"/>
+        <v>1.1413263423102287E-4</v>
+      </c>
+      <c r="U752">
+        <f t="shared" si="72"/>
+        <v>-106.18395760305059</v>
+      </c>
+    </row>
+    <row r="753" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A753" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B753">
+        <v>0.61799997091293335</v>
+      </c>
+      <c r="C753">
+        <v>0.61900001764297485</v>
+      </c>
+      <c r="D753">
+        <v>0.61299997568130493</v>
+      </c>
+      <c r="E753">
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="F753">
+        <v>4442700</v>
+      </c>
+      <c r="G753">
+        <v>44427</v>
+      </c>
+      <c r="H753">
+        <f t="shared" si="80"/>
+        <v>751</v>
+      </c>
+      <c r="I753">
+        <f>SUM($F$3:F753)/H753</f>
+        <v>4759038.3581474703</v>
+      </c>
+      <c r="N753">
+        <f t="shared" si="95"/>
+        <v>0.64899998903274536</v>
+      </c>
+      <c r="O753">
+        <f t="shared" si="96"/>
+        <v>0.61299997568130493</v>
+      </c>
+      <c r="P753">
+        <f t="shared" si="79"/>
+        <v>0.61533333857854211</v>
+      </c>
+      <c r="Q753">
+        <f t="shared" si="68"/>
+        <v>0.63316667221841361</v>
+      </c>
+      <c r="R753">
+        <f t="shared" si="69"/>
+        <v>-1.7833333639871496E-2</v>
+      </c>
+      <c r="S753">
+        <f t="shared" si="70"/>
+        <v>8.833332734854038E-3</v>
+      </c>
+      <c r="T753">
+        <f t="shared" si="71"/>
+        <v>1.3249999102281056E-4</v>
+      </c>
+      <c r="U753">
+        <f t="shared" si="72"/>
+        <v>-134.59120640092266</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="420" windowWidth="20235" windowHeight="8220"/>
+    <workbookView xWindow="840" yWindow="420" windowWidth="15600" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="HwabaoWP_szse_innovation_100" sheetId="1" r:id="rId1"/>
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U753"/>
+  <dimension ref="A1:U754"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A732" workbookViewId="0">
-      <selection activeCell="A754" sqref="A754"/>
+    <sheetView tabSelected="1" topLeftCell="A742" workbookViewId="0">
+      <selection activeCell="A755" sqref="A755"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2828,7 +2828,7 @@
         <v>-176.69211195928807</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44426</v>
       </c>
@@ -2858,6 +2858,12 @@
         <f>SUM($F$3:F40)/H40</f>
         <v>25378590.605263159</v>
       </c>
+      <c r="K40" s="2">
+        <v>45534</v>
+      </c>
+      <c r="L40" s="2">
+        <v>45505</v>
+      </c>
       <c r="N40">
         <f t="shared" si="9"/>
         <v>1.0469999999999999</v>
@@ -33552,23 +33558,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q753" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q754" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R753" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R754" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S753" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S754" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T753" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T754" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U753" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U754" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -36698,7 +36704,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P753" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P754" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36808,7 +36814,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H753" si="80">H578+1</f>
+        <f t="shared" ref="H579:H754" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -46455,11 +46461,11 @@
         <v>4686096.2855736306</v>
       </c>
       <c r="N732">
-        <f t="shared" ref="N732:N753" si="95">IF(A732&lt;&gt;$K$39,MAX(N731,VLOOKUP(A732,A:C,3)),)</f>
+        <f t="shared" ref="N732:N754" si="95">IF(A732&lt;&gt;$K$39,MAX(N731,VLOOKUP(A732,A:C,3)),)</f>
         <v>0.63499999046325684</v>
       </c>
       <c r="O732">
-        <f t="shared" ref="O732:O753" si="96">IF(A732&lt;&gt;$K$39,MIN(O731,VLOOKUP(A732,A:D,4)),)</f>
+        <f t="shared" ref="O732:O754" si="96">IF(A732&lt;&gt;$K$39,MIN(O731,VLOOKUP(A732,A:D,4)),)</f>
         <v>0.62599998712539673</v>
       </c>
       <c r="P732">
@@ -47808,6 +47814,69 @@
       <c r="U753">
         <f t="shared" si="72"/>
         <v>-134.59120640092266</v>
+      </c>
+    </row>
+    <row r="754" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A754" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B754">
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="C754">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="D754">
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="E754">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="F754">
+        <v>9012202</v>
+      </c>
+      <c r="G754">
+        <v>90122.0234375</v>
+      </c>
+      <c r="H754">
+        <f t="shared" si="80"/>
+        <v>752</v>
+      </c>
+      <c r="I754">
+        <f>SUM($F$3:F754)/H754</f>
+        <v>4764694.1608626992</v>
+      </c>
+      <c r="N754">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="O754">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="P754">
+        <f t="shared" si="79"/>
+        <v>0.62766667207082116</v>
+      </c>
+      <c r="Q754">
+        <f t="shared" si="68"/>
+        <v>0.63245238718532382</v>
+      </c>
+      <c r="R754">
+        <f t="shared" si="69"/>
+        <v>-4.7857151145026533E-3</v>
+      </c>
+      <c r="S754">
+        <f t="shared" si="70"/>
+        <v>9.0068027275760111E-3</v>
+      </c>
+      <c r="T754">
+        <f t="shared" si="71"/>
+        <v>1.3510204091364016E-4</v>
+      </c>
+      <c r="U754">
+        <f t="shared" si="72"/>
+        <v>-35.422966834096719</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U754"/>
+  <dimension ref="A1:U775"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A742" workbookViewId="0">
-      <selection activeCell="A755" sqref="A755"/>
+    <sheetView tabSelected="1" topLeftCell="A755" workbookViewId="0">
+      <selection activeCell="A776" sqref="A776"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33558,23 +33558,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q754" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q775" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R754" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R775" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S754" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S775" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T754" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T775" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U754" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U775" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -36704,7 +36704,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P754" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P775" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36814,7 +36814,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H754" si="80">H578+1</f>
+        <f t="shared" ref="H579:H775" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -46461,11 +46461,11 @@
         <v>4686096.2855736306</v>
       </c>
       <c r="N732">
-        <f t="shared" ref="N732:N754" si="95">IF(A732&lt;&gt;$K$39,MAX(N731,VLOOKUP(A732,A:C,3)),)</f>
+        <f t="shared" ref="N732:N753" si="95">IF(A732&lt;&gt;$K$39,MAX(N731,VLOOKUP(A732,A:C,3)),)</f>
         <v>0.63499999046325684</v>
       </c>
       <c r="O732">
-        <f t="shared" ref="O732:O754" si="96">IF(A732&lt;&gt;$K$39,MIN(O731,VLOOKUP(A732,A:D,4)),)</f>
+        <f t="shared" ref="O732:O753" si="96">IF(A732&lt;&gt;$K$39,MIN(O731,VLOOKUP(A732,A:D,4)),)</f>
         <v>0.62599998712539673</v>
       </c>
       <c r="P732">
@@ -47847,12 +47847,12 @@
         <v>4764694.1608626992</v>
       </c>
       <c r="N754">
-        <f t="shared" si="95"/>
-        <v>0</v>
+        <f>VLOOKUP(L40,A:C,3)</f>
+        <v>0.63599997758865356</v>
       </c>
       <c r="O754">
-        <f t="shared" si="96"/>
-        <v>0</v>
+        <f>VLOOKUP(L40,A:D,4)</f>
+        <v>0.62599998712539673</v>
       </c>
       <c r="P754">
         <f t="shared" si="79"/>
@@ -47877,6 +47877,1329 @@
       <c r="U754">
         <f t="shared" si="72"/>
         <v>-35.422966834096719</v>
+      </c>
+    </row>
+    <row r="755" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A755" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B755">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="C755">
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="D755">
+        <v>0.62599998712539673</v>
+      </c>
+      <c r="E755">
+        <v>0.62599998712539673</v>
+      </c>
+      <c r="F755">
+        <v>738804</v>
+      </c>
+      <c r="G755">
+        <v>7388.0400390625</v>
+      </c>
+      <c r="H755">
+        <f t="shared" si="80"/>
+        <v>753</v>
+      </c>
+      <c r="I755">
+        <f>SUM($F$3:F755)/H755</f>
+        <v>4759347.6931855911</v>
+      </c>
+      <c r="N755">
+        <f t="shared" ref="N755:N775" si="97">IF(A755&lt;&gt;$K$40,MAX(N754,VLOOKUP(A755,A:C,3)),)</f>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="O755">
+        <f t="shared" ref="O755:O775" si="98">IF(A755&lt;&gt;$K$40,MIN(O754,VLOOKUP(A755,A:D,4)),)</f>
+        <v>0.62599998712539673</v>
+      </c>
+      <c r="P755">
+        <f t="shared" si="79"/>
+        <v>0.62933331727981567</v>
+      </c>
+      <c r="Q755">
+        <f t="shared" si="68"/>
+        <v>0.63188095745586204</v>
+      </c>
+      <c r="R755">
+        <f t="shared" si="69"/>
+        <v>-2.5476401760463618E-3</v>
+      </c>
+      <c r="S755">
+        <f t="shared" si="70"/>
+        <v>8.8809544131869343E-3</v>
+      </c>
+      <c r="T755">
+        <f t="shared" si="71"/>
+        <v>1.3321431619780401E-4</v>
+      </c>
+      <c r="U755">
+        <f t="shared" si="72"/>
+        <v>-19.124372280404788</v>
+      </c>
+    </row>
+    <row r="756" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A756" s="1">
+        <v>45506</v>
+      </c>
+      <c r="B756">
+        <v>0.61900001764297485</v>
+      </c>
+      <c r="C756">
+        <v>0.62699997425079346</v>
+      </c>
+      <c r="D756">
+        <v>0.61699998378753662</v>
+      </c>
+      <c r="E756">
+        <v>0.61699998378753662</v>
+      </c>
+      <c r="F756">
+        <v>1568800</v>
+      </c>
+      <c r="G756">
+        <v>15688</v>
+      </c>
+      <c r="H756">
+        <f t="shared" si="80"/>
+        <v>754</v>
+      </c>
+      <c r="I756">
+        <f>SUM($F$3:F756)/H756</f>
+        <v>4755116.1975712869</v>
+      </c>
+      <c r="N756">
+        <f t="shared" si="97"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="O756">
+        <f t="shared" si="98"/>
+        <v>0.61699998378753662</v>
+      </c>
+      <c r="P756">
+        <f t="shared" si="79"/>
+        <v>0.62033331394195557</v>
+      </c>
+      <c r="Q756">
+        <f t="shared" si="68"/>
+        <v>0.63085714550245364</v>
+      </c>
+      <c r="R756">
+        <f t="shared" si="69"/>
+        <v>-1.0523831560498076E-2</v>
+      </c>
+      <c r="S756">
+        <f t="shared" si="70"/>
+        <v>9.3605469684211375E-3</v>
+      </c>
+      <c r="T756">
+        <f t="shared" si="71"/>
+        <v>1.4040820452631707E-4</v>
+      </c>
+      <c r="U756">
+        <f t="shared" si="72"/>
+        <v>-74.951685309283818</v>
+      </c>
+    </row>
+    <row r="757" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A757" s="1">
+        <v>45509</v>
+      </c>
+      <c r="B757">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C757">
+        <v>0.62599998712539673</v>
+      </c>
+      <c r="D757">
+        <v>0.60500001907348633</v>
+      </c>
+      <c r="E757">
+        <v>0.60500001907348633</v>
+      </c>
+      <c r="F757">
+        <v>9152000</v>
+      </c>
+      <c r="G757">
+        <v>91520</v>
+      </c>
+      <c r="H757">
+        <f t="shared" si="80"/>
+        <v>755</v>
+      </c>
+      <c r="I757">
+        <f>SUM($F$3:F757)/H757</f>
+        <v>4760939.8847268214</v>
+      </c>
+      <c r="N757">
+        <f t="shared" si="97"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="O757">
+        <f t="shared" si="98"/>
+        <v>0.60500001907348633</v>
+      </c>
+      <c r="P757">
+        <f t="shared" si="79"/>
+        <v>0.61200000842412317</v>
+      </c>
+      <c r="Q757">
+        <f t="shared" si="68"/>
+        <v>0.62885714570681261</v>
+      </c>
+      <c r="R757">
+        <f t="shared" si="69"/>
+        <v>-1.6857137282689449E-2</v>
+      </c>
+      <c r="S757">
+        <f t="shared" si="70"/>
+        <v>9.5510198956444171E-3</v>
+      </c>
+      <c r="T757">
+        <f t="shared" si="71"/>
+        <v>1.4326529843466625E-4</v>
+      </c>
+      <c r="U757">
+        <f t="shared" si="72"/>
+        <v>-117.66378506779061</v>
+      </c>
+    </row>
+    <row r="758" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A758" s="1">
+        <v>45510</v>
+      </c>
+      <c r="B758">
+        <v>0.6119999885559082</v>
+      </c>
+      <c r="C758">
+        <v>0.61400002241134644</v>
+      </c>
+      <c r="D758">
+        <v>0.6029999852180481</v>
+      </c>
+      <c r="E758">
+        <v>0.60799998044967651</v>
+      </c>
+      <c r="F758">
+        <v>2768400</v>
+      </c>
+      <c r="G758">
+        <v>27684</v>
+      </c>
+      <c r="H758">
+        <f t="shared" si="80"/>
+        <v>756</v>
+      </c>
+      <c r="I758">
+        <f>SUM($F$3:F758)/H758</f>
+        <v>4758304.2499586642</v>
+      </c>
+      <c r="N758">
+        <f t="shared" si="97"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="O758">
+        <f t="shared" si="98"/>
+        <v>0.6029999852180481</v>
+      </c>
+      <c r="P758">
+        <f t="shared" si="79"/>
+        <v>0.60833332935969031</v>
+      </c>
+      <c r="Q758">
+        <f t="shared" si="68"/>
+        <v>0.62650000197546807</v>
+      </c>
+      <c r="R758">
+        <f t="shared" si="69"/>
+        <v>-1.8166672615777757E-2</v>
+      </c>
+      <c r="S758">
+        <f t="shared" si="70"/>
+        <v>9.7380961690630239E-3</v>
+      </c>
+      <c r="T758">
+        <f t="shared" si="71"/>
+        <v>1.4607144253594537E-4</v>
+      </c>
+      <c r="U758">
+        <f t="shared" si="72"/>
+        <v>-124.36840699582527</v>
+      </c>
+    </row>
+    <row r="759" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A759" s="1">
+        <v>45511</v>
+      </c>
+      <c r="B759">
+        <v>0.60699999332427979</v>
+      </c>
+      <c r="C759">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="D759">
+        <v>0.60500001907348633</v>
+      </c>
+      <c r="E759">
+        <v>0.60500001907348633</v>
+      </c>
+      <c r="F759">
+        <v>5739800</v>
+      </c>
+      <c r="G759">
+        <v>57398</v>
+      </c>
+      <c r="H759">
+        <f t="shared" si="80"/>
+        <v>757</v>
+      </c>
+      <c r="I759">
+        <f>SUM($F$3:F759)/H759</f>
+        <v>4759600.809734148</v>
+      </c>
+      <c r="N759">
+        <f t="shared" si="97"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="O759">
+        <f t="shared" si="98"/>
+        <v>0.6029999852180481</v>
+      </c>
+      <c r="P759">
+        <f t="shared" si="79"/>
+        <v>0.6066666841506958</v>
+      </c>
+      <c r="Q759">
+        <f t="shared" si="68"/>
+        <v>0.6239523830867949</v>
+      </c>
+      <c r="R759">
+        <f t="shared" si="69"/>
+        <v>-1.7285698936099103E-2</v>
+      </c>
+      <c r="S759">
+        <f t="shared" si="70"/>
+        <v>9.6598628426895639E-3</v>
+      </c>
+      <c r="T759">
+        <f t="shared" si="71"/>
+        <v>1.4489794264034345E-4</v>
+      </c>
+      <c r="U759">
+        <f t="shared" si="72"/>
+        <v>-119.29568233418316</v>
+      </c>
+    </row>
+    <row r="760" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A760" s="1">
+        <v>45512</v>
+      </c>
+      <c r="B760">
+        <v>0.6029999852180481</v>
+      </c>
+      <c r="C760">
+        <v>0.60799998044967651</v>
+      </c>
+      <c r="D760">
+        <v>0.59899997711181641</v>
+      </c>
+      <c r="E760">
+        <v>0.60399997234344482</v>
+      </c>
+      <c r="F760">
+        <v>6693200</v>
+      </c>
+      <c r="G760">
+        <v>66932</v>
+      </c>
+      <c r="H760">
+        <f t="shared" si="80"/>
+        <v>758</v>
+      </c>
+      <c r="I760">
+        <f>SUM($F$3:F760)/H760</f>
+        <v>4762151.732148747</v>
+      </c>
+      <c r="N760">
+        <f t="shared" si="97"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="O760">
+        <f t="shared" si="98"/>
+        <v>0.59899997711181641</v>
+      </c>
+      <c r="P760">
+        <f t="shared" si="79"/>
+        <v>0.60366664330164588</v>
+      </c>
+      <c r="Q760">
+        <f t="shared" si="68"/>
+        <v>0.62088095290320244</v>
+      </c>
+      <c r="R760">
+        <f t="shared" si="69"/>
+        <v>-1.7214309601556566E-2</v>
+      </c>
+      <c r="S760">
+        <f t="shared" si="70"/>
+        <v>8.8809529940287301E-3</v>
+      </c>
+      <c r="T760">
+        <f t="shared" si="71"/>
+        <v>1.3321429491043094E-4</v>
+      </c>
+      <c r="U760">
+        <f t="shared" si="72"/>
+        <v>-129.22269050127781</v>
+      </c>
+    </row>
+    <row r="761" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A761" s="1">
+        <v>45513</v>
+      </c>
+      <c r="B761">
+        <v>0.60799998044967651</v>
+      </c>
+      <c r="C761">
+        <v>0.61100000143051147</v>
+      </c>
+      <c r="D761">
+        <v>0.60199999809265137</v>
+      </c>
+      <c r="E761">
+        <v>0.6029999852180481</v>
+      </c>
+      <c r="F761">
+        <v>3697400</v>
+      </c>
+      <c r="G761">
+        <v>36974</v>
+      </c>
+      <c r="H761">
+        <f t="shared" si="80"/>
+        <v>759</v>
+      </c>
+      <c r="I761">
+        <f>SUM($F$3:F761)/H761</f>
+        <v>4760748.8971920293</v>
+      </c>
+      <c r="N761">
+        <f t="shared" si="97"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="O761">
+        <f t="shared" si="98"/>
+        <v>0.59899997711181641</v>
+      </c>
+      <c r="P761">
+        <f t="shared" si="79"/>
+        <v>0.60533332824707031</v>
+      </c>
+      <c r="Q761">
+        <f t="shared" si="68"/>
+        <v>0.6179761900788262</v>
+      </c>
+      <c r="R761">
+        <f t="shared" si="69"/>
+        <v>-1.2642861831755892E-2</v>
+      </c>
+      <c r="S761">
+        <f t="shared" si="70"/>
+        <v>8.1190452689216298E-3</v>
+      </c>
+      <c r="T761">
+        <f t="shared" si="71"/>
+        <v>1.2178567903382445E-4</v>
+      </c>
+      <c r="U761">
+        <f t="shared" si="72"/>
+        <v>-103.8123852661239</v>
+      </c>
+    </row>
+    <row r="762" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A762" s="1">
+        <v>45516</v>
+      </c>
+      <c r="B762">
+        <v>0.60100001096725464</v>
+      </c>
+      <c r="C762">
+        <v>0.60399997234344482</v>
+      </c>
+      <c r="D762">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="E762">
+        <v>0.60100001096725464</v>
+      </c>
+      <c r="F762">
+        <v>4351802</v>
+      </c>
+      <c r="G762">
+        <v>43518.01953125</v>
+      </c>
+      <c r="H762">
+        <f t="shared" si="80"/>
+        <v>760</v>
+      </c>
+      <c r="I762">
+        <f>SUM($F$3:F762)/H762</f>
+        <v>4760210.8091694079</v>
+      </c>
+      <c r="N762">
+        <f t="shared" si="97"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="O762">
+        <f t="shared" si="98"/>
+        <v>0.59899997711181641</v>
+      </c>
+      <c r="P762">
+        <f t="shared" si="79"/>
+        <v>0.60166666905085242</v>
+      </c>
+      <c r="Q762">
+        <f t="shared" si="68"/>
+        <v>0.61564285698391141</v>
+      </c>
+      <c r="R762">
+        <f t="shared" si="69"/>
+        <v>-1.3976187933058992E-2</v>
+      </c>
+      <c r="S762">
+        <f t="shared" si="70"/>
+        <v>8.071428253537143E-3</v>
+      </c>
+      <c r="T762">
+        <f t="shared" si="71"/>
+        <v>1.2107142380305714E-4</v>
+      </c>
+      <c r="U762">
+        <f t="shared" si="72"/>
+        <v>-115.43754499652695</v>
+      </c>
+    </row>
+    <row r="763" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A763" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B763">
+        <v>0.59899997711181641</v>
+      </c>
+      <c r="C763">
+        <v>0.6029999852180481</v>
+      </c>
+      <c r="D763">
+        <v>0.59799998998641968</v>
+      </c>
+      <c r="E763">
+        <v>0.6029999852180481</v>
+      </c>
+      <c r="F763">
+        <v>4076300</v>
+      </c>
+      <c r="G763">
+        <v>40763</v>
+      </c>
+      <c r="H763">
+        <f t="shared" si="80"/>
+        <v>761</v>
+      </c>
+      <c r="I763">
+        <f>SUM($F$3:F763)/H763</f>
+        <v>4759312.1090259524</v>
+      </c>
+      <c r="N763">
+        <f t="shared" si="97"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="O763">
+        <f t="shared" si="98"/>
+        <v>0.59799998998641968</v>
+      </c>
+      <c r="P763">
+        <f t="shared" si="79"/>
+        <v>0.60133332014083862</v>
+      </c>
+      <c r="Q763">
+        <f t="shared" si="68"/>
+        <v>0.61419047486214418</v>
+      </c>
+      <c r="R763">
+        <f t="shared" si="69"/>
+        <v>-1.2857154721305553E-2</v>
+      </c>
+      <c r="S763">
+        <f t="shared" si="70"/>
+        <v>8.6190487657274682E-3</v>
+      </c>
+      <c r="T763">
+        <f t="shared" si="71"/>
+        <v>1.2928573148591202E-4</v>
+      </c>
+      <c r="U763">
+        <f t="shared" si="72"/>
+        <v>-99.447592348631048</v>
+      </c>
+    </row>
+    <row r="764" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A764" s="1">
+        <v>45518</v>
+      </c>
+      <c r="B764">
+        <v>0.60199999809265137</v>
+      </c>
+      <c r="C764">
+        <v>0.60199999809265137</v>
+      </c>
+      <c r="D764">
+        <v>0.59700000286102295</v>
+      </c>
+      <c r="E764">
+        <v>0.59799998998641968</v>
+      </c>
+      <c r="F764">
+        <v>1305800</v>
+      </c>
+      <c r="G764">
+        <v>13058</v>
+      </c>
+      <c r="H764">
+        <f t="shared" si="80"/>
+        <v>762</v>
+      </c>
+      <c r="I764">
+        <f>SUM($F$3:F764)/H764</f>
+        <v>4754779.9409038713</v>
+      </c>
+      <c r="N764">
+        <f t="shared" si="97"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="O764">
+        <f t="shared" si="98"/>
+        <v>0.59700000286102295</v>
+      </c>
+      <c r="P764">
+        <f t="shared" si="79"/>
+        <v>0.59899999698003137</v>
+      </c>
+      <c r="Q764">
+        <f t="shared" si="68"/>
+        <v>0.61285714024589188</v>
+      </c>
+      <c r="R764">
+        <f t="shared" si="69"/>
+        <v>-1.3857143265860516E-2</v>
+      </c>
+      <c r="S764">
+        <f t="shared" si="70"/>
+        <v>9.2653060445980449E-3</v>
+      </c>
+      <c r="T764">
+        <f t="shared" si="71"/>
+        <v>1.3897959066897067E-4</v>
+      </c>
+      <c r="U764">
+        <f t="shared" si="72"/>
+        <v>-99.706318022379506</v>
+      </c>
+    </row>
+    <row r="765" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A765" s="1">
+        <v>45519</v>
+      </c>
+      <c r="B765">
+        <v>0.59799998998641968</v>
+      </c>
+      <c r="C765">
+        <v>0.6029999852180481</v>
+      </c>
+      <c r="D765">
+        <v>0.59600001573562622</v>
+      </c>
+      <c r="E765">
+        <v>0.59899997711181641</v>
+      </c>
+      <c r="F765">
+        <v>4198803</v>
+      </c>
+      <c r="G765">
+        <v>41988.03125</v>
+      </c>
+      <c r="H765">
+        <f t="shared" si="80"/>
+        <v>763</v>
+      </c>
+      <c r="I765">
+        <f>SUM($F$3:F765)/H765</f>
+        <v>4754051.2686353214</v>
+      </c>
+      <c r="N765">
+        <f t="shared" si="97"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="O765">
+        <f t="shared" si="98"/>
+        <v>0.59600001573562622</v>
+      </c>
+      <c r="P765">
+        <f t="shared" si="79"/>
+        <v>0.5993333260218302</v>
+      </c>
+      <c r="Q765">
+        <f t="shared" si="68"/>
+        <v>0.6108571390310924</v>
+      </c>
+      <c r="R765">
+        <f t="shared" si="69"/>
+        <v>-1.1523813009262196E-2</v>
+      </c>
+      <c r="S765">
+        <f t="shared" si="70"/>
+        <v>8.7891164280119692E-3</v>
+      </c>
+      <c r="T765">
+        <f t="shared" si="71"/>
+        <v>1.3183674642017955E-4</v>
+      </c>
+      <c r="U765">
+        <f t="shared" si="72"/>
+        <v>-87.409719385325388</v>
+      </c>
+    </row>
+    <row r="766" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A766" s="1">
+        <v>45520</v>
+      </c>
+      <c r="B766">
+        <v>0.60699999332427979</v>
+      </c>
+      <c r="C766">
+        <v>0.60699999332427979</v>
+      </c>
+      <c r="D766">
+        <v>0.59799998998641968</v>
+      </c>
+      <c r="E766">
+        <v>0.60100001096725464</v>
+      </c>
+      <c r="F766">
+        <v>4696003</v>
+      </c>
+      <c r="G766">
+        <v>46960.03125</v>
+      </c>
+      <c r="H766">
+        <f t="shared" si="80"/>
+        <v>764</v>
+      </c>
+      <c r="I766">
+        <f>SUM($F$3:F766)/H766</f>
+        <v>4753975.2892261129</v>
+      </c>
+      <c r="N766">
+        <f t="shared" si="97"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="O766">
+        <f t="shared" si="98"/>
+        <v>0.59600001573562622</v>
+      </c>
+      <c r="P766">
+        <f t="shared" si="79"/>
+        <v>0.60199999809265137</v>
+      </c>
+      <c r="Q766">
+        <f t="shared" si="68"/>
+        <v>0.60942856754575458</v>
+      </c>
+      <c r="R766">
+        <f t="shared" si="69"/>
+        <v>-7.4285694531032176E-3</v>
+      </c>
+      <c r="S766">
+        <f t="shared" si="70"/>
+        <v>8.2176875094978376E-3</v>
+      </c>
+      <c r="T766">
+        <f t="shared" si="71"/>
+        <v>1.2326531264246756E-4</v>
+      </c>
+      <c r="U766">
+        <f t="shared" si="72"/>
+        <v>-60.264881448440143</v>
+      </c>
+    </row>
+    <row r="767" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A767" s="1">
+        <v>45523</v>
+      </c>
+      <c r="B767">
+        <v>0.60500001907348633</v>
+      </c>
+      <c r="C767">
+        <v>0.60799998044967651</v>
+      </c>
+      <c r="D767">
+        <v>0.60100001096725464</v>
+      </c>
+      <c r="E767">
+        <v>0.60100001096725464</v>
+      </c>
+      <c r="F767">
+        <v>1853001</v>
+      </c>
+      <c r="G767">
+        <v>18530.009765625</v>
+      </c>
+      <c r="H767">
+        <f t="shared" si="80"/>
+        <v>765</v>
+      </c>
+      <c r="I767">
+        <f>SUM($F$3:F767)/H767</f>
+        <v>4750183.1659722226</v>
+      </c>
+      <c r="N767">
+        <f t="shared" si="97"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="O767">
+        <f t="shared" si="98"/>
+        <v>0.59600001573562622</v>
+      </c>
+      <c r="P767">
+        <f t="shared" si="79"/>
+        <v>0.60333333412806189</v>
+      </c>
+      <c r="Q767">
+        <f t="shared" si="68"/>
+        <v>0.60857142437072032</v>
+      </c>
+      <c r="R767">
+        <f t="shared" si="69"/>
+        <v>-5.2380902426584219E-3</v>
+      </c>
+      <c r="S767">
+        <f t="shared" si="70"/>
+        <v>7.8639448905478051E-3</v>
+      </c>
+      <c r="T767">
+        <f t="shared" si="71"/>
+        <v>1.1795917335821708E-4</v>
+      </c>
+      <c r="U767">
+        <f t="shared" si="72"/>
+        <v>-44.40595922753247</v>
+      </c>
+    </row>
+    <row r="768" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A768" s="1">
+        <v>45524</v>
+      </c>
+      <c r="B768">
+        <v>0.60699999332427979</v>
+      </c>
+      <c r="C768">
+        <v>0.60699999332427979</v>
+      </c>
+      <c r="D768">
+        <v>0.59500002861022949</v>
+      </c>
+      <c r="E768">
+        <v>0.59600001573562622</v>
+      </c>
+      <c r="F768">
+        <v>7468500</v>
+      </c>
+      <c r="G768">
+        <v>74685</v>
+      </c>
+      <c r="H768">
+        <f t="shared" si="80"/>
+        <v>766</v>
+      </c>
+      <c r="I768">
+        <f>SUM($F$3:F768)/H768</f>
+        <v>4753731.8824657314</v>
+      </c>
+      <c r="N768">
+        <f t="shared" si="97"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="O768">
+        <f t="shared" si="98"/>
+        <v>0.59500002861022949</v>
+      </c>
+      <c r="P768">
+        <f t="shared" si="79"/>
+        <v>0.59933334589004517</v>
+      </c>
+      <c r="Q768">
+        <f t="shared" si="68"/>
+        <v>0.60654761535780766</v>
+      </c>
+      <c r="R768">
+        <f t="shared" si="69"/>
+        <v>-7.2142694677624908E-3</v>
+      </c>
+      <c r="S768">
+        <f t="shared" si="70"/>
+        <v>6.2755109096059936E-3</v>
+      </c>
+      <c r="T768">
+        <f t="shared" si="71"/>
+        <v>9.4132663644089904E-5</v>
+      </c>
+      <c r="U768">
+        <f t="shared" si="72"/>
+        <v>-76.639385187688106</v>
+      </c>
+    </row>
+    <row r="769" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A769" s="1">
+        <v>45525</v>
+      </c>
+      <c r="B769">
+        <v>0.59399998188018799</v>
+      </c>
+      <c r="C769">
+        <v>0.60100001096725464</v>
+      </c>
+      <c r="D769">
+        <v>0.59399998188018799</v>
+      </c>
+      <c r="E769">
+        <v>0.59600001573562622</v>
+      </c>
+      <c r="F769">
+        <v>2800605</v>
+      </c>
+      <c r="G769">
+        <v>28006.05078125</v>
+      </c>
+      <c r="H769">
+        <f t="shared" si="80"/>
+        <v>767</v>
+      </c>
+      <c r="I769">
+        <f>SUM($F$3:F769)/H769</f>
+        <v>4751185.4328145375</v>
+      </c>
+      <c r="N769">
+        <f t="shared" si="97"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="O769">
+        <f t="shared" si="98"/>
+        <v>0.59399998188018799</v>
+      </c>
+      <c r="P769">
+        <f t="shared" si="79"/>
+        <v>0.59700000286102295</v>
+      </c>
+      <c r="Q769">
+        <f t="shared" si="68"/>
+        <v>0.60423809289932251</v>
+      </c>
+      <c r="R769">
+        <f t="shared" si="69"/>
+        <v>-7.2380900382995605E-3</v>
+      </c>
+      <c r="S769">
+        <f t="shared" si="70"/>
+        <v>4.4965999467032379E-3</v>
+      </c>
+      <c r="T769">
+        <f t="shared" si="71"/>
+        <v>6.7448999200548564E-5</v>
+      </c>
+      <c r="U769">
+        <f t="shared" si="72"/>
+        <v>-107.31204501312591</v>
+      </c>
+    </row>
+    <row r="770" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A770" s="1">
+        <v>45526</v>
+      </c>
+      <c r="B770">
+        <v>0.59500002861022949</v>
+      </c>
+      <c r="C770">
+        <v>0.59799998998641968</v>
+      </c>
+      <c r="D770">
+        <v>0.59399998188018799</v>
+      </c>
+      <c r="E770">
+        <v>0.59600001573562622</v>
+      </c>
+      <c r="F770">
+        <v>7126800</v>
+      </c>
+      <c r="G770">
+        <v>71268</v>
+      </c>
+      <c r="H770">
+        <f t="shared" si="80"/>
+        <v>768</v>
+      </c>
+      <c r="I770">
+        <f>SUM($F$3:F770)/H770</f>
+        <v>4754278.6809488935</v>
+      </c>
+      <c r="N770">
+        <f t="shared" si="97"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="O770">
+        <f t="shared" si="98"/>
+        <v>0.59399998188018799</v>
+      </c>
+      <c r="P770">
+        <f t="shared" si="79"/>
+        <v>0.59599999586741126</v>
+      </c>
+      <c r="Q770">
+        <f t="shared" si="68"/>
+        <v>0.60249999875114069</v>
+      </c>
+      <c r="R770">
+        <f t="shared" si="69"/>
+        <v>-6.5000028837294277E-3</v>
+      </c>
+      <c r="S770">
+        <f t="shared" si="70"/>
+        <v>3.4761907292060984E-3</v>
+      </c>
+      <c r="T770">
+        <f t="shared" si="71"/>
+        <v>5.2142860938091472E-5</v>
+      </c>
+      <c r="U770">
+        <f t="shared" si="72"/>
+        <v>-124.65758047773396</v>
+      </c>
+    </row>
+    <row r="771" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A771" s="1">
+        <v>45527</v>
+      </c>
+      <c r="B771">
+        <v>0.59399998188018799</v>
+      </c>
+      <c r="C771">
+        <v>0.59700000286102295</v>
+      </c>
+      <c r="D771">
+        <v>0.59200000762939453</v>
+      </c>
+      <c r="E771">
+        <v>0.59600001573562622</v>
+      </c>
+      <c r="F771">
+        <v>5647700</v>
+      </c>
+      <c r="G771">
+        <v>56477</v>
+      </c>
+      <c r="H771">
+        <f t="shared" si="80"/>
+        <v>769</v>
+      </c>
+      <c r="I771">
+        <f>SUM($F$3:F771)/H771</f>
+        <v>4755440.4772025356</v>
+      </c>
+      <c r="N771">
+        <f t="shared" si="97"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="O771">
+        <f t="shared" si="98"/>
+        <v>0.59200000762939453</v>
+      </c>
+      <c r="P771">
+        <f t="shared" si="79"/>
+        <v>0.59500000874201453</v>
+      </c>
+      <c r="Q771">
+        <f t="shared" si="68"/>
+        <v>0.60128571305956158</v>
+      </c>
+      <c r="R771">
+        <f t="shared" si="69"/>
+        <v>-6.2857043175470473E-3</v>
+      </c>
+      <c r="S771">
+        <f t="shared" si="70"/>
+        <v>3.1496574278591411E-3</v>
+      </c>
+      <c r="T771">
+        <f t="shared" si="71"/>
+        <v>4.7244861417887112E-5</v>
+      </c>
+      <c r="U771">
+        <f t="shared" si="72"/>
+        <v>-133.04524828529293</v>
+      </c>
+    </row>
+    <row r="772" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A772" s="1">
+        <v>45530</v>
+      </c>
+      <c r="B772">
+        <v>0.59500002861022949</v>
+      </c>
+      <c r="C772">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="D772">
+        <v>0.59500002861022949</v>
+      </c>
+      <c r="E772">
+        <v>0.59799998998641968</v>
+      </c>
+      <c r="F772">
+        <v>9660100</v>
+      </c>
+      <c r="G772">
+        <v>96601</v>
+      </c>
+      <c r="H772">
+        <f t="shared" si="80"/>
+        <v>770</v>
+      </c>
+      <c r="I772">
+        <f>SUM($F$3:F772)/H772</f>
+        <v>4761810.1648944803</v>
+      </c>
+      <c r="N772">
+        <f t="shared" si="97"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="O772">
+        <f t="shared" si="98"/>
+        <v>0.59200000762939453</v>
+      </c>
+      <c r="P772">
+        <f t="shared" si="79"/>
+        <v>0.59766668081283569</v>
+      </c>
+      <c r="Q772">
+        <f t="shared" si="68"/>
+        <v>0.60052380959192919</v>
+      </c>
+      <c r="R772">
+        <f t="shared" si="69"/>
+        <v>-2.8571287790934985E-3</v>
+      </c>
+      <c r="S772">
+        <f t="shared" si="70"/>
+        <v>2.9047585669017945E-3</v>
+      </c>
+      <c r="T772">
+        <f t="shared" si="71"/>
+        <v>4.3571378503526915E-5</v>
+      </c>
+      <c r="U772">
+        <f t="shared" si="72"/>
+        <v>-65.573522739525586</v>
+      </c>
+    </row>
+    <row r="773" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A773" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B773">
+        <v>0.59500002861022949</v>
+      </c>
+      <c r="C773">
+        <v>0.59500002861022949</v>
+      </c>
+      <c r="D773">
+        <v>0.5910000205039978</v>
+      </c>
+      <c r="E773">
+        <v>0.59299999475479126</v>
+      </c>
+      <c r="F773">
+        <v>7445000</v>
+      </c>
+      <c r="G773">
+        <v>74450</v>
+      </c>
+      <c r="H773">
+        <f t="shared" si="80"/>
+        <v>771</v>
+      </c>
+      <c r="I773">
+        <f>SUM($F$3:F773)/H773</f>
+        <v>4765290.3073524646</v>
+      </c>
+      <c r="N773">
+        <f t="shared" si="97"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="O773">
+        <f t="shared" si="98"/>
+        <v>0.5910000205039978</v>
+      </c>
+      <c r="P773">
+        <f t="shared" si="79"/>
+        <v>0.59300001462300622</v>
+      </c>
+      <c r="Q773">
+        <f t="shared" si="68"/>
+        <v>0.59954761891137998</v>
+      </c>
+      <c r="R773">
+        <f t="shared" si="69"/>
+        <v>-6.547604288373754E-3</v>
+      </c>
+      <c r="S773">
+        <f t="shared" si="70"/>
+        <v>2.8639399275487898E-3</v>
+      </c>
+      <c r="T773">
+        <f t="shared" si="71"/>
+        <v>4.2959098913231846E-5</v>
+      </c>
+      <c r="U773">
+        <f t="shared" si="72"/>
+        <v>-152.41484235036</v>
+      </c>
+    </row>
+    <row r="774" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A774" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B774">
+        <v>0.5910000205039978</v>
+      </c>
+      <c r="C774">
+        <v>0.59299999475479126</v>
+      </c>
+      <c r="D774">
+        <v>0.58799999952316284</v>
+      </c>
+      <c r="E774">
+        <v>0.5910000205039978</v>
+      </c>
+      <c r="F774">
+        <v>6097900</v>
+      </c>
+      <c r="G774">
+        <v>60979</v>
+      </c>
+      <c r="H774">
+        <f t="shared" si="80"/>
+        <v>772</v>
+      </c>
+      <c r="I774">
+        <f>SUM($F$3:F774)/H774</f>
+        <v>4767016.4857108165</v>
+      </c>
+      <c r="N774">
+        <f t="shared" si="97"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="O774">
+        <f t="shared" si="98"/>
+        <v>0.58799999952316284</v>
+      </c>
+      <c r="P774">
+        <f t="shared" si="79"/>
+        <v>0.59066667159398401</v>
+      </c>
+      <c r="Q774">
+        <f t="shared" si="68"/>
+        <v>0.59861904950368972</v>
+      </c>
+      <c r="R774">
+        <f t="shared" si="69"/>
+        <v>-7.9523779097057101E-3</v>
+      </c>
+      <c r="S774">
+        <f t="shared" si="70"/>
+        <v>3.197274645980519E-3</v>
+      </c>
+      <c r="T774">
+        <f t="shared" si="71"/>
+        <v>4.7959119689707783E-5</v>
+      </c>
+      <c r="U774">
+        <f t="shared" si="72"/>
+        <v>-165.81576061356108</v>
+      </c>
+    </row>
+    <row r="775" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A775" s="1">
+        <v>45533</v>
+      </c>
+      <c r="B775">
+        <v>0.58799999952316284</v>
+      </c>
+      <c r="C775">
+        <v>0.59700000286102295</v>
+      </c>
+      <c r="D775">
+        <v>0.58399999141693115</v>
+      </c>
+      <c r="E775">
+        <v>0.59299999475479126</v>
+      </c>
+      <c r="F775">
+        <v>6811600</v>
+      </c>
+      <c r="G775">
+        <v>68116</v>
+      </c>
+      <c r="H775">
+        <f t="shared" si="80"/>
+        <v>773</v>
+      </c>
+      <c r="I775">
+        <f>SUM($F$3:F775)/H775</f>
+        <v>4769661.4837888097</v>
+      </c>
+      <c r="N775">
+        <f t="shared" si="97"/>
+        <v>0.63599997758865356</v>
+      </c>
+      <c r="O775">
+        <f t="shared" si="98"/>
+        <v>0.58399999141693115</v>
+      </c>
+      <c r="P775">
+        <f t="shared" si="79"/>
+        <v>0.59133332967758179</v>
+      </c>
+      <c r="Q775">
+        <f t="shared" si="68"/>
+        <v>0.59761904960586898</v>
+      </c>
+      <c r="R775">
+        <f t="shared" si="69"/>
+        <v>-6.2857199282871923E-3</v>
+      </c>
+      <c r="S775">
+        <f t="shared" si="70"/>
+        <v>3.2448963243134304E-3</v>
+      </c>
+      <c r="T775">
+        <f t="shared" si="71"/>
+        <v>4.8673444864701452E-5</v>
+      </c>
+      <c r="U775">
+        <f t="shared" si="72"/>
+        <v>-129.1406422076706</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U775"/>
+  <dimension ref="A1:U776"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A755" workbookViewId="0">
-      <selection activeCell="A776" sqref="A776"/>
+    <sheetView tabSelected="1" topLeftCell="A764" workbookViewId="0">
+      <selection activeCell="A777" sqref="A777"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2897,7 +2897,7 @@
         <v>-163.48993288590609</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44427</v>
       </c>
@@ -2927,6 +2927,12 @@
         <f>SUM($F$3:F41)/H41</f>
         <v>24895773.282051284</v>
       </c>
+      <c r="K41" s="2">
+        <v>45565</v>
+      </c>
+      <c r="L41" s="2">
+        <v>45537</v>
+      </c>
       <c r="N41">
         <f t="shared" si="9"/>
         <v>1.0469999999999999</v>
@@ -33558,23 +33564,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q775" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q776" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R775" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R776" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S775" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S776" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T775" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T776" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U775" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U776" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -36704,7 +36710,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P775" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P776" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36814,7 +36820,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H775" si="80">H578+1</f>
+        <f t="shared" ref="H579:H776" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -47910,11 +47916,11 @@
         <v>4759347.6931855911</v>
       </c>
       <c r="N755">
-        <f t="shared" ref="N755:N775" si="97">IF(A755&lt;&gt;$K$40,MAX(N754,VLOOKUP(A755,A:C,3)),)</f>
+        <f t="shared" ref="N755:N776" si="97">IF(A755&lt;&gt;$K$40,MAX(N754,VLOOKUP(A755,A:C,3)),)</f>
         <v>0.63599997758865356</v>
       </c>
       <c r="O755">
-        <f t="shared" ref="O755:O775" si="98">IF(A755&lt;&gt;$K$40,MIN(O754,VLOOKUP(A755,A:D,4)),)</f>
+        <f t="shared" ref="O755:O776" si="98">IF(A755&lt;&gt;$K$40,MIN(O754,VLOOKUP(A755,A:D,4)),)</f>
         <v>0.62599998712539673</v>
       </c>
       <c r="P755">
@@ -49200,6 +49206,69 @@
       <c r="U775">
         <f t="shared" si="72"/>
         <v>-129.1406422076706</v>
+      </c>
+    </row>
+    <row r="776" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A776" s="1">
+        <v>45534</v>
+      </c>
+      <c r="B776">
+        <v>0.59600001573562622</v>
+      </c>
+      <c r="C776">
+        <v>0.61599999666213989</v>
+      </c>
+      <c r="D776">
+        <v>0.59600001573562622</v>
+      </c>
+      <c r="E776">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="F776">
+        <v>6956200</v>
+      </c>
+      <c r="G776">
+        <v>69562</v>
+      </c>
+      <c r="H776">
+        <f t="shared" si="80"/>
+        <v>774</v>
+      </c>
+      <c r="I776">
+        <f>SUM($F$3:F776)/H776</f>
+        <v>4772486.4689518735</v>
+      </c>
+      <c r="N776">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="O776">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="P776">
+        <f t="shared" si="79"/>
+        <v>0.60733334223429358</v>
+      </c>
+      <c r="Q776">
+        <f t="shared" si="68"/>
+        <v>0.59802381197611487</v>
+      </c>
+      <c r="R776">
+        <f t="shared" si="69"/>
+        <v>9.3095302581787109E-3</v>
+      </c>
+      <c r="S776">
+        <f t="shared" si="70"/>
+        <v>3.6428542364211258E-3</v>
+      </c>
+      <c r="T776">
+        <f t="shared" si="71"/>
+        <v>5.4642813546316885E-5</v>
+      </c>
+      <c r="U776">
+        <f t="shared" si="72"/>
+        <v>170.37062431435149</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U776"/>
+  <dimension ref="A1:U794"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A764" workbookViewId="0">
-      <selection activeCell="A777" sqref="A777"/>
+    <sheetView tabSelected="1" topLeftCell="A777" workbookViewId="0">
+      <selection activeCell="A795" sqref="A795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33564,23 +33564,23 @@
         <v>0.70500000317891443</v>
       </c>
       <c r="Q527">
-        <f t="shared" ref="Q527:Q776" si="68">SUM(P514:P527)/14</f>
+        <f t="shared" ref="Q527:Q781" si="68">SUM(P514:P527)/14</f>
         <v>0.73757142821947741</v>
       </c>
       <c r="R527">
-        <f t="shared" ref="R527:R776" si="69">P527-Q527</f>
+        <f t="shared" ref="R527:R781" si="69">P527-Q527</f>
         <v>-3.2571425040562985E-2</v>
       </c>
       <c r="S527">
-        <f t="shared" ref="S527:S776" si="70">AVEDEV(P514:P527)</f>
+        <f t="shared" ref="S527:S781" si="70">AVEDEV(P514:P527)</f>
         <v>1.8523810874848144E-2</v>
       </c>
       <c r="T527">
-        <f t="shared" ref="T527:T776" si="71">0.015*S527</f>
+        <f t="shared" ref="T527:T781" si="71">0.015*S527</f>
         <v>2.7785716312272215E-4</v>
       </c>
       <c r="U527">
-        <f t="shared" ref="U527:U776" si="72">R527/T527</f>
+        <f t="shared" ref="U527:U781" si="72">R527/T527</f>
         <v>-117.22362912838439</v>
       </c>
     </row>
@@ -36710,7 +36710,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P776" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P794" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36820,7 +36820,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H776" si="80">H578+1</f>
+        <f t="shared" ref="H579:H794" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -47916,11 +47916,11 @@
         <v>4759347.6931855911</v>
       </c>
       <c r="N755">
-        <f t="shared" ref="N755:N776" si="97">IF(A755&lt;&gt;$K$40,MAX(N754,VLOOKUP(A755,A:C,3)),)</f>
+        <f t="shared" ref="N755:N775" si="97">IF(A755&lt;&gt;$K$40,MAX(N754,VLOOKUP(A755,A:C,3)),)</f>
         <v>0.63599997758865356</v>
       </c>
       <c r="O755">
-        <f t="shared" ref="O755:O776" si="98">IF(A755&lt;&gt;$K$40,MIN(O754,VLOOKUP(A755,A:D,4)),)</f>
+        <f t="shared" ref="O755:O775" si="98">IF(A755&lt;&gt;$K$40,MIN(O754,VLOOKUP(A755,A:D,4)),)</f>
         <v>0.62599998712539673</v>
       </c>
       <c r="P755">
@@ -49239,12 +49239,12 @@
         <v>4772486.4689518735</v>
       </c>
       <c r="N776">
-        <f t="shared" si="97"/>
-        <v>0</v>
+        <f>VLOOKUP(L41,A:C,3)</f>
+        <v>0.61000001430511475</v>
       </c>
       <c r="O776">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f>VLOOKUP(L41,A:D,4)</f>
+        <v>0.59600001573562622</v>
       </c>
       <c r="P776">
         <f t="shared" si="79"/>
@@ -49269,6 +49269,1140 @@
       <c r="U776">
         <f t="shared" si="72"/>
         <v>170.37062431435149</v>
+      </c>
+    </row>
+    <row r="777" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A777" s="1">
+        <v>45537</v>
+      </c>
+      <c r="B777">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="C777">
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="D777">
+        <v>0.59600001573562622</v>
+      </c>
+      <c r="E777">
+        <v>0.59600001573562622</v>
+      </c>
+      <c r="F777">
+        <v>9393600</v>
+      </c>
+      <c r="G777">
+        <v>93936</v>
+      </c>
+      <c r="H777">
+        <f t="shared" si="80"/>
+        <v>775</v>
+      </c>
+      <c r="I777">
+        <f>SUM($F$3:F777)/H777</f>
+        <v>4778449.1960887099</v>
+      </c>
+      <c r="N777">
+        <f t="shared" ref="N777:N794" si="99">IF(A777&lt;&gt;$K$41,MAX(N776,VLOOKUP(A777,A:C,3)),)</f>
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="O777">
+        <f t="shared" ref="O777:O794" si="100">IF(A777&lt;&gt;$K$41,MIN(O776,VLOOKUP(A777,A:D,4)),)</f>
+        <v>0.59600001573562622</v>
+      </c>
+      <c r="P777">
+        <f t="shared" si="79"/>
+        <v>0.60066668192545569</v>
+      </c>
+      <c r="Q777">
+        <f t="shared" si="68"/>
+        <v>0.5979761949607304</v>
+      </c>
+      <c r="R777">
+        <f t="shared" si="69"/>
+        <v>2.6904869647252916E-3</v>
+      </c>
+      <c r="S777">
+        <f t="shared" si="70"/>
+        <v>3.5952372210366307E-3</v>
+      </c>
+      <c r="T777">
+        <f t="shared" si="71"/>
+        <v>5.3928558315549455E-5</v>
+      </c>
+      <c r="U777">
+        <f t="shared" si="72"/>
+        <v>49.889836642444266</v>
+      </c>
+    </row>
+    <row r="778" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A778" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B778">
+        <v>0.59799998998641968</v>
+      </c>
+      <c r="C778">
+        <v>0.60600000619888306</v>
+      </c>
+      <c r="D778">
+        <v>0.59600001573562622</v>
+      </c>
+      <c r="E778">
+        <v>0.60500001907348633</v>
+      </c>
+      <c r="F778">
+        <v>9093200</v>
+      </c>
+      <c r="G778">
+        <v>90932</v>
+      </c>
+      <c r="H778">
+        <f t="shared" si="80"/>
+        <v>776</v>
+      </c>
+      <c r="I778">
+        <f>SUM($F$3:F778)/H778</f>
+        <v>4784009.4419700382</v>
+      </c>
+      <c r="N778">
+        <f t="shared" si="99"/>
+        <v>0.61000001430511475</v>
+      </c>
+      <c r="O778">
+        <f t="shared" si="100"/>
+        <v>0.59600001573562622</v>
+      </c>
+      <c r="P778">
+        <f t="shared" si="79"/>
+        <v>0.60233334700266516</v>
+      </c>
+      <c r="Q778">
+        <f t="shared" si="68"/>
+        <v>0.59821429139091842</v>
+      </c>
+      <c r="R778">
+        <f t="shared" si="69"/>
+        <v>4.1190556117467469E-3</v>
+      </c>
+      <c r="S778">
+        <f t="shared" si="70"/>
+        <v>3.833333651224759E-3</v>
+      </c>
+      <c r="T778">
+        <f t="shared" si="71"/>
+        <v>5.7500004768371382E-5</v>
+      </c>
+      <c r="U778">
+        <f t="shared" si="72"/>
+        <v>71.635743828885495</v>
+      </c>
+    </row>
+    <row r="779" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A779" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B779">
+        <v>0.60199999809265137</v>
+      </c>
+      <c r="C779">
+        <v>0.61100000143051147</v>
+      </c>
+      <c r="D779">
+        <v>0.59899997711181641</v>
+      </c>
+      <c r="E779">
+        <v>0.60500001907348633</v>
+      </c>
+      <c r="F779">
+        <v>3489500</v>
+      </c>
+      <c r="G779">
+        <v>34895</v>
+      </c>
+      <c r="H779">
+        <f t="shared" si="80"/>
+        <v>777</v>
+      </c>
+      <c r="I779">
+        <f>SUM($F$3:F779)/H779</f>
+        <v>4782343.4066521879</v>
+      </c>
+      <c r="N779">
+        <f t="shared" si="99"/>
+        <v>0.61100000143051147</v>
+      </c>
+      <c r="O779">
+        <f t="shared" si="100"/>
+        <v>0.59600001573562622</v>
+      </c>
+      <c r="P779">
+        <f t="shared" si="79"/>
+        <v>0.60499999920527137</v>
+      </c>
+      <c r="Q779">
+        <f t="shared" si="68"/>
+        <v>0.59861905376116442</v>
+      </c>
+      <c r="R779">
+        <f t="shared" si="69"/>
+        <v>6.3809454441069446E-3</v>
+      </c>
+      <c r="S779">
+        <f t="shared" si="70"/>
+        <v>4.2380960214705565E-3</v>
+      </c>
+      <c r="T779">
+        <f t="shared" si="71"/>
+        <v>6.3571440322058347E-5</v>
+      </c>
+      <c r="U779">
+        <f t="shared" si="72"/>
+        <v>100.37440416294692</v>
+      </c>
+    </row>
+    <row r="780" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A780" s="1">
+        <v>45540</v>
+      </c>
+      <c r="B780">
+        <v>0.60699999332427979</v>
+      </c>
+      <c r="C780">
+        <v>0.60799998044967651</v>
+      </c>
+      <c r="D780">
+        <v>0.60500001907348633</v>
+      </c>
+      <c r="E780">
+        <v>0.60699999332427979</v>
+      </c>
+      <c r="F780">
+        <v>4116200</v>
+      </c>
+      <c r="G780">
+        <v>41162</v>
+      </c>
+      <c r="H780">
+        <f t="shared" si="80"/>
+        <v>778</v>
+      </c>
+      <c r="I780">
+        <f>SUM($F$3:F780)/H780</f>
+        <v>4781487.1811937662</v>
+      </c>
+      <c r="N780">
+        <f t="shared" si="99"/>
+        <v>0.61100000143051147</v>
+      </c>
+      <c r="O780">
+        <f t="shared" si="100"/>
+        <v>0.59600001573562622</v>
+      </c>
+      <c r="P780">
+        <f t="shared" si="79"/>
+        <v>0.60666666428248084</v>
+      </c>
+      <c r="Q780">
+        <f t="shared" si="68"/>
+        <v>0.59895238706043785</v>
+      </c>
+      <c r="R780">
+        <f t="shared" si="69"/>
+        <v>7.7142772220429867E-3</v>
+      </c>
+      <c r="S780">
+        <f t="shared" si="70"/>
+        <v>4.5714293207440903E-3</v>
+      </c>
+      <c r="T780">
+        <f t="shared" si="71"/>
+        <v>6.8571439811161345E-5</v>
+      </c>
+      <c r="U780">
+        <f t="shared" si="72"/>
+        <v>112.49985771463029</v>
+      </c>
+    </row>
+    <row r="781" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A781" s="1">
+        <v>45541</v>
+      </c>
+      <c r="B781">
+        <v>0.60799998044967651</v>
+      </c>
+      <c r="C781">
+        <v>0.60799998044967651</v>
+      </c>
+      <c r="D781">
+        <v>0.59700000286102295</v>
+      </c>
+      <c r="E781">
+        <v>0.59799998998641968</v>
+      </c>
+      <c r="F781">
+        <v>5824000</v>
+      </c>
+      <c r="G781">
+        <v>58240</v>
+      </c>
+      <c r="H781">
+        <f t="shared" si="80"/>
+        <v>779</v>
+      </c>
+      <c r="I781">
+        <f>SUM($F$3:F781)/H781</f>
+        <v>4782825.4518212453</v>
+      </c>
+      <c r="N781">
+        <f t="shared" si="99"/>
+        <v>0.61100000143051147</v>
+      </c>
+      <c r="O781">
+        <f t="shared" si="100"/>
+        <v>0.59600001573562622</v>
+      </c>
+      <c r="P781">
+        <f t="shared" si="79"/>
+        <v>0.60099999109903968</v>
+      </c>
+      <c r="Q781">
+        <f t="shared" si="68"/>
+        <v>0.59878571970122219</v>
+      </c>
+      <c r="R781">
+        <f t="shared" si="69"/>
+        <v>2.214271397817491E-3</v>
+      </c>
+      <c r="S781">
+        <f t="shared" si="70"/>
+        <v>4.4047619615282174E-3</v>
+      </c>
+      <c r="T781">
+        <f t="shared" si="71"/>
+        <v>6.6071429422923257E-5</v>
+      </c>
+      <c r="U781">
+        <f t="shared" si="72"/>
+        <v>33.51329639993012</v>
+      </c>
+    </row>
+    <row r="782" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A782" s="1">
+        <v>45544</v>
+      </c>
+      <c r="B782">
+        <v>0.59700000286102295</v>
+      </c>
+      <c r="C782">
+        <v>0.59799998998641968</v>
+      </c>
+      <c r="D782">
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="E782">
+        <v>0.59299999475479126</v>
+      </c>
+      <c r="F782">
+        <v>5220902</v>
+      </c>
+      <c r="G782">
+        <v>52209.01953125</v>
+      </c>
+      <c r="H782">
+        <f t="shared" si="80"/>
+        <v>780</v>
+      </c>
+      <c r="I782">
+        <f>SUM($F$3:F782)/H782</f>
+        <v>4783387.0884214742</v>
+      </c>
+      <c r="N782">
+        <f t="shared" si="99"/>
+        <v>0.61100000143051147</v>
+      </c>
+      <c r="O782">
+        <f t="shared" si="100"/>
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="P782">
+        <f t="shared" si="79"/>
+        <v>0.59333332379659021</v>
+      </c>
+      <c r="Q782">
+        <f t="shared" ref="Q782:Q794" si="101">SUM(P769:P782)/14</f>
+        <v>0.59835714669454687</v>
+      </c>
+      <c r="R782">
+        <f t="shared" ref="R782:R794" si="102">P782-Q782</f>
+        <v>-5.0238228979566646E-3</v>
+      </c>
+      <c r="S782">
+        <f t="shared" ref="S782:S794" si="103">AVEDEV(P769:P782)</f>
+        <v>4.6938779402752439E-3</v>
+      </c>
+      <c r="T782">
+        <f t="shared" ref="T782:T794" si="104">0.015*S782</f>
+        <v>7.0408169104128657E-5</v>
+      </c>
+      <c r="U782">
+        <f t="shared" ref="U782:U794" si="105">R782/T782</f>
+        <v>-71.352841039322996</v>
+      </c>
+    </row>
+    <row r="783" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A783" s="1">
+        <v>45545</v>
+      </c>
+      <c r="B783">
+        <v>0.59200000762939453</v>
+      </c>
+      <c r="C783">
+        <v>0.59799998998641968</v>
+      </c>
+      <c r="D783">
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="E783">
+        <v>0.59500002861022949</v>
+      </c>
+      <c r="F783">
+        <v>9336202</v>
+      </c>
+      <c r="G783">
+        <v>93362.0234375</v>
+      </c>
+      <c r="H783">
+        <f t="shared" si="80"/>
+        <v>781</v>
+      </c>
+      <c r="I783">
+        <f>SUM($F$3:F783)/H783</f>
+        <v>4789216.5569382198</v>
+      </c>
+      <c r="N783">
+        <f t="shared" si="99"/>
+        <v>0.61100000143051147</v>
+      </c>
+      <c r="O783">
+        <f t="shared" si="100"/>
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="P783">
+        <f t="shared" si="79"/>
+        <v>0.59400000174840295</v>
+      </c>
+      <c r="Q783">
+        <f t="shared" si="101"/>
+        <v>0.59814286090078816</v>
+      </c>
+      <c r="R783">
+        <f t="shared" si="102"/>
+        <v>-4.1428591523852143E-3</v>
+      </c>
+      <c r="S783">
+        <f t="shared" si="103"/>
+        <v>4.8775514777825713E-3</v>
+      </c>
+      <c r="T783">
+        <f t="shared" si="104"/>
+        <v>7.3163272166738573E-5</v>
+      </c>
+      <c r="U783">
+        <f t="shared" si="105"/>
+        <v>-56.624847819048718</v>
+      </c>
+    </row>
+    <row r="784" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A784" s="1">
+        <v>45546</v>
+      </c>
+      <c r="B784">
+        <v>0.59399998188018799</v>
+      </c>
+      <c r="C784">
+        <v>0.60399997234344482</v>
+      </c>
+      <c r="D784">
+        <v>0.59399998188018799</v>
+      </c>
+      <c r="E784">
+        <v>0.60199999809265137</v>
+      </c>
+      <c r="F784">
+        <v>6085700</v>
+      </c>
+      <c r="G784">
+        <v>60857</v>
+      </c>
+      <c r="H784">
+        <f t="shared" si="80"/>
+        <v>782</v>
+      </c>
+      <c r="I784">
+        <f>SUM($F$3:F784)/H784</f>
+        <v>4790874.464154412</v>
+      </c>
+      <c r="N784">
+        <f t="shared" si="99"/>
+        <v>0.61100000143051147</v>
+      </c>
+      <c r="O784">
+        <f t="shared" si="100"/>
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="P784">
+        <f t="shared" si="79"/>
+        <v>0.5999999841054281</v>
+      </c>
+      <c r="Q784">
+        <f t="shared" si="101"/>
+        <v>0.59842857434636076</v>
+      </c>
+      <c r="R784">
+        <f t="shared" si="102"/>
+        <v>1.5714097590673326E-3</v>
+      </c>
+      <c r="S784">
+        <f t="shared" si="103"/>
+        <v>4.8571413471585013E-3</v>
+      </c>
+      <c r="T784">
+        <f t="shared" si="104"/>
+        <v>7.2857120207377524E-5</v>
+      </c>
+      <c r="U784">
+        <f t="shared" si="105"/>
+        <v>21.568375947258637</v>
+      </c>
+    </row>
+    <row r="785" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A785" s="1">
+        <v>45547</v>
+      </c>
+      <c r="B785">
+        <v>0.60699999332427979</v>
+      </c>
+      <c r="C785">
+        <v>0.60699999332427979</v>
+      </c>
+      <c r="D785">
+        <v>0.59899997711181641</v>
+      </c>
+      <c r="E785">
+        <v>0.59899997711181641</v>
+      </c>
+      <c r="F785">
+        <v>5269600</v>
+      </c>
+      <c r="G785">
+        <v>52696</v>
+      </c>
+      <c r="H785">
+        <f t="shared" si="80"/>
+        <v>783</v>
+      </c>
+      <c r="I785">
+        <f>SUM($F$3:F785)/H785</f>
+        <v>4791485.8633061945</v>
+      </c>
+      <c r="N785">
+        <f t="shared" si="99"/>
+        <v>0.61100000143051147</v>
+      </c>
+      <c r="O785">
+        <f t="shared" si="100"/>
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="P785">
+        <f t="shared" si="79"/>
+        <v>0.60166664918263757</v>
+      </c>
+      <c r="Q785">
+        <f t="shared" si="101"/>
+        <v>0.59890476294926231</v>
+      </c>
+      <c r="R785">
+        <f t="shared" si="102"/>
+        <v>2.7618862333752547E-3</v>
+      </c>
+      <c r="S785">
+        <f t="shared" si="103"/>
+        <v>4.7755079204533212E-3</v>
+      </c>
+      <c r="T785">
+        <f t="shared" si="104"/>
+        <v>7.1632618806799809E-5</v>
+      </c>
+      <c r="U785">
+        <f t="shared" si="105"/>
+        <v>38.556265000227512</v>
+      </c>
+    </row>
+    <row r="786" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A786" s="1">
+        <v>45548</v>
+      </c>
+      <c r="B786">
+        <v>0.61599999666213989</v>
+      </c>
+      <c r="C786">
+        <v>0.61699998378753662</v>
+      </c>
+      <c r="D786">
+        <v>0.59399998188018799</v>
+      </c>
+      <c r="E786">
+        <v>0.59399998188018799</v>
+      </c>
+      <c r="F786">
+        <v>2761600</v>
+      </c>
+      <c r="G786">
+        <v>27616</v>
+      </c>
+      <c r="H786">
+        <f t="shared" si="80"/>
+        <v>784</v>
+      </c>
+      <c r="I786">
+        <f>SUM($F$3:F786)/H786</f>
+        <v>4788896.7231744258</v>
+      </c>
+      <c r="N786">
+        <f t="shared" si="99"/>
+        <v>0.61699998378753662</v>
+      </c>
+      <c r="O786">
+        <f t="shared" si="100"/>
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="P786">
+        <f t="shared" si="79"/>
+        <v>0.60166664918263757</v>
+      </c>
+      <c r="Q786">
+        <f t="shared" si="101"/>
+        <v>0.59919047497567668</v>
+      </c>
+      <c r="R786">
+        <f t="shared" si="102"/>
+        <v>2.4761742069608905E-3</v>
+      </c>
+      <c r="S786">
+        <f t="shared" si="103"/>
+        <v>4.8027190626884052E-3</v>
+      </c>
+      <c r="T786">
+        <f t="shared" si="104"/>
+        <v>7.204078594032608E-5</v>
+      </c>
+      <c r="U786">
+        <f t="shared" si="105"/>
+        <v>34.371837767178064</v>
+      </c>
+    </row>
+    <row r="787" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A787" s="1">
+        <v>45553</v>
+      </c>
+      <c r="B787">
+        <v>0.59500002861022949</v>
+      </c>
+      <c r="C787">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="D787">
+        <v>0.59200000762939453</v>
+      </c>
+      <c r="E787">
+        <v>0.59700000286102295</v>
+      </c>
+      <c r="F787">
+        <v>2285100</v>
+      </c>
+      <c r="G787">
+        <v>22851</v>
+      </c>
+      <c r="H787">
+        <f t="shared" si="80"/>
+        <v>785</v>
+      </c>
+      <c r="I787">
+        <f>SUM($F$3:F787)/H787</f>
+        <v>4785707.173208599</v>
+      </c>
+      <c r="N787">
+        <f t="shared" si="99"/>
+        <v>0.61699998378753662</v>
+      </c>
+      <c r="O787">
+        <f t="shared" si="100"/>
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="P787">
+        <f t="shared" si="79"/>
+        <v>0.59633334477742517</v>
+      </c>
+      <c r="Q787">
+        <f t="shared" si="101"/>
+        <v>0.59942856998670657</v>
+      </c>
+      <c r="R787">
+        <f t="shared" si="102"/>
+        <v>-3.0952252092814048E-3</v>
+      </c>
+      <c r="S787">
+        <f t="shared" si="103"/>
+        <v>4.4965969056499399E-3</v>
+      </c>
+      <c r="T787">
+        <f t="shared" si="104"/>
+        <v>6.7448953584749096E-5</v>
+      </c>
+      <c r="U787">
+        <f t="shared" si="105"/>
+        <v>-45.889892204069227</v>
+      </c>
+    </row>
+    <row r="788" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A788" s="1">
+        <v>45554</v>
+      </c>
+      <c r="B788">
+        <v>0.59700000286102295</v>
+      </c>
+      <c r="C788">
+        <v>0.60600000619888306</v>
+      </c>
+      <c r="D788">
+        <v>0.59299999475479126</v>
+      </c>
+      <c r="E788">
+        <v>0.60100001096725464</v>
+      </c>
+      <c r="F788">
+        <v>7232706</v>
+      </c>
+      <c r="G788">
+        <v>72327.0625</v>
+      </c>
+      <c r="H788">
+        <f t="shared" si="80"/>
+        <v>786</v>
+      </c>
+      <c r="I788">
+        <f>SUM($F$3:F788)/H788</f>
+        <v>4788820.4032681296</v>
+      </c>
+      <c r="N788">
+        <f t="shared" si="99"/>
+        <v>0.61699998378753662</v>
+      </c>
+      <c r="O788">
+        <f t="shared" si="100"/>
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="P788">
+        <f t="shared" si="79"/>
+        <v>0.60000000397364295</v>
+      </c>
+      <c r="Q788">
+        <f t="shared" si="101"/>
+        <v>0.60009523658525354</v>
+      </c>
+      <c r="R788">
+        <f t="shared" si="102"/>
+        <v>-9.5232611610596152E-5</v>
+      </c>
+      <c r="S788">
+        <f t="shared" si="103"/>
+        <v>3.6530616332073724E-3</v>
+      </c>
+      <c r="T788">
+        <f t="shared" si="104"/>
+        <v>5.4795924498110587E-5</v>
+      </c>
+      <c r="U788">
+        <f t="shared" si="105"/>
+        <v>-1.7379506319649713</v>
+      </c>
+    </row>
+    <row r="789" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A789" s="1">
+        <v>45555</v>
+      </c>
+      <c r="B789">
+        <v>0.59799998998641968</v>
+      </c>
+      <c r="C789">
+        <v>0.60199999809265137</v>
+      </c>
+      <c r="D789">
+        <v>0.59600001573562622</v>
+      </c>
+      <c r="E789">
+        <v>0.59899997711181641</v>
+      </c>
+      <c r="F789">
+        <v>9177702</v>
+      </c>
+      <c r="G789">
+        <v>91777.0234375</v>
+      </c>
+      <c r="H789">
+        <f t="shared" si="80"/>
+        <v>787</v>
+      </c>
+      <c r="I789">
+        <f>SUM($F$3:F789)/H789</f>
+        <v>4794397.1270250957</v>
+      </c>
+      <c r="N789">
+        <f t="shared" si="99"/>
+        <v>0.61699998378753662</v>
+      </c>
+      <c r="O789">
+        <f t="shared" si="100"/>
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="P789">
+        <f t="shared" si="79"/>
+        <v>0.59899999698003137</v>
+      </c>
+      <c r="Q789">
+        <f t="shared" si="101"/>
+        <v>0.60064285567828579</v>
+      </c>
+      <c r="R789">
+        <f t="shared" si="102"/>
+        <v>-1.6428586982544235E-3</v>
+      </c>
+      <c r="S789">
+        <f t="shared" si="103"/>
+        <v>3.0272112411706526E-3</v>
+      </c>
+      <c r="T789">
+        <f t="shared" si="104"/>
+        <v>4.5408168617559785E-5</v>
+      </c>
+      <c r="U789">
+        <f t="shared" si="105"/>
+        <v>-36.179805270083364</v>
+      </c>
+    </row>
+    <row r="790" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A790" s="1">
+        <v>45558</v>
+      </c>
+      <c r="B790">
+        <v>0.59799998998641968</v>
+      </c>
+      <c r="C790">
+        <v>0.60699999332427979</v>
+      </c>
+      <c r="D790">
+        <v>0.59799998998641968</v>
+      </c>
+      <c r="E790">
+        <v>0.60199999809265137</v>
+      </c>
+      <c r="F790">
+        <v>5855300</v>
+      </c>
+      <c r="G790">
+        <v>58553</v>
+      </c>
+      <c r="H790">
+        <f t="shared" si="80"/>
+        <v>788</v>
+      </c>
+      <c r="I790">
+        <f>SUM($F$3:F790)/H790</f>
+        <v>4795743.4504679572</v>
+      </c>
+      <c r="N790">
+        <f t="shared" si="99"/>
+        <v>0.61699998378753662</v>
+      </c>
+      <c r="O790">
+        <f t="shared" si="100"/>
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="P790">
+        <f t="shared" si="79"/>
+        <v>0.60233332713445031</v>
+      </c>
+      <c r="Q790">
+        <f t="shared" si="101"/>
+        <v>0.60028571174258272</v>
+      </c>
+      <c r="R790">
+        <f t="shared" si="102"/>
+        <v>2.0476153918675966E-3</v>
+      </c>
+      <c r="S790">
+        <f t="shared" si="103"/>
+        <v>2.7210878677108585E-3</v>
+      </c>
+      <c r="T790">
+        <f t="shared" si="104"/>
+        <v>4.0816318015662879E-5</v>
+      </c>
+      <c r="U790">
+        <f t="shared" si="105"/>
+        <v>50.166587566321965</v>
+      </c>
+    </row>
+    <row r="791" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A791" s="1">
+        <v>45559</v>
+      </c>
+      <c r="B791">
+        <v>0.60399997234344482</v>
+      </c>
+      <c r="C791">
+        <v>0.62699997425079346</v>
+      </c>
+      <c r="D791">
+        <v>0.59899997711181641</v>
+      </c>
+      <c r="E791">
+        <v>0.62400001287460327</v>
+      </c>
+      <c r="F791">
+        <v>10925100</v>
+      </c>
+      <c r="G791">
+        <v>109251</v>
+      </c>
+      <c r="H791">
+        <f t="shared" si="80"/>
+        <v>789</v>
+      </c>
+      <c r="I791">
+        <f>SUM($F$3:F791)/H791</f>
+        <v>4803511.963205006</v>
+      </c>
+      <c r="N791">
+        <f t="shared" si="99"/>
+        <v>0.62699997425079346</v>
+      </c>
+      <c r="O791">
+        <f t="shared" si="100"/>
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="P791">
+        <f t="shared" si="79"/>
+        <v>0.61666665474573767</v>
+      </c>
+      <c r="Q791">
+        <f t="shared" si="101"/>
+        <v>0.60142856694403146</v>
+      </c>
+      <c r="R791">
+        <f t="shared" si="102"/>
+        <v>1.5238087801706213E-2</v>
+      </c>
+      <c r="S791">
+        <f t="shared" si="103"/>
+        <v>3.7619031610942916E-3</v>
+      </c>
+      <c r="T791">
+        <f t="shared" si="104"/>
+        <v>5.6428547416414372E-5</v>
+      </c>
+      <c r="U791">
+        <f t="shared" si="105"/>
+        <v>270.04217722027767</v>
+      </c>
+    </row>
+    <row r="792" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A792" s="1">
+        <v>45560</v>
+      </c>
+      <c r="B792">
+        <v>0.625</v>
+      </c>
+      <c r="C792">
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="D792">
+        <v>0.625</v>
+      </c>
+      <c r="E792">
+        <v>0.63300001621246338</v>
+      </c>
+      <c r="F792">
+        <v>8760703</v>
+      </c>
+      <c r="G792">
+        <v>87607.03125</v>
+      </c>
+      <c r="H792">
+        <f t="shared" si="80"/>
+        <v>790</v>
+      </c>
+      <c r="I792">
+        <f>SUM($F$3:F792)/H792</f>
+        <v>4808521.0657832278</v>
+      </c>
+      <c r="N792">
+        <f t="shared" si="99"/>
+        <v>0.64499998092651367</v>
+      </c>
+      <c r="O792">
+        <f t="shared" si="100"/>
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="P792">
+        <f t="shared" si="79"/>
+        <v>0.63433333237965905</v>
+      </c>
+      <c r="Q792">
+        <f t="shared" si="101"/>
+        <v>0.60371428018524542</v>
+      </c>
+      <c r="R792">
+        <f t="shared" si="102"/>
+        <v>3.0619052194413632E-2</v>
+      </c>
+      <c r="S792">
+        <f t="shared" si="103"/>
+        <v>6.8299328388811142E-3</v>
+      </c>
+      <c r="T792">
+        <f t="shared" si="104"/>
+        <v>1.0244899258321672E-4</v>
+      </c>
+      <c r="U792">
+        <f t="shared" si="105"/>
+        <v>298.8711886995136</v>
+      </c>
+    </row>
+    <row r="793" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A793" s="1">
+        <v>45561</v>
+      </c>
+      <c r="B793">
+        <v>0.63099998235702515</v>
+      </c>
+      <c r="C793">
+        <v>0.65499997138977051</v>
+      </c>
+      <c r="D793">
+        <v>0.62800002098083496</v>
+      </c>
+      <c r="E793">
+        <v>0.65299999713897705</v>
+      </c>
+      <c r="F793">
+        <v>9384605</v>
+      </c>
+      <c r="G793">
+        <v>93846.046875</v>
+      </c>
+      <c r="H793">
+        <f t="shared" si="80"/>
+        <v>791</v>
+      </c>
+      <c r="I793">
+        <f>SUM($F$3:F793)/H793</f>
+        <v>4814306.2540692165</v>
+      </c>
+      <c r="N793">
+        <f t="shared" si="99"/>
+        <v>0.65499997138977051</v>
+      </c>
+      <c r="O793">
+        <f t="shared" si="100"/>
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="P793">
+        <f t="shared" si="79"/>
+        <v>0.64533332983652747</v>
+      </c>
+      <c r="Q793">
+        <f t="shared" si="101"/>
+        <v>0.60659523237319213</v>
+      </c>
+      <c r="R793">
+        <f t="shared" si="102"/>
+        <v>3.8738097463335341E-2</v>
+      </c>
+      <c r="S793">
+        <f t="shared" si="103"/>
+        <v>1.0945578821662281E-2</v>
+      </c>
+      <c r="T793">
+        <f t="shared" si="104"/>
+        <v>1.6418368232493419E-4</v>
+      </c>
+      <c r="U793">
+        <f t="shared" si="105"/>
+        <v>235.94365112769967</v>
+      </c>
+    </row>
+    <row r="794" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A794" s="1">
+        <v>45562</v>
+      </c>
+      <c r="B794">
+        <v>0.65700000524520874</v>
+      </c>
+      <c r="C794">
+        <v>0.70099997520446777</v>
+      </c>
+      <c r="D794">
+        <v>0.65700000524520874</v>
+      </c>
+      <c r="E794">
+        <v>0.69700002670288086</v>
+      </c>
+      <c r="F794">
+        <v>5738600</v>
+      </c>
+      <c r="G794">
+        <v>57386</v>
+      </c>
+      <c r="H794">
+        <f t="shared" si="80"/>
+        <v>792</v>
+      </c>
+      <c r="I794">
+        <f>SUM($F$3:F794)/H794</f>
+        <v>4815473.2916272096</v>
+      </c>
+      <c r="N794">
+        <f t="shared" si="99"/>
+        <v>0.70099997520446777</v>
+      </c>
+      <c r="O794">
+        <f t="shared" si="100"/>
+        <v>0.58899998664855957</v>
+      </c>
+      <c r="P794">
+        <f t="shared" si="79"/>
+        <v>0.68500000238418579</v>
+      </c>
+      <c r="Q794">
+        <f t="shared" si="101"/>
+        <v>0.61219047080902833</v>
+      </c>
+      <c r="R794">
+        <f t="shared" si="102"/>
+        <v>7.280953157515746E-2</v>
+      </c>
+      <c r="S794">
+        <f t="shared" si="103"/>
+        <v>1.8938776587142436E-2</v>
+      </c>
+      <c r="T794">
+        <f t="shared" si="104"/>
+        <v>2.8408164880713654E-4</v>
+      </c>
+      <c r="U794">
+        <f t="shared" si="105"/>
+        <v>256.29790548205375</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U794"/>
+  <dimension ref="A1:U795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A777" workbookViewId="0">
-      <selection activeCell="A795" sqref="A795"/>
+    <sheetView tabSelected="1" topLeftCell="A783" workbookViewId="0">
+      <selection activeCell="A796" sqref="A796"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2966,7 +2966,7 @@
         <v>-118.72329059829116</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44428</v>
       </c>
@@ -2996,6 +2996,12 @@
         <f>SUM($F$3:F42)/H42</f>
         <v>24462619.399999999</v>
       </c>
+      <c r="K42" s="2">
+        <v>45596</v>
+      </c>
+      <c r="L42" s="2">
+        <v>45573</v>
+      </c>
       <c r="N42">
         <f t="shared" si="9"/>
         <v>1.0469999999999999</v>
@@ -36710,7 +36716,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P794" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P795" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36820,7 +36826,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H794" si="80">H578+1</f>
+        <f t="shared" ref="H579:H795" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -49302,11 +49308,11 @@
         <v>4778449.1960887099</v>
       </c>
       <c r="N777">
-        <f t="shared" ref="N777:N794" si="99">IF(A777&lt;&gt;$K$41,MAX(N776,VLOOKUP(A777,A:C,3)),)</f>
+        <f t="shared" ref="N777:N795" si="99">IF(A777&lt;&gt;$K$41,MAX(N776,VLOOKUP(A777,A:C,3)),)</f>
         <v>0.61000001430511475</v>
       </c>
       <c r="O777">
-        <f t="shared" ref="O777:O794" si="100">IF(A777&lt;&gt;$K$41,MIN(O776,VLOOKUP(A777,A:D,4)),)</f>
+        <f t="shared" ref="O777:O795" si="100">IF(A777&lt;&gt;$K$41,MIN(O776,VLOOKUP(A777,A:D,4)),)</f>
         <v>0.59600001573562622</v>
       </c>
       <c r="P777">
@@ -49629,23 +49635,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q794" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q795" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R794" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R795" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S794" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S795" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T794" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T795" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U794" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U795" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -50403,6 +50409,69 @@
       <c r="U794">
         <f t="shared" si="105"/>
         <v>256.29790548205375</v>
+      </c>
+    </row>
+    <row r="795" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A795" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B795">
+        <v>0.72299998998641968</v>
+      </c>
+      <c r="C795">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="D795">
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="E795">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="F795">
+        <v>12479809</v>
+      </c>
+      <c r="G795">
+        <v>124798.09375</v>
+      </c>
+      <c r="H795">
+        <f t="shared" si="80"/>
+        <v>793</v>
+      </c>
+      <c r="I795">
+        <f>SUM($F$3:F795)/H795</f>
+        <v>4825138.2799101509</v>
+      </c>
+      <c r="N795">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="O795">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="P795">
+        <f t="shared" si="79"/>
+        <v>0.74966667095820105</v>
+      </c>
+      <c r="Q795">
+        <f t="shared" si="101"/>
+        <v>0.62280951937039686</v>
+      </c>
+      <c r="R795">
+        <f t="shared" si="102"/>
+        <v>0.1268571515878042</v>
+      </c>
+      <c r="S795">
+        <f t="shared" si="103"/>
+        <v>3.1870751153855049E-2</v>
+      </c>
+      <c r="T795">
+        <f t="shared" si="104"/>
+        <v>4.7806126730782572E-4</v>
+      </c>
+      <c r="U795">
+        <f t="shared" si="105"/>
+        <v>265.35751850843906</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U812"/>
+  <dimension ref="A1:U813"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A796" workbookViewId="0">
-      <selection activeCell="A813" sqref="A813"/>
+    <sheetView tabSelected="1" topLeftCell="A801" workbookViewId="0">
+      <selection activeCell="A814" sqref="A814"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3035,7 +3035,7 @@
         <v>-128.11070193058828</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44431</v>
       </c>
@@ -3065,6 +3065,12 @@
         <f>SUM($F$3:F43)/H43</f>
         <v>24003338.609756097</v>
       </c>
+      <c r="K43" s="2">
+        <v>45625</v>
+      </c>
+      <c r="L43" s="2">
+        <v>45597</v>
+      </c>
       <c r="N43">
         <f t="shared" si="9"/>
         <v>1.0469999999999999</v>
@@ -36716,7 +36722,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P812" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P813" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36826,7 +36832,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H812" si="80">H578+1</f>
+        <f t="shared" ref="H579:H813" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -49635,23 +49641,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q812" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q813" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R812" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R813" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S812" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S813" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T812" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T813" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U812" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U813" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -50505,11 +50511,11 @@
         <v>4824032.838751574</v>
       </c>
       <c r="N796">
-        <f t="shared" ref="N796:N812" si="106">IF(A796&lt;&gt;$K$42,MAX(N795,VLOOKUP(A796,A:C,3)),)</f>
+        <f t="shared" ref="N796:N813" si="106">IF(A796&lt;&gt;$K$42,MAX(N795,VLOOKUP(A796,A:C,3)),)</f>
         <v>0.84399998188018799</v>
       </c>
       <c r="O796">
-        <f t="shared" ref="O796:O812" si="107">IF(A796&lt;&gt;$K$42,MIN(O795,VLOOKUP(A796,A:D,4)),)</f>
+        <f t="shared" ref="O796:O813" si="107">IF(A796&lt;&gt;$K$42,MIN(O795,VLOOKUP(A796,A:D,4)),)</f>
         <v>0.80099999904632568</v>
       </c>
       <c r="P796">
@@ -51499,10 +51505,10 @@
         <v>0.77899998426437378</v>
       </c>
       <c r="F812">
-        <v>0</v>
+        <v>5124300</v>
       </c>
       <c r="G812">
-        <v>0</v>
+        <v>51243</v>
       </c>
       <c r="H812">
         <f t="shared" si="80"/>
@@ -51510,7 +51516,7 @@
       </c>
       <c r="I812">
         <f>SUM($F$3:F812)/H812</f>
-        <v>4776464.4706404321</v>
+        <v>4782790.7669367287</v>
       </c>
       <c r="N812">
         <f t="shared" si="106"/>
@@ -51543,6 +51549,69 @@
       <c r="U812">
         <f t="shared" si="105"/>
         <v>28.42190150493505</v>
+      </c>
+    </row>
+    <row r="813" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A813" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B813">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C813">
+        <v>0.7839999794960022</v>
+      </c>
+      <c r="D813">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="E813">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="F813">
+        <v>0</v>
+      </c>
+      <c r="G813">
+        <v>0</v>
+      </c>
+      <c r="H813">
+        <f t="shared" si="80"/>
+        <v>811</v>
+      </c>
+      <c r="I813">
+        <f>SUM($F$3:F813)/H813</f>
+        <v>4776893.3677173248</v>
+      </c>
+      <c r="N813">
+        <f t="shared" si="106"/>
+        <v>0</v>
+      </c>
+      <c r="O813">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="P813">
+        <f t="shared" si="79"/>
+        <v>0.77733333905537927</v>
+      </c>
+      <c r="Q813">
+        <f t="shared" si="101"/>
+        <v>0.77383333870342796</v>
+      </c>
+      <c r="R813">
+        <f t="shared" si="102"/>
+        <v>3.5000003519513045E-3</v>
+      </c>
+      <c r="S813">
+        <f t="shared" si="103"/>
+        <v>1.511905327135203E-2</v>
+      </c>
+      <c r="T813">
+        <f t="shared" si="104"/>
+        <v>2.2678579907028045E-4</v>
+      </c>
+      <c r="U813">
+        <f t="shared" si="105"/>
+        <v>15.433066648351565</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U813"/>
+  <dimension ref="A1:U833"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A801" workbookViewId="0">
-      <selection activeCell="A814" sqref="A814"/>
+    <sheetView tabSelected="1" topLeftCell="A808" workbookViewId="0">
+      <selection activeCell="A834" sqref="A834"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -36722,7 +36722,7 @@
         <v>0.65399998426437378</v>
       </c>
       <c r="P577">
-        <f t="shared" ref="P577:P813" si="79">(C577+D577+E577)/3</f>
+        <f t="shared" ref="P577:P831" si="79">(C577+D577+E577)/3</f>
         <v>0.67700000603993737</v>
       </c>
       <c r="Q577">
@@ -36832,7 +36832,7 @@
         <v>42072</v>
       </c>
       <c r="H579">
-        <f t="shared" ref="H579:H813" si="80">H578+1</f>
+        <f t="shared" ref="H579:H833" si="80">H578+1</f>
         <v>577</v>
       </c>
       <c r="I579">
@@ -49641,23 +49641,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q813" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q833" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R813" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R833" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S813" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S833" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T813" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T833" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U813" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U833" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -50511,11 +50511,11 @@
         <v>4824032.838751574</v>
       </c>
       <c r="N796">
-        <f t="shared" ref="N796:N813" si="106">IF(A796&lt;&gt;$K$42,MAX(N795,VLOOKUP(A796,A:C,3)),)</f>
+        <f t="shared" ref="N796:N812" si="106">IF(A796&lt;&gt;$K$42,MAX(N795,VLOOKUP(A796,A:C,3)),)</f>
         <v>0.84399998188018799</v>
       </c>
       <c r="O796">
-        <f t="shared" ref="O796:O813" si="107">IF(A796&lt;&gt;$K$42,MIN(O795,VLOOKUP(A796,A:D,4)),)</f>
+        <f t="shared" ref="O796:O812" si="107">IF(A796&lt;&gt;$K$42,MIN(O795,VLOOKUP(A796,A:D,4)),)</f>
         <v>0.80099999904632568</v>
       </c>
       <c r="P796">
@@ -51568,10 +51568,10 @@
         <v>0.77700001001358032</v>
       </c>
       <c r="F813">
-        <v>0</v>
+        <v>1578400</v>
       </c>
       <c r="G813">
-        <v>0</v>
+        <v>1225130.75</v>
       </c>
       <c r="H813">
         <f t="shared" si="80"/>
@@ -51579,15 +51579,15 @@
       </c>
       <c r="I813">
         <f>SUM($F$3:F813)/H813</f>
-        <v>4776893.3677173248</v>
+        <v>4778839.6069281753</v>
       </c>
       <c r="N813">
-        <f t="shared" si="106"/>
-        <v>0</v>
+        <f>VLOOKUP(L43,A:C,3)</f>
+        <v>0.77799999713897705</v>
       </c>
       <c r="O813">
-        <f t="shared" si="107"/>
-        <v>0</v>
+        <f>VLOOKUP(L43,A:D,4)</f>
+        <v>0.76499998569488525</v>
       </c>
       <c r="P813">
         <f t="shared" si="79"/>
@@ -51612,6 +51612,1266 @@
       <c r="U813">
         <f t="shared" si="105"/>
         <v>15.433066648351565</v>
+      </c>
+    </row>
+    <row r="814" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A814" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B814">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C814">
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="D814">
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="E814">
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="F814">
+        <v>4991607</v>
+      </c>
+      <c r="G814">
+        <v>3845460.25</v>
+      </c>
+      <c r="H814">
+        <f t="shared" si="80"/>
+        <v>812</v>
+      </c>
+      <c r="I814">
+        <f>SUM($F$3:F814)/H814</f>
+        <v>4779101.6357373772</v>
+      </c>
+      <c r="N814">
+        <f t="shared" ref="N814:N833" si="108">IF(A814&lt;&gt;$K$43,MAX(N813,VLOOKUP(A814,A:C,3)),)</f>
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="O814">
+        <f t="shared" ref="O814:O833" si="109">IF(A814&lt;&gt;$K$43,MIN(O813,VLOOKUP(A814,A:D,4)),)</f>
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="P814">
+        <f t="shared" si="79"/>
+        <v>0.76933332284291589</v>
+      </c>
+      <c r="Q814">
+        <f t="shared" si="101"/>
+        <v>0.77450000530197516</v>
+      </c>
+      <c r="R814">
+        <f t="shared" si="102"/>
+        <v>-5.1666824590592686E-3</v>
+      </c>
+      <c r="S814">
+        <f t="shared" si="103"/>
+        <v>1.426191050179147E-2</v>
+      </c>
+      <c r="T814">
+        <f t="shared" si="104"/>
+        <v>2.1392865752687204E-4</v>
+      </c>
+      <c r="U814">
+        <f t="shared" si="105"/>
+        <v>-24.151427484231608</v>
+      </c>
+    </row>
+    <row r="815" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A815" s="1">
+        <v>45600</v>
+      </c>
+      <c r="B815">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C815">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="D815">
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="E815">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="F815">
+        <v>2753100</v>
+      </c>
+      <c r="G815">
+        <v>27531</v>
+      </c>
+      <c r="H815">
+        <f t="shared" si="80"/>
+        <v>813</v>
+      </c>
+      <c r="I815">
+        <f>SUM($F$3:F815)/H815</f>
+        <v>4776609.6288053505</v>
+      </c>
+      <c r="N815">
+        <f t="shared" si="108"/>
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="O815">
+        <f t="shared" si="109"/>
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="P815">
+        <f t="shared" si="79"/>
+        <v>0.77533334493637085</v>
+      </c>
+      <c r="Q815">
+        <f t="shared" si="101"/>
+        <v>0.77554762505349661</v>
+      </c>
+      <c r="R815">
+        <f t="shared" si="102"/>
+        <v>-2.1428011712576467E-4</v>
+      </c>
+      <c r="S815">
+        <f t="shared" si="103"/>
+        <v>1.291497082126382E-2</v>
+      </c>
+      <c r="T815">
+        <f t="shared" si="104"/>
+        <v>1.9372456231895731E-4</v>
+      </c>
+      <c r="U815">
+        <f t="shared" si="105"/>
+        <v>-1.1061071170364227</v>
+      </c>
+    </row>
+    <row r="816" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A816" s="1">
+        <v>45601</v>
+      </c>
+      <c r="B816">
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="C816">
+        <v>0.80800002813339233</v>
+      </c>
+      <c r="D816">
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="E816">
+        <v>0.80699998140335083</v>
+      </c>
+      <c r="F816">
+        <v>4192207</v>
+      </c>
+      <c r="G816">
+        <v>41922.0703125</v>
+      </c>
+      <c r="H816">
+        <f t="shared" si="80"/>
+        <v>814</v>
+      </c>
+      <c r="I816">
+        <f>SUM($F$3:F816)/H816</f>
+        <v>4775891.6894579241</v>
+      </c>
+      <c r="N816">
+        <f t="shared" si="108"/>
+        <v>0.80800002813339233</v>
+      </c>
+      <c r="O816">
+        <f t="shared" si="109"/>
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="P816">
+        <f t="shared" si="79"/>
+        <v>0.79833332697550452</v>
+      </c>
+      <c r="Q816">
+        <f t="shared" si="101"/>
+        <v>0.77992857637859536</v>
+      </c>
+      <c r="R816">
+        <f t="shared" si="102"/>
+        <v>1.8404750596909158E-2</v>
+      </c>
+      <c r="S816">
+        <f t="shared" si="103"/>
+        <v>1.0404765605926498E-2</v>
+      </c>
+      <c r="T816">
+        <f t="shared" si="104"/>
+        <v>1.5607148408889747E-4</v>
+      </c>
+      <c r="U816">
+        <f t="shared" si="105"/>
+        <v>117.92513350117125</v>
+      </c>
+    </row>
+    <row r="817" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A817" s="1">
+        <v>45602</v>
+      </c>
+      <c r="B817">
+        <v>0.82099997997283936</v>
+      </c>
+      <c r="C817">
+        <v>0.82400000095367432</v>
+      </c>
+      <c r="D817">
+        <v>0.79600000381469727</v>
+      </c>
+      <c r="E817">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="F817">
+        <v>4483827</v>
+      </c>
+      <c r="G817">
+        <v>44838.26953125</v>
+      </c>
+      <c r="H817">
+        <f t="shared" si="80"/>
+        <v>815</v>
+      </c>
+      <c r="I817">
+        <f>SUM($F$3:F817)/H817</f>
+        <v>4775533.3278757669</v>
+      </c>
+      <c r="N817">
+        <f t="shared" si="108"/>
+        <v>0.82400000095367432</v>
+      </c>
+      <c r="O817">
+        <f t="shared" si="109"/>
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="P817">
+        <f t="shared" si="79"/>
+        <v>0.80666667222976685</v>
+      </c>
+      <c r="Q817">
+        <f t="shared" si="101"/>
+        <v>0.78490476806958509</v>
+      </c>
+      <c r="R817">
+        <f t="shared" si="102"/>
+        <v>2.1761904160181755E-2</v>
+      </c>
+      <c r="S817">
+        <f t="shared" si="103"/>
+        <v>8.6666672002701419E-3</v>
+      </c>
+      <c r="T817">
+        <f t="shared" si="104"/>
+        <v>1.3000000800405214E-4</v>
+      </c>
+      <c r="U817">
+        <f t="shared" si="105"/>
+        <v>167.39925246391854</v>
+      </c>
+    </row>
+    <row r="818" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A818" s="1">
+        <v>45603</v>
+      </c>
+      <c r="B818">
+        <v>0.79500001668930054</v>
+      </c>
+      <c r="C818">
+        <v>0.81300002336502075</v>
+      </c>
+      <c r="D818">
+        <v>0.79100000858306885</v>
+      </c>
+      <c r="E818">
+        <v>0.81300002336502075</v>
+      </c>
+      <c r="F818">
+        <v>1981100</v>
+      </c>
+      <c r="G818">
+        <v>19811</v>
+      </c>
+      <c r="H818">
+        <f t="shared" si="80"/>
+        <v>816</v>
+      </c>
+      <c r="I818">
+        <f>SUM($F$3:F818)/H818</f>
+        <v>4772108.7772288602</v>
+      </c>
+      <c r="N818">
+        <f t="shared" si="108"/>
+        <v>0.82400000095367432</v>
+      </c>
+      <c r="O818">
+        <f t="shared" si="109"/>
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="P818">
+        <f t="shared" si="79"/>
+        <v>0.80566668510437012</v>
+      </c>
+      <c r="Q818">
+        <f t="shared" si="101"/>
+        <v>0.78754762666566014</v>
+      </c>
+      <c r="R818">
+        <f t="shared" si="102"/>
+        <v>1.8119058438709978E-2</v>
+      </c>
+      <c r="S818">
+        <f t="shared" si="103"/>
+        <v>8.738096271242406E-3</v>
+      </c>
+      <c r="T818">
+        <f t="shared" si="104"/>
+        <v>1.3107144406863608E-4</v>
+      </c>
+      <c r="U818">
+        <f t="shared" si="105"/>
+        <v>138.23803168920503</v>
+      </c>
+    </row>
+    <row r="819" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A819" s="1">
+        <v>45604</v>
+      </c>
+      <c r="B819">
+        <v>0.81300002336502075</v>
+      </c>
+      <c r="C819">
+        <v>0.82899999618530273</v>
+      </c>
+      <c r="D819">
+        <v>0.81099998950958252</v>
+      </c>
+      <c r="E819">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="F819">
+        <v>4235800</v>
+      </c>
+      <c r="G819">
+        <v>42358</v>
+      </c>
+      <c r="H819">
+        <f t="shared" si="80"/>
+        <v>817</v>
+      </c>
+      <c r="I819">
+        <f>SUM($F$3:F819)/H819</f>
+        <v>4771452.3405370256</v>
+      </c>
+      <c r="N819">
+        <f t="shared" si="108"/>
+        <v>0.82899999618530273</v>
+      </c>
+      <c r="O819">
+        <f t="shared" si="109"/>
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="P819">
+        <f t="shared" si="79"/>
+        <v>0.81799999872843421</v>
+      </c>
+      <c r="Q819">
+        <f t="shared" si="101"/>
+        <v>0.78935714988481431</v>
+      </c>
+      <c r="R819">
+        <f t="shared" si="102"/>
+        <v>2.8642848843619895E-2</v>
+      </c>
+      <c r="S819">
+        <f t="shared" si="103"/>
+        <v>1.0789118251022023E-2</v>
+      </c>
+      <c r="T819">
+        <f t="shared" si="104"/>
+        <v>1.6183677376533035E-4</v>
+      </c>
+      <c r="U819">
+        <f t="shared" si="105"/>
+        <v>176.98603461505692</v>
+      </c>
+    </row>
+    <row r="820" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A820" s="1">
+        <v>45607</v>
+      </c>
+      <c r="B820">
+        <v>0.81300002336502075</v>
+      </c>
+      <c r="C820">
+        <v>0.84200000762939453</v>
+      </c>
+      <c r="D820">
+        <v>0.80800002813339233</v>
+      </c>
+      <c r="E820">
+        <v>0.8410000205039978</v>
+      </c>
+      <c r="F820">
+        <v>6566310</v>
+      </c>
+      <c r="G820">
+        <v>65663.1015625</v>
+      </c>
+      <c r="H820">
+        <f t="shared" si="80"/>
+        <v>818</v>
+      </c>
+      <c r="I820">
+        <f>SUM($F$3:F820)/H820</f>
+        <v>4773646.5430547064</v>
+      </c>
+      <c r="N820">
+        <f t="shared" si="108"/>
+        <v>0.84200000762939453</v>
+      </c>
+      <c r="O820">
+        <f t="shared" si="109"/>
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="P820">
+        <f t="shared" si="79"/>
+        <v>0.83033335208892822</v>
+      </c>
+      <c r="Q820">
+        <f t="shared" si="101"/>
+        <v>0.79266667366027821</v>
+      </c>
+      <c r="R820">
+        <f t="shared" si="102"/>
+        <v>3.7666678428650013E-2</v>
+      </c>
+      <c r="S820">
+        <f t="shared" si="103"/>
+        <v>1.3714287962232294E-2</v>
+      </c>
+      <c r="T820">
+        <f t="shared" si="104"/>
+        <v>2.057143194334844E-4</v>
+      </c>
+      <c r="U820">
+        <f t="shared" si="105"/>
+        <v>183.10187901542335</v>
+      </c>
+    </row>
+    <row r="821" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A821" s="1">
+        <v>45608</v>
+      </c>
+      <c r="B821">
+        <v>0.84200000762939453</v>
+      </c>
+      <c r="C821">
+        <v>0.85500001907348633</v>
+      </c>
+      <c r="D821">
+        <v>0.82999998331069946</v>
+      </c>
+      <c r="E821">
+        <v>0.83600002527236938</v>
+      </c>
+      <c r="F821">
+        <v>5118502</v>
+      </c>
+      <c r="G821">
+        <v>51185.01953125</v>
+      </c>
+      <c r="H821">
+        <f t="shared" si="80"/>
+        <v>819</v>
+      </c>
+      <c r="I821">
+        <f>SUM($F$3:F821)/H821</f>
+        <v>4774067.6119887056</v>
+      </c>
+      <c r="N821">
+        <f t="shared" si="108"/>
+        <v>0.85500001907348633</v>
+      </c>
+      <c r="O821">
+        <f t="shared" si="109"/>
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="P821">
+        <f t="shared" si="79"/>
+        <v>0.84033334255218506</v>
+      </c>
+      <c r="Q821">
+        <f t="shared" si="101"/>
+        <v>0.79650000731150306</v>
+      </c>
+      <c r="R821">
+        <f t="shared" si="102"/>
+        <v>4.3833335240682003E-2</v>
+      </c>
+      <c r="S821">
+        <f t="shared" si="103"/>
+        <v>1.7190476258595773E-2</v>
+      </c>
+      <c r="T821">
+        <f t="shared" si="104"/>
+        <v>2.578571438789366E-4</v>
+      </c>
+      <c r="U821">
+        <f t="shared" si="105"/>
+        <v>169.99077311296702</v>
+      </c>
+    </row>
+    <row r="822" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A822" s="1">
+        <v>45609</v>
+      </c>
+      <c r="B822">
+        <v>0.83499997854232788</v>
+      </c>
+      <c r="C822">
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="D822">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="E822">
+        <v>0.84700000286102295</v>
+      </c>
+      <c r="F822">
+        <v>3950401.25</v>
+      </c>
+      <c r="G822">
+        <v>39504.01171875</v>
+      </c>
+      <c r="H822">
+        <f t="shared" si="80"/>
+        <v>820</v>
+      </c>
+      <c r="I822">
+        <f>SUM($F$3:F822)/H822</f>
+        <v>4773063.1408155486</v>
+      </c>
+      <c r="N822">
+        <f t="shared" si="108"/>
+        <v>0.85500001907348633</v>
+      </c>
+      <c r="O822">
+        <f t="shared" si="109"/>
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="P822">
+        <f t="shared" si="79"/>
+        <v>0.84066667159398401</v>
+      </c>
+      <c r="Q822">
+        <f t="shared" si="101"/>
+        <v>0.80085714941933051</v>
+      </c>
+      <c r="R822">
+        <f t="shared" si="102"/>
+        <v>3.98095221746535E-2</v>
+      </c>
+      <c r="S822">
+        <f t="shared" si="103"/>
+        <v>1.9503403683098015E-2</v>
+      </c>
+      <c r="T822">
+        <f t="shared" si="104"/>
+        <v>2.9255105524647021E-4</v>
+      </c>
+      <c r="U822">
+        <f t="shared" si="105"/>
+        <v>136.07717853252836</v>
+      </c>
+    </row>
+    <row r="823" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A823" s="1">
+        <v>45610</v>
+      </c>
+      <c r="B823">
+        <v>0.84200000762939453</v>
+      </c>
+      <c r="C823">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="D823">
+        <v>0.81999999284744263</v>
+      </c>
+      <c r="E823">
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="F823">
+        <v>2537800</v>
+      </c>
+      <c r="G823">
+        <v>25378</v>
+      </c>
+      <c r="H823">
+        <f t="shared" si="80"/>
+        <v>821</v>
+      </c>
+      <c r="I823">
+        <f>SUM($F$3:F823)/H823</f>
+        <v>4770340.5304126069</v>
+      </c>
+      <c r="N823">
+        <f t="shared" si="108"/>
+        <v>0.85500001907348633</v>
+      </c>
+      <c r="O823">
+        <f t="shared" si="109"/>
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="P823">
+        <f t="shared" si="79"/>
+        <v>0.8290000160535177</v>
+      </c>
+      <c r="Q823">
+        <f t="shared" si="101"/>
+        <v>0.80342857752527519</v>
+      </c>
+      <c r="R823">
+        <f t="shared" si="102"/>
+        <v>2.5571438528242507E-2</v>
+      </c>
+      <c r="S823">
+        <f t="shared" si="103"/>
+        <v>2.0952385096322929E-2</v>
+      </c>
+      <c r="T823">
+        <f t="shared" si="104"/>
+        <v>3.1428577644484394E-4</v>
+      </c>
+      <c r="U823">
+        <f t="shared" si="105"/>
+        <v>81.363651952382284</v>
+      </c>
+    </row>
+    <row r="824" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A824" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B824">
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="C824">
+        <v>0.82300001382827759</v>
+      </c>
+      <c r="D824">
+        <v>0.80099999904632568</v>
+      </c>
+      <c r="E824">
+        <v>0.80099999904632568</v>
+      </c>
+      <c r="F824">
+        <v>2640600</v>
+      </c>
+      <c r="G824">
+        <v>26406</v>
+      </c>
+      <c r="H824">
+        <f t="shared" si="80"/>
+        <v>822</v>
+      </c>
+      <c r="I824">
+        <f>SUM($F$3:F824)/H824</f>
+        <v>4767749.6051931269</v>
+      </c>
+      <c r="N824">
+        <f t="shared" si="108"/>
+        <v>0.85500001907348633</v>
+      </c>
+      <c r="O824">
+        <f t="shared" si="109"/>
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="P824">
+        <f t="shared" si="79"/>
+        <v>0.80833333730697632</v>
+      </c>
+      <c r="Q824">
+        <f t="shared" si="101"/>
+        <v>0.80473810008593982</v>
+      </c>
+      <c r="R824">
+        <f t="shared" si="102"/>
+        <v>3.5952372210364958E-3</v>
+      </c>
+      <c r="S824">
+        <f t="shared" si="103"/>
+        <v>2.0156467852949271E-2</v>
+      </c>
+      <c r="T824">
+        <f t="shared" si="104"/>
+        <v>3.0234701779423907E-4</v>
+      </c>
+      <c r="U824">
+        <f t="shared" si="105"/>
+        <v>11.891095362095546</v>
+      </c>
+    </row>
+    <row r="825" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A825" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B825">
+        <v>0.82499998807907104</v>
+      </c>
+      <c r="C825">
+        <v>0.82499998807907104</v>
+      </c>
+      <c r="D825">
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="E825">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="F825">
+        <v>4882700</v>
+      </c>
+      <c r="G825">
+        <v>48827</v>
+      </c>
+      <c r="H825">
+        <f t="shared" si="80"/>
+        <v>823</v>
+      </c>
+      <c r="I825">
+        <f>SUM($F$3:F825)/H825</f>
+        <v>4767889.2776047997</v>
+      </c>
+      <c r="N825">
+        <f t="shared" si="108"/>
+        <v>0.85500001907348633</v>
+      </c>
+      <c r="O825">
+        <f t="shared" si="109"/>
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="P825">
+        <f t="shared" si="79"/>
+        <v>0.79400000969568885</v>
+      </c>
+      <c r="Q825">
+        <f t="shared" si="101"/>
+        <v>0.80519048230988655</v>
+      </c>
+      <c r="R825">
+        <f t="shared" si="102"/>
+        <v>-1.11904726141977E-2</v>
+      </c>
+      <c r="S825">
+        <f t="shared" si="103"/>
+        <v>1.9639459597010172E-2</v>
+      </c>
+      <c r="T825">
+        <f t="shared" si="104"/>
+        <v>2.9459189395515255E-4</v>
+      </c>
+      <c r="U825">
+        <f t="shared" si="105"/>
+        <v>-37.986356189085399</v>
+      </c>
+    </row>
+    <row r="826" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A826" s="1">
+        <v>45615</v>
+      </c>
+      <c r="B826">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C826">
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="D826">
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="E826">
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="F826">
+        <v>3035000</v>
+      </c>
+      <c r="G826">
+        <v>30350</v>
+      </c>
+      <c r="H826">
+        <f t="shared" si="80"/>
+        <v>824</v>
+      </c>
+      <c r="I826">
+        <f>SUM($F$3:F826)/H826</f>
+        <v>4765786.2566368328</v>
+      </c>
+      <c r="N826">
+        <f t="shared" si="108"/>
+        <v>0.85500001907348633</v>
+      </c>
+      <c r="O826">
+        <f t="shared" si="109"/>
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="P826">
+        <f t="shared" si="79"/>
+        <v>0.78966665267944336</v>
+      </c>
+      <c r="Q826">
+        <f t="shared" si="101"/>
+        <v>0.80592857656024752</v>
+      </c>
+      <c r="R826">
+        <f t="shared" si="102"/>
+        <v>-1.6261923880804163E-2</v>
+      </c>
+      <c r="S826">
+        <f t="shared" si="103"/>
+        <v>1.8833336376008536E-2</v>
+      </c>
+      <c r="T826">
+        <f t="shared" si="104"/>
+        <v>2.8250004564012805E-4</v>
+      </c>
+      <c r="U826">
+        <f t="shared" si="105"/>
+        <v>-57.564323021455181</v>
+      </c>
+    </row>
+    <row r="827" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A827" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B827">
+        <v>0.79600000381469727</v>
+      </c>
+      <c r="C827">
+        <v>0.80500000715255737</v>
+      </c>
+      <c r="D827">
+        <v>0.79500001668930054</v>
+      </c>
+      <c r="E827">
+        <v>0.80299997329711914</v>
+      </c>
+      <c r="F827">
+        <v>1216129</v>
+      </c>
+      <c r="G827">
+        <v>12161.2900390625</v>
+      </c>
+      <c r="H827">
+        <f t="shared" si="80"/>
+        <v>825</v>
+      </c>
+      <c r="I827">
+        <f>SUM($F$3:F827)/H827</f>
+        <v>4761483.6417803029</v>
+      </c>
+      <c r="N827">
+        <f t="shared" si="108"/>
+        <v>0.85500001907348633</v>
+      </c>
+      <c r="O827">
+        <f t="shared" si="109"/>
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="P827">
+        <f t="shared" si="79"/>
+        <v>0.80099999904632568</v>
+      </c>
+      <c r="Q827">
+        <f t="shared" si="101"/>
+        <v>0.80761905227388653</v>
+      </c>
+      <c r="R827">
+        <f t="shared" si="102"/>
+        <v>-6.6190532275608449E-3</v>
+      </c>
+      <c r="S827">
+        <f t="shared" si="103"/>
+        <v>1.7278914954386604E-2</v>
+      </c>
+      <c r="T827">
+        <f t="shared" si="104"/>
+        <v>2.5918372431579903E-4</v>
+      </c>
+      <c r="U827">
+        <f t="shared" si="105"/>
+        <v>-25.538074371892062</v>
+      </c>
+    </row>
+    <row r="828" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A828" s="1">
+        <v>45617</v>
+      </c>
+      <c r="B828">
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="C828">
+        <v>0.8059999942779541</v>
+      </c>
+      <c r="D828">
+        <v>0.79799997806549072</v>
+      </c>
+      <c r="E828">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="F828">
+        <v>3048900</v>
+      </c>
+      <c r="G828">
+        <v>30489</v>
+      </c>
+      <c r="H828">
+        <f t="shared" si="80"/>
+        <v>826</v>
+      </c>
+      <c r="I828">
+        <f>SUM($F$3:F828)/H828</f>
+        <v>4759410.2959670098</v>
+      </c>
+      <c r="N828">
+        <f t="shared" si="108"/>
+        <v>0.85500001907348633</v>
+      </c>
+      <c r="O828">
+        <f t="shared" si="109"/>
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="P828">
+        <f t="shared" si="79"/>
+        <v>0.80133332808812463</v>
+      </c>
+      <c r="Q828">
+        <f t="shared" si="101"/>
+        <v>0.80990476693425861</v>
+      </c>
+      <c r="R828">
+        <f t="shared" si="102"/>
+        <v>-8.571438846133983E-3</v>
+      </c>
+      <c r="S828">
+        <f t="shared" si="103"/>
+        <v>1.5544220906536605E-2</v>
+      </c>
+      <c r="T828">
+        <f t="shared" si="104"/>
+        <v>2.3316331359804908E-4</v>
+      </c>
+      <c r="U828">
+        <f t="shared" si="105"/>
+        <v>-36.761524417646214</v>
+      </c>
+    </row>
+    <row r="829" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A829" s="1">
+        <v>45618</v>
+      </c>
+      <c r="B829">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="C829">
+        <v>0.80099999904632568</v>
+      </c>
+      <c r="D829">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="E829">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="F829">
+        <v>4457906</v>
+      </c>
+      <c r="G829">
+        <v>44579.05859375</v>
+      </c>
+      <c r="H829">
+        <f t="shared" si="80"/>
+        <v>827</v>
+      </c>
+      <c r="I829">
+        <f>SUM($F$3:F829)/H829</f>
+        <v>4759045.7200347641</v>
+      </c>
+      <c r="N829">
+        <f t="shared" si="108"/>
+        <v>0.85500001907348633</v>
+      </c>
+      <c r="O829">
+        <f t="shared" si="109"/>
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="P829">
+        <f t="shared" si="79"/>
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="Q829">
+        <f t="shared" si="101"/>
+        <v>0.81045238460813251</v>
+      </c>
+      <c r="R829">
+        <f t="shared" si="102"/>
+        <v>-2.7452392237527046E-2</v>
+      </c>
+      <c r="S829">
+        <f t="shared" si="103"/>
+        <v>1.5153065425198104E-2</v>
+      </c>
+      <c r="T829">
+        <f t="shared" si="104"/>
+        <v>2.2729598137797156E-4</v>
+      </c>
+      <c r="U829">
+        <f t="shared" si="105"/>
+        <v>-120.77816805690169</v>
+      </c>
+    </row>
+    <row r="830" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A830" s="1">
+        <v>45621</v>
+      </c>
+      <c r="B830">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="C830">
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="D830">
+        <v>0.76399999856948853</v>
+      </c>
+      <c r="E830">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="F830">
+        <v>1212520</v>
+      </c>
+      <c r="G830">
+        <v>12125.2001953125</v>
+      </c>
+      <c r="H830">
+        <f t="shared" si="80"/>
+        <v>828</v>
+      </c>
+      <c r="I830">
+        <f>SUM($F$3:F830)/H830</f>
+        <v>4754762.4764115335</v>
+      </c>
+      <c r="N830">
+        <f t="shared" si="108"/>
+        <v>0.85500001907348633</v>
+      </c>
+      <c r="O830">
+        <f t="shared" si="109"/>
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="P830">
+        <f t="shared" si="79"/>
+        <v>0.77366665999094641</v>
+      </c>
+      <c r="Q830">
+        <f t="shared" si="101"/>
+        <v>0.80869047982352116</v>
+      </c>
+      <c r="R830">
+        <f t="shared" si="102"/>
+        <v>-3.5023819832574743E-2</v>
+      </c>
+      <c r="S830">
+        <f t="shared" si="103"/>
+        <v>1.6411568842777582E-2</v>
+      </c>
+      <c r="T830">
+        <f t="shared" si="104"/>
+        <v>2.4617353264166372E-4</v>
+      </c>
+      <c r="U830">
+        <f t="shared" si="105"/>
+        <v>-142.27288960245895</v>
+      </c>
+    </row>
+    <row r="831" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A831" s="1">
+        <v>45622</v>
+      </c>
+      <c r="B831">
+        <v>0.76800000667572021</v>
+      </c>
+      <c r="C831">
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="D831">
+        <v>0.76399999856948853</v>
+      </c>
+      <c r="E831">
+        <v>0.76399999856948853</v>
+      </c>
+      <c r="F831">
+        <v>2007700</v>
+      </c>
+      <c r="G831">
+        <v>20077</v>
+      </c>
+      <c r="H831">
+        <f t="shared" si="80"/>
+        <v>829</v>
+      </c>
+      <c r="I831">
+        <f>SUM($F$3:F831)/H831</f>
+        <v>4751448.7701673703</v>
+      </c>
+      <c r="N831">
+        <f t="shared" si="108"/>
+        <v>0.85500001907348633</v>
+      </c>
+      <c r="O831">
+        <f t="shared" si="109"/>
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="P831">
+        <f t="shared" si="79"/>
+        <v>0.76766665776570642</v>
+      </c>
+      <c r="Q831">
+        <f t="shared" si="101"/>
+        <v>0.80590476450465975</v>
+      </c>
+      <c r="R831">
+        <f t="shared" si="102"/>
+        <v>-3.8238106738953337E-2</v>
+      </c>
+      <c r="S831">
+        <f t="shared" si="103"/>
+        <v>1.8748304470866721E-2</v>
+      </c>
+      <c r="T831">
+        <f t="shared" si="104"/>
+        <v>2.8122456706300078E-4</v>
+      </c>
+      <c r="U831">
+        <f t="shared" si="105"/>
+        <v>-135.97000837550269</v>
+      </c>
+    </row>
+    <row r="832" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A832" s="1">
+        <v>45623</v>
+      </c>
+      <c r="B832">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C832">
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="D832">
+        <v>0.75300002098083496</v>
+      </c>
+      <c r="E832">
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="F832">
+        <v>3291300</v>
+      </c>
+      <c r="G832">
+        <v>32913</v>
+      </c>
+      <c r="H832">
+        <f t="shared" si="80"/>
+        <v>830</v>
+      </c>
+      <c r="I832">
+        <f>SUM($F$3:F832)/H832</f>
+        <v>4749689.5547816269</v>
+      </c>
+      <c r="N832">
+        <f t="shared" si="108"/>
+        <v>0.85500001907348633</v>
+      </c>
+      <c r="O832">
+        <f t="shared" si="109"/>
+        <v>0.75300002098083496</v>
+      </c>
+      <c r="P832">
+        <f t="shared" ref="P832:P833" si="110">(C832+D832+E832)/3</f>
+        <v>0.76966667175292969</v>
+      </c>
+      <c r="Q832">
+        <f t="shared" si="101"/>
+        <v>0.80333333497955695</v>
+      </c>
+      <c r="R832">
+        <f t="shared" si="102"/>
+        <v>-3.3666663226627258E-2</v>
+      </c>
+      <c r="S832">
+        <f t="shared" si="103"/>
+        <v>2.095238692095492E-2</v>
+      </c>
+      <c r="T832">
+        <f t="shared" si="104"/>
+        <v>3.1428580381432378E-4</v>
+      </c>
+      <c r="U832">
+        <f t="shared" si="105"/>
+        <v>-107.12117066069301</v>
+      </c>
+    </row>
+    <row r="833" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A833" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B833">
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="C833">
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="D833">
+        <v>0.76599997282028198</v>
+      </c>
+      <c r="E833">
+        <v>0.76599997282028198</v>
+      </c>
+      <c r="F833">
+        <v>2358703</v>
+      </c>
+      <c r="G833">
+        <v>23587.029296875</v>
+      </c>
+      <c r="H833">
+        <f t="shared" si="80"/>
+        <v>831</v>
+      </c>
+      <c r="I833">
+        <f>SUM($F$3:F833)/H833</f>
+        <v>4746812.3146435022</v>
+      </c>
+      <c r="N833">
+        <f t="shared" si="108"/>
+        <v>0.85500001907348633</v>
+      </c>
+      <c r="O833">
+        <f t="shared" si="109"/>
+        <v>0.75300002098083496</v>
+      </c>
+      <c r="P833">
+        <f t="shared" si="110"/>
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="Q833">
+        <f t="shared" si="101"/>
+        <v>0.79990476227941976</v>
+      </c>
+      <c r="R833">
+        <f t="shared" si="102"/>
+        <v>-2.9904781352906085E-2</v>
+      </c>
+      <c r="S833">
+        <f t="shared" si="103"/>
+        <v>2.1666672967729124E-2</v>
+      </c>
+      <c r="T833">
+        <f t="shared" si="104"/>
+        <v>3.2500009451593684E-4</v>
+      </c>
+      <c r="U833">
+        <f t="shared" si="105"/>
+        <v>-92.014685095544365</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U833"/>
+  <dimension ref="A1:U834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A808" workbookViewId="0">
-      <selection activeCell="A834" sqref="A834"/>
+    <sheetView tabSelected="1" topLeftCell="A822" workbookViewId="0">
+      <selection activeCell="A835" sqref="A835"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3104,7 +3104,7 @@
         <v>-69.111527257595213</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44432</v>
       </c>
@@ -3134,6 +3134,12 @@
         <f>SUM($F$3:F44)/H44</f>
         <v>23572140.119047619</v>
       </c>
+      <c r="K44" s="2">
+        <v>45657</v>
+      </c>
+      <c r="L44" s="2">
+        <v>45628</v>
+      </c>
       <c r="N44">
         <f t="shared" si="9"/>
         <v>1.0469999999999999</v>
@@ -49641,23 +49647,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q833" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q834" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R833" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R834" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S833" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S834" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T833" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T834" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U833" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U834" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -51645,11 +51651,11 @@
         <v>4779101.6357373772</v>
       </c>
       <c r="N814">
-        <f t="shared" ref="N814:N833" si="108">IF(A814&lt;&gt;$K$43,MAX(N813,VLOOKUP(A814,A:C,3)),)</f>
+        <f t="shared" ref="N814:N834" si="108">IF(A814&lt;&gt;$K$43,MAX(N813,VLOOKUP(A814,A:C,3)),)</f>
         <v>0.77799999713897705</v>
       </c>
       <c r="O814">
-        <f t="shared" ref="O814:O833" si="109">IF(A814&lt;&gt;$K$43,MIN(O813,VLOOKUP(A814,A:D,4)),)</f>
+        <f t="shared" ref="O814:O834" si="109">IF(A814&lt;&gt;$K$43,MIN(O813,VLOOKUP(A814,A:D,4)),)</f>
         <v>0.76499998569488525</v>
       </c>
       <c r="P814">
@@ -52787,7 +52793,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P833" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P834" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52872,6 +52878,69 @@
       <c r="U833">
         <f t="shared" si="105"/>
         <v>-92.014685095544365</v>
+      </c>
+    </row>
+    <row r="834" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A834" s="1">
+        <v>45625</v>
+      </c>
+      <c r="B834">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="C834">
+        <v>0.78700000047683716</v>
+      </c>
+      <c r="D834">
+        <v>0.76599997282028198</v>
+      </c>
+      <c r="E834">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="F834">
+        <v>1693501</v>
+      </c>
+      <c r="G834">
+        <v>16935.009765625</v>
+      </c>
+      <c r="H834">
+        <f t="shared" ref="H834" si="111">H833+1</f>
+        <v>832</v>
+      </c>
+      <c r="I834">
+        <f>SUM($F$3:F834)/H834</f>
+        <v>4743142.4693134017</v>
+      </c>
+      <c r="N834">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+      <c r="O834">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="P834">
+        <f t="shared" si="110"/>
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="Q834">
+        <f t="shared" si="101"/>
+        <v>0.79616666549728043</v>
+      </c>
+      <c r="R834">
+        <f t="shared" si="102"/>
+        <v>-1.8166668358303384E-2</v>
+      </c>
+      <c r="S834">
+        <f t="shared" si="103"/>
+        <v>2.052381452249024E-2</v>
+      </c>
+      <c r="T834">
+        <f t="shared" si="104"/>
+        <v>3.078572178373536E-4</v>
+      </c>
+      <c r="U834">
+        <f t="shared" si="105"/>
+        <v>-59.010045260336092</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U834"/>
+  <dimension ref="A1:U855"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A822" workbookViewId="0">
-      <selection activeCell="A835" sqref="A835"/>
+    <sheetView tabSelected="1" topLeftCell="A835" workbookViewId="0">
+      <selection activeCell="A856" sqref="A856"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -49647,23 +49647,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q834" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q855" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R834" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R855" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S834" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S855" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T834" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T855" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U834" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U855" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -51651,11 +51651,11 @@
         <v>4779101.6357373772</v>
       </c>
       <c r="N814">
-        <f t="shared" ref="N814:N834" si="108">IF(A814&lt;&gt;$K$43,MAX(N813,VLOOKUP(A814,A:C,3)),)</f>
+        <f t="shared" ref="N814:N833" si="108">IF(A814&lt;&gt;$K$43,MAX(N813,VLOOKUP(A814,A:C,3)),)</f>
         <v>0.77799999713897705</v>
       </c>
       <c r="O814">
-        <f t="shared" ref="O814:O834" si="109">IF(A814&lt;&gt;$K$43,MIN(O813,VLOOKUP(A814,A:D,4)),)</f>
+        <f t="shared" ref="O814:O833" si="109">IF(A814&lt;&gt;$K$43,MIN(O813,VLOOKUP(A814,A:D,4)),)</f>
         <v>0.76499998569488525</v>
       </c>
       <c r="P814">
@@ -52793,7 +52793,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P834" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P855" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52903,7 +52903,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834" si="111">H833+1</f>
+        <f t="shared" ref="H834:H855" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -52911,12 +52911,12 @@
         <v>4743142.4693134017</v>
       </c>
       <c r="N834">
-        <f t="shared" si="108"/>
-        <v>0</v>
+        <f>VLOOKUP(L44,A:C,3)</f>
+        <v>0.7929999828338623</v>
       </c>
       <c r="O834">
-        <f t="shared" si="109"/>
-        <v>0</v>
+        <f>VLOOKUP(L44,A:D,4)</f>
+        <v>0.77600002288818359</v>
       </c>
       <c r="P834">
         <f t="shared" si="110"/>
@@ -52941,6 +52941,1329 @@
       <c r="U834">
         <f t="shared" si="105"/>
         <v>-59.010045260336092</v>
+      </c>
+    </row>
+    <row r="835" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A835" s="1">
+        <v>45628</v>
+      </c>
+      <c r="B835">
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="C835">
+        <v>0.7929999828338623</v>
+      </c>
+      <c r="D835">
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="E835">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="F835">
+        <v>2066501</v>
+      </c>
+      <c r="G835">
+        <v>20665.009765625</v>
+      </c>
+      <c r="H835">
+        <f t="shared" si="111"/>
+        <v>833</v>
+      </c>
+      <c r="I835">
+        <f>SUM($F$3:F835)/H835</f>
+        <v>4739929.214248199</v>
+      </c>
+      <c r="N835">
+        <f t="shared" ref="N835:N855" si="112">IF(A835&lt;&gt;$K$44,MAX(N834,VLOOKUP(A835,A:C,3)),)</f>
+        <v>0.7929999828338623</v>
+      </c>
+      <c r="O835">
+        <f t="shared" ref="O835:O855" si="113">IF(A835&lt;&gt;$K$44,MIN(O834,VLOOKUP(A835,A:D,4)),)</f>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P835">
+        <f t="shared" si="110"/>
+        <v>0.78566666444142663</v>
+      </c>
+      <c r="Q835">
+        <f t="shared" si="101"/>
+        <v>0.79226190277508335</v>
+      </c>
+      <c r="R835">
+        <f t="shared" si="102"/>
+        <v>-6.5952383336567166E-3</v>
+      </c>
+      <c r="S835">
+        <f t="shared" si="103"/>
+        <v>1.7251706447731083E-2</v>
+      </c>
+      <c r="T835">
+        <f t="shared" si="104"/>
+        <v>2.5877559671596623E-4</v>
+      </c>
+      <c r="U835">
+        <f t="shared" si="105"/>
+        <v>-25.486322579697084</v>
+      </c>
+    </row>
+    <row r="836" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A836" s="1">
+        <v>45629</v>
+      </c>
+      <c r="B836">
+        <v>0.78600001335144043</v>
+      </c>
+      <c r="C836">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="D836">
+        <v>0.77899998426437378</v>
+      </c>
+      <c r="E836">
+        <v>0.7850000262260437</v>
+      </c>
+      <c r="F836">
+        <v>3885805.75</v>
+      </c>
+      <c r="G836">
+        <v>38858.05859375</v>
+      </c>
+      <c r="H836">
+        <f t="shared" si="111"/>
+        <v>834</v>
+      </c>
+      <c r="I836">
+        <f>SUM($F$3:F836)/H836</f>
+        <v>4738905.085394185</v>
+      </c>
+      <c r="N836">
+        <f t="shared" si="112"/>
+        <v>0.7929999828338623</v>
+      </c>
+      <c r="O836">
+        <f t="shared" si="113"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P836">
+        <f t="shared" si="110"/>
+        <v>0.78399999936421716</v>
+      </c>
+      <c r="Q836">
+        <f t="shared" si="101"/>
+        <v>0.78821428333009991</v>
+      </c>
+      <c r="R836">
+        <f t="shared" si="102"/>
+        <v>-4.214283965882748E-3</v>
+      </c>
+      <c r="S836">
+        <f t="shared" si="103"/>
+        <v>1.343537755563956E-2</v>
+      </c>
+      <c r="T836">
+        <f t="shared" si="104"/>
+        <v>2.0153066333459339E-4</v>
+      </c>
+      <c r="U836">
+        <f t="shared" si="105"/>
+        <v>-20.911378428234212</v>
+      </c>
+    </row>
+    <row r="837" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A837" s="1">
+        <v>45630</v>
+      </c>
+      <c r="B837">
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="C837">
+        <v>0.78600001335144043</v>
+      </c>
+      <c r="D837">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="E837">
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="F837">
+        <v>711500</v>
+      </c>
+      <c r="G837">
+        <v>7115</v>
+      </c>
+      <c r="H837">
+        <f t="shared" si="111"/>
+        <v>835</v>
+      </c>
+      <c r="I837">
+        <f>SUM($F$3:F837)/H837</f>
+        <v>4734081.8457709579</v>
+      </c>
+      <c r="N837">
+        <f t="shared" si="112"/>
+        <v>0.7929999828338623</v>
+      </c>
+      <c r="O837">
+        <f t="shared" si="113"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P837">
+        <f t="shared" si="110"/>
+        <v>0.78033334016799927</v>
+      </c>
+      <c r="Q837">
+        <f t="shared" si="101"/>
+        <v>0.78473809219542012</v>
+      </c>
+      <c r="R837">
+        <f t="shared" si="102"/>
+        <v>-4.4047520274208551E-3</v>
+      </c>
+      <c r="S837">
+        <f t="shared" si="103"/>
+        <v>1.0224491155066471E-2</v>
+      </c>
+      <c r="T837">
+        <f t="shared" si="104"/>
+        <v>1.5336736732599705E-4</v>
+      </c>
+      <c r="U837">
+        <f t="shared" si="105"/>
+        <v>-28.720268882611332</v>
+      </c>
+    </row>
+    <row r="838" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A838" s="1">
+        <v>45631</v>
+      </c>
+      <c r="B838">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C838">
+        <v>0.7850000262260437</v>
+      </c>
+      <c r="D838">
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="E838">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="F838">
+        <v>2911700</v>
+      </c>
+      <c r="G838">
+        <v>29117</v>
+      </c>
+      <c r="H838">
+        <f t="shared" si="111"/>
+        <v>836</v>
+      </c>
+      <c r="I838">
+        <f>SUM($F$3:F838)/H838</f>
+        <v>4731901.9631803231</v>
+      </c>
+      <c r="N838">
+        <f t="shared" si="112"/>
+        <v>0.7929999828338623</v>
+      </c>
+      <c r="O838">
+        <f t="shared" si="113"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P838">
+        <f t="shared" si="110"/>
+        <v>0.78133334716161096</v>
+      </c>
+      <c r="Q838">
+        <f t="shared" si="101"/>
+        <v>0.78280952147075122</v>
+      </c>
+      <c r="R838">
+        <f t="shared" si="102"/>
+        <v>-1.4761743091402657E-3</v>
+      </c>
+      <c r="S838">
+        <f t="shared" si="103"/>
+        <v>8.4285707700820223E-3</v>
+      </c>
+      <c r="T838">
+        <f t="shared" si="104"/>
+        <v>1.2642856155123034E-4</v>
+      </c>
+      <c r="U838">
+        <f t="shared" si="105"/>
+        <v>-11.67595589974424</v>
+      </c>
+    </row>
+    <row r="839" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A839" s="1">
+        <v>45632</v>
+      </c>
+      <c r="B839">
+        <v>0.7839999794960022</v>
+      </c>
+      <c r="C839">
+        <v>0.80099999904632568</v>
+      </c>
+      <c r="D839">
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="E839">
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="F839">
+        <v>4304600</v>
+      </c>
+      <c r="G839">
+        <v>43046</v>
+      </c>
+      <c r="H839">
+        <f t="shared" si="111"/>
+        <v>837</v>
+      </c>
+      <c r="I839">
+        <f>SUM($F$3:F839)/H839</f>
+        <v>4731391.4470952805</v>
+      </c>
+      <c r="N839">
+        <f t="shared" si="112"/>
+        <v>0.80099999904632568</v>
+      </c>
+      <c r="O839">
+        <f t="shared" si="113"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P839">
+        <f t="shared" si="110"/>
+        <v>0.79366666078567505</v>
+      </c>
+      <c r="Q839">
+        <f t="shared" si="101"/>
+        <v>0.78278571083432158</v>
+      </c>
+      <c r="R839">
+        <f t="shared" si="102"/>
+        <v>1.0880949951353469E-2</v>
+      </c>
+      <c r="S839">
+        <f t="shared" si="103"/>
+        <v>8.4047601336524648E-3</v>
+      </c>
+      <c r="T839">
+        <f t="shared" si="104"/>
+        <v>1.2607140200478697E-4</v>
+      </c>
+      <c r="U839">
+        <f t="shared" si="105"/>
+        <v>86.30783649840204</v>
+      </c>
+    </row>
+    <row r="840" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A840" s="1">
+        <v>45635</v>
+      </c>
+      <c r="B840">
+        <v>0.79600000381469727</v>
+      </c>
+      <c r="C840">
+        <v>0.79799997806549072</v>
+      </c>
+      <c r="D840">
+        <v>0.79100000858306885</v>
+      </c>
+      <c r="E840">
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="F840">
+        <v>729512</v>
+      </c>
+      <c r="G840">
+        <v>7295.1201171875</v>
+      </c>
+      <c r="H840">
+        <f t="shared" si="111"/>
+        <v>838</v>
+      </c>
+      <c r="I840">
+        <f>SUM($F$3:F840)/H840</f>
+        <v>4726615.9346285798</v>
+      </c>
+      <c r="N840">
+        <f t="shared" si="112"/>
+        <v>0.80099999904632568</v>
+      </c>
+      <c r="O840">
+        <f t="shared" si="113"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P840">
+        <f t="shared" si="110"/>
+        <v>0.79533332586288452</v>
+      </c>
+      <c r="Q840">
+        <f t="shared" si="101"/>
+        <v>0.78319047320456736</v>
+      </c>
+      <c r="R840">
+        <f t="shared" si="102"/>
+        <v>1.214285265831716E-2</v>
+      </c>
+      <c r="S840">
+        <f t="shared" si="103"/>
+        <v>8.8367340516071046E-3</v>
+      </c>
+      <c r="T840">
+        <f t="shared" si="104"/>
+        <v>1.3255101077410655E-4</v>
+      </c>
+      <c r="U840">
+        <f t="shared" si="105"/>
+        <v>91.608902771862006</v>
+      </c>
+    </row>
+    <row r="841" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A841" s="1">
+        <v>45636</v>
+      </c>
+      <c r="B841">
+        <v>0.81699997186660767</v>
+      </c>
+      <c r="C841">
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="D841">
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="E841">
+        <v>0.79900002479553223</v>
+      </c>
+      <c r="F841">
+        <v>3692619.25</v>
+      </c>
+      <c r="G841">
+        <v>36926.19140625</v>
+      </c>
+      <c r="H841">
+        <f t="shared" si="111"/>
+        <v>839</v>
+      </c>
+      <c r="I841">
+        <f>SUM($F$3:F841)/H841</f>
+        <v>4725383.5190330753</v>
+      </c>
+      <c r="N841">
+        <f t="shared" si="112"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O841">
+        <f t="shared" si="113"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P841">
+        <f t="shared" si="110"/>
+        <v>0.81466666857401526</v>
+      </c>
+      <c r="Q841">
+        <f t="shared" si="101"/>
+        <v>0.78416666388511658</v>
+      </c>
+      <c r="R841">
+        <f t="shared" si="102"/>
+        <v>3.0500004688898685E-2</v>
+      </c>
+      <c r="S841">
+        <f t="shared" si="103"/>
+        <v>9.976189760934737E-3</v>
+      </c>
+      <c r="T841">
+        <f t="shared" si="104"/>
+        <v>1.4964284641402105E-4</v>
+      </c>
+      <c r="U841">
+        <f t="shared" si="105"/>
+        <v>203.81866169875883</v>
+      </c>
+    </row>
+    <row r="842" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A842" s="1">
+        <v>45637</v>
+      </c>
+      <c r="B842">
+        <v>0.79900002479553223</v>
+      </c>
+      <c r="C842">
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="D842">
+        <v>0.79500001668930054</v>
+      </c>
+      <c r="E842">
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="F842">
+        <v>2053403.875</v>
+      </c>
+      <c r="G842">
+        <v>20534.0390625</v>
+      </c>
+      <c r="H842">
+        <f t="shared" si="111"/>
+        <v>840</v>
+      </c>
+      <c r="I842">
+        <f>SUM($F$3:F842)/H842</f>
+        <v>4722202.5908854166</v>
+      </c>
+      <c r="N842">
+        <f t="shared" si="112"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O842">
+        <f t="shared" si="113"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P842">
+        <f t="shared" si="110"/>
+        <v>0.79799999793370568</v>
+      </c>
+      <c r="Q842">
+        <f t="shared" si="101"/>
+        <v>0.78392856887408668</v>
+      </c>
+      <c r="R842">
+        <f t="shared" si="102"/>
+        <v>1.4071429059619001E-2</v>
+      </c>
+      <c r="S842">
+        <f t="shared" si="103"/>
+        <v>9.6802719596291963E-3</v>
+      </c>
+      <c r="T842">
+        <f t="shared" si="104"/>
+        <v>1.4520407939443795E-4</v>
+      </c>
+      <c r="U842">
+        <f t="shared" si="105"/>
+        <v>96.907945825646053</v>
+      </c>
+    </row>
+    <row r="843" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A843" s="1">
+        <v>45638</v>
+      </c>
+      <c r="B843">
+        <v>0.79900002479553223</v>
+      </c>
+      <c r="C843">
+        <v>0.80500000715255737</v>
+      </c>
+      <c r="D843">
+        <v>0.79500001668930054</v>
+      </c>
+      <c r="E843">
+        <v>0.80400002002716064</v>
+      </c>
+      <c r="F843">
+        <v>2136475</v>
+      </c>
+      <c r="G843">
+        <v>21364.75</v>
+      </c>
+      <c r="H843">
+        <f t="shared" si="111"/>
+        <v>841</v>
+      </c>
+      <c r="I843">
+        <f>SUM($F$3:F843)/H843</f>
+        <v>4719128.0039759213</v>
+      </c>
+      <c r="N843">
+        <f t="shared" si="112"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O843">
+        <f t="shared" si="113"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P843">
+        <f t="shared" si="110"/>
+        <v>0.80133334795633948</v>
+      </c>
+      <c r="Q843">
+        <f t="shared" si="101"/>
+        <v>0.78523809427306757</v>
+      </c>
+      <c r="R843">
+        <f t="shared" si="102"/>
+        <v>1.6095253683271915E-2</v>
+      </c>
+      <c r="S843">
+        <f t="shared" si="103"/>
+        <v>1.1034014273662938E-2</v>
+      </c>
+      <c r="T843">
+        <f t="shared" si="104"/>
+        <v>1.6551021410494407E-4</v>
+      </c>
+      <c r="U843">
+        <f t="shared" si="105"/>
+        <v>97.246286401795686</v>
+      </c>
+    </row>
+    <row r="844" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A844" s="1">
+        <v>45639</v>
+      </c>
+      <c r="B844">
+        <v>0.81300002336502075</v>
+      </c>
+      <c r="C844">
+        <v>0.81300002336502075</v>
+      </c>
+      <c r="D844">
+        <v>0.78600001335144043</v>
+      </c>
+      <c r="E844">
+        <v>0.78600001335144043</v>
+      </c>
+      <c r="F844">
+        <v>2058200</v>
+      </c>
+      <c r="G844">
+        <v>20582</v>
+      </c>
+      <c r="H844">
+        <f t="shared" si="111"/>
+        <v>842</v>
+      </c>
+      <c r="I844">
+        <f>SUM($F$3:F844)/H844</f>
+        <v>4715967.7569403211</v>
+      </c>
+      <c r="N844">
+        <f t="shared" si="112"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O844">
+        <f t="shared" si="113"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P844">
+        <f t="shared" si="110"/>
+        <v>0.79500001668930054</v>
+      </c>
+      <c r="Q844">
+        <f t="shared" si="101"/>
+        <v>0.78676190546580727</v>
+      </c>
+      <c r="R844">
+        <f t="shared" si="102"/>
+        <v>8.2381112234932719E-3</v>
+      </c>
+      <c r="S844">
+        <f t="shared" si="103"/>
+        <v>1.1061226429582445E-2</v>
+      </c>
+      <c r="T844">
+        <f t="shared" si="104"/>
+        <v>1.6591839644373665E-4</v>
+      </c>
+      <c r="U844">
+        <f t="shared" si="105"/>
+        <v>49.651584152615868</v>
+      </c>
+    </row>
+    <row r="845" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A845" s="1">
+        <v>45642</v>
+      </c>
+      <c r="B845">
+        <v>0.78600001335144043</v>
+      </c>
+      <c r="C845">
+        <v>0.78600001335144043</v>
+      </c>
+      <c r="D845">
+        <v>0.77899998426437378</v>
+      </c>
+      <c r="E845">
+        <v>0.77899998426437378</v>
+      </c>
+      <c r="F845">
+        <v>1128000</v>
+      </c>
+      <c r="G845">
+        <v>11280</v>
+      </c>
+      <c r="H845">
+        <f t="shared" si="111"/>
+        <v>843</v>
+      </c>
+      <c r="I845">
+        <f>SUM($F$3:F845)/H845</f>
+        <v>4711711.5674303081</v>
+      </c>
+      <c r="N845">
+        <f t="shared" si="112"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O845">
+        <f t="shared" si="113"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P845">
+        <f t="shared" si="110"/>
+        <v>0.781333327293396</v>
+      </c>
+      <c r="Q845">
+        <f t="shared" si="101"/>
+        <v>0.78773809614635648</v>
+      </c>
+      <c r="R845">
+        <f t="shared" si="102"/>
+        <v>-6.4047688529604851E-3</v>
+      </c>
+      <c r="S845">
+        <f t="shared" si="103"/>
+        <v>1.0224491560540219E-2</v>
+      </c>
+      <c r="T845">
+        <f t="shared" si="104"/>
+        <v>1.5336737340810328E-4</v>
+      </c>
+      <c r="U845">
+        <f t="shared" si="105"/>
+        <v>-41.760960696103858</v>
+      </c>
+    </row>
+    <row r="846" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A846" s="1">
+        <v>45643</v>
+      </c>
+      <c r="B846">
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="C846">
+        <v>0.8410000205039978</v>
+      </c>
+      <c r="D846">
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="E846">
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="F846">
+        <v>2943102</v>
+      </c>
+      <c r="G846">
+        <v>29431.01953125</v>
+      </c>
+      <c r="H846">
+        <f t="shared" si="111"/>
+        <v>844</v>
+      </c>
+      <c r="I846">
+        <f>SUM($F$3:F846)/H846</f>
+        <v>4709616.0584641583</v>
+      </c>
+      <c r="N846">
+        <f t="shared" si="112"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O846">
+        <f t="shared" si="113"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P846">
+        <f t="shared" si="110"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="Q846">
+        <f t="shared" si="101"/>
+        <v>0.78990476330121351</v>
+      </c>
+      <c r="R846">
+        <f t="shared" si="102"/>
+        <v>1.0095248619715447E-2</v>
+      </c>
+      <c r="S846">
+        <f t="shared" si="103"/>
+        <v>9.8095266591934818E-3</v>
+      </c>
+      <c r="T846">
+        <f t="shared" si="104"/>
+        <v>1.4714289988790221E-4</v>
+      </c>
+      <c r="U846">
+        <f t="shared" si="105"/>
+        <v>68.608465834276089</v>
+      </c>
+    </row>
+    <row r="847" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A847" s="1">
+        <v>45644</v>
+      </c>
+      <c r="B847">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="C847">
+        <v>0.79100000858306885</v>
+      </c>
+      <c r="D847">
+        <v>0.7850000262260437</v>
+      </c>
+      <c r="E847">
+        <v>0.78700000047683716</v>
+      </c>
+      <c r="F847">
+        <v>2718906</v>
+      </c>
+      <c r="G847">
+        <v>27189.060546875</v>
+      </c>
+      <c r="H847">
+        <f t="shared" si="111"/>
+        <v>845</v>
+      </c>
+      <c r="I847">
+        <f>SUM($F$3:F847)/H847</f>
+        <v>4707260.188572485</v>
+      </c>
+      <c r="N847">
+        <f t="shared" si="112"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O847">
+        <f t="shared" si="113"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P847">
+        <f t="shared" si="110"/>
+        <v>0.7876666784286499</v>
+      </c>
+      <c r="Q847">
+        <f t="shared" si="101"/>
+        <v>0.79116667026565202</v>
+      </c>
+      <c r="R847">
+        <f t="shared" si="102"/>
+        <v>-3.4999918370021144E-3</v>
+      </c>
+      <c r="S847">
+        <f t="shared" si="103"/>
+        <v>8.5476196947551798E-3</v>
+      </c>
+      <c r="T847">
+        <f t="shared" si="104"/>
+        <v>1.282142954213277E-4</v>
+      </c>
+      <c r="U847">
+        <f t="shared" si="105"/>
+        <v>-27.297984405722602</v>
+      </c>
+    </row>
+    <row r="848" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A848" s="1">
+        <v>45645</v>
+      </c>
+      <c r="B848">
+        <v>0.7850000262260437</v>
+      </c>
+      <c r="C848">
+        <v>0.79799997806549072</v>
+      </c>
+      <c r="D848">
+        <v>0.7850000262260437</v>
+      </c>
+      <c r="E848">
+        <v>0.79600000381469727</v>
+      </c>
+      <c r="F848">
+        <v>5648300</v>
+      </c>
+      <c r="G848">
+        <v>56483</v>
+      </c>
+      <c r="H848">
+        <f t="shared" si="111"/>
+        <v>846</v>
+      </c>
+      <c r="I848">
+        <f>SUM($F$3:F848)/H848</f>
+        <v>4708372.5287751183</v>
+      </c>
+      <c r="N848">
+        <f t="shared" si="112"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O848">
+        <f t="shared" si="113"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P848">
+        <f t="shared" si="110"/>
+        <v>0.79300000270207727</v>
+      </c>
+      <c r="Q848">
+        <f t="shared" si="101"/>
+        <v>0.79223809923444488</v>
+      </c>
+      <c r="R848">
+        <f t="shared" si="102"/>
+        <v>7.6190346763238548E-4</v>
+      </c>
+      <c r="S848">
+        <f t="shared" si="103"/>
+        <v>7.5850340784812198E-3</v>
+      </c>
+      <c r="T848">
+        <f t="shared" si="104"/>
+        <v>1.137755111772183E-4</v>
+      </c>
+      <c r="U848">
+        <f t="shared" si="105"/>
+        <v>6.6965505999409149</v>
+      </c>
+    </row>
+    <row r="849" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A849" s="1">
+        <v>45646</v>
+      </c>
+      <c r="B849">
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="C849">
+        <v>0.80099999904632568</v>
+      </c>
+      <c r="D849">
+        <v>0.7929999828338623</v>
+      </c>
+      <c r="E849">
+        <v>0.79600000381469727</v>
+      </c>
+      <c r="F849">
+        <v>4240300</v>
+      </c>
+      <c r="G849">
+        <v>42403</v>
+      </c>
+      <c r="H849">
+        <f t="shared" si="111"/>
+        <v>847</v>
+      </c>
+      <c r="I849">
+        <f>SUM($F$3:F849)/H849</f>
+        <v>4707819.904774203</v>
+      </c>
+      <c r="N849">
+        <f t="shared" si="112"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O849">
+        <f t="shared" si="113"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P849">
+        <f t="shared" si="110"/>
+        <v>0.79666666189829505</v>
+      </c>
+      <c r="Q849">
+        <f t="shared" si="101"/>
+        <v>0.7930238133385068</v>
+      </c>
+      <c r="R849">
+        <f t="shared" si="102"/>
+        <v>3.6428485597882476E-3</v>
+      </c>
+      <c r="S849">
+        <f t="shared" si="103"/>
+        <v>7.210883559012885E-3</v>
+      </c>
+      <c r="T849">
+        <f t="shared" si="104"/>
+        <v>1.0816325338519327E-4</v>
+      </c>
+      <c r="U849">
+        <f t="shared" si="105"/>
+        <v>33.679169641978667</v>
+      </c>
+    </row>
+    <row r="850" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A850" s="1">
+        <v>45649</v>
+      </c>
+      <c r="B850">
+        <v>0.7929999828338623</v>
+      </c>
+      <c r="C850">
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="D850">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="E850">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="F850">
+        <v>867800</v>
+      </c>
+      <c r="G850">
+        <v>8678</v>
+      </c>
+      <c r="H850">
+        <f t="shared" si="111"/>
+        <v>848</v>
+      </c>
+      <c r="I850">
+        <f>SUM($F$3:F850)/H850</f>
+        <v>4703291.5794147998</v>
+      </c>
+      <c r="N850">
+        <f t="shared" si="112"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O850">
+        <f t="shared" si="113"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P850">
+        <f t="shared" si="110"/>
+        <v>0.79333331187566125</v>
+      </c>
+      <c r="Q850">
+        <f t="shared" si="101"/>
+        <v>0.79369047851789565</v>
+      </c>
+      <c r="R850">
+        <f t="shared" si="102"/>
+        <v>-3.5716664223439665E-4</v>
+      </c>
+      <c r="S850">
+        <f t="shared" si="103"/>
+        <v>6.4523830300285568E-3</v>
+      </c>
+      <c r="T850">
+        <f t="shared" si="104"/>
+        <v>9.6785745450428344E-5</v>
+      </c>
+      <c r="U850">
+        <f t="shared" si="105"/>
+        <v>-3.6902814621325617</v>
+      </c>
+    </row>
+    <row r="851" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A851" s="1">
+        <v>45650</v>
+      </c>
+      <c r="B851">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C851">
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="D851">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="E851">
+        <v>0.80099999904632568</v>
+      </c>
+      <c r="F851">
+        <v>1522401</v>
+      </c>
+      <c r="G851">
+        <v>15224.009765625</v>
+      </c>
+      <c r="H851">
+        <f t="shared" si="111"/>
+        <v>849</v>
+      </c>
+      <c r="I851">
+        <f>SUM($F$3:F851)/H851</f>
+        <v>4699544.9474013541</v>
+      </c>
+      <c r="N851">
+        <f t="shared" si="112"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O851">
+        <f t="shared" si="113"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P851">
+        <f t="shared" si="110"/>
+        <v>0.79733331998189294</v>
+      </c>
+      <c r="Q851">
+        <f t="shared" si="101"/>
+        <v>0.79490476279031674</v>
+      </c>
+      <c r="R851">
+        <f t="shared" si="102"/>
+        <v>2.4285571915761972E-3</v>
+      </c>
+      <c r="S851">
+        <f t="shared" si="103"/>
+        <v>5.5850354992613227E-3</v>
+      </c>
+      <c r="T851">
+        <f t="shared" si="104"/>
+        <v>8.3775532488919837E-5</v>
+      </c>
+      <c r="U851">
+        <f t="shared" si="105"/>
+        <v>28.988860105394121</v>
+      </c>
+    </row>
+    <row r="852" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A852" s="1">
+        <v>45651</v>
+      </c>
+      <c r="B852">
+        <v>0.79000002145767212</v>
+      </c>
+      <c r="C852">
+        <v>0.80299997329711914</v>
+      </c>
+      <c r="D852">
+        <v>0.79000002145767212</v>
+      </c>
+      <c r="E852">
+        <v>0.79900002479553223</v>
+      </c>
+      <c r="F852">
+        <v>1199700</v>
+      </c>
+      <c r="G852">
+        <v>11997</v>
+      </c>
+      <c r="H852">
+        <f t="shared" si="111"/>
+        <v>850</v>
+      </c>
+      <c r="I852">
+        <f>SUM($F$3:F852)/H852</f>
+        <v>4695427.4827573532</v>
+      </c>
+      <c r="N852">
+        <f t="shared" si="112"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O852">
+        <f t="shared" si="113"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P852">
+        <f t="shared" si="110"/>
+        <v>0.79733333985010779</v>
+      </c>
+      <c r="Q852">
+        <f t="shared" si="101"/>
+        <v>0.7960476194109235</v>
+      </c>
+      <c r="R852">
+        <f t="shared" si="102"/>
+        <v>1.2857204391842902E-3</v>
+      </c>
+      <c r="S852">
+        <f t="shared" si="103"/>
+        <v>4.7142874626886168E-3</v>
+      </c>
+      <c r="T852">
+        <f t="shared" si="104"/>
+        <v>7.0714311940329254E-5</v>
+      </c>
+      <c r="U852">
+        <f t="shared" si="105"/>
+        <v>18.181898457404461</v>
+      </c>
+    </row>
+    <row r="853" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A853" s="1">
+        <v>45652</v>
+      </c>
+      <c r="B853">
+        <v>0.81099998950958252</v>
+      </c>
+      <c r="C853">
+        <v>0.81099998950958252</v>
+      </c>
+      <c r="D853">
+        <v>0.7929999828338623</v>
+      </c>
+      <c r="E853">
+        <v>0.80699998140335083</v>
+      </c>
+      <c r="F853">
+        <v>494710</v>
+      </c>
+      <c r="G853">
+        <v>4947.10009765625</v>
+      </c>
+      <c r="H853">
+        <f t="shared" si="111"/>
+        <v>851</v>
+      </c>
+      <c r="I853">
+        <f>SUM($F$3:F853)/H853</f>
+        <v>4690491.2694991184</v>
+      </c>
+      <c r="N853">
+        <f t="shared" si="112"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O853">
+        <f t="shared" si="113"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P853">
+        <f t="shared" si="110"/>
+        <v>0.80366665124893188</v>
+      </c>
+      <c r="Q853">
+        <f t="shared" si="101"/>
+        <v>0.79676190444401329</v>
+      </c>
+      <c r="R853">
+        <f t="shared" si="102"/>
+        <v>6.9047468049185934E-3</v>
+      </c>
+      <c r="S853">
+        <f t="shared" si="103"/>
+        <v>5.0000009082612484E-3</v>
+      </c>
+      <c r="T853">
+        <f t="shared" si="104"/>
+        <v>7.5000013623918718E-5</v>
+      </c>
+      <c r="U853">
+        <f t="shared" si="105"/>
+        <v>92.063274008747086</v>
+      </c>
+    </row>
+    <row r="854" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A854" s="1">
+        <v>45653</v>
+      </c>
+      <c r="B854">
+        <v>0.80500000715255737</v>
+      </c>
+      <c r="C854">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="D854">
+        <v>0.80299997329711914</v>
+      </c>
+      <c r="E854">
+        <v>0.80400002002716064</v>
+      </c>
+      <c r="F854">
+        <v>1828600</v>
+      </c>
+      <c r="G854">
+        <v>18286</v>
+      </c>
+      <c r="H854">
+        <f t="shared" si="111"/>
+        <v>852</v>
+      </c>
+      <c r="I854">
+        <f>SUM($F$3:F854)/H854</f>
+        <v>4687132.2421875</v>
+      </c>
+      <c r="N854">
+        <f t="shared" si="112"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O854">
+        <f t="shared" si="113"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P854">
+        <f t="shared" si="110"/>
+        <v>0.80633332331975305</v>
+      </c>
+      <c r="Q854">
+        <f t="shared" si="101"/>
+        <v>0.79754761854807532</v>
+      </c>
+      <c r="R854">
+        <f t="shared" si="102"/>
+        <v>8.785704771677727E-3</v>
+      </c>
+      <c r="S854">
+        <f t="shared" si="103"/>
+        <v>5.5306128093174445E-3</v>
+      </c>
+      <c r="T854">
+        <f t="shared" si="104"/>
+        <v>8.2959192139761664E-5</v>
+      </c>
+      <c r="U854">
+        <f t="shared" si="105"/>
+        <v>105.90393354935782</v>
+      </c>
+    </row>
+    <row r="855" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A855" s="1">
+        <v>45656</v>
+      </c>
+      <c r="B855">
+        <v>0.8059999942779541</v>
+      </c>
+      <c r="C855">
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="D855">
+        <v>0.80400002002716064</v>
+      </c>
+      <c r="E855">
+        <v>0.80500000715255737</v>
+      </c>
+      <c r="F855">
+        <v>1558400</v>
+      </c>
+      <c r="G855">
+        <v>15584</v>
+      </c>
+      <c r="H855">
+        <f t="shared" si="111"/>
+        <v>853</v>
+      </c>
+      <c r="I855">
+        <f>SUM($F$3:F855)/H855</f>
+        <v>4683464.3263115473</v>
+      </c>
+      <c r="N855">
+        <f t="shared" si="112"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O855">
+        <f t="shared" si="113"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P855">
+        <f t="shared" si="110"/>
+        <v>0.8063333431879679</v>
+      </c>
+      <c r="Q855">
+        <f t="shared" si="101"/>
+        <v>0.79695238102050048</v>
+      </c>
+      <c r="R855">
+        <f t="shared" si="102"/>
+        <v>9.3809621674674215E-3</v>
+      </c>
+      <c r="S855">
+        <f t="shared" si="103"/>
+        <v>4.959183890803338E-3</v>
+      </c>
+      <c r="T855">
+        <f t="shared" si="104"/>
+        <v>7.4387758362050069E-5</v>
+      </c>
+      <c r="U855">
+        <f t="shared" si="105"/>
+        <v>126.10895090842322</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U855"/>
+  <dimension ref="A1:U856"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A835" workbookViewId="0">
-      <selection activeCell="A856" sqref="A856"/>
+    <sheetView tabSelected="1" topLeftCell="A844" workbookViewId="0">
+      <selection activeCell="A857" sqref="A857"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3173,7 +3173,7 @@
         <v>-24.341085271318022</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44433</v>
       </c>
@@ -3203,6 +3203,12 @@
         <f>SUM($F$3:F45)/H45</f>
         <v>23127479.976744186</v>
       </c>
+      <c r="K45" s="2">
+        <v>45684</v>
+      </c>
+      <c r="L45" s="2">
+        <v>45659</v>
+      </c>
       <c r="N45">
         <f t="shared" si="9"/>
         <v>1.0469999999999999</v>
@@ -49647,23 +49653,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q855" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q856" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R855" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R856" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S855" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S856" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T855" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T856" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U855" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U856" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -52793,7 +52799,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P855" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P856" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52903,7 +52909,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H855" si="111">H833+1</f>
+        <f t="shared" ref="H834:H856" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -52974,11 +52980,11 @@
         <v>4739929.214248199</v>
       </c>
       <c r="N835">
-        <f t="shared" ref="N835:N855" si="112">IF(A835&lt;&gt;$K$44,MAX(N834,VLOOKUP(A835,A:C,3)),)</f>
+        <f t="shared" ref="N835:N856" si="112">IF(A835&lt;&gt;$K$44,MAX(N834,VLOOKUP(A835,A:C,3)),)</f>
         <v>0.7929999828338623</v>
       </c>
       <c r="O835">
-        <f t="shared" ref="O835:O855" si="113">IF(A835&lt;&gt;$K$44,MIN(O834,VLOOKUP(A835,A:D,4)),)</f>
+        <f t="shared" ref="O835:O856" si="113">IF(A835&lt;&gt;$K$44,MIN(O834,VLOOKUP(A835,A:D,4)),)</f>
         <v>0.77600002288818359</v>
       </c>
       <c r="P835">
@@ -54264,6 +54270,69 @@
       <c r="U855">
         <f t="shared" si="105"/>
         <v>126.10895090842322</v>
+      </c>
+    </row>
+    <row r="856" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A856" s="1">
+        <v>45657</v>
+      </c>
+      <c r="B856">
+        <v>0.80500000715255737</v>
+      </c>
+      <c r="C856">
+        <v>0.80500000715255737</v>
+      </c>
+      <c r="D856">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="E856">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="F856">
+        <v>2431000</v>
+      </c>
+      <c r="G856">
+        <v>24310</v>
+      </c>
+      <c r="H856">
+        <f t="shared" si="111"/>
+        <v>854</v>
+      </c>
+      <c r="I856">
+        <f>SUM($F$3:F856)/H856</f>
+        <v>4680826.7802620027</v>
+      </c>
+      <c r="N856">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="O856">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="P856">
+        <f t="shared" si="110"/>
+        <v>0.79433331886927283</v>
+      </c>
+      <c r="Q856">
+        <f t="shared" si="101"/>
+        <v>0.79669047537304105</v>
+      </c>
+      <c r="R856">
+        <f t="shared" si="102"/>
+        <v>-2.3571565037682207E-3</v>
+      </c>
+      <c r="S856">
+        <f t="shared" si="103"/>
+        <v>5.0714299792335117E-3</v>
+      </c>
+      <c r="T856">
+        <f t="shared" si="104"/>
+        <v>7.6071449688502673E-5</v>
+      </c>
+      <c r="U856">
+        <f t="shared" si="105"/>
+        <v>-30.986086283622882</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U856"/>
+  <dimension ref="A1:U873"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A844" workbookViewId="0">
-      <selection activeCell="A857" sqref="A857"/>
+    <sheetView tabSelected="1" topLeftCell="A857" workbookViewId="0">
+      <selection activeCell="A874" sqref="A874"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -49653,23 +49653,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q856" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q873" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R856" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R873" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S856" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S873" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T856" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T873" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U856" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U873" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -52799,7 +52799,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P856" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P873" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52909,7 +52909,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H856" si="111">H833+1</f>
+        <f t="shared" ref="H834:H873" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -52980,11 +52980,11 @@
         <v>4739929.214248199</v>
       </c>
       <c r="N835">
-        <f t="shared" ref="N835:N856" si="112">IF(A835&lt;&gt;$K$44,MAX(N834,VLOOKUP(A835,A:C,3)),)</f>
+        <f t="shared" ref="N835:N855" si="112">IF(A835&lt;&gt;$K$44,MAX(N834,VLOOKUP(A835,A:C,3)),)</f>
         <v>0.7929999828338623</v>
       </c>
       <c r="O835">
-        <f t="shared" ref="O835:O856" si="113">IF(A835&lt;&gt;$K$44,MIN(O834,VLOOKUP(A835,A:D,4)),)</f>
+        <f t="shared" ref="O835:O855" si="113">IF(A835&lt;&gt;$K$44,MIN(O834,VLOOKUP(A835,A:D,4)),)</f>
         <v>0.77600002288818359</v>
       </c>
       <c r="P835">
@@ -54303,12 +54303,12 @@
         <v>4680826.7802620027</v>
       </c>
       <c r="N856">
-        <f t="shared" si="112"/>
-        <v>0</v>
+        <f>VLOOKUP(L45,A:C,3)</f>
+        <v>0.78899997472763062</v>
       </c>
       <c r="O856">
-        <f t="shared" si="113"/>
-        <v>0</v>
+        <f>VLOOKUP(L45,A:D,4)</f>
+        <v>0.75700002908706665</v>
       </c>
       <c r="P856">
         <f t="shared" si="110"/>
@@ -54333,6 +54333,1077 @@
       <c r="U856">
         <f t="shared" si="105"/>
         <v>-30.986086283622882</v>
+      </c>
+    </row>
+    <row r="857" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A857" s="1">
+        <v>45659</v>
+      </c>
+      <c r="B857">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C857">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="D857">
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="E857">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="F857">
+        <v>5231600</v>
+      </c>
+      <c r="G857">
+        <v>52316</v>
+      </c>
+      <c r="H857">
+        <f t="shared" si="111"/>
+        <v>855</v>
+      </c>
+      <c r="I857">
+        <f>SUM($F$3:F857)/H857</f>
+        <v>4681470.9594663745</v>
+      </c>
+      <c r="N857">
+        <f t="shared" ref="N857:N873" si="114">IF(A857&lt;&gt;$K$45,MAX(N856,VLOOKUP(A857,A:C,3)),)</f>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="O857">
+        <f t="shared" ref="O857:O873" si="115">IF(A857&lt;&gt;$K$45,MIN(O856,VLOOKUP(A857,A:D,4)),)</f>
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="P857">
+        <f t="shared" si="110"/>
+        <v>0.76966667175292969</v>
+      </c>
+      <c r="Q857">
+        <f t="shared" si="101"/>
+        <v>0.79442856992994026</v>
+      </c>
+      <c r="R857">
+        <f t="shared" si="102"/>
+        <v>-2.4761898177010577E-2</v>
+      </c>
+      <c r="S857">
+        <f t="shared" si="103"/>
+        <v>6.7483012368079031E-3</v>
+      </c>
+      <c r="T857">
+        <f t="shared" si="104"/>
+        <v>1.0122451855211854E-4</v>
+      </c>
+      <c r="U857">
+        <f t="shared" si="105"/>
+        <v>-244.62352136810765</v>
+      </c>
+    </row>
+    <row r="858" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A858" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B858">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C858">
+        <v>0.76499998569488525</v>
+      </c>
+      <c r="D858">
+        <v>0.74800002574920654</v>
+      </c>
+      <c r="E858">
+        <v>0.74900001287460327</v>
+      </c>
+      <c r="F858">
+        <v>2421800</v>
+      </c>
+      <c r="G858">
+        <v>24218</v>
+      </c>
+      <c r="H858">
+        <f t="shared" si="111"/>
+        <v>856</v>
+      </c>
+      <c r="I858">
+        <f>SUM($F$3:F858)/H858</f>
+        <v>4678831.1569436332</v>
+      </c>
+      <c r="N858">
+        <f t="shared" si="114"/>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="O858">
+        <f t="shared" si="115"/>
+        <v>0.74800002574920654</v>
+      </c>
+      <c r="P858">
+        <f t="shared" si="110"/>
+        <v>0.75400000810623169</v>
+      </c>
+      <c r="Q858">
+        <f t="shared" si="101"/>
+        <v>0.79149999788829251</v>
+      </c>
+      <c r="R858">
+        <f t="shared" si="102"/>
+        <v>-3.7499989782060816E-2</v>
+      </c>
+      <c r="S858">
+        <f t="shared" si="103"/>
+        <v>1.0476186567423329E-2</v>
+      </c>
+      <c r="T858">
+        <f t="shared" si="104"/>
+        <v>1.5714279851134993E-4</v>
+      </c>
+      <c r="U858">
+        <f t="shared" si="105"/>
+        <v>-238.63638765063936</v>
+      </c>
+    </row>
+    <row r="859" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A859" s="1">
+        <v>45663</v>
+      </c>
+      <c r="B859">
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="C859">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="D859">
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="E859">
+        <v>0.74800002574920654</v>
+      </c>
+      <c r="F859">
+        <v>715200</v>
+      </c>
+      <c r="G859">
+        <v>7152</v>
+      </c>
+      <c r="H859">
+        <f t="shared" si="111"/>
+        <v>857</v>
+      </c>
+      <c r="I859">
+        <f>SUM($F$3:F859)/H859</f>
+        <v>4674206.1497593345</v>
+      </c>
+      <c r="N859">
+        <f t="shared" si="114"/>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="O859">
+        <f t="shared" si="115"/>
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="P859">
+        <f t="shared" si="110"/>
+        <v>0.74900001287460327</v>
+      </c>
+      <c r="Q859">
+        <f t="shared" si="101"/>
+        <v>0.78919047542980736</v>
+      </c>
+      <c r="R859">
+        <f t="shared" si="102"/>
+        <v>-4.0190462555204087E-2</v>
+      </c>
+      <c r="S859">
+        <f t="shared" si="103"/>
+        <v>1.3775504365259301E-2</v>
+      </c>
+      <c r="T859">
+        <f t="shared" si="104"/>
+        <v>2.0663256547888951E-4</v>
+      </c>
+      <c r="U859">
+        <f t="shared" si="105"/>
+        <v>-194.50207406591059</v>
+      </c>
+    </row>
+    <row r="860" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A860" s="1">
+        <v>45664</v>
+      </c>
+      <c r="B860">
+        <v>0.74299997091293335</v>
+      </c>
+      <c r="C860">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="D860">
+        <v>0.74299997091293335</v>
+      </c>
+      <c r="E860">
+        <v>0.75499999523162842</v>
+      </c>
+      <c r="F860">
+        <v>5355000</v>
+      </c>
+      <c r="G860">
+        <v>53550</v>
+      </c>
+      <c r="H860">
+        <f t="shared" si="111"/>
+        <v>858</v>
+      </c>
+      <c r="I860">
+        <f>SUM($F$3:F860)/H860</f>
+        <v>4674999.615785256</v>
+      </c>
+      <c r="N860">
+        <f t="shared" si="114"/>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="O860">
+        <f t="shared" si="115"/>
+        <v>0.74299997091293335</v>
+      </c>
+      <c r="P860">
+        <f t="shared" si="110"/>
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="Q860">
+        <f t="shared" si="101"/>
+        <v>0.78569047365869793</v>
+      </c>
+      <c r="R860">
+        <f t="shared" si="102"/>
+        <v>-3.4690486533301201E-2</v>
+      </c>
+      <c r="S860">
+        <f t="shared" si="103"/>
+        <v>1.7013602110804351E-2</v>
+      </c>
+      <c r="T860">
+        <f t="shared" si="104"/>
+        <v>2.5520403166206525E-4</v>
+      </c>
+      <c r="U860">
+        <f t="shared" si="105"/>
+        <v>-135.9323608932537</v>
+      </c>
+    </row>
+    <row r="861" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A861" s="1">
+        <v>45665</v>
+      </c>
+      <c r="B861">
+        <v>0.75</v>
+      </c>
+      <c r="C861">
+        <v>0.75800001621246338</v>
+      </c>
+      <c r="D861">
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="E861">
+        <v>0.75300002098083496</v>
+      </c>
+      <c r="F861">
+        <v>1302800</v>
+      </c>
+      <c r="G861">
+        <v>13028</v>
+      </c>
+      <c r="H861">
+        <f t="shared" si="111"/>
+        <v>859</v>
+      </c>
+      <c r="I861">
+        <f>SUM($F$3:F861)/H861</f>
+        <v>4671073.8886423167</v>
+      </c>
+      <c r="N861">
+        <f t="shared" si="114"/>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="O861">
+        <f t="shared" si="115"/>
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="P861">
+        <f t="shared" si="110"/>
+        <v>0.74933334191640222</v>
+      </c>
+      <c r="Q861">
+        <f t="shared" si="101"/>
+        <v>0.78295237819353747</v>
+      </c>
+      <c r="R861">
+        <f t="shared" si="102"/>
+        <v>-3.361903627713525E-2</v>
+      </c>
+      <c r="S861">
+        <f t="shared" si="103"/>
+        <v>2.0251695598874749E-2</v>
+      </c>
+      <c r="T861">
+        <f t="shared" si="104"/>
+        <v>3.0377543398312119E-4</v>
+      </c>
+      <c r="U861">
+        <f t="shared" si="105"/>
+        <v>-110.67068800238548</v>
+      </c>
+    </row>
+    <row r="862" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A862" s="1">
+        <v>45666</v>
+      </c>
+      <c r="B862">
+        <v>0.74900001287460327</v>
+      </c>
+      <c r="C862">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="D862">
+        <v>0.74900001287460327</v>
+      </c>
+      <c r="E862">
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="F862">
+        <v>1582023</v>
+      </c>
+      <c r="G862">
+        <v>15820.23046875</v>
+      </c>
+      <c r="H862">
+        <f t="shared" si="111"/>
+        <v>860</v>
+      </c>
+      <c r="I862">
+        <f>SUM($F$3:F862)/H862</f>
+        <v>4667481.96900436</v>
+      </c>
+      <c r="N862">
+        <f t="shared" si="114"/>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="O862">
+        <f t="shared" si="115"/>
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="P862">
+        <f t="shared" si="110"/>
+        <v>0.75800001621246338</v>
+      </c>
+      <c r="Q862">
+        <f t="shared" si="101"/>
+        <v>0.78045237915856513</v>
+      </c>
+      <c r="R862">
+        <f t="shared" si="102"/>
+        <v>-2.2452362946101756E-2</v>
+      </c>
+      <c r="S862">
+        <f t="shared" si="103"/>
+        <v>2.1673462423337533E-2</v>
+      </c>
+      <c r="T862">
+        <f t="shared" si="104"/>
+        <v>3.2510193635006297E-4</v>
+      </c>
+      <c r="U862">
+        <f t="shared" si="105"/>
+        <v>-69.062532195826478</v>
+      </c>
+    </row>
+    <row r="863" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A863" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B863">
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="C863">
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="D863">
+        <v>0.75</v>
+      </c>
+      <c r="E863">
+        <v>0.75</v>
+      </c>
+      <c r="F863">
+        <v>562000</v>
+      </c>
+      <c r="G863">
+        <v>5620</v>
+      </c>
+      <c r="H863">
+        <f t="shared" si="111"/>
+        <v>861</v>
+      </c>
+      <c r="I863">
+        <f>SUM($F$3:F863)/H863</f>
+        <v>4662713.6972633563</v>
+      </c>
+      <c r="N863">
+        <f t="shared" si="114"/>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="O863">
+        <f t="shared" si="115"/>
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="P863">
+        <f t="shared" si="110"/>
+        <v>0.75400000810623169</v>
+      </c>
+      <c r="Q863">
+        <f t="shared" si="101"/>
+        <v>0.77740476103056044</v>
+      </c>
+      <c r="R863">
+        <f t="shared" si="102"/>
+        <v>-2.3404752924328753E-2</v>
+      </c>
+      <c r="S863">
+        <f t="shared" si="103"/>
+        <v>2.2404754445666357E-2</v>
+      </c>
+      <c r="T863">
+        <f t="shared" si="104"/>
+        <v>3.3607131668499535E-4</v>
+      </c>
+      <c r="U863">
+        <f t="shared" si="105"/>
+        <v>-69.642221047583106</v>
+      </c>
+    </row>
+    <row r="864" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A864" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B864">
+        <v>0.74299997091293335</v>
+      </c>
+      <c r="C864">
+        <v>0.75300002098083496</v>
+      </c>
+      <c r="D864">
+        <v>0.74299997091293335</v>
+      </c>
+      <c r="E864">
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="F864">
+        <v>607500</v>
+      </c>
+      <c r="G864">
+        <v>6075</v>
+      </c>
+      <c r="H864">
+        <f t="shared" si="111"/>
+        <v>862</v>
+      </c>
+      <c r="I864">
+        <f>SUM($F$3:F864)/H864</f>
+        <v>4658009.2730205916</v>
+      </c>
+      <c r="N864">
+        <f t="shared" si="114"/>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="O864">
+        <f t="shared" si="115"/>
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="P864">
+        <f t="shared" si="110"/>
+        <v>0.74666666984558105</v>
+      </c>
+      <c r="Q864">
+        <f t="shared" si="101"/>
+        <v>0.77407142945698326</v>
+      </c>
+      <c r="R864">
+        <f t="shared" si="102"/>
+        <v>-2.7404759611402207E-2</v>
+      </c>
+      <c r="S864">
+        <f t="shared" si="103"/>
+        <v>2.2986388530860942E-2</v>
+      </c>
+      <c r="T864">
+        <f t="shared" si="104"/>
+        <v>3.4479582796291411E-4</v>
+      </c>
+      <c r="U864">
+        <f t="shared" si="105"/>
+        <v>-79.481122997665267</v>
+      </c>
+    </row>
+    <row r="865" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A865" s="1">
+        <v>45671</v>
+      </c>
+      <c r="B865">
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="C865">
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="D865">
+        <v>0.74500000476837158</v>
+      </c>
+      <c r="E865">
+        <v>0.77499997615814209</v>
+      </c>
+      <c r="F865">
+        <v>2799703</v>
+      </c>
+      <c r="G865">
+        <v>27997.029296875</v>
+      </c>
+      <c r="H865">
+        <f t="shared" si="111"/>
+        <v>863</v>
+      </c>
+      <c r="I865">
+        <f>SUM($F$3:F865)/H865</f>
+        <v>4655855.9633183666</v>
+      </c>
+      <c r="N865">
+        <f t="shared" si="114"/>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="O865">
+        <f t="shared" si="115"/>
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="P865">
+        <f t="shared" si="110"/>
+        <v>0.76533333460489905</v>
+      </c>
+      <c r="Q865">
+        <f t="shared" si="101"/>
+        <v>0.77178571621576941</v>
+      </c>
+      <c r="R865">
+        <f t="shared" si="102"/>
+        <v>-6.4523816108703613E-3</v>
+      </c>
+      <c r="S865">
+        <f t="shared" si="103"/>
+        <v>2.1295913628169454E-2</v>
+      </c>
+      <c r="T865">
+        <f t="shared" si="104"/>
+        <v>3.194387044225418E-4</v>
+      </c>
+      <c r="U865">
+        <f t="shared" si="105"/>
+        <v>-20.199122778607904</v>
+      </c>
+    </row>
+    <row r="866" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A866" s="1">
+        <v>45672</v>
+      </c>
+      <c r="B866">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="C866">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="D866">
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="E866">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="F866">
+        <v>1416600</v>
+      </c>
+      <c r="G866">
+        <v>14166</v>
+      </c>
+      <c r="H866">
+        <f t="shared" si="111"/>
+        <v>864</v>
+      </c>
+      <c r="I866">
+        <f>SUM($F$3:F866)/H866</f>
+        <v>4652106.8244719328</v>
+      </c>
+      <c r="N866">
+        <f t="shared" si="114"/>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="O866">
+        <f t="shared" si="115"/>
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="P866">
+        <f t="shared" si="110"/>
+        <v>0.76633334159851074</v>
+      </c>
+      <c r="Q866">
+        <f t="shared" si="101"/>
+        <v>0.76957143062636957</v>
+      </c>
+      <c r="R866">
+        <f t="shared" si="102"/>
+        <v>-3.2380890278588259E-3</v>
+      </c>
+      <c r="S866">
+        <f t="shared" si="103"/>
+        <v>1.8925165035286701E-2</v>
+      </c>
+      <c r="T866">
+        <f t="shared" si="104"/>
+        <v>2.8387747552930049E-4</v>
+      </c>
+      <c r="U866">
+        <f t="shared" si="105"/>
+        <v>-11.406643030840275</v>
+      </c>
+    </row>
+    <row r="867" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A867" s="1">
+        <v>45673</v>
+      </c>
+      <c r="B867">
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="C867">
+        <v>0.77899998426437378</v>
+      </c>
+      <c r="D867">
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="E867">
+        <v>0.76800000667572021</v>
+      </c>
+      <c r="F867">
+        <v>849505.9375</v>
+      </c>
+      <c r="G867">
+        <v>8495.0595703125</v>
+      </c>
+      <c r="H867">
+        <f t="shared" si="111"/>
+        <v>865</v>
+      </c>
+      <c r="I867">
+        <f>SUM($F$3:F867)/H867</f>
+        <v>4647710.7540823696</v>
+      </c>
+      <c r="N867">
+        <f t="shared" si="114"/>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="O867">
+        <f t="shared" si="115"/>
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="P867">
+        <f t="shared" si="110"/>
+        <v>0.76966667175292969</v>
+      </c>
+      <c r="Q867">
+        <f t="shared" si="101"/>
+        <v>0.76714286066236947</v>
+      </c>
+      <c r="R867">
+        <f t="shared" si="102"/>
+        <v>2.5238110905602129E-3</v>
+      </c>
+      <c r="S867">
+        <f t="shared" si="103"/>
+        <v>1.5802717938715089E-2</v>
+      </c>
+      <c r="T867">
+        <f t="shared" si="104"/>
+        <v>2.3704076908072632E-4</v>
+      </c>
+      <c r="U867">
+        <f t="shared" si="105"/>
+        <v>10.647160403452398</v>
+      </c>
+    </row>
+    <row r="868" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A868" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B868">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C868">
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="D868">
+        <v>0.76099997758865356</v>
+      </c>
+      <c r="E868">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="F868">
+        <v>1085200</v>
+      </c>
+      <c r="G868">
+        <v>10852</v>
+      </c>
+      <c r="H868">
+        <f t="shared" si="111"/>
+        <v>866</v>
+      </c>
+      <c r="I868">
+        <f>SUM($F$3:F868)/H868</f>
+        <v>4643597.0003247689</v>
+      </c>
+      <c r="N868">
+        <f t="shared" si="114"/>
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="O868">
+        <f t="shared" si="115"/>
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="P868">
+        <f t="shared" si="110"/>
+        <v>0.77099998792012536</v>
+      </c>
+      <c r="Q868">
+        <f t="shared" si="101"/>
+        <v>0.7646190509909675</v>
+      </c>
+      <c r="R868">
+        <f t="shared" si="102"/>
+        <v>6.3809369291578655E-3</v>
+      </c>
+      <c r="S868">
+        <f t="shared" si="103"/>
+        <v>1.2904758964266088E-2</v>
+      </c>
+      <c r="T868">
+        <f t="shared" si="104"/>
+        <v>1.9357138446399132E-4</v>
+      </c>
+      <c r="U868">
+        <f t="shared" si="105"/>
+        <v>32.96425732980623</v>
+      </c>
+    </row>
+    <row r="869" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A869" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B869">
+        <v>0.77899998426437378</v>
+      </c>
+      <c r="C869">
+        <v>0.79100000858306885</v>
+      </c>
+      <c r="D869">
+        <v>0.77899998426437378</v>
+      </c>
+      <c r="E869">
+        <v>0.7850000262260437</v>
+      </c>
+      <c r="F869">
+        <v>1959100</v>
+      </c>
+      <c r="G869">
+        <v>19591</v>
+      </c>
+      <c r="H869">
+        <f t="shared" si="111"/>
+        <v>867</v>
+      </c>
+      <c r="I869">
+        <f>SUM($F$3:F869)/H869</f>
+        <v>4640500.6946727224</v>
+      </c>
+      <c r="N869">
+        <f t="shared" si="114"/>
+        <v>0.79100000858306885</v>
+      </c>
+      <c r="O869">
+        <f t="shared" si="115"/>
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="P869">
+        <f t="shared" si="110"/>
+        <v>0.78500000635782874</v>
+      </c>
+      <c r="Q869">
+        <f t="shared" si="101"/>
+        <v>0.76309524121738626</v>
+      </c>
+      <c r="R869">
+        <f t="shared" si="102"/>
+        <v>2.1904765140442484E-2</v>
+      </c>
+      <c r="S869">
+        <f t="shared" si="103"/>
+        <v>1.1380949190684719E-2</v>
+      </c>
+      <c r="T869">
+        <f t="shared" si="104"/>
+        <v>1.7071423786027079E-4</v>
+      </c>
+      <c r="U869">
+        <f t="shared" si="105"/>
+        <v>128.31246775310845</v>
+      </c>
+    </row>
+    <row r="870" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A870" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B870">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="C870">
+        <v>0.79400002956390381</v>
+      </c>
+      <c r="D870">
+        <v>0.7839999794960022</v>
+      </c>
+      <c r="E870">
+        <v>0.79199999570846558</v>
+      </c>
+      <c r="F870">
+        <v>1361100</v>
+      </c>
+      <c r="G870">
+        <v>13611</v>
+      </c>
+      <c r="H870">
+        <f t="shared" si="111"/>
+        <v>868</v>
+      </c>
+      <c r="I870">
+        <f>SUM($F$3:F870)/H870</f>
+        <v>4636722.5832733298</v>
+      </c>
+      <c r="N870">
+        <f t="shared" si="114"/>
+        <v>0.79400002956390381</v>
+      </c>
+      <c r="O870">
+        <f t="shared" si="115"/>
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="P870">
+        <f t="shared" si="110"/>
+        <v>0.79000000158945716</v>
+      </c>
+      <c r="Q870">
+        <f t="shared" si="101"/>
+        <v>0.76278571855454214</v>
+      </c>
+      <c r="R870">
+        <f t="shared" si="102"/>
+        <v>2.7214283034915021E-2</v>
+      </c>
+      <c r="S870">
+        <f t="shared" si="103"/>
+        <v>1.1071426527840742E-2</v>
+      </c>
+      <c r="T870">
+        <f t="shared" si="104"/>
+        <v>1.6607139791761114E-4</v>
+      </c>
+      <c r="U870">
+        <f t="shared" si="105"/>
+        <v>163.87098185574476</v>
+      </c>
+    </row>
+    <row r="871" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A871" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B871">
+        <v>0.78600001335144043</v>
+      </c>
+      <c r="C871">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="D871">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="E871">
+        <v>0.78700000047683716</v>
+      </c>
+      <c r="F871">
+        <v>1755100</v>
+      </c>
+      <c r="G871">
+        <v>17551</v>
+      </c>
+      <c r="H871">
+        <f t="shared" si="111"/>
+        <v>869</v>
+      </c>
+      <c r="I871">
+        <f>SUM($F$3:F871)/H871</f>
+        <v>4633406.561888665</v>
+      </c>
+      <c r="N871">
+        <f t="shared" si="114"/>
+        <v>0.79400002956390381</v>
+      </c>
+      <c r="O871">
+        <f t="shared" si="115"/>
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="P871">
+        <f t="shared" si="110"/>
+        <v>0.78533333539962769</v>
+      </c>
+      <c r="Q871">
+        <f t="shared" si="101"/>
+        <v>0.76390476595787771</v>
+      </c>
+      <c r="R871">
+        <f t="shared" si="102"/>
+        <v>2.1428569441749978E-2</v>
+      </c>
+      <c r="S871">
+        <f t="shared" si="103"/>
+        <v>1.2190473931176313E-2</v>
+      </c>
+      <c r="T871">
+        <f t="shared" si="104"/>
+        <v>1.828571089676447E-4</v>
+      </c>
+      <c r="U871">
+        <f t="shared" si="105"/>
+        <v>117.18751085330577</v>
+      </c>
+    </row>
+    <row r="872" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A872" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B872">
+        <v>0.7929999828338623</v>
+      </c>
+      <c r="C872">
+        <v>0.79900002479553223</v>
+      </c>
+      <c r="D872">
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="E872">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="F872">
+        <v>900100</v>
+      </c>
+      <c r="G872">
+        <v>9001</v>
+      </c>
+      <c r="H872">
+        <f t="shared" si="111"/>
+        <v>870</v>
+      </c>
+      <c r="I872">
+        <f>SUM($F$3:F872)/H872</f>
+        <v>4629115.4049209766</v>
+      </c>
+      <c r="N872">
+        <f t="shared" si="114"/>
+        <v>0.79900002479553223</v>
+      </c>
+      <c r="O872">
+        <f t="shared" si="115"/>
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="P872">
+        <f t="shared" si="110"/>
+        <v>0.78666667143503821</v>
+      </c>
+      <c r="Q872">
+        <f t="shared" si="101"/>
+        <v>0.76623809905279239</v>
+      </c>
+      <c r="R872">
+        <f t="shared" si="102"/>
+        <v>2.0428572382245824E-2</v>
+      </c>
+      <c r="S872">
+        <f t="shared" si="103"/>
+        <v>1.2904760383424299E-2</v>
+      </c>
+      <c r="T872">
+        <f t="shared" si="104"/>
+        <v>1.9357140575136447E-4</v>
+      </c>
+      <c r="U872">
+        <f t="shared" si="105"/>
+        <v>105.53507271877538</v>
+      </c>
+    </row>
+    <row r="873" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A873" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B873">
+        <v>0.78600001335144043</v>
+      </c>
+      <c r="C873">
+        <v>0.79600000381469727</v>
+      </c>
+      <c r="D873">
+        <v>0.78600001335144043</v>
+      </c>
+      <c r="E873">
+        <v>0.79400002956390381</v>
+      </c>
+      <c r="F873">
+        <v>3619407.75</v>
+      </c>
+      <c r="G873">
+        <v>36194.078125</v>
+      </c>
+      <c r="H873">
+        <f t="shared" si="111"/>
+        <v>871</v>
+      </c>
+      <c r="I873">
+        <f>SUM($F$3:F873)/H873</f>
+        <v>4627956.1538820323</v>
+      </c>
+      <c r="N873">
+        <f t="shared" si="114"/>
+        <v>0.79900002479553223</v>
+      </c>
+      <c r="O873">
+        <f t="shared" si="115"/>
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="P873">
+        <f t="shared" si="110"/>
+        <v>0.79200001557668054</v>
+      </c>
+      <c r="Q873">
+        <f t="shared" si="101"/>
+        <v>0.7693095278172265</v>
+      </c>
+      <c r="R873">
+        <f t="shared" si="102"/>
+        <v>2.2690487759454037E-2</v>
+      </c>
+      <c r="S873">
+        <f t="shared" si="103"/>
+        <v>1.3499999330157322E-2</v>
+      </c>
+      <c r="T873">
+        <f t="shared" si="104"/>
+        <v>2.0249998995235983E-4</v>
+      </c>
+      <c r="U873">
+        <f t="shared" si="105"/>
+        <v>112.05179696449468</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U873"/>
+  <dimension ref="A1:U874"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A857" workbookViewId="0">
-      <selection activeCell="A874" sqref="A874"/>
+    <sheetView tabSelected="1" topLeftCell="A862" workbookViewId="0">
+      <selection activeCell="A875" sqref="A875"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3242,7 +3242,7 @@
         <v>-8.9406461307292577</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44434</v>
       </c>
@@ -3272,6 +3272,12 @@
         <f>SUM($F$3:F46)/H46</f>
         <v>22689911.34090909</v>
       </c>
+      <c r="K46" s="2">
+        <v>45716</v>
+      </c>
+      <c r="L46" s="2">
+        <v>45693</v>
+      </c>
       <c r="N46">
         <f t="shared" si="9"/>
         <v>1.0469999999999999</v>
@@ -49653,23 +49659,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q873" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q874" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R873" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R874" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S873" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S874" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T873" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T874" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U873" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U874" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -52799,7 +52805,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P873" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P874" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52909,7 +52915,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H873" si="111">H833+1</f>
+        <f t="shared" ref="H834:H874" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -54366,11 +54372,11 @@
         <v>4681470.9594663745</v>
       </c>
       <c r="N857">
-        <f t="shared" ref="N857:N873" si="114">IF(A857&lt;&gt;$K$45,MAX(N856,VLOOKUP(A857,A:C,3)),)</f>
+        <f t="shared" ref="N857:N874" si="114">IF(A857&lt;&gt;$K$45,MAX(N856,VLOOKUP(A857,A:C,3)),)</f>
         <v>0.78899997472763062</v>
       </c>
       <c r="O857">
-        <f t="shared" ref="O857:O873" si="115">IF(A857&lt;&gt;$K$45,MIN(O856,VLOOKUP(A857,A:D,4)),)</f>
+        <f t="shared" ref="O857:O874" si="115">IF(A857&lt;&gt;$K$45,MIN(O856,VLOOKUP(A857,A:D,4)),)</f>
         <v>0.75700002908706665</v>
       </c>
       <c r="P857">
@@ -55404,6 +55410,69 @@
       <c r="U873">
         <f t="shared" si="105"/>
         <v>112.05179696449468</v>
+      </c>
+    </row>
+    <row r="874" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A874" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B874">
+        <v>0.79100000858306885</v>
+      </c>
+      <c r="C874">
+        <v>0.79100000858306885</v>
+      </c>
+      <c r="D874">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="E874">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="F874">
+        <v>851700</v>
+      </c>
+      <c r="G874">
+        <v>8517</v>
+      </c>
+      <c r="H874">
+        <f t="shared" si="111"/>
+        <v>872</v>
+      </c>
+      <c r="I874">
+        <f>SUM($F$3:F874)/H874</f>
+        <v>4623625.5848982222</v>
+      </c>
+      <c r="N874">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="O874">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="P874">
+        <f t="shared" si="110"/>
+        <v>0.78433334827423096</v>
+      </c>
+      <c r="Q874">
+        <f t="shared" si="101"/>
+        <v>0.77169048218500058</v>
+      </c>
+      <c r="R874">
+        <f t="shared" si="102"/>
+        <v>1.2642866089230376E-2</v>
+      </c>
+      <c r="S874">
+        <f t="shared" si="103"/>
+        <v>1.3312926503265805E-2</v>
+      </c>
+      <c r="T874">
+        <f t="shared" si="104"/>
+        <v>1.9969389754898707E-4</v>
+      </c>
+      <c r="U874">
+        <f t="shared" si="105"/>
+        <v>63.311229058108523</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U874"/>
+  <dimension ref="A1:U891"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A862" workbookViewId="0">
-      <selection activeCell="A875" sqref="A875"/>
+    <sheetView tabSelected="1" topLeftCell="A874" workbookViewId="0">
+      <selection activeCell="A892" sqref="A892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -49659,23 +49659,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q874" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q891" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R874" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R891" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S874" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S891" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T874" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T891" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U874" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U891" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -52805,7 +52805,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P874" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P891" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52915,7 +52915,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H874" si="111">H833+1</f>
+        <f t="shared" ref="H834:H891" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -54372,11 +54372,11 @@
         <v>4681470.9594663745</v>
       </c>
       <c r="N857">
-        <f t="shared" ref="N857:N874" si="114">IF(A857&lt;&gt;$K$45,MAX(N856,VLOOKUP(A857,A:C,3)),)</f>
+        <f t="shared" ref="N857:N873" si="114">IF(A857&lt;&gt;$K$45,MAX(N856,VLOOKUP(A857,A:C,3)),)</f>
         <v>0.78899997472763062</v>
       </c>
       <c r="O857">
-        <f t="shared" ref="O857:O874" si="115">IF(A857&lt;&gt;$K$45,MIN(O856,VLOOKUP(A857,A:D,4)),)</f>
+        <f t="shared" ref="O857:O873" si="115">IF(A857&lt;&gt;$K$45,MIN(O856,VLOOKUP(A857,A:D,4)),)</f>
         <v>0.75700002908706665</v>
       </c>
       <c r="P857">
@@ -55443,12 +55443,12 @@
         <v>4623625.5848982222</v>
       </c>
       <c r="N874">
-        <f t="shared" si="114"/>
-        <v>0</v>
+        <f>VLOOKUP(L46,A:C,3)</f>
+        <v>0.78799998760223389</v>
       </c>
       <c r="O874">
-        <f t="shared" si="115"/>
-        <v>0</v>
+        <f>VLOOKUP(L46,A:D,4)</f>
+        <v>0.77999997138977051</v>
       </c>
       <c r="P874">
         <f t="shared" si="110"/>
@@ -55473,6 +55473,1077 @@
       <c r="U874">
         <f t="shared" si="105"/>
         <v>63.311229058108523</v>
+      </c>
+    </row>
+    <row r="875" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A875" s="1">
+        <v>45693</v>
+      </c>
+      <c r="B875">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C875">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="D875">
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="E875">
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="F875">
+        <v>2246100</v>
+      </c>
+      <c r="G875">
+        <v>22461</v>
+      </c>
+      <c r="H875">
+        <f t="shared" si="111"/>
+        <v>873</v>
+      </c>
+      <c r="I875">
+        <f>SUM($F$3:F875)/H875</f>
+        <v>4620902.1878937576</v>
+      </c>
+      <c r="N875">
+        <f t="shared" ref="N875:N891" si="116">IF(A875&lt;&gt;$K$46,MAX(N874,VLOOKUP(A875,A:C,3)),)</f>
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="O875">
+        <f t="shared" ref="O875:O891" si="117">IF(A875&lt;&gt;$K$46,MIN(O874,VLOOKUP(A875,A:D,4)),)</f>
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="P875">
+        <f t="shared" si="110"/>
+        <v>0.78366665045420325</v>
+      </c>
+      <c r="Q875">
+        <f t="shared" si="101"/>
+        <v>0.77414286136627197</v>
+      </c>
+      <c r="R875">
+        <f t="shared" si="102"/>
+        <v>9.5237890879312781E-3</v>
+      </c>
+      <c r="S875">
+        <f t="shared" si="103"/>
+        <v>1.257142850330897E-2</v>
+      </c>
+      <c r="T875">
+        <f t="shared" si="104"/>
+        <v>1.8857142754963454E-4</v>
+      </c>
+      <c r="U875">
+        <f t="shared" si="105"/>
+        <v>50.504942406635216</v>
+      </c>
+    </row>
+    <row r="876" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A876" s="1">
+        <v>45694</v>
+      </c>
+      <c r="B876">
+        <v>0.78600001335144043</v>
+      </c>
+      <c r="C876">
+        <v>0.80800002813339233</v>
+      </c>
+      <c r="D876">
+        <v>0.7850000262260437</v>
+      </c>
+      <c r="E876">
+        <v>0.8059999942779541</v>
+      </c>
+      <c r="F876">
+        <v>4895702</v>
+      </c>
+      <c r="G876">
+        <v>48957.01953125</v>
+      </c>
+      <c r="H876">
+        <f t="shared" si="111"/>
+        <v>874</v>
+      </c>
+      <c r="I876">
+        <f>SUM($F$3:F876)/H876</f>
+        <v>4621216.6041547479</v>
+      </c>
+      <c r="N876">
+        <f t="shared" si="116"/>
+        <v>0.80800002813339233</v>
+      </c>
+      <c r="O876">
+        <f t="shared" si="117"/>
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="P876">
+        <f t="shared" si="110"/>
+        <v>0.79966668287913001</v>
+      </c>
+      <c r="Q876">
+        <f t="shared" si="101"/>
+        <v>0.77711905184246244</v>
+      </c>
+      <c r="R876">
+        <f t="shared" si="102"/>
+        <v>2.254763103666757E-2</v>
+      </c>
+      <c r="S876">
+        <f t="shared" si="103"/>
+        <v>1.2816328175213863E-2</v>
+      </c>
+      <c r="T876">
+        <f t="shared" si="104"/>
+        <v>1.9224492262820793E-4</v>
+      </c>
+      <c r="U876">
+        <f t="shared" si="105"/>
+        <v>117.28596380292218</v>
+      </c>
+    </row>
+    <row r="877" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A877" s="1">
+        <v>45695</v>
+      </c>
+      <c r="B877">
+        <v>0.80800002813339233</v>
+      </c>
+      <c r="C877">
+        <v>0.82999998331069946</v>
+      </c>
+      <c r="D877">
+        <v>0.80800002813339233</v>
+      </c>
+      <c r="E877">
+        <v>0.81999999284744263</v>
+      </c>
+      <c r="F877">
+        <v>2989909</v>
+      </c>
+      <c r="G877">
+        <v>29899.08984375</v>
+      </c>
+      <c r="H877">
+        <f t="shared" si="111"/>
+        <v>875</v>
+      </c>
+      <c r="I877">
+        <f>SUM($F$3:F877)/H877</f>
+        <v>4619352.2526071426</v>
+      </c>
+      <c r="N877">
+        <f t="shared" si="116"/>
+        <v>0.82999998331069946</v>
+      </c>
+      <c r="O877">
+        <f t="shared" si="117"/>
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="P877">
+        <f t="shared" si="110"/>
+        <v>0.81933333476384484</v>
+      </c>
+      <c r="Q877">
+        <f t="shared" si="101"/>
+        <v>0.78178571803229191</v>
+      </c>
+      <c r="R877">
+        <f t="shared" si="102"/>
+        <v>3.7547616731552935E-2</v>
+      </c>
+      <c r="S877">
+        <f t="shared" si="103"/>
+        <v>1.2846940634201989E-2</v>
+      </c>
+      <c r="T877">
+        <f t="shared" si="104"/>
+        <v>1.9270410951302983E-4</v>
+      </c>
+      <c r="U877">
+        <f t="shared" si="105"/>
+        <v>194.84595749637671</v>
+      </c>
+    </row>
+    <row r="878" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A878" s="1">
+        <v>45698</v>
+      </c>
+      <c r="B878">
+        <v>0.81999999284744263</v>
+      </c>
+      <c r="C878">
+        <v>0.82599997520446777</v>
+      </c>
+      <c r="D878">
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="E878">
+        <v>0.82400000095367432</v>
+      </c>
+      <c r="F878">
+        <v>1616004</v>
+      </c>
+      <c r="G878">
+        <v>16160.0400390625</v>
+      </c>
+      <c r="H878">
+        <f t="shared" si="111"/>
+        <v>876</v>
+      </c>
+      <c r="I878">
+        <f>SUM($F$3:F878)/H878</f>
+        <v>4615923.7728667241</v>
+      </c>
+      <c r="N878">
+        <f t="shared" si="116"/>
+        <v>0.82999998331069946</v>
+      </c>
+      <c r="O878">
+        <f t="shared" si="117"/>
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="P878">
+        <f t="shared" si="110"/>
+        <v>0.8216666579246521</v>
+      </c>
+      <c r="Q878">
+        <f t="shared" si="101"/>
+        <v>0.78714286003793987</v>
+      </c>
+      <c r="R878">
+        <f t="shared" si="102"/>
+        <v>3.4523797886712226E-2</v>
+      </c>
+      <c r="S878">
+        <f t="shared" si="103"/>
+        <v>1.242177036343789E-2</v>
+      </c>
+      <c r="T878">
+        <f t="shared" si="104"/>
+        <v>1.8632655545156834E-4</v>
+      </c>
+      <c r="U878">
+        <f t="shared" si="105"/>
+        <v>185.28651379317728</v>
+      </c>
+    </row>
+    <row r="879" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A879" s="1">
+        <v>45699</v>
+      </c>
+      <c r="B879">
+        <v>0.82499998807907104</v>
+      </c>
+      <c r="C879">
+        <v>0.82499998807907104</v>
+      </c>
+      <c r="D879">
+        <v>0.81699997186660767</v>
+      </c>
+      <c r="E879">
+        <v>0.8190000057220459</v>
+      </c>
+      <c r="F879">
+        <v>2121010</v>
+      </c>
+      <c r="G879">
+        <v>21210.099609375</v>
+      </c>
+      <c r="H879">
+        <f t="shared" si="111"/>
+        <v>877</v>
+      </c>
+      <c r="I879">
+        <f>SUM($F$3:F879)/H879</f>
+        <v>4613078.9453035919</v>
+      </c>
+      <c r="N879">
+        <f t="shared" si="116"/>
+        <v>0.82999998331069946</v>
+      </c>
+      <c r="O879">
+        <f t="shared" si="117"/>
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="P879">
+        <f t="shared" si="110"/>
+        <v>0.82033332188924157</v>
+      </c>
+      <c r="Q879">
+        <f t="shared" si="101"/>
+        <v>0.79107143055825013</v>
+      </c>
+      <c r="R879">
+        <f t="shared" si="102"/>
+        <v>2.9261891330991441E-2</v>
+      </c>
+      <c r="S879">
+        <f t="shared" si="103"/>
+        <v>1.3948980034614129E-2</v>
+      </c>
+      <c r="T879">
+        <f t="shared" si="104"/>
+        <v>2.0923470051921193E-4</v>
+      </c>
+      <c r="U879">
+        <f t="shared" si="105"/>
+        <v>139.85199997122186</v>
+      </c>
+    </row>
+    <row r="880" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A880" s="1">
+        <v>45700</v>
+      </c>
+      <c r="B880">
+        <v>0.81599998474121094</v>
+      </c>
+      <c r="C880">
+        <v>0.83300000429153442</v>
+      </c>
+      <c r="D880">
+        <v>0.81300002336502075</v>
+      </c>
+      <c r="E880">
+        <v>0.83099997043609619</v>
+      </c>
+      <c r="F880">
+        <v>4602428</v>
+      </c>
+      <c r="G880">
+        <v>46024.28125</v>
+      </c>
+      <c r="H880">
+        <f t="shared" si="111"/>
+        <v>878</v>
+      </c>
+      <c r="I880">
+        <f>SUM($F$3:F880)/H880</f>
+        <v>4613066.8143863892</v>
+      </c>
+      <c r="N880">
+        <f t="shared" si="116"/>
+        <v>0.83300000429153442</v>
+      </c>
+      <c r="O880">
+        <f t="shared" si="117"/>
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="P880">
+        <f t="shared" si="110"/>
+        <v>0.82566666603088379</v>
+      </c>
+      <c r="Q880">
+        <f t="shared" si="101"/>
+        <v>0.79530952516056252</v>
+      </c>
+      <c r="R880">
+        <f t="shared" si="102"/>
+        <v>3.0357140870321264E-2</v>
+      </c>
+      <c r="S880">
+        <f t="shared" si="103"/>
+        <v>1.573129109784863E-2</v>
+      </c>
+      <c r="T880">
+        <f t="shared" si="104"/>
+        <v>2.3596936646772944E-4</v>
+      </c>
+      <c r="U880">
+        <f t="shared" si="105"/>
+        <v>128.64865183452881</v>
+      </c>
+    </row>
+    <row r="881" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A881" s="1">
+        <v>45701</v>
+      </c>
+      <c r="B881">
+        <v>0.83799999952316284</v>
+      </c>
+      <c r="C881">
+        <v>0.83799999952316284</v>
+      </c>
+      <c r="D881">
+        <v>0.8190000057220459</v>
+      </c>
+      <c r="E881">
+        <v>0.8190000057220459</v>
+      </c>
+      <c r="F881">
+        <v>1240408</v>
+      </c>
+      <c r="G881">
+        <v>12404.080078125</v>
+      </c>
+      <c r="H881">
+        <f t="shared" si="111"/>
+        <v>879</v>
+      </c>
+      <c r="I881">
+        <f>SUM($F$3:F881)/H881</f>
+        <v>4609229.8874075655</v>
+      </c>
+      <c r="N881">
+        <f t="shared" si="116"/>
+        <v>0.83799999952316284</v>
+      </c>
+      <c r="O881">
+        <f t="shared" si="117"/>
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="P881">
+        <f t="shared" si="110"/>
+        <v>0.82533333698908484</v>
+      </c>
+      <c r="Q881">
+        <f t="shared" si="101"/>
+        <v>0.79928571553457339</v>
+      </c>
+      <c r="R881">
+        <f t="shared" si="102"/>
+        <v>2.6047621454511449E-2</v>
+      </c>
+      <c r="S881">
+        <f t="shared" si="103"/>
+        <v>1.6612243895628005E-2</v>
+      </c>
+      <c r="T881">
+        <f t="shared" si="104"/>
+        <v>2.4918365843442004E-4</v>
+      </c>
+      <c r="U881">
+        <f t="shared" si="105"/>
+        <v>104.53182049803897</v>
+      </c>
+    </row>
+    <row r="882" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A882" s="1">
+        <v>45702</v>
+      </c>
+      <c r="B882">
+        <v>0.81699997186660767</v>
+      </c>
+      <c r="C882">
+        <v>0.83399999141693115</v>
+      </c>
+      <c r="D882">
+        <v>0.81699997186660767</v>
+      </c>
+      <c r="E882">
+        <v>0.8320000171661377</v>
+      </c>
+      <c r="F882">
+        <v>2426810</v>
+      </c>
+      <c r="G882">
+        <v>24268.099609375</v>
+      </c>
+      <c r="H882">
+        <f t="shared" si="111"/>
+        <v>880</v>
+      </c>
+      <c r="I882">
+        <f>SUM($F$3:F882)/H882</f>
+        <v>4606749.864808239</v>
+      </c>
+      <c r="N882">
+        <f t="shared" si="116"/>
+        <v>0.83799999952316284</v>
+      </c>
+      <c r="O882">
+        <f t="shared" si="117"/>
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="P882">
+        <f t="shared" si="110"/>
+        <v>0.82766666014989221</v>
+      </c>
+      <c r="Q882">
+        <f t="shared" si="101"/>
+        <v>0.80333333497955695</v>
+      </c>
+      <c r="R882">
+        <f t="shared" si="102"/>
+        <v>2.4333325170335263E-2</v>
+      </c>
+      <c r="S882">
+        <f t="shared" si="103"/>
+        <v>1.714285255289405E-2</v>
+      </c>
+      <c r="T882">
+        <f t="shared" si="104"/>
+        <v>2.5714278829341072E-4</v>
+      </c>
+      <c r="U882">
+        <f t="shared" si="105"/>
+        <v>94.629623221515033</v>
+      </c>
+    </row>
+    <row r="883" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A883" s="1">
+        <v>45705</v>
+      </c>
+      <c r="B883">
+        <v>0.8320000171661377</v>
+      </c>
+      <c r="C883">
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="D883">
+        <v>0.8320000171661377</v>
+      </c>
+      <c r="E883">
+        <v>0.83700001239776611</v>
+      </c>
+      <c r="F883">
+        <v>5033013</v>
+      </c>
+      <c r="G883">
+        <v>50330.12890625</v>
+      </c>
+      <c r="H883">
+        <f t="shared" si="111"/>
+        <v>881</v>
+      </c>
+      <c r="I883">
+        <f>SUM($F$3:F883)/H883</f>
+        <v>4607233.7049162881</v>
+      </c>
+      <c r="N883">
+        <f t="shared" si="116"/>
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="O883">
+        <f t="shared" si="117"/>
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="P883">
+        <f t="shared" si="110"/>
+        <v>0.83633333444595337</v>
+      </c>
+      <c r="Q883">
+        <f t="shared" si="101"/>
+        <v>0.80700000127156568</v>
+      </c>
+      <c r="R883">
+        <f t="shared" si="102"/>
+        <v>2.9333333174387688E-2</v>
+      </c>
+      <c r="S883">
+        <f t="shared" si="103"/>
+        <v>1.8190471898941778E-2</v>
+      </c>
+      <c r="T883">
+        <f t="shared" si="104"/>
+        <v>2.7285707848412669E-4</v>
+      </c>
+      <c r="U883">
+        <f t="shared" si="105"/>
+        <v>107.50438778187731</v>
+      </c>
+    </row>
+    <row r="884" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A884" s="1">
+        <v>45706</v>
+      </c>
+      <c r="B884">
+        <v>0.83700001239776611</v>
+      </c>
+      <c r="C884">
+        <v>0.84399998188018799</v>
+      </c>
+      <c r="D884">
+        <v>0.82599997520446777</v>
+      </c>
+      <c r="E884">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="F884">
+        <v>1772511.875</v>
+      </c>
+      <c r="G884">
+        <v>17725.119140625</v>
+      </c>
+      <c r="H884">
+        <f t="shared" si="111"/>
+        <v>882</v>
+      </c>
+      <c r="I884">
+        <f>SUM($F$3:F884)/H884</f>
+        <v>4604019.7345875846</v>
+      </c>
+      <c r="N884">
+        <f t="shared" si="116"/>
+        <v>0.84399998188018799</v>
+      </c>
+      <c r="O884">
+        <f t="shared" si="117"/>
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="P884">
+        <f t="shared" si="110"/>
+        <v>0.83233332633972168</v>
+      </c>
+      <c r="Q884">
+        <f t="shared" si="101"/>
+        <v>0.81002381018229896</v>
+      </c>
+      <c r="R884">
+        <f t="shared" si="102"/>
+        <v>2.2309516157422715E-2</v>
+      </c>
+      <c r="S884">
+        <f t="shared" si="103"/>
+        <v>1.8353736724983274E-2</v>
+      </c>
+      <c r="T884">
+        <f t="shared" si="104"/>
+        <v>2.7530605087474908E-4</v>
+      </c>
+      <c r="U884">
+        <f t="shared" si="105"/>
+        <v>81.035328088638579</v>
+      </c>
+    </row>
+    <row r="885" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A885" s="1">
+        <v>45707</v>
+      </c>
+      <c r="B885">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C885">
+        <v>0.84399998188018799</v>
+      </c>
+      <c r="D885">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="E885">
+        <v>0.84299999475479126</v>
+      </c>
+      <c r="F885">
+        <v>4155814</v>
+      </c>
+      <c r="G885">
+        <v>41558.140625</v>
+      </c>
+      <c r="H885">
+        <f t="shared" si="111"/>
+        <v>883</v>
+      </c>
+      <c r="I885">
+        <f>SUM($F$3:F885)/H885</f>
+        <v>4603512.1403241791</v>
+      </c>
+      <c r="N885">
+        <f t="shared" si="116"/>
+        <v>0.84399998188018799</v>
+      </c>
+      <c r="O885">
+        <f t="shared" si="117"/>
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="P885">
+        <f t="shared" si="110"/>
+        <v>0.83799999952316284</v>
+      </c>
+      <c r="Q885">
+        <f t="shared" si="101"/>
+        <v>0.81378571476255146</v>
+      </c>
+      <c r="R885">
+        <f t="shared" si="102"/>
+        <v>2.4214284760611382E-2</v>
+      </c>
+      <c r="S885">
+        <f t="shared" si="103"/>
+        <v>1.751360074192489E-2</v>
+      </c>
+      <c r="T885">
+        <f t="shared" si="104"/>
+        <v>2.6270401112887332E-4</v>
+      </c>
+      <c r="U885">
+        <f t="shared" si="105"/>
+        <v>92.173258628825081</v>
+      </c>
+    </row>
+    <row r="886" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A886" s="1">
+        <v>45708</v>
+      </c>
+      <c r="B886">
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="C886">
+        <v>0.84700000286102295</v>
+      </c>
+      <c r="D886">
+        <v>0.83899998664855957</v>
+      </c>
+      <c r="E886">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="F886">
+        <v>951504</v>
+      </c>
+      <c r="G886">
+        <v>9515.0400390625</v>
+      </c>
+      <c r="H886">
+        <f t="shared" si="111"/>
+        <v>884</v>
+      </c>
+      <c r="I886">
+        <f>SUM($F$3:F886)/H886</f>
+        <v>4599380.9093962107</v>
+      </c>
+      <c r="N886">
+        <f t="shared" si="116"/>
+        <v>0.84700000286102295</v>
+      </c>
+      <c r="O886">
+        <f t="shared" si="117"/>
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="P886">
+        <f t="shared" si="110"/>
+        <v>0.843666672706604</v>
+      </c>
+      <c r="Q886">
+        <f t="shared" si="101"/>
+        <v>0.8178571434248062</v>
+      </c>
+      <c r="R886">
+        <f t="shared" si="102"/>
+        <v>2.5809529281797805E-2</v>
+      </c>
+      <c r="S886">
+        <f t="shared" si="103"/>
+        <v>1.5965982359282808E-2</v>
+      </c>
+      <c r="T886">
+        <f t="shared" si="104"/>
+        <v>2.3948973538924211E-4</v>
+      </c>
+      <c r="U886">
+        <f t="shared" si="105"/>
+        <v>107.76883293077107</v>
+      </c>
+    </row>
+    <row r="887" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A887" s="1">
+        <v>45709</v>
+      </c>
+      <c r="B887">
+        <v>0.84899997711181641</v>
+      </c>
+      <c r="C887">
+        <v>0.86699998378753662</v>
+      </c>
+      <c r="D887">
+        <v>0.84899997711181641</v>
+      </c>
+      <c r="E887">
+        <v>0.86400002241134644</v>
+      </c>
+      <c r="F887">
+        <v>2984500</v>
+      </c>
+      <c r="G887">
+        <v>29845</v>
+      </c>
+      <c r="H887">
+        <f t="shared" si="111"/>
+        <v>885</v>
+      </c>
+      <c r="I887">
+        <f>SUM($F$3:F887)/H887</f>
+        <v>4597556.1852048021</v>
+      </c>
+      <c r="N887">
+        <f t="shared" si="116"/>
+        <v>0.86699998378753662</v>
+      </c>
+      <c r="O887">
+        <f t="shared" si="117"/>
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="P887">
+        <f t="shared" si="110"/>
+        <v>0.85999999443689978</v>
+      </c>
+      <c r="Q887">
+        <f t="shared" si="101"/>
+        <v>0.82271428477196462</v>
+      </c>
+      <c r="R887">
+        <f t="shared" si="102"/>
+        <v>3.7285709664935163E-2</v>
+      </c>
+      <c r="S887">
+        <f t="shared" si="103"/>
+        <v>1.5326530349497896E-2</v>
+      </c>
+      <c r="T887">
+        <f t="shared" si="104"/>
+        <v>2.2989795524246842E-4</v>
+      </c>
+      <c r="U887">
+        <f t="shared" si="105"/>
+        <v>162.18373767444226</v>
+      </c>
+    </row>
+    <row r="888" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A888" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B888">
+        <v>0.86400002241134644</v>
+      </c>
+      <c r="C888">
+        <v>0.86900001764297485</v>
+      </c>
+      <c r="D888">
+        <v>0.85500001907348633</v>
+      </c>
+      <c r="E888">
+        <v>0.8619999885559082</v>
+      </c>
+      <c r="F888">
+        <v>5279115</v>
+      </c>
+      <c r="G888">
+        <v>52791.1484375</v>
+      </c>
+      <c r="H888">
+        <f t="shared" si="111"/>
+        <v>886</v>
+      </c>
+      <c r="I888">
+        <f>SUM($F$3:F888)/H888</f>
+        <v>4598325.4389461065</v>
+      </c>
+      <c r="N888">
+        <f t="shared" si="116"/>
+        <v>0.86900001764297485</v>
+      </c>
+      <c r="O888">
+        <f t="shared" si="117"/>
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="P888">
+        <f t="shared" si="110"/>
+        <v>0.86200000842412317</v>
+      </c>
+      <c r="Q888">
+        <f t="shared" si="101"/>
+        <v>0.82826190335409977</v>
+      </c>
+      <c r="R888">
+        <f t="shared" si="102"/>
+        <v>3.3738105070023394E-2</v>
+      </c>
+      <c r="S888">
+        <f t="shared" si="103"/>
+        <v>1.4680273678837983E-2</v>
+      </c>
+      <c r="T888">
+        <f t="shared" si="104"/>
+        <v>2.2020410518256973E-4</v>
+      </c>
+      <c r="U888">
+        <f t="shared" si="105"/>
+        <v>153.21287966930208</v>
+      </c>
+    </row>
+    <row r="889" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A889" s="1">
+        <v>45713</v>
+      </c>
+      <c r="B889">
+        <v>0.8529999852180481</v>
+      </c>
+      <c r="C889">
+        <v>0.8619999885559082</v>
+      </c>
+      <c r="D889">
+        <v>0.84700000286102295</v>
+      </c>
+      <c r="E889">
+        <v>0.85199999809265137</v>
+      </c>
+      <c r="F889">
+        <v>2000100</v>
+      </c>
+      <c r="G889">
+        <v>20001</v>
+      </c>
+      <c r="H889">
+        <f t="shared" si="111"/>
+        <v>887</v>
+      </c>
+      <c r="I889">
+        <f>SUM($F$3:F889)/H889</f>
+        <v>4595396.2107173055</v>
+      </c>
+      <c r="N889">
+        <f t="shared" si="116"/>
+        <v>0.86900001764297485</v>
+      </c>
+      <c r="O889">
+        <f t="shared" si="117"/>
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="P889">
+        <f t="shared" si="110"/>
+        <v>0.85366666316986084</v>
+      </c>
+      <c r="Q889">
+        <f t="shared" si="101"/>
+        <v>0.83326190426236113</v>
+      </c>
+      <c r="R889">
+        <f t="shared" si="102"/>
+        <v>2.0404758907499709E-2</v>
+      </c>
+      <c r="S889">
+        <f t="shared" si="103"/>
+        <v>1.3442178161776801E-2</v>
+      </c>
+      <c r="T889">
+        <f t="shared" si="104"/>
+        <v>2.0163267242665202E-4</v>
+      </c>
+      <c r="U889">
+        <f t="shared" si="105"/>
+        <v>101.19768121866437</v>
+      </c>
+    </row>
+    <row r="890" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A890" s="1">
+        <v>45714</v>
+      </c>
+      <c r="B890">
+        <v>0.85100001096725464</v>
+      </c>
+      <c r="C890">
+        <v>0.86100000143051147</v>
+      </c>
+      <c r="D890">
+        <v>0.84899997711181641</v>
+      </c>
+      <c r="E890">
+        <v>0.85900002717971802</v>
+      </c>
+      <c r="F890">
+        <v>1098200</v>
+      </c>
+      <c r="G890">
+        <v>10982</v>
+      </c>
+      <c r="H890">
+        <f t="shared" si="111"/>
+        <v>888</v>
+      </c>
+      <c r="I890">
+        <f>SUM($F$3:F890)/H890</f>
+        <v>4591457.9266962279</v>
+      </c>
+      <c r="N890">
+        <f t="shared" si="116"/>
+        <v>0.86900001764297485</v>
+      </c>
+      <c r="O890">
+        <f t="shared" si="117"/>
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="P890">
+        <f t="shared" si="110"/>
+        <v>0.856333335240682</v>
+      </c>
+      <c r="Q890">
+        <f t="shared" si="101"/>
+        <v>0.83730952228818634</v>
+      </c>
+      <c r="R890">
+        <f t="shared" si="102"/>
+        <v>1.9023812952495667E-2</v>
+      </c>
+      <c r="S890">
+        <f t="shared" si="103"/>
+        <v>1.2829934253173636E-2</v>
+      </c>
+      <c r="T890">
+        <f t="shared" si="104"/>
+        <v>1.9244901379760452E-4</v>
+      </c>
+      <c r="U890">
+        <f t="shared" si="105"/>
+        <v>98.851184410343095</v>
+      </c>
+    </row>
+    <row r="891" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A891" s="1">
+        <v>45715</v>
+      </c>
+      <c r="B891">
+        <v>0.86299997568130493</v>
+      </c>
+      <c r="C891">
+        <v>0.86599999666213989</v>
+      </c>
+      <c r="D891">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="E891">
+        <v>0.85699999332427979</v>
+      </c>
+      <c r="F891">
+        <v>866001</v>
+      </c>
+      <c r="G891">
+        <v>8660.009765625</v>
+      </c>
+      <c r="H891">
+        <f t="shared" si="111"/>
+        <v>889</v>
+      </c>
+      <c r="I891">
+        <f>SUM($F$3:F891)/H891</f>
+        <v>4587267.3114805957</v>
+      </c>
+      <c r="N891">
+        <f t="shared" si="116"/>
+        <v>0.86900001764297485</v>
+      </c>
+      <c r="O891">
+        <f t="shared" si="117"/>
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="P891">
+        <f t="shared" si="110"/>
+        <v>0.85600000619888306</v>
+      </c>
+      <c r="Q891">
+        <f t="shared" si="101"/>
+        <v>0.83992857024783185</v>
+      </c>
+      <c r="R891">
+        <f t="shared" si="102"/>
+        <v>1.6071435951051205E-2</v>
+      </c>
+      <c r="S891">
+        <f t="shared" si="103"/>
+        <v>1.3156465527151726E-2</v>
+      </c>
+      <c r="T891">
+        <f t="shared" si="104"/>
+        <v>1.9734698290727588E-4</v>
+      </c>
+      <c r="U891">
+        <f t="shared" si="105"/>
+        <v>81.437454549798829</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U891"/>
+  <dimension ref="A1:U892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A874" workbookViewId="0">
-      <selection activeCell="A892" sqref="A892"/>
+    <sheetView tabSelected="1" topLeftCell="A880" workbookViewId="0">
+      <selection activeCell="A893" sqref="A893"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3311,7 +3311,7 @@
         <v>-39.020270270269982</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44435</v>
       </c>
@@ -3341,6 +3341,12 @@
         <f>SUM($F$3:F47)/H47</f>
         <v>22260808.177777778</v>
       </c>
+      <c r="K47" s="2">
+        <v>45747</v>
+      </c>
+      <c r="L47" s="2">
+        <v>45719</v>
+      </c>
       <c r="N47">
         <f t="shared" si="9"/>
         <v>1.0469999999999999</v>
@@ -49659,23 +49665,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q891" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q892" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R891" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R892" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S891" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S892" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T891" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T892" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U891" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U892" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -52805,7 +52811,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P891" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P892" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52915,7 +52921,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H891" si="111">H833+1</f>
+        <f t="shared" ref="H834:H892" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -55506,11 +55512,11 @@
         <v>4620902.1878937576</v>
       </c>
       <c r="N875">
-        <f t="shared" ref="N875:N891" si="116">IF(A875&lt;&gt;$K$46,MAX(N874,VLOOKUP(A875,A:C,3)),)</f>
+        <f t="shared" ref="N875:N892" si="116">IF(A875&lt;&gt;$K$46,MAX(N874,VLOOKUP(A875,A:C,3)),)</f>
         <v>0.78799998760223389</v>
       </c>
       <c r="O875">
-        <f t="shared" ref="O875:O891" si="117">IF(A875&lt;&gt;$K$46,MIN(O874,VLOOKUP(A875,A:D,4)),)</f>
+        <f t="shared" ref="O875:O892" si="117">IF(A875&lt;&gt;$K$46,MIN(O874,VLOOKUP(A875,A:D,4)),)</f>
         <v>0.77999997138977051</v>
       </c>
       <c r="P875">
@@ -56544,6 +56550,69 @@
       <c r="U891">
         <f t="shared" si="105"/>
         <v>81.437454549798829</v>
+      </c>
+    </row>
+    <row r="892" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A892" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B892">
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="C892">
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="D892">
+        <v>0.82499998807907104</v>
+      </c>
+      <c r="E892">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="F892">
+        <v>1283704</v>
+      </c>
+      <c r="G892">
+        <v>12837.0400390625</v>
+      </c>
+      <c r="H892">
+        <f t="shared" si="111"/>
+        <v>890</v>
+      </c>
+      <c r="I892">
+        <f>SUM($F$3:F892)/H892</f>
+        <v>4583555.4425912919</v>
+      </c>
+      <c r="N892">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="O892">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="P892">
+        <f t="shared" si="110"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q892">
+        <f t="shared" si="101"/>
+        <v>0.84076190420559482</v>
+      </c>
+      <c r="R892">
+        <f t="shared" si="102"/>
+        <v>-7.428570872261453E-3</v>
+      </c>
+      <c r="S892">
+        <f t="shared" si="103"/>
+        <v>1.244217927764063E-2</v>
+      </c>
+      <c r="T892">
+        <f t="shared" si="104"/>
+        <v>1.8663268916460944E-4</v>
+      </c>
+      <c r="U892">
+        <f t="shared" si="105"/>
+        <v>-39.803160451219114</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U892"/>
+  <dimension ref="A1:U912"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A880" workbookViewId="0">
-      <selection activeCell="A893" sqref="A893"/>
+    <sheetView tabSelected="1" topLeftCell="A892" workbookViewId="0">
+      <selection activeCell="A913" sqref="A913"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -49665,23 +49665,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q892" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q912" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R892" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R912" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S892" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S912" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T892" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T912" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U892" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U912" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -52811,7 +52811,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P892" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P912" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52921,7 +52921,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H892" si="111">H833+1</f>
+        <f t="shared" ref="H834:H912" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -55512,11 +55512,11 @@
         <v>4620902.1878937576</v>
       </c>
       <c r="N875">
-        <f t="shared" ref="N875:N892" si="116">IF(A875&lt;&gt;$K$46,MAX(N874,VLOOKUP(A875,A:C,3)),)</f>
+        <f t="shared" ref="N875:N891" si="116">IF(A875&lt;&gt;$K$46,MAX(N874,VLOOKUP(A875,A:C,3)),)</f>
         <v>0.78799998760223389</v>
       </c>
       <c r="O875">
-        <f t="shared" ref="O875:O892" si="117">IF(A875&lt;&gt;$K$46,MIN(O874,VLOOKUP(A875,A:D,4)),)</f>
+        <f t="shared" ref="O875:O891" si="117">IF(A875&lt;&gt;$K$46,MIN(O874,VLOOKUP(A875,A:D,4)),)</f>
         <v>0.77999997138977051</v>
       </c>
       <c r="P875">
@@ -56583,12 +56583,12 @@
         <v>4583555.4425912919</v>
       </c>
       <c r="N892">
-        <f t="shared" si="116"/>
-        <v>0</v>
+        <f>VLOOKUP(L47,A:C,3)</f>
+        <v>0.8410000205039978</v>
       </c>
       <c r="O892">
-        <f t="shared" si="117"/>
-        <v>0</v>
+        <f>VLOOKUP(L47,A:D,4)</f>
+        <v>0.82300001382827759</v>
       </c>
       <c r="P892">
         <f t="shared" si="110"/>
@@ -56613,6 +56613,1266 @@
       <c r="U892">
         <f t="shared" si="105"/>
         <v>-39.803160451219114</v>
+      </c>
+    </row>
+    <row r="893" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A893" s="1">
+        <v>45719</v>
+      </c>
+      <c r="B893">
+        <v>0.82599997520446777</v>
+      </c>
+      <c r="C893">
+        <v>0.8410000205039978</v>
+      </c>
+      <c r="D893">
+        <v>0.82300001382827759</v>
+      </c>
+      <c r="E893">
+        <v>0.82800000905990601</v>
+      </c>
+      <c r="F893">
+        <v>1707503.875</v>
+      </c>
+      <c r="G893">
+        <v>17075.0390625</v>
+      </c>
+      <c r="H893">
+        <f t="shared" si="111"/>
+        <v>891</v>
+      </c>
+      <c r="I893">
+        <f>SUM($F$3:F893)/H893</f>
+        <v>4580327.5508207073</v>
+      </c>
+      <c r="N893">
+        <f t="shared" ref="N893:N912" si="118">IF(A893&lt;&gt;$K$47,MAX(N892,VLOOKUP(A893,A:C,3)),)</f>
+        <v>0.8410000205039978</v>
+      </c>
+      <c r="O893">
+        <f t="shared" ref="O893:O912" si="119">IF(A893&lt;&gt;$K$47,MIN(O892,VLOOKUP(A893,A:D,4)),)</f>
+        <v>0.82300001382827759</v>
+      </c>
+      <c r="P893">
+        <f t="shared" si="110"/>
+        <v>0.83066668113072717</v>
+      </c>
+      <c r="Q893">
+        <f t="shared" si="101"/>
+        <v>0.84150000129427238</v>
+      </c>
+      <c r="R893">
+        <f t="shared" si="102"/>
+        <v>-1.0833320163545213E-2</v>
+      </c>
+      <c r="S893">
+        <f t="shared" si="103"/>
+        <v>1.1809524630202739E-2</v>
+      </c>
+      <c r="T893">
+        <f t="shared" si="104"/>
+        <v>1.7714286945304109E-4</v>
+      </c>
+      <c r="U893">
+        <f t="shared" si="105"/>
+        <v>-61.155835383015649</v>
+      </c>
+    </row>
+    <row r="894" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A894" s="1">
+        <v>45720</v>
+      </c>
+      <c r="B894">
+        <v>0.81999999284744263</v>
+      </c>
+      <c r="C894">
+        <v>0.82899999618530273</v>
+      </c>
+      <c r="D894">
+        <v>0.81800001859664917</v>
+      </c>
+      <c r="E894">
+        <v>0.82800000905990601</v>
+      </c>
+      <c r="F894">
+        <v>881400</v>
+      </c>
+      <c r="G894">
+        <v>8814</v>
+      </c>
+      <c r="H894">
+        <f t="shared" si="111"/>
+        <v>892</v>
+      </c>
+      <c r="I894">
+        <f>SUM($F$3:F894)/H894</f>
+        <v>4576180.7710552132</v>
+      </c>
+      <c r="N894">
+        <f t="shared" si="118"/>
+        <v>0.8410000205039978</v>
+      </c>
+      <c r="O894">
+        <f t="shared" si="119"/>
+        <v>0.81800001859664917</v>
+      </c>
+      <c r="P894">
+        <f t="shared" si="110"/>
+        <v>0.82500000794728601</v>
+      </c>
+      <c r="Q894">
+        <f t="shared" si="101"/>
+        <v>0.84145238285972979</v>
+      </c>
+      <c r="R894">
+        <f t="shared" si="102"/>
+        <v>-1.6452374912443779E-2</v>
+      </c>
+      <c r="S894">
+        <f t="shared" si="103"/>
+        <v>1.1850340431239352E-2</v>
+      </c>
+      <c r="T894">
+        <f t="shared" si="104"/>
+        <v>1.7775510646859027E-4</v>
+      </c>
+      <c r="U894">
+        <f t="shared" si="105"/>
+        <v>-92.556412242091909</v>
+      </c>
+    </row>
+    <row r="895" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A895" s="1">
+        <v>45721</v>
+      </c>
+      <c r="B895">
+        <v>0.82800000905990601</v>
+      </c>
+      <c r="C895">
+        <v>0.83300000429153442</v>
+      </c>
+      <c r="D895">
+        <v>0.82400000095367432</v>
+      </c>
+      <c r="E895">
+        <v>0.82999998331069946</v>
+      </c>
+      <c r="F895">
+        <v>1371900</v>
+      </c>
+      <c r="G895">
+        <v>13719</v>
+      </c>
+      <c r="H895">
+        <f t="shared" si="111"/>
+        <v>893</v>
+      </c>
+      <c r="I895">
+        <f>SUM($F$3:F895)/H895</f>
+        <v>4572592.5507068867</v>
+      </c>
+      <c r="N895">
+        <f t="shared" si="118"/>
+        <v>0.8410000205039978</v>
+      </c>
+      <c r="O895">
+        <f t="shared" si="119"/>
+        <v>0.81800001859664917</v>
+      </c>
+      <c r="P895">
+        <f t="shared" si="110"/>
+        <v>0.82899999618530273</v>
+      </c>
+      <c r="Q895">
+        <f t="shared" si="101"/>
+        <v>0.84171428708803109</v>
+      </c>
+      <c r="R895">
+        <f t="shared" si="102"/>
+        <v>-1.2714290902728353E-2</v>
+      </c>
+      <c r="S895">
+        <f t="shared" si="103"/>
+        <v>1.1625851092695403E-2</v>
+      </c>
+      <c r="T895">
+        <f t="shared" si="104"/>
+        <v>1.7438776639043104E-4</v>
+      </c>
+      <c r="U895">
+        <f t="shared" si="105"/>
+        <v>-72.908158444226785</v>
+      </c>
+    </row>
+    <row r="896" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A896" s="1">
+        <v>45722</v>
+      </c>
+      <c r="B896">
+        <v>0.83700001239776611</v>
+      </c>
+      <c r="C896">
+        <v>0.84700000286102295</v>
+      </c>
+      <c r="D896">
+        <v>0.83499997854232788</v>
+      </c>
+      <c r="E896">
+        <v>0.84600001573562622</v>
+      </c>
+      <c r="F896">
+        <v>1322713</v>
+      </c>
+      <c r="G896">
+        <v>13227.1298828125</v>
+      </c>
+      <c r="H896">
+        <f t="shared" si="111"/>
+        <v>894</v>
+      </c>
+      <c r="I896">
+        <f>SUM($F$3:F896)/H896</f>
+        <v>4568957.3386814874</v>
+      </c>
+      <c r="N896">
+        <f t="shared" si="118"/>
+        <v>0.84700000286102295</v>
+      </c>
+      <c r="O896">
+        <f t="shared" si="119"/>
+        <v>0.81800001859664917</v>
+      </c>
+      <c r="P896">
+        <f t="shared" si="110"/>
+        <v>0.84266666571299231</v>
+      </c>
+      <c r="Q896">
+        <f t="shared" si="101"/>
+        <v>0.84278571605682373</v>
+      </c>
+      <c r="R896">
+        <f t="shared" si="102"/>
+        <v>-1.1905034383141722E-4</v>
+      </c>
+      <c r="S896">
+        <f t="shared" si="103"/>
+        <v>1.0707483405158631E-2</v>
+      </c>
+      <c r="T896">
+        <f t="shared" si="104"/>
+        <v>1.6061225107737945E-4</v>
+      </c>
+      <c r="U896">
+        <f t="shared" si="105"/>
+        <v>-0.74122828758599102</v>
+      </c>
+    </row>
+    <row r="897" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A897" s="1">
+        <v>45723</v>
+      </c>
+      <c r="B897">
+        <v>0.84299999475479126</v>
+      </c>
+      <c r="C897">
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="D897">
+        <v>0.83899998664855957</v>
+      </c>
+      <c r="E897">
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="F897">
+        <v>796702</v>
+      </c>
+      <c r="G897">
+        <v>7967.02001953125</v>
+      </c>
+      <c r="H897">
+        <f t="shared" si="111"/>
+        <v>895</v>
+      </c>
+      <c r="I897">
+        <f>SUM($F$3:F897)/H897</f>
+        <v>4564742.5282472065</v>
+      </c>
+      <c r="N897">
+        <f t="shared" si="118"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O897">
+        <f t="shared" si="119"/>
+        <v>0.81800001859664917</v>
+      </c>
+      <c r="P897">
+        <f t="shared" si="110"/>
+        <v>0.84233331680297852</v>
+      </c>
+      <c r="Q897">
+        <f t="shared" si="101"/>
+        <v>0.84321428622518269</v>
+      </c>
+      <c r="R897">
+        <f t="shared" si="102"/>
+        <v>-8.8096942220416974E-4</v>
+      </c>
+      <c r="S897">
+        <f t="shared" si="103"/>
+        <v>1.0340137546565256E-2</v>
+      </c>
+      <c r="T897">
+        <f t="shared" si="104"/>
+        <v>1.5510206319847882E-4</v>
+      </c>
+      <c r="U897">
+        <f t="shared" si="105"/>
+        <v>-5.6799336129837501</v>
+      </c>
+    </row>
+    <row r="898" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A898" s="1">
+        <v>45726</v>
+      </c>
+      <c r="B898">
+        <v>0.84399998188018799</v>
+      </c>
+      <c r="C898">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="D898">
+        <v>0.83099997043609619</v>
+      </c>
+      <c r="E898">
+        <v>0.83799999952316284</v>
+      </c>
+      <c r="F898">
+        <v>2375301</v>
+      </c>
+      <c r="G898">
+        <v>23753.009765625</v>
+      </c>
+      <c r="H898">
+        <f t="shared" si="111"/>
+        <v>896</v>
+      </c>
+      <c r="I898">
+        <f>SUM($F$3:F898)/H898</f>
+        <v>4562298.9551130021</v>
+      </c>
+      <c r="N898">
+        <f t="shared" si="118"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O898">
+        <f t="shared" si="119"/>
+        <v>0.81800001859664917</v>
+      </c>
+      <c r="P898">
+        <f t="shared" si="110"/>
+        <v>0.83799999952316284</v>
+      </c>
+      <c r="Q898">
+        <f t="shared" si="101"/>
+        <v>0.84361904859542836</v>
+      </c>
+      <c r="R898">
+        <f t="shared" si="102"/>
+        <v>-5.619049072265514E-3</v>
+      </c>
+      <c r="S898">
+        <f t="shared" si="103"/>
+        <v>9.993198372068841E-3</v>
+      </c>
+      <c r="T898">
+        <f t="shared" si="104"/>
+        <v>1.4989797558103262E-4</v>
+      </c>
+      <c r="U898">
+        <f t="shared" si="105"/>
+        <v>-37.485823610926218</v>
+      </c>
+    </row>
+    <row r="899" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A899" s="1">
+        <v>45727</v>
+      </c>
+      <c r="B899">
+        <v>0.83799999952316284</v>
+      </c>
+      <c r="C899">
+        <v>0.83799999952316284</v>
+      </c>
+      <c r="D899">
+        <v>0.82599997520446777</v>
+      </c>
+      <c r="E899">
+        <v>0.83300000429153442</v>
+      </c>
+      <c r="F899">
+        <v>1553000</v>
+      </c>
+      <c r="G899">
+        <v>15530</v>
+      </c>
+      <c r="H899">
+        <f t="shared" si="111"/>
+        <v>897</v>
+      </c>
+      <c r="I899">
+        <f>SUM($F$3:F899)/H899</f>
+        <v>4558944.1067795428</v>
+      </c>
+      <c r="N899">
+        <f t="shared" si="118"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O899">
+        <f t="shared" si="119"/>
+        <v>0.81800001859664917</v>
+      </c>
+      <c r="P899">
+        <f t="shared" si="110"/>
+        <v>0.83233332633972168</v>
+      </c>
+      <c r="Q899">
+        <f t="shared" si="101"/>
+        <v>0.84321428622518257</v>
+      </c>
+      <c r="R899">
+        <f t="shared" si="102"/>
+        <v>-1.0880959885460895E-2</v>
+      </c>
+      <c r="S899">
+        <f t="shared" si="103"/>
+        <v>1.034013754656524E-2</v>
+      </c>
+      <c r="T899">
+        <f t="shared" si="104"/>
+        <v>1.551020631984786E-4</v>
+      </c>
+      <c r="U899">
+        <f t="shared" si="105"/>
+        <v>-70.153547032684642</v>
+      </c>
+    </row>
+    <row r="900" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A900" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B900">
+        <v>0.83399999141693115</v>
+      </c>
+      <c r="C900">
+        <v>0.8410000205039978</v>
+      </c>
+      <c r="D900">
+        <v>0.8320000171661377</v>
+      </c>
+      <c r="E900">
+        <v>0.83499997854232788</v>
+      </c>
+      <c r="F900">
+        <v>1704201</v>
+      </c>
+      <c r="G900">
+        <v>17042.009765625</v>
+      </c>
+      <c r="H900">
+        <f t="shared" si="111"/>
+        <v>898</v>
+      </c>
+      <c r="I900">
+        <f>SUM($F$3:F900)/H900</f>
+        <v>4555765.1055470491</v>
+      </c>
+      <c r="N900">
+        <f t="shared" si="118"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O900">
+        <f t="shared" si="119"/>
+        <v>0.81800001859664917</v>
+      </c>
+      <c r="P900">
+        <f t="shared" si="110"/>
+        <v>0.83600000540415442</v>
+      </c>
+      <c r="Q900">
+        <f t="shared" si="101"/>
+        <v>0.84266666713215055</v>
+      </c>
+      <c r="R900">
+        <f t="shared" si="102"/>
+        <v>-6.666661727996126E-3</v>
+      </c>
+      <c r="S900">
+        <f t="shared" si="103"/>
+        <v>1.0666667401385142E-2</v>
+      </c>
+      <c r="T900">
+        <f t="shared" si="104"/>
+        <v>1.6000001102077713E-4</v>
+      </c>
+      <c r="U900">
+        <f t="shared" si="105"/>
+        <v>-41.666632929984068</v>
+      </c>
+    </row>
+    <row r="901" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A901" s="1">
+        <v>45729</v>
+      </c>
+      <c r="B901">
+        <v>0.83899998664855957</v>
+      </c>
+      <c r="C901">
+        <v>0.83899998664855957</v>
+      </c>
+      <c r="D901">
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="E901">
+        <v>0.82499998807907104</v>
+      </c>
+      <c r="F901">
+        <v>1374300</v>
+      </c>
+      <c r="G901">
+        <v>13743</v>
+      </c>
+      <c r="H901">
+        <f t="shared" si="111"/>
+        <v>899</v>
+      </c>
+      <c r="I901">
+        <f>SUM($F$3:F901)/H901</f>
+        <v>4552226.2122149607</v>
+      </c>
+      <c r="N901">
+        <f t="shared" si="118"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O901">
+        <f t="shared" si="119"/>
+        <v>0.81800001859664917</v>
+      </c>
+      <c r="P901">
+        <f t="shared" si="110"/>
+        <v>0.82866666714350379</v>
+      </c>
+      <c r="Q901">
+        <f t="shared" si="101"/>
+        <v>0.8404285723254793</v>
+      </c>
+      <c r="R901">
+        <f t="shared" si="102"/>
+        <v>-1.1761905181975507E-2</v>
+      </c>
+      <c r="S901">
+        <f t="shared" si="103"/>
+        <v>1.0061223085234747E-2</v>
+      </c>
+      <c r="T901">
+        <f t="shared" si="104"/>
+        <v>1.509183462785212E-4</v>
+      </c>
+      <c r="U901">
+        <f t="shared" si="105"/>
+        <v>-77.935555696249168</v>
+      </c>
+    </row>
+    <row r="902" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A902" s="1">
+        <v>45730</v>
+      </c>
+      <c r="B902">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C902">
+        <v>0.84399998188018799</v>
+      </c>
+      <c r="D902">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="E902">
+        <v>0.84299999475479126</v>
+      </c>
+      <c r="F902">
+        <v>1538501</v>
+      </c>
+      <c r="G902">
+        <v>15385.009765625</v>
+      </c>
+      <c r="H902">
+        <f t="shared" si="111"/>
+        <v>900</v>
+      </c>
+      <c r="I902">
+        <f>SUM($F$3:F902)/H902</f>
+        <v>4548877.6286458336</v>
+      </c>
+      <c r="N902">
+        <f t="shared" si="118"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O902">
+        <f t="shared" si="119"/>
+        <v>0.81800001859664917</v>
+      </c>
+      <c r="P902">
+        <f t="shared" si="110"/>
+        <v>0.83799999952316284</v>
+      </c>
+      <c r="Q902">
+        <f t="shared" si="101"/>
+        <v>0.83871428597541076</v>
+      </c>
+      <c r="R902">
+        <f t="shared" si="102"/>
+        <v>-7.1428645224791421E-4</v>
+      </c>
+      <c r="S902">
+        <f t="shared" si="103"/>
+        <v>8.2040796069060649E-3</v>
+      </c>
+      <c r="T902">
+        <f t="shared" si="104"/>
+        <v>1.2306119410359097E-4</v>
+      </c>
+      <c r="U902">
+        <f t="shared" si="105"/>
+        <v>-5.8043192043678626</v>
+      </c>
+    </row>
+    <row r="903" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A903" s="1">
+        <v>45733</v>
+      </c>
+      <c r="B903">
+        <v>0.84299999475479126</v>
+      </c>
+      <c r="C903">
+        <v>0.84399998188018799</v>
+      </c>
+      <c r="D903">
+        <v>0.83899998664855957</v>
+      </c>
+      <c r="E903">
+        <v>0.8410000205039978</v>
+      </c>
+      <c r="F903">
+        <v>738502</v>
+      </c>
+      <c r="G903">
+        <v>7385.02001953125</v>
+      </c>
+      <c r="H903">
+        <f t="shared" si="111"/>
+        <v>901</v>
+      </c>
+      <c r="I903">
+        <f>SUM($F$3:F903)/H903</f>
+        <v>4544648.5768937292</v>
+      </c>
+      <c r="N903">
+        <f t="shared" si="118"/>
+        <v>0.84799998998641968</v>
+      </c>
+      <c r="O903">
+        <f t="shared" si="119"/>
+        <v>0.81800001859664917</v>
+      </c>
+      <c r="P903">
+        <f t="shared" si="110"/>
+        <v>0.84133332967758179</v>
+      </c>
+      <c r="Q903">
+        <f t="shared" si="101"/>
+        <v>0.83783333358310508</v>
+      </c>
+      <c r="R903">
+        <f t="shared" si="102"/>
+        <v>3.4999960944767095E-3</v>
+      </c>
+      <c r="S903">
+        <f t="shared" si="103"/>
+        <v>7.1190453711010137E-3</v>
+      </c>
+      <c r="T903">
+        <f t="shared" si="104"/>
+        <v>1.067856805665152E-4</v>
+      </c>
+      <c r="U903">
+        <f t="shared" si="105"/>
+        <v>32.775893508461692</v>
+      </c>
+    </row>
+    <row r="904" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A904" s="1">
+        <v>45734</v>
+      </c>
+      <c r="B904">
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="C904">
+        <v>0.85100001096725464</v>
+      </c>
+      <c r="D904">
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="E904">
+        <v>0.85000002384185791</v>
+      </c>
+      <c r="F904">
+        <v>3215407</v>
+      </c>
+      <c r="G904">
+        <v>32154.0703125</v>
+      </c>
+      <c r="H904">
+        <f t="shared" si="111"/>
+        <v>902</v>
+      </c>
+      <c r="I904">
+        <f>SUM($F$3:F904)/H904</f>
+        <v>4543174.916608925</v>
+      </c>
+      <c r="N904">
+        <f t="shared" si="118"/>
+        <v>0.85100001096725464</v>
+      </c>
+      <c r="O904">
+        <f t="shared" si="119"/>
+        <v>0.81800001859664917</v>
+      </c>
+      <c r="P904">
+        <f t="shared" si="110"/>
+        <v>0.84700000286102295</v>
+      </c>
+      <c r="Q904">
+        <f t="shared" si="101"/>
+        <v>0.83716666698455811</v>
+      </c>
+      <c r="R904">
+        <f t="shared" si="102"/>
+        <v>9.8333358764648438E-3</v>
+      </c>
+      <c r="S904">
+        <f t="shared" si="103"/>
+        <v>6.4523787725539383E-3</v>
+      </c>
+      <c r="T904">
+        <f t="shared" si="104"/>
+        <v>9.678568158830907E-5</v>
+      </c>
+      <c r="U904">
+        <f t="shared" si="105"/>
+        <v>101.59907658957512</v>
+      </c>
+    </row>
+    <row r="905" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A905" s="1">
+        <v>45735</v>
+      </c>
+      <c r="B905">
+        <v>0.85000002384185791</v>
+      </c>
+      <c r="C905">
+        <v>0.85399997234344482</v>
+      </c>
+      <c r="D905">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="E905">
+        <v>0.85199999809265137</v>
+      </c>
+      <c r="F905">
+        <v>1465715</v>
+      </c>
+      <c r="G905">
+        <v>14657.150390625</v>
+      </c>
+      <c r="H905">
+        <f t="shared" si="111"/>
+        <v>903</v>
+      </c>
+      <c r="I905">
+        <f>SUM($F$3:F905)/H905</f>
+        <v>4539766.8768341634</v>
+      </c>
+      <c r="N905">
+        <f t="shared" si="118"/>
+        <v>0.85399997234344482</v>
+      </c>
+      <c r="O905">
+        <f t="shared" si="119"/>
+        <v>0.81800001859664917</v>
+      </c>
+      <c r="P905">
+        <f t="shared" si="110"/>
+        <v>0.85033333301544189</v>
+      </c>
+      <c r="Q905">
+        <f t="shared" si="101"/>
+        <v>0.83676190461431232</v>
+      </c>
+      <c r="R905">
+        <f t="shared" si="102"/>
+        <v>1.357142840112957E-2</v>
+      </c>
+      <c r="S905">
+        <f t="shared" si="103"/>
+        <v>6.0476164023081412E-3</v>
+      </c>
+      <c r="T905">
+        <f t="shared" si="104"/>
+        <v>9.0714246034622118E-5</v>
+      </c>
+      <c r="U905">
+        <f t="shared" si="105"/>
+        <v>149.60636277514649</v>
+      </c>
+    </row>
+    <row r="906" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A906" s="1">
+        <v>45736</v>
+      </c>
+      <c r="B906">
+        <v>0.85199999809265137</v>
+      </c>
+      <c r="C906">
+        <v>0.85199999809265137</v>
+      </c>
+      <c r="D906">
+        <v>0.84299999475479126</v>
+      </c>
+      <c r="E906">
+        <v>0.84299999475479126</v>
+      </c>
+      <c r="F906">
+        <v>1405878</v>
+      </c>
+      <c r="G906">
+        <v>14058.7802734375</v>
+      </c>
+      <c r="H906">
+        <f t="shared" si="111"/>
+        <v>904</v>
+      </c>
+      <c r="I906">
+        <f>SUM($F$3:F906)/H906</f>
+        <v>4536300.1855987282</v>
+      </c>
+      <c r="N906">
+        <f t="shared" si="118"/>
+        <v>0.85399997234344482</v>
+      </c>
+      <c r="O906">
+        <f t="shared" si="119"/>
+        <v>0.81800001859664917</v>
+      </c>
+      <c r="P906">
+        <f t="shared" si="110"/>
+        <v>0.84599999586741126</v>
+      </c>
+      <c r="Q906">
+        <f t="shared" si="101"/>
+        <v>0.8376666662238893</v>
+      </c>
+      <c r="R906">
+        <f t="shared" si="102"/>
+        <v>8.3333296435219584E-3</v>
+      </c>
+      <c r="S906">
+        <f t="shared" si="103"/>
+        <v>6.3333304560914284E-3</v>
+      </c>
+      <c r="T906">
+        <f t="shared" si="104"/>
+        <v>9.4999956841371425E-5</v>
+      </c>
+      <c r="U906">
+        <f t="shared" si="105"/>
+        <v>87.719299256490672</v>
+      </c>
+    </row>
+    <row r="907" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A907" s="1">
+        <v>45737</v>
+      </c>
+      <c r="B907">
+        <v>0.83799999952316284</v>
+      </c>
+      <c r="C907">
+        <v>0.84299999475479126</v>
+      </c>
+      <c r="D907">
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="E907">
+        <v>0.82300001382827759</v>
+      </c>
+      <c r="F907">
+        <v>1773500</v>
+      </c>
+      <c r="G907">
+        <v>17735</v>
+      </c>
+      <c r="H907">
+        <f t="shared" si="111"/>
+        <v>905</v>
+      </c>
+      <c r="I907">
+        <f>SUM($F$3:F907)/H907</f>
+        <v>4533247.3677140884</v>
+      </c>
+      <c r="N907">
+        <f t="shared" si="118"/>
+        <v>0.85399997234344482</v>
+      </c>
+      <c r="O907">
+        <f t="shared" si="119"/>
+        <v>0.81800001859664917</v>
+      </c>
+      <c r="P907">
+        <f t="shared" si="110"/>
+        <v>0.82933334509531653</v>
+      </c>
+      <c r="Q907">
+        <f t="shared" si="101"/>
+        <v>0.83757142793564565</v>
+      </c>
+      <c r="R907">
+        <f t="shared" si="102"/>
+        <v>-8.2380828403291195E-3</v>
+      </c>
+      <c r="S907">
+        <f t="shared" si="103"/>
+        <v>6.4421742140841386E-3</v>
+      </c>
+      <c r="T907">
+        <f t="shared" si="104"/>
+        <v>9.6632613211262075E-5</v>
+      </c>
+      <c r="U907">
+        <f t="shared" si="105"/>
+        <v>-85.251578805166886</v>
+      </c>
+    </row>
+    <row r="908" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A908" s="1">
+        <v>45740</v>
+      </c>
+      <c r="B908">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C908">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="D908">
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="E908">
+        <v>0.82300001382827759</v>
+      </c>
+      <c r="F908">
+        <v>1338101</v>
+      </c>
+      <c r="G908">
+        <v>13381.009765625</v>
+      </c>
+      <c r="H908">
+        <f t="shared" si="111"/>
+        <v>906</v>
+      </c>
+      <c r="I908">
+        <f>SUM($F$3:F908)/H908</f>
+        <v>4529720.7160940953</v>
+      </c>
+      <c r="N908">
+        <f t="shared" si="118"/>
+        <v>0.85399997234344482</v>
+      </c>
+      <c r="O908">
+        <f t="shared" si="119"/>
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="P908">
+        <f t="shared" si="110"/>
+        <v>0.82166667779286706</v>
+      </c>
+      <c r="Q908">
+        <f t="shared" si="101"/>
+        <v>0.83733333292461576</v>
+      </c>
+      <c r="R908">
+        <f t="shared" si="102"/>
+        <v>-1.5666655131748697E-2</v>
+      </c>
+      <c r="S908">
+        <f t="shared" si="103"/>
+        <v>6.7142827981183329E-3</v>
+      </c>
+      <c r="T908">
+        <f t="shared" si="104"/>
+        <v>1.0071424197177499E-4</v>
+      </c>
+      <c r="U908">
+        <f t="shared" si="105"/>
+        <v>-155.55550858575944</v>
+      </c>
+    </row>
+    <row r="909" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A909" s="1">
+        <v>45741</v>
+      </c>
+      <c r="B909">
+        <v>0.82800000905990601</v>
+      </c>
+      <c r="C909">
+        <v>0.82999998331069946</v>
+      </c>
+      <c r="D909">
+        <v>0.82099997997283936</v>
+      </c>
+      <c r="E909">
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="F909">
+        <v>1424000</v>
+      </c>
+      <c r="G909">
+        <v>14240</v>
+      </c>
+      <c r="H909">
+        <f t="shared" si="111"/>
+        <v>907</v>
+      </c>
+      <c r="I909">
+        <f>SUM($F$3:F909)/H909</f>
+        <v>4526296.5477191294</v>
+      </c>
+      <c r="N909">
+        <f t="shared" si="118"/>
+        <v>0.85399997234344482</v>
+      </c>
+      <c r="O909">
+        <f t="shared" si="119"/>
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="P909">
+        <f t="shared" si="110"/>
+        <v>0.82433332999547326</v>
+      </c>
+      <c r="Q909">
+        <f t="shared" si="101"/>
+        <v>0.83699999962534222</v>
+      </c>
+      <c r="R909">
+        <f t="shared" si="102"/>
+        <v>-1.2666669629868954E-2</v>
+      </c>
+      <c r="S909">
+        <f t="shared" si="103"/>
+        <v>7.0952351401452297E-3</v>
+      </c>
+      <c r="T909">
+        <f t="shared" si="104"/>
+        <v>1.0642852710217844E-4</v>
+      </c>
+      <c r="U909">
+        <f t="shared" si="105"/>
+        <v>-119.01573736624309</v>
+      </c>
+    </row>
+    <row r="910" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A910" s="1">
+        <v>45742</v>
+      </c>
+      <c r="B910">
+        <v>0.8190000057220459</v>
+      </c>
+      <c r="C910">
+        <v>0.82499998807907104</v>
+      </c>
+      <c r="D910">
+        <v>0.8190000057220459</v>
+      </c>
+      <c r="E910">
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="F910">
+        <v>3602100</v>
+      </c>
+      <c r="G910">
+        <v>36021</v>
+      </c>
+      <c r="H910">
+        <f t="shared" si="111"/>
+        <v>908</v>
+      </c>
+      <c r="I910">
+        <f>SUM($F$3:F910)/H910</f>
+        <v>4525278.7101115091</v>
+      </c>
+      <c r="N910">
+        <f t="shared" si="118"/>
+        <v>0.85399997234344482</v>
+      </c>
+      <c r="O910">
+        <f t="shared" si="119"/>
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="P910">
+        <f t="shared" si="110"/>
+        <v>0.8220000068346659</v>
+      </c>
+      <c r="Q910">
+        <f t="shared" si="101"/>
+        <v>0.83552380970546181</v>
+      </c>
+      <c r="R910">
+        <f t="shared" si="102"/>
+        <v>-1.3523802870795909E-2</v>
+      </c>
+      <c r="S910">
+        <f t="shared" si="103"/>
+        <v>7.8299292901746198E-3</v>
+      </c>
+      <c r="T910">
+        <f t="shared" si="104"/>
+        <v>1.1744893935261929E-4</v>
+      </c>
+      <c r="U910">
+        <f t="shared" si="105"/>
+        <v>-115.14623244227967</v>
+      </c>
+    </row>
+    <row r="911" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A911" s="1">
+        <v>45743</v>
+      </c>
+      <c r="B911">
+        <v>0.81800001859664917</v>
+      </c>
+      <c r="C911">
+        <v>0.83300000429153442</v>
+      </c>
+      <c r="D911">
+        <v>0.81599998474121094</v>
+      </c>
+      <c r="E911">
+        <v>0.82599997520446777</v>
+      </c>
+      <c r="F911">
+        <v>13503500</v>
+      </c>
+      <c r="G911">
+        <v>135035</v>
+      </c>
+      <c r="H911">
+        <f t="shared" si="111"/>
+        <v>909</v>
+      </c>
+      <c r="I911">
+        <f>SUM($F$3:F911)/H911</f>
+        <v>4535155.7412334988</v>
+      </c>
+      <c r="N911">
+        <f t="shared" si="118"/>
+        <v>0.85399997234344482</v>
+      </c>
+      <c r="O911">
+        <f t="shared" si="119"/>
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="P911">
+        <f t="shared" si="110"/>
+        <v>0.82499998807907104</v>
+      </c>
+      <c r="Q911">
+        <f t="shared" si="101"/>
+        <v>0.83428571479661129</v>
+      </c>
+      <c r="R911">
+        <f t="shared" si="102"/>
+        <v>-9.2857267175402436E-3</v>
+      </c>
+      <c r="S911">
+        <f t="shared" si="103"/>
+        <v>8.0952374708084807E-3</v>
+      </c>
+      <c r="T911">
+        <f t="shared" si="104"/>
+        <v>1.214285620621272E-4</v>
+      </c>
+      <c r="U911">
+        <f t="shared" si="105"/>
+        <v>-76.470696513636824</v>
+      </c>
+    </row>
+    <row r="912" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A912" s="1">
+        <v>45744</v>
+      </c>
+      <c r="B912">
+        <v>0.82599997520446777</v>
+      </c>
+      <c r="C912">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="D912">
+        <v>0.8190000057220459</v>
+      </c>
+      <c r="E912">
+        <v>0.82099997997283936</v>
+      </c>
+      <c r="F912">
+        <v>19479506</v>
+      </c>
+      <c r="G912">
+        <v>194795.0625</v>
+      </c>
+      <c r="H912">
+        <f t="shared" si="111"/>
+        <v>910</v>
+      </c>
+      <c r="I912">
+        <f>SUM($F$3:F912)/H912</f>
+        <v>4551578.1041552201</v>
+      </c>
+      <c r="N912">
+        <f t="shared" si="118"/>
+        <v>0.85399997234344482</v>
+      </c>
+      <c r="O912">
+        <f t="shared" si="119"/>
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="P912">
+        <f t="shared" si="110"/>
+        <v>0.82233333587646484</v>
+      </c>
+      <c r="Q912">
+        <f t="shared" si="101"/>
+        <v>0.83316666739327572</v>
+      </c>
+      <c r="R912">
+        <f t="shared" si="102"/>
+        <v>-1.0833331516810873E-2</v>
+      </c>
+      <c r="S912">
+        <f t="shared" si="103"/>
+        <v>8.5238088555887482E-3</v>
+      </c>
+      <c r="T912">
+        <f t="shared" si="104"/>
+        <v>1.2785713283383122E-4</v>
+      </c>
+      <c r="U912">
+        <f t="shared" si="105"/>
+        <v>-84.729973812961617</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U912"/>
+  <dimension ref="A1:U913"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A892" workbookViewId="0">
-      <selection activeCell="A913" sqref="A913"/>
+    <sheetView tabSelected="1" topLeftCell="A906" workbookViewId="0">
+      <selection activeCell="A914" sqref="A914"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3380,7 +3380,7 @@
         <v>-51.309468464280499</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44438</v>
       </c>
@@ -3410,6 +3410,12 @@
         <f>SUM($F$3:F48)/H48</f>
         <v>21860698.326086957</v>
       </c>
+      <c r="K48" s="2">
+        <v>45777</v>
+      </c>
+      <c r="L48" s="2">
+        <v>45748</v>
+      </c>
       <c r="N48">
         <f t="shared" si="9"/>
         <v>1.0469999999999999</v>
@@ -49665,23 +49671,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q912" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q913" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R912" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R913" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S912" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S913" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T912" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T913" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U912" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U913" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -52811,7 +52817,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P912" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P913" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52921,7 +52927,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H912" si="111">H833+1</f>
+        <f t="shared" ref="H834:H913" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -56646,11 +56652,11 @@
         <v>4580327.5508207073</v>
       </c>
       <c r="N893">
-        <f t="shared" ref="N893:N912" si="118">IF(A893&lt;&gt;$K$47,MAX(N892,VLOOKUP(A893,A:C,3)),)</f>
+        <f t="shared" ref="N893:N913" si="118">IF(A893&lt;&gt;$K$47,MAX(N892,VLOOKUP(A893,A:C,3)),)</f>
         <v>0.8410000205039978</v>
       </c>
       <c r="O893">
-        <f t="shared" ref="O893:O912" si="119">IF(A893&lt;&gt;$K$47,MIN(O892,VLOOKUP(A893,A:D,4)),)</f>
+        <f t="shared" ref="O893:O913" si="119">IF(A893&lt;&gt;$K$47,MIN(O892,VLOOKUP(A893,A:D,4)),)</f>
         <v>0.82300001382827759</v>
       </c>
       <c r="P893">
@@ -57873,6 +57879,69 @@
       <c r="U912">
         <f t="shared" si="105"/>
         <v>-84.729973812961617</v>
+      </c>
+    </row>
+    <row r="913" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A913" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B913">
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="C913">
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="D913">
+        <v>0.80800002813339233</v>
+      </c>
+      <c r="E913">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="F913">
+        <v>2900300</v>
+      </c>
+      <c r="G913">
+        <v>29003</v>
+      </c>
+      <c r="H913">
+        <f t="shared" si="111"/>
+        <v>911</v>
+      </c>
+      <c r="I913">
+        <f>SUM($F$3:F913)/H913</f>
+        <v>4549765.5046995059</v>
+      </c>
+      <c r="N913">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="O913">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="P913">
+        <f t="shared" si="110"/>
+        <v>0.81466668844223022</v>
+      </c>
+      <c r="Q913">
+        <f t="shared" si="101"/>
+        <v>0.83190476468631203</v>
+      </c>
+      <c r="R913">
+        <f t="shared" si="102"/>
+        <v>-1.7238076244081801E-2</v>
+      </c>
+      <c r="S913">
+        <f t="shared" si="103"/>
+        <v>9.6054397472718957E-3</v>
+      </c>
+      <c r="T913">
+        <f t="shared" si="104"/>
+        <v>1.4408159620907842E-4</v>
+      </c>
+      <c r="U913">
+        <f t="shared" si="105"/>
+        <v>-119.64106934981089</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U913"/>
+  <dimension ref="A1:U933"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A906" workbookViewId="0">
-      <selection activeCell="A914" sqref="A914"/>
+    <sheetView tabSelected="1" topLeftCell="A913" workbookViewId="0">
+      <selection activeCell="A934" sqref="A934"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -49671,23 +49671,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q913" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q933" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R913" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R933" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S913" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S933" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T913" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T933" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U913" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U933" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -52817,7 +52817,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P913" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P933" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52927,7 +52927,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H913" si="111">H833+1</f>
+        <f t="shared" ref="H834:H933" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -56652,11 +56652,11 @@
         <v>4580327.5508207073</v>
       </c>
       <c r="N893">
-        <f t="shared" ref="N893:N913" si="118">IF(A893&lt;&gt;$K$47,MAX(N892,VLOOKUP(A893,A:C,3)),)</f>
+        <f t="shared" ref="N893:N912" si="118">IF(A893&lt;&gt;$K$47,MAX(N892,VLOOKUP(A893,A:C,3)),)</f>
         <v>0.8410000205039978</v>
       </c>
       <c r="O893">
-        <f t="shared" ref="O893:O913" si="119">IF(A893&lt;&gt;$K$47,MIN(O892,VLOOKUP(A893,A:D,4)),)</f>
+        <f t="shared" ref="O893:O912" si="119">IF(A893&lt;&gt;$K$47,MIN(O892,VLOOKUP(A893,A:D,4)),)</f>
         <v>0.82300001382827759</v>
       </c>
       <c r="P893">
@@ -57912,12 +57912,12 @@
         <v>4549765.5046995059</v>
       </c>
       <c r="N913">
-        <f t="shared" si="118"/>
-        <v>0</v>
+        <f>VLOOKUP(L48,A:C,3)</f>
+        <v>0.82200002670288086</v>
       </c>
       <c r="O913">
-        <f t="shared" si="119"/>
-        <v>0</v>
+        <f>VLOOKUP(L48,A:D,4)</f>
+        <v>0.80800002813339233</v>
       </c>
       <c r="P913">
         <f t="shared" si="110"/>
@@ -57942,6 +57942,1266 @@
       <c r="U913">
         <f t="shared" si="105"/>
         <v>-119.64106934981089</v>
+      </c>
+    </row>
+    <row r="914" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A914" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B914">
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="C914">
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="D914">
+        <v>0.80800002813339233</v>
+      </c>
+      <c r="E914">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="F914">
+        <v>2900300</v>
+      </c>
+      <c r="G914">
+        <v>29003</v>
+      </c>
+      <c r="H914">
+        <f t="shared" si="111"/>
+        <v>912</v>
+      </c>
+      <c r="I914">
+        <f>SUM($F$3:F914)/H914</f>
+        <v>4547956.8802425982</v>
+      </c>
+      <c r="N914">
+        <f t="shared" ref="N914:N933" si="120">IF(A914&lt;&gt;$K$48,MAX(N913,VLOOKUP(A914,A:C,3)),)</f>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O914">
+        <f t="shared" ref="O914:O933" si="121">IF(A914&lt;&gt;$K$48,MIN(O913,VLOOKUP(A914,A:D,4)),)</f>
+        <v>0.80800002813339233</v>
+      </c>
+      <c r="P914">
+        <f t="shared" si="110"/>
+        <v>0.81466668844223022</v>
+      </c>
+      <c r="Q914">
+        <f t="shared" si="101"/>
+        <v>0.8303809563318888</v>
+      </c>
+      <c r="R914">
+        <f t="shared" si="102"/>
+        <v>-1.5714267889658573E-2</v>
+      </c>
+      <c r="S914">
+        <f t="shared" si="103"/>
+        <v>1.010883989788236E-2</v>
+      </c>
+      <c r="T914">
+        <f t="shared" si="104"/>
+        <v>1.5163259846823541E-4</v>
+      </c>
+      <c r="U914">
+        <f t="shared" si="105"/>
+        <v>-103.63383631489016</v>
+      </c>
+    </row>
+    <row r="915" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A915" s="1">
+        <v>45749</v>
+      </c>
+      <c r="B915">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C915">
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="D915">
+        <v>0.80699998140335083</v>
+      </c>
+      <c r="E915">
+        <v>0.80800002813339233</v>
+      </c>
+      <c r="F915">
+        <v>7074900</v>
+      </c>
+      <c r="G915">
+        <v>70749</v>
+      </c>
+      <c r="H915">
+        <f t="shared" si="111"/>
+        <v>913</v>
+      </c>
+      <c r="I915">
+        <f>SUM($F$3:F915)/H915</f>
+        <v>4550724.6164088175</v>
+      </c>
+      <c r="N915">
+        <f t="shared" si="120"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O915">
+        <f t="shared" si="121"/>
+        <v>0.80699998140335083</v>
+      </c>
+      <c r="P915">
+        <f t="shared" si="110"/>
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="Q915">
+        <f t="shared" si="101"/>
+        <v>0.82904762313479474</v>
+      </c>
+      <c r="R915">
+        <f t="shared" si="102"/>
+        <v>-1.9047620750608951E-2</v>
+      </c>
+      <c r="S915">
+        <f t="shared" si="103"/>
+        <v>1.1102038175881315E-2</v>
+      </c>
+      <c r="T915">
+        <f t="shared" si="104"/>
+        <v>1.6653057263821971E-4</v>
+      </c>
+      <c r="U915">
+        <f t="shared" si="105"/>
+        <v>-114.37912239687702</v>
+      </c>
+    </row>
+    <row r="916" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A916" s="1">
+        <v>45750</v>
+      </c>
+      <c r="B916">
+        <v>0.81099998950958252</v>
+      </c>
+      <c r="C916">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="D916">
+        <v>0.80800002813339233</v>
+      </c>
+      <c r="E916">
+        <v>0.80900001525878906</v>
+      </c>
+      <c r="F916">
+        <v>2348800</v>
+      </c>
+      <c r="G916">
+        <v>23488</v>
+      </c>
+      <c r="H916">
+        <f t="shared" si="111"/>
+        <v>914</v>
+      </c>
+      <c r="I916">
+        <f>SUM($F$3:F916)/H916</f>
+        <v>4548315.5085134022</v>
+      </c>
+      <c r="N916">
+        <f t="shared" si="120"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O916">
+        <f t="shared" si="121"/>
+        <v>0.80699998140335083</v>
+      </c>
+      <c r="P916">
+        <f t="shared" si="110"/>
+        <v>0.81033335129419959</v>
+      </c>
+      <c r="Q916">
+        <f t="shared" si="101"/>
+        <v>0.82707143397558291</v>
+      </c>
+      <c r="R916">
+        <f t="shared" si="102"/>
+        <v>-1.6738082681383326E-2</v>
+      </c>
+      <c r="S916">
+        <f t="shared" si="103"/>
+        <v>1.1234690948408439E-2</v>
+      </c>
+      <c r="T916">
+        <f t="shared" si="104"/>
+        <v>1.6852036422612657E-4</v>
+      </c>
+      <c r="U916">
+        <f t="shared" si="105"/>
+        <v>-99.323798392244015</v>
+      </c>
+    </row>
+    <row r="917" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A917" s="1">
+        <v>45754</v>
+      </c>
+      <c r="B917">
+        <v>0.80299997329711914</v>
+      </c>
+      <c r="C917">
+        <v>0.80400002002716064</v>
+      </c>
+      <c r="D917">
+        <v>0.79199999570846558</v>
+      </c>
+      <c r="E917">
+        <v>0.79400002956390381</v>
+      </c>
+      <c r="F917">
+        <v>4249400</v>
+      </c>
+      <c r="G917">
+        <v>42494</v>
+      </c>
+      <c r="H917">
+        <f t="shared" si="111"/>
+        <v>915</v>
+      </c>
+      <c r="I917">
+        <f>SUM($F$3:F917)/H917</f>
+        <v>4547988.8248975407</v>
+      </c>
+      <c r="N917">
+        <f t="shared" si="120"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O917">
+        <f t="shared" si="121"/>
+        <v>0.79199999570846558</v>
+      </c>
+      <c r="P917">
+        <f t="shared" si="110"/>
+        <v>0.79666668176651001</v>
+      </c>
+      <c r="Q917">
+        <f t="shared" si="101"/>
+        <v>0.82388095912479209</v>
+      </c>
+      <c r="R917">
+        <f t="shared" si="102"/>
+        <v>-2.721427735828208E-2</v>
+      </c>
+      <c r="S917">
+        <f t="shared" si="103"/>
+        <v>1.1244891452140535E-2</v>
+      </c>
+      <c r="T917">
+        <f t="shared" si="104"/>
+        <v>1.6867337178210802E-4</v>
+      </c>
+      <c r="U917">
+        <f t="shared" si="105"/>
+        <v>-161.34305652843318</v>
+      </c>
+    </row>
+    <row r="918" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A918" s="1">
+        <v>45755</v>
+      </c>
+      <c r="B918">
+        <v>0.78700000047683716</v>
+      </c>
+      <c r="C918">
+        <v>0.78700000047683716</v>
+      </c>
+      <c r="D918">
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="E918">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="F918">
+        <v>5387109</v>
+      </c>
+      <c r="G918">
+        <v>53871.08984375</v>
+      </c>
+      <c r="H918">
+        <f t="shared" si="111"/>
+        <v>916</v>
+      </c>
+      <c r="I918">
+        <f>SUM($F$3:F918)/H918</f>
+        <v>4548904.8949576961</v>
+      </c>
+      <c r="N918">
+        <f t="shared" si="120"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O918">
+        <f t="shared" si="121"/>
+        <v>0.7149999737739563</v>
+      </c>
+      <c r="P918">
+        <f t="shared" si="110"/>
+        <v>0.74066666762034095</v>
+      </c>
+      <c r="Q918">
+        <f t="shared" si="101"/>
+        <v>0.81628572089331486</v>
+      </c>
+      <c r="R918">
+        <f t="shared" si="102"/>
+        <v>-7.5619053272973913E-2</v>
+      </c>
+      <c r="S918">
+        <f t="shared" si="103"/>
+        <v>1.5816320772884664E-2</v>
+      </c>
+      <c r="T918">
+        <f t="shared" si="104"/>
+        <v>2.3724481159326995E-4</v>
+      </c>
+      <c r="U918">
+        <f t="shared" si="105"/>
+        <v>-318.73849111867804</v>
+      </c>
+    </row>
+    <row r="919" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A919" s="1">
+        <v>45756</v>
+      </c>
+      <c r="B919">
+        <v>0.71899998188018799</v>
+      </c>
+      <c r="C919">
+        <v>0.73299998044967651</v>
+      </c>
+      <c r="D919">
+        <v>0.70599997043609619</v>
+      </c>
+      <c r="E919">
+        <v>0.7160000205039978</v>
+      </c>
+      <c r="F919">
+        <v>4228506</v>
+      </c>
+      <c r="G919">
+        <v>42285.05859375</v>
+      </c>
+      <c r="H919">
+        <f t="shared" si="111"/>
+        <v>917</v>
+      </c>
+      <c r="I919">
+        <f>SUM($F$3:F919)/H919</f>
+        <v>4548555.4959446564</v>
+      </c>
+      <c r="N919">
+        <f t="shared" si="120"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O919">
+        <f t="shared" si="121"/>
+        <v>0.70599997043609619</v>
+      </c>
+      <c r="P919">
+        <f t="shared" si="110"/>
+        <v>0.71833332379659021</v>
+      </c>
+      <c r="Q919">
+        <f t="shared" si="101"/>
+        <v>0.80685714880625414</v>
+      </c>
+      <c r="R919">
+        <f t="shared" si="102"/>
+        <v>-8.8523825009663937E-2</v>
+      </c>
+      <c r="S919">
+        <f t="shared" si="103"/>
+        <v>2.355782474790296E-2</v>
+      </c>
+      <c r="T919">
+        <f t="shared" si="104"/>
+        <v>3.533673712185444E-4</v>
+      </c>
+      <c r="U919">
+        <f t="shared" si="105"/>
+        <v>-250.51499436521345</v>
+      </c>
+    </row>
+    <row r="920" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A920" s="1">
+        <v>45757</v>
+      </c>
+      <c r="B920">
+        <v>0.70899999141693115</v>
+      </c>
+      <c r="C920">
+        <v>0.7279999852180481</v>
+      </c>
+      <c r="D920">
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="E920">
+        <v>0.72200000286102295</v>
+      </c>
+      <c r="F920">
+        <v>4902906</v>
+      </c>
+      <c r="G920">
+        <v>49029.05859375</v>
+      </c>
+      <c r="H920">
+        <f t="shared" si="111"/>
+        <v>918</v>
+      </c>
+      <c r="I920">
+        <f>SUM($F$3:F920)/H920</f>
+        <v>4548941.4986723857</v>
+      </c>
+      <c r="N920">
+        <f t="shared" si="120"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O920">
+        <f t="shared" si="121"/>
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="P920">
+        <f t="shared" si="110"/>
+        <v>0.70299998919169104</v>
+      </c>
+      <c r="Q920">
+        <f t="shared" si="101"/>
+        <v>0.79664286261513106</v>
+      </c>
+      <c r="R920">
+        <f t="shared" si="102"/>
+        <v>-9.3642873423440021E-2</v>
+      </c>
+      <c r="S920">
+        <f t="shared" si="103"/>
+        <v>3.2561229605253129E-2</v>
+      </c>
+      <c r="T920">
+        <f t="shared" si="104"/>
+        <v>4.8841844407879697E-4</v>
+      </c>
+      <c r="U920">
+        <f t="shared" si="105"/>
+        <v>-191.72673464463298</v>
+      </c>
+    </row>
+    <row r="921" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A921" s="1">
+        <v>45758</v>
+      </c>
+      <c r="B921">
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="C921">
+        <v>0.75300002098083496</v>
+      </c>
+      <c r="D921">
+        <v>0.72899997234344482</v>
+      </c>
+      <c r="E921">
+        <v>0.74099999666213989</v>
+      </c>
+      <c r="F921">
+        <v>2912804</v>
+      </c>
+      <c r="G921">
+        <v>29128.0390625</v>
+      </c>
+      <c r="H921">
+        <f t="shared" si="111"/>
+        <v>919</v>
+      </c>
+      <c r="I921">
+        <f>SUM($F$3:F921)/H921</f>
+        <v>4547161.1531896079</v>
+      </c>
+      <c r="N921">
+        <f t="shared" si="120"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O921">
+        <f t="shared" si="121"/>
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="P921">
+        <f t="shared" si="110"/>
+        <v>0.74099999666213989</v>
+      </c>
+      <c r="Q921">
+        <f t="shared" si="101"/>
+        <v>0.79033333772704706</v>
+      </c>
+      <c r="R921">
+        <f t="shared" si="102"/>
+        <v>-4.9333341064907166E-2</v>
+      </c>
+      <c r="S921">
+        <f t="shared" si="103"/>
+        <v>3.6904767662489533E-2</v>
+      </c>
+      <c r="T921">
+        <f t="shared" si="104"/>
+        <v>5.5357151493734297E-4</v>
+      </c>
+      <c r="U921">
+        <f t="shared" si="105"/>
+        <v>-89.118279632742755</v>
+      </c>
+    </row>
+    <row r="922" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A922" s="1">
+        <v>45761</v>
+      </c>
+      <c r="B922">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="C922">
+        <v>0.75999999046325684</v>
+      </c>
+      <c r="D922">
+        <v>0.7369999885559082</v>
+      </c>
+      <c r="E922">
+        <v>0.75599998235702515</v>
+      </c>
+      <c r="F922">
+        <v>3966200</v>
+      </c>
+      <c r="G922">
+        <v>39662</v>
+      </c>
+      <c r="H922">
+        <f t="shared" si="111"/>
+        <v>920</v>
+      </c>
+      <c r="I922">
+        <f>SUM($F$3:F922)/H922</f>
+        <v>4546529.6736752717</v>
+      </c>
+      <c r="N922">
+        <f t="shared" si="120"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O922">
+        <f t="shared" si="121"/>
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="P922">
+        <f t="shared" si="110"/>
+        <v>0.75099998712539673</v>
+      </c>
+      <c r="Q922">
+        <f t="shared" si="101"/>
+        <v>0.78528571696508498</v>
+      </c>
+      <c r="R922">
+        <f t="shared" si="102"/>
+        <v>-3.428572983968825E-2</v>
+      </c>
+      <c r="S922">
+        <f t="shared" si="103"/>
+        <v>3.8918374347038008E-2</v>
+      </c>
+      <c r="T922">
+        <f t="shared" si="104"/>
+        <v>5.8377561520557011E-4</v>
+      </c>
+      <c r="U922">
+        <f t="shared" si="105"/>
+        <v>-58.731007165509837</v>
+      </c>
+    </row>
+    <row r="923" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A923" s="1">
+        <v>45762</v>
+      </c>
+      <c r="B923">
+        <v>0.75800001621246338</v>
+      </c>
+      <c r="C923">
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="D923">
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="E923">
+        <v>0.75800001621246338</v>
+      </c>
+      <c r="F923">
+        <v>3579919.25</v>
+      </c>
+      <c r="G923">
+        <v>35799.19140625</v>
+      </c>
+      <c r="H923">
+        <f t="shared" si="111"/>
+        <v>921</v>
+      </c>
+      <c r="I923">
+        <f>SUM($F$3:F923)/H923</f>
+        <v>4545480.1509568403</v>
+      </c>
+      <c r="N923">
+        <f t="shared" si="120"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O923">
+        <f t="shared" si="121"/>
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="P923">
+        <f t="shared" si="110"/>
+        <v>0.76166667540868127</v>
+      </c>
+      <c r="Q923">
+        <f t="shared" si="101"/>
+        <v>0.78080952735174269</v>
+      </c>
+      <c r="R923">
+        <f t="shared" si="102"/>
+        <v>-1.9142851943061423E-2</v>
+      </c>
+      <c r="S923">
+        <f t="shared" si="103"/>
+        <v>3.8455789186516584E-2</v>
+      </c>
+      <c r="T923">
+        <f t="shared" si="104"/>
+        <v>5.7683683779774877E-4</v>
+      </c>
+      <c r="U923">
+        <f t="shared" si="105"/>
+        <v>-33.185904035090964</v>
+      </c>
+    </row>
+    <row r="924" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A924" s="1">
+        <v>45763</v>
+      </c>
+      <c r="B924">
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="C924">
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="D924">
+        <v>0.75199997425079346</v>
+      </c>
+      <c r="E924">
+        <v>0.75700002908706665</v>
+      </c>
+      <c r="F924">
+        <v>3602200</v>
+      </c>
+      <c r="G924">
+        <v>36022</v>
+      </c>
+      <c r="H924">
+        <f t="shared" si="111"/>
+        <v>922</v>
+      </c>
+      <c r="I924">
+        <f>SUM($F$3:F924)/H924</f>
+        <v>4544457.070532809</v>
+      </c>
+      <c r="N924">
+        <f t="shared" si="120"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O924">
+        <f t="shared" si="121"/>
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="P924">
+        <f t="shared" si="110"/>
+        <v>0.75700000921885169</v>
+      </c>
+      <c r="Q924">
+        <f t="shared" si="101"/>
+        <v>0.77616667037918463</v>
+      </c>
+      <c r="R924">
+        <f t="shared" si="102"/>
+        <v>-1.9166661160332943E-2</v>
+      </c>
+      <c r="S924">
+        <f t="shared" si="103"/>
+        <v>3.721429194722857E-2</v>
+      </c>
+      <c r="T924">
+        <f t="shared" si="104"/>
+        <v>5.5821437920842857E-4</v>
+      </c>
+      <c r="U924">
+        <f t="shared" si="105"/>
+        <v>-34.335663634304929</v>
+      </c>
+    </row>
+    <row r="925" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A925" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B925">
+        <v>0.75</v>
+      </c>
+      <c r="C925">
+        <v>0.75</v>
+      </c>
+      <c r="D925">
+        <v>0.74000000953674316</v>
+      </c>
+      <c r="E925">
+        <v>0.75</v>
+      </c>
+      <c r="F925">
+        <v>3864300</v>
+      </c>
+      <c r="G925">
+        <v>38643</v>
+      </c>
+      <c r="H925">
+        <f t="shared" si="111"/>
+        <v>923</v>
+      </c>
+      <c r="I925">
+        <f>SUM($F$3:F925)/H925</f>
+        <v>4543720.1722982125</v>
+      </c>
+      <c r="N925">
+        <f t="shared" si="120"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O925">
+        <f t="shared" si="121"/>
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="P925">
+        <f t="shared" si="110"/>
+        <v>0.74666666984558105</v>
+      </c>
+      <c r="Q925">
+        <f t="shared" si="101"/>
+        <v>0.77057143336250677</v>
+      </c>
+      <c r="R925">
+        <f t="shared" si="102"/>
+        <v>-2.390476351692572E-2</v>
+      </c>
+      <c r="S925">
+        <f t="shared" si="103"/>
+        <v>3.5034021147254388E-2</v>
+      </c>
+      <c r="T925">
+        <f t="shared" si="104"/>
+        <v>5.2551031720881583E-4</v>
+      </c>
+      <c r="U925">
+        <f t="shared" si="105"/>
+        <v>-45.488666414568158</v>
+      </c>
+    </row>
+    <row r="926" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A926" s="1">
+        <v>45765</v>
+      </c>
+      <c r="B926">
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="C926">
+        <v>0.75400000810623169</v>
+      </c>
+      <c r="D926">
+        <v>0.74599999189376831</v>
+      </c>
+      <c r="E926">
+        <v>0.74800002574920654</v>
+      </c>
+      <c r="F926">
+        <v>1450202</v>
+      </c>
+      <c r="G926">
+        <v>14502.01953125</v>
+      </c>
+      <c r="H926">
+        <f t="shared" si="111"/>
+        <v>924</v>
+      </c>
+      <c r="I926">
+        <f>SUM($F$3:F926)/H926</f>
+        <v>4540372.2089082794</v>
+      </c>
+      <c r="N926">
+        <f t="shared" si="120"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O926">
+        <f t="shared" si="121"/>
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="P926">
+        <f t="shared" si="110"/>
+        <v>0.74933334191640222</v>
+      </c>
+      <c r="Q926">
+        <f t="shared" si="101"/>
+        <v>0.76535714807964506</v>
+      </c>
+      <c r="R926">
+        <f t="shared" si="102"/>
+        <v>-1.6023806163242837E-2</v>
+      </c>
+      <c r="S926">
+        <f t="shared" si="103"/>
+        <v>3.1363953133018645E-2</v>
+      </c>
+      <c r="T926">
+        <f t="shared" si="104"/>
+        <v>4.7045929699527966E-4</v>
+      </c>
+      <c r="U926">
+        <f t="shared" si="105"/>
+        <v>-34.059920306779723</v>
+      </c>
+    </row>
+    <row r="927" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A927" s="1">
+        <v>45768</v>
+      </c>
+      <c r="B927">
+        <v>0.74699997901916504</v>
+      </c>
+      <c r="C927">
+        <v>0.75</v>
+      </c>
+      <c r="D927">
+        <v>0.74400001764297485</v>
+      </c>
+      <c r="E927">
+        <v>0.74900001287460327</v>
+      </c>
+      <c r="F927">
+        <v>985301.9375</v>
+      </c>
+      <c r="G927">
+        <v>9853.01953125</v>
+      </c>
+      <c r="H927">
+        <f t="shared" si="111"/>
+        <v>925</v>
+      </c>
+      <c r="I927">
+        <f>SUM($F$3:F927)/H927</f>
+        <v>4536528.8896959461</v>
+      </c>
+      <c r="N927">
+        <f t="shared" si="120"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O927">
+        <f t="shared" si="121"/>
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="P927">
+        <f t="shared" si="110"/>
+        <v>0.74766667683919275</v>
+      </c>
+      <c r="Q927">
+        <f t="shared" si="101"/>
+        <v>0.7605714329651424</v>
+      </c>
+      <c r="R927">
+        <f t="shared" si="102"/>
+        <v>-1.2904756125949657E-2</v>
+      </c>
+      <c r="S927">
+        <f t="shared" si="103"/>
+        <v>2.7210890638584999E-2</v>
+      </c>
+      <c r="T927">
+        <f t="shared" si="104"/>
+        <v>4.0816335957877497E-4</v>
+      </c>
+      <c r="U927">
+        <f t="shared" si="105"/>
+        <v>-31.616645206143392</v>
+      </c>
+    </row>
+    <row r="928" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A928" s="1">
+        <v>45769</v>
+      </c>
+      <c r="B928">
+        <v>0.74900001287460327</v>
+      </c>
+      <c r="C928">
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="D928">
+        <v>0.74900001287460327</v>
+      </c>
+      <c r="E928">
+        <v>0.75900000333786011</v>
+      </c>
+      <c r="F928">
+        <v>1773432</v>
+      </c>
+      <c r="G928">
+        <v>17734.3203125</v>
+      </c>
+      <c r="H928">
+        <f t="shared" si="111"/>
+        <v>926</v>
+      </c>
+      <c r="I928">
+        <f>SUM($F$3:F928)/H928</f>
+        <v>4533544.9837675486</v>
+      </c>
+      <c r="N928">
+        <f t="shared" si="120"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O928">
+        <f t="shared" si="121"/>
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="P928">
+        <f t="shared" si="110"/>
+        <v>0.75666668017705285</v>
+      </c>
+      <c r="Q928">
+        <f t="shared" si="101"/>
+        <v>0.75642857523191542</v>
+      </c>
+      <c r="R928">
+        <f t="shared" si="102"/>
+        <v>2.3810494513742952E-4</v>
+      </c>
+      <c r="S928">
+        <f t="shared" si="103"/>
+        <v>2.1965992693998373E-2</v>
+      </c>
+      <c r="T928">
+        <f t="shared" si="104"/>
+        <v>3.294898904099756E-4</v>
+      </c>
+      <c r="U928">
+        <f t="shared" si="105"/>
+        <v>0.72264719515722264</v>
+      </c>
+    </row>
+    <row r="929" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A929" s="1">
+        <v>45770</v>
+      </c>
+      <c r="B929">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="C929">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="D929">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="E929">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="F929">
+        <v>1519505</v>
+      </c>
+      <c r="G929">
+        <v>15195.0498046875</v>
+      </c>
+      <c r="H929">
+        <f t="shared" si="111"/>
+        <v>927</v>
+      </c>
+      <c r="I929">
+        <f>SUM($F$3:F929)/H929</f>
+        <v>4530293.5921992986</v>
+      </c>
+      <c r="N929">
+        <f t="shared" si="120"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O929">
+        <f t="shared" si="121"/>
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="P929">
+        <f t="shared" si="110"/>
+        <v>0.768666664759318</v>
+      </c>
+      <c r="Q929">
+        <f t="shared" si="101"/>
+        <v>0.75347619397299626</v>
+      </c>
+      <c r="R929">
+        <f t="shared" si="102"/>
+        <v>1.5190470786321741E-2</v>
+      </c>
+      <c r="S929">
+        <f t="shared" si="103"/>
+        <v>1.8591842683805076E-2</v>
+      </c>
+      <c r="T929">
+        <f t="shared" si="104"/>
+        <v>2.7887764025707611E-4</v>
+      </c>
+      <c r="U929">
+        <f t="shared" si="105"/>
+        <v>54.470020516233575</v>
+      </c>
+    </row>
+    <row r="930" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A930" s="1">
+        <v>45771</v>
+      </c>
+      <c r="B930">
+        <v>0.76599997282028198</v>
+      </c>
+      <c r="C930">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="D930">
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="E930">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="F930">
+        <v>758503</v>
+      </c>
+      <c r="G930">
+        <v>7585.02978515625</v>
+      </c>
+      <c r="H930">
+        <f t="shared" si="111"/>
+        <v>928</v>
+      </c>
+      <c r="I930">
+        <f>SUM($F$3:F930)/H930</f>
+        <v>4526229.1626818422</v>
+      </c>
+      <c r="N930">
+        <f t="shared" si="120"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O930">
+        <f t="shared" si="121"/>
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="P930">
+        <f t="shared" si="110"/>
+        <v>0.76533335447311401</v>
+      </c>
+      <c r="Q930">
+        <f t="shared" si="101"/>
+        <v>0.75026190848577579</v>
+      </c>
+      <c r="R930">
+        <f t="shared" si="102"/>
+        <v>1.5071445987338228E-2</v>
+      </c>
+      <c r="S930">
+        <f t="shared" si="103"/>
+        <v>1.5023813361213318E-2</v>
+      </c>
+      <c r="T930">
+        <f t="shared" si="104"/>
+        <v>2.2535720041819975E-4</v>
+      </c>
+      <c r="U930">
+        <f t="shared" si="105"/>
+        <v>66.878031673138693</v>
+      </c>
+    </row>
+    <row r="931" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A931" s="1">
+        <v>45772</v>
+      </c>
+      <c r="B931">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="C931">
+        <v>0.77100002765655518</v>
+      </c>
+      <c r="D931">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="E931">
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="F931">
+        <v>2495808</v>
+      </c>
+      <c r="G931">
+        <v>24958.080078125</v>
+      </c>
+      <c r="H931">
+        <f t="shared" si="111"/>
+        <v>929</v>
+      </c>
+      <c r="I931">
+        <f>SUM($F$3:F931)/H931</f>
+        <v>4524043.5640137242</v>
+      </c>
+      <c r="N931">
+        <f t="shared" si="120"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O931">
+        <f t="shared" si="121"/>
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="P931">
+        <f t="shared" si="110"/>
+        <v>0.76700001955032349</v>
+      </c>
+      <c r="Q931">
+        <f t="shared" si="101"/>
+        <v>0.74814286118461959</v>
+      </c>
+      <c r="R931">
+        <f t="shared" si="102"/>
+        <v>1.8857158365703897E-2</v>
+      </c>
+      <c r="S931">
+        <f t="shared" si="103"/>
+        <v>1.3074834736026084E-2</v>
+      </c>
+      <c r="T931">
+        <f t="shared" si="104"/>
+        <v>1.9612252104039127E-4</v>
+      </c>
+      <c r="U931">
+        <f t="shared" si="105"/>
+        <v>96.149887660378795</v>
+      </c>
+    </row>
+    <row r="932" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A932" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B932">
+        <v>0.7720000147819519</v>
+      </c>
+      <c r="C932">
+        <v>0.7720000147819519</v>
+      </c>
+      <c r="D932">
+        <v>0.7630000114440918</v>
+      </c>
+      <c r="E932">
+        <v>0.76399999856948853</v>
+      </c>
+      <c r="F932">
+        <v>1168900</v>
+      </c>
+      <c r="G932">
+        <v>11689</v>
+      </c>
+      <c r="H932">
+        <f t="shared" si="111"/>
+        <v>930</v>
+      </c>
+      <c r="I932">
+        <f>SUM($F$3:F932)/H932</f>
+        <v>4520435.8827620968</v>
+      </c>
+      <c r="N932">
+        <f t="shared" si="120"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O932">
+        <f t="shared" si="121"/>
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="P932">
+        <f t="shared" si="110"/>
+        <v>0.76633334159851074</v>
+      </c>
+      <c r="Q932">
+        <f t="shared" si="101"/>
+        <v>0.74997619504020319</v>
+      </c>
+      <c r="R932">
+        <f t="shared" si="102"/>
+        <v>1.6357146558307556E-2</v>
+      </c>
+      <c r="S932">
+        <f t="shared" si="103"/>
+        <v>1.3408167427088946E-2</v>
+      </c>
+      <c r="T932">
+        <f t="shared" si="104"/>
+        <v>2.0112251140633419E-4</v>
+      </c>
+      <c r="U932">
+        <f t="shared" si="105"/>
+        <v>81.329267638572261</v>
+      </c>
+    </row>
+    <row r="933" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A933" s="1">
+        <v>45776</v>
+      </c>
+      <c r="B933">
+        <v>0.75800001621246338</v>
+      </c>
+      <c r="C933">
+        <v>0.76599997282028198</v>
+      </c>
+      <c r="D933">
+        <v>0.75800001621246338</v>
+      </c>
+      <c r="E933">
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="F933">
+        <v>2327500</v>
+      </c>
+      <c r="G933">
+        <v>23275</v>
+      </c>
+      <c r="H933">
+        <f t="shared" si="111"/>
+        <v>931</v>
+      </c>
+      <c r="I933">
+        <f>SUM($F$3:F933)/H933</f>
+        <v>4518080.4199449513</v>
+      </c>
+      <c r="N933">
+        <f t="shared" si="120"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O933">
+        <f t="shared" si="121"/>
+        <v>0.6589999794960022</v>
+      </c>
+      <c r="P933">
+        <f t="shared" si="110"/>
+        <v>0.76200000445048011</v>
+      </c>
+      <c r="Q933">
+        <f t="shared" si="101"/>
+        <v>0.75309524365833813</v>
+      </c>
+      <c r="R933">
+        <f t="shared" si="102"/>
+        <v>8.9047607921419747E-3</v>
+      </c>
+      <c r="S933">
+        <f t="shared" si="103"/>
+        <v>1.1414971481375158E-2</v>
+      </c>
+      <c r="T933">
+        <f t="shared" si="104"/>
+        <v>1.7122457222062737E-4</v>
+      </c>
+      <c r="U933">
+        <f t="shared" si="105"/>
+        <v>52.006325240912012</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U933"/>
+  <dimension ref="A1:U934"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A913" workbookViewId="0">
-      <selection activeCell="A934" sqref="A934"/>
+    <sheetView tabSelected="1" topLeftCell="A922" workbookViewId="0">
+      <selection activeCell="A935" sqref="A935"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3449,7 +3449,7 @@
         <v>-61.313868613138901</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44439</v>
       </c>
@@ -3479,6 +3479,12 @@
         <f>SUM($F$3:F49)/H49</f>
         <v>21490456.638297871</v>
       </c>
+      <c r="K49" s="2">
+        <v>45807</v>
+      </c>
+      <c r="L49" s="2">
+        <v>45783</v>
+      </c>
       <c r="N49">
         <f>VLOOKUP(L4,A:C,3)</f>
         <v>0.97199999999999998</v>
@@ -49671,23 +49677,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q933" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q934" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R933" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R934" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S933" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S934" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T933" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T934" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U933" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U934" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -52817,7 +52823,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P933" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P934" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52927,7 +52933,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H933" si="111">H833+1</f>
+        <f t="shared" ref="H834:H934" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -57975,11 +57981,11 @@
         <v>4547956.8802425982</v>
       </c>
       <c r="N914">
-        <f t="shared" ref="N914:N933" si="120">IF(A914&lt;&gt;$K$48,MAX(N913,VLOOKUP(A914,A:C,3)),)</f>
+        <f t="shared" ref="N914:N934" si="120">IF(A914&lt;&gt;$K$48,MAX(N913,VLOOKUP(A914,A:C,3)),)</f>
         <v>0.82200002670288086</v>
       </c>
       <c r="O914">
-        <f t="shared" ref="O914:O933" si="121">IF(A914&lt;&gt;$K$48,MIN(O913,VLOOKUP(A914,A:D,4)),)</f>
+        <f t="shared" ref="O914:O934" si="121">IF(A914&lt;&gt;$K$48,MIN(O913,VLOOKUP(A914,A:D,4)),)</f>
         <v>0.80800002813339233</v>
       </c>
       <c r="P914">
@@ -59202,6 +59208,69 @@
       <c r="U933">
         <f t="shared" si="105"/>
         <v>52.006325240912012</v>
+      </c>
+    </row>
+    <row r="934" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A934" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B934">
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="C934">
+        <v>0.76999998092651367</v>
+      </c>
+      <c r="D934">
+        <v>0.76200002431869507</v>
+      </c>
+      <c r="E934">
+        <v>0.76899999380111694</v>
+      </c>
+      <c r="F934">
+        <v>1839402</v>
+      </c>
+      <c r="G934">
+        <v>18394.01953125</v>
+      </c>
+      <c r="H934">
+        <f t="shared" si="111"/>
+        <v>932</v>
+      </c>
+      <c r="I934">
+        <f>SUM($F$3:F934)/H934</f>
+        <v>4515206.3014686154</v>
+      </c>
+      <c r="N934">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="O934">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="P934">
+        <f t="shared" si="110"/>
+        <v>0.76699999968210852</v>
+      </c>
+      <c r="Q934">
+        <f t="shared" si="101"/>
+        <v>0.7576666729790823</v>
+      </c>
+      <c r="R934">
+        <f t="shared" si="102"/>
+        <v>9.3333267030262235E-3</v>
+      </c>
+      <c r="S934">
+        <f t="shared" si="103"/>
+        <v>7.7619070098513543E-3</v>
+      </c>
+      <c r="T934">
+        <f t="shared" si="104"/>
+        <v>1.164286051477703E-4</v>
+      </c>
+      <c r="U934">
+        <f t="shared" si="105"/>
+        <v>80.163519018203786</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U934"/>
+  <dimension ref="A1:U952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A922" workbookViewId="0">
-      <selection activeCell="A935" sqref="A935"/>
+    <sheetView tabSelected="1" topLeftCell="A934" workbookViewId="0">
+      <selection activeCell="A953" sqref="A953"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -49677,23 +49677,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q934" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q952" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R934" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R952" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S934" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S952" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T934" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T952" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U934" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U952" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -52823,7 +52823,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P934" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P952" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52933,7 +52933,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H934" si="111">H833+1</f>
+        <f t="shared" ref="H834:H952" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -57981,11 +57981,11 @@
         <v>4547956.8802425982</v>
       </c>
       <c r="N914">
-        <f t="shared" ref="N914:N934" si="120">IF(A914&lt;&gt;$K$48,MAX(N913,VLOOKUP(A914,A:C,3)),)</f>
+        <f t="shared" ref="N914:N933" si="120">IF(A914&lt;&gt;$K$48,MAX(N913,VLOOKUP(A914,A:C,3)),)</f>
         <v>0.82200002670288086</v>
       </c>
       <c r="O914">
-        <f t="shared" ref="O914:O934" si="121">IF(A914&lt;&gt;$K$48,MIN(O913,VLOOKUP(A914,A:D,4)),)</f>
+        <f t="shared" ref="O914:O933" si="121">IF(A914&lt;&gt;$K$48,MIN(O913,VLOOKUP(A914,A:D,4)),)</f>
         <v>0.80800002813339233</v>
       </c>
       <c r="P914">
@@ -59241,12 +59241,12 @@
         <v>4515206.3014686154</v>
       </c>
       <c r="N934">
-        <f t="shared" si="120"/>
-        <v>0</v>
+        <f>VLOOKUP(L49,A:C,3)</f>
+        <v>0.78200000524520874</v>
       </c>
       <c r="O934">
-        <f t="shared" si="121"/>
-        <v>0</v>
+        <f>VLOOKUP(L49,A:D,4)</f>
+        <v>0.77300000190734863</v>
       </c>
       <c r="P934">
         <f t="shared" si="110"/>
@@ -59271,6 +59271,1140 @@
       <c r="U934">
         <f t="shared" si="105"/>
         <v>80.163519018203786</v>
+      </c>
+    </row>
+    <row r="935" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A935" s="1">
+        <v>45783</v>
+      </c>
+      <c r="B935">
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="C935">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="D935">
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="E935">
+        <v>0.77899998426437378</v>
+      </c>
+      <c r="F935">
+        <v>2459809</v>
+      </c>
+      <c r="G935">
+        <v>24598.08984375</v>
+      </c>
+      <c r="H935">
+        <f t="shared" si="111"/>
+        <v>933</v>
+      </c>
+      <c r="I935">
+        <f>SUM($F$3:F935)/H935</f>
+        <v>4513003.303289121</v>
+      </c>
+      <c r="N935">
+        <f t="shared" ref="N935:N952" si="122">IF(A935&lt;&gt;$K$49,MAX(N934,VLOOKUP(A935,A:C,3)),)</f>
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="O935">
+        <f t="shared" ref="O935:O952" si="123">IF(A935&lt;&gt;$K$49,MIN(O934,VLOOKUP(A935,A:D,4)),)</f>
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="P935">
+        <f t="shared" si="110"/>
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="Q935">
+        <f t="shared" si="101"/>
+        <v>0.76030953015599934</v>
+      </c>
+      <c r="R935">
+        <f t="shared" si="102"/>
+        <v>1.7690466982977715E-2</v>
+      </c>
+      <c r="S935">
+        <f t="shared" si="103"/>
+        <v>7.6462594019312312E-3</v>
+      </c>
+      <c r="T935">
+        <f t="shared" si="104"/>
+        <v>1.1469389102896846E-4</v>
+      </c>
+      <c r="U935">
+        <f t="shared" si="105"/>
+        <v>154.24070823885117</v>
+      </c>
+    </row>
+    <row r="936" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A936" s="1">
+        <v>45784</v>
+      </c>
+      <c r="B936">
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="C936">
+        <v>0.79400002956390381</v>
+      </c>
+      <c r="D936">
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="E936">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="F936">
+        <v>2518600</v>
+      </c>
+      <c r="G936">
+        <v>25186</v>
+      </c>
+      <c r="H936">
+        <f t="shared" si="111"/>
+        <v>934</v>
+      </c>
+      <c r="I936">
+        <f>SUM($F$3:F936)/H936</f>
+        <v>4510867.9678466273</v>
+      </c>
+      <c r="N936">
+        <f t="shared" si="122"/>
+        <v>0.79400002956390381</v>
+      </c>
+      <c r="O936">
+        <f t="shared" si="123"/>
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="P936">
+        <f t="shared" si="110"/>
+        <v>0.78533333539962769</v>
+      </c>
+      <c r="Q936">
+        <f t="shared" si="101"/>
+        <v>0.7627619121755872</v>
+      </c>
+      <c r="R936">
+        <f t="shared" si="102"/>
+        <v>2.2571423224040488E-2</v>
+      </c>
+      <c r="S936">
+        <f t="shared" si="103"/>
+        <v>8.3333324818383979E-3</v>
+      </c>
+      <c r="T936">
+        <f t="shared" si="104"/>
+        <v>1.2499998722757596E-4</v>
+      </c>
+      <c r="U936">
+        <f t="shared" si="105"/>
+        <v>180.57140424300025</v>
+      </c>
+    </row>
+    <row r="937" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A937" s="1">
+        <v>45785</v>
+      </c>
+      <c r="B937">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="C937">
+        <v>0.79500001668930054</v>
+      </c>
+      <c r="D937">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="E937">
+        <v>0.79400002956390381</v>
+      </c>
+      <c r="F937">
+        <v>1384900</v>
+      </c>
+      <c r="G937">
+        <v>13849</v>
+      </c>
+      <c r="H937">
+        <f t="shared" si="111"/>
+        <v>935</v>
+      </c>
+      <c r="I937">
+        <f>SUM($F$3:F937)/H937</f>
+        <v>4507524.6865975931</v>
+      </c>
+      <c r="N937">
+        <f t="shared" si="122"/>
+        <v>0.79500001668930054</v>
+      </c>
+      <c r="O937">
+        <f t="shared" si="123"/>
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="P937">
+        <f t="shared" si="110"/>
+        <v>0.79000002145767212</v>
+      </c>
+      <c r="Q937">
+        <f t="shared" si="101"/>
+        <v>0.76478572260765809</v>
+      </c>
+      <c r="R937">
+        <f t="shared" si="102"/>
+        <v>2.5214298850014027E-2</v>
+      </c>
+      <c r="S937">
+        <f t="shared" si="103"/>
+        <v>9.9115647426267686E-3</v>
+      </c>
+      <c r="T937">
+        <f t="shared" si="104"/>
+        <v>1.4867347113940152E-4</v>
+      </c>
+      <c r="U937">
+        <f t="shared" si="105"/>
+        <v>169.59514469378473</v>
+      </c>
+    </row>
+    <row r="938" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A938" s="1">
+        <v>45786</v>
+      </c>
+      <c r="B938">
+        <v>0.79100000858306885</v>
+      </c>
+      <c r="C938">
+        <v>0.79100000858306885</v>
+      </c>
+      <c r="D938">
+        <v>0.7839999794960022</v>
+      </c>
+      <c r="E938">
+        <v>0.79000002145767212</v>
+      </c>
+      <c r="F938">
+        <v>1790001</v>
+      </c>
+      <c r="G938">
+        <v>17900.009765625</v>
+      </c>
+      <c r="H938">
+        <f t="shared" si="111"/>
+        <v>936</v>
+      </c>
+      <c r="I938">
+        <f>SUM($F$3:F938)/H938</f>
+        <v>4504621.349325588</v>
+      </c>
+      <c r="N938">
+        <f t="shared" si="122"/>
+        <v>0.79500001668930054</v>
+      </c>
+      <c r="O938">
+        <f t="shared" si="123"/>
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="P938">
+        <f t="shared" si="110"/>
+        <v>0.78833333651224768</v>
+      </c>
+      <c r="Q938">
+        <f t="shared" si="101"/>
+        <v>0.76702381741432912</v>
+      </c>
+      <c r="R938">
+        <f t="shared" si="102"/>
+        <v>2.1309519097918561E-2</v>
+      </c>
+      <c r="S938">
+        <f t="shared" si="103"/>
+        <v>1.0744895456599521E-2</v>
+      </c>
+      <c r="T938">
+        <f t="shared" si="104"/>
+        <v>1.6117343184899281E-4</v>
+      </c>
+      <c r="U938">
+        <f t="shared" si="105"/>
+        <v>132.21483747944234</v>
+      </c>
+    </row>
+    <row r="939" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A939" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B939">
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="C939">
+        <v>0.80500000715255737</v>
+      </c>
+      <c r="D939">
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="E939">
+        <v>0.80500000715255737</v>
+      </c>
+      <c r="F939">
+        <v>3046800</v>
+      </c>
+      <c r="G939">
+        <v>30468</v>
+      </c>
+      <c r="H939">
+        <f t="shared" si="111"/>
+        <v>937</v>
+      </c>
+      <c r="I939">
+        <f>SUM($F$3:F939)/H939</f>
+        <v>4503065.5101053892</v>
+      </c>
+      <c r="N939">
+        <f t="shared" si="122"/>
+        <v>0.80500000715255737</v>
+      </c>
+      <c r="O939">
+        <f t="shared" si="123"/>
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="P939">
+        <f t="shared" si="110"/>
+        <v>0.80233333508173621</v>
+      </c>
+      <c r="Q939">
+        <f t="shared" si="101"/>
+        <v>0.77100000778834021</v>
+      </c>
+      <c r="R939">
+        <f t="shared" si="102"/>
+        <v>3.1333327293395996E-2</v>
+      </c>
+      <c r="S939">
+        <f t="shared" si="103"/>
+        <v>1.2714283806937066E-2</v>
+      </c>
+      <c r="T939">
+        <f t="shared" si="104"/>
+        <v>1.9071425710405599E-4</v>
+      </c>
+      <c r="U939">
+        <f t="shared" si="105"/>
+        <v>164.29462468713157</v>
+      </c>
+    </row>
+    <row r="940" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A940" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B940">
+        <v>0.81300002336502075</v>
+      </c>
+      <c r="C940">
+        <v>0.81300002336502075</v>
+      </c>
+      <c r="D940">
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="E940">
+        <v>0.80299997329711914</v>
+      </c>
+      <c r="F940">
+        <v>3556602</v>
+      </c>
+      <c r="G940">
+        <v>35566.01953125</v>
+      </c>
+      <c r="H940">
+        <f t="shared" si="111"/>
+        <v>938</v>
+      </c>
+      <c r="I940">
+        <f>SUM($F$3:F940)/H940</f>
+        <v>4502056.4871735079</v>
+      </c>
+      <c r="N940">
+        <f t="shared" si="122"/>
+        <v>0.81300002336502075</v>
+      </c>
+      <c r="O940">
+        <f t="shared" si="123"/>
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="P940">
+        <f t="shared" si="110"/>
+        <v>0.8059999942779541</v>
+      </c>
+      <c r="Q940">
+        <f t="shared" si="101"/>
+        <v>0.77504762581416542</v>
+      </c>
+      <c r="R940">
+        <f t="shared" si="102"/>
+        <v>3.0952368463788682E-2</v>
+      </c>
+      <c r="S940">
+        <f t="shared" si="103"/>
+        <v>1.424489499760323E-2</v>
+      </c>
+      <c r="T940">
+        <f t="shared" si="104"/>
+        <v>2.1367342496404843E-4</v>
+      </c>
+      <c r="U940">
+        <f t="shared" si="105"/>
+        <v>144.85829704370849</v>
+      </c>
+    </row>
+    <row r="941" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A941" s="1">
+        <v>45791</v>
+      </c>
+      <c r="B941">
+        <v>0.80099999904632568</v>
+      </c>
+      <c r="C941">
+        <v>0.81099998950958252</v>
+      </c>
+      <c r="D941">
+        <v>0.80099999904632568</v>
+      </c>
+      <c r="E941">
+        <v>0.80699998140335083</v>
+      </c>
+      <c r="F941">
+        <v>4562500</v>
+      </c>
+      <c r="G941">
+        <v>45625</v>
+      </c>
+      <c r="H941">
+        <f t="shared" si="111"/>
+        <v>939</v>
+      </c>
+      <c r="I941">
+        <f>SUM($F$3:F941)/H941</f>
+        <v>4502120.8572617145</v>
+      </c>
+      <c r="N941">
+        <f t="shared" si="122"/>
+        <v>0.81300002336502075</v>
+      </c>
+      <c r="O941">
+        <f t="shared" si="123"/>
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="P941">
+        <f t="shared" si="110"/>
+        <v>0.80633332331975305</v>
+      </c>
+      <c r="Q941">
+        <f t="shared" si="101"/>
+        <v>0.77923810056277687</v>
+      </c>
+      <c r="R941">
+        <f t="shared" si="102"/>
+        <v>2.7095222756976178E-2</v>
+      </c>
+      <c r="S941">
+        <f t="shared" si="103"/>
+        <v>1.4700677524618557E-2</v>
+      </c>
+      <c r="T941">
+        <f t="shared" si="104"/>
+        <v>2.2051016286927835E-4</v>
+      </c>
+      <c r="U941">
+        <f t="shared" si="105"/>
+        <v>122.87516549991676</v>
+      </c>
+    </row>
+    <row r="942" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A942" s="1">
+        <v>45792</v>
+      </c>
+      <c r="B942">
+        <v>0.80099999904632568</v>
+      </c>
+      <c r="C942">
+        <v>0.80299997329711914</v>
+      </c>
+      <c r="D942">
+        <v>0.79500001668930054</v>
+      </c>
+      <c r="E942">
+        <v>0.79600000381469727</v>
+      </c>
+      <c r="F942">
+        <v>389400</v>
+      </c>
+      <c r="G942">
+        <v>3894</v>
+      </c>
+      <c r="H942">
+        <f t="shared" si="111"/>
+        <v>940</v>
+      </c>
+      <c r="I942">
+        <f>SUM($F$3:F942)/H942</f>
+        <v>4497745.6223071804</v>
+      </c>
+      <c r="N942">
+        <f t="shared" si="122"/>
+        <v>0.81300002336502075</v>
+      </c>
+      <c r="O942">
+        <f t="shared" si="123"/>
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="P942">
+        <f t="shared" si="110"/>
+        <v>0.79799999793370568</v>
+      </c>
+      <c r="Q942">
+        <f t="shared" si="101"/>
+        <v>0.78219048040253791</v>
+      </c>
+      <c r="R942">
+        <f t="shared" si="102"/>
+        <v>1.5809517531167772E-2</v>
+      </c>
+      <c r="S942">
+        <f t="shared" si="103"/>
+        <v>1.4428568737847472E-2</v>
+      </c>
+      <c r="T942">
+        <f t="shared" si="104"/>
+        <v>2.1642853106771206E-4</v>
+      </c>
+      <c r="U942">
+        <f t="shared" si="105"/>
+        <v>73.047289343850835</v>
+      </c>
+    </row>
+    <row r="943" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A943" s="1">
+        <v>45793</v>
+      </c>
+      <c r="B943">
+        <v>0.79799997806549072</v>
+      </c>
+      <c r="C943">
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="D943">
+        <v>0.79600000381469727</v>
+      </c>
+      <c r="E943">
+        <v>0.79900002479553223</v>
+      </c>
+      <c r="F943">
+        <v>587800</v>
+      </c>
+      <c r="G943">
+        <v>5878</v>
+      </c>
+      <c r="H943">
+        <f t="shared" si="111"/>
+        <v>941</v>
+      </c>
+      <c r="I943">
+        <f>SUM($F$3:F943)/H943</f>
+        <v>4493590.5260029221</v>
+      </c>
+      <c r="N943">
+        <f t="shared" si="122"/>
+        <v>0.81300002336502075</v>
+      </c>
+      <c r="O943">
+        <f t="shared" si="123"/>
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="P943">
+        <f t="shared" si="110"/>
+        <v>0.79900000492731726</v>
+      </c>
+      <c r="Q943">
+        <f t="shared" si="101"/>
+        <v>0.78435714755739494</v>
+      </c>
+      <c r="R943">
+        <f t="shared" si="102"/>
+        <v>1.4642857369922324E-2</v>
+      </c>
+      <c r="S943">
+        <f t="shared" si="103"/>
+        <v>1.4353738350122143E-2</v>
+      </c>
+      <c r="T943">
+        <f t="shared" si="104"/>
+        <v>2.1530607525183212E-4</v>
+      </c>
+      <c r="U943">
+        <f t="shared" si="105"/>
+        <v>68.009494635928633</v>
+      </c>
+    </row>
+    <row r="944" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A944" s="1">
+        <v>45796</v>
+      </c>
+      <c r="B944">
+        <v>0.80299997329711914</v>
+      </c>
+      <c r="C944">
+        <v>0.80299997329711914</v>
+      </c>
+      <c r="D944">
+        <v>0.79199999570846558</v>
+      </c>
+      <c r="E944">
+        <v>0.79799997806549072</v>
+      </c>
+      <c r="F944">
+        <v>129500</v>
+      </c>
+      <c r="G944">
+        <v>1295</v>
+      </c>
+      <c r="H944">
+        <f t="shared" si="111"/>
+        <v>942</v>
+      </c>
+      <c r="I944">
+        <f>SUM($F$3:F944)/H944</f>
+        <v>4488957.7335124733</v>
+      </c>
+      <c r="N944">
+        <f t="shared" si="122"/>
+        <v>0.81300002336502075</v>
+      </c>
+      <c r="O944">
+        <f t="shared" si="123"/>
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="P944">
+        <f t="shared" si="110"/>
+        <v>0.79766664902369178</v>
+      </c>
+      <c r="Q944">
+        <f t="shared" si="101"/>
+        <v>0.78666666859672174</v>
+      </c>
+      <c r="R944">
+        <f t="shared" si="102"/>
+        <v>1.0999980426970035E-2</v>
+      </c>
+      <c r="S944">
+        <f t="shared" si="103"/>
+        <v>1.3476187680043343E-2</v>
+      </c>
+      <c r="T944">
+        <f t="shared" si="104"/>
+        <v>2.0214281520065014E-4</v>
+      </c>
+      <c r="U944">
+        <f t="shared" si="105"/>
+        <v>54.416875593877933</v>
+      </c>
+    </row>
+    <row r="945" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A945" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B945">
+        <v>0.79799997806549072</v>
+      </c>
+      <c r="C945">
+        <v>0.8059999942779541</v>
+      </c>
+      <c r="D945">
+        <v>0.79600000381469727</v>
+      </c>
+      <c r="E945">
+        <v>0.80500000715255737</v>
+      </c>
+      <c r="F945">
+        <v>534100</v>
+      </c>
+      <c r="G945">
+        <v>5341</v>
+      </c>
+      <c r="H945">
+        <f t="shared" si="111"/>
+        <v>943</v>
+      </c>
+      <c r="I945">
+        <f>SUM($F$3:F945)/H945</f>
+        <v>4484763.8228724813</v>
+      </c>
+      <c r="N945">
+        <f t="shared" si="122"/>
+        <v>0.81300002336502075</v>
+      </c>
+      <c r="O945">
+        <f t="shared" si="123"/>
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="P945">
+        <f t="shared" si="110"/>
+        <v>0.80233333508173621</v>
+      </c>
+      <c r="Q945">
+        <f t="shared" si="101"/>
+        <v>0.78919047684896548</v>
+      </c>
+      <c r="R945">
+        <f t="shared" si="102"/>
+        <v>1.3142858232770727E-2</v>
+      </c>
+      <c r="S945">
+        <f t="shared" si="103"/>
+        <v>1.2591835187405975E-2</v>
+      </c>
+      <c r="T945">
+        <f t="shared" si="104"/>
+        <v>1.8887752781108962E-4</v>
+      </c>
+      <c r="U945">
+        <f t="shared" si="105"/>
+        <v>69.584022964954684</v>
+      </c>
+    </row>
+    <row r="946" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A946" s="1">
+        <v>45798</v>
+      </c>
+      <c r="B946">
+        <v>0.80400002002716064</v>
+      </c>
+      <c r="C946">
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="D946">
+        <v>0.80299997329711914</v>
+      </c>
+      <c r="E946">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="F946">
+        <v>456800</v>
+      </c>
+      <c r="G946">
+        <v>4568</v>
+      </c>
+      <c r="H946">
+        <f t="shared" si="111"/>
+        <v>944</v>
+      </c>
+      <c r="I946">
+        <f>SUM($F$3:F946)/H946</f>
+        <v>4480496.9120431673</v>
+      </c>
+      <c r="N946">
+        <f t="shared" si="122"/>
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="O946">
+        <f t="shared" si="123"/>
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="P946">
+        <f t="shared" si="110"/>
+        <v>0.80999998251597083</v>
+      </c>
+      <c r="Q946">
+        <f t="shared" si="101"/>
+        <v>0.79230952262878407</v>
+      </c>
+      <c r="R946">
+        <f t="shared" si="102"/>
+        <v>1.769045988718676E-2</v>
+      </c>
+      <c r="S946">
+        <f t="shared" si="103"/>
+        <v>1.1884348733084558E-2</v>
+      </c>
+      <c r="T946">
+        <f t="shared" si="104"/>
+        <v>1.7826523099626835E-4</v>
+      </c>
+      <c r="U946">
+        <f t="shared" si="105"/>
+        <v>99.236737238778076</v>
+      </c>
+    </row>
+    <row r="947" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A947" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B947">
+        <v>0.80800002813339233</v>
+      </c>
+      <c r="C947">
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="D947">
+        <v>0.80500000715255737</v>
+      </c>
+      <c r="E947">
+        <v>0.8059999942779541</v>
+      </c>
+      <c r="F947">
+        <v>131001</v>
+      </c>
+      <c r="G947">
+        <v>1310.010009765625</v>
+      </c>
+      <c r="H947">
+        <f t="shared" si="111"/>
+        <v>945</v>
+      </c>
+      <c r="I947">
+        <f>SUM($F$3:F947)/H947</f>
+        <v>4475894.2708664024</v>
+      </c>
+      <c r="N947">
+        <f t="shared" si="122"/>
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="O947">
+        <f t="shared" si="123"/>
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="P947">
+        <f t="shared" si="110"/>
+        <v>0.80700000127156579</v>
+      </c>
+      <c r="Q947">
+        <f t="shared" si="101"/>
+        <v>0.79552380811600454</v>
+      </c>
+      <c r="R947">
+        <f t="shared" si="102"/>
+        <v>1.1476193155561254E-2</v>
+      </c>
+      <c r="S947">
+        <f t="shared" si="103"/>
+        <v>9.8503357699128349E-3</v>
+      </c>
+      <c r="T947">
+        <f t="shared" si="104"/>
+        <v>1.4775503654869252E-4</v>
+      </c>
+      <c r="U947">
+        <f t="shared" si="105"/>
+        <v>77.670402469016921</v>
+      </c>
+    </row>
+    <row r="948" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A948" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B948">
+        <v>0.80800002813339233</v>
+      </c>
+      <c r="C948">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="D948">
+        <v>0.80099999904632568</v>
+      </c>
+      <c r="E948">
+        <v>0.80099999904632568</v>
+      </c>
+      <c r="F948">
+        <v>299600</v>
+      </c>
+      <c r="G948">
+        <v>2996</v>
+      </c>
+      <c r="H948">
+        <f t="shared" si="111"/>
+        <v>946</v>
+      </c>
+      <c r="I948">
+        <f>SUM($F$3:F948)/H948</f>
+        <v>4471479.5834764801</v>
+      </c>
+      <c r="N948">
+        <f t="shared" si="122"/>
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="O948">
+        <f t="shared" si="123"/>
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="P948">
+        <f t="shared" si="110"/>
+        <v>0.80533333619435632</v>
+      </c>
+      <c r="Q948">
+        <f t="shared" si="101"/>
+        <v>0.79826190358116522</v>
+      </c>
+      <c r="R948">
+        <f t="shared" si="102"/>
+        <v>7.0714326131910976E-3</v>
+      </c>
+      <c r="S948">
+        <f t="shared" si="103"/>
+        <v>7.4625834315812378E-3</v>
+      </c>
+      <c r="T948">
+        <f t="shared" si="104"/>
+        <v>1.1193875147371856E-4</v>
+      </c>
+      <c r="U948">
+        <f t="shared" si="105"/>
+        <v>63.172337730168067</v>
+      </c>
+    </row>
+    <row r="949" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A949" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B949">
+        <v>0.80099999904632568</v>
+      </c>
+      <c r="C949">
+        <v>0.80099999904632568</v>
+      </c>
+      <c r="D949">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="E949">
+        <v>0.79100000858306885</v>
+      </c>
+      <c r="F949">
+        <v>136100</v>
+      </c>
+      <c r="G949">
+        <v>1361</v>
+      </c>
+      <c r="H949">
+        <f t="shared" si="111"/>
+        <v>947</v>
+      </c>
+      <c r="I949">
+        <f>SUM($F$3:F949)/H949</f>
+        <v>4466901.5691327881</v>
+      </c>
+      <c r="N949">
+        <f t="shared" si="122"/>
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="O949">
+        <f t="shared" si="123"/>
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="P949">
+        <f t="shared" si="110"/>
+        <v>0.79366666078567505</v>
+      </c>
+      <c r="Q949">
+        <f t="shared" si="101"/>
+        <v>0.79938095098450079</v>
+      </c>
+      <c r="R949">
+        <f t="shared" si="102"/>
+        <v>-5.7142901988257444E-3</v>
+      </c>
+      <c r="S949">
+        <f t="shared" si="103"/>
+        <v>6.2380929787953744E-3</v>
+      </c>
+      <c r="T949">
+        <f t="shared" si="104"/>
+        <v>9.3571394681930614E-5</v>
+      </c>
+      <c r="U949">
+        <f t="shared" si="105"/>
+        <v>-61.068772334214437</v>
+      </c>
+    </row>
+    <row r="950" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A950" s="1">
+        <v>45804</v>
+      </c>
+      <c r="B950">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="C950">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="D950">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="E950">
+        <v>0.7850000262260437</v>
+      </c>
+      <c r="F950">
+        <v>1618406</v>
+      </c>
+      <c r="G950">
+        <v>16184.0595703125</v>
+      </c>
+      <c r="H950">
+        <f t="shared" si="111"/>
+        <v>948</v>
+      </c>
+      <c r="I950">
+        <f>SUM($F$3:F950)/H950</f>
+        <v>4463896.8269712552</v>
+      </c>
+      <c r="N950">
+        <f t="shared" si="122"/>
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="O950">
+        <f t="shared" si="123"/>
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="P950">
+        <f t="shared" si="110"/>
+        <v>0.78500000635782874</v>
+      </c>
+      <c r="Q950">
+        <f t="shared" si="101"/>
+        <v>0.7993571417672295</v>
+      </c>
+      <c r="R950">
+        <f t="shared" si="102"/>
+        <v>-1.4357135409400756E-2</v>
+      </c>
+      <c r="S950">
+        <f t="shared" si="103"/>
+        <v>6.2619021960667277E-3</v>
+      </c>
+      <c r="T950">
+        <f t="shared" si="104"/>
+        <v>9.3928532941000913E-5</v>
+      </c>
+      <c r="U950">
+        <f t="shared" si="105"/>
+        <v>-152.85169436659748</v>
+      </c>
+    </row>
+    <row r="951" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A951" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B951">
+        <v>0.78600001335144043</v>
+      </c>
+      <c r="C951">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="D951">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="E951">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="F951">
+        <v>1705902</v>
+      </c>
+      <c r="G951">
+        <v>17059.01953125</v>
+      </c>
+      <c r="H951">
+        <f t="shared" si="111"/>
+        <v>949</v>
+      </c>
+      <c r="I951">
+        <f>SUM($F$3:F951)/H951</f>
+        <v>4460990.6153516863</v>
+      </c>
+      <c r="N951">
+        <f t="shared" si="122"/>
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="O951">
+        <f t="shared" si="123"/>
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="P951">
+        <f t="shared" si="110"/>
+        <v>0.78366667032241821</v>
+      </c>
+      <c r="Q951">
+        <f t="shared" si="101"/>
+        <v>0.79890475954328277</v>
+      </c>
+      <c r="R951">
+        <f t="shared" si="102"/>
+        <v>-1.5238089220864559E-2</v>
+      </c>
+      <c r="S951">
+        <f t="shared" si="103"/>
+        <v>6.7278909034469347E-3</v>
+      </c>
+      <c r="T951">
+        <f t="shared" si="104"/>
+        <v>1.0091836355170401E-4</v>
+      </c>
+      <c r="U951">
+        <f t="shared" si="105"/>
+        <v>-150.99421636041049</v>
+      </c>
+    </row>
+    <row r="952" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A952" s="1">
+        <v>45806</v>
+      </c>
+      <c r="B952">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="C952">
+        <v>0.7929999828338623</v>
+      </c>
+      <c r="D952">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="E952">
+        <v>0.79000002145767212</v>
+      </c>
+      <c r="F952">
+        <v>2654500</v>
+      </c>
+      <c r="G952">
+        <v>26545</v>
+      </c>
+      <c r="H952">
+        <f t="shared" si="111"/>
+        <v>950</v>
+      </c>
+      <c r="I952">
+        <f>SUM($F$3:F952)/H952</f>
+        <v>4459089.0462828949</v>
+      </c>
+      <c r="N952">
+        <f t="shared" si="122"/>
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="O952">
+        <f t="shared" si="123"/>
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="P952">
+        <f t="shared" si="110"/>
+        <v>0.78833333651224768</v>
+      </c>
+      <c r="Q952">
+        <f t="shared" si="101"/>
+        <v>0.79890475954328266</v>
+      </c>
+      <c r="R952">
+        <f t="shared" si="102"/>
+        <v>-1.0571423031034977E-2</v>
+      </c>
+      <c r="S952">
+        <f t="shared" si="103"/>
+        <v>6.7278909034469503E-3</v>
+      </c>
+      <c r="T952">
+        <f t="shared" si="104"/>
+        <v>1.0091836355170426E-4</v>
+      </c>
+      <c r="U952">
+        <f t="shared" si="105"/>
+        <v>-104.75222406493781</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U952"/>
+  <dimension ref="A1:U953"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A934" workbookViewId="0">
-      <selection activeCell="A953" sqref="A953"/>
+    <sheetView tabSelected="1" topLeftCell="A941" workbookViewId="0">
+      <selection activeCell="A954" sqref="A954"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3518,7 +3518,7 @@
         <v>-120.73806658644138</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44440</v>
       </c>
@@ -3548,6 +3548,12 @@
         <f>SUM($F$3:F50)/H50</f>
         <v>21135943.583333332</v>
       </c>
+      <c r="K50" s="2">
+        <v>45838</v>
+      </c>
+      <c r="L50" s="2">
+        <v>45811</v>
+      </c>
       <c r="N50">
         <f t="shared" ref="N50:N68" si="11">IF(A50&lt;&gt;$K$4,MAX(N49,VLOOKUP(A50,A:C,3)),)</f>
         <v>0.97199999999999998</v>
@@ -49677,23 +49683,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q952" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q953" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R952" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R953" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S952" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S953" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T952" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T953" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U952" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U953" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -52823,7 +52829,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P952" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P953" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52933,7 +52939,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H952" si="111">H833+1</f>
+        <f t="shared" ref="H834:H953" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -59304,11 +59310,11 @@
         <v>4513003.303289121</v>
       </c>
       <c r="N935">
-        <f t="shared" ref="N935:N952" si="122">IF(A935&lt;&gt;$K$49,MAX(N934,VLOOKUP(A935,A:C,3)),)</f>
+        <f t="shared" ref="N935:N953" si="122">IF(A935&lt;&gt;$K$49,MAX(N934,VLOOKUP(A935,A:C,3)),)</f>
         <v>0.78200000524520874</v>
       </c>
       <c r="O935">
-        <f t="shared" ref="O935:O952" si="123">IF(A935&lt;&gt;$K$49,MIN(O934,VLOOKUP(A935,A:D,4)),)</f>
+        <f t="shared" ref="O935:O953" si="123">IF(A935&lt;&gt;$K$49,MIN(O934,VLOOKUP(A935,A:D,4)),)</f>
         <v>0.77300000190734863</v>
       </c>
       <c r="P935">
@@ -60405,6 +60411,69 @@
       <c r="U952">
         <f t="shared" si="105"/>
         <v>-104.75222406493781</v>
+      </c>
+    </row>
+    <row r="953" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A953" s="1">
+        <v>45807</v>
+      </c>
+      <c r="B953">
+        <v>0.79400002956390381</v>
+      </c>
+      <c r="C953">
+        <v>0.79400002956390381</v>
+      </c>
+      <c r="D953">
+        <v>0.77899998426437378</v>
+      </c>
+      <c r="E953">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="F953">
+        <v>2171902</v>
+      </c>
+      <c r="G953">
+        <v>21719.01953125</v>
+      </c>
+      <c r="H953">
+        <f t="shared" si="111"/>
+        <v>951</v>
+      </c>
+      <c r="I953">
+        <f>SUM($F$3:F953)/H953</f>
+        <v>4456684.012585436</v>
+      </c>
+      <c r="N953">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="O953">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="P953">
+        <f t="shared" si="110"/>
+        <v>0.78500000635782874</v>
+      </c>
+      <c r="Q953">
+        <f t="shared" si="101"/>
+        <v>0.79766666463443203</v>
+      </c>
+      <c r="R953">
+        <f t="shared" si="102"/>
+        <v>-1.2666658276603293E-2</v>
+      </c>
+      <c r="S953">
+        <f t="shared" si="103"/>
+        <v>7.5238083495574992E-3</v>
+      </c>
+      <c r="T953">
+        <f t="shared" si="104"/>
+        <v>1.1285712524336248E-4</v>
+      </c>
+      <c r="U953">
+        <f t="shared" si="105"/>
+        <v>-112.23623009437114</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U953"/>
+  <dimension ref="A1:U972"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A941" workbookViewId="0">
-      <selection activeCell="A954" sqref="A954"/>
+    <sheetView tabSelected="1" topLeftCell="A953" workbookViewId="0">
+      <selection activeCell="A973" sqref="A973"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -49683,23 +49683,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q953" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q972" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R953" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R972" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S953" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S972" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T953" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T972" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U953" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U972" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -52829,7 +52829,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P953" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P972" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52939,7 +52939,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H953" si="111">H833+1</f>
+        <f t="shared" ref="H834:H972" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -59310,11 +59310,11 @@
         <v>4513003.303289121</v>
       </c>
       <c r="N935">
-        <f t="shared" ref="N935:N953" si="122">IF(A935&lt;&gt;$K$49,MAX(N934,VLOOKUP(A935,A:C,3)),)</f>
+        <f t="shared" ref="N935:N952" si="122">IF(A935&lt;&gt;$K$49,MAX(N934,VLOOKUP(A935,A:C,3)),)</f>
         <v>0.78200000524520874</v>
       </c>
       <c r="O935">
-        <f t="shared" ref="O935:O953" si="123">IF(A935&lt;&gt;$K$49,MIN(O934,VLOOKUP(A935,A:D,4)),)</f>
+        <f t="shared" ref="O935:O952" si="123">IF(A935&lt;&gt;$K$49,MIN(O934,VLOOKUP(A935,A:D,4)),)</f>
         <v>0.77300000190734863</v>
       </c>
       <c r="P935">
@@ -60444,12 +60444,12 @@
         <v>4456684.012585436</v>
       </c>
       <c r="N953">
-        <f t="shared" si="122"/>
-        <v>0</v>
+        <f>VLOOKUP(L50,A:C,3)</f>
+        <v>0.78299999237060547</v>
       </c>
       <c r="O953">
-        <f t="shared" si="123"/>
-        <v>0</v>
+        <f>VLOOKUP(L50,A:D,4)</f>
+        <v>0.77799999713897705</v>
       </c>
       <c r="P953">
         <f t="shared" si="110"/>
@@ -60474,6 +60474,1203 @@
       <c r="U953">
         <f t="shared" si="105"/>
         <v>-112.23623009437114</v>
+      </c>
+    </row>
+    <row r="954" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A954" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B954">
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="C954">
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="D954">
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="E954">
+        <v>0.77899998426437378</v>
+      </c>
+      <c r="F954">
+        <v>2327000</v>
+      </c>
+      <c r="G954">
+        <v>23270</v>
+      </c>
+      <c r="H954">
+        <f t="shared" si="111"/>
+        <v>952</v>
+      </c>
+      <c r="I954">
+        <f>SUM($F$3:F954)/H954</f>
+        <v>4454446.9495470067</v>
+      </c>
+      <c r="N954">
+        <f t="shared" ref="N954:N972" si="124">IF(A954&lt;&gt;$K$50,MAX(N953,VLOOKUP(A954,A:C,3)),)</f>
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="O954">
+        <f t="shared" ref="O954:O972" si="125">IF(A954&lt;&gt;$K$50,MIN(O953,VLOOKUP(A954,A:D,4)),)</f>
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="P954">
+        <f t="shared" si="110"/>
+        <v>0.77999999125798547</v>
+      </c>
+      <c r="Q954">
+        <f t="shared" si="101"/>
+        <v>0.79580952156157714</v>
+      </c>
+      <c r="R954">
+        <f t="shared" si="102"/>
+        <v>-1.5809530303591668E-2</v>
+      </c>
+      <c r="S954">
+        <f t="shared" si="103"/>
+        <v>8.4557796822113396E-3</v>
+      </c>
+      <c r="T954">
+        <f t="shared" si="104"/>
+        <v>1.268366952331701E-4</v>
+      </c>
+      <c r="U954">
+        <f t="shared" si="105"/>
+        <v>-124.64476683603461</v>
+      </c>
+    </row>
+    <row r="955" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A955" s="1">
+        <v>45812</v>
+      </c>
+      <c r="B955">
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="C955">
+        <v>0.78700000047683716</v>
+      </c>
+      <c r="D955">
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="E955">
+        <v>0.7850000262260437</v>
+      </c>
+      <c r="F955">
+        <v>1670000</v>
+      </c>
+      <c r="G955">
+        <v>16700</v>
+      </c>
+      <c r="H955">
+        <f t="shared" si="111"/>
+        <v>953</v>
+      </c>
+      <c r="I955">
+        <f>SUM($F$3:F955)/H955</f>
+        <v>4451525.1794005772</v>
+      </c>
+      <c r="N955">
+        <f t="shared" si="124"/>
+        <v>0.78700000047683716</v>
+      </c>
+      <c r="O955">
+        <f t="shared" si="125"/>
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="P955">
+        <f t="shared" si="110"/>
+        <v>0.78500000635782874</v>
+      </c>
+      <c r="Q955">
+        <f t="shared" si="101"/>
+        <v>0.79428571320715402</v>
+      </c>
+      <c r="R955">
+        <f t="shared" si="102"/>
+        <v>-9.2857068493252815E-3</v>
+      </c>
+      <c r="S955">
+        <f t="shared" si="103"/>
+        <v>8.4761877854665178E-3</v>
+      </c>
+      <c r="T955">
+        <f t="shared" si="104"/>
+        <v>1.2714281678199776E-4</v>
+      </c>
+      <c r="U955">
+        <f t="shared" si="105"/>
+        <v>-73.033672560887069</v>
+      </c>
+    </row>
+    <row r="956" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A956" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B956">
+        <v>0.78799998760223389</v>
+      </c>
+      <c r="C956">
+        <v>0.7929999828338623</v>
+      </c>
+      <c r="D956">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="E956">
+        <v>0.79199999570846558</v>
+      </c>
+      <c r="F956">
+        <v>2724508</v>
+      </c>
+      <c r="G956">
+        <v>27245.080078125</v>
+      </c>
+      <c r="H956">
+        <f t="shared" si="111"/>
+        <v>954</v>
+      </c>
+      <c r="I956">
+        <f>SUM($F$3:F956)/H956</f>
+        <v>4449714.8888561325</v>
+      </c>
+      <c r="N956">
+        <f t="shared" si="124"/>
+        <v>0.7929999828338623</v>
+      </c>
+      <c r="O956">
+        <f t="shared" si="125"/>
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="P956">
+        <f t="shared" si="110"/>
+        <v>0.78899999459584558</v>
+      </c>
+      <c r="Q956">
+        <f t="shared" si="101"/>
+        <v>0.79364285582587846</v>
+      </c>
+      <c r="R956">
+        <f t="shared" si="102"/>
+        <v>-4.6428612300328798E-3</v>
+      </c>
+      <c r="S956">
+        <f t="shared" si="103"/>
+        <v>8.4999970027378625E-3</v>
+      </c>
+      <c r="T956">
+        <f t="shared" si="104"/>
+        <v>1.2749995504106792E-4</v>
+      </c>
+      <c r="U956">
+        <f t="shared" si="105"/>
+        <v>-36.414610723097177</v>
+      </c>
+    </row>
+    <row r="957" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A957" s="1">
+        <v>45814</v>
+      </c>
+      <c r="B957">
+        <v>0.79199999570846558</v>
+      </c>
+      <c r="C957">
+        <v>0.7929999828338623</v>
+      </c>
+      <c r="D957">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="E957">
+        <v>0.79000002145767212</v>
+      </c>
+      <c r="F957">
+        <v>3018000</v>
+      </c>
+      <c r="G957">
+        <v>30180</v>
+      </c>
+      <c r="H957">
+        <f t="shared" si="111"/>
+        <v>955</v>
+      </c>
+      <c r="I957">
+        <f>SUM($F$3:F957)/H957</f>
+        <v>4448215.7109620422</v>
+      </c>
+      <c r="N957">
+        <f t="shared" si="124"/>
+        <v>0.7929999828338623</v>
+      </c>
+      <c r="O957">
+        <f t="shared" si="125"/>
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="P957">
+        <f t="shared" si="110"/>
+        <v>0.79066665967305505</v>
+      </c>
+      <c r="Q957">
+        <f t="shared" si="101"/>
+        <v>0.79304761687914549</v>
+      </c>
+      <c r="R957">
+        <f t="shared" si="102"/>
+        <v>-2.3809572060904394E-3</v>
+      </c>
+      <c r="S957">
+        <f t="shared" si="103"/>
+        <v>8.2448947997320523E-3</v>
+      </c>
+      <c r="T957">
+        <f t="shared" si="104"/>
+        <v>1.2367342199598078E-4</v>
+      </c>
+      <c r="U957">
+        <f t="shared" si="105"/>
+        <v>-19.251971585033179</v>
+      </c>
+    </row>
+    <row r="958" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A958" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B958">
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="C958">
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="D958">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="E958">
+        <v>0.79100000858306885</v>
+      </c>
+      <c r="F958">
+        <v>2311700</v>
+      </c>
+      <c r="G958">
+        <v>23117</v>
+      </c>
+      <c r="H958">
+        <f t="shared" si="111"/>
+        <v>956</v>
+      </c>
+      <c r="I958">
+        <f>SUM($F$3:F958)/H958</f>
+        <v>4445980.861891998</v>
+      </c>
+      <c r="N958">
+        <f t="shared" si="124"/>
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="O958">
+        <f t="shared" si="125"/>
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="P958">
+        <f t="shared" si="110"/>
+        <v>0.79233332475026452</v>
+      </c>
+      <c r="Q958">
+        <f t="shared" si="101"/>
+        <v>0.79266666514532924</v>
+      </c>
+      <c r="R958">
+        <f t="shared" si="102"/>
+        <v>-3.3334039506471846E-4</v>
+      </c>
+      <c r="S958">
+        <f t="shared" si="103"/>
+        <v>7.8571414460941735E-3</v>
+      </c>
+      <c r="T958">
+        <f t="shared" si="104"/>
+        <v>1.178571216914126E-4</v>
+      </c>
+      <c r="U958">
+        <f t="shared" si="105"/>
+        <v>-2.8283432539402207</v>
+      </c>
+    </row>
+    <row r="959" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A959" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B959">
+        <v>0.79199999570846558</v>
+      </c>
+      <c r="C959">
+        <v>0.79199999570846558</v>
+      </c>
+      <c r="D959">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="E959">
+        <v>0.7850000262260437</v>
+      </c>
+      <c r="F959">
+        <v>3562400</v>
+      </c>
+      <c r="G959">
+        <v>35624</v>
+      </c>
+      <c r="H959">
+        <f t="shared" si="111"/>
+        <v>957</v>
+      </c>
+      <c r="I959">
+        <f>SUM($F$3:F959)/H959</f>
+        <v>4445057.5799046503</v>
+      </c>
+      <c r="N959">
+        <f t="shared" si="124"/>
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="O959">
+        <f t="shared" si="125"/>
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="P959">
+        <f t="shared" si="110"/>
+        <v>0.78600001335144043</v>
+      </c>
+      <c r="Q959">
+        <f t="shared" si="101"/>
+        <v>0.79149999930745096</v>
+      </c>
+      <c r="R959">
+        <f t="shared" si="102"/>
+        <v>-5.4999859560105335E-3</v>
+      </c>
+      <c r="S959">
+        <f t="shared" si="103"/>
+        <v>7.2619012829398377E-3</v>
+      </c>
+      <c r="T959">
+        <f t="shared" si="104"/>
+        <v>1.0892851924409756E-4</v>
+      </c>
+      <c r="U959">
+        <f t="shared" si="105"/>
+        <v>-50.491698539347929</v>
+      </c>
+    </row>
+    <row r="960" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A960" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B960">
+        <v>0.79100000858306885</v>
+      </c>
+      <c r="C960">
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="D960">
+        <v>0.79100000858306885</v>
+      </c>
+      <c r="E960">
+        <v>0.79199999570846558</v>
+      </c>
+      <c r="F960">
+        <v>1324901</v>
+      </c>
+      <c r="G960">
+        <v>13249.009765625</v>
+      </c>
+      <c r="H960">
+        <f t="shared" si="111"/>
+        <v>958</v>
+      </c>
+      <c r="I960">
+        <f>SUM($F$3:F960)/H960</f>
+        <v>4441800.6314913882</v>
+      </c>
+      <c r="N960">
+        <f t="shared" si="124"/>
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="O960">
+        <f t="shared" si="125"/>
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="P960">
+        <f t="shared" si="110"/>
+        <v>0.7933333317438761</v>
+      </c>
+      <c r="Q960">
+        <f t="shared" si="101"/>
+        <v>0.79030952425230117</v>
+      </c>
+      <c r="R960">
+        <f t="shared" si="102"/>
+        <v>3.0238074915749369E-3</v>
+      </c>
+      <c r="S960">
+        <f t="shared" si="103"/>
+        <v>5.7823098435693986E-3</v>
+      </c>
+      <c r="T960">
+        <f t="shared" si="104"/>
+        <v>8.6734647653540972E-5</v>
+      </c>
+      <c r="U960">
+        <f t="shared" si="105"/>
+        <v>34.862740247166833</v>
+      </c>
+    </row>
+    <row r="961" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A961" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B961">
+        <v>0.78600001335144043</v>
+      </c>
+      <c r="C961">
+        <v>0.79199999570846558</v>
+      </c>
+      <c r="D961">
+        <v>0.78600001335144043</v>
+      </c>
+      <c r="E961">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="F961">
+        <v>1913602.875</v>
+      </c>
+      <c r="G961">
+        <v>19136.029296875</v>
+      </c>
+      <c r="H961">
+        <f t="shared" si="111"/>
+        <v>959</v>
+      </c>
+      <c r="I961">
+        <f>SUM($F$3:F961)/H961</f>
+        <v>4439164.3460310223</v>
+      </c>
+      <c r="N961">
+        <f t="shared" si="124"/>
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="O961">
+        <f t="shared" si="125"/>
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="P961">
+        <f t="shared" si="110"/>
+        <v>0.78899999459584558</v>
+      </c>
+      <c r="Q961">
+        <f t="shared" si="101"/>
+        <v>0.78902380948974959</v>
+      </c>
+      <c r="R961">
+        <f t="shared" si="102"/>
+        <v>-2.3814893904017254E-5</v>
+      </c>
+      <c r="S961">
+        <f t="shared" si="103"/>
+        <v>4.3163236712111608E-3</v>
+      </c>
+      <c r="T961">
+        <f t="shared" si="104"/>
+        <v>6.474485506816741E-5</v>
+      </c>
+      <c r="U961">
+        <f t="shared" si="105"/>
+        <v>-0.36782681618398022</v>
+      </c>
+    </row>
+    <row r="962" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A962" s="1">
+        <v>45821</v>
+      </c>
+      <c r="B962">
+        <v>0.78700000047683716</v>
+      </c>
+      <c r="C962">
+        <v>0.78899997472763062</v>
+      </c>
+      <c r="D962">
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="E962">
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="F962">
+        <v>2231300</v>
+      </c>
+      <c r="G962">
+        <v>22313</v>
+      </c>
+      <c r="H962">
+        <f t="shared" si="111"/>
+        <v>960</v>
+      </c>
+      <c r="I962">
+        <f>SUM($F$3:F962)/H962</f>
+        <v>4436864.48733724</v>
+      </c>
+      <c r="N962">
+        <f t="shared" si="124"/>
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="O962">
+        <f t="shared" si="125"/>
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="P962">
+        <f t="shared" si="110"/>
+        <v>0.7839999794960022</v>
+      </c>
+      <c r="Q962">
+        <f t="shared" si="101"/>
+        <v>0.78749999829701012</v>
+      </c>
+      <c r="R962">
+        <f t="shared" si="102"/>
+        <v>-3.5000188010079203E-3</v>
+      </c>
+      <c r="S962">
+        <f t="shared" si="103"/>
+        <v>3.4047592253912168E-3</v>
+      </c>
+      <c r="T962">
+        <f t="shared" si="104"/>
+        <v>5.107138838086825E-5</v>
+      </c>
+      <c r="U962">
+        <f t="shared" si="105"/>
+        <v>-68.531890594128726</v>
+      </c>
+    </row>
+    <row r="963" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A963" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B963">
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="C963">
+        <v>0.7850000262260437</v>
+      </c>
+      <c r="D963">
+        <v>0.78299999237060547</v>
+      </c>
+      <c r="E963">
+        <v>0.7850000262260437</v>
+      </c>
+      <c r="F963">
+        <v>1627911</v>
+      </c>
+      <c r="G963">
+        <v>16279.1103515625</v>
+      </c>
+      <c r="H963">
+        <f t="shared" si="111"/>
+        <v>961</v>
+      </c>
+      <c r="I963">
+        <f>SUM($F$3:F963)/H963</f>
+        <v>4433941.5388592612</v>
+      </c>
+      <c r="N963">
+        <f t="shared" si="124"/>
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="O963">
+        <f t="shared" si="125"/>
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="P963">
+        <f t="shared" si="110"/>
+        <v>0.78433334827423096</v>
+      </c>
+      <c r="Q963">
+        <f t="shared" si="101"/>
+        <v>0.78683333311762127</v>
+      </c>
+      <c r="R963">
+        <f t="shared" si="102"/>
+        <v>-2.4999848433903127E-3</v>
+      </c>
+      <c r="S963">
+        <f t="shared" si="103"/>
+        <v>3.095234737915255E-3</v>
+      </c>
+      <c r="T963">
+        <f t="shared" si="104"/>
+        <v>4.6428521068728824E-5</v>
+      </c>
+      <c r="U963">
+        <f t="shared" si="105"/>
+        <v>-53.845885801306231</v>
+      </c>
+    </row>
+    <row r="964" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A964" s="1">
+        <v>45825</v>
+      </c>
+      <c r="B964">
+        <v>0.7839999794960022</v>
+      </c>
+      <c r="C964">
+        <v>0.78600001335144043</v>
+      </c>
+      <c r="D964">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="E964">
+        <v>0.78200000524520874</v>
+      </c>
+      <c r="F964">
+        <v>957601</v>
+      </c>
+      <c r="G964">
+        <v>9576.009765625</v>
+      </c>
+      <c r="H964">
+        <f t="shared" si="111"/>
+        <v>962</v>
+      </c>
+      <c r="I964">
+        <f>SUM($F$3:F964)/H964</f>
+        <v>4430327.8792554578</v>
+      </c>
+      <c r="N964">
+        <f t="shared" si="124"/>
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="O964">
+        <f t="shared" si="125"/>
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="P964">
+        <f t="shared" si="110"/>
+        <v>0.78300001223882043</v>
+      </c>
+      <c r="Q964">
+        <f t="shared" si="101"/>
+        <v>0.78669047639483491</v>
+      </c>
+      <c r="R964">
+        <f t="shared" si="102"/>
+        <v>-3.6904641560144835E-3</v>
+      </c>
+      <c r="S964">
+        <f t="shared" si="103"/>
+        <v>3.2176833574463692E-3</v>
+      </c>
+      <c r="T964">
+        <f t="shared" si="104"/>
+        <v>4.8265250361695533E-5</v>
+      </c>
+      <c r="U964">
+        <f t="shared" si="105"/>
+        <v>-76.462136389192437</v>
+      </c>
+    </row>
+    <row r="965" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A965" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B965">
+        <v>0.7850000262260437</v>
+      </c>
+      <c r="C965">
+        <v>0.78600001335144043</v>
+      </c>
+      <c r="D965">
+        <v>0.78100001811981201</v>
+      </c>
+      <c r="E965">
+        <v>0.78600001335144043</v>
+      </c>
+      <c r="F965">
+        <v>4743503</v>
+      </c>
+      <c r="G965">
+        <v>47435.03125</v>
+      </c>
+      <c r="H965">
+        <f t="shared" si="111"/>
+        <v>963</v>
+      </c>
+      <c r="I965">
+        <f>SUM($F$3:F965)/H965</f>
+        <v>4430653.0870651612</v>
+      </c>
+      <c r="N965">
+        <f t="shared" si="124"/>
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="O965">
+        <f t="shared" si="125"/>
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="P965">
+        <f t="shared" si="110"/>
+        <v>0.78433334827423096</v>
+      </c>
+      <c r="Q965">
+        <f t="shared" si="101"/>
+        <v>0.78673809624853586</v>
+      </c>
+      <c r="R965">
+        <f t="shared" si="102"/>
+        <v>-2.4047479743048994E-3</v>
+      </c>
+      <c r="S965">
+        <f t="shared" si="103"/>
+        <v>3.1768663399884506E-3</v>
+      </c>
+      <c r="T965">
+        <f t="shared" si="104"/>
+        <v>4.7652995099826755E-5</v>
+      </c>
+      <c r="U965">
+        <f t="shared" si="105"/>
+        <v>-50.46373201237968</v>
+      </c>
+    </row>
+    <row r="966" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A966" s="1">
+        <v>45827</v>
+      </c>
+      <c r="B966">
+        <v>0.77899998426437378</v>
+      </c>
+      <c r="C966">
+        <v>0.78700000047683716</v>
+      </c>
+      <c r="D966">
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="E966">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="F966">
+        <v>1162400</v>
+      </c>
+      <c r="G966">
+        <v>11624</v>
+      </c>
+      <c r="H966">
+        <f t="shared" si="111"/>
+        <v>964</v>
+      </c>
+      <c r="I966">
+        <f>SUM($F$3:F966)/H966</f>
+        <v>4427262.783032936</v>
+      </c>
+      <c r="N966">
+        <f t="shared" si="124"/>
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="O966">
+        <f t="shared" si="125"/>
+        <v>0.77600002288818359</v>
+      </c>
+      <c r="P966">
+        <f t="shared" si="110"/>
+        <v>0.78000001112620032</v>
+      </c>
+      <c r="Q966">
+        <f t="shared" si="101"/>
+        <v>0.78614285872096112</v>
+      </c>
+      <c r="R966">
+        <f t="shared" si="102"/>
+        <v>-6.142847594760803E-3</v>
+      </c>
+      <c r="S966">
+        <f t="shared" si="103"/>
+        <v>3.3741445362973632E-3</v>
+      </c>
+      <c r="T966">
+        <f t="shared" si="104"/>
+        <v>5.0612168044460443E-5</v>
+      </c>
+      <c r="U966">
+        <f t="shared" si="105"/>
+        <v>-121.37096338897389</v>
+      </c>
+    </row>
+    <row r="967" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A967" s="1">
+        <v>45828</v>
+      </c>
+      <c r="B967">
+        <v>0.77700001001358032</v>
+      </c>
+      <c r="C967">
+        <v>0.77999997138977051</v>
+      </c>
+      <c r="D967">
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="E967">
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="F967">
+        <v>4186900</v>
+      </c>
+      <c r="G967">
+        <v>41869</v>
+      </c>
+      <c r="H967">
+        <f t="shared" si="111"/>
+        <v>965</v>
+      </c>
+      <c r="I967">
+        <f>SUM($F$3:F967)/H967</f>
+        <v>4427013.7024287563</v>
+      </c>
+      <c r="N967">
+        <f t="shared" si="124"/>
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="O967">
+        <f t="shared" si="125"/>
+        <v>0.77300000190734863</v>
+      </c>
+      <c r="P967">
+        <f t="shared" si="110"/>
+        <v>0.77533332506815589</v>
+      </c>
+      <c r="Q967">
+        <f t="shared" si="101"/>
+        <v>0.7854523814859844</v>
+      </c>
+      <c r="R967">
+        <f t="shared" si="102"/>
+        <v>-1.0119056417828509E-2</v>
+      </c>
+      <c r="S967">
+        <f t="shared" si="103"/>
+        <v>3.9455756849172208E-3</v>
+      </c>
+      <c r="T967">
+        <f t="shared" si="104"/>
+        <v>5.9183635273758307E-5</v>
+      </c>
+      <c r="U967">
+        <f t="shared" si="105"/>
+        <v>-170.97727050766755</v>
+      </c>
+    </row>
+    <row r="968" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A968" s="1">
+        <v>45831</v>
+      </c>
+      <c r="B968">
+        <v>0.7720000147819519</v>
+      </c>
+      <c r="C968">
+        <v>0.77899998426437378</v>
+      </c>
+      <c r="D968">
+        <v>0.7720000147819519</v>
+      </c>
+      <c r="E968">
+        <v>0.77799999713897705</v>
+      </c>
+      <c r="F968">
+        <v>2612602</v>
+      </c>
+      <c r="G968">
+        <v>26126.01953125</v>
+      </c>
+      <c r="H968">
+        <f t="shared" si="111"/>
+        <v>966</v>
+      </c>
+      <c r="I968">
+        <f>SUM($F$3:F968)/H968</f>
+        <v>4425135.4294448756</v>
+      </c>
+      <c r="N968">
+        <f t="shared" si="124"/>
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="O968">
+        <f t="shared" si="125"/>
+        <v>0.7720000147819519</v>
+      </c>
+      <c r="P968">
+        <f t="shared" si="110"/>
+        <v>0.77633333206176758</v>
+      </c>
+      <c r="Q968">
+        <f t="shared" si="101"/>
+        <v>0.78519047725768309</v>
+      </c>
+      <c r="R968">
+        <f t="shared" si="102"/>
+        <v>-8.8571451959155167E-3</v>
+      </c>
+      <c r="S968">
+        <f t="shared" si="103"/>
+        <v>4.1700650234611702E-3</v>
+      </c>
+      <c r="T968">
+        <f t="shared" si="104"/>
+        <v>6.2550975351917547E-5</v>
+      </c>
+      <c r="U968">
+        <f t="shared" si="105"/>
+        <v>-141.59883432807246</v>
+      </c>
+    </row>
+    <row r="969" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A969" s="1">
+        <v>45832</v>
+      </c>
+      <c r="B969">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="C969">
+        <v>0.7929999828338623</v>
+      </c>
+      <c r="D969">
+        <v>0.77399998903274536</v>
+      </c>
+      <c r="E969">
+        <v>0.7929999828338623</v>
+      </c>
+      <c r="F969">
+        <v>1958708</v>
+      </c>
+      <c r="G969">
+        <v>19587.080078125</v>
+      </c>
+      <c r="H969">
+        <f t="shared" si="111"/>
+        <v>967</v>
+      </c>
+      <c r="I969">
+        <f>SUM($F$3:F969)/H969</f>
+        <v>4422584.832309979</v>
+      </c>
+      <c r="N969">
+        <f t="shared" si="124"/>
+        <v>0.79699999094009399</v>
+      </c>
+      <c r="O969">
+        <f t="shared" si="125"/>
+        <v>0.7720000147819519</v>
+      </c>
+      <c r="P969">
+        <f t="shared" si="110"/>
+        <v>0.78666665156682336</v>
+      </c>
+      <c r="Q969">
+        <f t="shared" si="101"/>
+        <v>0.78530952334403992</v>
+      </c>
+      <c r="R969">
+        <f t="shared" si="102"/>
+        <v>1.3571282227834436E-3</v>
+      </c>
+      <c r="S969">
+        <f t="shared" si="103"/>
+        <v>4.2619009812673069E-3</v>
+      </c>
+      <c r="T969">
+        <f t="shared" si="104"/>
+        <v>6.3928514719009604E-5</v>
+      </c>
+      <c r="U969">
+        <f t="shared" si="105"/>
+        <v>21.228840193590354</v>
+      </c>
+    </row>
+    <row r="970" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A970" s="1">
+        <v>45833</v>
+      </c>
+      <c r="B970">
+        <v>0.79500001668930054</v>
+      </c>
+      <c r="C970">
+        <v>0.81099998950958252</v>
+      </c>
+      <c r="D970">
+        <v>0.79400002956390381</v>
+      </c>
+      <c r="E970">
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="F970">
+        <v>2001364</v>
+      </c>
+      <c r="G970">
+        <v>20013.640625</v>
+      </c>
+      <c r="H970">
+        <f t="shared" si="111"/>
+        <v>968</v>
+      </c>
+      <c r="I970">
+        <f>SUM($F$3:F970)/H970</f>
+        <v>4420083.5711195767</v>
+      </c>
+      <c r="N970">
+        <f t="shared" si="124"/>
+        <v>0.81099998950958252</v>
+      </c>
+      <c r="O970">
+        <f t="shared" si="125"/>
+        <v>0.7720000147819519</v>
+      </c>
+      <c r="P970">
+        <f t="shared" si="110"/>
+        <v>0.80500000715255737</v>
+      </c>
+      <c r="Q970">
+        <f t="shared" si="101"/>
+        <v>0.78645238138380513</v>
+      </c>
+      <c r="R970">
+        <f t="shared" si="102"/>
+        <v>1.8547625768752241E-2</v>
+      </c>
+      <c r="S970">
+        <f t="shared" si="103"/>
+        <v>5.4693830256559639E-3</v>
+      </c>
+      <c r="T970">
+        <f t="shared" si="104"/>
+        <v>8.2040745384839457E-5</v>
+      </c>
+      <c r="U970">
+        <f t="shared" si="105"/>
+        <v>226.07822103210327</v>
+      </c>
+    </row>
+    <row r="971" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A971" s="1">
+        <v>45834</v>
+      </c>
+      <c r="B971">
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="C971">
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="D971">
+        <v>0.80299997329711914</v>
+      </c>
+      <c r="E971">
+        <v>0.80299997329711914</v>
+      </c>
+      <c r="F971">
+        <v>2315802</v>
+      </c>
+      <c r="G971">
+        <v>23158.01953125</v>
+      </c>
+      <c r="H971">
+        <f t="shared" si="111"/>
+        <v>969</v>
+      </c>
+      <c r="I971">
+        <f>SUM($F$3:F971)/H971</f>
+        <v>4417911.9699109904</v>
+      </c>
+      <c r="N971">
+        <f t="shared" si="124"/>
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="O971">
+        <f t="shared" si="125"/>
+        <v>0.7720000147819519</v>
+      </c>
+      <c r="P971">
+        <f t="shared" si="110"/>
+        <v>0.80699998140335083</v>
+      </c>
+      <c r="Q971">
+        <f t="shared" si="101"/>
+        <v>0.78761904722168341</v>
+      </c>
+      <c r="R971">
+        <f t="shared" si="102"/>
+        <v>1.938093418166742E-2</v>
+      </c>
+      <c r="S971">
+        <f t="shared" si="103"/>
+        <v>6.9387719339254238E-3</v>
+      </c>
+      <c r="T971">
+        <f t="shared" si="104"/>
+        <v>1.0408157900888135E-4</v>
+      </c>
+      <c r="U971">
+        <f t="shared" si="105"/>
+        <v>186.20907144398367</v>
+      </c>
+    </row>
+    <row r="972" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A972" s="1">
+        <v>45835</v>
+      </c>
+      <c r="B972">
+        <v>0.80299997329711914</v>
+      </c>
+      <c r="C972">
+        <v>0.80900001525878906</v>
+      </c>
+      <c r="D972">
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="E972">
+        <v>0.80299997329711914</v>
+      </c>
+      <c r="F972">
+        <v>3701000</v>
+      </c>
+      <c r="G972">
+        <v>37010</v>
+      </c>
+      <c r="H972">
+        <f t="shared" si="111"/>
+        <v>970</v>
+      </c>
+      <c r="I972">
+        <f>SUM($F$3:F972)/H972</f>
+        <v>4417172.8854059279</v>
+      </c>
+      <c r="N972">
+        <f t="shared" si="124"/>
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="O972">
+        <f t="shared" si="125"/>
+        <v>0.7720000147819519</v>
+      </c>
+      <c r="P972">
+        <f t="shared" si="110"/>
+        <v>0.80466665824254358</v>
+      </c>
+      <c r="Q972">
+        <f t="shared" si="101"/>
+        <v>0.78849999961398898</v>
+      </c>
+      <c r="R972">
+        <f t="shared" si="102"/>
+        <v>1.6166658628554598E-2</v>
+      </c>
+      <c r="S972">
+        <f t="shared" si="103"/>
+        <v>8.0714250097469464E-3</v>
+      </c>
+      <c r="T972">
+        <f t="shared" si="104"/>
+        <v>1.2107137514620419E-4</v>
+      </c>
+      <c r="U972">
+        <f t="shared" si="105"/>
+        <v>133.52998269848638</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U972"/>
+  <dimension ref="A1:U973"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A953" workbookViewId="0">
-      <selection activeCell="A973" sqref="A973"/>
+    <sheetView tabSelected="1" topLeftCell="A959" workbookViewId="0">
+      <selection activeCell="A974" sqref="A974"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3587,7 +3587,7 @@
         <v>-153.65079365079399</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44441</v>
       </c>
@@ -3617,6 +3617,12 @@
         <f>SUM($F$3:F51)/H51</f>
         <v>20809208.632653061</v>
       </c>
+      <c r="K51" s="2">
+        <v>45869</v>
+      </c>
+      <c r="L51" s="2">
+        <v>45839</v>
+      </c>
       <c r="N51">
         <f t="shared" si="11"/>
         <v>0.97499999999999998</v>
@@ -49683,23 +49689,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q972" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q973" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R972" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R973" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S972" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S973" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T972" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T973" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U972" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U973" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -52829,7 +52835,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P972" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P973" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52939,7 +52945,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H972" si="111">H833+1</f>
+        <f t="shared" ref="H834:H973" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -60507,11 +60513,11 @@
         <v>4454446.9495470067</v>
       </c>
       <c r="N954">
-        <f t="shared" ref="N954:N972" si="124">IF(A954&lt;&gt;$K$50,MAX(N953,VLOOKUP(A954,A:C,3)),)</f>
+        <f t="shared" ref="N954:N973" si="124">IF(A954&lt;&gt;$K$50,MAX(N953,VLOOKUP(A954,A:C,3)),)</f>
         <v>0.78299999237060547</v>
       </c>
       <c r="O954">
-        <f t="shared" ref="O954:O972" si="125">IF(A954&lt;&gt;$K$50,MIN(O953,VLOOKUP(A954,A:D,4)),)</f>
+        <f t="shared" ref="O954:O973" si="125">IF(A954&lt;&gt;$K$50,MIN(O953,VLOOKUP(A954,A:D,4)),)</f>
         <v>0.77799999713897705</v>
       </c>
       <c r="P954">
@@ -61671,6 +61677,69 @@
       <c r="U972">
         <f t="shared" si="105"/>
         <v>133.52998269848638</v>
+      </c>
+    </row>
+    <row r="973" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A973" s="1">
+        <v>45838</v>
+      </c>
+      <c r="B973">
+        <v>0.81300002336502075</v>
+      </c>
+      <c r="C973">
+        <v>0.81300002336502075</v>
+      </c>
+      <c r="D973">
+        <v>0.79500001668930054</v>
+      </c>
+      <c r="E973">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="F973">
+        <v>667200</v>
+      </c>
+      <c r="G973">
+        <v>6672</v>
+      </c>
+      <c r="H973">
+        <f t="shared" si="111"/>
+        <v>971</v>
+      </c>
+      <c r="I973">
+        <f>SUM($F$3:F973)/H973</f>
+        <v>4413310.9153900621</v>
+      </c>
+      <c r="N973">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="O973">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="P973">
+        <f t="shared" si="110"/>
+        <v>0.80666667222976685</v>
+      </c>
+      <c r="Q973">
+        <f t="shared" si="101"/>
+        <v>0.7899761895338695</v>
+      </c>
+      <c r="R973">
+        <f t="shared" si="102"/>
+        <v>1.6690482695897346E-2</v>
+      </c>
+      <c r="S973">
+        <f t="shared" si="103"/>
+        <v>9.540814728963962E-3</v>
+      </c>
+      <c r="T973">
+        <f t="shared" si="104"/>
+        <v>1.4311222093445943E-4</v>
+      </c>
+      <c r="U973">
+        <f t="shared" si="105"/>
+        <v>116.62513925726178</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U973"/>
+  <dimension ref="A1:U995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A959" workbookViewId="0">
-      <selection activeCell="A974" sqref="A974"/>
+    <sheetView tabSelected="1" topLeftCell="A973" workbookViewId="0">
+      <selection activeCell="A996" sqref="A996"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -49689,23 +49689,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q973" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q995" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R973" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R995" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S973" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S995" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T973" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T995" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U973" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U995" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -52835,7 +52835,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P973" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P995" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52945,7 +52945,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H973" si="111">H833+1</f>
+        <f t="shared" ref="H834:H995" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -60513,11 +60513,11 @@
         <v>4454446.9495470067</v>
       </c>
       <c r="N954">
-        <f t="shared" ref="N954:N973" si="124">IF(A954&lt;&gt;$K$50,MAX(N953,VLOOKUP(A954,A:C,3)),)</f>
+        <f t="shared" ref="N954:N972" si="124">IF(A954&lt;&gt;$K$50,MAX(N953,VLOOKUP(A954,A:C,3)),)</f>
         <v>0.78299999237060547</v>
       </c>
       <c r="O954">
-        <f t="shared" ref="O954:O973" si="125">IF(A954&lt;&gt;$K$50,MIN(O953,VLOOKUP(A954,A:D,4)),)</f>
+        <f t="shared" ref="O954:O972" si="125">IF(A954&lt;&gt;$K$50,MIN(O953,VLOOKUP(A954,A:D,4)),)</f>
         <v>0.77799999713897705</v>
       </c>
       <c r="P954">
@@ -61710,12 +61710,12 @@
         <v>4413310.9153900621</v>
       </c>
       <c r="N973">
-        <f t="shared" si="124"/>
-        <v>0</v>
+        <f>VLOOKUP(L51,A:C,3)</f>
+        <v>0.81000000238418579</v>
       </c>
       <c r="O973">
-        <f t="shared" si="125"/>
-        <v>0</v>
+        <f>VLOOKUP(L51,A:D,4)</f>
+        <v>0.80500000715255737</v>
       </c>
       <c r="P973">
         <f t="shared" si="110"/>
@@ -61740,6 +61740,1392 @@
       <c r="U973">
         <f t="shared" si="105"/>
         <v>116.62513925726178</v>
+      </c>
+    </row>
+    <row r="974" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A974" s="1">
+        <v>45839</v>
+      </c>
+      <c r="B974">
+        <v>0.80699998140335083</v>
+      </c>
+      <c r="C974">
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="D974">
+        <v>0.80500000715255737</v>
+      </c>
+      <c r="E974">
+        <v>0.80900001525878906</v>
+      </c>
+      <c r="F974">
+        <v>1483792</v>
+      </c>
+      <c r="G974">
+        <v>14837.919921875</v>
+      </c>
+      <c r="H974">
+        <f t="shared" si="111"/>
+        <v>972</v>
+      </c>
+      <c r="I974">
+        <f>SUM($F$3:F974)/H974</f>
+        <v>4410297.0070408955</v>
+      </c>
+      <c r="N974">
+        <f t="shared" ref="N974:N995" si="126">IF(A974&lt;&gt;$K$51,MAX(N973,VLOOKUP(A974,A:C,3)),)</f>
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="O974">
+        <f t="shared" ref="O974:O995" si="127">IF(A974&lt;&gt;$K$51,MIN(O973,VLOOKUP(A974,A:D,4)),)</f>
+        <v>0.80500000715255737</v>
+      </c>
+      <c r="P974">
+        <f t="shared" si="110"/>
+        <v>0.80800000826517737</v>
+      </c>
+      <c r="Q974">
+        <f t="shared" si="101"/>
+        <v>0.79102380928539096</v>
+      </c>
+      <c r="R974">
+        <f t="shared" si="102"/>
+        <v>1.6976198979786417E-2</v>
+      </c>
+      <c r="S974">
+        <f t="shared" si="103"/>
+        <v>1.088775440949161E-2</v>
+      </c>
+      <c r="T974">
+        <f t="shared" si="104"/>
+        <v>1.6331631614237415E-4</v>
+      </c>
+      <c r="U974">
+        <f t="shared" si="105"/>
+        <v>103.9467420082332</v>
+      </c>
+    </row>
+    <row r="975" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A975" s="1">
+        <v>45840</v>
+      </c>
+      <c r="B975">
+        <v>0.8059999942779541</v>
+      </c>
+      <c r="C975">
+        <v>0.8059999942779541</v>
+      </c>
+      <c r="D975">
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="E975">
+        <v>0.80199998617172241</v>
+      </c>
+      <c r="F975">
+        <v>1582501</v>
+      </c>
+      <c r="G975">
+        <v>15825.009765625</v>
+      </c>
+      <c r="H975">
+        <f t="shared" si="111"/>
+        <v>973</v>
+      </c>
+      <c r="I975">
+        <f>SUM($F$3:F975)/H975</f>
+        <v>4407390.7418743577</v>
+      </c>
+      <c r="N975">
+        <f t="shared" si="126"/>
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="O975">
+        <f t="shared" si="127"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P975">
+        <f t="shared" si="110"/>
+        <v>0.80266666412353516</v>
+      </c>
+      <c r="Q975">
+        <f t="shared" si="101"/>
+        <v>0.79199999996594017</v>
+      </c>
+      <c r="R975">
+        <f t="shared" si="102"/>
+        <v>1.0666664157594985E-2</v>
+      </c>
+      <c r="S975">
+        <f t="shared" si="103"/>
+        <v>1.1714284517327129E-2</v>
+      </c>
+      <c r="T975">
+        <f t="shared" si="104"/>
+        <v>1.7571426775990693E-4</v>
+      </c>
+      <c r="U975">
+        <f t="shared" si="105"/>
+        <v>60.704598969559711</v>
+      </c>
+    </row>
+    <row r="976" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A976" s="1">
+        <v>45841</v>
+      </c>
+      <c r="B976">
+        <v>0.8059999942779541</v>
+      </c>
+      <c r="C976">
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="D976">
+        <v>0.8059999942779541</v>
+      </c>
+      <c r="E976">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="F976">
+        <v>1008701</v>
+      </c>
+      <c r="G976">
+        <v>10087.009765625</v>
+      </c>
+      <c r="H976">
+        <f t="shared" si="111"/>
+        <v>974</v>
+      </c>
+      <c r="I976">
+        <f>SUM($F$3:F976)/H976</f>
+        <v>4403901.3273549797</v>
+      </c>
+      <c r="N976">
+        <f t="shared" si="126"/>
+        <v>0.81499999761581421</v>
+      </c>
+      <c r="O976">
+        <f t="shared" si="127"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P976">
+        <f t="shared" si="110"/>
+        <v>0.81166666746139526</v>
+      </c>
+      <c r="Q976">
+        <f t="shared" si="101"/>
+        <v>0.79397619196346814</v>
+      </c>
+      <c r="R976">
+        <f t="shared" si="102"/>
+        <v>1.7690475497927127E-2</v>
+      </c>
+      <c r="S976">
+        <f t="shared" si="103"/>
+        <v>1.2547616447721208E-2</v>
+      </c>
+      <c r="T976">
+        <f t="shared" si="104"/>
+        <v>1.8821424671581813E-4</v>
+      </c>
+      <c r="U976">
+        <f t="shared" si="105"/>
+        <v>93.991160640659217</v>
+      </c>
+    </row>
+    <row r="977" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A977" s="1">
+        <v>45842</v>
+      </c>
+      <c r="B977">
+        <v>0.81300002336502075</v>
+      </c>
+      <c r="C977">
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="D977">
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="E977">
+        <v>0.81199997663497925</v>
+      </c>
+      <c r="F977">
+        <v>723900</v>
+      </c>
+      <c r="G977">
+        <v>7239</v>
+      </c>
+      <c r="H977">
+        <f t="shared" si="111"/>
+        <v>975</v>
+      </c>
+      <c r="I977">
+        <f>SUM($F$3:F977)/H977</f>
+        <v>4400126.9670192311</v>
+      </c>
+      <c r="N977">
+        <f t="shared" si="126"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O977">
+        <f t="shared" si="127"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P977">
+        <f t="shared" si="110"/>
+        <v>0.81466666857401526</v>
+      </c>
+      <c r="Q977">
+        <f t="shared" si="101"/>
+        <v>0.79614285769916715</v>
+      </c>
+      <c r="R977">
+        <f t="shared" si="102"/>
+        <v>1.8523810874848112E-2</v>
+      </c>
+      <c r="S977">
+        <f t="shared" si="103"/>
+        <v>1.3027209408429203E-2</v>
+      </c>
+      <c r="T977">
+        <f t="shared" si="104"/>
+        <v>1.9540814112643803E-4</v>
+      </c>
+      <c r="U977">
+        <f t="shared" si="105"/>
+        <v>94.79549197933548</v>
+      </c>
+    </row>
+    <row r="978" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A978" s="1">
+        <v>45845</v>
+      </c>
+      <c r="B978">
+        <v>0.80900001525878906</v>
+      </c>
+      <c r="C978">
+        <v>0.80900001525878906</v>
+      </c>
+      <c r="D978">
+        <v>0.80299997329711914</v>
+      </c>
+      <c r="E978">
+        <v>0.80299997329711914</v>
+      </c>
+      <c r="F978">
+        <v>620500</v>
+      </c>
+      <c r="G978">
+        <v>6205</v>
+      </c>
+      <c r="H978">
+        <f t="shared" si="111"/>
+        <v>976</v>
+      </c>
+      <c r="I978">
+        <f>SUM($F$3:F978)/H978</f>
+        <v>4396254.3984054811</v>
+      </c>
+      <c r="N978">
+        <f t="shared" si="126"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O978">
+        <f t="shared" si="127"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P978">
+        <f t="shared" si="110"/>
+        <v>0.80499998728434241</v>
+      </c>
+      <c r="Q978">
+        <f t="shared" si="101"/>
+        <v>0.79771428448813286</v>
+      </c>
+      <c r="R978">
+        <f t="shared" si="102"/>
+        <v>7.2857027962095477E-3</v>
+      </c>
+      <c r="S978">
+        <f t="shared" si="103"/>
+        <v>1.2272107763355324E-2</v>
+      </c>
+      <c r="T978">
+        <f t="shared" si="104"/>
+        <v>1.8408161645032986E-4</v>
+      </c>
+      <c r="U978">
+        <f t="shared" si="105"/>
+        <v>39.578655037372648</v>
+      </c>
+    </row>
+    <row r="979" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A979" s="1">
+        <v>45846</v>
+      </c>
+      <c r="B979">
+        <v>0.80699998140335083</v>
+      </c>
+      <c r="C979">
+        <v>0.81599998474121094</v>
+      </c>
+      <c r="D979">
+        <v>0.8059999942779541</v>
+      </c>
+      <c r="E979">
+        <v>0.81599998474121094</v>
+      </c>
+      <c r="F979">
+        <v>2643683</v>
+      </c>
+      <c r="G979">
+        <v>26436.830078125</v>
+      </c>
+      <c r="H979">
+        <f t="shared" si="111"/>
+        <v>977</v>
+      </c>
+      <c r="I979">
+        <f>SUM($F$3:F979)/H979</f>
+        <v>4394460.56892912</v>
+      </c>
+      <c r="N979">
+        <f t="shared" si="126"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O979">
+        <f t="shared" si="127"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P979">
+        <f t="shared" si="110"/>
+        <v>0.81266665458679199</v>
+      </c>
+      <c r="Q979">
+        <f t="shared" si="101"/>
+        <v>0.79973809208188729</v>
+      </c>
+      <c r="R979">
+        <f t="shared" si="102"/>
+        <v>1.2928562504904706E-2</v>
+      </c>
+      <c r="S979">
+        <f t="shared" si="103"/>
+        <v>1.1517006929228944E-2</v>
+      </c>
+      <c r="T979">
+        <f t="shared" si="104"/>
+        <v>1.7275510393843414E-4</v>
+      </c>
+      <c r="U979">
+        <f t="shared" si="105"/>
+        <v>74.837513973029374</v>
+      </c>
+    </row>
+    <row r="980" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A980" s="1">
+        <v>45847</v>
+      </c>
+      <c r="B980">
+        <v>0.81800001859664917</v>
+      </c>
+      <c r="C980">
+        <v>0.81999999284744263</v>
+      </c>
+      <c r="D980">
+        <v>0.81300002336502075</v>
+      </c>
+      <c r="E980">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="F980">
+        <v>1986801</v>
+      </c>
+      <c r="G980">
+        <v>19868.009765625</v>
+      </c>
+      <c r="H980">
+        <f t="shared" si="111"/>
+        <v>978</v>
+      </c>
+      <c r="I980">
+        <f>SUM($F$3:F980)/H980</f>
+        <v>4391998.7493289877</v>
+      </c>
+      <c r="N980">
+        <f t="shared" si="126"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O980">
+        <f t="shared" si="127"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P980">
+        <f t="shared" si="110"/>
+        <v>0.81566667556762695</v>
+      </c>
+      <c r="Q980">
+        <f t="shared" si="101"/>
+        <v>0.80228571097056067</v>
+      </c>
+      <c r="R980">
+        <f t="shared" si="102"/>
+        <v>1.338096459706628E-2</v>
+      </c>
+      <c r="S980">
+        <f t="shared" si="103"/>
+        <v>9.7891177449907739E-3</v>
+      </c>
+      <c r="T980">
+        <f t="shared" si="104"/>
+        <v>1.4683676617486161E-4</v>
+      </c>
+      <c r="U980">
+        <f t="shared" si="105"/>
+        <v>91.128161874196167</v>
+      </c>
+    </row>
+    <row r="981" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A981" s="1">
+        <v>45848</v>
+      </c>
+      <c r="B981">
+        <v>0.81400001049041748</v>
+      </c>
+      <c r="C981">
+        <v>0.8190000057220459</v>
+      </c>
+      <c r="D981">
+        <v>0.81000000238418579</v>
+      </c>
+      <c r="E981">
+        <v>0.81699997186660767</v>
+      </c>
+      <c r="F981">
+        <v>1618699</v>
+      </c>
+      <c r="G981">
+        <v>16186.990234375</v>
+      </c>
+      <c r="H981">
+        <f t="shared" si="111"/>
+        <v>979</v>
+      </c>
+      <c r="I981">
+        <f>SUM($F$3:F981)/H981</f>
+        <v>4389165.9610252809</v>
+      </c>
+      <c r="N981">
+        <f t="shared" si="126"/>
+        <v>0.82200002670288086</v>
+      </c>
+      <c r="O981">
+        <f t="shared" si="127"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P981">
+        <f t="shared" si="110"/>
+        <v>0.81533332665761316</v>
+      </c>
+      <c r="Q981">
+        <f t="shared" si="101"/>
+        <v>0.80514285394123619</v>
+      </c>
+      <c r="R981">
+        <f t="shared" si="102"/>
+        <v>1.0190472716376964E-2</v>
+      </c>
+      <c r="S981">
+        <f t="shared" si="103"/>
+        <v>7.2176890308354169E-3</v>
+      </c>
+      <c r="T981">
+        <f t="shared" si="104"/>
+        <v>1.0826533546253126E-4</v>
+      </c>
+      <c r="U981">
+        <f t="shared" si="105"/>
+        <v>94.124981674339409</v>
+      </c>
+    </row>
+    <row r="982" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A982" s="1">
+        <v>45849</v>
+      </c>
+      <c r="B982">
+        <v>0.81699997186660767</v>
+      </c>
+      <c r="C982">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="D982">
+        <v>0.81699997186660767</v>
+      </c>
+      <c r="E982">
+        <v>0.82099997997283936</v>
+      </c>
+      <c r="F982">
+        <v>2407700</v>
+      </c>
+      <c r="G982">
+        <v>24077</v>
+      </c>
+      <c r="H982">
+        <f t="shared" si="111"/>
+        <v>980</v>
+      </c>
+      <c r="I982">
+        <f>SUM($F$3:F982)/H982</f>
+        <v>4387144.0569834188</v>
+      </c>
+      <c r="N982">
+        <f t="shared" si="126"/>
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="O982">
+        <f t="shared" si="127"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P982">
+        <f t="shared" si="110"/>
+        <v>0.8216666579246521</v>
+      </c>
+      <c r="Q982">
+        <f t="shared" si="101"/>
+        <v>0.80838094864572807</v>
+      </c>
+      <c r="R982">
+        <f t="shared" si="102"/>
+        <v>1.3285709278924029E-2</v>
+      </c>
+      <c r="S982">
+        <f t="shared" si="103"/>
+        <v>5.911565556818139E-3</v>
+      </c>
+      <c r="T982">
+        <f t="shared" si="104"/>
+        <v>8.8673483352272076E-5</v>
+      </c>
+      <c r="U982">
+        <f t="shared" si="105"/>
+        <v>149.82730774366956</v>
+      </c>
+    </row>
+    <row r="983" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A983" s="1">
+        <v>45852</v>
+      </c>
+      <c r="B983">
+        <v>0.82099997997283936</v>
+      </c>
+      <c r="C983">
+        <v>0.82499998807907104</v>
+      </c>
+      <c r="D983">
+        <v>0.8190000057220459</v>
+      </c>
+      <c r="E983">
+        <v>0.81999999284744263</v>
+      </c>
+      <c r="F983">
+        <v>2904200</v>
+      </c>
+      <c r="G983">
+        <v>29042</v>
+      </c>
+      <c r="H983">
+        <f t="shared" si="111"/>
+        <v>981</v>
+      </c>
+      <c r="I983">
+        <f>SUM($F$3:F983)/H983</f>
+        <v>4385632.3912780322</v>
+      </c>
+      <c r="N983">
+        <f t="shared" si="126"/>
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="O983">
+        <f t="shared" si="127"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P983">
+        <f t="shared" si="110"/>
+        <v>0.82133332888285315</v>
+      </c>
+      <c r="Q983">
+        <f t="shared" si="101"/>
+        <v>0.81085713988258734</v>
+      </c>
+      <c r="R983">
+        <f t="shared" si="102"/>
+        <v>1.0476189000265812E-2</v>
+      </c>
+      <c r="S983">
+        <f t="shared" si="103"/>
+        <v>5.2857143538338801E-3</v>
+      </c>
+      <c r="T983">
+        <f t="shared" si="104"/>
+        <v>7.9285715307508196E-5</v>
+      </c>
+      <c r="U983">
+        <f t="shared" si="105"/>
+        <v>132.13211181401473</v>
+      </c>
+    </row>
+    <row r="984" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A984" s="1">
+        <v>45853</v>
+      </c>
+      <c r="B984">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C984">
+        <v>0.83099997043609619</v>
+      </c>
+      <c r="D984">
+        <v>0.81999999284744263</v>
+      </c>
+      <c r="E984">
+        <v>0.82800000905990601</v>
+      </c>
+      <c r="F984">
+        <v>2630207</v>
+      </c>
+      <c r="G984">
+        <v>26302.0703125</v>
+      </c>
+      <c r="H984">
+        <f t="shared" si="111"/>
+        <v>982</v>
+      </c>
+      <c r="I984">
+        <f>SUM($F$3:F984)/H984</f>
+        <v>4383844.7890465884</v>
+      </c>
+      <c r="N984">
+        <f t="shared" si="126"/>
+        <v>0.83099997043609619</v>
+      </c>
+      <c r="O984">
+        <f t="shared" si="127"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P984">
+        <f t="shared" si="110"/>
+        <v>0.82633332411448157</v>
+      </c>
+      <c r="Q984">
+        <f t="shared" si="101"/>
+        <v>0.81238094823701046</v>
+      </c>
+      <c r="R984">
+        <f t="shared" si="102"/>
+        <v>1.3952375877471113E-2</v>
+      </c>
+      <c r="S984">
+        <f t="shared" si="103"/>
+        <v>5.8571426641373381E-3</v>
+      </c>
+      <c r="T984">
+        <f t="shared" si="104"/>
+        <v>8.7857139962060072E-5</v>
+      </c>
+      <c r="U984">
+        <f t="shared" si="105"/>
+        <v>158.80753554573093</v>
+      </c>
+    </row>
+    <row r="985" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A985" s="1">
+        <v>45854</v>
+      </c>
+      <c r="B985">
+        <v>0.8320000171661377</v>
+      </c>
+      <c r="C985">
+        <v>0.8320000171661377</v>
+      </c>
+      <c r="D985">
+        <v>0.82499998807907104</v>
+      </c>
+      <c r="E985">
+        <v>0.82499998807907104</v>
+      </c>
+      <c r="F985">
+        <v>682201</v>
+      </c>
+      <c r="G985">
+        <v>6822.009765625</v>
+      </c>
+      <c r="H985">
+        <f t="shared" si="111"/>
+        <v>983</v>
+      </c>
+      <c r="I985">
+        <f>SUM($F$3:F985)/H985</f>
+        <v>4380079.1290373858</v>
+      </c>
+      <c r="N985">
+        <f t="shared" si="126"/>
+        <v>0.8320000171661377</v>
+      </c>
+      <c r="O985">
+        <f t="shared" si="127"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P985">
+        <f t="shared" si="110"/>
+        <v>0.82733333110809326</v>
+      </c>
+      <c r="Q985">
+        <f t="shared" si="101"/>
+        <v>0.8138333303587777</v>
+      </c>
+      <c r="R985">
+        <f t="shared" si="102"/>
+        <v>1.3500000749315566E-2</v>
+      </c>
+      <c r="S985">
+        <f t="shared" si="103"/>
+        <v>6.5000000454130602E-3</v>
+      </c>
+      <c r="T985">
+        <f t="shared" si="104"/>
+        <v>9.7500000681195902E-5</v>
+      </c>
+      <c r="U985">
+        <f t="shared" si="105"/>
+        <v>138.46154517944748</v>
+      </c>
+    </row>
+    <row r="986" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A986" s="1">
+        <v>45855</v>
+      </c>
+      <c r="B986">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="C986">
+        <v>0.83399999141693115</v>
+      </c>
+      <c r="D986">
+        <v>0.82700002193450928</v>
+      </c>
+      <c r="E986">
+        <v>0.83399999141693115</v>
+      </c>
+      <c r="F986">
+        <v>1221302</v>
+      </c>
+      <c r="G986">
+        <v>12213.01953125</v>
+      </c>
+      <c r="H986">
+        <f t="shared" si="111"/>
+        <v>984</v>
+      </c>
+      <c r="I986">
+        <f>SUM($F$3:F986)/H986</f>
+        <v>4376868.9896786073</v>
+      </c>
+      <c r="N986">
+        <f t="shared" si="126"/>
+        <v>0.83399999141693115</v>
+      </c>
+      <c r="O986">
+        <f t="shared" si="127"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P986">
+        <f t="shared" si="110"/>
+        <v>0.8316666682561239</v>
+      </c>
+      <c r="Q986">
+        <f t="shared" si="101"/>
+        <v>0.81576190250260472</v>
+      </c>
+      <c r="R986">
+        <f t="shared" si="102"/>
+        <v>1.5904765753519179E-2</v>
+      </c>
+      <c r="S986">
+        <f t="shared" si="103"/>
+        <v>7.0748282533113173E-3</v>
+      </c>
+      <c r="T986">
+        <f t="shared" si="104"/>
+        <v>1.0612242379966975E-4</v>
+      </c>
+      <c r="U986">
+        <f t="shared" si="105"/>
+        <v>149.87186669937964</v>
+      </c>
+    </row>
+    <row r="987" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A987" s="1">
+        <v>45856</v>
+      </c>
+      <c r="B987">
+        <v>0.83799999952316284</v>
+      </c>
+      <c r="C987">
+        <v>0.84299999475479126</v>
+      </c>
+      <c r="D987">
+        <v>0.83099997043609619</v>
+      </c>
+      <c r="E987">
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="F987">
+        <v>5041313</v>
+      </c>
+      <c r="G987">
+        <v>50413.12890625</v>
+      </c>
+      <c r="H987">
+        <f t="shared" si="111"/>
+        <v>985</v>
+      </c>
+      <c r="I987">
+        <f>SUM($F$3:F987)/H987</f>
+        <v>4377543.5521256346</v>
+      </c>
+      <c r="N987">
+        <f t="shared" si="126"/>
+        <v>0.84299999475479126</v>
+      </c>
+      <c r="O987">
+        <f t="shared" si="127"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P987">
+        <f t="shared" si="110"/>
+        <v>0.83799997965494788</v>
+      </c>
+      <c r="Q987">
+        <f t="shared" si="101"/>
+        <v>0.81799999589011774</v>
+      </c>
+      <c r="R987">
+        <f t="shared" si="102"/>
+        <v>1.9999983764830143E-2</v>
+      </c>
+      <c r="S987">
+        <f t="shared" si="103"/>
+        <v>8.3333306572064125E-3</v>
+      </c>
+      <c r="T987">
+        <f t="shared" si="104"/>
+        <v>1.2499995985809618E-4</v>
+      </c>
+      <c r="U987">
+        <f t="shared" si="105"/>
+        <v>159.99992150025284</v>
+      </c>
+    </row>
+    <row r="988" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A988" s="1">
+        <v>45859</v>
+      </c>
+      <c r="B988">
+        <v>0.84299999475479126</v>
+      </c>
+      <c r="C988">
+        <v>0.84700000286102295</v>
+      </c>
+      <c r="D988">
+        <v>0.8410000205039978</v>
+      </c>
+      <c r="E988">
+        <v>0.84600001573562622</v>
+      </c>
+      <c r="F988">
+        <v>3418330.75</v>
+      </c>
+      <c r="G988">
+        <v>34183.30859375</v>
+      </c>
+      <c r="H988">
+        <f t="shared" si="111"/>
+        <v>986</v>
+      </c>
+      <c r="I988">
+        <f>SUM($F$3:F988)/H988</f>
+        <v>4376570.7196691176</v>
+      </c>
+      <c r="N988">
+        <f t="shared" si="126"/>
+        <v>0.84700000286102295</v>
+      </c>
+      <c r="O988">
+        <f t="shared" si="127"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P988">
+        <f t="shared" si="110"/>
+        <v>0.84466667970021569</v>
+      </c>
+      <c r="Q988">
+        <f t="shared" si="101"/>
+        <v>0.82061904384976347</v>
+      </c>
+      <c r="R988">
+        <f t="shared" si="102"/>
+        <v>2.404763585045222E-2</v>
+      </c>
+      <c r="S988">
+        <f t="shared" si="103"/>
+        <v>9.5238089561462402E-3</v>
+      </c>
+      <c r="T988">
+        <f t="shared" si="104"/>
+        <v>1.428571343421936E-4</v>
+      </c>
+      <c r="U988">
+        <f t="shared" si="105"/>
+        <v>168.3334609866217</v>
+      </c>
+    </row>
+    <row r="989" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A989" s="1">
+        <v>45860</v>
+      </c>
+      <c r="B989">
+        <v>0.84899997711181641</v>
+      </c>
+      <c r="C989">
+        <v>0.8529999852180481</v>
+      </c>
+      <c r="D989">
+        <v>0.84399998188018799</v>
+      </c>
+      <c r="E989">
+        <v>0.85199999809265137</v>
+      </c>
+      <c r="F989">
+        <v>6049703</v>
+      </c>
+      <c r="G989">
+        <v>60497.03125</v>
+      </c>
+      <c r="H989">
+        <f t="shared" si="111"/>
+        <v>987</v>
+      </c>
+      <c r="I989">
+        <f>SUM($F$3:F989)/H989</f>
+        <v>4378265.8891527355</v>
+      </c>
+      <c r="N989">
+        <f t="shared" si="126"/>
+        <v>0.8529999852180481</v>
+      </c>
+      <c r="O989">
+        <f t="shared" si="127"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P989">
+        <f t="shared" si="110"/>
+        <v>0.84966665506362915</v>
+      </c>
+      <c r="Q989">
+        <f t="shared" si="101"/>
+        <v>0.82397618605977019</v>
+      </c>
+      <c r="R989">
+        <f t="shared" si="102"/>
+        <v>2.5690469003858962E-2</v>
+      </c>
+      <c r="S989">
+        <f t="shared" si="103"/>
+        <v>1.0544217362695825E-2</v>
+      </c>
+      <c r="T989">
+        <f t="shared" si="104"/>
+        <v>1.5816326044043737E-4</v>
+      </c>
+      <c r="U989">
+        <f t="shared" si="105"/>
+        <v>162.43006708586236</v>
+      </c>
+    </row>
+    <row r="990" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A990" s="1">
+        <v>45861</v>
+      </c>
+      <c r="B990">
+        <v>0.8529999852180481</v>
+      </c>
+      <c r="C990">
+        <v>0.86000001430511475</v>
+      </c>
+      <c r="D990">
+        <v>0.85100001096725464</v>
+      </c>
+      <c r="E990">
+        <v>0.85199999809265137</v>
+      </c>
+      <c r="F990">
+        <v>5830790</v>
+      </c>
+      <c r="G990">
+        <v>58307.8984375</v>
+      </c>
+      <c r="H990">
+        <f t="shared" si="111"/>
+        <v>988</v>
+      </c>
+      <c r="I990">
+        <f>SUM($F$3:F990)/H990</f>
+        <v>4379736.0552568324</v>
+      </c>
+      <c r="N990">
+        <f t="shared" si="126"/>
+        <v>0.86000001430511475</v>
+      </c>
+      <c r="O990">
+        <f t="shared" si="127"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P990">
+        <f t="shared" si="110"/>
+        <v>0.85433334112167358</v>
+      </c>
+      <c r="Q990">
+        <f t="shared" si="101"/>
+        <v>0.82702380560693289</v>
+      </c>
+      <c r="R990">
+        <f t="shared" si="102"/>
+        <v>2.730953551474069E-2</v>
+      </c>
+      <c r="S990">
+        <f t="shared" si="103"/>
+        <v>1.1931974466155191E-2</v>
+      </c>
+      <c r="T990">
+        <f t="shared" si="104"/>
+        <v>1.7897961699232784E-4</v>
+      </c>
+      <c r="U990">
+        <f t="shared" si="105"/>
+        <v>152.58461255904544</v>
+      </c>
+    </row>
+    <row r="991" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A991" s="1">
+        <v>45862</v>
+      </c>
+      <c r="B991">
+        <v>0.85799998044967651</v>
+      </c>
+      <c r="C991">
+        <v>0.86299997568130493</v>
+      </c>
+      <c r="D991">
+        <v>0.85600000619888306</v>
+      </c>
+      <c r="E991">
+        <v>0.8619999885559082</v>
+      </c>
+      <c r="F991">
+        <v>6986979.5</v>
+      </c>
+      <c r="G991">
+        <v>69869.796875</v>
+      </c>
+      <c r="H991">
+        <f t="shared" si="111"/>
+        <v>989</v>
+      </c>
+      <c r="I991">
+        <f>SUM($F$3:F991)/H991</f>
+        <v>4382372.2973647621</v>
+      </c>
+      <c r="N991">
+        <f t="shared" si="126"/>
+        <v>0.86299997568130493</v>
+      </c>
+      <c r="O991">
+        <f t="shared" si="127"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P991">
+        <f t="shared" si="110"/>
+        <v>0.86033332347869873</v>
+      </c>
+      <c r="Q991">
+        <f t="shared" si="101"/>
+        <v>0.83028570952869607</v>
+      </c>
+      <c r="R991">
+        <f t="shared" si="102"/>
+        <v>3.0047613950002661E-2</v>
+      </c>
+      <c r="S991">
+        <f t="shared" si="103"/>
+        <v>1.3850341443301892E-2</v>
+      </c>
+      <c r="T991">
+        <f t="shared" si="104"/>
+        <v>2.0775512164952837E-4</v>
+      </c>
+      <c r="U991">
+        <f t="shared" si="105"/>
+        <v>144.62995526382909</v>
+      </c>
+    </row>
+    <row r="992" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A992" s="1">
+        <v>45863</v>
+      </c>
+      <c r="B992">
+        <v>0.86100000143051147</v>
+      </c>
+      <c r="C992">
+        <v>0.8619999885559082</v>
+      </c>
+      <c r="D992">
+        <v>0.85399997234344482</v>
+      </c>
+      <c r="E992">
+        <v>0.85900002717971802</v>
+      </c>
+      <c r="F992">
+        <v>1556505</v>
+      </c>
+      <c r="G992">
+        <v>15565.0498046875</v>
+      </c>
+      <c r="H992">
+        <f t="shared" si="111"/>
+        <v>990</v>
+      </c>
+      <c r="I992">
+        <f>SUM($F$3:F992)/H992</f>
+        <v>4379517.8859532829</v>
+      </c>
+      <c r="N992">
+        <f t="shared" si="126"/>
+        <v>0.86299997568130493</v>
+      </c>
+      <c r="O992">
+        <f t="shared" si="127"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P992">
+        <f t="shared" si="110"/>
+        <v>0.85833332935969031</v>
+      </c>
+      <c r="Q992">
+        <f t="shared" si="101"/>
+        <v>0.8340952339626494</v>
+      </c>
+      <c r="R992">
+        <f t="shared" si="102"/>
+        <v>2.4238095397040915E-2</v>
+      </c>
+      <c r="S992">
+        <f t="shared" si="103"/>
+        <v>1.4394557800422718E-2</v>
+      </c>
+      <c r="T992">
+        <f t="shared" si="104"/>
+        <v>2.1591836700634077E-4</v>
+      </c>
+      <c r="U992">
+        <f t="shared" si="105"/>
+        <v>112.25582952064994</v>
+      </c>
+    </row>
+    <row r="993" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A993" s="1">
+        <v>45866</v>
+      </c>
+      <c r="B993">
+        <v>0.86000001430511475</v>
+      </c>
+      <c r="C993">
+        <v>0.86599999666213989</v>
+      </c>
+      <c r="D993">
+        <v>0.85900002717971802</v>
+      </c>
+      <c r="E993">
+        <v>0.86599999666213989</v>
+      </c>
+      <c r="F993">
+        <v>2132000</v>
+      </c>
+      <c r="G993">
+        <v>21320</v>
+      </c>
+      <c r="H993">
+        <f t="shared" si="111"/>
+        <v>991</v>
+      </c>
+      <c r="I993">
+        <f>SUM($F$3:F993)/H993</f>
+        <v>4377249.9567040866</v>
+      </c>
+      <c r="N993">
+        <f t="shared" si="126"/>
+        <v>0.86599999666213989</v>
+      </c>
+      <c r="O993">
+        <f t="shared" si="127"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P993">
+        <f t="shared" si="110"/>
+        <v>0.86366667350133264</v>
+      </c>
+      <c r="Q993">
+        <f t="shared" si="101"/>
+        <v>0.83773809245654518</v>
+      </c>
+      <c r="R993">
+        <f t="shared" si="102"/>
+        <v>2.5928581044787458E-2</v>
+      </c>
+      <c r="S993">
+        <f t="shared" si="103"/>
+        <v>1.4976190669195992E-2</v>
+      </c>
+      <c r="T993">
+        <f t="shared" si="104"/>
+        <v>2.2464286003793987E-4</v>
+      </c>
+      <c r="U993">
+        <f t="shared" si="105"/>
+        <v>115.4213449757913</v>
+      </c>
+    </row>
+    <row r="994" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A994" s="1">
+        <v>45867</v>
+      </c>
+      <c r="B994">
+        <v>0.86599999666213989</v>
+      </c>
+      <c r="C994">
+        <v>0.87300002574920654</v>
+      </c>
+      <c r="D994">
+        <v>0.86299997568130493</v>
+      </c>
+      <c r="E994">
+        <v>0.87199997901916504</v>
+      </c>
+      <c r="F994">
+        <v>3002800</v>
+      </c>
+      <c r="G994">
+        <v>30028</v>
+      </c>
+      <c r="H994">
+        <f t="shared" si="111"/>
+        <v>992</v>
+      </c>
+      <c r="I994">
+        <f>SUM($F$3:F994)/H994</f>
+        <v>4375864.4224735387</v>
+      </c>
+      <c r="N994">
+        <f t="shared" si="126"/>
+        <v>0.87300002574920654</v>
+      </c>
+      <c r="O994">
+        <f t="shared" si="127"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P994">
+        <f t="shared" si="110"/>
+        <v>0.86933332681655884</v>
+      </c>
+      <c r="Q994">
+        <f t="shared" si="101"/>
+        <v>0.84157142468861168</v>
+      </c>
+      <c r="R994">
+        <f t="shared" si="102"/>
+        <v>2.7761902127947158E-2</v>
+      </c>
+      <c r="S994">
+        <f t="shared" si="103"/>
+        <v>1.5619050888788137E-2</v>
+      </c>
+      <c r="T994">
+        <f t="shared" si="104"/>
+        <v>2.3428576333182205E-4</v>
+      </c>
+      <c r="U994">
+        <f t="shared" si="105"/>
+        <v>118.49589891054373</v>
+      </c>
+    </row>
+    <row r="995" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A995" s="1">
+        <v>45868</v>
+      </c>
+      <c r="B995">
+        <v>0.87300002574920654</v>
+      </c>
+      <c r="C995">
+        <v>0.87300002574920654</v>
+      </c>
+      <c r="D995">
+        <v>0.85600000619888306</v>
+      </c>
+      <c r="E995">
+        <v>0.86100000143051147</v>
+      </c>
+      <c r="F995">
+        <v>2095000</v>
+      </c>
+      <c r="G995">
+        <v>20950</v>
+      </c>
+      <c r="H995">
+        <f t="shared" si="111"/>
+        <v>993</v>
+      </c>
+      <c r="I995">
+        <f>SUM($F$3:F995)/H995</f>
+        <v>4373567.4794498989</v>
+      </c>
+      <c r="N995">
+        <f t="shared" si="126"/>
+        <v>0.87300002574920654</v>
+      </c>
+      <c r="O995">
+        <f t="shared" si="127"/>
+        <v>0.80000001192092896</v>
+      </c>
+      <c r="P995">
+        <f t="shared" si="110"/>
+        <v>0.86333334445953369</v>
+      </c>
+      <c r="Q995">
+        <f t="shared" si="101"/>
+        <v>0.84499999738874887</v>
+      </c>
+      <c r="R995">
+        <f t="shared" si="102"/>
+        <v>1.8333347070784822E-2</v>
+      </c>
+      <c r="S995">
+        <f t="shared" si="103"/>
+        <v>1.4857144582839241E-2</v>
+      </c>
+      <c r="T995">
+        <f t="shared" si="104"/>
+        <v>2.2285716874258861E-4</v>
+      </c>
+      <c r="U995">
+        <f t="shared" si="105"/>
+        <v>82.265009352069683</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U995"/>
+  <dimension ref="A1:U996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A973" workbookViewId="0">
-      <selection activeCell="A996" sqref="A996"/>
+    <sheetView tabSelected="1" topLeftCell="A984" workbookViewId="0">
+      <selection activeCell="A997" sqref="A997"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3656,7 +3656,7 @@
         <v>-139.93399339933998</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44442</v>
       </c>
@@ -3686,6 +3686,12 @@
         <f>SUM($F$3:F52)/H52</f>
         <v>20547481.239999998</v>
       </c>
+      <c r="K52" s="2">
+        <v>45898</v>
+      </c>
+      <c r="L52" s="2">
+        <v>45870</v>
+      </c>
       <c r="N52">
         <f t="shared" si="11"/>
         <v>0.97499999999999998</v>
@@ -49689,23 +49695,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q995" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q996" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R995" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R996" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S995" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S996" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T995" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T996" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U995" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U996" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -52835,7 +52841,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P995" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P996" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52945,7 +52951,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H995" si="111">H833+1</f>
+        <f t="shared" ref="H834:H996" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -61773,11 +61779,11 @@
         <v>4410297.0070408955</v>
       </c>
       <c r="N974">
-        <f t="shared" ref="N974:N995" si="126">IF(A974&lt;&gt;$K$51,MAX(N973,VLOOKUP(A974,A:C,3)),)</f>
+        <f t="shared" ref="N974:N996" si="126">IF(A974&lt;&gt;$K$51,MAX(N973,VLOOKUP(A974,A:C,3)),)</f>
         <v>0.81000000238418579</v>
       </c>
       <c r="O974">
-        <f t="shared" ref="O974:O995" si="127">IF(A974&lt;&gt;$K$51,MIN(O973,VLOOKUP(A974,A:D,4)),)</f>
+        <f t="shared" ref="O974:O996" si="127">IF(A974&lt;&gt;$K$51,MIN(O973,VLOOKUP(A974,A:D,4)),)</f>
         <v>0.80500000715255737</v>
       </c>
       <c r="P974">
@@ -63126,6 +63132,69 @@
       <c r="U995">
         <f t="shared" si="105"/>
         <v>82.265009352069683</v>
+      </c>
+    </row>
+    <row r="996" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A996" s="1">
+        <v>45869</v>
+      </c>
+      <c r="B996">
+        <v>0.86100000143051147</v>
+      </c>
+      <c r="C996">
+        <v>0.86599999666213989</v>
+      </c>
+      <c r="D996">
+        <v>0.84299999475479126</v>
+      </c>
+      <c r="E996">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="F996">
+        <v>2249304</v>
+      </c>
+      <c r="G996">
+        <v>22493.0390625</v>
+      </c>
+      <c r="H996">
+        <f t="shared" si="111"/>
+        <v>994</v>
+      </c>
+      <c r="I996">
+        <f>SUM($F$3:F996)/H996</f>
+        <v>4371430.3934544772</v>
+      </c>
+      <c r="N996">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="O996">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="P996">
+        <f t="shared" si="110"/>
+        <v>0.85133334000905359</v>
+      </c>
+      <c r="Q996">
+        <f t="shared" si="101"/>
+        <v>0.8471190461090633</v>
+      </c>
+      <c r="R996">
+        <f t="shared" si="102"/>
+        <v>4.2142938999902846E-3</v>
+      </c>
+      <c r="S996">
+        <f t="shared" si="103"/>
+        <v>1.3340137848237748E-2</v>
+      </c>
+      <c r="T996">
+        <f t="shared" si="104"/>
+        <v>2.0010206772356622E-4</v>
+      </c>
+      <c r="U996">
+        <f t="shared" si="105"/>
+        <v>21.060721400501365</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U996"/>
+  <dimension ref="A1:U1017"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A984" workbookViewId="0">
-      <selection activeCell="A997" sqref="A997"/>
+    <sheetView tabSelected="1" topLeftCell="A1005" workbookViewId="0">
+      <selection activeCell="A1017" sqref="A1017"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3725,7 +3725,7 @@
         <v>-183.57030015797656</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44445</v>
       </c>
@@ -3755,6 +3755,12 @@
         <f>SUM($F$3:F53)/H53</f>
         <v>20267728.921568628</v>
       </c>
+      <c r="K53" s="2">
+        <v>45930</v>
+      </c>
+      <c r="L53" s="2">
+        <v>45901</v>
+      </c>
       <c r="N53">
         <f t="shared" si="11"/>
         <v>0.97799999999999998</v>
@@ -49695,23 +49701,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q996" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q1017" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R996" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R1017" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S996" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S1017" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T996" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T1017" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U996" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U1017" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -52841,7 +52847,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P996" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P1017" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52951,7 +52957,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H996" si="111">H833+1</f>
+        <f t="shared" ref="H834:H1017" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -61779,11 +61785,11 @@
         <v>4410297.0070408955</v>
       </c>
       <c r="N974">
-        <f t="shared" ref="N974:N996" si="126">IF(A974&lt;&gt;$K$51,MAX(N973,VLOOKUP(A974,A:C,3)),)</f>
+        <f t="shared" ref="N974:N995" si="126">IF(A974&lt;&gt;$K$51,MAX(N973,VLOOKUP(A974,A:C,3)),)</f>
         <v>0.81000000238418579</v>
       </c>
       <c r="O974">
-        <f t="shared" ref="O974:O996" si="127">IF(A974&lt;&gt;$K$51,MIN(O973,VLOOKUP(A974,A:D,4)),)</f>
+        <f t="shared" ref="O974:O995" si="127">IF(A974&lt;&gt;$K$51,MIN(O973,VLOOKUP(A974,A:D,4)),)</f>
         <v>0.80500000715255737</v>
       </c>
       <c r="P974">
@@ -63165,12 +63171,12 @@
         <v>4371430.3934544772</v>
       </c>
       <c r="N996">
-        <f t="shared" si="126"/>
-        <v>0</v>
+        <f>VLOOKUP(L52,A:C,3)</f>
+        <v>0.86599999666213989</v>
       </c>
       <c r="O996">
-        <f t="shared" si="127"/>
-        <v>0</v>
+        <f>VLOOKUP(L52,A:D,4)</f>
+        <v>0.84299999475479126</v>
       </c>
       <c r="P996">
         <f t="shared" si="110"/>
@@ -63196,6 +63202,1269 @@
         <f t="shared" si="105"/>
         <v>21.060721400501365</v>
       </c>
+    </row>
+    <row r="997" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A997" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B997">
+        <v>0.86100000143051147</v>
+      </c>
+      <c r="C997">
+        <v>0.86599999666213989</v>
+      </c>
+      <c r="D997">
+        <v>0.84299999475479126</v>
+      </c>
+      <c r="E997">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="F997">
+        <v>2249304</v>
+      </c>
+      <c r="G997">
+        <v>22493.0390625</v>
+      </c>
+      <c r="H997">
+        <f t="shared" si="111"/>
+        <v>995</v>
+      </c>
+      <c r="I997">
+        <f>SUM($F$3:F997)/H997</f>
+        <v>4369297.6031092964</v>
+      </c>
+      <c r="N997">
+        <f t="shared" ref="N997:N1017" si="128">IF(A997&lt;&gt;$K$52,MAX(N996,VLOOKUP(A997,A:C,3)),)</f>
+        <v>0.86599999666213989</v>
+      </c>
+      <c r="O997">
+        <f t="shared" ref="O997:O1017" si="129">IF(A997&lt;&gt;$K$52,MIN(O996,VLOOKUP(A997,A:D,4)),)</f>
+        <v>0.84299999475479126</v>
+      </c>
+      <c r="P997">
+        <f t="shared" si="110"/>
+        <v>0.85133334000905359</v>
+      </c>
+      <c r="Q997">
+        <f t="shared" si="101"/>
+        <v>0.84926190404664914</v>
+      </c>
+      <c r="R997">
+        <f t="shared" si="102"/>
+        <v>2.0714359624044443E-3</v>
+      </c>
+      <c r="S997">
+        <f t="shared" si="103"/>
+        <v>1.1187076771340374E-2</v>
+      </c>
+      <c r="T997">
+        <f t="shared" si="104"/>
+        <v>1.6780615157010561E-4</v>
+      </c>
+      <c r="U997">
+        <f t="shared" si="105"/>
+        <v>12.344219464082311</v>
+      </c>
+    </row>
+    <row r="998" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A998" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B998">
+        <v>0.84500002861022949</v>
+      </c>
+      <c r="C998">
+        <v>0.85000002384185791</v>
+      </c>
+      <c r="D998">
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="E998">
+        <v>0.84399998188018799</v>
+      </c>
+      <c r="F998">
+        <v>810301</v>
+      </c>
+      <c r="G998">
+        <v>8103.009765625</v>
+      </c>
+      <c r="H998">
+        <f t="shared" si="111"/>
+        <v>996</v>
+      </c>
+      <c r="I998">
+        <f>SUM($F$3:F998)/H998</f>
+        <v>4365724.3133471385</v>
+      </c>
+      <c r="N998">
+        <f t="shared" si="128"/>
+        <v>0.86599999666213989</v>
+      </c>
+      <c r="O998">
+        <f t="shared" si="129"/>
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="P998">
+        <f t="shared" si="110"/>
+        <v>0.84466665983200073</v>
+      </c>
+      <c r="Q998">
+        <f t="shared" si="101"/>
+        <v>0.8505714280264719</v>
+      </c>
+      <c r="R998">
+        <f t="shared" si="102"/>
+        <v>-5.9047681944711661E-3</v>
+      </c>
+      <c r="S998">
+        <f t="shared" si="103"/>
+        <v>9.6326563634028962E-3</v>
+      </c>
+      <c r="T998">
+        <f t="shared" si="104"/>
+        <v>1.4448984545104344E-4</v>
+      </c>
+      <c r="U998">
+        <f t="shared" si="105"/>
+        <v>-40.866319539886561</v>
+      </c>
+    </row>
+    <row r="999" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A999" s="1">
+        <v>45874</v>
+      </c>
+      <c r="B999">
+        <v>0.84399998188018799</v>
+      </c>
+      <c r="C999">
+        <v>0.84899997711181641</v>
+      </c>
+      <c r="D999">
+        <v>0.8410000205039978</v>
+      </c>
+      <c r="E999">
+        <v>0.84899997711181641</v>
+      </c>
+      <c r="F999">
+        <v>1009501.9375</v>
+      </c>
+      <c r="G999">
+        <v>10095.01953125</v>
+      </c>
+      <c r="H999">
+        <f t="shared" si="111"/>
+        <v>997</v>
+      </c>
+      <c r="I999">
+        <f>SUM($F$3:F999)/H999</f>
+        <v>4362357.9920072714</v>
+      </c>
+      <c r="N999">
+        <f t="shared" si="128"/>
+        <v>0.86599999666213989</v>
+      </c>
+      <c r="O999">
+        <f t="shared" si="129"/>
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="P999">
+        <f t="shared" si="110"/>
+        <v>0.84633332490921021</v>
+      </c>
+      <c r="Q999">
+        <f t="shared" si="101"/>
+        <v>0.85192857044083747</v>
+      </c>
+      <c r="R999">
+        <f t="shared" si="102"/>
+        <v>-5.5952455316272687E-3</v>
+      </c>
+      <c r="S999">
+        <f t="shared" si="103"/>
+        <v>8.2517022989234291E-3</v>
+      </c>
+      <c r="T999">
+        <f t="shared" si="104"/>
+        <v>1.2377553448385142E-4</v>
+      </c>
+      <c r="U999">
+        <f t="shared" si="105"/>
+        <v>-45.204777785526439</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1000" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B1000">
+        <v>0.85000002384185791</v>
+      </c>
+      <c r="C1000">
+        <v>0.85399997234344482</v>
+      </c>
+      <c r="D1000">
+        <v>0.84700000286102295</v>
+      </c>
+      <c r="E1000">
+        <v>0.85399997234344482</v>
+      </c>
+      <c r="F1000">
+        <v>1219800</v>
+      </c>
+      <c r="G1000">
+        <v>12198</v>
+      </c>
+      <c r="H1000">
+        <f t="shared" si="111"/>
+        <v>998</v>
+      </c>
+      <c r="I1000">
+        <f>SUM($F$3:F1000)/H1000</f>
+        <v>4359209.1363038579</v>
+      </c>
+      <c r="N1000">
+        <f t="shared" si="128"/>
+        <v>0.86599999666213989</v>
+      </c>
+      <c r="O1000">
+        <f t="shared" si="129"/>
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="P1000">
+        <f t="shared" si="110"/>
+        <v>0.85166664918263757</v>
+      </c>
+      <c r="Q1000">
+        <f t="shared" si="101"/>
+        <v>0.85335714050701694</v>
+      </c>
+      <c r="R1000">
+        <f t="shared" si="102"/>
+        <v>-1.6904913243793729E-3</v>
+      </c>
+      <c r="S1000">
+        <f t="shared" si="103"/>
+        <v>7.0272136707695198E-3</v>
+      </c>
+      <c r="T1000">
+        <f t="shared" si="104"/>
+        <v>1.054082050615428E-4</v>
+      </c>
+      <c r="U1000">
+        <f t="shared" si="105"/>
+        <v>-16.037568644607656</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1001" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B1001">
+        <v>0.85199999809265137</v>
+      </c>
+      <c r="C1001">
+        <v>0.86000001430511475</v>
+      </c>
+      <c r="D1001">
+        <v>0.85199999809265137</v>
+      </c>
+      <c r="E1001">
+        <v>0.85900002717971802</v>
+      </c>
+      <c r="F1001">
+        <v>1148400</v>
+      </c>
+      <c r="G1001">
+        <v>11484</v>
+      </c>
+      <c r="H1001">
+        <f t="shared" si="111"/>
+        <v>999</v>
+      </c>
+      <c r="I1001">
+        <f>SUM($F$3:F1001)/H1001</f>
+        <v>4355995.113144394</v>
+      </c>
+      <c r="N1001">
+        <f t="shared" si="128"/>
+        <v>0.86599999666213989</v>
+      </c>
+      <c r="O1001">
+        <f t="shared" si="129"/>
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="P1001">
+        <f t="shared" si="110"/>
+        <v>0.85700001319249475</v>
+      </c>
+      <c r="Q1001">
+        <f t="shared" si="101"/>
+        <v>0.85471428575969888</v>
+      </c>
+      <c r="R1001">
+        <f t="shared" si="102"/>
+        <v>2.2857274327958699E-3</v>
+      </c>
+      <c r="S1001">
+        <f t="shared" si="103"/>
+        <v>6.2448994643023292E-3</v>
+      </c>
+      <c r="T1001">
+        <f t="shared" si="104"/>
+        <v>9.3673491964534929E-5</v>
+      </c>
+      <c r="U1001">
+        <f t="shared" si="105"/>
+        <v>24.401005928777089</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1002" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B1002">
+        <v>0.86299997568130493</v>
+      </c>
+      <c r="C1002">
+        <v>0.86299997568130493</v>
+      </c>
+      <c r="D1002">
+        <v>0.85199999809265137</v>
+      </c>
+      <c r="E1002">
+        <v>0.85500001907348633</v>
+      </c>
+      <c r="F1002">
+        <v>1019900</v>
+      </c>
+      <c r="G1002">
+        <v>10199</v>
+      </c>
+      <c r="H1002">
+        <f t="shared" si="111"/>
+        <v>1000</v>
+      </c>
+      <c r="I1002">
+        <f>SUM($F$3:F1002)/H1002</f>
+        <v>4352659.0180312498</v>
+      </c>
+      <c r="N1002">
+        <f t="shared" si="128"/>
+        <v>0.86599999666213989</v>
+      </c>
+      <c r="O1002">
+        <f t="shared" si="129"/>
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="P1002">
+        <f t="shared" si="110"/>
+        <v>0.85666666428248084</v>
+      </c>
+      <c r="Q1002">
+        <f t="shared" si="101"/>
+        <v>0.85557142751557491</v>
+      </c>
+      <c r="R1002">
+        <f t="shared" si="102"/>
+        <v>1.0952367669059271E-3</v>
+      </c>
+      <c r="S1002">
+        <f t="shared" si="103"/>
+        <v>5.6666689259665271E-3</v>
+      </c>
+      <c r="T1002">
+        <f t="shared" si="104"/>
+        <v>8.5000033889497904E-5</v>
+      </c>
+      <c r="U1002">
+        <f t="shared" si="105"/>
+        <v>12.88513329688505</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1003" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B1003">
+        <v>0.85199999809265137</v>
+      </c>
+      <c r="C1003">
+        <v>0.85699999332427979</v>
+      </c>
+      <c r="D1003">
+        <v>0.85199999809265137</v>
+      </c>
+      <c r="E1003">
+        <v>0.8529999852180481</v>
+      </c>
+      <c r="F1003">
+        <v>1215425</v>
+      </c>
+      <c r="G1003">
+        <v>12154.25</v>
+      </c>
+      <c r="H1003">
+        <f t="shared" si="111"/>
+        <v>1001</v>
+      </c>
+      <c r="I1003">
+        <f>SUM($F$3:F1003)/H1003</f>
+        <v>4349524.9181131367</v>
+      </c>
+      <c r="N1003">
+        <f t="shared" si="128"/>
+        <v>0.86599999666213989</v>
+      </c>
+      <c r="O1003">
+        <f t="shared" si="129"/>
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="P1003">
+        <f t="shared" si="110"/>
+        <v>0.85399999221165979</v>
+      </c>
+      <c r="Q1003">
+        <f t="shared" si="101"/>
+        <v>0.85588095159757704</v>
+      </c>
+      <c r="R1003">
+        <f t="shared" si="102"/>
+        <v>-1.880959385917258E-3</v>
+      </c>
+      <c r="S1003">
+        <f t="shared" si="103"/>
+        <v>5.3571448439643388E-3</v>
+      </c>
+      <c r="T1003">
+        <f t="shared" si="104"/>
+        <v>8.0357172659465084E-5</v>
+      </c>
+      <c r="U1003">
+        <f t="shared" si="105"/>
+        <v>-23.407485899091103</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1004" s="1">
+        <v>45881</v>
+      </c>
+      <c r="B1004">
+        <v>0.85799998044967651</v>
+      </c>
+      <c r="C1004">
+        <v>0.86699998378753662</v>
+      </c>
+      <c r="D1004">
+        <v>0.85799998044967651</v>
+      </c>
+      <c r="E1004">
+        <v>0.86400002241134644</v>
+      </c>
+      <c r="F1004">
+        <v>1516506</v>
+      </c>
+      <c r="G1004">
+        <v>15165.0595703125</v>
+      </c>
+      <c r="H1004">
+        <f t="shared" si="111"/>
+        <v>1002</v>
+      </c>
+      <c r="I1004">
+        <f>SUM($F$3:F1004)/H1004</f>
+        <v>4346697.5539234029</v>
+      </c>
+      <c r="N1004">
+        <f t="shared" si="128"/>
+        <v>0.86699998378753662</v>
+      </c>
+      <c r="O1004">
+        <f t="shared" si="129"/>
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="P1004">
+        <f t="shared" si="110"/>
+        <v>0.86299999554951989</v>
+      </c>
+      <c r="Q1004">
+        <f t="shared" si="101"/>
+        <v>0.8564999983424233</v>
+      </c>
+      <c r="R1004">
+        <f t="shared" si="102"/>
+        <v>6.4999972070965972E-3</v>
+      </c>
+      <c r="S1004">
+        <f t="shared" si="103"/>
+        <v>5.6666691287034021E-3</v>
+      </c>
+      <c r="T1004">
+        <f t="shared" si="104"/>
+        <v>8.5000036930551031E-5</v>
+      </c>
+      <c r="U1004">
+        <f t="shared" si="105"/>
+        <v>76.470522152918548</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1005" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B1005">
+        <v>0.86299997568130493</v>
+      </c>
+      <c r="C1005">
+        <v>0.87300002574920654</v>
+      </c>
+      <c r="D1005">
+        <v>0.8619999885559082</v>
+      </c>
+      <c r="E1005">
+        <v>0.87300002574920654</v>
+      </c>
+      <c r="F1005">
+        <v>3506207</v>
+      </c>
+      <c r="G1005">
+        <v>35062.0703125</v>
+      </c>
+      <c r="H1005">
+        <f t="shared" si="111"/>
+        <v>1003</v>
+      </c>
+      <c r="I1005">
+        <f>SUM($F$3:F1005)/H1005</f>
+        <v>4345859.5772993518</v>
+      </c>
+      <c r="N1005">
+        <f t="shared" si="128"/>
+        <v>0.87300002574920654</v>
+      </c>
+      <c r="O1005">
+        <f t="shared" si="129"/>
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="P1005">
+        <f t="shared" si="110"/>
+        <v>0.8693333466847738</v>
+      </c>
+      <c r="Q1005">
+        <f t="shared" si="101"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="R1005">
+        <f t="shared" si="102"/>
+        <v>1.2190489541916705E-2</v>
+      </c>
+      <c r="S1005">
+        <f t="shared" si="103"/>
+        <v>6.3061247877523085E-3</v>
+      </c>
+      <c r="T1005">
+        <f t="shared" si="104"/>
+        <v>9.4591871816284627E-5</v>
+      </c>
+      <c r="U1005">
+        <f t="shared" si="105"/>
+        <v>128.87459892529614</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1006" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B1006">
+        <v>0.87400001287460327</v>
+      </c>
+      <c r="C1006">
+        <v>0.89399999380111694</v>
+      </c>
+      <c r="D1006">
+        <v>0.87300002574920654</v>
+      </c>
+      <c r="E1006">
+        <v>0.89300000667572021</v>
+      </c>
+      <c r="F1006">
+        <v>3142817</v>
+      </c>
+      <c r="G1006">
+        <v>31428.169921875</v>
+      </c>
+      <c r="H1006">
+        <f t="shared" si="111"/>
+        <v>1004</v>
+      </c>
+      <c r="I1006">
+        <f>SUM($F$3:F1006)/H1006</f>
+        <v>4344661.3277203683</v>
+      </c>
+      <c r="N1006">
+        <f t="shared" si="128"/>
+        <v>0.89399999380111694</v>
+      </c>
+      <c r="O1006">
+        <f t="shared" si="129"/>
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="P1006">
+        <f t="shared" si="110"/>
+        <v>0.88666667540868127</v>
+      </c>
+      <c r="Q1006">
+        <f t="shared" si="101"/>
+        <v>0.85916666757492799</v>
+      </c>
+      <c r="R1006">
+        <f t="shared" si="102"/>
+        <v>2.7500007833753282E-2</v>
+      </c>
+      <c r="S1006">
+        <f t="shared" si="103"/>
+        <v>8.6190509958332193E-3</v>
+      </c>
+      <c r="T1006">
+        <f t="shared" si="104"/>
+        <v>1.2928576493749828E-4</v>
+      </c>
+      <c r="U1006">
+        <f t="shared" si="105"/>
+        <v>212.7071595782246</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1007" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B1007">
+        <v>0.89800000190734863</v>
+      </c>
+      <c r="C1007">
+        <v>0.90100002288818359</v>
+      </c>
+      <c r="D1007">
+        <v>0.88599997758865356</v>
+      </c>
+      <c r="E1007">
+        <v>0.89099997282028198</v>
+      </c>
+      <c r="F1007">
+        <v>3025607</v>
+      </c>
+      <c r="G1007">
+        <v>30256.0703125</v>
+      </c>
+      <c r="H1007">
+        <f t="shared" si="111"/>
+        <v>1005</v>
+      </c>
+      <c r="I1007">
+        <f>SUM($F$3:F1007)/H1007</f>
+        <v>4343348.8358519897</v>
+      </c>
+      <c r="N1007">
+        <f t="shared" si="128"/>
+        <v>0.90100002288818359</v>
+      </c>
+      <c r="O1007">
+        <f t="shared" si="129"/>
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="P1007">
+        <f t="shared" si="110"/>
+        <v>0.89266665776570642</v>
+      </c>
+      <c r="Q1007">
+        <f t="shared" si="101"/>
+        <v>0.86123809502238335</v>
+      </c>
+      <c r="R1007">
+        <f t="shared" si="102"/>
+        <v>3.1428562743323063E-2</v>
+      </c>
+      <c r="S1007">
+        <f t="shared" si="103"/>
+        <v>1.0986396650067827E-2</v>
+      </c>
+      <c r="T1007">
+        <f t="shared" si="104"/>
+        <v>1.6479594975101738E-4</v>
+      </c>
+      <c r="U1007">
+        <f t="shared" si="105"/>
+        <v>190.71198528123435</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1008" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B1008">
+        <v>0.88599997758865356</v>
+      </c>
+      <c r="C1008">
+        <v>0.90799999237060547</v>
+      </c>
+      <c r="D1008">
+        <v>0.88599997758865356</v>
+      </c>
+      <c r="E1008">
+        <v>0.90600001811981201</v>
+      </c>
+      <c r="F1008">
+        <v>2570310</v>
+      </c>
+      <c r="G1008">
+        <v>25703.099609375</v>
+      </c>
+      <c r="H1008">
+        <f t="shared" si="111"/>
+        <v>1006</v>
+      </c>
+      <c r="I1008">
+        <f>SUM($F$3:F1008)/H1008</f>
+        <v>4341586.3718004469</v>
+      </c>
+      <c r="N1008">
+        <f t="shared" si="128"/>
+        <v>0.90799999237060547</v>
+      </c>
+      <c r="O1008">
+        <f t="shared" si="129"/>
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="P1008">
+        <f t="shared" si="110"/>
+        <v>0.89999999602635705</v>
+      </c>
+      <c r="Q1008">
+        <f t="shared" si="101"/>
+        <v>0.86342857139451179</v>
+      </c>
+      <c r="R1008">
+        <f t="shared" si="102"/>
+        <v>3.6571424631845262E-2</v>
+      </c>
+      <c r="S1008">
+        <f t="shared" si="103"/>
+        <v>1.3564627186781761E-2</v>
+      </c>
+      <c r="T1008">
+        <f t="shared" si="104"/>
+        <v>2.034694078017264E-4</v>
+      </c>
+      <c r="U1008">
+        <f t="shared" si="105"/>
+        <v>179.73918058228585</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1009" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B1009">
+        <v>0.9089999794960022</v>
+      </c>
+      <c r="C1009">
+        <v>0.93599998950958252</v>
+      </c>
+      <c r="D1009">
+        <v>0.89300000667572021</v>
+      </c>
+      <c r="E1009">
+        <v>0.92699998617172241</v>
+      </c>
+      <c r="F1009">
+        <v>3470652</v>
+      </c>
+      <c r="G1009">
+        <v>34706.51953125</v>
+      </c>
+      <c r="H1009">
+        <f t="shared" si="111"/>
+        <v>1007</v>
+      </c>
+      <c r="I1009">
+        <f>SUM($F$3:F1009)/H1009</f>
+        <v>4340721.491590119</v>
+      </c>
+      <c r="N1009">
+        <f t="shared" si="128"/>
+        <v>0.93599998950958252</v>
+      </c>
+      <c r="O1009">
+        <f t="shared" si="129"/>
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="P1009">
+        <f t="shared" si="110"/>
+        <v>0.91866666078567505</v>
+      </c>
+      <c r="Q1009">
+        <f t="shared" si="101"/>
+        <v>0.86738095113209324</v>
+      </c>
+      <c r="R1009">
+        <f t="shared" si="102"/>
+        <v>5.1285709653581812E-2</v>
+      </c>
+      <c r="S1009">
+        <f t="shared" si="103"/>
+        <v>1.8632654430103972E-2</v>
+      </c>
+      <c r="T1009">
+        <f t="shared" si="104"/>
+        <v>2.7948981645155958E-4</v>
+      </c>
+      <c r="U1009">
+        <f t="shared" si="105"/>
+        <v>183.4975968166286</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1010" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B1010">
+        <v>0.92400002479553223</v>
+      </c>
+      <c r="C1010">
+        <v>0.93199998140335083</v>
+      </c>
+      <c r="D1010">
+        <v>0.92000001668930054</v>
+      </c>
+      <c r="E1010">
+        <v>0.92299997806549072</v>
+      </c>
+      <c r="F1010">
+        <v>4430724</v>
+      </c>
+      <c r="G1010">
+        <v>44307.23828125</v>
+      </c>
+      <c r="H1010">
+        <f t="shared" si="111"/>
+        <v>1008</v>
+      </c>
+      <c r="I1010">
+        <f>SUM($F$3:F1010)/H1010</f>
+        <v>4340810.7797929067</v>
+      </c>
+      <c r="N1010">
+        <f t="shared" si="128"/>
+        <v>0.93599998950958252</v>
+      </c>
+      <c r="O1010">
+        <f t="shared" si="129"/>
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="P1010">
+        <f t="shared" si="110"/>
+        <v>0.92499999205271399</v>
+      </c>
+      <c r="Q1010">
+        <f t="shared" si="101"/>
+        <v>0.87264285484949755</v>
+      </c>
+      <c r="R1010">
+        <f t="shared" si="102"/>
+        <v>5.2357137203216442E-2</v>
+      </c>
+      <c r="S1010">
+        <f t="shared" si="103"/>
+        <v>2.2826529684520917E-2</v>
+      </c>
+      <c r="T1010">
+        <f t="shared" si="104"/>
+        <v>3.4239794526781377E-4</v>
+      </c>
+      <c r="U1010">
+        <f t="shared" si="105"/>
+        <v>152.91311740280511</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1011" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B1011">
+        <v>0.92199999094009399</v>
+      </c>
+      <c r="C1011">
+        <v>0.93300002813339233</v>
+      </c>
+      <c r="D1011">
+        <v>0.9089999794960022</v>
+      </c>
+      <c r="E1011">
+        <v>0.93300002813339233</v>
+      </c>
+      <c r="F1011">
+        <v>1429211</v>
+      </c>
+      <c r="G1011">
+        <v>14292.1103515625</v>
+      </c>
+      <c r="H1011">
+        <f t="shared" si="111"/>
+        <v>1009</v>
+      </c>
+      <c r="I1011">
+        <f>SUM($F$3:F1011)/H1011</f>
+        <v>4337925.1506751738</v>
+      </c>
+      <c r="N1011">
+        <f t="shared" si="128"/>
+        <v>0.93599998950958252</v>
+      </c>
+      <c r="O1011">
+        <f t="shared" si="129"/>
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="P1011">
+        <f t="shared" si="110"/>
+        <v>0.92500001192092896</v>
+      </c>
+      <c r="Q1011">
+        <f t="shared" si="101"/>
+        <v>0.87790475998605999</v>
+      </c>
+      <c r="R1011">
+        <f t="shared" si="102"/>
+        <v>4.7095251934868965E-2</v>
+      </c>
+      <c r="S1011">
+        <f t="shared" si="103"/>
+        <v>2.5795919149100368E-2</v>
+      </c>
+      <c r="T1011">
+        <f t="shared" si="104"/>
+        <v>3.869387872365055E-4</v>
+      </c>
+      <c r="U1011">
+        <f t="shared" si="105"/>
+        <v>121.71240901234155</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1012" s="1">
+        <v>45891</v>
+      </c>
+      <c r="B1012">
+        <v>0.93500000238418579</v>
+      </c>
+      <c r="C1012">
+        <v>0.94199997186660767</v>
+      </c>
+      <c r="D1012">
+        <v>0.92699998617172241</v>
+      </c>
+      <c r="E1012">
+        <v>0.93000000715255737</v>
+      </c>
+      <c r="F1012">
+        <v>4295607</v>
+      </c>
+      <c r="G1012">
+        <v>42956.0703125</v>
+      </c>
+      <c r="H1012">
+        <f t="shared" si="111"/>
+        <v>1010</v>
+      </c>
+      <c r="I1012">
+        <f>SUM($F$3:F1012)/H1012</f>
+        <v>4337883.2515160888</v>
+      </c>
+      <c r="N1012">
+        <f t="shared" si="128"/>
+        <v>0.94199997186660767</v>
+      </c>
+      <c r="O1012">
+        <f t="shared" si="129"/>
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="P1012">
+        <f t="shared" si="110"/>
+        <v>0.93299998839696252</v>
+      </c>
+      <c r="Q1012">
+        <f t="shared" si="101"/>
+        <v>0.88421428345498576</v>
+      </c>
+      <c r="R1012">
+        <f t="shared" si="102"/>
+        <v>4.878570494197676E-2</v>
+      </c>
+      <c r="S1012">
+        <f t="shared" si="103"/>
+        <v>2.7357142596017743E-2</v>
+      </c>
+      <c r="T1012">
+        <f t="shared" si="104"/>
+        <v>4.1035713894026611E-4</v>
+      </c>
+      <c r="U1012">
+        <f t="shared" si="105"/>
+        <v>118.88596618049401</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1013" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B1013">
+        <v>0.93500000238418579</v>
+      </c>
+      <c r="C1013">
+        <v>0.95899999141693115</v>
+      </c>
+      <c r="D1013">
+        <v>0.93500000238418579</v>
+      </c>
+      <c r="E1013">
+        <v>0.95800000429153442</v>
+      </c>
+      <c r="F1013">
+        <v>3842823.75</v>
+      </c>
+      <c r="G1013">
+        <v>38428.23828125</v>
+      </c>
+      <c r="H1013">
+        <f t="shared" si="111"/>
+        <v>1011</v>
+      </c>
+      <c r="I1013">
+        <f>SUM($F$3:F1013)/H1013</f>
+        <v>4337393.5784186451</v>
+      </c>
+      <c r="N1013">
+        <f t="shared" si="128"/>
+        <v>0.95899999141693115</v>
+      </c>
+      <c r="O1013">
+        <f t="shared" si="129"/>
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="P1013">
+        <f t="shared" si="110"/>
+        <v>0.95066666603088379</v>
+      </c>
+      <c r="Q1013">
+        <f t="shared" si="101"/>
+        <v>0.89166666496367675</v>
+      </c>
+      <c r="R1013">
+        <f t="shared" si="102"/>
+        <v>5.9000001067207042E-2</v>
+      </c>
+      <c r="S1013">
+        <f t="shared" si="103"/>
+        <v>2.9047616890498562E-2</v>
+      </c>
+      <c r="T1013">
+        <f t="shared" si="104"/>
+        <v>4.3571425335747841E-4</v>
+      </c>
+      <c r="U1013">
+        <f t="shared" si="105"/>
+        <v>135.40984857064325</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1014" s="1">
+        <v>45895</v>
+      </c>
+      <c r="B1014">
+        <v>0.97399997711181641</v>
+      </c>
+      <c r="C1014">
+        <v>0.98500001430511475</v>
+      </c>
+      <c r="D1014">
+        <v>0.97299998998641968</v>
+      </c>
+      <c r="E1014">
+        <v>0.97699999809265137</v>
+      </c>
+      <c r="F1014">
+        <v>6614185</v>
+      </c>
+      <c r="G1014">
+        <v>66141.8515625</v>
+      </c>
+      <c r="H1014">
+        <f t="shared" si="111"/>
+        <v>1012</v>
+      </c>
+      <c r="I1014">
+        <f>SUM($F$3:F1014)/H1014</f>
+        <v>4339643.3723134883</v>
+      </c>
+      <c r="N1014">
+        <f t="shared" si="128"/>
+        <v>0.98500001430511475</v>
+      </c>
+      <c r="O1014">
+        <f t="shared" si="129"/>
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="P1014">
+        <f t="shared" si="110"/>
+        <v>0.97833333412806189</v>
+      </c>
+      <c r="Q1014">
+        <f t="shared" si="101"/>
+        <v>0.90071428531692133</v>
+      </c>
+      <c r="R1014">
+        <f t="shared" si="102"/>
+        <v>7.7619048811140567E-2</v>
+      </c>
+      <c r="S1014">
+        <f t="shared" si="103"/>
+        <v>3.2340134487671077E-2</v>
+      </c>
+      <c r="T1014">
+        <f t="shared" si="104"/>
+        <v>4.8510201731506611E-4</v>
+      </c>
+      <c r="U1014">
+        <f t="shared" si="105"/>
+        <v>160.00561952049813</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1015" s="1">
+        <v>45896</v>
+      </c>
+      <c r="B1015">
+        <v>0.98000001907348633</v>
+      </c>
+      <c r="C1015">
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="D1015">
+        <v>0.9649999737739563</v>
+      </c>
+      <c r="E1015">
+        <v>0.96700000762939453</v>
+      </c>
+      <c r="F1015">
+        <v>4333161</v>
+      </c>
+      <c r="G1015">
+        <v>43331.609375</v>
+      </c>
+      <c r="H1015">
+        <f t="shared" si="111"/>
+        <v>1013</v>
+      </c>
+      <c r="I1015">
+        <f>SUM($F$3:F1015)/H1015</f>
+        <v>4339636.973130553</v>
+      </c>
+      <c r="N1015">
+        <f t="shared" si="128"/>
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="O1015">
+        <f t="shared" si="129"/>
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="P1015">
+        <f t="shared" si="110"/>
+        <v>0.97666666905085242</v>
+      </c>
+      <c r="Q1015">
+        <f t="shared" si="101"/>
+        <v>0.90926190359251824</v>
+      </c>
+      <c r="R1015">
+        <f t="shared" si="102"/>
+        <v>6.7404765458334182E-2</v>
+      </c>
+      <c r="S1015">
+        <f t="shared" si="103"/>
+        <v>3.4642856745492827E-2</v>
+      </c>
+      <c r="T1015">
+        <f t="shared" si="104"/>
+        <v>5.1964285118239243E-4</v>
+      </c>
+      <c r="U1015">
+        <f t="shared" si="105"/>
+        <v>129.71363948327539</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1016" s="1">
+        <v>45897</v>
+      </c>
+      <c r="B1016">
+        <v>0.9649999737739563</v>
+      </c>
+      <c r="C1016">
+        <v>0.98900002241134644</v>
+      </c>
+      <c r="D1016">
+        <v>0.93900001049041748</v>
+      </c>
+      <c r="E1016">
+        <v>0.98900002241134644</v>
+      </c>
+      <c r="F1016">
+        <v>4283711</v>
+      </c>
+      <c r="G1016">
+        <v>42837.109375</v>
+      </c>
+      <c r="H1016">
+        <f t="shared" si="111"/>
+        <v>1014</v>
+      </c>
+      <c r="I1016">
+        <f>SUM($F$3:F1016)/H1016</f>
+        <v>4339581.819310897</v>
+      </c>
+      <c r="N1016">
+        <f t="shared" si="128"/>
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="O1016">
+        <f t="shared" si="129"/>
+        <v>0.8399999737739563</v>
+      </c>
+      <c r="P1016">
+        <f t="shared" si="110"/>
+        <v>0.97233335177103675</v>
+      </c>
+      <c r="Q1016">
+        <f t="shared" si="101"/>
+        <v>0.91752380984170101</v>
+      </c>
+      <c r="R1016">
+        <f t="shared" si="102"/>
+        <v>5.4809541929335737E-2</v>
+      </c>
+      <c r="S1016">
+        <f t="shared" si="103"/>
+        <v>3.4210885057643935E-2</v>
+      </c>
+      <c r="T1016">
+        <f t="shared" si="104"/>
+        <v>5.1316327586465899E-4</v>
+      </c>
+      <c r="U1016">
+        <f t="shared" si="105"/>
+        <v>106.80721810613575</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1017" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:U1017"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1005" workbookViewId="0">
-      <selection activeCell="A1017" sqref="A1017"/>
+      <selection activeCell="A1018" sqref="A1018"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -64464,7 +64464,67 @@
       </c>
     </row>
     <row r="1017" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1017" s="1"/>
+      <c r="A1017" s="1">
+        <v>45898</v>
+      </c>
+      <c r="B1017">
+        <v>0.9869999885559082</v>
+      </c>
+      <c r="C1017">
+        <v>1.0199999809265137</v>
+      </c>
+      <c r="D1017">
+        <v>0.98299998044967651</v>
+      </c>
+      <c r="E1017">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="F1017">
+        <v>4079918</v>
+      </c>
+      <c r="G1017">
+        <v>40799.1796875</v>
+      </c>
+      <c r="H1017">
+        <f t="shared" si="111"/>
+        <v>1015</v>
+      </c>
+      <c r="I1017">
+        <f>SUM($F$3:F1017)/H1017</f>
+        <v>4339325.9928879309</v>
+      </c>
+      <c r="N1017">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="O1017">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="P1017">
+        <f t="shared" si="110"/>
+        <v>1.0039999683698018</v>
+      </c>
+      <c r="Q1017">
+        <f t="shared" si="101"/>
+        <v>0.92823809385299683</v>
+      </c>
+      <c r="R1017">
+        <f t="shared" si="102"/>
+        <v>7.5761874516804939E-2</v>
+      </c>
+      <c r="S1017">
+        <f t="shared" si="103"/>
+        <v>3.5081630661374028E-2</v>
+      </c>
+      <c r="T1017">
+        <f t="shared" si="104"/>
+        <v>5.2622445992061043E-4</v>
+      </c>
+      <c r="U1017">
+        <f t="shared" si="105"/>
+        <v>143.9725445834176</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U1017"/>
+  <dimension ref="A1:U1038"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1005" workbookViewId="0">
-      <selection activeCell="A1018" sqref="A1018"/>
+    <sheetView tabSelected="1" topLeftCell="A1017" workbookViewId="0">
+      <selection activeCell="A1039" sqref="A1039"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -49701,23 +49701,23 @@
         <v>0.59333332379659021</v>
       </c>
       <c r="Q782">
-        <f t="shared" ref="Q782:Q1017" si="101">SUM(P769:P782)/14</f>
+        <f t="shared" ref="Q782:Q1036" si="101">SUM(P769:P782)/14</f>
         <v>0.59835714669454687</v>
       </c>
       <c r="R782">
-        <f t="shared" ref="R782:R1017" si="102">P782-Q782</f>
+        <f t="shared" ref="R782:R1036" si="102">P782-Q782</f>
         <v>-5.0238228979566646E-3</v>
       </c>
       <c r="S782">
-        <f t="shared" ref="S782:S1017" si="103">AVEDEV(P769:P782)</f>
+        <f t="shared" ref="S782:S1036" si="103">AVEDEV(P769:P782)</f>
         <v>4.6938779402752439E-3</v>
       </c>
       <c r="T782">
-        <f t="shared" ref="T782:T1017" si="104">0.015*S782</f>
+        <f t="shared" ref="T782:T1036" si="104">0.015*S782</f>
         <v>7.0408169104128657E-5</v>
       </c>
       <c r="U782">
-        <f t="shared" ref="U782:U1017" si="105">R782/T782</f>
+        <f t="shared" ref="U782:U1036" si="105">R782/T782</f>
         <v>-71.352841039322996</v>
       </c>
     </row>
@@ -52847,7 +52847,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P1017" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P1038" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52957,7 +52957,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H1017" si="111">H833+1</f>
+        <f t="shared" ref="H834:H1038" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -63234,11 +63234,11 @@
         <v>4369297.6031092964</v>
       </c>
       <c r="N997">
-        <f t="shared" ref="N997:N1017" si="128">IF(A997&lt;&gt;$K$52,MAX(N996,VLOOKUP(A997,A:C,3)),)</f>
+        <f t="shared" ref="N997:N1016" si="128">IF(A997&lt;&gt;$K$52,MAX(N996,VLOOKUP(A997,A:C,3)),)</f>
         <v>0.86599999666213989</v>
       </c>
       <c r="O997">
-        <f t="shared" ref="O997:O1017" si="129">IF(A997&lt;&gt;$K$52,MIN(O996,VLOOKUP(A997,A:D,4)),)</f>
+        <f t="shared" ref="O997:O1016" si="129">IF(A997&lt;&gt;$K$52,MIN(O996,VLOOKUP(A997,A:D,4)),)</f>
         <v>0.84299999475479126</v>
       </c>
       <c r="P997">
@@ -64494,12 +64494,12 @@
         <v>4339325.9928879309</v>
       </c>
       <c r="N1017">
-        <f t="shared" si="128"/>
-        <v>0</v>
+        <f>VLOOKUP(L53,A:C,3)</f>
+        <v>0.99800002574920654</v>
       </c>
       <c r="O1017">
-        <f t="shared" si="129"/>
-        <v>0</v>
+        <f>VLOOKUP(L53,A:D,4)</f>
+        <v>0.9649999737739563</v>
       </c>
       <c r="P1017">
         <f t="shared" si="110"/>
@@ -64524,6 +64524,1329 @@
       <c r="U1017">
         <f t="shared" si="105"/>
         <v>143.9725445834176</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1018" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B1018">
+        <v>0.98000001907348633</v>
+      </c>
+      <c r="C1018">
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="D1018">
+        <v>0.9649999737739563</v>
+      </c>
+      <c r="E1018">
+        <v>0.96700000762939453</v>
+      </c>
+      <c r="F1018">
+        <v>4333161</v>
+      </c>
+      <c r="G1018">
+        <v>43331.609375</v>
+      </c>
+      <c r="H1018">
+        <f t="shared" si="111"/>
+        <v>1016</v>
+      </c>
+      <c r="I1018">
+        <f>SUM($F$3:F1018)/H1018</f>
+        <v>4339319.9249815457</v>
+      </c>
+      <c r="N1018">
+        <f t="shared" ref="N1018:N1038" si="130">IF(A1018&lt;&gt;$K$53,MAX(N1017,VLOOKUP(A1018,A:C,3)),)</f>
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="O1018">
+        <f t="shared" ref="O1018:O1038" si="131">IF(A1018&lt;&gt;$K$53,MIN(O1017,VLOOKUP(A1018,A:D,4)),)</f>
+        <v>0.9649999737739563</v>
+      </c>
+      <c r="P1018">
+        <f t="shared" si="110"/>
+        <v>0.97666666905085242</v>
+      </c>
+      <c r="Q1018">
+        <f t="shared" si="101"/>
+        <v>0.93635714196023478</v>
+      </c>
+      <c r="R1018">
+        <f t="shared" si="102"/>
+        <v>4.0309527090617636E-2</v>
+      </c>
+      <c r="S1018">
+        <f t="shared" si="103"/>
+        <v>3.4360543805725681E-2</v>
+      </c>
+      <c r="T1018">
+        <f t="shared" si="104"/>
+        <v>5.1540815708588518E-4</v>
+      </c>
+      <c r="U1018">
+        <f t="shared" si="105"/>
+        <v>78.208942828005434</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1019" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B1019">
+        <v>0.9649999737739563</v>
+      </c>
+      <c r="C1019">
+        <v>0.98900002241134644</v>
+      </c>
+      <c r="D1019">
+        <v>0.93900001049041748</v>
+      </c>
+      <c r="E1019">
+        <v>0.98900002241134644</v>
+      </c>
+      <c r="F1019">
+        <v>4283711</v>
+      </c>
+      <c r="G1019">
+        <v>42837.109375</v>
+      </c>
+      <c r="H1019">
+        <f t="shared" si="111"/>
+        <v>1017</v>
+      </c>
+      <c r="I1019">
+        <f>SUM($F$3:F1019)/H1019</f>
+        <v>4339265.2456059493</v>
+      </c>
+      <c r="N1019">
+        <f t="shared" si="130"/>
+        <v>0.99800002574920654</v>
+      </c>
+      <c r="O1019">
+        <f t="shared" si="131"/>
+        <v>0.93900001049041748</v>
+      </c>
+      <c r="P1019">
+        <f t="shared" si="110"/>
+        <v>0.97233335177103675</v>
+      </c>
+      <c r="Q1019">
+        <f t="shared" si="101"/>
+        <v>0.94371428518068201</v>
+      </c>
+      <c r="R1019">
+        <f t="shared" si="102"/>
+        <v>2.8619066590354736E-2</v>
+      </c>
+      <c r="S1019">
+        <f t="shared" si="103"/>
+        <v>3.2142859129678611E-2</v>
+      </c>
+      <c r="T1019">
+        <f t="shared" si="104"/>
+        <v>4.8214288694517916E-4</v>
+      </c>
+      <c r="U1019">
+        <f t="shared" si="105"/>
+        <v>59.358060370200576</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1020" s="1">
+        <v>45903</v>
+      </c>
+      <c r="B1020">
+        <v>0.9869999885559082</v>
+      </c>
+      <c r="C1020">
+        <v>1.0199999809265137</v>
+      </c>
+      <c r="D1020">
+        <v>0.98299998044967651</v>
+      </c>
+      <c r="E1020">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="F1020">
+        <v>4079918</v>
+      </c>
+      <c r="G1020">
+        <v>40799.1796875</v>
+      </c>
+      <c r="H1020">
+        <f t="shared" si="111"/>
+        <v>1018</v>
+      </c>
+      <c r="I1020">
+        <f>SUM($F$3:F1020)/H1020</f>
+        <v>4339010.4840680258</v>
+      </c>
+      <c r="N1020">
+        <f t="shared" si="130"/>
+        <v>1.0199999809265137</v>
+      </c>
+      <c r="O1020">
+        <f t="shared" si="131"/>
+        <v>0.93900001049041748</v>
+      </c>
+      <c r="P1020">
+        <f t="shared" si="110"/>
+        <v>1.0039999683698018</v>
+      </c>
+      <c r="Q1020">
+        <f t="shared" si="101"/>
+        <v>0.95209523467790513</v>
+      </c>
+      <c r="R1020">
+        <f t="shared" si="102"/>
+        <v>5.1904733691896632E-2</v>
+      </c>
+      <c r="S1020">
+        <f t="shared" si="103"/>
+        <v>3.1380952823729713E-2</v>
+      </c>
+      <c r="T1020">
+        <f t="shared" si="104"/>
+        <v>4.7071429235594567E-4</v>
+      </c>
+      <c r="U1020">
+        <f t="shared" si="105"/>
+        <v>110.26802146183232</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1021" s="1">
+        <v>45904</v>
+      </c>
+      <c r="B1021">
+        <v>1.0099999904632568</v>
+      </c>
+      <c r="C1021">
+        <v>1.0210000276565552</v>
+      </c>
+      <c r="D1021">
+        <v>1.0060000419616699</v>
+      </c>
+      <c r="E1021">
+        <v>1.0210000276565552</v>
+      </c>
+      <c r="F1021">
+        <v>3938929</v>
+      </c>
+      <c r="G1021">
+        <v>39389.2890625</v>
+      </c>
+      <c r="H1021">
+        <f t="shared" si="111"/>
+        <v>1019</v>
+      </c>
+      <c r="I1021">
+        <f>SUM($F$3:F1021)/H1021</f>
+        <v>4338617.8623957308</v>
+      </c>
+      <c r="N1021">
+        <f t="shared" si="130"/>
+        <v>1.0210000276565552</v>
+      </c>
+      <c r="O1021">
+        <f t="shared" si="131"/>
+        <v>0.93900001049041748</v>
+      </c>
+      <c r="P1021">
+        <f t="shared" si="110"/>
+        <v>1.0160000324249268</v>
+      </c>
+      <c r="Q1021">
+        <f t="shared" si="101"/>
+        <v>0.96090476143927805</v>
+      </c>
+      <c r="R1021">
+        <f t="shared" si="102"/>
+        <v>5.5095270985648703E-2</v>
+      </c>
+      <c r="S1021">
+        <f t="shared" si="103"/>
+        <v>3.0442179060306645E-2</v>
+      </c>
+      <c r="T1021">
+        <f t="shared" si="104"/>
+        <v>4.5663268590459967E-4</v>
+      </c>
+      <c r="U1021">
+        <f t="shared" si="105"/>
+        <v>120.65555683230106</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1022" s="1">
+        <v>45905</v>
+      </c>
+      <c r="B1022">
+        <v>1.0210000276565552</v>
+      </c>
+      <c r="C1022">
+        <v>1.0279999971389771</v>
+      </c>
+      <c r="D1022">
+        <v>0.99199998378753662</v>
+      </c>
+      <c r="E1022">
+        <v>1</v>
+      </c>
+      <c r="F1022">
+        <v>9319904</v>
+      </c>
+      <c r="G1022">
+        <v>93199.0390625</v>
+      </c>
+      <c r="H1022">
+        <f t="shared" si="111"/>
+        <v>1020</v>
+      </c>
+      <c r="I1022">
+        <f>SUM($F$3:F1022)/H1022</f>
+        <v>4343501.4762561275</v>
+      </c>
+      <c r="N1022">
+        <f t="shared" si="130"/>
+        <v>1.0279999971389771</v>
+      </c>
+      <c r="O1022">
+        <f t="shared" si="131"/>
+        <v>0.93900001049041748</v>
+      </c>
+      <c r="P1022">
+        <f t="shared" si="110"/>
+        <v>1.0066666603088379</v>
+      </c>
+      <c r="Q1022">
+        <f t="shared" si="101"/>
+        <v>0.96852380888802669</v>
+      </c>
+      <c r="R1022">
+        <f t="shared" si="102"/>
+        <v>3.8142851420811197E-2</v>
+      </c>
+      <c r="S1022">
+        <f t="shared" si="103"/>
+        <v>2.7183675036138381E-2</v>
+      </c>
+      <c r="T1022">
+        <f t="shared" si="104"/>
+        <v>4.0775512554207569E-4</v>
+      </c>
+      <c r="U1022">
+        <f t="shared" si="105"/>
+        <v>93.543524119049451</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1023" s="1">
+        <v>45908</v>
+      </c>
+      <c r="B1023">
+        <v>1</v>
+      </c>
+      <c r="C1023">
+        <v>1.0140000581741333</v>
+      </c>
+      <c r="D1023">
+        <v>0.99299997091293335</v>
+      </c>
+      <c r="E1023">
+        <v>1.0019999742507935</v>
+      </c>
+      <c r="F1023">
+        <v>3076130</v>
+      </c>
+      <c r="G1023">
+        <v>30761.30078125</v>
+      </c>
+      <c r="H1023">
+        <f t="shared" si="111"/>
+        <v>1021</v>
+      </c>
+      <c r="I1023">
+        <f>SUM($F$3:F1023)/H1023</f>
+        <v>4342260.1721657692</v>
+      </c>
+      <c r="N1023">
+        <f t="shared" si="130"/>
+        <v>1.0279999971389771</v>
+      </c>
+      <c r="O1023">
+        <f t="shared" si="131"/>
+        <v>0.93900001049041748</v>
+      </c>
+      <c r="P1023">
+        <f t="shared" si="110"/>
+        <v>1.0030000011126201</v>
+      </c>
+      <c r="Q1023">
+        <f t="shared" si="101"/>
+        <v>0.97454761891137986</v>
+      </c>
+      <c r="R1023">
+        <f t="shared" si="102"/>
+        <v>2.8452382201240245E-2</v>
+      </c>
+      <c r="S1023">
+        <f t="shared" si="103"/>
+        <v>2.4136050217816611E-2</v>
+      </c>
+      <c r="T1023">
+        <f t="shared" si="104"/>
+        <v>3.6204075326724914E-4</v>
+      </c>
+      <c r="U1023">
+        <f t="shared" si="105"/>
+        <v>78.588893500167458</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1024" s="1">
+        <v>45909</v>
+      </c>
+      <c r="B1024">
+        <v>1</v>
+      </c>
+      <c r="C1024">
+        <v>1.0140000581741333</v>
+      </c>
+      <c r="D1024">
+        <v>0.95300000905990601</v>
+      </c>
+      <c r="E1024">
+        <v>0.9660000205039978</v>
+      </c>
+      <c r="F1024">
+        <v>4770245</v>
+      </c>
+      <c r="G1024">
+        <v>47702.44921875</v>
+      </c>
+      <c r="H1024">
+        <f t="shared" si="111"/>
+        <v>1022</v>
+      </c>
+      <c r="I1024">
+        <f>SUM($F$3:F1024)/H1024</f>
+        <v>4342678.9440129651</v>
+      </c>
+      <c r="N1024">
+        <f t="shared" si="130"/>
+        <v>1.0279999971389771</v>
+      </c>
+      <c r="O1024">
+        <f t="shared" si="131"/>
+        <v>0.93900001049041748</v>
+      </c>
+      <c r="P1024">
+        <f t="shared" si="110"/>
+        <v>0.97766669591267907</v>
+      </c>
+      <c r="Q1024">
+        <f t="shared" si="101"/>
+        <v>0.97830952632994883</v>
+      </c>
+      <c r="R1024">
+        <f t="shared" si="102"/>
+        <v>-6.4283041726975743E-4</v>
+      </c>
+      <c r="S1024">
+        <f t="shared" si="103"/>
+        <v>2.030611524776537E-2</v>
+      </c>
+      <c r="T1024">
+        <f t="shared" si="104"/>
+        <v>3.0459172871648055E-4</v>
+      </c>
+      <c r="U1024">
+        <f t="shared" si="105"/>
+        <v>-2.110465769962242</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1025" s="1">
+        <v>45910</v>
+      </c>
+      <c r="B1025">
+        <v>0.9660000205039978</v>
+      </c>
+      <c r="C1025">
+        <v>1.0130000114440918</v>
+      </c>
+      <c r="D1025">
+        <v>0.88899999856948853</v>
+      </c>
+      <c r="E1025">
+        <v>1.0099999904632568</v>
+      </c>
+      <c r="F1025">
+        <v>5397439</v>
+      </c>
+      <c r="G1025">
+        <v>53974.390625</v>
+      </c>
+      <c r="H1025">
+        <f t="shared" si="111"/>
+        <v>1023</v>
+      </c>
+      <c r="I1025">
+        <f>SUM($F$3:F1025)/H1025</f>
+        <v>4343709.9900109973</v>
+      </c>
+      <c r="N1025">
+        <f t="shared" si="130"/>
+        <v>1.0279999971389771</v>
+      </c>
+      <c r="O1025">
+        <f t="shared" si="131"/>
+        <v>0.88899999856948853</v>
+      </c>
+      <c r="P1025">
+        <f t="shared" si="110"/>
+        <v>0.97066666682561242</v>
+      </c>
+      <c r="Q1025">
+        <f t="shared" si="101"/>
+        <v>0.98157143025171201</v>
+      </c>
+      <c r="R1025">
+        <f t="shared" si="102"/>
+        <v>-1.0904763426099584E-2</v>
+      </c>
+      <c r="S1025">
+        <f t="shared" si="103"/>
+        <v>1.7972782761061307E-2</v>
+      </c>
+      <c r="T1025">
+        <f t="shared" si="104"/>
+        <v>2.6959174141591961E-4</v>
+      </c>
+      <c r="U1025">
+        <f t="shared" si="105"/>
+        <v>-40.449174625405085</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1026" s="1">
+        <v>45911</v>
+      </c>
+      <c r="B1026">
+        <v>1.0060000419616699</v>
+      </c>
+      <c r="C1026">
+        <v>1.0199999809265137</v>
+      </c>
+      <c r="D1026">
+        <v>1.003000020980835</v>
+      </c>
+      <c r="E1026">
+        <v>1.0169999599456787</v>
+      </c>
+      <c r="F1026">
+        <v>6179446</v>
+      </c>
+      <c r="G1026">
+        <v>61794.4609375</v>
+      </c>
+      <c r="H1026">
+        <f t="shared" si="111"/>
+        <v>1024</v>
+      </c>
+      <c r="I1026">
+        <f>SUM($F$3:F1026)/H1026</f>
+        <v>4345502.700958252</v>
+      </c>
+      <c r="N1026">
+        <f t="shared" si="130"/>
+        <v>1.0279999971389771</v>
+      </c>
+      <c r="O1026">
+        <f t="shared" si="131"/>
+        <v>0.88899999856948853</v>
+      </c>
+      <c r="P1026">
+        <f t="shared" si="110"/>
+        <v>1.0133333206176758</v>
+      </c>
+      <c r="Q1026">
+        <f t="shared" si="101"/>
+        <v>0.98730952541033434</v>
+      </c>
+      <c r="R1026">
+        <f t="shared" si="102"/>
+        <v>2.6023795207341438E-2</v>
+      </c>
+      <c r="S1026">
+        <f t="shared" si="103"/>
+        <v>1.7591828391665516E-2</v>
+      </c>
+      <c r="T1026">
+        <f t="shared" si="104"/>
+        <v>2.6387742587498272E-4</v>
+      </c>
+      <c r="U1026">
+        <f t="shared" si="105"/>
+        <v>98.620771068423025</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1027" s="1">
+        <v>45912</v>
+      </c>
+      <c r="B1027">
+        <v>1.0269999504089355</v>
+      </c>
+      <c r="C1027">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="D1027">
+        <v>1.0269999504089355</v>
+      </c>
+      <c r="E1027">
+        <v>1.0290000438690186</v>
+      </c>
+      <c r="F1027">
+        <v>3930962</v>
+      </c>
+      <c r="G1027">
+        <v>39309.62109375</v>
+      </c>
+      <c r="H1027">
+        <f t="shared" si="111"/>
+        <v>1025</v>
+      </c>
+      <c r="I1027">
+        <f>SUM($F$3:F1027)/H1027</f>
+        <v>4345098.271006098</v>
+      </c>
+      <c r="N1027">
+        <f t="shared" si="130"/>
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="O1027">
+        <f t="shared" si="131"/>
+        <v>0.88899999856948853</v>
+      </c>
+      <c r="P1027">
+        <f t="shared" si="110"/>
+        <v>1.0319999853769939</v>
+      </c>
+      <c r="Q1027">
+        <f t="shared" si="101"/>
+        <v>0.99311904822077068</v>
+      </c>
+      <c r="R1027">
+        <f t="shared" si="102"/>
+        <v>3.8880937156223205E-2</v>
+      </c>
+      <c r="S1027">
+        <f t="shared" si="103"/>
+        <v>1.8166657005037588E-2</v>
+      </c>
+      <c r="T1027">
+        <f t="shared" si="104"/>
+        <v>2.7249985507556379E-4</v>
+      </c>
+      <c r="U1027">
+        <f t="shared" si="105"/>
+        <v>142.6824140711619</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1028" s="1">
+        <v>45915</v>
+      </c>
+      <c r="B1028">
+        <v>1.0269999504089355</v>
+      </c>
+      <c r="C1028">
+        <v>1.0470000505447388</v>
+      </c>
+      <c r="D1028">
+        <v>1.0169999599456787</v>
+      </c>
+      <c r="E1028">
+        <v>1.0379999876022339</v>
+      </c>
+      <c r="F1028">
+        <v>4771233</v>
+      </c>
+      <c r="G1028">
+        <v>47712.328125</v>
+      </c>
+      <c r="H1028">
+        <f t="shared" si="111"/>
+        <v>1026</v>
+      </c>
+      <c r="I1028">
+        <f>SUM($F$3:F1028)/H1028</f>
+        <v>4345513.6069992688</v>
+      </c>
+      <c r="N1028">
+        <f t="shared" si="130"/>
+        <v>1.0470000505447388</v>
+      </c>
+      <c r="O1028">
+        <f t="shared" si="131"/>
+        <v>0.88899999856948853</v>
+      </c>
+      <c r="P1028">
+        <f t="shared" si="110"/>
+        <v>1.033999999364217</v>
+      </c>
+      <c r="Q1028">
+        <f t="shared" si="101"/>
+        <v>0.99709523859478189</v>
+      </c>
+      <c r="R1028">
+        <f t="shared" si="102"/>
+        <v>3.6904760769435163E-2</v>
+      </c>
+      <c r="S1028">
+        <f t="shared" si="103"/>
+        <v>1.9462575312374386E-2</v>
+      </c>
+      <c r="T1028">
+        <f t="shared" si="104"/>
+        <v>2.9193862968561577E-4</v>
+      </c>
+      <c r="U1028">
+        <f t="shared" si="105"/>
+        <v>126.41273547518304</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1029" s="1">
+        <v>45916</v>
+      </c>
+      <c r="B1029">
+        <v>1.0369999408721924</v>
+      </c>
+      <c r="C1029">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="D1029">
+        <v>1.0269999504089355</v>
+      </c>
+      <c r="E1029">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="F1029">
+        <v>2435753</v>
+      </c>
+      <c r="G1029">
+        <v>24357.529296875</v>
+      </c>
+      <c r="H1029">
+        <f t="shared" si="111"/>
+        <v>1027</v>
+      </c>
+      <c r="I1029">
+        <f>SUM($F$3:F1029)/H1029</f>
+        <v>4343654.0543147521</v>
+      </c>
+      <c r="N1029">
+        <f t="shared" si="130"/>
+        <v>1.0470000505447388</v>
+      </c>
+      <c r="O1029">
+        <f t="shared" si="131"/>
+        <v>0.88899999856948853</v>
+      </c>
+      <c r="P1029">
+        <f t="shared" si="110"/>
+        <v>1.0366666316986084</v>
+      </c>
+      <c r="Q1029">
+        <f t="shared" si="101"/>
+        <v>1.0013809502124786</v>
+      </c>
+      <c r="R1029">
+        <f t="shared" si="102"/>
+        <v>3.5285681486129761E-2</v>
+      </c>
+      <c r="S1029">
+        <f t="shared" si="103"/>
+        <v>1.9605430818739389E-2</v>
+      </c>
+      <c r="T1029">
+        <f t="shared" si="104"/>
+        <v>2.9408146228109081E-4</v>
+      </c>
+      <c r="U1029">
+        <f t="shared" si="105"/>
+        <v>119.98607872944666</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1030" s="1">
+        <v>45917</v>
+      </c>
+      <c r="B1030">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="C1030">
+        <v>1.0540000200271606</v>
+      </c>
+      <c r="D1030">
+        <v>1.0349999666213989</v>
+      </c>
+      <c r="E1030">
+        <v>1.0509999990463257</v>
+      </c>
+      <c r="F1030">
+        <v>5736148</v>
+      </c>
+      <c r="G1030">
+        <v>57361.48046875</v>
+      </c>
+      <c r="H1030">
+        <f t="shared" si="111"/>
+        <v>1028</v>
+      </c>
+      <c r="I1030">
+        <f>SUM($F$3:F1030)/H1030</f>
+        <v>4345008.6204097765</v>
+      </c>
+      <c r="N1030">
+        <f t="shared" si="130"/>
+        <v>1.0540000200271606</v>
+      </c>
+      <c r="O1030">
+        <f t="shared" si="131"/>
+        <v>0.88899999856948853</v>
+      </c>
+      <c r="P1030">
+        <f t="shared" si="110"/>
+        <v>1.0466666618982952</v>
+      </c>
+      <c r="Q1030">
+        <f t="shared" si="101"/>
+        <v>1.0066904723644257</v>
+      </c>
+      <c r="R1030">
+        <f t="shared" si="102"/>
+        <v>3.9976189533869499E-2</v>
+      </c>
+      <c r="S1030">
+        <f t="shared" si="103"/>
+        <v>1.978911388488044E-2</v>
+      </c>
+      <c r="T1030">
+        <f t="shared" si="104"/>
+        <v>2.9683670827320661E-4</v>
+      </c>
+      <c r="U1030">
+        <f t="shared" si="105"/>
+        <v>134.67400904161647</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1031" s="1">
+        <v>45918</v>
+      </c>
+      <c r="B1031">
+        <v>1.0509999990463257</v>
+      </c>
+      <c r="C1031">
+        <v>1.0590000152587891</v>
+      </c>
+      <c r="D1031">
+        <v>1.0290000438690186</v>
+      </c>
+      <c r="E1031">
+        <v>1.0420000553131104</v>
+      </c>
+      <c r="F1031">
+        <v>6981115</v>
+      </c>
+      <c r="G1031">
+        <v>69811.1484375</v>
+      </c>
+      <c r="H1031">
+        <f t="shared" si="111"/>
+        <v>1029</v>
+      </c>
+      <c r="I1031">
+        <f>SUM($F$3:F1031)/H1031</f>
+        <v>4347570.4341897471</v>
+      </c>
+      <c r="N1031">
+        <f t="shared" si="130"/>
+        <v>1.0590000152587891</v>
+      </c>
+      <c r="O1031">
+        <f t="shared" si="131"/>
+        <v>0.88899999856948853</v>
+      </c>
+      <c r="P1031">
+        <f t="shared" si="110"/>
+        <v>1.0433333714803059</v>
+      </c>
+      <c r="Q1031">
+        <f t="shared" si="101"/>
+        <v>1.0095000011580331</v>
+      </c>
+      <c r="R1031">
+        <f t="shared" si="102"/>
+        <v>3.3833370322272849E-2</v>
+      </c>
+      <c r="S1031">
+        <f t="shared" si="103"/>
+        <v>2.2214284964970181E-2</v>
+      </c>
+      <c r="T1031">
+        <f t="shared" si="104"/>
+        <v>3.332142744745527E-4</v>
+      </c>
+      <c r="U1031">
+        <f t="shared" si="105"/>
+        <v>101.53637738246617</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1032" s="1">
+        <v>45919</v>
+      </c>
+      <c r="B1032">
+        <v>1.0420000553131104</v>
+      </c>
+      <c r="C1032">
+        <v>1.0520000457763672</v>
+      </c>
+      <c r="D1032">
+        <v>1.0410000085830688</v>
+      </c>
+      <c r="E1032">
+        <v>1.0449999570846558</v>
+      </c>
+      <c r="F1032">
+        <v>4890281</v>
+      </c>
+      <c r="G1032">
+        <v>48902.80859375</v>
+      </c>
+      <c r="H1032">
+        <f t="shared" si="111"/>
+        <v>1030</v>
+      </c>
+      <c r="I1032">
+        <f>SUM($F$3:F1032)/H1032</f>
+        <v>4348097.3376516989</v>
+      </c>
+      <c r="N1032">
+        <f t="shared" si="130"/>
+        <v>1.0590000152587891</v>
+      </c>
+      <c r="O1032">
+        <f t="shared" si="131"/>
+        <v>0.88899999856948853</v>
+      </c>
+      <c r="P1032">
+        <f t="shared" si="110"/>
+        <v>1.0460000038146973</v>
+      </c>
+      <c r="Q1032">
+        <f t="shared" si="101"/>
+        <v>1.0144523822125935</v>
+      </c>
+      <c r="R1032">
+        <f t="shared" si="102"/>
+        <v>3.1547621602103781E-2</v>
+      </c>
+      <c r="S1032">
+        <f t="shared" si="103"/>
+        <v>2.1928572938555761E-2</v>
+      </c>
+      <c r="T1032">
+        <f t="shared" si="104"/>
+        <v>3.2892859407833642E-4</v>
+      </c>
+      <c r="U1032">
+        <f t="shared" si="105"/>
+        <v>95.910243651819812</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1033" s="1">
+        <v>45922</v>
+      </c>
+      <c r="B1033">
+        <v>1.0460000038146973</v>
+      </c>
+      <c r="C1033">
+        <v>1.0520000457763672</v>
+      </c>
+      <c r="D1033">
+        <v>1.0410000085830688</v>
+      </c>
+      <c r="E1033">
+        <v>1.0509999990463257</v>
+      </c>
+      <c r="F1033">
+        <v>2773222</v>
+      </c>
+      <c r="G1033">
+        <v>27732.220703125</v>
+      </c>
+      <c r="H1033">
+        <f t="shared" si="111"/>
+        <v>1031</v>
+      </c>
+      <c r="I1033">
+        <f>SUM($F$3:F1033)/H1033</f>
+        <v>4346569.8155007279</v>
+      </c>
+      <c r="N1033">
+        <f t="shared" si="130"/>
+        <v>1.0590000152587891</v>
+      </c>
+      <c r="O1033">
+        <f t="shared" si="131"/>
+        <v>0.88899999856948853</v>
+      </c>
+      <c r="P1033">
+        <f t="shared" si="110"/>
+        <v>1.0480000178019206</v>
+      </c>
+      <c r="Q1033">
+        <f t="shared" si="101"/>
+        <v>1.0198571440719422</v>
+      </c>
+      <c r="R1033">
+        <f t="shared" si="102"/>
+        <v>2.8142873729978479E-2</v>
+      </c>
+      <c r="S1033">
+        <f t="shared" si="103"/>
+        <v>2.109523756163461E-2</v>
+      </c>
+      <c r="T1033">
+        <f t="shared" si="104"/>
+        <v>3.1642856342451912E-4</v>
+      </c>
+      <c r="U1033">
+        <f t="shared" si="105"/>
+        <v>88.939106588244783</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1034" s="1">
+        <v>45923</v>
+      </c>
+      <c r="B1034">
+        <v>1.0520000457763672</v>
+      </c>
+      <c r="C1034">
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="D1034">
+        <v>1.0329999923706055</v>
+      </c>
+      <c r="E1034">
+        <v>1.0529999732971191</v>
+      </c>
+      <c r="F1034">
+        <v>4148152</v>
+      </c>
+      <c r="G1034">
+        <v>41481.51953125</v>
+      </c>
+      <c r="H1034">
+        <f t="shared" si="111"/>
+        <v>1032</v>
+      </c>
+      <c r="I1034">
+        <f>SUM($F$3:F1034)/H1034</f>
+        <v>4346377.5501756296</v>
+      </c>
+      <c r="N1034">
+        <f t="shared" si="130"/>
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="O1034">
+        <f t="shared" si="131"/>
+        <v>0.88899999856948853</v>
+      </c>
+      <c r="P1034">
+        <f t="shared" si="110"/>
+        <v>1.0789999961853027</v>
+      </c>
+      <c r="Q1034">
+        <f t="shared" si="101"/>
+        <v>1.0252142889159066</v>
+      </c>
+      <c r="R1034">
+        <f t="shared" si="102"/>
+        <v>5.3785707269396132E-2</v>
+      </c>
+      <c r="S1034">
+        <f t="shared" si="103"/>
+        <v>2.3421765184726846E-2</v>
+      </c>
+      <c r="T1034">
+        <f t="shared" si="104"/>
+        <v>3.5132647777090265E-4</v>
+      </c>
+      <c r="U1034">
+        <f t="shared" si="105"/>
+        <v>153.09323570103757</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1035" s="1">
+        <v>45924</v>
+      </c>
+      <c r="B1035">
+        <v>1.0490000247955322</v>
+      </c>
+      <c r="C1035">
+        <v>1.0690000057220459</v>
+      </c>
+      <c r="D1035">
+        <v>1.0010000467300415</v>
+      </c>
+      <c r="E1035">
+        <v>1.0679999589920044</v>
+      </c>
+      <c r="F1035">
+        <v>1863032</v>
+      </c>
+      <c r="G1035">
+        <v>18630.3203125</v>
+      </c>
+      <c r="H1035">
+        <f t="shared" si="111"/>
+        <v>1033</v>
+      </c>
+      <c r="I1035">
+        <f>SUM($F$3:F1035)/H1035</f>
+        <v>4343973.5370583255</v>
+      </c>
+      <c r="N1035">
+        <f t="shared" si="130"/>
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="O1035">
+        <f t="shared" si="131"/>
+        <v>0.88899999856948853</v>
+      </c>
+      <c r="P1035">
+        <f t="shared" si="110"/>
+        <v>1.0460000038146973</v>
+      </c>
+      <c r="Q1035">
+        <f t="shared" si="101"/>
+        <v>1.0273571440151759</v>
+      </c>
+      <c r="R1035">
+        <f t="shared" si="102"/>
+        <v>1.8642859799521405E-2</v>
+      </c>
+      <c r="S1035">
+        <f t="shared" si="103"/>
+        <v>2.3636053614064973E-2</v>
+      </c>
+      <c r="T1035">
+        <f t="shared" si="104"/>
+        <v>3.5454080421097459E-4</v>
+      </c>
+      <c r="U1035">
+        <f t="shared" si="105"/>
+        <v>52.583114772954886</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1036" s="1">
+        <v>45925</v>
+      </c>
+      <c r="B1036">
+        <v>1.0670000314712524</v>
+      </c>
+      <c r="C1036">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="D1036">
+        <v>1.0640000104904175</v>
+      </c>
+      <c r="E1036">
+        <v>1.0829999446868896</v>
+      </c>
+      <c r="F1036">
+        <v>3748111</v>
+      </c>
+      <c r="G1036">
+        <v>37481.109375</v>
+      </c>
+      <c r="H1036">
+        <f t="shared" si="111"/>
+        <v>1034</v>
+      </c>
+      <c r="I1036">
+        <f>SUM($F$3:F1036)/H1036</f>
+        <v>4343397.2676801253</v>
+      </c>
+      <c r="N1036">
+        <f t="shared" si="130"/>
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="O1036">
+        <f t="shared" si="131"/>
+        <v>0.88899999856948853</v>
+      </c>
+      <c r="P1036">
+        <f t="shared" si="110"/>
+        <v>1.0783333381017048</v>
+      </c>
+      <c r="Q1036">
+        <f t="shared" si="101"/>
+        <v>1.0324761924289523</v>
+      </c>
+      <c r="R1036">
+        <f t="shared" si="102"/>
+        <v>4.5857145672752564E-2</v>
+      </c>
+      <c r="S1036">
+        <f t="shared" si="103"/>
+        <v>2.3673470328454207E-2</v>
+      </c>
+      <c r="T1036">
+        <f t="shared" si="104"/>
+        <v>3.5510205492681309E-4</v>
+      </c>
+      <c r="U1036">
+        <f t="shared" si="105"/>
+        <v>129.13793383201843</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1037" s="1">
+        <v>45926</v>
+      </c>
+      <c r="B1037">
+        <v>1.0800000429153442</v>
+      </c>
+      <c r="C1037">
+        <v>1.0839999914169312</v>
+      </c>
+      <c r="D1037">
+        <v>1.062999963760376</v>
+      </c>
+      <c r="E1037">
+        <v>1.062999963760376</v>
+      </c>
+      <c r="F1037">
+        <v>2586660</v>
+      </c>
+      <c r="G1037">
+        <v>25866.599609375</v>
+      </c>
+      <c r="H1037">
+        <f t="shared" si="111"/>
+        <v>1035</v>
+      </c>
+      <c r="I1037">
+        <f>SUM($F$3:F1037)/H1037</f>
+        <v>4341699.9369867146</v>
+      </c>
+      <c r="N1037">
+        <f t="shared" si="130"/>
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="O1037">
+        <f t="shared" si="131"/>
+        <v>0.88899999856948853</v>
+      </c>
+      <c r="P1037">
+        <f t="shared" si="110"/>
+        <v>1.0699999729792278</v>
+      </c>
+      <c r="Q1037">
+        <f t="shared" ref="Q1037:Q1038" si="132">SUM(P1024:P1037)/14</f>
+        <v>1.0372619047051386</v>
+      </c>
+      <c r="R1037">
+        <f t="shared" ref="R1037:R1038" si="133">P1037-Q1037</f>
+        <v>3.2738068274089205E-2</v>
+      </c>
+      <c r="S1037">
+        <f t="shared" ref="S1037:S1038" si="134">AVEDEV(P1024:P1037)</f>
+        <v>2.2748304062149134E-2</v>
+      </c>
+      <c r="T1037">
+        <f t="shared" ref="T1037:T1038" si="135">0.015*S1037</f>
+        <v>3.4122456093223696E-4</v>
+      </c>
+      <c r="U1037">
+        <f t="shared" ref="U1037:U1038" si="136">R1037/T1037</f>
+        <v>95.942883433266658</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1038" s="1">
+        <v>45929</v>
+      </c>
+      <c r="B1038">
+        <v>1.062999963760376</v>
+      </c>
+      <c r="C1038">
+        <v>1.0889999866485596</v>
+      </c>
+      <c r="D1038">
+        <v>1.0590000152587891</v>
+      </c>
+      <c r="E1038">
+        <v>1.0889999866485596</v>
+      </c>
+      <c r="F1038">
+        <v>6479694</v>
+      </c>
+      <c r="G1038">
+        <v>64796.94140625</v>
+      </c>
+      <c r="H1038">
+        <f t="shared" si="111"/>
+        <v>1036</v>
+      </c>
+      <c r="I1038">
+        <f>SUM($F$3:F1038)/H1038</f>
+        <v>4343763.6378197391</v>
+      </c>
+      <c r="N1038">
+        <f t="shared" si="130"/>
+        <v>1.1510000228881836</v>
+      </c>
+      <c r="O1038">
+        <f t="shared" si="131"/>
+        <v>0.88899999856948853</v>
+      </c>
+      <c r="P1038">
+        <f t="shared" si="110"/>
+        <v>1.0789999961853027</v>
+      </c>
+      <c r="Q1038">
+        <f t="shared" si="132"/>
+        <v>1.0444999975817544</v>
+      </c>
+      <c r="R1038">
+        <f t="shared" si="133"/>
+        <v>3.4499998603548354E-2</v>
+      </c>
+      <c r="S1038">
+        <f t="shared" si="134"/>
+        <v>1.9571430018159013E-2</v>
+      </c>
+      <c r="T1038">
+        <f t="shared" si="135"/>
+        <v>2.935714502723852E-4</v>
+      </c>
+      <c r="U1038">
+        <f t="shared" si="136"/>
+        <v>117.51823473140227</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U1038"/>
+  <dimension ref="A1:U1039"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1017" workbookViewId="0">
-      <selection activeCell="A1039" sqref="A1039"/>
+    <sheetView tabSelected="1" topLeftCell="A1027" workbookViewId="0">
+      <selection activeCell="A1040" sqref="A1040"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3794,7 +3794,7 @@
         <v>-65.472252848217337</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44446</v>
       </c>
@@ -3824,6 +3824,12 @@
         <f>SUM($F$3:F54)/H54</f>
         <v>19929476.980769232</v>
       </c>
+      <c r="K54" s="2">
+        <v>45961</v>
+      </c>
+      <c r="L54" s="2">
+        <v>45939</v>
+      </c>
       <c r="N54">
         <f t="shared" si="11"/>
         <v>0.98399999999999999</v>
@@ -52847,7 +52853,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P1038" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P1039" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52957,7 +52963,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H1038" si="111">H833+1</f>
+        <f t="shared" ref="H834:H1039" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -64557,11 +64563,11 @@
         <v>4339319.9249815457</v>
       </c>
       <c r="N1018">
-        <f t="shared" ref="N1018:N1038" si="130">IF(A1018&lt;&gt;$K$53,MAX(N1017,VLOOKUP(A1018,A:C,3)),)</f>
+        <f t="shared" ref="N1018:N1039" si="130">IF(A1018&lt;&gt;$K$53,MAX(N1017,VLOOKUP(A1018,A:C,3)),)</f>
         <v>0.99800002574920654</v>
       </c>
       <c r="O1018">
-        <f t="shared" ref="O1018:O1038" si="131">IF(A1018&lt;&gt;$K$53,MIN(O1017,VLOOKUP(A1018,A:D,4)),)</f>
+        <f t="shared" ref="O1018:O1039" si="131">IF(A1018&lt;&gt;$K$53,MIN(O1017,VLOOKUP(A1018,A:D,4)),)</f>
         <v>0.9649999737739563</v>
       </c>
       <c r="P1018">
@@ -65766,23 +65772,23 @@
         <v>1.0699999729792278</v>
       </c>
       <c r="Q1037">
-        <f t="shared" ref="Q1037:Q1038" si="132">SUM(P1024:P1037)/14</f>
+        <f t="shared" ref="Q1037:Q1039" si="132">SUM(P1024:P1037)/14</f>
         <v>1.0372619047051386</v>
       </c>
       <c r="R1037">
-        <f t="shared" ref="R1037:R1038" si="133">P1037-Q1037</f>
+        <f t="shared" ref="R1037:R1039" si="133">P1037-Q1037</f>
         <v>3.2738068274089205E-2</v>
       </c>
       <c r="S1037">
-        <f t="shared" ref="S1037:S1038" si="134">AVEDEV(P1024:P1037)</f>
+        <f t="shared" ref="S1037:S1039" si="134">AVEDEV(P1024:P1037)</f>
         <v>2.2748304062149134E-2</v>
       </c>
       <c r="T1037">
-        <f t="shared" ref="T1037:T1038" si="135">0.015*S1037</f>
+        <f t="shared" ref="T1037:T1039" si="135">0.015*S1037</f>
         <v>3.4122456093223696E-4</v>
       </c>
       <c r="U1037">
-        <f t="shared" ref="U1037:U1038" si="136">R1037/T1037</f>
+        <f t="shared" ref="U1037:U1039" si="136">R1037/T1037</f>
         <v>95.942883433266658</v>
       </c>
     </row>
@@ -65847,6 +65853,69 @@
       <c r="U1038">
         <f t="shared" si="136"/>
         <v>117.51823473140227</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1039" s="1">
+        <v>45930</v>
+      </c>
+      <c r="B1039">
+        <v>1.0809999704360962</v>
+      </c>
+      <c r="C1039">
+        <v>1.0920000076293945</v>
+      </c>
+      <c r="D1039">
+        <v>1.0789999961853027</v>
+      </c>
+      <c r="E1039">
+        <v>1.0880000591278076</v>
+      </c>
+      <c r="F1039">
+        <v>3128893</v>
+      </c>
+      <c r="G1039">
+        <v>31288.9296875</v>
+      </c>
+      <c r="H1039">
+        <f t="shared" si="111"/>
+        <v>1037</v>
+      </c>
+      <c r="I1039">
+        <f>SUM($F$3:F1039)/H1039</f>
+        <v>4342592.1135788327</v>
+      </c>
+      <c r="N1039">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="O1039">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="P1039">
+        <f t="shared" si="110"/>
+        <v>1.0863333543141682</v>
+      </c>
+      <c r="Q1039">
+        <f t="shared" si="132"/>
+        <v>1.052761903830937</v>
+      </c>
+      <c r="R1039">
+        <f t="shared" si="133"/>
+        <v>3.357145048323118E-2</v>
+      </c>
+      <c r="S1039">
+        <f t="shared" si="134"/>
+        <v>1.8408162658717364E-2</v>
+      </c>
+      <c r="T1039">
+        <f t="shared" si="135"/>
+        <v>2.7612243988076046E-4</v>
+      </c>
+      <c r="U1039">
+        <f t="shared" si="136"/>
+        <v>121.58175372392238</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U1039"/>
+  <dimension ref="A1:U1055"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1027" workbookViewId="0">
-      <selection activeCell="A1040" sqref="A1040"/>
+    <sheetView tabSelected="1" topLeftCell="A1040" workbookViewId="0">
+      <selection activeCell="A1056" sqref="A1056"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -52853,7 +52853,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P1039" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P1055" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52963,7 +52963,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H1039" si="111">H833+1</f>
+        <f t="shared" ref="H834:H1055" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -64563,11 +64563,11 @@
         <v>4339319.9249815457</v>
       </c>
       <c r="N1018">
-        <f t="shared" ref="N1018:N1039" si="130">IF(A1018&lt;&gt;$K$53,MAX(N1017,VLOOKUP(A1018,A:C,3)),)</f>
+        <f t="shared" ref="N1018:N1038" si="130">IF(A1018&lt;&gt;$K$53,MAX(N1017,VLOOKUP(A1018,A:C,3)),)</f>
         <v>0.99800002574920654</v>
       </c>
       <c r="O1018">
-        <f t="shared" ref="O1018:O1039" si="131">IF(A1018&lt;&gt;$K$53,MIN(O1017,VLOOKUP(A1018,A:D,4)),)</f>
+        <f t="shared" ref="O1018:O1038" si="131">IF(A1018&lt;&gt;$K$53,MIN(O1017,VLOOKUP(A1018,A:D,4)),)</f>
         <v>0.9649999737739563</v>
       </c>
       <c r="P1018">
@@ -65772,23 +65772,23 @@
         <v>1.0699999729792278</v>
       </c>
       <c r="Q1037">
-        <f t="shared" ref="Q1037:Q1039" si="132">SUM(P1024:P1037)/14</f>
+        <f t="shared" ref="Q1037:Q1055" si="132">SUM(P1024:P1037)/14</f>
         <v>1.0372619047051386</v>
       </c>
       <c r="R1037">
-        <f t="shared" ref="R1037:R1039" si="133">P1037-Q1037</f>
+        <f t="shared" ref="R1037:R1055" si="133">P1037-Q1037</f>
         <v>3.2738068274089205E-2</v>
       </c>
       <c r="S1037">
-        <f t="shared" ref="S1037:S1039" si="134">AVEDEV(P1024:P1037)</f>
+        <f t="shared" ref="S1037:S1055" si="134">AVEDEV(P1024:P1037)</f>
         <v>2.2748304062149134E-2</v>
       </c>
       <c r="T1037">
-        <f t="shared" ref="T1037:T1039" si="135">0.015*S1037</f>
+        <f t="shared" ref="T1037:T1055" si="135">0.015*S1037</f>
         <v>3.4122456093223696E-4</v>
       </c>
       <c r="U1037">
-        <f t="shared" ref="U1037:U1039" si="136">R1037/T1037</f>
+        <f t="shared" ref="U1037:U1055" si="136">R1037/T1037</f>
         <v>95.942883433266658</v>
       </c>
     </row>
@@ -65886,12 +65886,12 @@
         <v>4342592.1135788327</v>
       </c>
       <c r="N1039">
-        <f t="shared" si="130"/>
-        <v>0</v>
+        <f>VLOOKUP(L54,A:C,3)</f>
+        <v>1.1109999418258667</v>
       </c>
       <c r="O1039">
-        <f t="shared" si="131"/>
-        <v>0</v>
+        <f>VLOOKUP(L54,A:D,4)</f>
+        <v>1.0889999866485596</v>
       </c>
       <c r="P1039">
         <f t="shared" si="110"/>
@@ -65916,6 +65916,1014 @@
       <c r="U1039">
         <f t="shared" si="136"/>
         <v>121.58175372392238</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1040" s="1">
+        <v>45939</v>
+      </c>
+      <c r="B1040">
+        <v>1.090999960899353</v>
+      </c>
+      <c r="C1040">
+        <v>1.1109999418258667</v>
+      </c>
+      <c r="D1040">
+        <v>1.0889999866485596</v>
+      </c>
+      <c r="E1040">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="F1040">
+        <v>3490226.25</v>
+      </c>
+      <c r="G1040">
+        <v>34902.26171875</v>
+      </c>
+      <c r="H1040">
+        <f t="shared" si="111"/>
+        <v>1038</v>
+      </c>
+      <c r="I1040">
+        <f>SUM($F$3:F1040)/H1040</f>
+        <v>4341770.9518605489</v>
+      </c>
+      <c r="N1040">
+        <f t="shared" ref="N1040:N1055" si="137">IF(A1040&lt;&gt;$K$54,MAX(N1039,VLOOKUP(A1040,A:C,3)),)</f>
+        <v>1.1109999418258667</v>
+      </c>
+      <c r="O1040">
+        <f t="shared" ref="O1040:O1055" si="138">IF(A1040&lt;&gt;$K$54,MIN(O1039,VLOOKUP(A1040,A:D,4)),)</f>
+        <v>1.0889999866485596</v>
+      </c>
+      <c r="P1040">
+        <f t="shared" si="110"/>
+        <v>1.099999984105428</v>
+      </c>
+      <c r="Q1040">
+        <f t="shared" si="132"/>
+        <v>1.0589523797943481</v>
+      </c>
+      <c r="R1040">
+        <f t="shared" si="133"/>
+        <v>4.1047604311079899E-2</v>
+      </c>
+      <c r="S1040">
+        <f t="shared" si="134"/>
+        <v>1.9850337586435347E-2</v>
+      </c>
+      <c r="T1040">
+        <f t="shared" si="135"/>
+        <v>2.977550637965302E-4</v>
+      </c>
+      <c r="U1040">
+        <f t="shared" si="136"/>
+        <v>137.85694788092545</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1041" s="1">
+        <v>45940</v>
+      </c>
+      <c r="B1041">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="C1041">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="D1041">
+        <v>1.062999963760376</v>
+      </c>
+      <c r="E1041">
+        <v>1.0659999847412109</v>
+      </c>
+      <c r="F1041">
+        <v>2663300</v>
+      </c>
+      <c r="G1041">
+        <v>26633</v>
+      </c>
+      <c r="H1041">
+        <f t="shared" si="111"/>
+        <v>1039</v>
+      </c>
+      <c r="I1041">
+        <f>SUM($F$3:F1041)/H1041</f>
+        <v>4340155.4841494225</v>
+      </c>
+      <c r="N1041">
+        <f t="shared" si="137"/>
+        <v>1.1109999418258667</v>
+      </c>
+      <c r="O1041">
+        <f t="shared" si="138"/>
+        <v>1.062999963760376</v>
+      </c>
+      <c r="P1041">
+        <f t="shared" si="110"/>
+        <v>1.0763333241144817</v>
+      </c>
+      <c r="Q1041">
+        <f t="shared" si="132"/>
+        <v>1.0621190468470256</v>
+      </c>
+      <c r="R1041">
+        <f t="shared" si="133"/>
+        <v>1.4214277267456055E-2</v>
+      </c>
+      <c r="S1041">
+        <f t="shared" si="134"/>
+        <v>1.9166662579491019E-2</v>
+      </c>
+      <c r="T1041">
+        <f t="shared" si="135"/>
+        <v>2.8749993869236525E-4</v>
+      </c>
+      <c r="U1041">
+        <f t="shared" si="136"/>
+        <v>49.440974951531437</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1042" s="1">
+        <v>45943</v>
+      </c>
+      <c r="B1042">
+        <v>1.0540000200271606</v>
+      </c>
+      <c r="C1042">
+        <v>1.0559999942779541</v>
+      </c>
+      <c r="D1042">
+        <v>1.0019999742507935</v>
+      </c>
+      <c r="E1042">
+        <v>1.0540000200271606</v>
+      </c>
+      <c r="F1042">
+        <v>3272817</v>
+      </c>
+      <c r="G1042">
+        <v>32728.169921875</v>
+      </c>
+      <c r="H1042">
+        <f t="shared" si="111"/>
+        <v>1040</v>
+      </c>
+      <c r="I1042">
+        <f>SUM($F$3:F1042)/H1042</f>
+        <v>4339129.1971454322</v>
+      </c>
+      <c r="N1042">
+        <f t="shared" si="137"/>
+        <v>1.1109999418258667</v>
+      </c>
+      <c r="O1042">
+        <f t="shared" si="138"/>
+        <v>1.0019999742507935</v>
+      </c>
+      <c r="P1042">
+        <f t="shared" si="110"/>
+        <v>1.037333329518636</v>
+      </c>
+      <c r="Q1042">
+        <f t="shared" si="132"/>
+        <v>1.0623571418580555</v>
+      </c>
+      <c r="R1042">
+        <f t="shared" si="133"/>
+        <v>-2.5023812339419527E-2</v>
+      </c>
+      <c r="S1042">
+        <f t="shared" si="134"/>
+        <v>1.8928567568461094E-2</v>
+      </c>
+      <c r="T1042">
+        <f t="shared" si="135"/>
+        <v>2.8392851352691638E-4</v>
+      </c>
+      <c r="U1042">
+        <f t="shared" si="136"/>
+        <v>-88.134199797609526</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1043" s="1">
+        <v>45944</v>
+      </c>
+      <c r="B1043">
+        <v>1.0549999475479126</v>
+      </c>
+      <c r="C1043">
+        <v>1.0709999799728394</v>
+      </c>
+      <c r="D1043">
+        <v>1.0260000228881836</v>
+      </c>
+      <c r="E1043">
+        <v>1.0279999971389771</v>
+      </c>
+      <c r="F1043">
+        <v>2854215</v>
+      </c>
+      <c r="G1043">
+        <v>28542.150390625</v>
+      </c>
+      <c r="H1043">
+        <f t="shared" si="111"/>
+        <v>1041</v>
+      </c>
+      <c r="I1043">
+        <f>SUM($F$3:F1043)/H1043</f>
+        <v>4337702.7666006247</v>
+      </c>
+      <c r="N1043">
+        <f t="shared" si="137"/>
+        <v>1.1109999418258667</v>
+      </c>
+      <c r="O1043">
+        <f t="shared" si="138"/>
+        <v>1.0019999742507935</v>
+      </c>
+      <c r="P1043">
+        <f t="shared" si="110"/>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="Q1043">
+        <f t="shared" si="132"/>
+        <v>1.0627142872129167</v>
+      </c>
+      <c r="R1043">
+        <f t="shared" si="133"/>
+        <v>-2.1047620546249979E-2</v>
+      </c>
+      <c r="S1043">
+        <f t="shared" si="134"/>
+        <v>1.8571422213599784E-2</v>
+      </c>
+      <c r="T1043">
+        <f t="shared" si="135"/>
+        <v>2.7857133320399676E-4</v>
+      </c>
+      <c r="U1043">
+        <f t="shared" si="136"/>
+        <v>-75.555586801305523</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1044" s="1">
+        <v>45945</v>
+      </c>
+      <c r="B1044">
+        <v>1.0299999713897705</v>
+      </c>
+      <c r="C1044">
+        <v>1.0499999523162842</v>
+      </c>
+      <c r="D1044">
+        <v>1.0249999761581421</v>
+      </c>
+      <c r="E1044">
+        <v>1.0499999523162842</v>
+      </c>
+      <c r="F1044">
+        <v>4348001</v>
+      </c>
+      <c r="G1044">
+        <v>43480.01171875</v>
+      </c>
+      <c r="H1044">
+        <f t="shared" si="111"/>
+        <v>1042</v>
+      </c>
+      <c r="I1044">
+        <f>SUM($F$3:F1044)/H1044</f>
+        <v>4337712.6497420827</v>
+      </c>
+      <c r="N1044">
+        <f t="shared" si="137"/>
+        <v>1.1109999418258667</v>
+      </c>
+      <c r="O1044">
+        <f t="shared" si="138"/>
+        <v>1.0019999742507935</v>
+      </c>
+      <c r="P1044">
+        <f t="shared" si="110"/>
+        <v>1.0416666269302368</v>
+      </c>
+      <c r="Q1044">
+        <f t="shared" si="132"/>
+        <v>1.0623571418580555</v>
+      </c>
+      <c r="R1044">
+        <f t="shared" si="133"/>
+        <v>-2.0690514927818704E-2</v>
+      </c>
+      <c r="S1044">
+        <f t="shared" si="134"/>
+        <v>1.8928567568461094E-2</v>
+      </c>
+      <c r="T1044">
+        <f t="shared" si="135"/>
+        <v>2.8392851352691638E-4</v>
+      </c>
+      <c r="U1044">
+        <f t="shared" si="136"/>
+        <v>-72.872268694694682</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1045" s="1">
+        <v>45946</v>
+      </c>
+      <c r="B1045">
+        <v>1.0490000247955322</v>
+      </c>
+      <c r="C1045">
+        <v>1.0609999895095825</v>
+      </c>
+      <c r="D1045">
+        <v>1.0470000505447388</v>
+      </c>
+      <c r="E1045">
+        <v>1.0520000457763672</v>
+      </c>
+      <c r="F1045">
+        <v>2725915</v>
+      </c>
+      <c r="G1045">
+        <v>27259.150390625</v>
+      </c>
+      <c r="H1045">
+        <f t="shared" si="111"/>
+        <v>1043</v>
+      </c>
+      <c r="I1045">
+        <f>SUM($F$3:F1045)/H1045</f>
+        <v>4336167.3020433849</v>
+      </c>
+      <c r="N1045">
+        <f t="shared" si="137"/>
+        <v>1.1109999418258667</v>
+      </c>
+      <c r="O1045">
+        <f t="shared" si="138"/>
+        <v>1.0019999742507935</v>
+      </c>
+      <c r="P1045">
+        <f t="shared" si="110"/>
+        <v>1.0533333619435628</v>
+      </c>
+      <c r="Q1045">
+        <f t="shared" si="132"/>
+        <v>1.0630714268911452</v>
+      </c>
+      <c r="R1045">
+        <f t="shared" si="133"/>
+        <v>-9.7380649475824477E-3</v>
+      </c>
+      <c r="S1045">
+        <f t="shared" si="134"/>
+        <v>1.8214282535371322E-2</v>
+      </c>
+      <c r="T1045">
+        <f t="shared" si="135"/>
+        <v>2.7321423803056984E-4</v>
+      </c>
+      <c r="U1045">
+        <f t="shared" si="136"/>
+        <v>-35.642596878471828</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1046" s="1">
+        <v>45947</v>
+      </c>
+      <c r="B1046">
+        <v>1.0509999990463257</v>
+      </c>
+      <c r="C1046">
+        <v>1.0509999990463257</v>
+      </c>
+      <c r="D1046">
+        <v>1.0190000534057617</v>
+      </c>
+      <c r="E1046">
+        <v>1.0210000276565552</v>
+      </c>
+      <c r="F1046">
+        <v>1165002</v>
+      </c>
+      <c r="G1046">
+        <v>11650.01953125</v>
+      </c>
+      <c r="H1046">
+        <f t="shared" si="111"/>
+        <v>1044</v>
+      </c>
+      <c r="I1046">
+        <f>SUM($F$3:F1046)/H1046</f>
+        <v>4333129.7873862544</v>
+      </c>
+      <c r="N1046">
+        <f t="shared" si="137"/>
+        <v>1.1109999418258667</v>
+      </c>
+      <c r="O1046">
+        <f t="shared" si="138"/>
+        <v>1.0019999742507935</v>
+      </c>
+      <c r="P1046">
+        <f t="shared" si="110"/>
+        <v>1.0303333600362141</v>
+      </c>
+      <c r="Q1046">
+        <f t="shared" si="132"/>
+        <v>1.061952380906968</v>
+      </c>
+      <c r="R1046">
+        <f t="shared" si="133"/>
+        <v>-3.1619020870753856E-2</v>
+      </c>
+      <c r="S1046">
+        <f t="shared" si="134"/>
+        <v>1.9333328519548689E-2</v>
+      </c>
+      <c r="T1046">
+        <f t="shared" si="135"/>
+        <v>2.899999277932303E-4</v>
+      </c>
+      <c r="U1046">
+        <f t="shared" si="136"/>
+        <v>-109.03113359841313</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1047" s="1">
+        <v>45950</v>
+      </c>
+      <c r="B1047">
+        <v>1.0379999876022339</v>
+      </c>
+      <c r="C1047">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="D1047">
+        <v>1.0260000228881836</v>
+      </c>
+      <c r="E1047">
+        <v>1.031000018119812</v>
+      </c>
+      <c r="F1047">
+        <v>814809</v>
+      </c>
+      <c r="G1047">
+        <v>8148.08984375</v>
+      </c>
+      <c r="H1047">
+        <f t="shared" si="111"/>
+        <v>1045</v>
+      </c>
+      <c r="I1047">
+        <f>SUM($F$3:F1047)/H1047</f>
+        <v>4329762.9732356463</v>
+      </c>
+      <c r="N1047">
+        <f t="shared" si="137"/>
+        <v>1.1109999418258667</v>
+      </c>
+      <c r="O1047">
+        <f t="shared" si="138"/>
+        <v>1.0019999742507935</v>
+      </c>
+      <c r="P1047">
+        <f t="shared" si="110"/>
+        <v>1.0333333412806194</v>
+      </c>
+      <c r="Q1047">
+        <f t="shared" si="132"/>
+        <v>1.0609047611554463</v>
+      </c>
+      <c r="R1047">
+        <f t="shared" si="133"/>
+        <v>-2.7571419874826919E-2</v>
+      </c>
+      <c r="S1047">
+        <f t="shared" si="134"/>
+        <v>2.0380948271070207E-2</v>
+      </c>
+      <c r="T1047">
+        <f t="shared" si="135"/>
+        <v>3.057142240660531E-4</v>
+      </c>
+      <c r="U1047">
+        <f t="shared" si="136"/>
+        <v>-90.186905627491498</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1048" s="1">
+        <v>45951</v>
+      </c>
+      <c r="B1048">
+        <v>1.0360000133514404</v>
+      </c>
+      <c r="C1048">
+        <v>1.0579999685287476</v>
+      </c>
+      <c r="D1048">
+        <v>1.0360000133514404</v>
+      </c>
+      <c r="E1048">
+        <v>1.0549999475479126</v>
+      </c>
+      <c r="F1048">
+        <v>4858905</v>
+      </c>
+      <c r="G1048">
+        <v>48589.05078125</v>
+      </c>
+      <c r="H1048">
+        <f t="shared" si="111"/>
+        <v>1046</v>
+      </c>
+      <c r="I1048">
+        <f>SUM($F$3:F1048)/H1048</f>
+        <v>4330268.8451541588</v>
+      </c>
+      <c r="N1048">
+        <f t="shared" si="137"/>
+        <v>1.1109999418258667</v>
+      </c>
+      <c r="O1048">
+        <f t="shared" si="138"/>
+        <v>1.0019999742507935</v>
+      </c>
+      <c r="P1048">
+        <f t="shared" si="110"/>
+        <v>1.0496666431427002</v>
+      </c>
+      <c r="Q1048">
+        <f t="shared" si="132"/>
+        <v>1.0588095216524034</v>
+      </c>
+      <c r="R1048">
+        <f t="shared" si="133"/>
+        <v>-9.1428785097031895E-3</v>
+      </c>
+      <c r="S1048">
+        <f t="shared" si="134"/>
+        <v>1.9591834269413338E-2</v>
+      </c>
+      <c r="T1048">
+        <f t="shared" si="135"/>
+        <v>2.9387751404120007E-4</v>
+      </c>
+      <c r="U1048">
+        <f t="shared" si="136"/>
+        <v>-31.111187732523852</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1049" s="1">
+        <v>45952</v>
+      </c>
+      <c r="B1049">
+        <v>1.0509999990463257</v>
+      </c>
+      <c r="C1049">
+        <v>1.0579999685287476</v>
+      </c>
+      <c r="D1049">
+        <v>1.0449999570846558</v>
+      </c>
+      <c r="E1049">
+        <v>1.0520000457763672</v>
+      </c>
+      <c r="F1049">
+        <v>1000800</v>
+      </c>
+      <c r="G1049">
+        <v>10008</v>
+      </c>
+      <c r="H1049">
+        <f t="shared" si="111"/>
+        <v>1047</v>
+      </c>
+      <c r="I1049">
+        <f>SUM($F$3:F1049)/H1049</f>
+        <v>4327088.8367060646</v>
+      </c>
+      <c r="N1049">
+        <f t="shared" si="137"/>
+        <v>1.1109999418258667</v>
+      </c>
+      <c r="O1049">
+        <f t="shared" si="138"/>
+        <v>1.0019999742507935</v>
+      </c>
+      <c r="P1049">
+        <f t="shared" si="110"/>
+        <v>1.0516666571299236</v>
+      </c>
+      <c r="Q1049">
+        <f t="shared" si="132"/>
+        <v>1.0592142826034909</v>
+      </c>
+      <c r="R1049">
+        <f t="shared" si="133"/>
+        <v>-7.5476254735673542E-3</v>
+      </c>
+      <c r="S1049">
+        <f t="shared" si="134"/>
+        <v>1.9244896311338251E-2</v>
+      </c>
+      <c r="T1049">
+        <f t="shared" si="135"/>
+        <v>2.8867344467007374E-4</v>
+      </c>
+      <c r="U1049">
+        <f t="shared" si="136"/>
+        <v>-26.145894653363669</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1050" s="1">
+        <v>45953</v>
+      </c>
+      <c r="B1050">
+        <v>1.0470000505447388</v>
+      </c>
+      <c r="C1050">
+        <v>1.0540000200271606</v>
+      </c>
+      <c r="D1050">
+        <v>1.0369999408721924</v>
+      </c>
+      <c r="E1050">
+        <v>1.0529999732971191</v>
+      </c>
+      <c r="F1050">
+        <v>1384412</v>
+      </c>
+      <c r="G1050">
+        <v>13844.1201171875</v>
+      </c>
+      <c r="H1050">
+        <f t="shared" si="111"/>
+        <v>1048</v>
+      </c>
+      <c r="I1050">
+        <f>SUM($F$3:F1050)/H1050</f>
+        <v>4324280.9389611166</v>
+      </c>
+      <c r="N1050">
+        <f t="shared" si="137"/>
+        <v>1.1109999418258667</v>
+      </c>
+      <c r="O1050">
+        <f t="shared" si="138"/>
+        <v>1.0019999742507935</v>
+      </c>
+      <c r="P1050">
+        <f t="shared" si="110"/>
+        <v>1.0479999780654907</v>
+      </c>
+      <c r="Q1050">
+        <f t="shared" si="132"/>
+        <v>1.0570476140294756</v>
+      </c>
+      <c r="R1050">
+        <f t="shared" si="133"/>
+        <v>-9.0476359639848347E-3</v>
+      </c>
+      <c r="S1050">
+        <f t="shared" si="134"/>
+        <v>1.8061223078747166E-2</v>
+      </c>
+      <c r="T1050">
+        <f t="shared" si="135"/>
+        <v>2.7091834618120749E-4</v>
+      </c>
+      <c r="U1050">
+        <f t="shared" si="136"/>
+        <v>-33.396173022306868</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1051" s="1">
+        <v>45954</v>
+      </c>
+      <c r="B1051">
+        <v>1.0529999732971191</v>
+      </c>
+      <c r="C1051">
+        <v>1.0750000476837158</v>
+      </c>
+      <c r="D1051">
+        <v>1.0529999732971191</v>
+      </c>
+      <c r="E1051">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="F1051">
+        <v>2393104</v>
+      </c>
+      <c r="G1051">
+        <v>23931.0390625</v>
+      </c>
+      <c r="H1051">
+        <f t="shared" si="111"/>
+        <v>1049</v>
+      </c>
+      <c r="I1051">
+        <f>SUM($F$3:F1051)/H1051</f>
+        <v>4322439.9695245475</v>
+      </c>
+      <c r="N1051">
+        <f t="shared" si="137"/>
+        <v>1.1109999418258667</v>
+      </c>
+      <c r="O1051">
+        <f t="shared" si="138"/>
+        <v>1.0019999742507935</v>
+      </c>
+      <c r="P1051">
+        <f t="shared" si="110"/>
+        <v>1.0669999917348225</v>
+      </c>
+      <c r="Q1051">
+        <f t="shared" si="132"/>
+        <v>1.0568333296548753</v>
+      </c>
+      <c r="R1051">
+        <f t="shared" si="133"/>
+        <v>1.0166662079947208E-2</v>
+      </c>
+      <c r="S1051">
+        <f t="shared" si="134"/>
+        <v>1.7785714597118148E-2</v>
+      </c>
+      <c r="T1051">
+        <f t="shared" si="135"/>
+        <v>2.6678571895677222E-4</v>
+      </c>
+      <c r="U1051">
+        <f t="shared" si="136"/>
+        <v>38.107969645835993</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1052" s="1">
+        <v>45957</v>
+      </c>
+      <c r="B1052">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C1052">
+        <v>1.0920000076293945</v>
+      </c>
+      <c r="D1052">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="E1052">
+        <v>1.0870000123977661</v>
+      </c>
+      <c r="F1052">
+        <v>2402725</v>
+      </c>
+      <c r="G1052">
+        <v>24027.25</v>
+      </c>
+      <c r="H1052">
+        <f t="shared" si="111"/>
+        <v>1050</v>
+      </c>
+      <c r="I1052">
+        <f>SUM($F$3:F1052)/H1052</f>
+        <v>4320611.6695535714</v>
+      </c>
+      <c r="N1052">
+        <f t="shared" si="137"/>
+        <v>1.1109999418258667</v>
+      </c>
+      <c r="O1052">
+        <f t="shared" si="138"/>
+        <v>1.0019999742507935</v>
+      </c>
+      <c r="P1052">
+        <f t="shared" si="110"/>
+        <v>1.0839999914169312</v>
+      </c>
+      <c r="Q1052">
+        <f t="shared" si="132"/>
+        <v>1.05719047217142</v>
+      </c>
+      <c r="R1052">
+        <f t="shared" si="133"/>
+        <v>2.6809519245511115E-2</v>
+      </c>
+      <c r="S1052">
+        <f t="shared" si="134"/>
+        <v>1.8244897832675817E-2</v>
+      </c>
+      <c r="T1052">
+        <f t="shared" si="135"/>
+        <v>2.7367346749013725E-4</v>
+      </c>
+      <c r="U1052">
+        <f t="shared" si="136"/>
+        <v>97.961704111770672</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1053" s="1">
+        <v>45958</v>
+      </c>
+      <c r="B1053">
+        <v>1.0850000381469727</v>
+      </c>
+      <c r="C1053">
+        <v>1.0959999561309814</v>
+      </c>
+      <c r="D1053">
+        <v>1.0829999446868896</v>
+      </c>
+      <c r="E1053">
+        <v>1.0839999914169312</v>
+      </c>
+      <c r="F1053">
+        <v>1967809</v>
+      </c>
+      <c r="G1053">
+        <v>19678.08984375</v>
+      </c>
+      <c r="H1053">
+        <f t="shared" si="111"/>
+        <v>1051</v>
+      </c>
+      <c r="I1053">
+        <f>SUM($F$3:F1053)/H1053</f>
+        <v>4318373.0371372504</v>
+      </c>
+      <c r="N1053">
+        <f t="shared" si="137"/>
+        <v>1.1109999418258667</v>
+      </c>
+      <c r="O1053">
+        <f t="shared" si="138"/>
+        <v>1.0019999742507935</v>
+      </c>
+      <c r="P1053">
+        <f t="shared" si="110"/>
+        <v>1.0876666307449341</v>
+      </c>
+      <c r="Q1053">
+        <f t="shared" si="132"/>
+        <v>1.057285706202189</v>
+      </c>
+      <c r="R1053">
+        <f t="shared" si="133"/>
+        <v>3.0380924542745102E-2</v>
+      </c>
+      <c r="S1053">
+        <f t="shared" si="134"/>
+        <v>1.8367341586521646E-2</v>
+      </c>
+      <c r="T1053">
+        <f t="shared" si="135"/>
+        <v>2.7551012379782466E-4</v>
+      </c>
+      <c r="U1053">
+        <f t="shared" si="136"/>
+        <v>110.27153602906907</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1054" s="1">
+        <v>45959</v>
+      </c>
+      <c r="B1054">
+        <v>1.0889999866485596</v>
+      </c>
+      <c r="C1054">
+        <v>1.1050000190734863</v>
+      </c>
+      <c r="D1054">
+        <v>1.0889999866485596</v>
+      </c>
+      <c r="E1054">
+        <v>1.1050000190734863</v>
+      </c>
+      <c r="F1054">
+        <v>1336204</v>
+      </c>
+      <c r="G1054">
+        <v>13362.0400390625</v>
+      </c>
+      <c r="H1054">
+        <f t="shared" si="111"/>
+        <v>1052</v>
+      </c>
+      <c r="I1054">
+        <f>SUM($F$3:F1054)/H1054</f>
+        <v>4315538.2756951042</v>
+      </c>
+      <c r="N1054">
+        <f t="shared" si="137"/>
+        <v>1.1109999418258667</v>
+      </c>
+      <c r="O1054">
+        <f t="shared" si="138"/>
+        <v>1.0019999742507935</v>
+      </c>
+      <c r="P1054">
+        <f t="shared" si="110"/>
+        <v>1.099666674931844</v>
+      </c>
+      <c r="Q1054">
+        <f t="shared" si="132"/>
+        <v>1.057261898404076</v>
+      </c>
+      <c r="R1054">
+        <f t="shared" si="133"/>
+        <v>4.2404776527767973E-2</v>
+      </c>
+      <c r="S1054">
+        <f t="shared" si="134"/>
+        <v>1.8336731560376233E-2</v>
+      </c>
+      <c r="T1054">
+        <f t="shared" si="135"/>
+        <v>2.7505097340564352E-4</v>
+      </c>
+      <c r="U1054">
+        <f t="shared" si="136"/>
+        <v>154.17061064252138</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1055" s="1">
+        <v>45960</v>
+      </c>
+      <c r="B1055">
+        <v>1.1050000190734863</v>
+      </c>
+      <c r="C1055">
+        <v>1.128000020980835</v>
+      </c>
+      <c r="D1055">
+        <v>1.0920000076293945</v>
+      </c>
+      <c r="E1055">
+        <v>1.0920000076293945</v>
+      </c>
+      <c r="F1055">
+        <v>1882702</v>
+      </c>
+      <c r="G1055">
+        <v>18827.01953125</v>
+      </c>
+      <c r="H1055">
+        <f t="shared" si="111"/>
+        <v>1053</v>
+      </c>
+      <c r="I1055">
+        <f>SUM($F$3:F1055)/H1055</f>
+        <v>4313227.8898682334</v>
+      </c>
+      <c r="N1055">
+        <f t="shared" si="137"/>
+        <v>1.128000020980835</v>
+      </c>
+      <c r="O1055">
+        <f t="shared" si="138"/>
+        <v>1.0019999742507935</v>
+      </c>
+      <c r="P1055">
+        <f t="shared" si="110"/>
+        <v>1.1040000120798747</v>
+      </c>
+      <c r="Q1055">
+        <f t="shared" si="132"/>
+        <v>1.0592380904016041</v>
+      </c>
+      <c r="R1055">
+        <f t="shared" si="133"/>
+        <v>4.4761921678270644E-2</v>
+      </c>
+      <c r="S1055">
+        <f t="shared" si="134"/>
+        <v>2.0877549842912329E-2</v>
+      </c>
+      <c r="T1055">
+        <f t="shared" si="135"/>
+        <v>3.1316324764368495E-4</v>
+      </c>
+      <c r="U1055">
+        <f t="shared" si="136"/>
+        <v>142.93478565914114</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U1055"/>
+  <dimension ref="A1:U1056"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1040" workbookViewId="0">
-      <selection activeCell="A1056" sqref="A1056"/>
+    <sheetView tabSelected="1" topLeftCell="A1044" workbookViewId="0">
+      <selection activeCell="A1057" sqref="A1057"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3863,7 +3863,7 @@
         <v>14.647016011645238</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44447</v>
       </c>
@@ -3893,6 +3893,12 @@
         <f>SUM($F$3:F55)/H55</f>
         <v>19623489.83018868</v>
       </c>
+      <c r="K55" s="2">
+        <v>45989</v>
+      </c>
+      <c r="L55" s="2">
+        <v>45964</v>
+      </c>
       <c r="N55">
         <f t="shared" si="11"/>
         <v>0.98799999999999999</v>
@@ -52853,7 +52859,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P1055" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P1056" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52963,7 +52969,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H1055" si="111">H833+1</f>
+        <f t="shared" ref="H834:H1056" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -65772,23 +65778,23 @@
         <v>1.0699999729792278</v>
       </c>
       <c r="Q1037">
-        <f t="shared" ref="Q1037:Q1055" si="132">SUM(P1024:P1037)/14</f>
+        <f t="shared" ref="Q1037:Q1056" si="132">SUM(P1024:P1037)/14</f>
         <v>1.0372619047051386</v>
       </c>
       <c r="R1037">
-        <f t="shared" ref="R1037:R1055" si="133">P1037-Q1037</f>
+        <f t="shared" ref="R1037:R1056" si="133">P1037-Q1037</f>
         <v>3.2738068274089205E-2</v>
       </c>
       <c r="S1037">
-        <f t="shared" ref="S1037:S1055" si="134">AVEDEV(P1024:P1037)</f>
+        <f t="shared" ref="S1037:S1056" si="134">AVEDEV(P1024:P1037)</f>
         <v>2.2748304062149134E-2</v>
       </c>
       <c r="T1037">
-        <f t="shared" ref="T1037:T1055" si="135">0.015*S1037</f>
+        <f t="shared" ref="T1037:T1056" si="135">0.015*S1037</f>
         <v>3.4122456093223696E-4</v>
       </c>
       <c r="U1037">
-        <f t="shared" ref="U1037:U1055" si="136">R1037/T1037</f>
+        <f t="shared" ref="U1037:U1056" si="136">R1037/T1037</f>
         <v>95.942883433266658</v>
       </c>
     </row>
@@ -65949,11 +65955,11 @@
         <v>4341770.9518605489</v>
       </c>
       <c r="N1040">
-        <f t="shared" ref="N1040:N1055" si="137">IF(A1040&lt;&gt;$K$54,MAX(N1039,VLOOKUP(A1040,A:C,3)),)</f>
+        <f t="shared" ref="N1040:N1056" si="137">IF(A1040&lt;&gt;$K$54,MAX(N1039,VLOOKUP(A1040,A:C,3)),)</f>
         <v>1.1109999418258667</v>
       </c>
       <c r="O1040">
-        <f t="shared" ref="O1040:O1055" si="138">IF(A1040&lt;&gt;$K$54,MIN(O1039,VLOOKUP(A1040,A:D,4)),)</f>
+        <f t="shared" ref="O1040:O1056" si="138">IF(A1040&lt;&gt;$K$54,MIN(O1039,VLOOKUP(A1040,A:D,4)),)</f>
         <v>1.0889999866485596</v>
       </c>
       <c r="P1040">
@@ -66924,6 +66930,69 @@
       <c r="U1055">
         <f t="shared" si="136"/>
         <v>142.93478565914114</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1056" s="1">
+        <v>45961</v>
+      </c>
+      <c r="B1056">
+        <v>1.0920000076293945</v>
+      </c>
+      <c r="C1056">
+        <v>1.0959999561309814</v>
+      </c>
+      <c r="D1056">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="E1056">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="F1056">
+        <v>2090603.875</v>
+      </c>
+      <c r="G1056">
+        <v>20906.0390625</v>
+      </c>
+      <c r="H1056">
+        <f t="shared" si="111"/>
+        <v>1054</v>
+      </c>
+      <c r="I1056">
+        <f>SUM($F$3:F1056)/H1056</f>
+        <v>4311119.1384309772</v>
+      </c>
+      <c r="N1056">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="O1056">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="P1056">
+        <f t="shared" si="110"/>
+        <v>1.0806666215260823</v>
+      </c>
+      <c r="Q1056">
+        <f t="shared" si="132"/>
+        <v>1.0623333255449932</v>
+      </c>
+      <c r="R1056">
+        <f t="shared" si="133"/>
+        <v>1.8333295981089126E-2</v>
+      </c>
+      <c r="S1056">
+        <f t="shared" si="134"/>
+        <v>2.1285709880647201E-2</v>
+      </c>
+      <c r="T1056">
+        <f t="shared" si="135"/>
+        <v>3.1928564820970801E-4</v>
+      </c>
+      <c r="U1056">
+        <f t="shared" si="136"/>
+        <v>57.419730839413582</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U1056"/>
+  <dimension ref="A1:U1075"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1044" workbookViewId="0">
-      <selection activeCell="A1057" sqref="A1057"/>
+    <sheetView tabSelected="1" topLeftCell="A1056" workbookViewId="0">
+      <selection activeCell="A1076" sqref="A1076"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -52859,7 +52859,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P1056" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P1075" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52969,7 +52969,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H1056" si="111">H833+1</f>
+        <f t="shared" ref="H834:H1075" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -65778,23 +65778,23 @@
         <v>1.0699999729792278</v>
       </c>
       <c r="Q1037">
-        <f t="shared" ref="Q1037:Q1056" si="132">SUM(P1024:P1037)/14</f>
+        <f t="shared" ref="Q1037:Q1075" si="132">SUM(P1024:P1037)/14</f>
         <v>1.0372619047051386</v>
       </c>
       <c r="R1037">
-        <f t="shared" ref="R1037:R1056" si="133">P1037-Q1037</f>
+        <f t="shared" ref="R1037:R1075" si="133">P1037-Q1037</f>
         <v>3.2738068274089205E-2</v>
       </c>
       <c r="S1037">
-        <f t="shared" ref="S1037:S1056" si="134">AVEDEV(P1024:P1037)</f>
+        <f t="shared" ref="S1037:S1075" si="134">AVEDEV(P1024:P1037)</f>
         <v>2.2748304062149134E-2</v>
       </c>
       <c r="T1037">
-        <f t="shared" ref="T1037:T1056" si="135">0.015*S1037</f>
+        <f t="shared" ref="T1037:T1075" si="135">0.015*S1037</f>
         <v>3.4122456093223696E-4</v>
       </c>
       <c r="U1037">
-        <f t="shared" ref="U1037:U1056" si="136">R1037/T1037</f>
+        <f t="shared" ref="U1037:U1075" si="136">R1037/T1037</f>
         <v>95.942883433266658</v>
       </c>
     </row>
@@ -65955,11 +65955,11 @@
         <v>4341770.9518605489</v>
       </c>
       <c r="N1040">
-        <f t="shared" ref="N1040:N1056" si="137">IF(A1040&lt;&gt;$K$54,MAX(N1039,VLOOKUP(A1040,A:C,3)),)</f>
+        <f t="shared" ref="N1040:N1055" si="137">IF(A1040&lt;&gt;$K$54,MAX(N1039,VLOOKUP(A1040,A:C,3)),)</f>
         <v>1.1109999418258667</v>
       </c>
       <c r="O1040">
-        <f t="shared" ref="O1040:O1056" si="138">IF(A1040&lt;&gt;$K$54,MIN(O1039,VLOOKUP(A1040,A:D,4)),)</f>
+        <f t="shared" ref="O1040:O1055" si="138">IF(A1040&lt;&gt;$K$54,MIN(O1039,VLOOKUP(A1040,A:D,4)),)</f>
         <v>1.0889999866485596</v>
       </c>
       <c r="P1040">
@@ -66963,12 +66963,12 @@
         <v>4311119.1384309772</v>
       </c>
       <c r="N1056">
-        <f t="shared" si="137"/>
-        <v>0</v>
+        <f>VLOOKUP(L55,A:C,3)</f>
+        <v>1.0789999961853027</v>
       </c>
       <c r="O1056">
-        <f t="shared" si="138"/>
-        <v>0</v>
+        <f>VLOOKUP(L55,A:D,4)</f>
+        <v>1.0570000410079956</v>
       </c>
       <c r="P1056">
         <f t="shared" si="110"/>
@@ -66993,6 +66993,1203 @@
       <c r="U1056">
         <f t="shared" si="136"/>
         <v>57.419730839413582</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1057" s="1">
+        <v>45964</v>
+      </c>
+      <c r="B1057">
+        <v>1.0789999961853027</v>
+      </c>
+      <c r="C1057">
+        <v>1.0789999961853027</v>
+      </c>
+      <c r="D1057">
+        <v>1.0570000410079956</v>
+      </c>
+      <c r="E1057">
+        <v>1.0740000009536743</v>
+      </c>
+      <c r="F1057">
+        <v>1557401</v>
+      </c>
+      <c r="G1057">
+        <v>15574.009765625</v>
+      </c>
+      <c r="H1057">
+        <f t="shared" si="111"/>
+        <v>1055</v>
+      </c>
+      <c r="I1057">
+        <f>SUM($F$3:F1057)/H1057</f>
+        <v>4308508.9790580571</v>
+      </c>
+      <c r="N1057">
+        <f t="shared" ref="N1057:N1075" si="139">IF(A1057&lt;&gt;$K$55,MAX(N1056,VLOOKUP(A1057,A:C,3)),)</f>
+        <v>1.0789999961853027</v>
+      </c>
+      <c r="O1057">
+        <f t="shared" ref="O1057:O1075" si="140">IF(A1057&lt;&gt;$K$55,MIN(O1056,VLOOKUP(A1057,A:D,4)),)</f>
+        <v>1.0570000410079956</v>
+      </c>
+      <c r="P1057">
+        <f t="shared" si="110"/>
+        <v>1.0700000127156575</v>
+      </c>
+      <c r="Q1057">
+        <f t="shared" si="132"/>
+        <v>1.0643571359770641</v>
+      </c>
+      <c r="R1057">
+        <f t="shared" si="133"/>
+        <v>5.6428767385934275E-3</v>
+      </c>
+      <c r="S1057">
+        <f t="shared" si="134"/>
+        <v>2.0357140472957051E-2</v>
+      </c>
+      <c r="T1057">
+        <f t="shared" si="135"/>
+        <v>3.0535710709435576E-4</v>
+      </c>
+      <c r="U1057">
+        <f t="shared" si="136"/>
+        <v>18.479598501205903</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1058" s="1">
+        <v>45965</v>
+      </c>
+      <c r="B1058">
+        <v>1.0709999799728394</v>
+      </c>
+      <c r="C1058">
+        <v>1.0759999752044678</v>
+      </c>
+      <c r="D1058">
+        <v>1.0529999732971191</v>
+      </c>
+      <c r="E1058">
+        <v>1.0570000410079956</v>
+      </c>
+      <c r="F1058">
+        <v>1204800</v>
+      </c>
+      <c r="G1058">
+        <v>12048</v>
+      </c>
+      <c r="H1058">
+        <f t="shared" si="111"/>
+        <v>1056</v>
+      </c>
+      <c r="I1058">
+        <f>SUM($F$3:F1058)/H1058</f>
+        <v>4305569.8607066758</v>
+      </c>
+      <c r="N1058">
+        <f t="shared" si="139"/>
+        <v>1.0789999961853027</v>
+      </c>
+      <c r="O1058">
+        <f t="shared" si="140"/>
+        <v>1.0529999732971191</v>
+      </c>
+      <c r="P1058">
+        <f t="shared" si="110"/>
+        <v>1.0619999965031941</v>
+      </c>
+      <c r="Q1058">
+        <f t="shared" si="132"/>
+        <v>1.0658095195179895</v>
+      </c>
+      <c r="R1058">
+        <f t="shared" si="133"/>
+        <v>-3.809523014795424E-3</v>
+      </c>
+      <c r="S1058">
+        <f t="shared" si="134"/>
+        <v>1.890475693203153E-2</v>
+      </c>
+      <c r="T1058">
+        <f t="shared" si="135"/>
+        <v>2.8357135398047296E-4</v>
+      </c>
+      <c r="U1058">
+        <f t="shared" si="136"/>
+        <v>-13.434089731989474</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1059" s="1">
+        <v>45966</v>
+      </c>
+      <c r="B1059">
+        <v>1.0529999732971191</v>
+      </c>
+      <c r="C1059">
+        <v>1.0670000314712524</v>
+      </c>
+      <c r="D1059">
+        <v>1.0449999570846558</v>
+      </c>
+      <c r="E1059">
+        <v>1.062999963760376</v>
+      </c>
+      <c r="F1059">
+        <v>2218015</v>
+      </c>
+      <c r="G1059">
+        <v>22180.150390625</v>
+      </c>
+      <c r="H1059">
+        <f t="shared" si="111"/>
+        <v>1057</v>
+      </c>
+      <c r="I1059">
+        <f>SUM($F$3:F1059)/H1059</f>
+        <v>4303594.8797599338</v>
+      </c>
+      <c r="N1059">
+        <f t="shared" si="139"/>
+        <v>1.0789999961853027</v>
+      </c>
+      <c r="O1059">
+        <f t="shared" si="140"/>
+        <v>1.0449999570846558</v>
+      </c>
+      <c r="P1059">
+        <f t="shared" si="110"/>
+        <v>1.0583333174387615</v>
+      </c>
+      <c r="Q1059">
+        <f t="shared" si="132"/>
+        <v>1.066166659196218</v>
+      </c>
+      <c r="R1059">
+        <f t="shared" si="133"/>
+        <v>-7.8333417574565356E-3</v>
+      </c>
+      <c r="S1059">
+        <f t="shared" si="134"/>
+        <v>1.854761725380305E-2</v>
+      </c>
+      <c r="T1059">
+        <f t="shared" si="135"/>
+        <v>2.7821425880704577E-4</v>
+      </c>
+      <c r="U1059">
+        <f t="shared" si="136"/>
+        <v>-28.155788244086057</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1060" s="1">
+        <v>45967</v>
+      </c>
+      <c r="B1060">
+        <v>1.062999963760376</v>
+      </c>
+      <c r="C1060">
+        <v>1.0820000171661377</v>
+      </c>
+      <c r="D1060">
+        <v>1.062999963760376</v>
+      </c>
+      <c r="E1060">
+        <v>1.0800000429153442</v>
+      </c>
+      <c r="F1060">
+        <v>1173015</v>
+      </c>
+      <c r="G1060">
+        <v>11730.150390625</v>
+      </c>
+      <c r="H1060">
+        <f t="shared" si="111"/>
+        <v>1058</v>
+      </c>
+      <c r="I1060">
+        <f>SUM($F$3:F1060)/H1060</f>
+        <v>4300635.9195711249</v>
+      </c>
+      <c r="N1060">
+        <f t="shared" si="139"/>
+        <v>1.0820000171661377</v>
+      </c>
+      <c r="O1060">
+        <f t="shared" si="140"/>
+        <v>1.0449999570846558</v>
+      </c>
+      <c r="P1060">
+        <f t="shared" si="110"/>
+        <v>1.0750000079472859</v>
+      </c>
+      <c r="Q1060">
+        <f t="shared" si="132"/>
+        <v>1.0693571340470087</v>
+      </c>
+      <c r="R1060">
+        <f t="shared" si="133"/>
+        <v>5.6428739002771788E-3</v>
+      </c>
+      <c r="S1060">
+        <f t="shared" si="134"/>
+        <v>1.6500001861935547E-2</v>
+      </c>
+      <c r="T1060">
+        <f t="shared" si="135"/>
+        <v>2.4750002792903322E-4</v>
+      </c>
+      <c r="U1060">
+        <f t="shared" si="136"/>
+        <v>22.799487933371811</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1061" s="1">
+        <v>45968</v>
+      </c>
+      <c r="B1061">
+        <v>1.0800000429153442</v>
+      </c>
+      <c r="C1061">
+        <v>1.0809999704360962</v>
+      </c>
+      <c r="D1061">
+        <v>1.0690000057220459</v>
+      </c>
+      <c r="E1061">
+        <v>1.0750000476837158</v>
+      </c>
+      <c r="F1061">
+        <v>1008500</v>
+      </c>
+      <c r="G1061">
+        <v>10085</v>
+      </c>
+      <c r="H1061">
+        <f t="shared" si="111"/>
+        <v>1059</v>
+      </c>
+      <c r="I1061">
+        <f>SUM($F$3:F1061)/H1061</f>
+        <v>4297527.1982117565</v>
+      </c>
+      <c r="N1061">
+        <f t="shared" si="139"/>
+        <v>1.0820000171661377</v>
+      </c>
+      <c r="O1061">
+        <f t="shared" si="140"/>
+        <v>1.0449999570846558</v>
+      </c>
+      <c r="P1061">
+        <f t="shared" si="110"/>
+        <v>1.0750000079472859</v>
+      </c>
+      <c r="Q1061">
+        <f t="shared" si="132"/>
+        <v>1.0723333245231994</v>
+      </c>
+      <c r="R1061">
+        <f t="shared" si="133"/>
+        <v>2.6666834240864912E-3</v>
+      </c>
+      <c r="S1061">
+        <f t="shared" si="134"/>
+        <v>1.4238096418834858E-2</v>
+      </c>
+      <c r="T1061">
+        <f t="shared" si="135"/>
+        <v>2.1357144628252286E-4</v>
+      </c>
+      <c r="U1061">
+        <f t="shared" si="136"/>
+        <v>12.486142087359704</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1062" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B1062">
+        <v>1.0800000429153442</v>
+      </c>
+      <c r="C1062">
+        <v>1.0800000429153442</v>
+      </c>
+      <c r="D1062">
+        <v>1.0640000104904175</v>
+      </c>
+      <c r="E1062">
+        <v>1.0750000476837158</v>
+      </c>
+      <c r="F1062">
+        <v>1159800</v>
+      </c>
+      <c r="G1062">
+        <v>11598</v>
+      </c>
+      <c r="H1062">
+        <f t="shared" si="111"/>
+        <v>1060</v>
+      </c>
+      <c r="I1062">
+        <f>SUM($F$3:F1062)/H1062</f>
+        <v>4294567.078213443</v>
+      </c>
+      <c r="N1062">
+        <f t="shared" si="139"/>
+        <v>1.0820000171661377</v>
+      </c>
+      <c r="O1062">
+        <f t="shared" si="140"/>
+        <v>1.0449999570846558</v>
+      </c>
+      <c r="P1062">
+        <f t="shared" si="110"/>
+        <v>1.0730000336964924</v>
+      </c>
+      <c r="Q1062">
+        <f t="shared" si="132"/>
+        <v>1.0739999952770416</v>
+      </c>
+      <c r="R1062">
+        <f t="shared" si="133"/>
+        <v>-9.9996158054915796E-4</v>
+      </c>
+      <c r="S1062">
+        <f t="shared" si="134"/>
+        <v>1.2571425664992555E-2</v>
+      </c>
+      <c r="T1062">
+        <f t="shared" si="135"/>
+        <v>1.8857138497488832E-4</v>
+      </c>
+      <c r="U1062">
+        <f t="shared" si="136"/>
+        <v>-5.3028277894990321</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1063" s="1">
+        <v>45972</v>
+      </c>
+      <c r="B1063">
+        <v>1.0740000009536743</v>
+      </c>
+      <c r="C1063">
+        <v>1.093000054359436</v>
+      </c>
+      <c r="D1063">
+        <v>1.0609999895095825</v>
+      </c>
+      <c r="E1063">
+        <v>1.0609999895095825</v>
+      </c>
+      <c r="F1063">
+        <v>1146100</v>
+      </c>
+      <c r="G1063">
+        <v>11461</v>
+      </c>
+      <c r="H1063">
+        <f t="shared" si="111"/>
+        <v>1061</v>
+      </c>
+      <c r="I1063">
+        <f>SUM($F$3:F1063)/H1063</f>
+        <v>4291599.6257363334</v>
+      </c>
+      <c r="N1063">
+        <f t="shared" si="139"/>
+        <v>1.093000054359436</v>
+      </c>
+      <c r="O1063">
+        <f t="shared" si="140"/>
+        <v>1.0449999570846558</v>
+      </c>
+      <c r="P1063">
+        <f t="shared" si="110"/>
+        <v>1.071666677792867</v>
+      </c>
+      <c r="Q1063">
+        <f t="shared" si="132"/>
+        <v>1.0754285681815376</v>
+      </c>
+      <c r="R1063">
+        <f t="shared" si="133"/>
+        <v>-3.7618903886706967E-3</v>
+      </c>
+      <c r="S1063">
+        <f t="shared" si="134"/>
+        <v>1.1265298541711386E-2</v>
+      </c>
+      <c r="T1063">
+        <f t="shared" si="135"/>
+        <v>1.6897947812567079E-4</v>
+      </c>
+      <c r="U1063">
+        <f t="shared" si="136"/>
+        <v>-22.262409793175962</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1064" s="1">
+        <v>45973</v>
+      </c>
+      <c r="B1064">
+        <v>1.0579999685287476</v>
+      </c>
+      <c r="C1064">
+        <v>1.065000057220459</v>
+      </c>
+      <c r="D1064">
+        <v>1.0520000457763672</v>
+      </c>
+      <c r="E1064">
+        <v>1.062000036239624</v>
+      </c>
+      <c r="F1064">
+        <v>1059500</v>
+      </c>
+      <c r="G1064">
+        <v>10595</v>
+      </c>
+      <c r="H1064">
+        <f t="shared" si="111"/>
+        <v>1062</v>
+      </c>
+      <c r="I1064">
+        <f>SUM($F$3:F1064)/H1064</f>
+        <v>4288556.2174258474</v>
+      </c>
+      <c r="N1064">
+        <f t="shared" si="139"/>
+        <v>1.093000054359436</v>
+      </c>
+      <c r="O1064">
+        <f t="shared" si="140"/>
+        <v>1.0449999570846558</v>
+      </c>
+      <c r="P1064">
+        <f t="shared" si="110"/>
+        <v>1.0596667130788167</v>
+      </c>
+      <c r="Q1064">
+        <f t="shared" si="132"/>
+        <v>1.0762619063967751</v>
+      </c>
+      <c r="R1064">
+        <f t="shared" si="133"/>
+        <v>-1.6595193317958445E-2</v>
+      </c>
+      <c r="S1064">
+        <f t="shared" si="134"/>
+        <v>1.0670056959398806E-2</v>
+      </c>
+      <c r="T1064">
+        <f t="shared" si="135"/>
+        <v>1.6005085439098208E-4</v>
+      </c>
+      <c r="U1064">
+        <f t="shared" si="136"/>
+        <v>-103.6870023662522</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1065" s="1">
+        <v>45974</v>
+      </c>
+      <c r="B1065">
+        <v>1.0570000410079956</v>
+      </c>
+      <c r="C1065">
+        <v>1.0779999494552612</v>
+      </c>
+      <c r="D1065">
+        <v>1.0570000410079956</v>
+      </c>
+      <c r="E1065">
+        <v>1.0779999494552612</v>
+      </c>
+      <c r="F1065">
+        <v>1854510</v>
+      </c>
+      <c r="G1065">
+        <v>18545.099609375</v>
+      </c>
+      <c r="H1065">
+        <f t="shared" si="111"/>
+        <v>1063</v>
+      </c>
+      <c r="I1065">
+        <f>SUM($F$3:F1065)/H1065</f>
+        <v>4286266.4279456725</v>
+      </c>
+      <c r="N1065">
+        <f t="shared" si="139"/>
+        <v>1.093000054359436</v>
+      </c>
+      <c r="O1065">
+        <f t="shared" si="140"/>
+        <v>1.0449999570846558</v>
+      </c>
+      <c r="P1065">
+        <f t="shared" si="110"/>
+        <v>1.0709999799728394</v>
+      </c>
+      <c r="Q1065">
+        <f t="shared" si="132"/>
+        <v>1.0765476198423478</v>
+      </c>
+      <c r="R1065">
+        <f t="shared" si="133"/>
+        <v>-5.5476398695084583E-3</v>
+      </c>
+      <c r="S1065">
+        <f t="shared" si="134"/>
+        <v>1.0465975926846949E-2</v>
+      </c>
+      <c r="T1065">
+        <f t="shared" si="135"/>
+        <v>1.5698963890270422E-4</v>
+      </c>
+      <c r="U1065">
+        <f t="shared" si="136"/>
+        <v>-35.337617872646099</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1066" s="1">
+        <v>45975</v>
+      </c>
+      <c r="B1066">
+        <v>1.0720000267028809</v>
+      </c>
+      <c r="C1066">
+        <v>1.0720000267028809</v>
+      </c>
+      <c r="D1066">
+        <v>1.0559999942779541</v>
+      </c>
+      <c r="E1066">
+        <v>1.0559999942779541</v>
+      </c>
+      <c r="F1066">
+        <v>1432005</v>
+      </c>
+      <c r="G1066">
+        <v>14320.0498046875</v>
+      </c>
+      <c r="H1066">
+        <f t="shared" si="111"/>
+        <v>1064</v>
+      </c>
+      <c r="I1066">
+        <f>SUM($F$3:F1066)/H1066</f>
+        <v>4283583.8514156481</v>
+      </c>
+      <c r="N1066">
+        <f t="shared" si="139"/>
+        <v>1.093000054359436</v>
+      </c>
+      <c r="O1066">
+        <f t="shared" si="140"/>
+        <v>1.0449999570846558</v>
+      </c>
+      <c r="P1066">
+        <f t="shared" si="110"/>
+        <v>1.0613333384195964</v>
+      </c>
+      <c r="Q1066">
+        <f t="shared" si="132"/>
+        <v>1.0749285731996809</v>
+      </c>
+      <c r="R1066">
+        <f t="shared" si="133"/>
+        <v>-1.3595234780084509E-2</v>
+      </c>
+      <c r="S1066">
+        <f t="shared" si="134"/>
+        <v>1.0346930854174565E-2</v>
+      </c>
+      <c r="T1066">
+        <f t="shared" si="135"/>
+        <v>1.5520396281261848E-4</v>
+      </c>
+      <c r="U1066">
+        <f t="shared" si="136"/>
+        <v>-87.595925604672644</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1067" s="1">
+        <v>45978</v>
+      </c>
+      <c r="B1067">
+        <v>1.0559999942779541</v>
+      </c>
+      <c r="C1067">
+        <v>1.0559999942779541</v>
+      </c>
+      <c r="D1067">
+        <v>1.0460000038146973</v>
+      </c>
+      <c r="E1067">
+        <v>1.0490000247955322</v>
+      </c>
+      <c r="F1067">
+        <v>1063002</v>
+      </c>
+      <c r="G1067">
+        <v>10630.01953125</v>
+      </c>
+      <c r="H1067">
+        <f t="shared" si="111"/>
+        <v>1065</v>
+      </c>
+      <c r="I1067">
+        <f>SUM($F$3:F1067)/H1067</f>
+        <v>4280559.8308978872</v>
+      </c>
+      <c r="N1067">
+        <f t="shared" si="139"/>
+        <v>1.093000054359436</v>
+      </c>
+      <c r="O1067">
+        <f t="shared" si="140"/>
+        <v>1.0449999570846558</v>
+      </c>
+      <c r="P1067">
+        <f t="shared" si="110"/>
+        <v>1.0503333409627278</v>
+      </c>
+      <c r="Q1067">
+        <f t="shared" si="132"/>
+        <v>1.0722619096438091</v>
+      </c>
+      <c r="R1067">
+        <f t="shared" si="133"/>
+        <v>-2.1928568681081284E-2</v>
+      </c>
+      <c r="S1067">
+        <f t="shared" si="134"/>
+        <v>1.0537414323715941E-2</v>
+      </c>
+      <c r="T1067">
+        <f t="shared" si="135"/>
+        <v>1.5806121485573911E-4</v>
+      </c>
+      <c r="U1067">
+        <f t="shared" si="136"/>
+        <v>-138.73465860106967</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1068" s="1">
+        <v>45979</v>
+      </c>
+      <c r="B1068">
+        <v>1.0520000457763672</v>
+      </c>
+      <c r="C1068">
+        <v>1.0540000200271606</v>
+      </c>
+      <c r="D1068">
+        <v>1.0390000343322754</v>
+      </c>
+      <c r="E1068">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="F1068">
+        <v>680700</v>
+      </c>
+      <c r="G1068">
+        <v>6807</v>
+      </c>
+      <c r="H1068">
+        <f t="shared" si="111"/>
+        <v>1066</v>
+      </c>
+      <c r="I1068">
+        <f>SUM($F$3:F1068)/H1068</f>
+        <v>4277182.8516944181</v>
+      </c>
+      <c r="N1068">
+        <f t="shared" si="139"/>
+        <v>1.093000054359436</v>
+      </c>
+      <c r="O1068">
+        <f t="shared" si="140"/>
+        <v>1.0390000343322754</v>
+      </c>
+      <c r="P1068">
+        <f t="shared" si="110"/>
+        <v>1.0453333457310994</v>
+      </c>
+      <c r="Q1068">
+        <f t="shared" si="132"/>
+        <v>1.0683809575580416</v>
+      </c>
+      <c r="R1068">
+        <f t="shared" si="133"/>
+        <v>-2.304761182694226E-2</v>
+      </c>
+      <c r="S1068">
+        <f t="shared" si="134"/>
+        <v>1.0469384744864712E-2</v>
+      </c>
+      <c r="T1068">
+        <f t="shared" si="135"/>
+        <v>1.5704077117297067E-4</v>
+      </c>
+      <c r="U1068">
+        <f t="shared" si="136"/>
+        <v>-146.76196286349577</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1069" s="1">
+        <v>45980</v>
+      </c>
+      <c r="B1069">
+        <v>1.0470000505447388</v>
+      </c>
+      <c r="C1069">
+        <v>1.0529999732971191</v>
+      </c>
+      <c r="D1069">
+        <v>1.0420000553131104</v>
+      </c>
+      <c r="E1069">
+        <v>1.0460000038146973</v>
+      </c>
+      <c r="F1069">
+        <v>775203</v>
+      </c>
+      <c r="G1069">
+        <v>7752.02978515625</v>
+      </c>
+      <c r="H1069">
+        <f t="shared" si="111"/>
+        <v>1067</v>
+      </c>
+      <c r="I1069">
+        <f>SUM($F$3:F1069)/H1069</f>
+        <v>4273900.7712335987</v>
+      </c>
+      <c r="N1069">
+        <f t="shared" si="139"/>
+        <v>1.093000054359436</v>
+      </c>
+      <c r="O1069">
+        <f t="shared" si="140"/>
+        <v>1.0390000343322754</v>
+      </c>
+      <c r="P1069">
+        <f t="shared" si="110"/>
+        <v>1.0470000108083088</v>
+      </c>
+      <c r="Q1069">
+        <f t="shared" si="132"/>
+        <v>1.0643095288957869</v>
+      </c>
+      <c r="R1069">
+        <f t="shared" si="133"/>
+        <v>-1.7309518087478049E-2</v>
+      </c>
+      <c r="S1069">
+        <f t="shared" si="134"/>
+        <v>9.4523770468575453E-3</v>
+      </c>
+      <c r="T1069">
+        <f t="shared" si="135"/>
+        <v>1.4178565570286317E-4</v>
+      </c>
+      <c r="U1069">
+        <f t="shared" si="136"/>
+        <v>-122.08229387994787</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1070" s="1">
+        <v>45981</v>
+      </c>
+      <c r="B1070">
+        <v>1.0549999475479126</v>
+      </c>
+      <c r="C1070">
+        <v>1.0559999942779541</v>
+      </c>
+      <c r="D1070">
+        <v>1.0369999408721924</v>
+      </c>
+      <c r="E1070">
+        <v>1.0390000343322754</v>
+      </c>
+      <c r="F1070">
+        <v>777900</v>
+      </c>
+      <c r="G1070">
+        <v>7779</v>
+      </c>
+      <c r="H1070">
+        <f t="shared" si="111"/>
+        <v>1068</v>
+      </c>
+      <c r="I1070">
+        <f>SUM($F$3:F1070)/H1070</f>
+        <v>4270627.3622717699</v>
+      </c>
+      <c r="N1070">
+        <f t="shared" si="139"/>
+        <v>1.093000054359436</v>
+      </c>
+      <c r="O1070">
+        <f t="shared" si="140"/>
+        <v>1.0369999408721924</v>
+      </c>
+      <c r="P1070">
+        <f t="shared" si="110"/>
+        <v>1.0439999898274739</v>
+      </c>
+      <c r="Q1070">
+        <f t="shared" si="132"/>
+        <v>1.0616904837744576</v>
+      </c>
+      <c r="R1070">
+        <f t="shared" si="133"/>
+        <v>-1.7690493946983743E-2</v>
+      </c>
+      <c r="S1070">
+        <f t="shared" si="134"/>
+        <v>9.4047614506312625E-3</v>
+      </c>
+      <c r="T1070">
+        <f t="shared" si="135"/>
+        <v>1.4107142175946892E-4</v>
+      </c>
+      <c r="U1070">
+        <f t="shared" si="136"/>
+        <v>-125.40097580604649</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1071" s="1">
+        <v>45982</v>
+      </c>
+      <c r="B1071">
+        <v>1.0240000486373901</v>
+      </c>
+      <c r="C1071">
+        <v>1.0390000343322754</v>
+      </c>
+      <c r="D1071">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="E1071">
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="F1071">
+        <v>1789801</v>
+      </c>
+      <c r="G1071">
+        <v>17898.009765625</v>
+      </c>
+      <c r="H1071">
+        <f t="shared" si="111"/>
+        <v>1069</v>
+      </c>
+      <c r="I1071">
+        <f>SUM($F$3:F1071)/H1071</f>
+        <v>4268306.6640844243</v>
+      </c>
+      <c r="N1071">
+        <f t="shared" si="139"/>
+        <v>1.093000054359436</v>
+      </c>
+      <c r="O1071">
+        <f t="shared" si="140"/>
+        <v>1.0089999437332153</v>
+      </c>
+      <c r="P1071">
+        <f t="shared" si="110"/>
+        <v>1.0189999739329021</v>
+      </c>
+      <c r="Q1071">
+        <f t="shared" si="132"/>
+        <v>1.0580476238614036</v>
+      </c>
+      <c r="R1071">
+        <f t="shared" si="133"/>
+        <v>-3.9047649928501516E-2</v>
+      </c>
+      <c r="S1071">
+        <f t="shared" si="134"/>
+        <v>1.2081636863500913E-2</v>
+      </c>
+      <c r="T1071">
+        <f t="shared" si="135"/>
+        <v>1.8122455295251368E-4</v>
+      </c>
+      <c r="U1071">
+        <f t="shared" si="136"/>
+        <v>-215.46556077714914</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1072" s="1">
+        <v>45985</v>
+      </c>
+      <c r="B1072">
+        <v>1.0130000114440918</v>
+      </c>
+      <c r="C1072">
+        <v>1.0140000581741333</v>
+      </c>
+      <c r="D1072">
+        <v>1</v>
+      </c>
+      <c r="E1072">
+        <v>1.0080000162124634</v>
+      </c>
+      <c r="F1072">
+        <v>1834901</v>
+      </c>
+      <c r="G1072">
+        <v>18349.009765625</v>
+      </c>
+      <c r="H1072">
+        <f t="shared" si="111"/>
+        <v>1070</v>
+      </c>
+      <c r="I1072">
+        <f>SUM($F$3:F1072)/H1072</f>
+        <v>4266032.4531834116</v>
+      </c>
+      <c r="N1072">
+        <f t="shared" si="139"/>
+        <v>1.093000054359436</v>
+      </c>
+      <c r="O1072">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+      <c r="P1072">
+        <f t="shared" si="110"/>
+        <v>1.0073333581288655</v>
+      </c>
+      <c r="Q1072">
+        <f t="shared" si="132"/>
+        <v>1.0541428639775232</v>
+      </c>
+      <c r="R1072">
+        <f t="shared" si="133"/>
+        <v>-4.6809505848657729E-2</v>
+      </c>
+      <c r="S1072">
+        <f t="shared" si="134"/>
+        <v>1.5979594924822944E-2</v>
+      </c>
+      <c r="T1072">
+        <f t="shared" si="135"/>
+        <v>2.3969392387234416E-4</v>
+      </c>
+      <c r="U1072">
+        <f t="shared" si="136"/>
+        <v>-195.28866269295781</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1073" s="1">
+        <v>45986</v>
+      </c>
+      <c r="B1073">
+        <v>1.0169999599456787</v>
+      </c>
+      <c r="C1073">
+        <v>1.034000039100647</v>
+      </c>
+      <c r="D1073">
+        <v>1.0169999599456787</v>
+      </c>
+      <c r="E1073">
+        <v>1.0240000486373901</v>
+      </c>
+      <c r="F1073">
+        <v>2167300</v>
+      </c>
+      <c r="G1073">
+        <v>21673</v>
+      </c>
+      <c r="H1073">
+        <f t="shared" si="111"/>
+        <v>1071</v>
+      </c>
+      <c r="I1073">
+        <f>SUM($F$3:F1073)/H1073</f>
+        <v>4264072.8523867885</v>
+      </c>
+      <c r="N1073">
+        <f t="shared" si="139"/>
+        <v>1.093000054359436</v>
+      </c>
+      <c r="O1073">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+      <c r="P1073">
+        <f t="shared" si="110"/>
+        <v>1.025000015894572</v>
+      </c>
+      <c r="Q1073">
+        <f t="shared" si="132"/>
+        <v>1.0517619138672238</v>
+      </c>
+      <c r="R1073">
+        <f t="shared" si="133"/>
+        <v>-2.6761897972651827E-2</v>
+      </c>
+      <c r="S1073">
+        <f t="shared" si="134"/>
+        <v>1.7761908826373869E-2</v>
+      </c>
+      <c r="T1073">
+        <f t="shared" si="135"/>
+        <v>2.6642863239560803E-4</v>
+      </c>
+      <c r="U1073">
+        <f t="shared" si="136"/>
+        <v>-100.44677905681802</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1074" s="1">
+        <v>45987</v>
+      </c>
+      <c r="B1074">
+        <v>1.0279999971389771</v>
+      </c>
+      <c r="C1074">
+        <v>1.0460000038146973</v>
+      </c>
+      <c r="D1074">
+        <v>1.0279999971389771</v>
+      </c>
+      <c r="E1074">
+        <v>1.0390000343322754</v>
+      </c>
+      <c r="F1074">
+        <v>2477900</v>
+      </c>
+      <c r="G1074">
+        <v>24779</v>
+      </c>
+      <c r="H1074">
+        <f t="shared" si="111"/>
+        <v>1072</v>
+      </c>
+      <c r="I1074">
+        <f>SUM($F$3:F1074)/H1074</f>
+        <v>4262406.6463677706</v>
+      </c>
+      <c r="N1074">
+        <f t="shared" si="139"/>
+        <v>1.093000054359436</v>
+      </c>
+      <c r="O1074">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+      <c r="P1074">
+        <f t="shared" si="110"/>
+        <v>1.0376666784286499</v>
+      </c>
+      <c r="Q1074">
+        <f t="shared" si="132"/>
+        <v>1.0490952474730355</v>
+      </c>
+      <c r="R1074">
+        <f t="shared" si="133"/>
+        <v>-1.1428569044385606E-2</v>
+      </c>
+      <c r="S1074">
+        <f t="shared" si="134"/>
+        <v>1.6904765651339564E-2</v>
+      </c>
+      <c r="T1074">
+        <f t="shared" si="135"/>
+        <v>2.5357148477009344E-4</v>
+      </c>
+      <c r="U1074">
+        <f t="shared" si="136"/>
+        <v>-45.070403143900769</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1075" s="1">
+        <v>45988</v>
+      </c>
+      <c r="B1075">
+        <v>1.0360000133514404</v>
+      </c>
+      <c r="C1075">
+        <v>1.0520000457763672</v>
+      </c>
+      <c r="D1075">
+        <v>1.0260000228881836</v>
+      </c>
+      <c r="E1075">
+        <v>1.0379999876022339</v>
+      </c>
+      <c r="F1075">
+        <v>919400</v>
+      </c>
+      <c r="G1075">
+        <v>9194</v>
+      </c>
+      <c r="H1075">
+        <f t="shared" si="111"/>
+        <v>1073</v>
+      </c>
+      <c r="I1075">
+        <f>SUM($F$3:F1075)/H1075</f>
+        <v>4259291.0763338767</v>
+      </c>
+      <c r="N1075">
+        <f t="shared" si="139"/>
+        <v>1.093000054359436</v>
+      </c>
+      <c r="O1075">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+      <c r="P1075">
+        <f t="shared" si="110"/>
+        <v>1.0386666854222615</v>
+      </c>
+      <c r="Q1075">
+        <f t="shared" si="132"/>
+        <v>1.0465000101498194</v>
+      </c>
+      <c r="R1075">
+        <f t="shared" si="133"/>
+        <v>-7.8333247275579332E-3</v>
+      </c>
+      <c r="S1075">
+        <f t="shared" si="134"/>
+        <v>1.550000338327316E-2</v>
+      </c>
+      <c r="T1075">
+        <f t="shared" si="135"/>
+        <v>2.3250005074909738E-4</v>
+      </c>
+      <c r="U1075">
+        <f t="shared" si="136"/>
+        <v>-33.691711904232108</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U1075"/>
+  <dimension ref="A1:U1076"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1056" workbookViewId="0">
-      <selection activeCell="A1076" sqref="A1076"/>
+    <sheetView tabSelected="1" topLeftCell="A1064" workbookViewId="0">
+      <selection activeCell="A1077" sqref="A1077"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3932,7 +3932,7 @@
         <v>16.342412451361298</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44448</v>
       </c>
@@ -3962,6 +3962,12 @@
         <f>SUM($F$3:F56)/H56</f>
         <v>19311574.981481481</v>
       </c>
+      <c r="K56" s="2">
+        <v>46022</v>
+      </c>
+      <c r="L56" s="2">
+        <v>45992</v>
+      </c>
       <c r="N56">
         <f t="shared" si="11"/>
         <v>0.98799999999999999</v>
@@ -52859,7 +52865,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P1075" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P1076" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52969,7 +52975,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H1075" si="111">H833+1</f>
+        <f t="shared" ref="H834:H1076" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -65778,23 +65784,23 @@
         <v>1.0699999729792278</v>
       </c>
       <c r="Q1037">
-        <f t="shared" ref="Q1037:Q1075" si="132">SUM(P1024:P1037)/14</f>
+        <f t="shared" ref="Q1037:Q1076" si="132">SUM(P1024:P1037)/14</f>
         <v>1.0372619047051386</v>
       </c>
       <c r="R1037">
-        <f t="shared" ref="R1037:R1075" si="133">P1037-Q1037</f>
+        <f t="shared" ref="R1037:R1076" si="133">P1037-Q1037</f>
         <v>3.2738068274089205E-2</v>
       </c>
       <c r="S1037">
-        <f t="shared" ref="S1037:S1075" si="134">AVEDEV(P1024:P1037)</f>
+        <f t="shared" ref="S1037:S1076" si="134">AVEDEV(P1024:P1037)</f>
         <v>2.2748304062149134E-2</v>
       </c>
       <c r="T1037">
-        <f t="shared" ref="T1037:T1075" si="135">0.015*S1037</f>
+        <f t="shared" ref="T1037:T1076" si="135">0.015*S1037</f>
         <v>3.4122456093223696E-4</v>
       </c>
       <c r="U1037">
-        <f t="shared" ref="U1037:U1075" si="136">R1037/T1037</f>
+        <f t="shared" ref="U1037:U1076" si="136">R1037/T1037</f>
         <v>95.942883433266658</v>
       </c>
     </row>
@@ -67026,11 +67032,11 @@
         <v>4308508.9790580571</v>
       </c>
       <c r="N1057">
-        <f t="shared" ref="N1057:N1075" si="139">IF(A1057&lt;&gt;$K$55,MAX(N1056,VLOOKUP(A1057,A:C,3)),)</f>
+        <f t="shared" ref="N1057:N1076" si="139">IF(A1057&lt;&gt;$K$55,MAX(N1056,VLOOKUP(A1057,A:C,3)),)</f>
         <v>1.0789999961853027</v>
       </c>
       <c r="O1057">
-        <f t="shared" ref="O1057:O1075" si="140">IF(A1057&lt;&gt;$K$55,MIN(O1056,VLOOKUP(A1057,A:D,4)),)</f>
+        <f t="shared" ref="O1057:O1076" si="140">IF(A1057&lt;&gt;$K$55,MIN(O1056,VLOOKUP(A1057,A:D,4)),)</f>
         <v>1.0570000410079956</v>
       </c>
       <c r="P1057">
@@ -68190,6 +68196,69 @@
       <c r="U1075">
         <f t="shared" si="136"/>
         <v>-33.691711904232108</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1076" s="1">
+        <v>45989</v>
+      </c>
+      <c r="B1076">
+        <v>1.0360000133514404</v>
+      </c>
+      <c r="C1076">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="D1076">
+        <v>1.0329999923706055</v>
+      </c>
+      <c r="E1076">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="F1076">
+        <v>1227301</v>
+      </c>
+      <c r="G1076">
+        <v>12273.009765625</v>
+      </c>
+      <c r="H1076">
+        <f t="shared" si="111"/>
+        <v>1074</v>
+      </c>
+      <c r="I1076">
+        <f>SUM($F$3:F1076)/H1076</f>
+        <v>4256467.9943261174</v>
+      </c>
+      <c r="N1076">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="O1076">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="P1076">
+        <f t="shared" si="110"/>
+        <v>1.0386666456858318</v>
+      </c>
+      <c r="Q1076">
+        <f t="shared" si="132"/>
+        <v>1.0440476252919151</v>
+      </c>
+      <c r="R1076">
+        <f t="shared" si="133"/>
+        <v>-5.3809796060833026E-3</v>
+      </c>
+      <c r="S1076">
+        <f t="shared" si="134"/>
+        <v>1.400000424612134E-2</v>
+      </c>
+      <c r="T1076">
+        <f t="shared" si="135"/>
+        <v>2.1000006369182008E-4</v>
+      </c>
+      <c r="U1076">
+        <f t="shared" si="136"/>
+        <v>-25.623704638394841</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U1076"/>
+  <dimension ref="A1:U1098"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1064" workbookViewId="0">
-      <selection activeCell="A1077" sqref="A1077"/>
+    <sheetView tabSelected="1" topLeftCell="A1076" workbookViewId="0">
+      <selection activeCell="A1099" sqref="A1099"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -52865,7 +52865,7 @@
         <v>0.75300002098083496</v>
       </c>
       <c r="P832">
-        <f t="shared" ref="P832:P1076" si="110">(C832+D832+E832)/3</f>
+        <f t="shared" ref="P832:P1086" si="110">(C832+D832+E832)/3</f>
         <v>0.76966667175292969</v>
       </c>
       <c r="Q832">
@@ -52975,7 +52975,7 @@
         <v>16935.009765625</v>
       </c>
       <c r="H834">
-        <f t="shared" ref="H834:H1076" si="111">H833+1</f>
+        <f t="shared" ref="H834:H1088" si="111">H833+1</f>
         <v>832</v>
       </c>
       <c r="I834">
@@ -65784,23 +65784,23 @@
         <v>1.0699999729792278</v>
       </c>
       <c r="Q1037">
-        <f t="shared" ref="Q1037:Q1076" si="132">SUM(P1024:P1037)/14</f>
+        <f t="shared" ref="Q1037:Q1098" si="132">SUM(P1024:P1037)/14</f>
         <v>1.0372619047051386</v>
       </c>
       <c r="R1037">
-        <f t="shared" ref="R1037:R1076" si="133">P1037-Q1037</f>
+        <f t="shared" ref="R1037:R1098" si="133">P1037-Q1037</f>
         <v>3.2738068274089205E-2</v>
       </c>
       <c r="S1037">
-        <f t="shared" ref="S1037:S1076" si="134">AVEDEV(P1024:P1037)</f>
+        <f t="shared" ref="S1037:S1098" si="134">AVEDEV(P1024:P1037)</f>
         <v>2.2748304062149134E-2</v>
       </c>
       <c r="T1037">
-        <f t="shared" ref="T1037:T1076" si="135">0.015*S1037</f>
+        <f t="shared" ref="T1037:T1098" si="135">0.015*S1037</f>
         <v>3.4122456093223696E-4</v>
       </c>
       <c r="U1037">
-        <f t="shared" ref="U1037:U1076" si="136">R1037/T1037</f>
+        <f t="shared" ref="U1037:U1098" si="136">R1037/T1037</f>
         <v>95.942883433266658</v>
       </c>
     </row>
@@ -67032,11 +67032,11 @@
         <v>4308508.9790580571</v>
       </c>
       <c r="N1057">
-        <f t="shared" ref="N1057:N1076" si="139">IF(A1057&lt;&gt;$K$55,MAX(N1056,VLOOKUP(A1057,A:C,3)),)</f>
+        <f t="shared" ref="N1057:N1075" si="139">IF(A1057&lt;&gt;$K$55,MAX(N1056,VLOOKUP(A1057,A:C,3)),)</f>
         <v>1.0789999961853027</v>
       </c>
       <c r="O1057">
-        <f t="shared" ref="O1057:O1076" si="140">IF(A1057&lt;&gt;$K$55,MIN(O1056,VLOOKUP(A1057,A:D,4)),)</f>
+        <f t="shared" ref="O1057:O1075" si="140">IF(A1057&lt;&gt;$K$55,MIN(O1056,VLOOKUP(A1057,A:D,4)),)</f>
         <v>1.0570000410079956</v>
       </c>
       <c r="P1057">
@@ -68229,12 +68229,12 @@
         <v>4256467.9943261174</v>
       </c>
       <c r="N1076">
-        <f t="shared" si="139"/>
-        <v>0</v>
+        <f>VLOOKUP(L56,A:C,3)</f>
+        <v>1.0570000410079956</v>
       </c>
       <c r="O1076">
-        <f t="shared" si="140"/>
-        <v>0</v>
+        <f>VLOOKUP(L56,A:D,4)</f>
+        <v>1.0429999828338623</v>
       </c>
       <c r="P1076">
         <f t="shared" si="110"/>
@@ -68259,6 +68259,1392 @@
       <c r="U1076">
         <f t="shared" si="136"/>
         <v>-25.623704638394841</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1077" s="1">
+        <v>45992</v>
+      </c>
+      <c r="B1077">
+        <v>1.0570000410079956</v>
+      </c>
+      <c r="C1077">
+        <v>1.0570000410079956</v>
+      </c>
+      <c r="D1077">
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="E1077">
+        <v>1.0529999732971191</v>
+      </c>
+      <c r="F1077">
+        <v>1096200</v>
+      </c>
+      <c r="G1077">
+        <v>10962</v>
+      </c>
+      <c r="H1077">
+        <f t="shared" si="111"/>
+        <v>1075</v>
+      </c>
+      <c r="I1077">
+        <f>SUM($F$3:F1077)/H1077</f>
+        <v>4253528.2101453487</v>
+      </c>
+      <c r="N1077">
+        <f t="shared" ref="N1077:N1098" si="141">IF(A1077&lt;&gt;$K$56,MAX(N1076,VLOOKUP(A1077,A:C,3)),)</f>
+        <v>1.0570000410079956</v>
+      </c>
+      <c r="O1077">
+        <f t="shared" ref="O1077:O1098" si="142">IF(A1077&lt;&gt;$K$56,MIN(O1076,VLOOKUP(A1077,A:D,4)),)</f>
+        <v>1.0429999828338623</v>
+      </c>
+      <c r="P1077">
+        <f t="shared" si="110"/>
+        <v>1.0509999990463257</v>
+      </c>
+      <c r="Q1077">
+        <f t="shared" si="132"/>
+        <v>1.0425714339528764</v>
+      </c>
+      <c r="R1077">
+        <f t="shared" si="133"/>
+        <v>8.4285650934492473E-3</v>
+      </c>
+      <c r="S1077">
+        <f t="shared" si="134"/>
+        <v>1.2727892317739456E-2</v>
+      </c>
+      <c r="T1077">
+        <f t="shared" si="135"/>
+        <v>1.9091838476609184E-4</v>
+      </c>
+      <c r="U1077">
+        <f t="shared" si="136"/>
+        <v>44.147477487700847</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1078" s="1">
+        <v>45993</v>
+      </c>
+      <c r="B1078">
+        <v>1.0700000524520874</v>
+      </c>
+      <c r="C1078">
+        <v>1.0700000524520874</v>
+      </c>
+      <c r="D1078">
+        <v>1.0379999876022339</v>
+      </c>
+      <c r="E1078">
+        <v>1.0490000247955322</v>
+      </c>
+      <c r="F1078">
+        <v>747200</v>
+      </c>
+      <c r="G1078">
+        <v>7472</v>
+      </c>
+      <c r="H1078">
+        <f t="shared" si="111"/>
+        <v>1076</v>
+      </c>
+      <c r="I1078">
+        <f>SUM($F$3:F1078)/H1078</f>
+        <v>4250269.5408050651</v>
+      </c>
+      <c r="N1078">
+        <f t="shared" si="141"/>
+        <v>1.0700000524520874</v>
+      </c>
+      <c r="O1078">
+        <f t="shared" si="142"/>
+        <v>1.0379999876022339</v>
+      </c>
+      <c r="P1078">
+        <f t="shared" si="110"/>
+        <v>1.0523333549499512</v>
+      </c>
+      <c r="Q1078">
+        <f t="shared" si="132"/>
+        <v>1.0420476226579576</v>
+      </c>
+      <c r="R1078">
+        <f t="shared" si="133"/>
+        <v>1.0285732291993588E-2</v>
+      </c>
+      <c r="S1078">
+        <f t="shared" si="134"/>
+        <v>1.22789112078089E-2</v>
+      </c>
+      <c r="T1078">
+        <f t="shared" si="135"/>
+        <v>1.8418366811713348E-4</v>
+      </c>
+      <c r="U1078">
+        <f t="shared" si="136"/>
+        <v>55.844974731702443</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1079" s="1">
+        <v>45994</v>
+      </c>
+      <c r="B1079">
+        <v>1.0540000200271606</v>
+      </c>
+      <c r="C1079">
+        <v>1.0559999942779541</v>
+      </c>
+      <c r="D1079">
+        <v>1.0399999618530273</v>
+      </c>
+      <c r="E1079">
+        <v>1.0420000553131104</v>
+      </c>
+      <c r="F1079">
+        <v>1325100</v>
+      </c>
+      <c r="G1079">
+        <v>13251</v>
+      </c>
+      <c r="H1079">
+        <f t="shared" si="111"/>
+        <v>1077</v>
+      </c>
+      <c r="I1079">
+        <f>SUM($F$3:F1079)/H1079</f>
+        <v>4247553.5059482362</v>
+      </c>
+      <c r="N1079">
+        <f t="shared" si="141"/>
+        <v>1.0700000524520874</v>
+      </c>
+      <c r="O1079">
+        <f t="shared" si="142"/>
+        <v>1.0379999876022339</v>
+      </c>
+      <c r="P1079">
+        <f t="shared" si="110"/>
+        <v>1.0460000038146973</v>
+      </c>
+      <c r="Q1079">
+        <f t="shared" si="132"/>
+        <v>1.0402619100752331</v>
+      </c>
+      <c r="R1079">
+        <f t="shared" si="133"/>
+        <v>5.7380937394642118E-3</v>
+      </c>
+      <c r="S1079">
+        <f t="shared" si="134"/>
+        <v>1.0748300422616541E-2</v>
+      </c>
+      <c r="T1079">
+        <f t="shared" si="135"/>
+        <v>1.612245063392481E-4</v>
+      </c>
+      <c r="U1079">
+        <f t="shared" si="136"/>
+        <v>35.590704352290793</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1080" s="1">
+        <v>45995</v>
+      </c>
+      <c r="B1080">
+        <v>1.0460000038146973</v>
+      </c>
+      <c r="C1080">
+        <v>1.0479999780654907</v>
+      </c>
+      <c r="D1080">
+        <v>1.0379999876022339</v>
+      </c>
+      <c r="E1080">
+        <v>1.0479999780654907</v>
+      </c>
+      <c r="F1080">
+        <v>1912358</v>
+      </c>
+      <c r="G1080">
+        <v>19123.580078125</v>
+      </c>
+      <c r="H1080">
+        <f t="shared" si="111"/>
+        <v>1078</v>
+      </c>
+      <c r="I1080">
+        <f>SUM($F$3:F1080)/H1080</f>
+        <v>4245387.276350881</v>
+      </c>
+      <c r="N1080">
+        <f t="shared" si="141"/>
+        <v>1.0700000524520874</v>
+      </c>
+      <c r="O1080">
+        <f t="shared" si="142"/>
+        <v>1.0379999876022339</v>
+      </c>
+      <c r="P1080">
+        <f t="shared" si="110"/>
+        <v>1.0446666479110718</v>
+      </c>
+      <c r="Q1080">
+        <f t="shared" si="132"/>
+        <v>1.0390714321817671</v>
+      </c>
+      <c r="R1080">
+        <f t="shared" si="133"/>
+        <v>5.5952157293046589E-3</v>
+      </c>
+      <c r="S1080">
+        <f t="shared" si="134"/>
+        <v>9.7278907996456287E-3</v>
+      </c>
+      <c r="T1080">
+        <f t="shared" si="135"/>
+        <v>1.4591836199468443E-4</v>
+      </c>
+      <c r="U1080">
+        <f t="shared" si="136"/>
+        <v>38.34483647444236</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1081" s="1">
+        <v>45996</v>
+      </c>
+      <c r="B1081">
+        <v>1.0479999780654907</v>
+      </c>
+      <c r="C1081">
+        <v>1.059999942779541</v>
+      </c>
+      <c r="D1081">
+        <v>1.0470000505447388</v>
+      </c>
+      <c r="E1081">
+        <v>1.0590000152587891</v>
+      </c>
+      <c r="F1081">
+        <v>1862806</v>
+      </c>
+      <c r="G1081">
+        <v>18628.060546875</v>
+      </c>
+      <c r="H1081">
+        <f t="shared" si="111"/>
+        <v>1079</v>
+      </c>
+      <c r="I1081">
+        <f>SUM($F$3:F1081)/H1081</f>
+        <v>4243179.1380039388</v>
+      </c>
+      <c r="N1081">
+        <f t="shared" si="141"/>
+        <v>1.0700000524520874</v>
+      </c>
+      <c r="O1081">
+        <f t="shared" si="142"/>
+        <v>1.0379999876022339</v>
+      </c>
+      <c r="P1081">
+        <f t="shared" si="110"/>
+        <v>1.0553333361943562</v>
+      </c>
+      <c r="Q1081">
+        <f t="shared" si="132"/>
+        <v>1.0394285746983118</v>
+      </c>
+      <c r="R1081">
+        <f t="shared" si="133"/>
+        <v>1.5904761496044362E-2</v>
+      </c>
+      <c r="S1081">
+        <f t="shared" si="134"/>
+        <v>1.0034012956684126E-2</v>
+      </c>
+      <c r="T1081">
+        <f t="shared" si="135"/>
+        <v>1.505101943502619E-4</v>
+      </c>
+      <c r="U1081">
+        <f t="shared" si="136"/>
+        <v>105.67232050097134</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1082" s="1">
+        <v>45999</v>
+      </c>
+      <c r="B1082">
+        <v>1.0609999895095825</v>
+      </c>
+      <c r="C1082">
+        <v>1.0770000219345093</v>
+      </c>
+      <c r="D1082">
+        <v>1.059999942779541</v>
+      </c>
+      <c r="E1082">
+        <v>1.0720000267028809</v>
+      </c>
+      <c r="F1082">
+        <v>1864519</v>
+      </c>
+      <c r="G1082">
+        <v>18645.189453125</v>
+      </c>
+      <c r="H1082">
+        <f t="shared" si="111"/>
+        <v>1080</v>
+      </c>
+      <c r="I1082">
+        <f>SUM($F$3:F1082)/H1082</f>
+        <v>4240976.674913194</v>
+      </c>
+      <c r="N1082">
+        <f t="shared" si="141"/>
+        <v>1.0770000219345093</v>
+      </c>
+      <c r="O1082">
+        <f t="shared" si="142"/>
+        <v>1.0379999876022339</v>
+      </c>
+      <c r="P1082">
+        <f t="shared" si="110"/>
+        <v>1.0696666638056438</v>
+      </c>
+      <c r="Q1082">
+        <f t="shared" si="132"/>
+        <v>1.0411666688464936</v>
+      </c>
+      <c r="R1082">
+        <f t="shared" si="133"/>
+        <v>2.8499994959150232E-2</v>
+      </c>
+      <c r="S1082">
+        <f t="shared" si="134"/>
+        <v>1.1523807940839912E-2</v>
+      </c>
+      <c r="T1082">
+        <f t="shared" si="135"/>
+        <v>1.7285711911259867E-4</v>
+      </c>
+      <c r="U1082">
+        <f t="shared" si="136"/>
+        <v>164.87602654412754</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1083" s="1">
+        <v>46000</v>
+      </c>
+      <c r="B1083">
+        <v>1.0690000057220459</v>
+      </c>
+      <c r="C1083">
+        <v>1.0779999494552612</v>
+      </c>
+      <c r="D1083">
+        <v>1.0659999847412109</v>
+      </c>
+      <c r="E1083">
+        <v>1.0670000314712524</v>
+      </c>
+      <c r="F1083">
+        <v>1846402.875</v>
+      </c>
+      <c r="G1083">
+        <v>18464.029296875</v>
+      </c>
+      <c r="H1083">
+        <f t="shared" si="111"/>
+        <v>1081</v>
+      </c>
+      <c r="I1083">
+        <f>SUM($F$3:F1083)/H1083</f>
+        <v>4238761.5280122571</v>
+      </c>
+      <c r="N1083">
+        <f t="shared" si="141"/>
+        <v>1.0779999494552612</v>
+      </c>
+      <c r="O1083">
+        <f t="shared" si="142"/>
+        <v>1.0379999876022339</v>
+      </c>
+      <c r="P1083">
+        <f t="shared" si="110"/>
+        <v>1.0703333218892415</v>
+      </c>
+      <c r="Q1083">
+        <f t="shared" si="132"/>
+        <v>1.0428333339237033</v>
+      </c>
+      <c r="R1083">
+        <f t="shared" si="133"/>
+        <v>2.7499987965538208E-2</v>
+      </c>
+      <c r="S1083">
+        <f t="shared" si="134"/>
+        <v>1.2952378007019427E-2</v>
+      </c>
+      <c r="T1083">
+        <f t="shared" si="135"/>
+        <v>1.9428567010529139E-4</v>
+      </c>
+      <c r="U1083">
+        <f t="shared" si="136"/>
+        <v>141.54408789199346</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1084" s="1">
+        <v>46001</v>
+      </c>
+      <c r="B1084">
+        <v>1.0570000410079956</v>
+      </c>
+      <c r="C1084">
+        <v>1.0720000267028809</v>
+      </c>
+      <c r="D1084">
+        <v>1.0559999942779541</v>
+      </c>
+      <c r="E1084">
+        <v>1.0709999799728394</v>
+      </c>
+      <c r="F1084">
+        <v>1522800</v>
+      </c>
+      <c r="G1084">
+        <v>15228</v>
+      </c>
+      <c r="H1084">
+        <f t="shared" si="111"/>
+        <v>1082</v>
+      </c>
+      <c r="I1084">
+        <f>SUM($F$3:F1084)/H1084</f>
+        <v>4236251.397210028</v>
+      </c>
+      <c r="N1084">
+        <f t="shared" si="141"/>
+        <v>1.0779999494552612</v>
+      </c>
+      <c r="O1084">
+        <f t="shared" si="142"/>
+        <v>1.0379999876022339</v>
+      </c>
+      <c r="P1084">
+        <f t="shared" si="110"/>
+        <v>1.0663333336512248</v>
+      </c>
+      <c r="Q1084">
+        <f t="shared" si="132"/>
+        <v>1.044428572768257</v>
+      </c>
+      <c r="R1084">
+        <f t="shared" si="133"/>
+        <v>2.1904760882967889E-2</v>
+      </c>
+      <c r="S1084">
+        <f t="shared" si="134"/>
+        <v>1.4319725588065395E-2</v>
+      </c>
+      <c r="T1084">
+        <f t="shared" si="135"/>
+        <v>2.1479588382098091E-4</v>
+      </c>
+      <c r="U1084">
+        <f t="shared" si="136"/>
+        <v>101.97942573808422</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1085" s="1">
+        <v>46002</v>
+      </c>
+      <c r="B1085">
+        <v>1.0690000057220459</v>
+      </c>
+      <c r="C1085">
+        <v>1.0770000219345093</v>
+      </c>
+      <c r="D1085">
+        <v>1.0579999685287476</v>
+      </c>
+      <c r="E1085">
+        <v>1.0579999685287476</v>
+      </c>
+      <c r="F1085">
+        <v>1757808</v>
+      </c>
+      <c r="G1085">
+        <v>17578.080078125</v>
+      </c>
+      <c r="H1085">
+        <f t="shared" si="111"/>
+        <v>1083</v>
+      </c>
+      <c r="I1085">
+        <f>SUM($F$3:F1085)/H1085</f>
+        <v>4233962.8991516624</v>
+      </c>
+      <c r="N1085">
+        <f t="shared" si="141"/>
+        <v>1.0779999494552612</v>
+      </c>
+      <c r="O1085">
+        <f t="shared" si="142"/>
+        <v>1.0379999876022339</v>
+      </c>
+      <c r="P1085">
+        <f t="shared" si="110"/>
+        <v>1.0643333196640015</v>
+      </c>
+      <c r="Q1085">
+        <f t="shared" si="132"/>
+        <v>1.0476666688919067</v>
+      </c>
+      <c r="R1085">
+        <f t="shared" si="133"/>
+        <v>1.6666650772094727E-2</v>
+      </c>
+      <c r="S1085">
+        <f t="shared" si="134"/>
+        <v>1.366666385105678E-2</v>
+      </c>
+      <c r="T1085">
+        <f t="shared" si="135"/>
+        <v>2.0499995776585169E-4</v>
+      </c>
+      <c r="U1085">
+        <f t="shared" si="136"/>
+        <v>81.300752223232948</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1086" s="1">
+        <v>46003</v>
+      </c>
+      <c r="B1086">
+        <v>1.059999942779541</v>
+      </c>
+      <c r="C1086">
+        <v>1.065000057220459</v>
+      </c>
+      <c r="D1086">
+        <v>1.0540000200271606</v>
+      </c>
+      <c r="E1086">
+        <v>1.062000036239624</v>
+      </c>
+      <c r="F1086">
+        <v>1038000</v>
+      </c>
+      <c r="G1086">
+        <v>10380</v>
+      </c>
+      <c r="H1086">
+        <f t="shared" si="111"/>
+        <v>1084</v>
+      </c>
+      <c r="I1086">
+        <f>SUM($F$3:F1086)/H1086</f>
+        <v>4231014.5938941417</v>
+      </c>
+      <c r="N1086">
+        <f t="shared" si="141"/>
+        <v>1.0779999494552612</v>
+      </c>
+      <c r="O1086">
+        <f t="shared" si="142"/>
+        <v>1.0379999876022339</v>
+      </c>
+      <c r="P1086">
+        <f t="shared" si="110"/>
+        <v>1.0603333711624146</v>
+      </c>
+      <c r="Q1086">
+        <f t="shared" si="132"/>
+        <v>1.051452384108589</v>
+      </c>
+      <c r="R1086">
+        <f t="shared" si="133"/>
+        <v>8.880987053825562E-3</v>
+      </c>
+      <c r="S1086">
+        <f t="shared" si="134"/>
+        <v>1.1214287508101686E-2</v>
+      </c>
+      <c r="T1086">
+        <f t="shared" si="135"/>
+        <v>1.6821431262152526E-4</v>
+      </c>
+      <c r="U1086">
+        <f t="shared" si="136"/>
+        <v>52.795668308007706</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1087" s="1">
+        <v>46006</v>
+      </c>
+      <c r="B1087">
+        <v>1.0579999685287476</v>
+      </c>
+      <c r="C1087">
+        <v>1.062000036239624</v>
+      </c>
+      <c r="D1087">
+        <v>1.0509999990463257</v>
+      </c>
+      <c r="E1087">
+        <v>1.0509999990463257</v>
+      </c>
+      <c r="F1087">
+        <v>1338600</v>
+      </c>
+      <c r="G1087">
+        <v>13386</v>
+      </c>
+      <c r="H1087">
+        <f t="shared" si="111"/>
+        <v>1085</v>
+      </c>
+      <c r="I1087">
+        <f>SUM($F$3:F1087)/H1087</f>
+        <v>4228348.7739919359</v>
+      </c>
+      <c r="N1087">
+        <f t="shared" si="141"/>
+        <v>1.0779999494552612</v>
+      </c>
+      <c r="O1087">
+        <f t="shared" si="142"/>
+        <v>1.0379999876022339</v>
+      </c>
+      <c r="P1087">
+        <f t="shared" ref="P1087:P1098" si="143">(C1087+D1087+E1087)/3</f>
+        <v>1.0546666781107585</v>
+      </c>
+      <c r="Q1087">
+        <f t="shared" si="132"/>
+        <v>1.0535714314097449</v>
+      </c>
+      <c r="R1087">
+        <f t="shared" si="133"/>
+        <v>1.0952467010136857E-3</v>
+      </c>
+      <c r="S1087">
+        <f t="shared" si="134"/>
+        <v>9.4285720870608426E-3</v>
+      </c>
+      <c r="T1087">
+        <f t="shared" si="135"/>
+        <v>1.4142858130591264E-4</v>
+      </c>
+      <c r="U1087">
+        <f t="shared" si="136"/>
+        <v>7.7441680521750182</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1088" s="1">
+        <v>46007</v>
+      </c>
+      <c r="B1088">
+        <v>1.0529999732971191</v>
+      </c>
+      <c r="C1088">
+        <v>1.0529999732971191</v>
+      </c>
+      <c r="D1088">
+        <v>1.0360000133514404</v>
+      </c>
+      <c r="E1088">
+        <v>1.0390000343322754</v>
+      </c>
+      <c r="F1088">
+        <v>2887800</v>
+      </c>
+      <c r="G1088">
+        <v>28878</v>
+      </c>
+      <c r="H1088">
+        <f t="shared" si="111"/>
+        <v>1086</v>
+      </c>
+      <c r="I1088">
+        <f>SUM($F$3:F1088)/H1088</f>
+        <v>4227114.3828556631</v>
+      </c>
+      <c r="N1088">
+        <f t="shared" si="141"/>
+        <v>1.0779999494552612</v>
+      </c>
+      <c r="O1088">
+        <f t="shared" si="142"/>
+        <v>1.0360000133514404</v>
+      </c>
+      <c r="P1088">
+        <f t="shared" si="143"/>
+        <v>1.0426666736602783</v>
+      </c>
+      <c r="Q1088">
+        <f t="shared" si="132"/>
+        <v>1.0539285739262898</v>
+      </c>
+      <c r="R1088">
+        <f t="shared" si="133"/>
+        <v>-1.1261900266011482E-2</v>
+      </c>
+      <c r="S1088">
+        <f t="shared" si="134"/>
+        <v>9.0714295705159563E-3</v>
+      </c>
+      <c r="T1088">
+        <f t="shared" si="135"/>
+        <v>1.3607144355773934E-4</v>
+      </c>
+      <c r="U1088">
+        <f t="shared" si="136"/>
+        <v>-82.764612262180549</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1089" s="1">
+        <v>46008</v>
+      </c>
+      <c r="B1089">
+        <v>1.0379999876022339</v>
+      </c>
+      <c r="C1089">
+        <v>1.0659999847412109</v>
+      </c>
+      <c r="D1089">
+        <v>1.0379999876022339</v>
+      </c>
+      <c r="E1089">
+        <v>1.0640000104904175</v>
+      </c>
+      <c r="F1089">
+        <v>1674402.875</v>
+      </c>
+      <c r="G1089">
+        <v>16744.029296875</v>
+      </c>
+      <c r="H1089">
+        <f t="shared" ref="H1089:H1098" si="144">H1088+1</f>
+        <v>1087</v>
+      </c>
+      <c r="I1089">
+        <f>SUM($F$3:F1089)/H1089</f>
+        <v>4224765.9822044615</v>
+      </c>
+      <c r="N1089">
+        <f t="shared" si="141"/>
+        <v>1.0779999494552612</v>
+      </c>
+      <c r="O1089">
+        <f t="shared" si="142"/>
+        <v>1.0360000133514404</v>
+      </c>
+      <c r="P1089">
+        <f t="shared" si="143"/>
+        <v>1.0559999942779541</v>
+      </c>
+      <c r="Q1089">
+        <f t="shared" si="132"/>
+        <v>1.0551666674159821</v>
+      </c>
+      <c r="R1089">
+        <f t="shared" si="133"/>
+        <v>8.3332686197201689E-4</v>
+      </c>
+      <c r="S1089">
+        <f t="shared" si="134"/>
+        <v>8.0238098189944207E-3</v>
+      </c>
+      <c r="T1089">
+        <f t="shared" si="135"/>
+        <v>1.2035714728491631E-4</v>
+      </c>
+      <c r="U1089">
+        <f t="shared" si="136"/>
+        <v>6.9237837616682452</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1090" s="1">
+        <v>46009</v>
+      </c>
+      <c r="B1090">
+        <v>1.0509999990463257</v>
+      </c>
+      <c r="C1090">
+        <v>1.0559999942779541</v>
+      </c>
+      <c r="D1090">
+        <v>1.0470000505447388</v>
+      </c>
+      <c r="E1090">
+        <v>1.0479999780654907</v>
+      </c>
+      <c r="F1090">
+        <v>926600</v>
+      </c>
+      <c r="G1090">
+        <v>9266</v>
+      </c>
+      <c r="H1090">
+        <f t="shared" si="144"/>
+        <v>1088</v>
+      </c>
+      <c r="I1090">
+        <f>SUM($F$3:F1090)/H1090</f>
+        <v>4221734.5796472887</v>
+      </c>
+      <c r="N1090">
+        <f t="shared" si="141"/>
+        <v>1.0779999494552612</v>
+      </c>
+      <c r="O1090">
+        <f t="shared" si="142"/>
+        <v>1.0360000133514404</v>
+      </c>
+      <c r="P1090">
+        <f t="shared" si="143"/>
+        <v>1.0503333409627278</v>
+      </c>
+      <c r="Q1090">
+        <f t="shared" si="132"/>
+        <v>1.0560000027929033</v>
+      </c>
+      <c r="R1090">
+        <f t="shared" si="133"/>
+        <v>-5.6666618301755012E-3</v>
+      </c>
+      <c r="S1090">
+        <f t="shared" si="134"/>
+        <v>7.2857137440013164E-3</v>
+      </c>
+      <c r="T1090">
+        <f t="shared" si="135"/>
+        <v>1.0928570616001974E-4</v>
+      </c>
+      <c r="U1090">
+        <f t="shared" si="136"/>
+        <v>-51.85181145170246</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1091" s="1">
+        <v>46010</v>
+      </c>
+      <c r="B1091">
+        <v>1.0460000038146973</v>
+      </c>
+      <c r="C1091">
+        <v>1.059999942779541</v>
+      </c>
+      <c r="D1091">
+        <v>1.0460000038146973</v>
+      </c>
+      <c r="E1091">
+        <v>1.0509999990463257</v>
+      </c>
+      <c r="F1091">
+        <v>1772503.875</v>
+      </c>
+      <c r="G1091">
+        <v>17725.0390625</v>
+      </c>
+      <c r="H1091">
+        <f t="shared" si="144"/>
+        <v>1089</v>
+      </c>
+      <c r="I1091">
+        <f>SUM($F$3:F1091)/H1091</f>
+        <v>4219485.515639348</v>
+      </c>
+      <c r="N1091">
+        <f t="shared" si="141"/>
+        <v>1.0779999494552612</v>
+      </c>
+      <c r="O1091">
+        <f t="shared" si="142"/>
+        <v>1.0360000133514404</v>
+      </c>
+      <c r="P1091">
+        <f t="shared" si="143"/>
+        <v>1.0523333152135212</v>
+      </c>
+      <c r="Q1091">
+        <f t="shared" si="132"/>
+        <v>1.0560952396619887</v>
+      </c>
+      <c r="R1091">
+        <f t="shared" si="133"/>
+        <v>-3.7619244484674574E-3</v>
+      </c>
+      <c r="S1091">
+        <f t="shared" si="134"/>
+        <v>7.2176874089403221E-3</v>
+      </c>
+      <c r="T1091">
+        <f t="shared" si="135"/>
+        <v>1.0826531113410483E-4</v>
+      </c>
+      <c r="U1091">
+        <f t="shared" si="136"/>
+        <v>-34.747274164369045</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1092" s="1">
+        <v>46013</v>
+      </c>
+      <c r="B1092">
+        <v>1.062000036239624</v>
+      </c>
+      <c r="C1092">
+        <v>1.0670000314712524</v>
+      </c>
+      <c r="D1092">
+        <v>1.062000036239624</v>
+      </c>
+      <c r="E1092">
+        <v>1.0659999847412109</v>
+      </c>
+      <c r="F1092">
+        <v>1282720</v>
+      </c>
+      <c r="G1092">
+        <v>12827.2001953125</v>
+      </c>
+      <c r="H1092">
+        <f t="shared" si="144"/>
+        <v>1090</v>
+      </c>
+      <c r="I1092">
+        <f>SUM($F$3:F1092)/H1092</f>
+        <v>4216791.2353497706</v>
+      </c>
+      <c r="N1092">
+        <f t="shared" si="141"/>
+        <v>1.0779999494552612</v>
+      </c>
+      <c r="O1092">
+        <f t="shared" si="142"/>
+        <v>1.0360000133514404</v>
+      </c>
+      <c r="P1092">
+        <f t="shared" si="143"/>
+        <v>1.0650000174840291</v>
+      </c>
+      <c r="Q1092">
+        <f t="shared" si="132"/>
+        <v>1.0570000012715659</v>
+      </c>
+      <c r="R1092">
+        <f t="shared" si="133"/>
+        <v>8.0000162124631569E-3</v>
+      </c>
+      <c r="S1092">
+        <f t="shared" si="134"/>
+        <v>7.7142885753086953E-3</v>
+      </c>
+      <c r="T1092">
+        <f t="shared" si="135"/>
+        <v>1.1571432862963042E-4</v>
+      </c>
+      <c r="U1092">
+        <f t="shared" si="136"/>
+        <v>69.135916936173018</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1093" s="1">
+        <v>46014</v>
+      </c>
+      <c r="B1093">
+        <v>1.0659999847412109</v>
+      </c>
+      <c r="C1093">
+        <v>1.0720000267028809</v>
+      </c>
+      <c r="D1093">
+        <v>1.0659999847412109</v>
+      </c>
+      <c r="E1093">
+        <v>1.0679999589920044</v>
+      </c>
+      <c r="F1093">
+        <v>2292607</v>
+      </c>
+      <c r="G1093">
+        <v>22926.0703125</v>
+      </c>
+      <c r="H1093">
+        <f t="shared" si="144"/>
+        <v>1091</v>
+      </c>
+      <c r="I1093">
+        <f>SUM($F$3:F1093)/H1093</f>
+        <v>4215027.5467747478</v>
+      </c>
+      <c r="N1093">
+        <f t="shared" si="141"/>
+        <v>1.0779999494552612</v>
+      </c>
+      <c r="O1093">
+        <f t="shared" si="142"/>
+        <v>1.0360000133514404</v>
+      </c>
+      <c r="P1093">
+        <f t="shared" si="143"/>
+        <v>1.068666656812032</v>
+      </c>
+      <c r="Q1093">
+        <f t="shared" si="132"/>
+        <v>1.0586190479142326</v>
+      </c>
+      <c r="R1093">
+        <f t="shared" si="133"/>
+        <v>1.0047608897799432E-2</v>
+      </c>
+      <c r="S1093">
+        <f t="shared" si="134"/>
+        <v>7.7619070098513699E-3</v>
+      </c>
+      <c r="T1093">
+        <f t="shared" si="135"/>
+        <v>1.1642860514777055E-4</v>
+      </c>
+      <c r="U1093">
+        <f t="shared" si="136"/>
+        <v>86.298456337659132</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1094" s="1">
+        <v>46015</v>
+      </c>
+      <c r="B1094">
+        <v>1.0679999589920044</v>
+      </c>
+      <c r="C1094">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="D1094">
+        <v>1.0640000104904175</v>
+      </c>
+      <c r="E1094">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="F1094">
+        <v>2006502.875</v>
+      </c>
+      <c r="G1094">
+        <v>20065.029296875</v>
+      </c>
+      <c r="H1094">
+        <f t="shared" si="144"/>
+        <v>1092</v>
+      </c>
+      <c r="I1094">
+        <f>SUM($F$3:F1094)/H1094</f>
+        <v>4213005.0882841116</v>
+      </c>
+      <c r="N1094">
+        <f t="shared" si="141"/>
+        <v>1.0779999494552612</v>
+      </c>
+      <c r="O1094">
+        <f t="shared" si="142"/>
+        <v>1.0360000133514404</v>
+      </c>
+      <c r="P1094">
+        <f t="shared" si="143"/>
+        <v>1.0699999729792278</v>
+      </c>
+      <c r="Q1094">
+        <f t="shared" si="132"/>
+        <v>1.0604285711333867</v>
+      </c>
+      <c r="R1094">
+        <f t="shared" si="133"/>
+        <v>9.5714018458410433E-3</v>
+      </c>
+      <c r="S1094">
+        <f t="shared" si="134"/>
+        <v>7.3333269073849738E-3</v>
+      </c>
+      <c r="T1094">
+        <f t="shared" si="135"/>
+        <v>1.099999036107746E-4</v>
+      </c>
+      <c r="U1094">
+        <f t="shared" si="136"/>
+        <v>87.012820299449018</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1095" s="1">
+        <v>46016</v>
+      </c>
+      <c r="B1095">
+        <v>1.0679999589920044</v>
+      </c>
+      <c r="C1095">
+        <v>1.1139999628067017</v>
+      </c>
+      <c r="D1095">
+        <v>1.065000057220459</v>
+      </c>
+      <c r="E1095">
+        <v>1.0720000267028809</v>
+      </c>
+      <c r="F1095">
+        <v>927512</v>
+      </c>
+      <c r="G1095">
+        <v>9275.1201171875</v>
+      </c>
+      <c r="H1095">
+        <f t="shared" si="144"/>
+        <v>1093</v>
+      </c>
+      <c r="I1095">
+        <f>SUM($F$3:F1095)/H1095</f>
+        <v>4209999.1476726895</v>
+      </c>
+      <c r="N1095">
+        <f t="shared" si="141"/>
+        <v>1.1139999628067017</v>
+      </c>
+      <c r="O1095">
+        <f t="shared" si="142"/>
+        <v>1.0360000133514404</v>
+      </c>
+      <c r="P1095">
+        <f t="shared" si="143"/>
+        <v>1.0836666822433472</v>
+      </c>
+      <c r="Q1095">
+        <f t="shared" si="132"/>
+        <v>1.0624523815654574</v>
+      </c>
+      <c r="R1095">
+        <f t="shared" si="133"/>
+        <v>2.1214300677889764E-2</v>
+      </c>
+      <c r="S1095">
+        <f t="shared" si="134"/>
+        <v>8.3401308578698718E-3</v>
+      </c>
+      <c r="T1095">
+        <f t="shared" si="135"/>
+        <v>1.2510196286804806E-4</v>
+      </c>
+      <c r="U1095">
+        <f t="shared" si="136"/>
+        <v>169.57608171396683</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1096" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B1096">
+        <v>1.0690000057220459</v>
+      </c>
+      <c r="C1096">
+        <v>1.0809999704360962</v>
+      </c>
+      <c r="D1096">
+        <v>1.0690000057220459</v>
+      </c>
+      <c r="E1096">
+        <v>1.0750000476837158</v>
+      </c>
+      <c r="F1096">
+        <v>2230830</v>
+      </c>
+      <c r="G1096">
+        <v>22308.30078125</v>
+      </c>
+      <c r="H1096">
+        <f t="shared" si="144"/>
+        <v>1094</v>
+      </c>
+      <c r="I1096">
+        <f>SUM($F$3:F1096)/H1096</f>
+        <v>4208190.0351062613</v>
+      </c>
+      <c r="N1096">
+        <f t="shared" si="141"/>
+        <v>1.1139999628067017</v>
+      </c>
+      <c r="O1096">
+        <f t="shared" si="142"/>
+        <v>1.0360000133514404</v>
+      </c>
+      <c r="P1096">
+        <f t="shared" si="143"/>
+        <v>1.0750000079472859</v>
+      </c>
+      <c r="Q1096">
+        <f t="shared" si="132"/>
+        <v>1.0628333347184318</v>
+      </c>
+      <c r="R1096">
+        <f t="shared" si="133"/>
+        <v>1.2166673228854119E-2</v>
+      </c>
+      <c r="S1096">
+        <f t="shared" si="134"/>
+        <v>8.6666621318479686E-3</v>
+      </c>
+      <c r="T1096">
+        <f t="shared" si="135"/>
+        <v>1.2999993197771953E-4</v>
+      </c>
+      <c r="U1096">
+        <f t="shared" si="136"/>
+        <v>93.589843038835937</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1097" s="1">
+        <v>46020</v>
+      </c>
+      <c r="B1097">
+        <v>1.0700000524520874</v>
+      </c>
+      <c r="C1097">
+        <v>1.0789999961853027</v>
+      </c>
+      <c r="D1097">
+        <v>1.0690000057220459</v>
+      </c>
+      <c r="E1097">
+        <v>1.0690000057220459</v>
+      </c>
+      <c r="F1097">
+        <v>1370500</v>
+      </c>
+      <c r="G1097">
+        <v>13705</v>
+      </c>
+      <c r="H1097">
+        <f t="shared" si="144"/>
+        <v>1095</v>
+      </c>
+      <c r="I1097">
+        <f>SUM($F$3:F1097)/H1097</f>
+        <v>4205598.5373573061</v>
+      </c>
+      <c r="N1097">
+        <f t="shared" si="141"/>
+        <v>1.1139999628067017</v>
+      </c>
+      <c r="O1097">
+        <f t="shared" si="142"/>
+        <v>1.0360000133514404</v>
+      </c>
+      <c r="P1097">
+        <f t="shared" si="143"/>
+        <v>1.0723333358764648</v>
+      </c>
+      <c r="Q1097">
+        <f t="shared" si="132"/>
+        <v>1.0629761928603763</v>
+      </c>
+      <c r="R1097">
+        <f t="shared" si="133"/>
+        <v>9.3571430160885871E-3</v>
+      </c>
+      <c r="S1097">
+        <f t="shared" si="134"/>
+        <v>8.7891119678004271E-3</v>
+      </c>
+      <c r="T1097">
+        <f t="shared" si="135"/>
+        <v>1.3183667951700641E-4</v>
+      </c>
+      <c r="U1097">
+        <f t="shared" si="136"/>
+        <v>70.975263108637023</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1098" s="1">
+        <v>46021</v>
+      </c>
+      <c r="B1098">
+        <v>1.0690000057220459</v>
+      </c>
+      <c r="C1098">
+        <v>1.0770000219345093</v>
+      </c>
+      <c r="D1098">
+        <v>1.0690000057220459</v>
+      </c>
+      <c r="E1098">
+        <v>1.0759999752044678</v>
+      </c>
+      <c r="F1098">
+        <v>1035201</v>
+      </c>
+      <c r="G1098">
+        <v>10352.009765625</v>
+      </c>
+      <c r="H1098">
+        <f t="shared" si="144"/>
+        <v>1096</v>
+      </c>
+      <c r="I1098">
+        <f>SUM($F$3:F1098)/H1098</f>
+        <v>4202705.8388743158</v>
+      </c>
+      <c r="N1098">
+        <f t="shared" si="141"/>
+        <v>1.1139999628067017</v>
+      </c>
+      <c r="O1098">
+        <f t="shared" si="142"/>
+        <v>1.0360000133514404</v>
+      </c>
+      <c r="P1098">
+        <f t="shared" si="143"/>
+        <v>1.0740000009536743</v>
+      </c>
+      <c r="Q1098">
+        <f t="shared" si="132"/>
+        <v>1.0635238119534083</v>
+      </c>
+      <c r="R1098">
+        <f t="shared" si="133"/>
+        <v>1.0476189000266034E-2</v>
+      </c>
+      <c r="S1098">
+        <f t="shared" si="134"/>
+        <v>9.2584997618279565E-3</v>
+      </c>
+      <c r="T1098">
+        <f t="shared" si="135"/>
+        <v>1.3887749642741933E-4</v>
+      </c>
+      <c r="U1098">
+        <f t="shared" si="136"/>
+        <v>75.434748391659966</v>
       </c>
     </row>
   </sheetData>

--- a/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
+++ b/lai/valuationquan/HwabaoWPszseinnovation100ETF.xlsx
@@ -461,10 +461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U1098"/>
+  <dimension ref="A1:U1099"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1076" workbookViewId="0">
-      <selection activeCell="A1099" sqref="A1099"/>
+    <sheetView tabSelected="1" topLeftCell="A1087" workbookViewId="0">
+      <selection activeCell="A1100" sqref="A1100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4001,7 +4001,7 @@
         <v>-17.523056653491331</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44449</v>
       </c>
@@ -4031,6 +4031,12 @@
         <f>SUM($F$3:F57)/H57</f>
         <v>19042872.763636362</v>
       </c>
+      <c r="K57" s="2">
+        <v>46052</v>
+      </c>
+      <c r="L57" s="2">
+        <v>46027</v>
+      </c>
       <c r="N57">
         <f t="shared" si="11"/>
         <v>0.98799999999999999</v>
@@ -65784,23 +65790,23 @@
         <v>1.0699999729792278</v>
       </c>
       <c r="Q1037">
-        <f t="shared" ref="Q1037:Q1098" si="132">SUM(P1024:P1037)/14</f>
+        <f t="shared" ref="Q1037:Q1099" si="132">SUM(P1024:P1037)/14</f>
         <v>1.0372619047051386</v>
       </c>
       <c r="R1037">
-        <f t="shared" ref="R1037:R1098" si="133">P1037-Q1037</f>
+        <f t="shared" ref="R1037:R1099" si="133">P1037-Q1037</f>
         <v>3.2738068274089205E-2</v>
       </c>
       <c r="S1037">
-        <f t="shared" ref="S1037:S1098" si="134">AVEDEV(P1024:P1037)</f>
+        <f t="shared" ref="S1037:S1099" si="134">AVEDEV(P1024:P1037)</f>
         <v>2.2748304062149134E-2</v>
       </c>
       <c r="T1037">
-        <f t="shared" ref="T1037:T1098" si="135">0.015*S1037</f>
+        <f t="shared" ref="T1037:T1099" si="135">0.015*S1037</f>
         <v>3.4122456093223696E-4</v>
       </c>
       <c r="U1037">
-        <f t="shared" ref="U1037:U1098" si="136">R1037/T1037</f>
+        <f t="shared" ref="U1037:U1099" si="136">R1037/T1037</f>
         <v>95.942883433266658</v>
       </c>
     </row>
@@ -68292,11 +68298,11 @@
         <v>4253528.2101453487</v>
       </c>
       <c r="N1077">
-        <f t="shared" ref="N1077:N1098" si="141">IF(A1077&lt;&gt;$K$56,MAX(N1076,VLOOKUP(A1077,A:C,3)),)</f>
+        <f t="shared" ref="N1077:N1099" si="141">IF(A1077&lt;&gt;$K$56,MAX(N1076,VLOOKUP(A1077,A:C,3)),)</f>
         <v>1.0570000410079956</v>
       </c>
       <c r="O1077">
-        <f t="shared" ref="O1077:O1098" si="142">IF(A1077&lt;&gt;$K$56,MIN(O1076,VLOOKUP(A1077,A:D,4)),)</f>
+        <f t="shared" ref="O1077:O1099" si="142">IF(A1077&lt;&gt;$K$56,MIN(O1076,VLOOKUP(A1077,A:D,4)),)</f>
         <v>1.0429999828338623</v>
       </c>
       <c r="P1077">
@@ -68930,7 +68936,7 @@
         <v>1.0379999876022339</v>
       </c>
       <c r="P1087">
-        <f t="shared" ref="P1087:P1098" si="143">(C1087+D1087+E1087)/3</f>
+        <f t="shared" ref="P1087:P1099" si="143">(C1087+D1087+E1087)/3</f>
         <v>1.0546666781107585</v>
       </c>
       <c r="Q1087">
@@ -69040,7 +69046,7 @@
         <v>16744.029296875</v>
       </c>
       <c r="H1089">
-        <f t="shared" ref="H1089:H1098" si="144">H1088+1</f>
+        <f t="shared" ref="H1089:H1099" si="144">H1088+1</f>
         <v>1087</v>
       </c>
       <c r="I1089">
@@ -69645,6 +69651,69 @@
       <c r="U1098">
         <f t="shared" si="136"/>
         <v>75.434748391659966</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1099" s="1">
+        <v>46022</v>
+      </c>
+      <c r="B1099">
+        <v>1.0729999542236328</v>
+      </c>
+      <c r="C1099">
+        <v>1.0800000429153442</v>
+      </c>
+      <c r="D1099">
+        <v>1.0640000104904175</v>
+      </c>
+      <c r="E1099">
+        <v>1.0640000104904175</v>
+      </c>
+      <c r="F1099">
+        <v>1780809</v>
+      </c>
+      <c r="G1099">
+        <v>17808.08984375</v>
+      </c>
+      <c r="H1099">
+        <f t="shared" si="144"/>
+        <v>1097</v>
+      </c>
+      <c r="I1099">
+        <f>SUM($F$3:F1099)/H1099</f>
+        <v>4200498.0933511853</v>
+      </c>
+      <c r="N1099">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="O1099">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="P1099">
+        <f t="shared" si="143"/>
+        <v>1.0693333546320598</v>
+      </c>
+      <c r="Q1099">
+        <f t="shared" si="132"/>
+        <v>1.0638809573082697</v>
+      </c>
+      <c r="R1099">
+        <f t="shared" si="133"/>
+        <v>5.4523973237901036E-3</v>
+      </c>
+      <c r="S1099">
+        <f t="shared" si="134"/>
+        <v>9.5646243517090637E-3</v>
+      </c>
+      <c r="T1099">
+        <f t="shared" si="135"/>
+        <v>1.4346936527563596E-4</v>
+      </c>
+      <c r="U1099">
+        <f t="shared" si="136"/>
+        <v>38.003913332402767</v>
       </c>
     </row>
   </sheetData>
